--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="465" windowWidth="21840" windowHeight="9615" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="465" windowWidth="21840" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -17,20 +17,23 @@
     <sheet name="05-16" sheetId="10" r:id="rId8"/>
     <sheet name="06-16" sheetId="11" r:id="rId9"/>
     <sheet name="08-16" sheetId="12" r:id="rId10"/>
+    <sheet name="09-16" sheetId="13" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="8" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="9" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'04-16'!$A$3:$S$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'05-16'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'06-16'!$A$3:$S$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'08-16'!$A$3:$S$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'09-16'!$A$3:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$92</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
     <definedName name="DS">TH!$A$4:$Q$91</definedName>
@@ -44,6 +47,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'05-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'06-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'08-16'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="10">'09-16'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -73,8 +77,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User 1</author>
+  </authors>
+  <commentList>
+    <comment ref="R4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 Tháng sau 3.5%
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="360">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -1649,6 +1677,24 @@
   </si>
   <si>
     <t>MKH: PB06030022841- Tiền điện kỳ 3 tháng 08 năm 2016</t>
+  </si>
+  <si>
+    <t>1025 037000 1643</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 1 tháng 09 năm 2016</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm T07/2016</t>
+  </si>
+  <si>
+    <t>1020 1000 0081 797</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm T07&amp;08/2016</t>
+  </si>
+  <si>
+    <t>PB16010048099 - Thanh toán tiền điện kỳ 1&amp;2 tháng 09 năm 2016</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2494,7 @@
     <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3109,6 +3155,18 @@
     </xf>
     <xf numFmtId="43" fontId="44" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3547,17 +3605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="G58" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
+      <selection pane="bottomRight" activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3637,39 +3695,39 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="B2" s="253" t="s">
+      <c r="B2" s="257" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="250" t="s">
+      <c r="C2" s="254" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="251"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="250" t="s">
+      <c r="D2" s="255"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="254" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="245" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="249" t="s">
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="256"/>
+      <c r="N2" s="249" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="253" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="247" t="s">
+      <c r="P2" s="253"/>
+      <c r="Q2" s="251" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="59" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="246"/>
+      <c r="B3" s="250"/>
       <c r="C3" s="60" t="s">
         <v>14</v>
       </c>
@@ -3703,17 +3761,17 @@
       <c r="M3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="246"/>
+      <c r="N3" s="250"/>
       <c r="O3" s="61" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="248"/>
+      <c r="Q3" s="252"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:18" ht="18.75" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3762,7 +3820,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:18" ht="18.75" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3811,7 +3869,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:18" ht="18.75" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3860,7 +3918,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:18" ht="18.75" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3909,7 +3967,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3958,7 +4016,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" ht="18.75" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4007,7 +4065,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="55" t="str">
         <f>IF(AND(C10="pv",E10='UNC - PV'!$S$2,D10='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C10,3)="eib",E10='UNC - EIB'!$V$2,D10='UNC - EIB'!$T$2),"x1",IF(AND(C10="pv",E10='LC - PV'!$R$2,D10='LC - PV'!$P$2),"x2",IF(AND(LEFT(C10,3)="eib",E10='LC - EIB'!$U$2,D10='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x2</v>
@@ -4058,7 +4116,7 @@
         <v>p2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="55" t="str">
         <f>IF(AND(C11="pv",E11='UNC - PV'!$S$2,D11='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C11,3)="eib",E11='UNC - EIB'!$V$2,D11='UNC - EIB'!$T$2),"x1",IF(AND(C11="pv",E11='LC - PV'!$R$2,D11='LC - PV'!$P$2),"x2",IF(AND(LEFT(C11,3)="eib",E11='LC - EIB'!$U$2,D11='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4107,7 +4165,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:18" ht="18.75" customHeight="1">
       <c r="A12" s="55" t="str">
         <f>IF(AND(C12="pv",E12='UNC - PV'!$S$2,D12='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C12,3)="eib",E12='UNC - EIB'!$V$2,D12='UNC - EIB'!$T$2),"x1",IF(AND(C12="pv",E12='LC - PV'!$R$2,D12='LC - PV'!$P$2),"x2",IF(AND(LEFT(C12,3)="eib",E12='LC - EIB'!$U$2,D12='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x3</v>
@@ -4158,7 +4216,7 @@
         <v>e2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:18" ht="18.75" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4207,7 +4265,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4256,7 +4314,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:18" ht="18.75" customHeight="1">
       <c r="A15" s="55" t="str">
         <f>IF(AND(C15="pv",E15='UNC - PV'!$S$2,D15='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C15,3)="eib",E15='UNC - EIB'!$V$2,D15='UNC - EIB'!$T$2),"x1",IF(AND(C15="pv",E15='LC - PV'!$R$2,D15='LC - PV'!$P$2),"x2",IF(AND(LEFT(C15,3)="eib",E15='LC - EIB'!$U$2,D15='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4305,7 +4363,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4354,7 +4412,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:18" ht="18.75" customHeight="1">
       <c r="A17" s="55" t="str">
         <f>IF(AND(C17="pv",E17='UNC - PV'!$S$2,D17='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C17,3)="eib",E17='UNC - EIB'!$V$2,D17='UNC - EIB'!$T$2),"x1",IF(AND(C17="pv",E17='LC - PV'!$R$2,D17='LC - PV'!$P$2),"x2",IF(AND(LEFT(C17,3)="eib",E17='LC - EIB'!$U$2,D17='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4403,7 +4461,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:18" ht="18.75" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4452,7 +4510,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:18" ht="18.75" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4501,7 +4559,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:18" ht="18.75" customHeight="1">
       <c r="A20" s="55" t="str">
         <f>IF(AND(C20="pv",E20='UNC - PV'!$S$2,D20='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C20,3)="eib",E20='UNC - EIB'!$V$2,D20='UNC - EIB'!$T$2),"x1",IF(AND(C20="pv",E20='LC - PV'!$R$2,D20='LC - PV'!$P$2),"x2",IF(AND(LEFT(C20,3)="eib",E20='LC - EIB'!$U$2,D20='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4550,7 +4608,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:18" ht="18.75" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4599,7 +4657,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:18" ht="18.75" customHeight="1">
       <c r="A22" s="55" t="str">
         <f>IF(AND(C22="pv",E22='UNC - PV'!$S$2,D22='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C22,3)="eib",E22='UNC - EIB'!$V$2,D22='UNC - EIB'!$T$2),"x1",IF(AND(C22="pv",E22='LC - PV'!$R$2,D22='LC - PV'!$P$2),"x2",IF(AND(LEFT(C22,3)="eib",E22='LC - EIB'!$U$2,D22='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4648,7 +4706,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" ht="18.75" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4697,7 +4755,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:18" ht="18.75" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4746,7 +4804,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:18" ht="18.75" customHeight="1">
       <c r="A25" s="55" t="str">
         <f>IF(AND(C25="pv",E25='UNC - PV'!$S$2,D25='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C25,3)="eib",E25='UNC - EIB'!$V$2,D25='UNC - EIB'!$T$2),"x1",IF(AND(C25="pv",E25='LC - PV'!$R$2,D25='LC - PV'!$P$2),"x2",IF(AND(LEFT(C25,3)="eib",E25='LC - EIB'!$U$2,D25='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5090,7 +5148,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:18" ht="18.75" customHeight="1">
       <c r="A32" s="55" t="str">
         <f>IF(AND(C32="pv",E32='UNC - PV'!$S$2,D32='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C32,3)="eib",E32='UNC - EIB'!$V$2,D32='UNC - EIB'!$T$2),"x1",IF(AND(C32="pv",E32='LC - PV'!$R$2,D32='LC - PV'!$P$2),"x2",IF(AND(LEFT(C32,3)="eib",E32='LC - EIB'!$U$2,D32='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5139,7 +5197,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:18" ht="18.75" customHeight="1">
       <c r="A33" s="55" t="str">
         <f>IF(AND(C33="pv",E33='UNC - PV'!$S$2,D33='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C33,3)="eib",E33='UNC - EIB'!$V$2,D33='UNC - EIB'!$T$2),"x1",IF(AND(C33="pv",E33='LC - PV'!$R$2,D33='LC - PV'!$P$2),"x2",IF(AND(LEFT(C33,3)="eib",E33='LC - EIB'!$U$2,D33='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5188,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:18" ht="18.75" customHeight="1">
       <c r="A34" s="55" t="str">
         <f>IF(AND(C34="pv",E34='UNC - PV'!$S$2,D34='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C34,3)="eib",E34='UNC - EIB'!$V$2,D34='UNC - EIB'!$T$2),"x1",IF(AND(C34="pv",E34='LC - PV'!$R$2,D34='LC - PV'!$P$2),"x2",IF(AND(LEFT(C34,3)="eib",E34='LC - EIB'!$U$2,D34='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5237,7 +5295,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:18" ht="18.75" customHeight="1">
       <c r="A35" s="55" t="str">
         <f>IF(AND(C35="pv",E35='UNC - PV'!$S$2,D35='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C35,3)="eib",E35='UNC - EIB'!$V$2,D35='UNC - EIB'!$T$2),"x1",IF(AND(C35="pv",E35='LC - PV'!$R$2,D35='LC - PV'!$P$2),"x2",IF(AND(LEFT(C35,3)="eib",E35='LC - EIB'!$U$2,D35='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5286,7 +5344,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:18" ht="18.75" customHeight="1">
       <c r="A36" s="55" t="str">
         <f>IF(AND(C36="pv",E36='UNC - PV'!$S$2,D36='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C36,3)="eib",E36='UNC - EIB'!$V$2,D36='UNC - EIB'!$T$2),"x1",IF(AND(C36="pv",E36='LC - PV'!$R$2,D36='LC - PV'!$P$2),"x2",IF(AND(LEFT(C36,3)="eib",E36='LC - EIB'!$U$2,D36='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5335,7 +5393,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:18" ht="18.75" customHeight="1">
       <c r="A37" s="55" t="str">
         <f>IF(AND(C37="pv",E37='UNC - PV'!$S$2,D37='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C37,3)="eib",E37='UNC - EIB'!$V$2,D37='UNC - EIB'!$T$2),"x1",IF(AND(C37="pv",E37='LC - PV'!$R$2,D37='LC - PV'!$P$2),"x2",IF(AND(LEFT(C37,3)="eib",E37='LC - EIB'!$U$2,D37='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5433,7 +5491,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:18" ht="18.75" customHeight="1">
       <c r="A39" s="55" t="str">
         <f>IF(AND(C39="pv",E39='UNC - PV'!$S$2,D39='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C39,3)="eib",E39='UNC - EIB'!$V$2,D39='UNC - EIB'!$T$2),"x1",IF(AND(C39="pv",E39='LC - PV'!$R$2,D39='LC - PV'!$P$2),"x2",IF(AND(LEFT(C39,3)="eib",E39='LC - EIB'!$U$2,D39='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5923,7 +5981,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:18" ht="18.75" customHeight="1">
       <c r="A49" s="55" t="str">
         <f>IF(AND(C49="pv",E49='UNC - PV'!$S$2,D49='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C49,3)="eib",E49='UNC - EIB'!$V$2,D49='UNC - EIB'!$T$2),"x1",IF(AND(C49="pv",E49='LC - PV'!$R$2,D49='LC - PV'!$P$2),"x2",IF(AND(LEFT(C49,3)="eib",E49='LC - EIB'!$U$2,D49='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5972,7 +6030,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:18" ht="18.75" customHeight="1">
       <c r="A50" s="55" t="str">
         <f>IF(AND(C50="pv",E50='UNC - PV'!$S$2,D50='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C50,3)="eib",E50='UNC - EIB'!$V$2,D50='UNC - EIB'!$T$2),"x1",IF(AND(C50="pv",E50='LC - PV'!$R$2,D50='LC - PV'!$P$2),"x2",IF(AND(LEFT(C50,3)="eib",E50='LC - EIB'!$U$2,D50='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6070,7 +6128,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:18" ht="18.75" customHeight="1">
       <c r="A52" s="55" t="str">
         <f>IF(AND(C52="pv",E52='UNC - PV'!$S$2,D52='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C52,3)="eib",E52='UNC - EIB'!$V$2,D52='UNC - EIB'!$T$2),"x1",IF(AND(C52="pv",E52='LC - PV'!$R$2,D52='LC - PV'!$P$2),"x2",IF(AND(LEFT(C52,3)="eib",E52='LC - EIB'!$U$2,D52='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6462,7 +6520,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="60" spans="1:18" ht="18.75" customHeight="1">
       <c r="A60" s="55" t="str">
         <f>IF(AND(C60="pv",E60='UNC - PV'!$S$2,D60='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C60,3)="eib",E60='UNC - EIB'!$V$2,D60='UNC - EIB'!$T$2),"x1",IF(AND(C60="pv",E60='LC - PV'!$R$2,D60='LC - PV'!$P$2),"x2",IF(AND(LEFT(C60,3)="eib",E60='LC - EIB'!$U$2,D60='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6511,7 +6569,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" s="243" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="61" spans="1:18" s="243" customFormat="1" ht="18.75" customHeight="1">
       <c r="A61" s="234" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6552,10 +6610,10 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="62" spans="1:18" ht="18.75" customHeight="1">
       <c r="A62" s="55" t="str">
         <f>IF(AND(C62="pv",E62='UNC - PV'!$S$2,D62='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C62,3)="eib",E62='UNC - EIB'!$V$2,D62='UNC - EIB'!$T$2),"x1",IF(AND(C62="pv",E62='LC - PV'!$R$2,D62='LC - PV'!$P$2),"x2",IF(AND(LEFT(C62,3)="eib",E62='LC - EIB'!$U$2,D62='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B62" s="62">
         <f t="shared" si="2"/>
@@ -6598,155 +6656,256 @@
       </c>
       <c r="R62" s="106" t="str">
         <f>IF(AND(C62="pv",D62='UNC - PV'!$Q$2,LEFT(E62,1)="u",'UNC - PV'!$O$2="vnđ",TH!P62&lt;&gt;""),"p",IF(AND(C62="pv",D62='UNC - PV'!$Q$2,LEFT(E62,1)="u",'UNC - PV'!$O$2="usd",TH!O62&lt;&gt;""),"p1",IF(AND(C62="pv",D62='LC - PV'!$P$2,LEFT(E62,1)="l"),"p2",IF(AND(LEFT(C62,3)="EIB",D62='UNC - EIB'!$T$2,LEFT(E62,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P62&lt;&gt;""),"e",IF(AND(LEFT(C62,3)="EIB",D62='UNC - EIB'!$T$2,LEFT(E62,1)="U",'UNC - EIB'!$R$2="usd",TH!O62&lt;&gt;""),"e1",IF(AND(LEFT(C62,3)="EIB",D62='LC - EIB'!$S$2,LEFT(E62,1)="l"),"e2",""))))))</f>
-        <v>p</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="18.75" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B63" s="62" t="str">
+      <c r="B63" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C63" s="62"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-      <c r="I63" s="65"/>
+        <v>60</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="67">
+        <v>42635</v>
+      </c>
+      <c r="E63" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H63" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J63" s="66"/>
       <c r="K63" s="67"/>
       <c r="L63" s="65"/>
       <c r="M63" s="65"/>
-      <c r="N63" s="64"/>
+      <c r="N63" s="64" t="s">
+        <v>355</v>
+      </c>
       <c r="O63" s="68"/>
-      <c r="P63" s="69"/>
-      <c r="Q63" s="104"/>
+      <c r="P63" s="69">
+        <v>21641290</v>
+      </c>
+      <c r="Q63" s="104" t="s">
+        <v>194</v>
+      </c>
       <c r="R63" s="106" t="str">
         <f>IF(AND(C63="pv",D63='UNC - PV'!$Q$2,LEFT(E63,1)="u",'UNC - PV'!$O$2="vnđ",TH!P63&lt;&gt;""),"p",IF(AND(C63="pv",D63='UNC - PV'!$Q$2,LEFT(E63,1)="u",'UNC - PV'!$O$2="usd",TH!O63&lt;&gt;""),"p1",IF(AND(C63="pv",D63='LC - PV'!$P$2,LEFT(E63,1)="l"),"p2",IF(AND(LEFT(C63,3)="EIB",D63='UNC - EIB'!$T$2,LEFT(E63,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P63&lt;&gt;""),"e",IF(AND(LEFT(C63,3)="EIB",D63='UNC - EIB'!$T$2,LEFT(E63,1)="U",'UNC - EIB'!$R$2="usd",TH!O63&lt;&gt;""),"e1",IF(AND(LEFT(C63,3)="EIB",D63='LC - EIB'!$S$2,LEFT(E63,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="64" spans="1:18" ht="18.75" customHeight="1">
       <c r="A64" s="55" t="str">
         <f>IF(AND(C64="pv",E64='UNC - PV'!$S$2,D64='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C64,3)="eib",E64='UNC - EIB'!$V$2,D64='UNC - EIB'!$T$2),"x1",IF(AND(C64="pv",E64='LC - PV'!$R$2,D64='LC - PV'!$P$2),"x2",IF(AND(LEFT(C64,3)="eib",E64='LC - EIB'!$U$2,D64='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B64" s="62" t="str">
+      <c r="B64" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
-      <c r="I64" s="65"/>
+        <v>61</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="67">
+        <v>42635</v>
+      </c>
+      <c r="E64" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="71" t="s">
+        <v>357</v>
+      </c>
+      <c r="H64" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="I64" s="107" t="s">
+        <v>10</v>
+      </c>
       <c r="J64" s="66"/>
       <c r="K64" s="67"/>
       <c r="L64" s="65"/>
       <c r="M64" s="65"/>
-      <c r="N64" s="64"/>
+      <c r="N64" s="64" t="s">
+        <v>356</v>
+      </c>
       <c r="O64" s="68"/>
-      <c r="P64" s="69"/>
-      <c r="Q64" s="104"/>
+      <c r="P64" s="69">
+        <v>1663000</v>
+      </c>
+      <c r="Q64" s="104" t="s">
+        <v>194</v>
+      </c>
       <c r="R64" s="106" t="str">
         <f>IF(AND(C64="pv",D64='UNC - PV'!$Q$2,LEFT(E64,1)="u",'UNC - PV'!$O$2="vnđ",TH!P64&lt;&gt;""),"p",IF(AND(C64="pv",D64='UNC - PV'!$Q$2,LEFT(E64,1)="u",'UNC - PV'!$O$2="usd",TH!O64&lt;&gt;""),"p1",IF(AND(C64="pv",D64='LC - PV'!$P$2,LEFT(E64,1)="l"),"p2",IF(AND(LEFT(C64,3)="EIB",D64='UNC - EIB'!$T$2,LEFT(E64,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P64&lt;&gt;""),"e",IF(AND(LEFT(C64,3)="EIB",D64='UNC - EIB'!$T$2,LEFT(E64,1)="U",'UNC - EIB'!$R$2="usd",TH!O64&lt;&gt;""),"e1",IF(AND(LEFT(C64,3)="EIB",D64='LC - EIB'!$S$2,LEFT(E64,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="65" spans="1:18" ht="18.75" customHeight="1">
       <c r="A65" s="55" t="str">
         <f>IF(AND(C65="pv",E65='UNC - PV'!$S$2,D65='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C65,3)="eib",E65='UNC - EIB'!$V$2,D65='UNC - EIB'!$T$2),"x1",IF(AND(C65="pv",E65='LC - PV'!$R$2,D65='LC - PV'!$P$2),"x2",IF(AND(LEFT(C65,3)="eib",E65='LC - EIB'!$U$2,D65='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B65" s="62" t="str">
+      <c r="B65" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-      <c r="I65" s="65"/>
+        <v>62</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="67">
+        <v>42635</v>
+      </c>
+      <c r="E65" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G65" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="H65" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" s="107" t="s">
+        <v>10</v>
+      </c>
       <c r="J65" s="66"/>
       <c r="K65" s="67"/>
       <c r="L65" s="65"/>
       <c r="M65" s="65"/>
-      <c r="N65" s="64"/>
+      <c r="N65" s="64" t="s">
+        <v>358</v>
+      </c>
       <c r="O65" s="68"/>
-      <c r="P65" s="69"/>
-      <c r="Q65" s="104"/>
+      <c r="P65" s="69">
+        <v>27700000</v>
+      </c>
+      <c r="Q65" s="104" t="s">
+        <v>194</v>
+      </c>
       <c r="R65" s="106" t="str">
         <f>IF(AND(C65="pv",D65='UNC - PV'!$Q$2,LEFT(E65,1)="u",'UNC - PV'!$O$2="vnđ",TH!P65&lt;&gt;""),"p",IF(AND(C65="pv",D65='UNC - PV'!$Q$2,LEFT(E65,1)="u",'UNC - PV'!$O$2="usd",TH!O65&lt;&gt;""),"p1",IF(AND(C65="pv",D65='LC - PV'!$P$2,LEFT(E65,1)="l"),"p2",IF(AND(LEFT(C65,3)="EIB",D65='UNC - EIB'!$T$2,LEFT(E65,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P65&lt;&gt;""),"e",IF(AND(LEFT(C65,3)="EIB",D65='UNC - EIB'!$T$2,LEFT(E65,1)="U",'UNC - EIB'!$R$2="usd",TH!O65&lt;&gt;""),"e1",IF(AND(LEFT(C65,3)="EIB",D65='LC - EIB'!$S$2,LEFT(E65,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:18" ht="18.75" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B66" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B66" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C66" s="62"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="65"/>
+        <v>63</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D66" s="67">
+        <v>42642</v>
+      </c>
+      <c r="E66" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="107" t="s">
+        <v>10</v>
+      </c>
       <c r="J66" s="66"/>
       <c r="K66" s="67"/>
       <c r="L66" s="65"/>
       <c r="M66" s="65"/>
-      <c r="N66" s="64"/>
+      <c r="N66" s="109" t="s">
+        <v>135</v>
+      </c>
       <c r="O66" s="68"/>
-      <c r="P66" s="69"/>
-      <c r="Q66" s="104"/>
+      <c r="P66" s="69">
+        <v>60000000</v>
+      </c>
+      <c r="Q66" s="104" t="s">
+        <v>194</v>
+      </c>
       <c r="R66" s="106" t="str">
         <f>IF(AND(C66="pv",D66='UNC - PV'!$Q$2,LEFT(E66,1)="u",'UNC - PV'!$O$2="vnđ",TH!P66&lt;&gt;""),"p",IF(AND(C66="pv",D66='UNC - PV'!$Q$2,LEFT(E66,1)="u",'UNC - PV'!$O$2="usd",TH!O66&lt;&gt;""),"p1",IF(AND(C66="pv",D66='LC - PV'!$P$2,LEFT(E66,1)="l"),"p2",IF(AND(LEFT(C66,3)="EIB",D66='UNC - EIB'!$T$2,LEFT(E66,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P66&lt;&gt;""),"e",IF(AND(LEFT(C66,3)="EIB",D66='UNC - EIB'!$T$2,LEFT(E66,1)="U",'UNC - EIB'!$R$2="usd",TH!O66&lt;&gt;""),"e1",IF(AND(LEFT(C66,3)="EIB",D66='LC - EIB'!$S$2,LEFT(E66,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+        <v>p</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="18.75" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B67" s="62" t="str">
+        <v>x1</v>
+      </c>
+      <c r="B67" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-      <c r="I67" s="65"/>
+        <v>64</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="67">
+        <v>42642</v>
+      </c>
+      <c r="E67" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="H67" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="I67" s="112" t="s">
+        <v>161</v>
+      </c>
       <c r="J67" s="66"/>
       <c r="K67" s="67"/>
       <c r="L67" s="65"/>
       <c r="M67" s="65"/>
-      <c r="N67" s="64"/>
+      <c r="N67" s="117" t="s">
+        <v>359</v>
+      </c>
       <c r="O67" s="68"/>
-      <c r="P67" s="69"/>
-      <c r="Q67" s="104"/>
+      <c r="P67" s="69">
+        <f>41688680+46359940</f>
+        <v>88048620</v>
+      </c>
+      <c r="Q67" s="115" t="s">
+        <v>195</v>
+      </c>
       <c r="R67" s="106" t="str">
         <f>IF(AND(C67="pv",D67='UNC - PV'!$Q$2,LEFT(E67,1)="u",'UNC - PV'!$O$2="vnđ",TH!P67&lt;&gt;""),"p",IF(AND(C67="pv",D67='UNC - PV'!$Q$2,LEFT(E67,1)="u",'UNC - PV'!$O$2="usd",TH!O67&lt;&gt;""),"p1",IF(AND(C67="pv",D67='LC - PV'!$P$2,LEFT(E67,1)="l"),"p2",IF(AND(LEFT(C67,3)="EIB",D67='UNC - EIB'!$T$2,LEFT(E67,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P67&lt;&gt;""),"e",IF(AND(LEFT(C67,3)="EIB",D67='UNC - EIB'!$T$2,LEFT(E67,1)="U",'UNC - EIB'!$R$2="usd",TH!O67&lt;&gt;""),"e1",IF(AND(LEFT(C67,3)="EIB",D67='LC - EIB'!$S$2,LEFT(E67,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="18.75" customHeight="1">
       <c r="A68" s="55" t="str">
         <f>IF(AND(C68="pv",E68='UNC - PV'!$S$2,D68='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C68,3)="eib",E68='UNC - EIB'!$V$2,D68='UNC - EIB'!$T$2),"x1",IF(AND(C68="pv",E68='LC - PV'!$R$2,D68='LC - PV'!$P$2),"x2",IF(AND(LEFT(C68,3)="eib",E68='LC - EIB'!$U$2,D68='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6775,7 +6934,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="69" spans="1:18" ht="18.75" customHeight="1">
       <c r="A69" s="55" t="str">
         <f>IF(AND(C69="pv",E69='UNC - PV'!$S$2,D69='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C69,3)="eib",E69='UNC - EIB'!$V$2,D69='UNC - EIB'!$T$2),"x1",IF(AND(C69="pv",E69='LC - PV'!$R$2,D69='LC - PV'!$P$2),"x2",IF(AND(LEFT(C69,3)="eib",E69='LC - EIB'!$U$2,D69='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6804,7 +6963,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:18" ht="18.75" customHeight="1">
       <c r="A70" s="55" t="str">
         <f>IF(AND(C70="pv",E70='UNC - PV'!$S$2,D70='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C70,3)="eib",E70='UNC - EIB'!$V$2,D70='UNC - EIB'!$T$2),"x1",IF(AND(C70="pv",E70='LC - PV'!$R$2,D70='LC - PV'!$P$2),"x2",IF(AND(LEFT(C70,3)="eib",E70='LC - EIB'!$U$2,D70='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6833,7 +6992,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="71" spans="1:18" ht="18.75" customHeight="1">
       <c r="A71" s="55" t="str">
         <f>IF(AND(C71="pv",E71='UNC - PV'!$S$2,D71='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C71,3)="eib",E71='UNC - EIB'!$V$2,D71='UNC - EIB'!$T$2),"x1",IF(AND(C71="pv",E71='LC - PV'!$R$2,D71='LC - PV'!$P$2),"x2",IF(AND(LEFT(C71,3)="eib",E71='LC - EIB'!$U$2,D71='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6862,7 +7021,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="72" spans="1:18" ht="18.75" customHeight="1">
       <c r="A72" s="55" t="str">
         <f>IF(AND(C72="pv",E72='UNC - PV'!$S$2,D72='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C72,3)="eib",E72='UNC - EIB'!$V$2,D72='UNC - EIB'!$T$2),"x1",IF(AND(C72="pv",E72='LC - PV'!$R$2,D72='LC - PV'!$P$2),"x2",IF(AND(LEFT(C72,3)="eib",E72='LC - EIB'!$U$2,D72='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6891,7 +7050,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="73" spans="1:18" ht="18.75" customHeight="1">
       <c r="A73" s="55" t="str">
         <f>IF(AND(C73="pv",E73='UNC - PV'!$S$2,D73='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C73,3)="eib",E73='UNC - EIB'!$V$2,D73='UNC - EIB'!$T$2),"x1",IF(AND(C73="pv",E73='LC - PV'!$R$2,D73='LC - PV'!$P$2),"x2",IF(AND(LEFT(C73,3)="eib",E73='LC - EIB'!$U$2,D73='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6920,7 +7079,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="74" spans="1:18" ht="18.75" customHeight="1">
       <c r="A74" s="55" t="str">
         <f>IF(AND(C74="pv",E74='UNC - PV'!$S$2,D74='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C74,3)="eib",E74='UNC - EIB'!$V$2,D74='UNC - EIB'!$T$2),"x1",IF(AND(C74="pv",E74='LC - PV'!$R$2,D74='LC - PV'!$P$2),"x2",IF(AND(LEFT(C74,3)="eib",E74='LC - EIB'!$U$2,D74='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6949,7 +7108,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="75" spans="1:18" ht="18.75" customHeight="1">
       <c r="A75" s="55" t="str">
         <f>IF(AND(C75="pv",E75='UNC - PV'!$S$2,D75='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C75,3)="eib",E75='UNC - EIB'!$V$2,D75='UNC - EIB'!$T$2),"x1",IF(AND(C75="pv",E75='LC - PV'!$R$2,D75='LC - PV'!$P$2),"x2",IF(AND(LEFT(C75,3)="eib",E75='LC - EIB'!$U$2,D75='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6978,7 +7137,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="76" spans="1:18" ht="18.75" customHeight="1">
       <c r="A76" s="55" t="str">
         <f>IF(AND(C76="pv",E76='UNC - PV'!$S$2,D76='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C76,3)="eib",E76='UNC - EIB'!$V$2,D76='UNC - EIB'!$T$2),"x1",IF(AND(C76="pv",E76='LC - PV'!$R$2,D76='LC - PV'!$P$2),"x2",IF(AND(LEFT(C76,3)="eib",E76='LC - EIB'!$U$2,D76='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7007,7 +7166,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="77" spans="1:18" ht="18.75" customHeight="1">
       <c r="A77" s="55" t="str">
         <f>IF(AND(C77="pv",E77='UNC - PV'!$S$2,D77='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C77,3)="eib",E77='UNC - EIB'!$V$2,D77='UNC - EIB'!$T$2),"x1",IF(AND(C77="pv",E77='LC - PV'!$R$2,D77='LC - PV'!$P$2),"x2",IF(AND(LEFT(C77,3)="eib",E77='LC - EIB'!$U$2,D77='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7036,7 +7195,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:18" ht="18.75" customHeight="1">
       <c r="A78" s="55" t="str">
         <f>IF(AND(C78="pv",E78='UNC - PV'!$S$2,D78='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C78,3)="eib",E78='UNC - EIB'!$V$2,D78='UNC - EIB'!$T$2),"x1",IF(AND(C78="pv",E78='LC - PV'!$R$2,D78='LC - PV'!$P$2),"x2",IF(AND(LEFT(C78,3)="eib",E78='LC - EIB'!$U$2,D78='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7065,7 +7224,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:18" ht="18.75" customHeight="1">
       <c r="A79" s="55" t="str">
         <f>IF(AND(C79="pv",E79='UNC - PV'!$S$2,D79='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C79,3)="eib",E79='UNC - EIB'!$V$2,D79='UNC - EIB'!$T$2),"x1",IF(AND(C79="pv",E79='LC - PV'!$R$2,D79='LC - PV'!$P$2),"x2",IF(AND(LEFT(C79,3)="eib",E79='LC - EIB'!$U$2,D79='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7094,7 +7253,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="80" spans="1:18" ht="18.75" customHeight="1">
       <c r="A80" s="55" t="str">
         <f>IF(AND(C80="pv",E80='UNC - PV'!$S$2,D80='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C80,3)="eib",E80='UNC - EIB'!$V$2,D80='UNC - EIB'!$T$2),"x1",IF(AND(C80="pv",E80='LC - PV'!$R$2,D80='LC - PV'!$P$2),"x2",IF(AND(LEFT(C80,3)="eib",E80='LC - EIB'!$U$2,D80='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7123,7 +7282,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:18" ht="18.75" customHeight="1">
       <c r="A81" s="55" t="str">
         <f>IF(AND(C81="pv",E81='UNC - PV'!$S$2,D81='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C81,3)="eib",E81='UNC - EIB'!$V$2,D81='UNC - EIB'!$T$2),"x1",IF(AND(C81="pv",E81='LC - PV'!$R$2,D81='LC - PV'!$P$2),"x2",IF(AND(LEFT(C81,3)="eib",E81='LC - EIB'!$U$2,D81='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7152,7 +7311,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:18" ht="18.75" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7181,7 +7340,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:18" ht="18.75" customHeight="1">
       <c r="A83" s="55" t="str">
         <f>IF(AND(C83="pv",E83='UNC - PV'!$S$2,D83='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C83,3)="eib",E83='UNC - EIB'!$V$2,D83='UNC - EIB'!$T$2),"x1",IF(AND(C83="pv",E83='LC - PV'!$R$2,D83='LC - PV'!$P$2),"x2",IF(AND(LEFT(C83,3)="eib",E83='LC - EIB'!$U$2,D83='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7210,7 +7369,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="84" spans="1:18" ht="18.75" customHeight="1">
       <c r="A84" s="55" t="str">
         <f>IF(AND(C84="pv",E84='UNC - PV'!$S$2,D84='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C84,3)="eib",E84='UNC - EIB'!$V$2,D84='UNC - EIB'!$T$2),"x1",IF(AND(C84="pv",E84='LC - PV'!$R$2,D84='LC - PV'!$P$2),"x2",IF(AND(LEFT(C84,3)="eib",E84='LC - EIB'!$U$2,D84='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7239,7 +7398,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:18" ht="18.75" customHeight="1">
       <c r="A85" s="55" t="str">
         <f>IF(AND(C85="pv",E85='UNC - PV'!$S$2,D85='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C85,3)="eib",E85='UNC - EIB'!$V$2,D85='UNC - EIB'!$T$2),"x1",IF(AND(C85="pv",E85='LC - PV'!$R$2,D85='LC - PV'!$P$2),"x2",IF(AND(LEFT(C85,3)="eib",E85='LC - EIB'!$U$2,D85='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7268,7 +7427,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="86" spans="1:18" ht="18.75" customHeight="1">
       <c r="A86" s="55" t="str">
         <f>IF(AND(C86="pv",E86='UNC - PV'!$S$2,D86='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C86,3)="eib",E86='UNC - EIB'!$V$2,D86='UNC - EIB'!$T$2),"x1",IF(AND(C86="pv",E86='LC - PV'!$R$2,D86='LC - PV'!$P$2),"x2",IF(AND(LEFT(C86,3)="eib",E86='LC - EIB'!$U$2,D86='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7297,7 +7456,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:18" ht="18.75" customHeight="1">
       <c r="A87" s="55" t="str">
         <f>IF(AND(C87="pv",E87='UNC - PV'!$S$2,D87='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C87,3)="eib",E87='UNC - EIB'!$V$2,D87='UNC - EIB'!$T$2),"x1",IF(AND(C87="pv",E87='LC - PV'!$R$2,D87='LC - PV'!$P$2),"x2",IF(AND(LEFT(C87,3)="eib",E87='LC - EIB'!$U$2,D87='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7326,7 +7485,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="88" spans="1:18" ht="18.75" customHeight="1">
       <c r="A88" s="55" t="str">
         <f>IF(AND(C88="pv",E88='UNC - PV'!$S$2,D88='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C88,3)="eib",E88='UNC - EIB'!$V$2,D88='UNC - EIB'!$T$2),"x1",IF(AND(C88="pv",E88='LC - PV'!$R$2,D88='LC - PV'!$P$2),"x2",IF(AND(LEFT(C88,3)="eib",E88='LC - EIB'!$U$2,D88='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7355,7 +7514,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:18" ht="18.75" customHeight="1">
       <c r="A89" s="55" t="str">
         <f>IF(AND(C89="pv",E89='UNC - PV'!$S$2,D89='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C89,3)="eib",E89='UNC - EIB'!$V$2,D89='UNC - EIB'!$T$2),"x1",IF(AND(C89="pv",E89='LC - PV'!$R$2,D89='LC - PV'!$P$2),"x2",IF(AND(LEFT(C89,3)="eib",E89='LC - EIB'!$U$2,D89='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7384,7 +7543,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" ht="18.75" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7413,7 +7572,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" ht="18.75" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7442,27 +7601,14 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="18.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:18" ht="18.75" customHeight="1">
       <c r="R92" s="106" t="str">
         <f>IF(AND(C92="pv",D92='UNC - PV'!$Q$2,LEFT(E92,1)="u",'UNC - PV'!$O$2="vnđ",TH!P92&lt;&gt;""),"p",IF(AND(C92="pv",D92='UNC - PV'!$Q$2,LEFT(E92,1)="u",'UNC - PV'!$O$2="usd",TH!O92&lt;&gt;""),"p1",IF(AND(C92="pv",D92='LC - PV'!$P$2,LEFT(E92,1)="l"),"p2",IF(AND(LEFT(C92,3)="EIB",D92='UNC - EIB'!$T$2,LEFT(E92,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P92&lt;&gt;""),"e",IF(AND(LEFT(C92,3)="EIB",D92='UNC - EIB'!$T$2,LEFT(E92,1)="U",'UNC - EIB'!$R$2="usd",TH!O92&lt;&gt;""),"e1",IF(AND(LEFT(C92,3)="EIB",D92='LC - EIB'!$S$2,LEFT(E92,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:X92">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="EIB-Q11"/>
-        <filter val="EIB-Q4"/>
-        <filter val="PV"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <dateGroupItem year="2016" month="8" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:X92"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -7488,12 +7634,12 @@
   </sheetPr>
   <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:B14"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -7544,47 +7690,47 @@
       <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:20" s="135" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="270" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="268" t="s">
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="272" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="269" t="s">
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="273" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="269"/>
-      <c r="M2" s="262" t="s">
+      <c r="L2" s="273"/>
+      <c r="M2" s="266" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263" t="s">
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="264" t="s">
+      <c r="S2" s="268" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="135" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="264"/>
+      <c r="A3" s="268"/>
+      <c r="B3" s="268"/>
       <c r="C3" s="136" t="s">
         <v>273</v>
       </c>
@@ -7630,8 +7776,8 @@
       <c r="Q3" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="263"/>
-      <c r="S3" s="264"/>
+      <c r="R3" s="267"/>
+      <c r="S3" s="268"/>
     </row>
     <row r="4" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="181">
@@ -7845,10 +7991,10 @@
       <c r="S8" s="200"/>
     </row>
     <row r="9" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="269" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="265"/>
+      <c r="B9" s="269"/>
       <c r="C9" s="175"/>
       <c r="D9" s="175"/>
       <c r="E9" s="176"/>
@@ -8414,10 +8560,10 @@
       <c r="S20" s="192"/>
     </row>
     <row r="21" spans="1:20" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="265" t="s">
         <v>344</v>
       </c>
-      <c r="B21" s="261"/>
+      <c r="B21" s="265"/>
       <c r="C21" s="206"/>
       <c r="D21" s="206"/>
       <c r="E21" s="176">
@@ -9313,10 +9459,10 @@
       <c r="S38" s="164"/>
     </row>
     <row r="39" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="261" t="s">
+      <c r="A39" s="265" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="261"/>
+      <c r="B39" s="265"/>
       <c r="C39" s="206"/>
       <c r="D39" s="206"/>
       <c r="E39" s="176">
@@ -9429,6 +9575,1934 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="215" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="216" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="217" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="218" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="222" customWidth="1"/>
+    <col min="7" max="7" width="8" style="218" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="220" customWidth="1"/>
+    <col min="9" max="9" width="11" style="221" customWidth="1"/>
+    <col min="10" max="10" width="10" style="221" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="218" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="222" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="223" customWidth="1"/>
+    <col min="14" max="14" width="10" style="223" customWidth="1"/>
+    <col min="15" max="15" width="9" style="223" customWidth="1"/>
+    <col min="16" max="16" width="9" style="224" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="225" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="225" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="215" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="216" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="216"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="134" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="124"/>
+      <c r="B1" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="126"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="124"/>
+    </row>
+    <row r="2" spans="1:20" s="135" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="268" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="268" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="270" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="272" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="273" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="273"/>
+      <c r="M2" s="266" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="267" t="s">
+        <v>271</v>
+      </c>
+      <c r="S2" s="268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="135" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="268"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="136" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="136" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="137" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="227" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="247" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="247" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="248" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="138" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" s="245" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="245" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" s="143" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="246" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q3" s="246" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3" s="267"/>
+      <c r="S3" s="268"/>
+    </row>
+    <row r="4" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="181">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="188" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="189">
+        <v>42552</v>
+      </c>
+      <c r="D4" s="189">
+        <v>42736</v>
+      </c>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="190"/>
+      <c r="H4" s="189"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151">
+        <f>F4-J4</f>
+        <v>43000</v>
+      </c>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162">
+        <f>IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>111.08333333333333</v>
+      </c>
+      <c r="P4" s="162">
+        <f>IF((LEFT(B4,4)="1025"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH($O$1)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="147">
+        <v>42629</v>
+      </c>
+      <c r="R4" s="229">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="192" t="s">
+        <v>290</v>
+      </c>
+      <c r="T4" s="155"/>
+    </row>
+    <row r="5" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="181">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="188" t="s">
+        <v>342</v>
+      </c>
+      <c r="C5" s="189">
+        <v>42586</v>
+      </c>
+      <c r="D5" s="189">
+        <v>42770</v>
+      </c>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162">
+        <v>52300</v>
+      </c>
+      <c r="G5" s="190"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151">
+        <f>F5-J5</f>
+        <v>52300</v>
+      </c>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162">
+        <f t="shared" ref="O5:O7" si="1">IF((LEFT(B5,4)="1402"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,IF(MONTH(C5)=(MONTH(Q5)-1),DAY(C5),16)),Q5,"d")/360,0)</f>
+        <v>187.40833333333333</v>
+      </c>
+      <c r="P5" s="162">
+        <f t="shared" ref="P5:P7" si="2">IF((LEFT(B5,4)="1025"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,IF(MONTH(C5)=(MONTH($O$1)-1),DAY(C5),16)),Q5,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="147">
+        <v>42629</v>
+      </c>
+      <c r="R5" s="229">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="192" t="s">
+        <v>295</v>
+      </c>
+      <c r="T5" s="155"/>
+    </row>
+    <row r="6" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="181">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="188" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="189">
+        <v>42529</v>
+      </c>
+      <c r="D6" s="189">
+        <v>42712</v>
+      </c>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162">
+        <v>95000</v>
+      </c>
+      <c r="G6" s="190"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151">
+        <f>F6-J6</f>
+        <v>95000</v>
+      </c>
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162">
+        <f t="shared" si="1"/>
+        <v>245.41666666666666</v>
+      </c>
+      <c r="P6" s="162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="147">
+        <v>42629</v>
+      </c>
+      <c r="R6" s="229">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="192" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="181">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="182" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="189">
+        <v>42529</v>
+      </c>
+      <c r="D7" s="189">
+        <v>42712</v>
+      </c>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162">
+        <v>70900</v>
+      </c>
+      <c r="G7" s="190"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151">
+        <f>F7-J7</f>
+        <v>70900</v>
+      </c>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162">
+        <f t="shared" si="1"/>
+        <v>183.15833333333333</v>
+      </c>
+      <c r="P7" s="162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="147">
+        <v>42629</v>
+      </c>
+      <c r="R7" s="229">
+        <v>0.03</v>
+      </c>
+      <c r="S7" s="192" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="193"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="198"/>
+      <c r="R8" s="199"/>
+      <c r="S8" s="200"/>
+    </row>
+    <row r="9" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="269" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="269"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="177">
+        <f>SUM(F4:F8)</f>
+        <v>261200</v>
+      </c>
+      <c r="G9" s="176">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="177"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="176"/>
+      <c r="L9" s="177">
+        <f>SUM(L4:L8)</f>
+        <v>261200</v>
+      </c>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176">
+        <f>SUM(N4:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="177">
+        <f>SUM(O4:O8)</f>
+        <v>727.06666666666661</v>
+      </c>
+      <c r="P9" s="177">
+        <f>SUM(P4:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="178"/>
+      <c r="S9" s="179"/>
+      <c r="T9" s="155"/>
+    </row>
+    <row r="10" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="181">
+        <f t="shared" ref="A10:A19" si="3">ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="157" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="158">
+        <v>42543</v>
+      </c>
+      <c r="D10" s="158">
+        <v>42712</v>
+      </c>
+      <c r="E10" s="160">
+        <v>2007720000</v>
+      </c>
+      <c r="F10" s="159">
+        <f>E10/G10</f>
+        <v>90000</v>
+      </c>
+      <c r="G10" s="160">
+        <v>22308</v>
+      </c>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="148">
+        <f t="shared" ref="L10:L19" si="4">F10-J10</f>
+        <v>90000</v>
+      </c>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="162">
+        <f t="shared" ref="O10:O19" si="5">IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(DATE(YEAR(Q10),MONTH(Q10)-1,IF(MONTH(C10)=(MONTH(Q10)-1),DAY(C10),16)),Q10,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="162">
+        <f t="shared" ref="P10:P19" si="6">IF((LEFT(B10,4)="1025"),F10*R10*DATEDIF(DATE(YEAR(Q10),MONTH(Q10)-1,DAY(Q10)),Q10,"d")/360,0)</f>
+        <v>278.99999999999994</v>
+      </c>
+      <c r="Q10" s="147">
+        <v>42635</v>
+      </c>
+      <c r="R10" s="228">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S10" s="192"/>
+      <c r="T10" s="232"/>
+    </row>
+    <row r="11" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="181">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="158">
+        <v>42543</v>
+      </c>
+      <c r="D11" s="158">
+        <v>42711</v>
+      </c>
+      <c r="E11" s="160">
+        <v>1829256000</v>
+      </c>
+      <c r="F11" s="159">
+        <f>E11/G11</f>
+        <v>82000</v>
+      </c>
+      <c r="G11" s="160">
+        <v>22308</v>
+      </c>
+      <c r="H11" s="158"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="148">
+        <f t="shared" si="4"/>
+        <v>82000</v>
+      </c>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="162">
+        <f t="shared" si="6"/>
+        <v>254.2</v>
+      </c>
+      <c r="Q11" s="147">
+        <v>42635</v>
+      </c>
+      <c r="R11" s="228">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S11" s="164"/>
+    </row>
+    <row r="12" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="181">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>332</v>
+      </c>
+      <c r="C12" s="158">
+        <v>42543</v>
+      </c>
+      <c r="D12" s="158">
+        <v>42668</v>
+      </c>
+      <c r="E12" s="160">
+        <v>2163876000</v>
+      </c>
+      <c r="F12" s="159">
+        <f>E12/G12</f>
+        <v>97000</v>
+      </c>
+      <c r="G12" s="160">
+        <v>22308</v>
+      </c>
+      <c r="H12" s="158"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="148">
+        <f t="shared" si="4"/>
+        <v>97000</v>
+      </c>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="162">
+        <f t="shared" si="6"/>
+        <v>300.69999999999993</v>
+      </c>
+      <c r="Q12" s="147">
+        <v>42635</v>
+      </c>
+      <c r="R12" s="228">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S12" s="164"/>
+    </row>
+    <row r="13" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="181">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="157" t="s">
+        <v>334</v>
+      </c>
+      <c r="C13" s="158">
+        <v>42543</v>
+      </c>
+      <c r="D13" s="158">
+        <v>42649</v>
+      </c>
+      <c r="E13" s="160">
+        <v>2152046737</v>
+      </c>
+      <c r="F13" s="159">
+        <f>E13/G13</f>
+        <v>96469.730007172315</v>
+      </c>
+      <c r="G13" s="160">
+        <v>22308</v>
+      </c>
+      <c r="H13" s="158"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="148">
+        <f t="shared" si="4"/>
+        <v>96469.730007172315</v>
+      </c>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="162">
+        <f t="shared" si="6"/>
+        <v>299.0561630222341</v>
+      </c>
+      <c r="Q13" s="147">
+        <v>42635</v>
+      </c>
+      <c r="R13" s="228">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S13" s="164"/>
+      <c r="T13" s="233"/>
+    </row>
+    <row r="14" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="181">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="157" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="158">
+        <v>42545</v>
+      </c>
+      <c r="D14" s="158">
+        <v>42728</v>
+      </c>
+      <c r="E14" s="160"/>
+      <c r="F14" s="159">
+        <v>150000</v>
+      </c>
+      <c r="G14" s="160"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="162">
+        <f t="shared" si="6"/>
+        <v>387.5</v>
+      </c>
+      <c r="Q14" s="147">
+        <v>42637</v>
+      </c>
+      <c r="R14" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S14" s="164"/>
+      <c r="T14" s="244">
+        <f>E13*R13/12</f>
+        <v>6456140.2109999992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="181">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="158">
+        <v>42552</v>
+      </c>
+      <c r="D15" s="158">
+        <v>42737</v>
+      </c>
+      <c r="E15" s="160"/>
+      <c r="F15" s="159">
+        <v>89500</v>
+      </c>
+      <c r="G15" s="160"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="148"/>
+      <c r="L15" s="148">
+        <f t="shared" si="4"/>
+        <v>89500</v>
+      </c>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="162">
+        <f t="shared" si="6"/>
+        <v>223.75</v>
+      </c>
+      <c r="Q15" s="147">
+        <v>42644</v>
+      </c>
+      <c r="R15" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S15" s="192"/>
+      <c r="T15" s="233"/>
+    </row>
+    <row r="16" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="181">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="157" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="158">
+        <v>42556</v>
+      </c>
+      <c r="D16" s="158">
+        <v>42740</v>
+      </c>
+      <c r="E16" s="160"/>
+      <c r="F16" s="159">
+        <v>89000</v>
+      </c>
+      <c r="G16" s="160"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="148">
+        <f t="shared" si="4"/>
+        <v>89000</v>
+      </c>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="162">
+        <f t="shared" si="6"/>
+        <v>222.5</v>
+      </c>
+      <c r="Q16" s="147">
+        <v>42648</v>
+      </c>
+      <c r="R16" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S16" s="192"/>
+      <c r="T16" s="233"/>
+    </row>
+    <row r="17" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="181">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="202">
+        <v>42600</v>
+      </c>
+      <c r="D17" s="158">
+        <v>42784</v>
+      </c>
+      <c r="E17" s="160"/>
+      <c r="F17" s="203">
+        <v>63000</v>
+      </c>
+      <c r="G17" s="160"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="203"/>
+      <c r="J17" s="203"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148">
+        <f t="shared" si="4"/>
+        <v>63000</v>
+      </c>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="162">
+        <f t="shared" si="6"/>
+        <v>162.75</v>
+      </c>
+      <c r="Q17" s="147">
+        <v>42631</v>
+      </c>
+      <c r="R17" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S17" s="192"/>
+      <c r="T17" s="233"/>
+    </row>
+    <row r="18" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="181">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="157" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="202">
+        <v>42612</v>
+      </c>
+      <c r="D18" s="158">
+        <v>42794</v>
+      </c>
+      <c r="E18" s="204"/>
+      <c r="F18" s="203">
+        <v>89500</v>
+      </c>
+      <c r="G18" s="160"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="203"/>
+      <c r="J18" s="203"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="148">
+        <f t="shared" si="4"/>
+        <v>89500</v>
+      </c>
+      <c r="M18" s="203"/>
+      <c r="N18" s="203"/>
+      <c r="O18" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="162">
+        <f t="shared" si="6"/>
+        <v>231.20833333333334</v>
+      </c>
+      <c r="Q18" s="147">
+        <v>42635</v>
+      </c>
+      <c r="R18" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S18" s="164"/>
+      <c r="T18" s="233"/>
+    </row>
+    <row r="19" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="181">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="157" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="202">
+        <v>42626</v>
+      </c>
+      <c r="D19" s="158">
+        <v>42807</v>
+      </c>
+      <c r="E19" s="204"/>
+      <c r="F19" s="203">
+        <v>88000</v>
+      </c>
+      <c r="G19" s="160"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="148">
+        <f t="shared" si="4"/>
+        <v>88000</v>
+      </c>
+      <c r="M19" s="203"/>
+      <c r="N19" s="204">
+        <f>P19*G19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="162">
+        <f t="shared" si="6"/>
+        <v>227.33333333333334</v>
+      </c>
+      <c r="Q19" s="147">
+        <v>42635</v>
+      </c>
+      <c r="R19" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S19" s="192"/>
+    </row>
+    <row r="20" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="181"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="203"/>
+      <c r="N20" s="203"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="228"/>
+      <c r="S20" s="192"/>
+    </row>
+    <row r="21" spans="1:20" s="209" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="265" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="265"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="176">
+        <f>SUM(E4:E20)</f>
+        <v>8152898737</v>
+      </c>
+      <c r="F21" s="177">
+        <f>SUM(F10:F20)</f>
+        <v>934469.73000717233</v>
+      </c>
+      <c r="G21" s="176">
+        <f>SUM(G4:G16)</f>
+        <v>89232</v>
+      </c>
+      <c r="H21" s="175"/>
+      <c r="I21" s="177">
+        <f>SUM(I10:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="177">
+        <f>SUM(J10:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="177">
+        <f>SUM(K10:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="177">
+        <f>SUM(L10:L20)</f>
+        <v>934469.73000717233</v>
+      </c>
+      <c r="M21" s="177">
+        <f>SUM(M4:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177">
+        <f>SUM(O10:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="177">
+        <f>SUM(P10:P20)</f>
+        <v>2587.9978296889012</v>
+      </c>
+      <c r="Q21" s="207"/>
+      <c r="R21" s="208"/>
+      <c r="S21" s="179"/>
+    </row>
+    <row r="22" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="181">
+        <f>ROW()-26</f>
+        <v>-4</v>
+      </c>
+      <c r="B22" s="188" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="189">
+        <v>41870</v>
+      </c>
+      <c r="D22" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E22" s="190">
+        <v>1000000000</v>
+      </c>
+      <c r="F22" s="162"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="189">
+        <v>42632</v>
+      </c>
+      <c r="I22" s="190">
+        <v>8340000</v>
+      </c>
+      <c r="J22" s="162"/>
+      <c r="K22" s="190">
+        <f t="shared" ref="K22:K36" si="7">E22-I22</f>
+        <v>991660000</v>
+      </c>
+      <c r="L22" s="162"/>
+      <c r="M22" s="190">
+        <f>IF((LEFT(B22,4)="1402"),E22*R22*DATEDIF(DATE(YEAR(Q22),MONTH(Q22)-1,IF(MONTH(C22)=(MONTH(Q22)-1),DAY(C22),16)),Q22,"d")/360,0)</f>
+        <v>8180555.555555556</v>
+      </c>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162">
+        <f>IF((LEFT(B22,4)="1402"),F22*R22*DATEDIF(DATE(YEAR(Q22),MONTH(Q22)-1,IF(MONTH(C22)=(MONTH(Q22)-1),DAY(C22),16)),Q22,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="162">
+        <f t="shared" ref="P22:P36" si="8">IF((LEFT(B22,4)="1015"),F22*R22*DATEDIF(Q22,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R22" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S22" s="211" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="181">
+        <f t="shared" ref="A23:A36" si="9">ROW()-26</f>
+        <v>-3</v>
+      </c>
+      <c r="B23" s="188" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="189">
+        <v>41905</v>
+      </c>
+      <c r="D23" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E23" s="190">
+        <v>2000000000</v>
+      </c>
+      <c r="F23" s="162"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="189">
+        <v>42632</v>
+      </c>
+      <c r="I23" s="190">
+        <v>16670000</v>
+      </c>
+      <c r="J23" s="162"/>
+      <c r="K23" s="190">
+        <f t="shared" si="7"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L23" s="162"/>
+      <c r="M23" s="190">
+        <f t="shared" ref="M23:M35" si="10">IF((LEFT(B23,4)="1402"),E23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
+        <v>17944444.444444444</v>
+      </c>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162">
+        <f t="shared" ref="O23:O36" si="11">IF((LEFT(B23,4)="1402"),F23*R23*DATEDIF(DATE(YEAR(Q23),MONTH(Q23)-1,IF(MONTH(C23)=(MONTH(Q23)-1),DAY(C23),16)),Q23,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R23" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S23" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="181">
+        <f t="shared" si="9"/>
+        <v>-2</v>
+      </c>
+      <c r="B24" s="188" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="212">
+        <v>41934</v>
+      </c>
+      <c r="D24" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="213">
+        <v>1600000000</v>
+      </c>
+      <c r="F24" s="214"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="189">
+        <v>42632</v>
+      </c>
+      <c r="I24" s="213">
+        <v>13340000</v>
+      </c>
+      <c r="J24" s="214"/>
+      <c r="K24" s="190">
+        <f t="shared" si="7"/>
+        <v>1586660000</v>
+      </c>
+      <c r="L24" s="214"/>
+      <c r="M24" s="190">
+        <f t="shared" si="10"/>
+        <v>14355555.555555556</v>
+      </c>
+      <c r="N24" s="214"/>
+      <c r="O24" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R24" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S24" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="181">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="B25" s="188" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="212">
+        <v>41963</v>
+      </c>
+      <c r="D25" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="213">
+        <v>1500000000</v>
+      </c>
+      <c r="F25" s="214"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="189">
+        <v>42632</v>
+      </c>
+      <c r="I25" s="213">
+        <v>12500000</v>
+      </c>
+      <c r="J25" s="214"/>
+      <c r="K25" s="190">
+        <f t="shared" si="7"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L25" s="214"/>
+      <c r="M25" s="190">
+        <f t="shared" si="10"/>
+        <v>13458333.333333334</v>
+      </c>
+      <c r="N25" s="214"/>
+      <c r="O25" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R25" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S25" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="181">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="188" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="212">
+        <v>41984</v>
+      </c>
+      <c r="D26" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="213">
+        <v>1000000000</v>
+      </c>
+      <c r="F26" s="214"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="189">
+        <v>42632</v>
+      </c>
+      <c r="I26" s="213">
+        <v>8330000</v>
+      </c>
+      <c r="J26" s="214"/>
+      <c r="K26" s="213">
+        <f t="shared" si="7"/>
+        <v>991670000</v>
+      </c>
+      <c r="L26" s="214"/>
+      <c r="M26" s="190">
+        <f t="shared" si="10"/>
+        <v>8972222.222222222</v>
+      </c>
+      <c r="N26" s="214"/>
+      <c r="O26" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R26" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S26" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="181">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="188" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" s="212">
+        <v>42033</v>
+      </c>
+      <c r="D27" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="213">
+        <v>1500000000</v>
+      </c>
+      <c r="F27" s="214"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I27" s="213">
+        <v>12500000</v>
+      </c>
+      <c r="J27" s="214"/>
+      <c r="K27" s="213">
+        <f t="shared" si="7"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L27" s="214"/>
+      <c r="M27" s="190">
+        <f t="shared" si="10"/>
+        <v>13458333.333333334</v>
+      </c>
+      <c r="N27" s="214"/>
+      <c r="O27" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R27" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S27" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="181">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="188" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="212">
+        <v>42088</v>
+      </c>
+      <c r="D28" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="213">
+        <v>2000000000</v>
+      </c>
+      <c r="F28" s="214"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="189">
+        <v>42632</v>
+      </c>
+      <c r="I28" s="213">
+        <v>16670000</v>
+      </c>
+      <c r="J28" s="214"/>
+      <c r="K28" s="213">
+        <f t="shared" si="7"/>
+        <v>1983330000</v>
+      </c>
+      <c r="L28" s="214"/>
+      <c r="M28" s="190">
+        <f t="shared" si="10"/>
+        <v>17944444.444444444</v>
+      </c>
+      <c r="N28" s="214"/>
+      <c r="O28" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R28" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S28" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="181">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="188" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="212">
+        <v>42114</v>
+      </c>
+      <c r="D29" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="213">
+        <v>1400000000</v>
+      </c>
+      <c r="F29" s="214"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I29" s="213">
+        <v>11670000</v>
+      </c>
+      <c r="J29" s="214"/>
+      <c r="K29" s="213">
+        <f t="shared" si="7"/>
+        <v>1388330000</v>
+      </c>
+      <c r="L29" s="214"/>
+      <c r="M29" s="190">
+        <f t="shared" si="10"/>
+        <v>12561111.111111112</v>
+      </c>
+      <c r="N29" s="214"/>
+      <c r="O29" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R29" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S29" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="181">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="188" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" s="212">
+        <v>42138</v>
+      </c>
+      <c r="D30" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="213">
+        <v>1500000000</v>
+      </c>
+      <c r="F30" s="214"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I30" s="213">
+        <v>12500000</v>
+      </c>
+      <c r="J30" s="214"/>
+      <c r="K30" s="213">
+        <f t="shared" si="7"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L30" s="214"/>
+      <c r="M30" s="190">
+        <f t="shared" si="10"/>
+        <v>13458333.333333334</v>
+      </c>
+      <c r="N30" s="214"/>
+      <c r="O30" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R30" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S30" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="181">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="188" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="212">
+        <v>42164</v>
+      </c>
+      <c r="D31" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="213">
+        <v>1500000000</v>
+      </c>
+      <c r="F31" s="214"/>
+      <c r="G31" s="213"/>
+      <c r="H31" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I31" s="213">
+        <v>12500000</v>
+      </c>
+      <c r="J31" s="214"/>
+      <c r="K31" s="213">
+        <f t="shared" si="7"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L31" s="214"/>
+      <c r="M31" s="190">
+        <f t="shared" si="10"/>
+        <v>13458333.333333334</v>
+      </c>
+      <c r="N31" s="214"/>
+      <c r="O31" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R31" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S31" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="181">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="188" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="212">
+        <v>42187</v>
+      </c>
+      <c r="D32" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="213">
+        <v>1500000000</v>
+      </c>
+      <c r="F32" s="214"/>
+      <c r="G32" s="213"/>
+      <c r="H32" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I32" s="213">
+        <v>12500000</v>
+      </c>
+      <c r="J32" s="214"/>
+      <c r="K32" s="213">
+        <f t="shared" si="7"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L32" s="214"/>
+      <c r="M32" s="190">
+        <f t="shared" si="10"/>
+        <v>13458333.333333334</v>
+      </c>
+      <c r="N32" s="214"/>
+      <c r="O32" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R32" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S32" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="181">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="188" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="212">
+        <v>42195</v>
+      </c>
+      <c r="D33" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="213">
+        <v>1500000000</v>
+      </c>
+      <c r="F33" s="214"/>
+      <c r="G33" s="213"/>
+      <c r="H33" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I33" s="213">
+        <v>12500000</v>
+      </c>
+      <c r="J33" s="214"/>
+      <c r="K33" s="213">
+        <f t="shared" si="7"/>
+        <v>1487500000</v>
+      </c>
+      <c r="L33" s="214"/>
+      <c r="M33" s="190">
+        <f t="shared" si="10"/>
+        <v>13458333.333333334</v>
+      </c>
+      <c r="N33" s="214"/>
+      <c r="O33" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R33" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S33" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="181">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B34" s="188" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="212">
+        <v>42215</v>
+      </c>
+      <c r="D34" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="213">
+        <v>1000000000</v>
+      </c>
+      <c r="F34" s="214"/>
+      <c r="G34" s="213"/>
+      <c r="H34" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I34" s="213">
+        <v>8330000</v>
+      </c>
+      <c r="J34" s="214"/>
+      <c r="K34" s="213">
+        <f t="shared" si="7"/>
+        <v>991670000</v>
+      </c>
+      <c r="L34" s="214"/>
+      <c r="M34" s="190">
+        <f t="shared" si="10"/>
+        <v>8972222.222222222</v>
+      </c>
+      <c r="N34" s="214"/>
+      <c r="O34" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R34" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="181">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="188" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="212">
+        <v>42229</v>
+      </c>
+      <c r="D35" s="189">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="213">
+        <v>1000000000</v>
+      </c>
+      <c r="F35" s="214"/>
+      <c r="G35" s="213"/>
+      <c r="H35" s="212">
+        <v>42632</v>
+      </c>
+      <c r="I35" s="213">
+        <v>8330000</v>
+      </c>
+      <c r="J35" s="214"/>
+      <c r="K35" s="213">
+        <f t="shared" si="7"/>
+        <v>991670000</v>
+      </c>
+      <c r="L35" s="214"/>
+      <c r="M35" s="190">
+        <f t="shared" si="10"/>
+        <v>9763888.8888888881</v>
+      </c>
+      <c r="N35" s="214"/>
+      <c r="O35" s="162">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="231">
+        <v>42632</v>
+      </c>
+      <c r="R35" s="229">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S35" s="192" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="187" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="181">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B36" s="188" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" s="212">
+        <v>42543</v>
+      </c>
+      <c r="D36" s="212">
+        <v>42726</v>
+      </c>
+      <c r="E36" s="213"/>
+      <c r="F36" s="214">
+        <v>88000</v>
+      </c>
+      <c r="G36" s="213"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="213"/>
+      <c r="J36" s="214"/>
+      <c r="K36" s="213">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="214">
+        <f>F36</f>
+        <v>88000</v>
+      </c>
+      <c r="M36" s="190"/>
+      <c r="N36" s="214"/>
+      <c r="O36" s="162">
+        <f t="shared" si="11"/>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="P36" s="162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="231">
+        <v>42628</v>
+      </c>
+      <c r="R36" s="229">
+        <v>0.04</v>
+      </c>
+      <c r="S36" s="192"/>
+    </row>
+    <row r="37" spans="1:19" s="187" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+      <c r="A37" s="181"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="212"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="213"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="213"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="214"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="214"/>
+      <c r="M37" s="213"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="214"/>
+      <c r="P37" s="214"/>
+      <c r="Q37" s="210"/>
+      <c r="R37" s="191"/>
+      <c r="S37" s="192"/>
+    </row>
+    <row r="38" spans="1:19" s="155" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="145"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="204"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="204"/>
+      <c r="J38" s="203"/>
+      <c r="K38" s="204"/>
+      <c r="L38" s="203"/>
+      <c r="M38" s="204"/>
+      <c r="N38" s="203"/>
+      <c r="O38" s="203"/>
+      <c r="P38" s="203"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="201"/>
+      <c r="S38" s="164"/>
+    </row>
+    <row r="39" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A39" s="265" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="265"/>
+      <c r="C39" s="206"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="176">
+        <f>SUM(E22:E38)</f>
+        <v>20000000000</v>
+      </c>
+      <c r="F39" s="177">
+        <f>SUM(F22:F38)</f>
+        <v>88000</v>
+      </c>
+      <c r="G39" s="176">
+        <f>SUM(G22:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="177"/>
+      <c r="I39" s="176">
+        <f t="shared" ref="I39:P39" si="12">SUM(I22:I38)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J39" s="177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="176">
+        <f t="shared" si="12"/>
+        <v>19833320000</v>
+      </c>
+      <c r="L39" s="177">
+        <f t="shared" si="12"/>
+        <v>88000</v>
+      </c>
+      <c r="M39" s="176">
+        <f t="shared" si="12"/>
+        <v>179444444.44444445</v>
+      </c>
+      <c r="N39" s="177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="177">
+        <f t="shared" si="12"/>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="P39" s="177">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="207"/>
+      <c r="R39" s="208"/>
+      <c r="S39" s="179"/>
+    </row>
+    <row r="40" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F40" s="219"/>
+    </row>
+    <row r="41" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F41" s="216"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="216"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F43" s="216"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F45" s="219"/>
+    </row>
+    <row r="53" spans="1:19" s="224" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A53" s="215"/>
+      <c r="B53" s="216"/>
+      <c r="C53" s="217"/>
+      <c r="D53" s="217"/>
+      <c r="E53" s="218"/>
+      <c r="F53" s="222"/>
+      <c r="G53" s="218"/>
+      <c r="H53" s="220"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="221"/>
+      <c r="K53" s="218"/>
+      <c r="L53" s="222"/>
+      <c r="M53" s="226"/>
+      <c r="N53" s="226"/>
+      <c r="O53" s="226"/>
+      <c r="Q53" s="225"/>
+      <c r="R53" s="225"/>
+      <c r="S53" s="215"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S21"/>
+  <sortState ref="A10:T19">
+    <sortCondition ref="C10:C19"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -9438,7 +11512,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomLeft" activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9488,11 +11562,11 @@
         <v>29</v>
       </c>
       <c r="T2" s="10">
-        <v>42612</v>
+        <v>42642</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -9521,9 +11595,9 @@
         <v>47</v>
       </c>
       <c r="B6" s="29"/>
-      <c r="C6" s="46" t="e">
+      <c r="C6" s="46" t="str">
         <f>"CTY TNHH HẢI SẢN AN LẠC "&amp;IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="V","TRÀ VINH","")</f>
-        <v>#N/A</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -9539,9 +11613,9 @@
         <v>48</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="53" t="e">
+      <c r="C8" s="53" t="str">
         <f>IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="USD"),"1015 148 5100 9193",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="VNĐ"),"1015 148 5100 9180",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="VNĐ"),"1402 148 5100 9465",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="USD"),"1402 148 5100 9479",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="VNĐ"),"1402 148 5100 7445",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="USD"),"1402 148 5102 8153",""))))))</f>
-        <v>#N/A</v>
+        <v>1402 148 5100 7445</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="9.75" customHeight="1">
@@ -9555,9 +11629,9 @@
         <v>58</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="H10" s="53" t="e">
+      <c r="H10" s="53" t="str">
         <f>IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="1","CHI NHÁNH QUẬN 11",IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="4","CHI NHÁNH QUẬN 4",IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="V","CHI NHÁNH QUẬN 4","")))</f>
-        <v>#N/A</v>
+        <v>CHI NHÁNH QUẬN 4</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1">
@@ -9585,9 +11659,9 @@
         <v>49</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="43" t="e">
+      <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>#N/A</v>
+        <v>ĐIỆN LỰC THÀNH PHỐ TRÀ VINH – CÔNG TY ĐIỆN LỰC TRÀ VINH</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -9604,9 +11678,9 @@
       <c r="B14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="53" t="e">
+      <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>#N/A</v>
+        <v>1020 1000 0319 461</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -9635,9 +11709,9 @@
         <v>50</v>
       </c>
       <c r="B16" s="17"/>
-      <c r="C16" s="52" t="e">
+      <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>#N/A</v>
+        <v>VIETINBANK– CHI NHÁNH TRÀ VINH</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -9665,9 +11739,9 @@
         <v>51</v>
       </c>
       <c r="B18" s="17"/>
-      <c r="C18" s="53" t="e">
+      <c r="C18" s="53" t="str">
         <f>VLOOKUP("X1",DS,9,0)</f>
-        <v>#N/A</v>
+        <v>Trà Vinh</v>
       </c>
       <c r="H18" s="31"/>
       <c r="J18" s="19" t="s">
@@ -9696,7 +11770,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Error: Đối số của hàm không hợp lệ. đồng.</v>
+        <v>Tám mươi tám triệu, không trăm bốn mươi tám ngàn, sáu trăm hai mươi đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -9708,10 +11782,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="254" t="s">
+      <c r="N20" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="254"/>
+      <c r="O20" s="258"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -9725,19 +11799,19 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="255" t="s">
+      <c r="N21" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="255"/>
+      <c r="O21" s="259"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="50" t="e">
+      <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>#N/A</v>
+        <v>88048620</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -9750,9 +11824,9 @@
         <v>65</v>
       </c>
       <c r="B23" s="15"/>
-      <c r="C23" s="52" t="e">
+      <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>#N/A</v>
+        <v>PB16010048099 - Thanh toán tiền điện kỳ 1&amp;2 tháng 09 năm 2016</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -9890,7 +11964,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9929,7 +12003,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>42627</v>
+        <v>42642</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
@@ -9951,11 +12025,11 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F8" s="256">
+      <c r="F8" s="260">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>24068550</v>
-      </c>
-      <c r="G8" s="256"/>
+        <v>60000000</v>
+      </c>
+      <c r="G8" s="260"/>
       <c r="K8" s="1" t="str">
         <f>IF(O2="vnđ","x","")</f>
         <v>x</v>
@@ -9968,7 +12042,7 @@
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai mươi bốn triệu, không trăm sáu mươi tám ngàn, năm trăm năm mươi đồng.</v>
+        <v>Sáu mươi triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
@@ -9979,13 +12053,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>MKH: PB06030022841- Tiền điện kỳ 3 tháng 08 năm 2016</v>
+        <v>Ứng vốn</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
       <c r="G13" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY CP GIẢI PHÁP THANH TOÁN ĐIỆN LỰC VÀ VIỄN THÔNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="17.25" customHeight="1"/>
@@ -9995,13 +12069,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>6801 0000 318 995</v>
+        <v>1402 148 5100 7445</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)</f>
-        <v>BIDV – CHI NHÁNH LONG AN</v>
+        <v>Eximbank - CN Q4</v>
       </c>
     </row>
   </sheetData>
@@ -10079,11 +12153,11 @@
       </c>
     </row>
     <row r="8" spans="5:18" ht="21" customHeight="1">
-      <c r="E8" s="256">
+      <c r="E8" s="260">
         <f>VLOOKUP("X2",DS,16,0)</f>
         <v>1100000000</v>
       </c>
-      <c r="F8" s="256"/>
+      <c r="F8" s="260"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
@@ -10393,11 +12467,11 @@
         <v>115</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="260">
+      <c r="L17" s="264">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>41051</v>
       </c>
-      <c r="M17" s="260"/>
+      <c r="M17" s="264"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -10459,11 +12533,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="257" t="s">
+      <c r="N21" s="261" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="258"/>
-      <c r="P21" s="258"/>
+      <c r="O21" s="262"/>
+      <c r="P21" s="262"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -10478,11 +12552,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="259" t="s">
+      <c r="N22" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="255"/>
-      <c r="P22" s="255"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
@@ -10951,47 +13025,47 @@
       <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:20" s="135" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="270" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="268" t="s">
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="272" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="269" t="s">
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="273" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="269"/>
-      <c r="M2" s="262" t="s">
+      <c r="L2" s="273"/>
+      <c r="M2" s="266" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263" t="s">
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="264" t="s">
+      <c r="S2" s="268" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="135" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="264"/>
+      <c r="A3" s="268"/>
+      <c r="B3" s="268"/>
       <c r="C3" s="136" t="s">
         <v>273</v>
       </c>
@@ -11037,8 +13111,8 @@
       <c r="Q3" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="263"/>
-      <c r="S3" s="264"/>
+      <c r="R3" s="267"/>
+      <c r="S3" s="268"/>
     </row>
     <row r="4" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -11270,10 +13344,10 @@
       <c r="S8" s="174"/>
     </row>
     <row r="9" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="269" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="265"/>
+      <c r="B9" s="269"/>
       <c r="C9" s="175"/>
       <c r="D9" s="175"/>
       <c r="E9" s="176"/>
@@ -11588,10 +13662,10 @@
       <c r="S15" s="200"/>
     </row>
     <row r="16" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="265" t="s">
+      <c r="A16" s="269" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="265"/>
+      <c r="B16" s="269"/>
       <c r="C16" s="175"/>
       <c r="D16" s="175"/>
       <c r="E16" s="176"/>
@@ -12042,10 +14116,10 @@
       <c r="S25" s="174"/>
     </row>
     <row r="26" spans="1:20" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="261" t="s">
+      <c r="A26" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="261"/>
+      <c r="B26" s="265"/>
       <c r="C26" s="206"/>
       <c r="D26" s="206"/>
       <c r="E26" s="177">
@@ -12963,10 +15037,10 @@
       <c r="S43" s="164"/>
     </row>
     <row r="44" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="261" t="s">
+      <c r="A44" s="265" t="s">
         <v>326</v>
       </c>
-      <c r="B44" s="261"/>
+      <c r="B44" s="265"/>
       <c r="C44" s="206"/>
       <c r="D44" s="206"/>
       <c r="E44" s="176">
@@ -13146,47 +15220,47 @@
       <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:20" s="135" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="270" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="268" t="s">
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="272" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="269" t="s">
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="273" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="269"/>
-      <c r="M2" s="262" t="s">
+      <c r="L2" s="273"/>
+      <c r="M2" s="266" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263" t="s">
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="264" t="s">
+      <c r="S2" s="268" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="135" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="264"/>
+      <c r="A3" s="268"/>
+      <c r="B3" s="268"/>
       <c r="C3" s="136" t="s">
         <v>273</v>
       </c>
@@ -13232,8 +15306,8 @@
       <c r="Q3" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="263"/>
-      <c r="S3" s="264"/>
+      <c r="R3" s="267"/>
+      <c r="S3" s="268"/>
     </row>
     <row r="4" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -13465,10 +15539,10 @@
       <c r="S8" s="174"/>
     </row>
     <row r="9" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="269" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="265"/>
+      <c r="B9" s="269"/>
       <c r="C9" s="175"/>
       <c r="D9" s="175"/>
       <c r="E9" s="176"/>
@@ -13732,10 +15806,10 @@
       <c r="S14" s="200"/>
     </row>
     <row r="15" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="269" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="265"/>
+      <c r="B15" s="269"/>
       <c r="C15" s="175"/>
       <c r="D15" s="175"/>
       <c r="E15" s="176"/>
@@ -14186,10 +16260,10 @@
       <c r="S24" s="174"/>
     </row>
     <row r="25" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="261" t="s">
+      <c r="A25" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="261"/>
+      <c r="B25" s="265"/>
       <c r="C25" s="206"/>
       <c r="D25" s="206"/>
       <c r="E25" s="177">
@@ -15107,10 +17181,10 @@
       <c r="S42" s="164"/>
     </row>
     <row r="43" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="261" t="s">
+      <c r="A43" s="265" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="261"/>
+      <c r="B43" s="265"/>
       <c r="C43" s="206"/>
       <c r="D43" s="206"/>
       <c r="E43" s="176">
@@ -15290,47 +17364,47 @@
       <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:20" s="135" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="268" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="268" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="270" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="271" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="268" t="s">
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="272" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="269" t="s">
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="273" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="269"/>
-      <c r="M2" s="262" t="s">
+      <c r="L2" s="273"/>
+      <c r="M2" s="266" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="262"/>
-      <c r="P2" s="262"/>
-      <c r="Q2" s="262"/>
-      <c r="R2" s="263" t="s">
+      <c r="N2" s="266"/>
+      <c r="O2" s="266"/>
+      <c r="P2" s="266"/>
+      <c r="Q2" s="266"/>
+      <c r="R2" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="264" t="s">
+      <c r="S2" s="268" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="135" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="264"/>
-      <c r="B3" s="264"/>
+      <c r="A3" s="268"/>
+      <c r="B3" s="268"/>
       <c r="C3" s="136" t="s">
         <v>273</v>
       </c>
@@ -15376,8 +17450,8 @@
       <c r="Q3" s="144" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="263"/>
-      <c r="S3" s="264"/>
+      <c r="R3" s="267"/>
+      <c r="S3" s="268"/>
     </row>
     <row r="4" spans="1:20" s="155" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="145">
@@ -15609,10 +17683,10 @@
       <c r="S8" s="174"/>
     </row>
     <row r="9" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="265" t="s">
+      <c r="A9" s="269" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="265"/>
+      <c r="B9" s="269"/>
       <c r="C9" s="175"/>
       <c r="D9" s="175"/>
       <c r="E9" s="176"/>
@@ -15876,10 +17950,10 @@
       <c r="S14" s="200"/>
     </row>
     <row r="15" spans="1:20" s="180" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="269" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="265"/>
+      <c r="B15" s="269"/>
       <c r="C15" s="175"/>
       <c r="D15" s="175"/>
       <c r="E15" s="176"/>
@@ -16330,10 +18404,10 @@
       <c r="S24" s="174"/>
     </row>
     <row r="25" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="261" t="s">
+      <c r="A25" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="261"/>
+      <c r="B25" s="265"/>
       <c r="C25" s="206"/>
       <c r="D25" s="206"/>
       <c r="E25" s="177">
@@ -17251,10 +19325,10 @@
       <c r="S42" s="164"/>
     </row>
     <row r="43" spans="1:19" s="209" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="261" t="s">
+      <c r="A43" s="265" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="261"/>
+      <c r="B43" s="265"/>
       <c r="C43" s="206"/>
       <c r="D43" s="206"/>
       <c r="E43" s="176">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -40,11 +40,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'09-16'!$A$3:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10-16'!$A$3:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11-16'!$A$3:$S$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$157</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$157</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39728))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$157</definedName>
+    <definedName name="DS">TH!$A$4:$Q$156</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39727))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$156</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - EIB'!$A$1:$P$32</definedName>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="448">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -1988,6 +1988,33 @@
   </si>
   <si>
     <t>MKH: PB06030022841- Tiền điện kỳ 2 tháng 11 năm 2016</t>
+  </si>
+  <si>
+    <t>TÀI KHOẢN CHUYÊN THU NGÂN SÁCH NHÀ NƯỚC</t>
+  </si>
+  <si>
+    <t>TRUNG TÂM CHẤT LƯỢNG NÔNG LÂM THUỶ SẢN VÙNG 6</t>
+  </si>
+  <si>
+    <t>4102 02 003</t>
+  </si>
+  <si>
+    <t>NH Công Thương – CN Cần Thơ</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm cho TTCLNLTS 6 nộp vào TK 3511.0.1054053.00000</t>
+  </si>
+  <si>
+    <t>3712 1 1054053 00000</t>
+  </si>
+  <si>
+    <t>KHO BẠC NHÀ NƯỚC CẦN THƠ</t>
+  </si>
+  <si>
+    <t>Thanh toán kiểm dịch vụ đợt ngày 10, 19 &amp; 25 tháng 11 năm 2016</t>
   </si>
 </sst>
 </file>
@@ -3922,14 +3949,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R158"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="G121" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="J130" sqref="J130"/>
+      <selection pane="bottomRight" activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4140,7 +4167,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B157" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B156" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -9687,7 +9714,7 @@
         <v/>
       </c>
       <c r="B118" s="62">
-        <f t="shared" ref="B118:B129" si="7">IF(C118&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B118:B128" si="7">IF(C118&lt;&gt;"",ROW()-3,"")</f>
         <v>115</v>
       </c>
       <c r="C118" s="62" t="s">
@@ -10028,7 +10055,7 @@
     <row r="125" spans="1:18" ht="18.75" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B125" s="62">
         <f t="shared" si="7"/>
@@ -10069,13 +10096,13 @@
       <c r="Q125" s="104"/>
       <c r="R125" s="255" t="str">
         <f>IF(AND(C125="pv",D125='UNC - PV'!$Q$2,LEFT(E125,1)="u",'UNC - PV'!$O$2="vnđ",TH!P125&lt;&gt;""),"p",IF(AND(C125="pv",D125='UNC - PV'!$Q$2,LEFT(E125,1)="u",'UNC - PV'!$O$2="usd",TH!O125&lt;&gt;""),"p1",IF(AND(C125="pv",D125='LC - PV'!$P$2,LEFT(E125,1)="l"),"p2",IF(AND(LEFT(C125,3)="EIB",D125='UNC - EIB'!$T$2,LEFT(E125,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P125&lt;&gt;""),"e",IF(AND(LEFT(C125,3)="EIB",D125='UNC - EIB'!$T$2,LEFT(E125,1)="U",'UNC - EIB'!$R$2="usd",TH!O125&lt;&gt;""),"e1",IF(AND(LEFT(C125,3)="EIB",D125='LC - EIB'!$S$2,LEFT(E125,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="126" spans="1:18" ht="18.75" customHeight="1">
       <c r="A126" s="55" t="str">
         <f>IF(AND(C126="pv",E126='UNC - PV'!$S$2,D126='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C126,3)="eib",E126='UNC - EIB'!$V$2,D126='UNC - EIB'!$T$2),"x1",IF(AND(C126="pv",E126='LC - PV'!$R$2,D126='LC - PV'!$P$2),"x2",IF(AND(LEFT(C126,3)="eib",E126='LC - EIB'!$U$2,D126='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B126" s="62">
         <f t="shared" si="7"/>
@@ -10116,7 +10143,7 @@
       <c r="Q126" s="104"/>
       <c r="R126" s="255" t="str">
         <f>IF(AND(C126="pv",D126='UNC - PV'!$Q$2,LEFT(E126,1)="u",'UNC - PV'!$O$2="vnđ",TH!P126&lt;&gt;""),"p",IF(AND(C126="pv",D126='UNC - PV'!$Q$2,LEFT(E126,1)="u",'UNC - PV'!$O$2="usd",TH!O126&lt;&gt;""),"p1",IF(AND(C126="pv",D126='LC - PV'!$P$2,LEFT(E126,1)="l"),"p2",IF(AND(LEFT(C126,3)="EIB",D126='UNC - EIB'!$T$2,LEFT(E126,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P126&lt;&gt;""),"e",IF(AND(LEFT(C126,3)="EIB",D126='UNC - EIB'!$T$2,LEFT(E126,1)="U",'UNC - EIB'!$R$2="usd",TH!O126&lt;&gt;""),"e1",IF(AND(LEFT(C126,3)="EIB",D126='LC - EIB'!$S$2,LEFT(E126,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="127" spans="1:18" ht="18.75" customHeight="1">
@@ -10124,27 +10151,41 @@
         <f>IF(AND(C127="pv",E127='UNC - PV'!$S$2,D127='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C127,3)="eib",E127='UNC - EIB'!$V$2,D127='UNC - EIB'!$T$2),"x1",IF(AND(C127="pv",E127='LC - PV'!$R$2,D127='LC - PV'!$P$2),"x2",IF(AND(LEFT(C127,3)="eib",E127='LC - EIB'!$U$2,D127='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B127" s="62" t="str">
+      <c r="B127" s="62">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C127" s="62"/>
+        <v>124</v>
+      </c>
+      <c r="C127" s="62" t="s">
+        <v>145</v>
+      </c>
       <c r="D127" s="67">
-        <v>42704</v>
+        <v>42709</v>
       </c>
       <c r="E127" s="233" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="65"/>
+        <v>23</v>
+      </c>
+      <c r="F127" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G127" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="H127" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I127" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J127" s="66"/>
       <c r="K127" s="67"/>
       <c r="L127" s="65"/>
       <c r="M127" s="65"/>
-      <c r="N127" s="64"/>
-      <c r="O127" s="68"/>
+      <c r="N127" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="O127" s="68">
+        <v>95500</v>
+      </c>
       <c r="P127" s="69"/>
       <c r="Q127" s="104"/>
       <c r="R127" s="255" t="str">
@@ -10157,24 +10198,40 @@
         <f>IF(AND(C128="pv",E128='UNC - PV'!$S$2,D128='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C128,3)="eib",E128='UNC - EIB'!$V$2,D128='UNC - EIB'!$T$2),"x1",IF(AND(C128="pv",E128='LC - PV'!$R$2,D128='LC - PV'!$P$2),"x2",IF(AND(LEFT(C128,3)="eib",E128='LC - EIB'!$U$2,D128='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B128" s="62" t="str">
+      <c r="B128" s="62">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C128" s="62"/>
+        <v>125</v>
+      </c>
+      <c r="C128" s="62" t="s">
+        <v>104</v>
+      </c>
       <c r="D128" s="67"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="65"/>
+      <c r="E128" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="G128" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="H128" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="I128" s="65" t="s">
+        <v>443</v>
+      </c>
       <c r="J128" s="66"/>
       <c r="K128" s="67"/>
       <c r="L128" s="65"/>
       <c r="M128" s="65"/>
-      <c r="N128" s="64"/>
+      <c r="N128" s="64" t="s">
+        <v>444</v>
+      </c>
       <c r="O128" s="68"/>
-      <c r="P128" s="69"/>
+      <c r="P128" s="69">
+        <v>7533000</v>
+      </c>
       <c r="Q128" s="104"/>
       <c r="R128" s="255" t="str">
         <f>IF(AND(C128="pv",D128='UNC - PV'!$Q$2,LEFT(E128,1)="u",'UNC - PV'!$O$2="vnđ",TH!P128&lt;&gt;""),"p",IF(AND(C128="pv",D128='UNC - PV'!$Q$2,LEFT(E128,1)="u",'UNC - PV'!$O$2="usd",TH!O128&lt;&gt;""),"p1",IF(AND(C128="pv",D128='LC - PV'!$P$2,LEFT(E128,1)="l"),"p2",IF(AND(LEFT(C128,3)="EIB",D128='UNC - EIB'!$T$2,LEFT(E128,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P128&lt;&gt;""),"e",IF(AND(LEFT(C128,3)="EIB",D128='UNC - EIB'!$T$2,LEFT(E128,1)="U",'UNC - EIB'!$R$2="usd",TH!O128&lt;&gt;""),"e1",IF(AND(LEFT(C128,3)="EIB",D128='LC - EIB'!$S$2,LEFT(E128,1)="l"),"e2",""))))))</f>
@@ -10186,24 +10243,40 @@
         <f>IF(AND(C129="pv",E129='UNC - PV'!$S$2,D129='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C129,3)="eib",E129='UNC - EIB'!$V$2,D129='UNC - EIB'!$T$2),"x1",IF(AND(C129="pv",E129='LC - PV'!$R$2,D129='LC - PV'!$P$2),"x2",IF(AND(LEFT(C129,3)="eib",E129='LC - EIB'!$U$2,D129='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B129" s="62" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="C129" s="62"/>
+      <c r="B129" s="62">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="C129" s="62" t="s">
+        <v>104</v>
+      </c>
       <c r="D129" s="67"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="65"/>
+      <c r="E129" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G129" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="H129" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="I129" s="65" t="s">
+        <v>443</v>
+      </c>
       <c r="J129" s="66"/>
       <c r="K129" s="67"/>
       <c r="L129" s="65"/>
       <c r="M129" s="65"/>
-      <c r="N129" s="64"/>
+      <c r="N129" s="64" t="s">
+        <v>447</v>
+      </c>
       <c r="O129" s="68"/>
-      <c r="P129" s="69"/>
+      <c r="P129" s="69">
+        <v>9005000</v>
+      </c>
       <c r="Q129" s="104"/>
       <c r="R129" s="255" t="str">
         <f>IF(AND(C129="pv",D129='UNC - PV'!$Q$2,LEFT(E129,1)="u",'UNC - PV'!$O$2="vnđ",TH!P129&lt;&gt;""),"p",IF(AND(C129="pv",D129='UNC - PV'!$Q$2,LEFT(E129,1)="u",'UNC - PV'!$O$2="usd",TH!O129&lt;&gt;""),"p1",IF(AND(C129="pv",D129='LC - PV'!$P$2,LEFT(E129,1)="l"),"p2",IF(AND(LEFT(C129,3)="EIB",D129='UNC - EIB'!$T$2,LEFT(E129,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P129&lt;&gt;""),"e",IF(AND(LEFT(C129,3)="EIB",D129='UNC - EIB'!$T$2,LEFT(E129,1)="U",'UNC - EIB'!$R$2="usd",TH!O129&lt;&gt;""),"e1",IF(AND(LEFT(C129,3)="EIB",D129='LC - EIB'!$S$2,LEFT(E129,1)="l"),"e2",""))))))</f>
@@ -10215,86 +10288,140 @@
         <f>IF(AND(C130="pv",E130='UNC - PV'!$S$2,D130='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C130,3)="eib",E130='UNC - EIB'!$V$2,D130='UNC - EIB'!$T$2),"x1",IF(AND(C130="pv",E130='LC - PV'!$R$2,D130='LC - PV'!$P$2),"x2",IF(AND(LEFT(C130,3)="eib",E130='LC - EIB'!$U$2,D130='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B130" s="62" t="str">
+      <c r="B130" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C130" s="62"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="65"/>
+        <v>127</v>
+      </c>
+      <c r="C130" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D130" s="67">
+        <v>42710</v>
+      </c>
+      <c r="E130" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G130" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="H130" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I130" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J130" s="66"/>
       <c r="K130" s="67"/>
       <c r="L130" s="65"/>
       <c r="M130" s="65"/>
-      <c r="N130" s="64"/>
+      <c r="N130" s="64" t="s">
+        <v>427</v>
+      </c>
       <c r="O130" s="68"/>
-      <c r="P130" s="69"/>
+      <c r="P130" s="69">
+        <v>2918780500</v>
+      </c>
       <c r="Q130" s="104"/>
       <c r="R130" s="255" t="str">
         <f>IF(AND(C130="pv",D130='UNC - PV'!$Q$2,LEFT(E130,1)="u",'UNC - PV'!$O$2="vnđ",TH!P130&lt;&gt;""),"p",IF(AND(C130="pv",D130='UNC - PV'!$Q$2,LEFT(E130,1)="u",'UNC - PV'!$O$2="usd",TH!O130&lt;&gt;""),"p1",IF(AND(C130="pv",D130='LC - PV'!$P$2,LEFT(E130,1)="l"),"p2",IF(AND(LEFT(C130,3)="EIB",D130='UNC - EIB'!$T$2,LEFT(E130,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P130&lt;&gt;""),"e",IF(AND(LEFT(C130,3)="EIB",D130='UNC - EIB'!$T$2,LEFT(E130,1)="U",'UNC - EIB'!$R$2="usd",TH!O130&lt;&gt;""),"e1",IF(AND(LEFT(C130,3)="EIB",D130='LC - EIB'!$S$2,LEFT(E130,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="131" spans="1:18" ht="18.75" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B131" s="62" t="str">
+        <v>x1</v>
+      </c>
+      <c r="B131" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C131" s="62"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="65"/>
+        <v>128</v>
+      </c>
+      <c r="C131" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" s="67">
+        <v>42710</v>
+      </c>
+      <c r="E131" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G131" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="H131" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I131" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J131" s="66"/>
       <c r="K131" s="67"/>
       <c r="L131" s="65"/>
       <c r="M131" s="65"/>
-      <c r="N131" s="64"/>
+      <c r="N131" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O131" s="68"/>
-      <c r="P131" s="69"/>
+      <c r="P131" s="69">
+        <v>1824920500</v>
+      </c>
       <c r="Q131" s="104"/>
       <c r="R131" s="255" t="str">
         <f>IF(AND(C131="pv",D131='UNC - PV'!$Q$2,LEFT(E131,1)="u",'UNC - PV'!$O$2="vnđ",TH!P131&lt;&gt;""),"p",IF(AND(C131="pv",D131='UNC - PV'!$Q$2,LEFT(E131,1)="u",'UNC - PV'!$O$2="usd",TH!O131&lt;&gt;""),"p1",IF(AND(C131="pv",D131='LC - PV'!$P$2,LEFT(E131,1)="l"),"p2",IF(AND(LEFT(C131,3)="EIB",D131='UNC - EIB'!$T$2,LEFT(E131,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P131&lt;&gt;""),"e",IF(AND(LEFT(C131,3)="EIB",D131='UNC - EIB'!$T$2,LEFT(E131,1)="U",'UNC - EIB'!$R$2="usd",TH!O131&lt;&gt;""),"e1",IF(AND(LEFT(C131,3)="EIB",D131='LC - EIB'!$S$2,LEFT(E131,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="18.75" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B132" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B132" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C132" s="62"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="65"/>
+        <v>129</v>
+      </c>
+      <c r="C132" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" s="67">
+        <v>42710</v>
+      </c>
+      <c r="E132" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="G132" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="H132" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="I132" s="65" t="s">
+        <v>434</v>
+      </c>
       <c r="J132" s="66"/>
       <c r="K132" s="67"/>
       <c r="L132" s="65"/>
       <c r="M132" s="65"/>
-      <c r="N132" s="64"/>
+      <c r="N132" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O132" s="68"/>
-      <c r="P132" s="69"/>
+      <c r="P132" s="69">
+        <v>552669000</v>
+      </c>
       <c r="Q132" s="104"/>
       <c r="R132" s="255" t="str">
         <f>IF(AND(C132="pv",D132='UNC - PV'!$Q$2,LEFT(E132,1)="u",'UNC - PV'!$O$2="vnđ",TH!P132&lt;&gt;""),"p",IF(AND(C132="pv",D132='UNC - PV'!$Q$2,LEFT(E132,1)="u",'UNC - PV'!$O$2="usd",TH!O132&lt;&gt;""),"p1",IF(AND(C132="pv",D132='LC - PV'!$P$2,LEFT(E132,1)="l"),"p2",IF(AND(LEFT(C132,3)="EIB",D132='UNC - EIB'!$T$2,LEFT(E132,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P132&lt;&gt;""),"e",IF(AND(LEFT(C132,3)="EIB",D132='UNC - EIB'!$T$2,LEFT(E132,1)="U",'UNC - EIB'!$R$2="usd",TH!O132&lt;&gt;""),"e1",IF(AND(LEFT(C132,3)="EIB",D132='LC - EIB'!$S$2,LEFT(E132,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="18.75" customHeight="1">
@@ -10419,7 +10546,7 @@
         <v/>
       </c>
       <c r="B137" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B137:B140" si="8">IF(C137&lt;&gt;"",ROW()-3,"")</f>
         <v/>
       </c>
       <c r="C137" s="62"/>
@@ -10448,7 +10575,7 @@
         <v/>
       </c>
       <c r="B138" s="62" t="str">
-        <f t="shared" ref="B138:B141" si="8">IF(C138&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C138" s="62"/>
@@ -10535,7 +10662,7 @@
         <v/>
       </c>
       <c r="B141" s="62" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B141:B148" si="9">IF(C141&lt;&gt;"",ROW()-3,"")</f>
         <v/>
       </c>
       <c r="C141" s="62"/>
@@ -10564,7 +10691,7 @@
         <v/>
       </c>
       <c r="B142" s="62" t="str">
-        <f t="shared" ref="B142:B149" si="9">IF(C142&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C142" s="62"/>
@@ -10767,7 +10894,7 @@
         <v/>
       </c>
       <c r="B149" s="62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C149" s="62"/>
@@ -10994,42 +11121,13 @@
       </c>
     </row>
     <row r="157" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A157" s="55" t="str">
-        <f>IF(AND(C157="pv",E157='UNC - PV'!$S$2,D157='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C157,3)="eib",E157='UNC - EIB'!$V$2,D157='UNC - EIB'!$T$2),"x1",IF(AND(C157="pv",E157='LC - PV'!$R$2,D157='LC - PV'!$P$2),"x2",IF(AND(LEFT(C157,3)="eib",E157='LC - EIB'!$U$2,D157='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B157" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C157" s="62"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="65"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="65"/>
-      <c r="J157" s="66"/>
-      <c r="K157" s="67"/>
-      <c r="L157" s="65"/>
-      <c r="M157" s="65"/>
-      <c r="N157" s="64"/>
-      <c r="O157" s="68"/>
-      <c r="P157" s="69"/>
-      <c r="Q157" s="104"/>
       <c r="R157" s="255" t="str">
         <f>IF(AND(C157="pv",D157='UNC - PV'!$Q$2,LEFT(E157,1)="u",'UNC - PV'!$O$2="vnđ",TH!P157&lt;&gt;""),"p",IF(AND(C157="pv",D157='UNC - PV'!$Q$2,LEFT(E157,1)="u",'UNC - PV'!$O$2="usd",TH!O157&lt;&gt;""),"p1",IF(AND(C157="pv",D157='LC - PV'!$P$2,LEFT(E157,1)="l"),"p2",IF(AND(LEFT(C157,3)="EIB",D157='UNC - EIB'!$T$2,LEFT(E157,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P157&lt;&gt;""),"e",IF(AND(LEFT(C157,3)="EIB",D157='UNC - EIB'!$T$2,LEFT(E157,1)="U",'UNC - EIB'!$R$2="usd",TH!O157&lt;&gt;""),"e1",IF(AND(LEFT(C157,3)="EIB",D157='LC - EIB'!$S$2,LEFT(E157,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="18.75" customHeight="1">
-      <c r="R158" s="255" t="str">
-        <f>IF(AND(C158="pv",D158='UNC - PV'!$Q$2,LEFT(E158,1)="u",'UNC - PV'!$O$2="vnđ",TH!P158&lt;&gt;""),"p",IF(AND(C158="pv",D158='UNC - PV'!$Q$2,LEFT(E158,1)="u",'UNC - PV'!$O$2="usd",TH!O158&lt;&gt;""),"p1",IF(AND(C158="pv",D158='LC - PV'!$P$2,LEFT(E158,1)="l"),"p2",IF(AND(LEFT(C158,3)="EIB",D158='UNC - EIB'!$T$2,LEFT(E158,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P158&lt;&gt;""),"e",IF(AND(LEFT(C158,3)="EIB",D158='UNC - EIB'!$T$2,LEFT(E158,1)="U",'UNC - EIB'!$R$2="usd",TH!O158&lt;&gt;""),"e1",IF(AND(LEFT(C158,3)="EIB",D158='LC - EIB'!$S$2,LEFT(E158,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B3:X158"/>
+  <autoFilter ref="B3:X157"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -11039,7 +11137,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C157">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C156">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18829,8 +18927,8 @@
   </sheetPr>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="32" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -18881,11 +18979,11 @@
         <v>29</v>
       </c>
       <c r="T2" s="10">
-        <v>42704</v>
+        <v>42710</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -18934,7 +19032,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="53" t="str">
         <f>IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="USD"),"1015 148 5100 9193",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="VNĐ"),"1015 148 5100 9180",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="VNĐ"),"1402 148 5100 9465",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="USD"),"1402 148 5100 9479",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="VNĐ"),"1402 148 5100 7445",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="USD"),"1402 148 5102 8153",""))))))</f>
-        <v>1402 148 5100 9465</v>
+        <v>1015 148 5100 9180</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="9.75" customHeight="1">
@@ -18950,7 +19048,7 @@
       <c r="B10" s="17"/>
       <c r="H10" s="53" t="str">
         <f>IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="1","CHI NHÁNH QUẬN 11",IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="4","CHI NHÁNH QUẬN 4",IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="V","CHI NHÁNH QUẬN 4","")))</f>
-        <v>CHI NHÁNH QUẬN 4</v>
+        <v>CHI NHÁNH QUẬN 11</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1">
@@ -18980,7 +19078,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>CTY CP GIẢI PHÁP THANH TOÁN ĐIỆN LỰC VÀ VIỄN THÔNG</v>
+        <v>DNTN THỦY ĐỒNG</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -18999,7 +19097,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>6801 0000 318 995</v>
+        <v>0500 3899 2421</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -19030,7 +19128,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>BIDV – CHI NHÁNH LONG AN</v>
+        <v>Sacombank-PGD Lagi</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -19060,7 +19158,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="53" t="str">
         <f>VLOOKUP("X1",DS,9,0)</f>
-        <v>LONG AN</v>
+        <v>Bình Thuận</v>
       </c>
       <c r="H18" s="31"/>
       <c r="J18" s="19" t="s">
@@ -19089,7 +19187,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba mươi bốn triệu, một trăm tám mươi bảy ngàn, một trăm hai mươi đồng.</v>
+        <v>Một tỷ, tám trăm hai mươi bốn triệu, chín trăm hai mươi ngàn, năm trăm đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -19130,7 +19228,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>34187120</v>
+        <v>1824920500</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -19145,7 +19243,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>MKH: PB06030022841- Tiền điện kỳ 2 tháng 11 năm 2016</v>
+        <v>Thanh toán tiền hàng</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -19281,7 +19379,7 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
@@ -19322,11 +19420,11 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>42704</v>
+        <v>42710</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1">
@@ -19346,7 +19444,7 @@
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
       <c r="F8" s="267">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>20000000</v>
+        <v>552669000</v>
       </c>
       <c r="G8" s="267"/>
       <c r="K8" s="1" t="str">
@@ -19361,7 +19459,7 @@
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai mươi triệu đồng.</v>
+        <v>Năm trăm năm mươi hai triệu, sáu trăm sáu mươi chín ngàn đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
@@ -19372,13 +19470,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển VNĐ</v>
+        <v>Thanh toán tiền hàng</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
       <c r="F13" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>DNTN THỦY SẢN PHƯƠNG MAI</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -19389,13 +19487,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1402 148 5100 9465</v>
+        <v>7504 201 003 221</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Eximbank - CN Q4, TPHCM</v>
+        <v>Agribank - Sông Đốc, Trần Văn Thời, Cà Mau</v>
       </c>
     </row>
   </sheetData>

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="09-16" sheetId="13" r:id="rId11"/>
     <sheet name="10-16" sheetId="14" r:id="rId12"/>
     <sheet name="11-16" sheetId="15" r:id="rId13"/>
+    <sheet name="12-16" sheetId="16" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" localSheetId="7" hidden="1">#REF!</definedName>
@@ -31,6 +32,7 @@
     <definedName name="_Fill" localSheetId="10" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="11" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="12" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="13" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="5" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'04-16'!$A$3:$S$26</definedName>
@@ -40,6 +42,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'09-16'!$A$3:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10-16'!$A$3:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11-16'!$A$3:$S$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12-16'!$A$3:$S$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$157</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
     <definedName name="DS">TH!$A$4:$Q$156</definedName>
@@ -56,6 +59,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'09-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'10-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'11-16'!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="13">'12-16'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -157,8 +161,32 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User 1</author>
+  </authors>
+  <commentList>
+    <comment ref="R4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3 Tháng sau 3.5%
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="458">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2015,6 +2043,36 @@
   </si>
   <si>
     <t>Thanh toán kiểm dịch vụ đợt ngày 10, 19 &amp; 25 tháng 11 năm 2016</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm cho TTCLNLTS 6 nộp vào TK 3511.0.1054053.00000 - KBNN Cần Thơ</t>
+  </si>
+  <si>
+    <t>CTY TNHH DỊCH VỤ VẬN CHUYỂN QUỐC TẾ HOÀNG ANH</t>
+  </si>
+  <si>
+    <t>802 62 809</t>
+  </si>
+  <si>
+    <t>NH Á CHÂU - CN TP.HCM</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền cước vận chuyển</t>
+  </si>
+  <si>
+    <t>CTY TNHH IFB INTERNATIONAL FREIGHTBRIDGE VIỆT NAM</t>
+  </si>
+  <si>
+    <t>6017 0406 0168 152</t>
+  </si>
+  <si>
+    <t>NGÂN HÀNG VIB - CN TPHCM</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền nước, phí CSHT  T10 &amp; T11 năm 2016 - Hải Sơn</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 3 tháng 11 năm 2016</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2872,7 @@
     <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3509,6 +3567,18 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="42" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3952,11 +4022,11 @@
   <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="G133" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C131" sqref="C131"/>
+      <selection pane="bottomRight" activeCell="P143" sqref="P143:P144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4036,39 +4106,39 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="265" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="262"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="261" t="s">
+      <c r="D2" s="266"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="262"/>
-      <c r="K2" s="262"/>
-      <c r="L2" s="262"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="260" t="s">
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="266"/>
+      <c r="K2" s="266"/>
+      <c r="L2" s="266"/>
+      <c r="M2" s="267"/>
+      <c r="N2" s="260" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="260"/>
-      <c r="Q2" s="258" t="s">
+      <c r="P2" s="264"/>
+      <c r="Q2" s="262" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="59" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="257"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="60" t="s">
         <v>14</v>
       </c>
@@ -4102,14 +4172,14 @@
       <c r="M3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="257"/>
+      <c r="N3" s="261"/>
       <c r="O3" s="61" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="259"/>
+      <c r="Q3" s="263"/>
       <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1">
@@ -9714,7 +9784,7 @@
         <v/>
       </c>
       <c r="B118" s="62">
-        <f t="shared" ref="B118:B128" si="7">IF(C118&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B118:B131" si="7">IF(C118&lt;&gt;"",ROW()-3,"")</f>
         <v>115</v>
       </c>
       <c r="C118" s="62" t="s">
@@ -10199,38 +10269,40 @@
         <v/>
       </c>
       <c r="B128" s="62">
-        <f t="shared" si="7"/>
+        <f>IF(C128&lt;&gt;"",ROW()-3,"")</f>
         <v>125</v>
       </c>
       <c r="C128" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D128" s="67"/>
+        <v>145</v>
+      </c>
+      <c r="D128" s="67">
+        <v>42710</v>
+      </c>
       <c r="E128" s="233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128" s="64" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="G128" s="64" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="H128" s="64" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="I128" s="65" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="J128" s="66"/>
       <c r="K128" s="67"/>
       <c r="L128" s="65"/>
       <c r="M128" s="65"/>
       <c r="N128" s="64" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="O128" s="68"/>
       <c r="P128" s="69">
-        <v>7533000</v>
+        <v>2918780500</v>
       </c>
       <c r="Q128" s="104"/>
       <c r="R128" s="255" t="str">
@@ -10244,38 +10316,40 @@
         <v/>
       </c>
       <c r="B129" s="62">
-        <f t="shared" si="0"/>
+        <f>IF(C129&lt;&gt;"",ROW()-3,"")</f>
         <v>126</v>
       </c>
       <c r="C129" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D129" s="67"/>
+        <v>145</v>
+      </c>
+      <c r="D129" s="67">
+        <v>42710</v>
+      </c>
       <c r="E129" s="233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F129" s="64" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G129" s="64" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H129" s="64" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="I129" s="65" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="J129" s="66"/>
       <c r="K129" s="67"/>
       <c r="L129" s="65"/>
       <c r="M129" s="65"/>
-      <c r="N129" s="64" t="s">
-        <v>447</v>
+      <c r="N129" s="108" t="s">
+        <v>427</v>
       </c>
       <c r="O129" s="68"/>
       <c r="P129" s="69">
-        <v>9005000</v>
+        <v>1824920500</v>
       </c>
       <c r="Q129" s="104"/>
       <c r="R129" s="255" t="str">
@@ -10289,7 +10363,7 @@
         <v/>
       </c>
       <c r="B130" s="62">
-        <f t="shared" si="0"/>
+        <f>IF(C130&lt;&gt;"",ROW()-3,"")</f>
         <v>127</v>
       </c>
       <c r="C130" s="62" t="s">
@@ -10299,129 +10373,129 @@
         <v>42710</v>
       </c>
       <c r="E130" s="233" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F130" s="64" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="G130" s="64" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="H130" s="64" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="I130" s="65" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="J130" s="66"/>
       <c r="K130" s="67"/>
       <c r="L130" s="65"/>
       <c r="M130" s="65"/>
-      <c r="N130" s="64" t="s">
+      <c r="N130" s="108" t="s">
         <v>427</v>
       </c>
       <c r="O130" s="68"/>
       <c r="P130" s="69">
-        <v>2918780500</v>
+        <v>552669000</v>
       </c>
       <c r="Q130" s="104"/>
       <c r="R130" s="255" t="str">
         <f>IF(AND(C130="pv",D130='UNC - PV'!$Q$2,LEFT(E130,1)="u",'UNC - PV'!$O$2="vnđ",TH!P130&lt;&gt;""),"p",IF(AND(C130="pv",D130='UNC - PV'!$Q$2,LEFT(E130,1)="u",'UNC - PV'!$O$2="usd",TH!O130&lt;&gt;""),"p1",IF(AND(C130="pv",D130='LC - PV'!$P$2,LEFT(E130,1)="l"),"p2",IF(AND(LEFT(C130,3)="EIB",D130='UNC - EIB'!$T$2,LEFT(E130,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P130&lt;&gt;""),"e",IF(AND(LEFT(C130,3)="EIB",D130='UNC - EIB'!$T$2,LEFT(E130,1)="U",'UNC - EIB'!$R$2="usd",TH!O130&lt;&gt;""),"e1",IF(AND(LEFT(C130,3)="EIB",D130='LC - EIB'!$S$2,LEFT(E130,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="131" spans="1:18" ht="18.75" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B131" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="C131" s="62" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="D131" s="67">
-        <v>42710</v>
+        <v>42712</v>
       </c>
       <c r="E131" s="233" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F131" s="64" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G131" s="64" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="H131" s="64" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="I131" s="65" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="J131" s="66"/>
       <c r="K131" s="67"/>
       <c r="L131" s="65"/>
       <c r="M131" s="65"/>
-      <c r="N131" s="108" t="s">
-        <v>427</v>
+      <c r="N131" s="64" t="s">
+        <v>444</v>
       </c>
       <c r="O131" s="68"/>
       <c r="P131" s="69">
-        <v>1824920500</v>
+        <v>7533000</v>
       </c>
       <c r="Q131" s="104"/>
       <c r="R131" s="255" t="str">
         <f>IF(AND(C131="pv",D131='UNC - PV'!$Q$2,LEFT(E131,1)="u",'UNC - PV'!$O$2="vnđ",TH!P131&lt;&gt;""),"p",IF(AND(C131="pv",D131='UNC - PV'!$Q$2,LEFT(E131,1)="u",'UNC - PV'!$O$2="usd",TH!O131&lt;&gt;""),"p1",IF(AND(C131="pv",D131='LC - PV'!$P$2,LEFT(E131,1)="l"),"p2",IF(AND(LEFT(C131,3)="EIB",D131='UNC - EIB'!$T$2,LEFT(E131,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P131&lt;&gt;""),"e",IF(AND(LEFT(C131,3)="EIB",D131='UNC - EIB'!$T$2,LEFT(E131,1)="U",'UNC - EIB'!$R$2="usd",TH!O131&lt;&gt;""),"e1",IF(AND(LEFT(C131,3)="EIB",D131='LC - EIB'!$S$2,LEFT(E131,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="132" spans="1:18" ht="18.75" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B132" s="62">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="C132" s="62" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D132" s="67">
-        <v>42710</v>
+        <v>42712</v>
       </c>
       <c r="E132" s="233" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F132" s="64" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="G132" s="64" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H132" s="64" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="I132" s="65" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="J132" s="66"/>
       <c r="K132" s="67"/>
       <c r="L132" s="65"/>
       <c r="M132" s="65"/>
-      <c r="N132" s="108" t="s">
-        <v>427</v>
+      <c r="N132" s="64" t="s">
+        <v>447</v>
       </c>
       <c r="O132" s="68"/>
       <c r="P132" s="69">
-        <v>552669000</v>
+        <v>9005000</v>
       </c>
       <c r="Q132" s="104"/>
       <c r="R132" s="255" t="str">
         <f>IF(AND(C132="pv",D132='UNC - PV'!$Q$2,LEFT(E132,1)="u",'UNC - PV'!$O$2="vnđ",TH!P132&lt;&gt;""),"p",IF(AND(C132="pv",D132='UNC - PV'!$Q$2,LEFT(E132,1)="u",'UNC - PV'!$O$2="usd",TH!O132&lt;&gt;""),"p1",IF(AND(C132="pv",D132='LC - PV'!$P$2,LEFT(E132,1)="l"),"p2",IF(AND(LEFT(C132,3)="EIB",D132='UNC - EIB'!$T$2,LEFT(E132,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P132&lt;&gt;""),"e",IF(AND(LEFT(C132,3)="EIB",D132='UNC - EIB'!$T$2,LEFT(E132,1)="U",'UNC - EIB'!$R$2="usd",TH!O132&lt;&gt;""),"e1",IF(AND(LEFT(C132,3)="EIB",D132='LC - EIB'!$S$2,LEFT(E132,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="133" spans="1:18" ht="18.75" customHeight="1">
@@ -10429,24 +10503,42 @@
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B133" s="62" t="str">
+      <c r="B133" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C133" s="62"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="65"/>
+        <v>130</v>
+      </c>
+      <c r="C133" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" s="67">
+        <v>42712</v>
+      </c>
+      <c r="E133" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G133" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H133" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I133" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J133" s="66"/>
       <c r="K133" s="67"/>
       <c r="L133" s="65"/>
       <c r="M133" s="65"/>
-      <c r="N133" s="64"/>
+      <c r="N133" s="108" t="s">
+        <v>135</v>
+      </c>
       <c r="O133" s="68"/>
-      <c r="P133" s="69"/>
+      <c r="P133" s="69">
+        <v>10000000</v>
+      </c>
       <c r="Q133" s="104"/>
       <c r="R133" s="255" t="str">
         <f>IF(AND(C133="pv",D133='UNC - PV'!$Q$2,LEFT(E133,1)="u",'UNC - PV'!$O$2="vnđ",TH!P133&lt;&gt;""),"p",IF(AND(C133="pv",D133='UNC - PV'!$Q$2,LEFT(E133,1)="u",'UNC - PV'!$O$2="usd",TH!O133&lt;&gt;""),"p1",IF(AND(C133="pv",D133='LC - PV'!$P$2,LEFT(E133,1)="l"),"p2",IF(AND(LEFT(C133,3)="EIB",D133='UNC - EIB'!$T$2,LEFT(E133,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P133&lt;&gt;""),"e",IF(AND(LEFT(C133,3)="EIB",D133='UNC - EIB'!$T$2,LEFT(E133,1)="U",'UNC - EIB'!$R$2="usd",TH!O133&lt;&gt;""),"e1",IF(AND(LEFT(C133,3)="EIB",D133='LC - EIB'!$S$2,LEFT(E133,1)="l"),"e2",""))))))</f>
@@ -10458,28 +10550,46 @@
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B134" s="62" t="str">
+      <c r="B134" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="65"/>
+        <v>131</v>
+      </c>
+      <c r="C134" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E134" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G134" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="H134" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I134" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J134" s="66"/>
       <c r="K134" s="67"/>
       <c r="L134" s="65"/>
       <c r="M134" s="65"/>
-      <c r="N134" s="64"/>
+      <c r="N134" s="64" t="s">
+        <v>177</v>
+      </c>
       <c r="O134" s="68"/>
-      <c r="P134" s="69"/>
+      <c r="P134" s="69">
+        <v>200000000</v>
+      </c>
       <c r="Q134" s="104"/>
       <c r="R134" s="255" t="str">
         <f>IF(AND(C134="pv",D134='UNC - PV'!$Q$2,LEFT(E134,1)="u",'UNC - PV'!$O$2="vnđ",TH!P134&lt;&gt;""),"p",IF(AND(C134="pv",D134='UNC - PV'!$Q$2,LEFT(E134,1)="u",'UNC - PV'!$O$2="usd",TH!O134&lt;&gt;""),"p1",IF(AND(C134="pv",D134='LC - PV'!$P$2,LEFT(E134,1)="l"),"p2",IF(AND(LEFT(C134,3)="EIB",D134='UNC - EIB'!$T$2,LEFT(E134,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P134&lt;&gt;""),"e",IF(AND(LEFT(C134,3)="EIB",D134='UNC - EIB'!$T$2,LEFT(E134,1)="U",'UNC - EIB'!$R$2="usd",TH!O134&lt;&gt;""),"e1",IF(AND(LEFT(C134,3)="EIB",D134='LC - EIB'!$S$2,LEFT(E134,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="135" spans="1:18" ht="18.75" customHeight="1">
@@ -10487,28 +10597,46 @@
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B135" s="62" t="str">
+      <c r="B135" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C135" s="62"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
-      <c r="I135" s="65"/>
+        <v>132</v>
+      </c>
+      <c r="C135" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D135" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E135" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="G135" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="H135" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="I135" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J135" s="66"/>
       <c r="K135" s="67"/>
       <c r="L135" s="65"/>
       <c r="M135" s="65"/>
-      <c r="N135" s="64"/>
+      <c r="N135" s="64" t="s">
+        <v>403</v>
+      </c>
       <c r="O135" s="68"/>
-      <c r="P135" s="69"/>
+      <c r="P135" s="69">
+        <v>50658716</v>
+      </c>
       <c r="Q135" s="104"/>
       <c r="R135" s="255" t="str">
         <f>IF(AND(C135="pv",D135='UNC - PV'!$Q$2,LEFT(E135,1)="u",'UNC - PV'!$O$2="vnđ",TH!P135&lt;&gt;""),"p",IF(AND(C135="pv",D135='UNC - PV'!$Q$2,LEFT(E135,1)="u",'UNC - PV'!$O$2="usd",TH!O135&lt;&gt;""),"p1",IF(AND(C135="pv",D135='LC - PV'!$P$2,LEFT(E135,1)="l"),"p2",IF(AND(LEFT(C135,3)="EIB",D135='UNC - EIB'!$T$2,LEFT(E135,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P135&lt;&gt;""),"e",IF(AND(LEFT(C135,3)="EIB",D135='UNC - EIB'!$T$2,LEFT(E135,1)="U",'UNC - EIB'!$R$2="usd",TH!O135&lt;&gt;""),"e1",IF(AND(LEFT(C135,3)="EIB",D135='LC - EIB'!$S$2,LEFT(E135,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="18.75" customHeight="1">
@@ -10516,28 +10644,46 @@
         <f>IF(AND(C136="pv",E136='UNC - PV'!$S$2,D136='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C136,3)="eib",E136='UNC - EIB'!$V$2,D136='UNC - EIB'!$T$2),"x1",IF(AND(C136="pv",E136='LC - PV'!$R$2,D136='LC - PV'!$P$2),"x2",IF(AND(LEFT(C136,3)="eib",E136='LC - EIB'!$U$2,D136='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B136" s="62" t="str">
+      <c r="B136" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C136" s="62"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="65"/>
+        <v>133</v>
+      </c>
+      <c r="C136" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D136" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E136" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G136" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H136" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="I136" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J136" s="66"/>
       <c r="K136" s="67"/>
       <c r="L136" s="65"/>
       <c r="M136" s="65"/>
-      <c r="N136" s="64"/>
+      <c r="N136" s="64" t="s">
+        <v>452</v>
+      </c>
       <c r="O136" s="68"/>
-      <c r="P136" s="69"/>
+      <c r="P136" s="69">
+        <v>24884526</v>
+      </c>
       <c r="Q136" s="104"/>
       <c r="R136" s="255" t="str">
         <f>IF(AND(C136="pv",D136='UNC - PV'!$Q$2,LEFT(E136,1)="u",'UNC - PV'!$O$2="vnđ",TH!P136&lt;&gt;""),"p",IF(AND(C136="pv",D136='UNC - PV'!$Q$2,LEFT(E136,1)="u",'UNC - PV'!$O$2="usd",TH!O136&lt;&gt;""),"p1",IF(AND(C136="pv",D136='LC - PV'!$P$2,LEFT(E136,1)="l"),"p2",IF(AND(LEFT(C136,3)="EIB",D136='UNC - EIB'!$T$2,LEFT(E136,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P136&lt;&gt;""),"e",IF(AND(LEFT(C136,3)="EIB",D136='UNC - EIB'!$T$2,LEFT(E136,1)="U",'UNC - EIB'!$R$2="usd",TH!O136&lt;&gt;""),"e1",IF(AND(LEFT(C136,3)="EIB",D136='LC - EIB'!$S$2,LEFT(E136,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="18.75" customHeight="1">
@@ -10545,28 +10691,46 @@
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B137" s="62" t="str">
+      <c r="B137" s="62">
         <f t="shared" ref="B137:B140" si="8">IF(C137&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C137" s="62"/>
-      <c r="D137" s="67"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
-      <c r="I137" s="65"/>
+        <v>134</v>
+      </c>
+      <c r="C137" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E137" s="233" t="s">
+        <v>26</v>
+      </c>
+      <c r="F137" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="G137" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="H137" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="I137" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J137" s="66"/>
       <c r="K137" s="67"/>
       <c r="L137" s="65"/>
       <c r="M137" s="65"/>
-      <c r="N137" s="64"/>
+      <c r="N137" s="64" t="s">
+        <v>177</v>
+      </c>
       <c r="O137" s="68"/>
-      <c r="P137" s="69"/>
+      <c r="P137" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q137" s="104"/>
       <c r="R137" s="255" t="str">
         <f>IF(AND(C137="pv",D137='UNC - PV'!$Q$2,LEFT(E137,1)="u",'UNC - PV'!$O$2="vnđ",TH!P137&lt;&gt;""),"p",IF(AND(C137="pv",D137='UNC - PV'!$Q$2,LEFT(E137,1)="u",'UNC - PV'!$O$2="usd",TH!O137&lt;&gt;""),"p1",IF(AND(C137="pv",D137='LC - PV'!$P$2,LEFT(E137,1)="l"),"p2",IF(AND(LEFT(C137,3)="EIB",D137='UNC - EIB'!$T$2,LEFT(E137,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P137&lt;&gt;""),"e",IF(AND(LEFT(C137,3)="EIB",D137='UNC - EIB'!$T$2,LEFT(E137,1)="U",'UNC - EIB'!$R$2="usd",TH!O137&lt;&gt;""),"e1",IF(AND(LEFT(C137,3)="EIB",D137='LC - EIB'!$S$2,LEFT(E137,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="138" spans="1:18" ht="18.75" customHeight="1">
@@ -10574,28 +10738,46 @@
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B138" s="62" t="str">
+      <c r="B138" s="62">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C138" s="62"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="64"/>
-      <c r="H138" s="64"/>
-      <c r="I138" s="65"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="67"/>
-      <c r="L138" s="65"/>
-      <c r="M138" s="65"/>
-      <c r="N138" s="64"/>
+        <v>135</v>
+      </c>
+      <c r="C138" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E138" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="F138" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H138" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I138" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J138" s="72"/>
+      <c r="K138" s="63"/>
+      <c r="L138" s="62"/>
+      <c r="M138" s="62"/>
+      <c r="N138" s="70" t="s">
+        <v>456</v>
+      </c>
       <c r="O138" s="68"/>
-      <c r="P138" s="69"/>
+      <c r="P138" s="69">
+        <v>15972638</v>
+      </c>
       <c r="Q138" s="104"/>
       <c r="R138" s="255" t="str">
         <f>IF(AND(C138="pv",D138='UNC - PV'!$Q$2,LEFT(E138,1)="u",'UNC - PV'!$O$2="vnđ",TH!P138&lt;&gt;""),"p",IF(AND(C138="pv",D138='UNC - PV'!$Q$2,LEFT(E138,1)="u",'UNC - PV'!$O$2="usd",TH!O138&lt;&gt;""),"p1",IF(AND(C138="pv",D138='LC - PV'!$P$2,LEFT(E138,1)="l"),"p2",IF(AND(LEFT(C138,3)="EIB",D138='UNC - EIB'!$T$2,LEFT(E138,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P138&lt;&gt;""),"e",IF(AND(LEFT(C138,3)="EIB",D138='UNC - EIB'!$T$2,LEFT(E138,1)="U",'UNC - EIB'!$R$2="usd",TH!O138&lt;&gt;""),"e1",IF(AND(LEFT(C138,3)="EIB",D138='LC - EIB'!$S$2,LEFT(E138,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="139" spans="1:18" ht="18.75" customHeight="1">
@@ -10603,57 +10785,93 @@
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B139" s="62" t="str">
+      <c r="B139" s="62">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C139" s="62"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="65"/>
+        <v>136</v>
+      </c>
+      <c r="C139" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E139" s="233" t="s">
+        <v>85</v>
+      </c>
+      <c r="F139" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="H139" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J139" s="66"/>
       <c r="K139" s="67"/>
       <c r="L139" s="65"/>
       <c r="M139" s="65"/>
-      <c r="N139" s="64"/>
+      <c r="N139" s="64" t="s">
+        <v>457</v>
+      </c>
       <c r="O139" s="68"/>
-      <c r="P139" s="69"/>
+      <c r="P139" s="69">
+        <v>27868940</v>
+      </c>
       <c r="Q139" s="104"/>
       <c r="R139" s="255" t="str">
         <f>IF(AND(C139="pv",D139='UNC - PV'!$Q$2,LEFT(E139,1)="u",'UNC - PV'!$O$2="vnđ",TH!P139&lt;&gt;""),"p",IF(AND(C139="pv",D139='UNC - PV'!$Q$2,LEFT(E139,1)="u",'UNC - PV'!$O$2="usd",TH!O139&lt;&gt;""),"p1",IF(AND(C139="pv",D139='LC - PV'!$P$2,LEFT(E139,1)="l"),"p2",IF(AND(LEFT(C139,3)="EIB",D139='UNC - EIB'!$T$2,LEFT(E139,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P139&lt;&gt;""),"e",IF(AND(LEFT(C139,3)="EIB",D139='UNC - EIB'!$T$2,LEFT(E139,1)="U",'UNC - EIB'!$R$2="usd",TH!O139&lt;&gt;""),"e1",IF(AND(LEFT(C139,3)="EIB",D139='LC - EIB'!$S$2,LEFT(E139,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="140" spans="1:18" ht="18.75" customHeight="1">
       <c r="A140" s="55" t="str">
         <f>IF(AND(C140="pv",E140='UNC - PV'!$S$2,D140='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C140,3)="eib",E140='UNC - EIB'!$V$2,D140='UNC - EIB'!$T$2),"x1",IF(AND(C140="pv",E140='LC - PV'!$R$2,D140='LC - PV'!$P$2),"x2",IF(AND(LEFT(C140,3)="eib",E140='LC - EIB'!$U$2,D140='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B140" s="62" t="str">
+        <v>x1</v>
+      </c>
+      <c r="B140" s="62">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="C140" s="62"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="65"/>
+        <v>137</v>
+      </c>
+      <c r="C140" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D140" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E140" s="233" t="s">
+        <v>172</v>
+      </c>
+      <c r="F140" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="G140" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="H140" s="64" t="s">
+        <v>442</v>
+      </c>
+      <c r="I140" s="65" t="s">
+        <v>443</v>
+      </c>
       <c r="J140" s="66"/>
       <c r="K140" s="67"/>
       <c r="L140" s="65"/>
       <c r="M140" s="65"/>
-      <c r="N140" s="64"/>
+      <c r="N140" s="64" t="s">
+        <v>448</v>
+      </c>
       <c r="O140" s="68"/>
-      <c r="P140" s="69"/>
+      <c r="P140" s="69">
+        <v>7533000</v>
+      </c>
       <c r="Q140" s="104"/>
       <c r="R140" s="255" t="str">
         <f>IF(AND(C140="pv",D140='UNC - PV'!$Q$2,LEFT(E140,1)="u",'UNC - PV'!$O$2="vnđ",TH!P140&lt;&gt;""),"p",IF(AND(C140="pv",D140='UNC - PV'!$Q$2,LEFT(E140,1)="u",'UNC - PV'!$O$2="usd",TH!O140&lt;&gt;""),"p1",IF(AND(C140="pv",D140='LC - PV'!$P$2,LEFT(E140,1)="l"),"p2",IF(AND(LEFT(C140,3)="EIB",D140='UNC - EIB'!$T$2,LEFT(E140,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P140&lt;&gt;""),"e",IF(AND(LEFT(C140,3)="EIB",D140='UNC - EIB'!$T$2,LEFT(E140,1)="U",'UNC - EIB'!$R$2="usd",TH!O140&lt;&gt;""),"e1",IF(AND(LEFT(C140,3)="EIB",D140='LC - EIB'!$S$2,LEFT(E140,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="141" spans="1:18" ht="18.75" customHeight="1">
@@ -10661,28 +10879,46 @@
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B141" s="62" t="str">
+      <c r="B141" s="62">
         <f t="shared" ref="B141:B148" si="9">IF(C141&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C141" s="62"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="65"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="67"/>
-      <c r="L141" s="65"/>
-      <c r="M141" s="65"/>
-      <c r="N141" s="64"/>
-      <c r="O141" s="68"/>
-      <c r="P141" s="69"/>
+        <v>138</v>
+      </c>
+      <c r="C141" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D141" s="67">
+        <v>42713</v>
+      </c>
+      <c r="E141" s="233" t="s">
+        <v>222</v>
+      </c>
+      <c r="F141" s="108" t="s">
+        <v>154</v>
+      </c>
+      <c r="G141" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="H141" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="I141" s="111" t="s">
+        <v>10</v>
+      </c>
+      <c r="J141" s="109"/>
+      <c r="K141" s="110"/>
+      <c r="L141" s="111"/>
+      <c r="M141" s="111"/>
+      <c r="N141" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="O141" s="112"/>
+      <c r="P141" s="69">
+        <v>50000000</v>
+      </c>
       <c r="Q141" s="104"/>
       <c r="R141" s="255" t="str">
         <f>IF(AND(C141="pv",D141='UNC - PV'!$Q$2,LEFT(E141,1)="u",'UNC - PV'!$O$2="vnđ",TH!P141&lt;&gt;""),"p",IF(AND(C141="pv",D141='UNC - PV'!$Q$2,LEFT(E141,1)="u",'UNC - PV'!$O$2="usd",TH!O141&lt;&gt;""),"p1",IF(AND(C141="pv",D141='LC - PV'!$P$2,LEFT(E141,1)="l"),"p2",IF(AND(LEFT(C141,3)="EIB",D141='UNC - EIB'!$T$2,LEFT(E141,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P141&lt;&gt;""),"e",IF(AND(LEFT(C141,3)="EIB",D141='UNC - EIB'!$T$2,LEFT(E141,1)="U",'UNC - EIB'!$R$2="usd",TH!O141&lt;&gt;""),"e1",IF(AND(LEFT(C141,3)="EIB",D141='LC - EIB'!$S$2,LEFT(E141,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>e</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="18.75" customHeight="1">
@@ -10690,23 +10926,41 @@
         <f>IF(AND(C142="pv",E142='UNC - PV'!$S$2,D142='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C142,3)="eib",E142='UNC - EIB'!$V$2,D142='UNC - EIB'!$T$2),"x1",IF(AND(C142="pv",E142='LC - PV'!$R$2,D142='LC - PV'!$P$2),"x2",IF(AND(LEFT(C142,3)="eib",E142='LC - EIB'!$U$2,D142='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B142" s="62" t="str">
+      <c r="B142" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C142" s="62"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="65"/>
+        <v>139</v>
+      </c>
+      <c r="C142" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142" s="67">
+        <v>42717</v>
+      </c>
+      <c r="E142" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G142" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="H142" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I142" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J142" s="66"/>
       <c r="K142" s="67"/>
       <c r="L142" s="65"/>
       <c r="M142" s="65"/>
-      <c r="N142" s="64"/>
-      <c r="O142" s="68"/>
+      <c r="N142" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="O142" s="68">
+        <v>71000</v>
+      </c>
       <c r="P142" s="69"/>
       <c r="Q142" s="104"/>
       <c r="R142" s="255" t="str">
@@ -10719,28 +10973,46 @@
         <f>IF(AND(C143="pv",E143='UNC - PV'!$S$2,D143='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C143,3)="eib",E143='UNC - EIB'!$V$2,D143='UNC - EIB'!$T$2),"x1",IF(AND(C143="pv",E143='LC - PV'!$R$2,D143='LC - PV'!$P$2),"x2",IF(AND(LEFT(C143,3)="eib",E143='LC - EIB'!$U$2,D143='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B143" s="62" t="str">
+      <c r="B143" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C143" s="62"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="65"/>
+        <v>140</v>
+      </c>
+      <c r="C143" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D143" s="67">
+        <v>42718</v>
+      </c>
+      <c r="E143" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G143" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="H143" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I143" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J143" s="66"/>
       <c r="K143" s="67"/>
       <c r="L143" s="65"/>
       <c r="M143" s="65"/>
-      <c r="N143" s="64"/>
+      <c r="N143" s="64" t="s">
+        <v>427</v>
+      </c>
       <c r="O143" s="68"/>
-      <c r="P143" s="69"/>
+      <c r="P143" s="69">
+        <v>1443000000</v>
+      </c>
       <c r="Q143" s="104"/>
       <c r="R143" s="255" t="str">
         <f>IF(AND(C143="pv",D143='UNC - PV'!$Q$2,LEFT(E143,1)="u",'UNC - PV'!$O$2="vnđ",TH!P143&lt;&gt;""),"p",IF(AND(C143="pv",D143='UNC - PV'!$Q$2,LEFT(E143,1)="u",'UNC - PV'!$O$2="usd",TH!O143&lt;&gt;""),"p1",IF(AND(C143="pv",D143='LC - PV'!$P$2,LEFT(E143,1)="l"),"p2",IF(AND(LEFT(C143,3)="EIB",D143='UNC - EIB'!$T$2,LEFT(E143,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P143&lt;&gt;""),"e",IF(AND(LEFT(C143,3)="EIB",D143='UNC - EIB'!$T$2,LEFT(E143,1)="U",'UNC - EIB'!$R$2="usd",TH!O143&lt;&gt;""),"e1",IF(AND(LEFT(C143,3)="EIB",D143='LC - EIB'!$S$2,LEFT(E143,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="18.75" customHeight="1">
@@ -10748,28 +11020,46 @@
         <f>IF(AND(C144="pv",E144='UNC - PV'!$S$2,D144='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C144,3)="eib",E144='UNC - EIB'!$V$2,D144='UNC - EIB'!$T$2),"x1",IF(AND(C144="pv",E144='LC - PV'!$R$2,D144='LC - PV'!$P$2),"x2",IF(AND(LEFT(C144,3)="eib",E144='LC - EIB'!$U$2,D144='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B144" s="62" t="str">
+      <c r="B144" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C144" s="62"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="65"/>
+        <v>141</v>
+      </c>
+      <c r="C144" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D144" s="67">
+        <v>42718</v>
+      </c>
+      <c r="E144" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G144" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="H144" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I144" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J144" s="66"/>
       <c r="K144" s="67"/>
       <c r="L144" s="65"/>
       <c r="M144" s="65"/>
-      <c r="N144" s="64"/>
+      <c r="N144" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O144" s="68"/>
-      <c r="P144" s="69"/>
+      <c r="P144" s="69">
+        <v>974415000</v>
+      </c>
       <c r="Q144" s="104"/>
       <c r="R144" s="255" t="str">
         <f>IF(AND(C144="pv",D144='UNC - PV'!$Q$2,LEFT(E144,1)="u",'UNC - PV'!$O$2="vnđ",TH!P144&lt;&gt;""),"p",IF(AND(C144="pv",D144='UNC - PV'!$Q$2,LEFT(E144,1)="u",'UNC - PV'!$O$2="usd",TH!O144&lt;&gt;""),"p1",IF(AND(C144="pv",D144='LC - PV'!$P$2,LEFT(E144,1)="l"),"p2",IF(AND(LEFT(C144,3)="EIB",D144='UNC - EIB'!$T$2,LEFT(E144,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P144&lt;&gt;""),"e",IF(AND(LEFT(C144,3)="EIB",D144='UNC - EIB'!$T$2,LEFT(E144,1)="U",'UNC - EIB'!$R$2="usd",TH!O144&lt;&gt;""),"e1",IF(AND(LEFT(C144,3)="EIB",D144='LC - EIB'!$S$2,LEFT(E144,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="145" spans="1:18" ht="18.75" customHeight="1">
@@ -10777,57 +11067,93 @@
         <f>IF(AND(C145="pv",E145='UNC - PV'!$S$2,D145='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C145,3)="eib",E145='UNC - EIB'!$V$2,D145='UNC - EIB'!$T$2),"x1",IF(AND(C145="pv",E145='LC - PV'!$R$2,D145='LC - PV'!$P$2),"x2",IF(AND(LEFT(C145,3)="eib",E145='LC - EIB'!$U$2,D145='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B145" s="62" t="str">
+      <c r="B145" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C145" s="62"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="64"/>
-      <c r="G145" s="64"/>
-      <c r="H145" s="64"/>
-      <c r="I145" s="65"/>
+        <v>142</v>
+      </c>
+      <c r="C145" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D145" s="67">
+        <v>42718</v>
+      </c>
+      <c r="E145" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="G145" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="H145" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="I145" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J145" s="66"/>
       <c r="K145" s="67"/>
       <c r="L145" s="65"/>
       <c r="M145" s="65"/>
-      <c r="N145" s="64"/>
+      <c r="N145" s="64" t="s">
+        <v>403</v>
+      </c>
       <c r="O145" s="68"/>
-      <c r="P145" s="69"/>
+      <c r="P145" s="69">
+        <v>26948372</v>
+      </c>
       <c r="Q145" s="104"/>
       <c r="R145" s="255" t="str">
         <f>IF(AND(C145="pv",D145='UNC - PV'!$Q$2,LEFT(E145,1)="u",'UNC - PV'!$O$2="vnđ",TH!P145&lt;&gt;""),"p",IF(AND(C145="pv",D145='UNC - PV'!$Q$2,LEFT(E145,1)="u",'UNC - PV'!$O$2="usd",TH!O145&lt;&gt;""),"p1",IF(AND(C145="pv",D145='LC - PV'!$P$2,LEFT(E145,1)="l"),"p2",IF(AND(LEFT(C145,3)="EIB",D145='UNC - EIB'!$T$2,LEFT(E145,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P145&lt;&gt;""),"e",IF(AND(LEFT(C145,3)="EIB",D145='UNC - EIB'!$T$2,LEFT(E145,1)="U",'UNC - EIB'!$R$2="usd",TH!O145&lt;&gt;""),"e1",IF(AND(LEFT(C145,3)="EIB",D145='LC - EIB'!$S$2,LEFT(E145,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="18.75" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B146" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B146" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C146" s="62"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="64"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="65"/>
+        <v>143</v>
+      </c>
+      <c r="C146" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="67">
+        <v>42718</v>
+      </c>
+      <c r="E146" s="233" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="G146" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="H146" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="I146" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J146" s="66"/>
       <c r="K146" s="67"/>
       <c r="L146" s="65"/>
       <c r="M146" s="65"/>
-      <c r="N146" s="64"/>
+      <c r="N146" s="64" t="s">
+        <v>452</v>
+      </c>
       <c r="O146" s="68"/>
-      <c r="P146" s="69"/>
+      <c r="P146" s="69">
+        <v>24884526</v>
+      </c>
       <c r="Q146" s="104"/>
       <c r="R146" s="255" t="str">
         <f>IF(AND(C146="pv",D146='UNC - PV'!$Q$2,LEFT(E146,1)="u",'UNC - PV'!$O$2="vnđ",TH!P146&lt;&gt;""),"p",IF(AND(C146="pv",D146='UNC - PV'!$Q$2,LEFT(E146,1)="u",'UNC - PV'!$O$2="usd",TH!O146&lt;&gt;""),"p1",IF(AND(C146="pv",D146='LC - PV'!$P$2,LEFT(E146,1)="l"),"p2",IF(AND(LEFT(C146,3)="EIB",D146='UNC - EIB'!$T$2,LEFT(E146,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P146&lt;&gt;""),"e",IF(AND(LEFT(C146,3)="EIB",D146='UNC - EIB'!$T$2,LEFT(E146,1)="U",'UNC - EIB'!$R$2="usd",TH!O146&lt;&gt;""),"e1",IF(AND(LEFT(C146,3)="EIB",D146='LC - EIB'!$S$2,LEFT(E146,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="147" spans="1:18" ht="18.75" customHeight="1">
@@ -11209,47 +11535,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -11295,8 +11621,8 @@
       <c r="Q3" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="180">
@@ -11510,10 +11836,10 @@
       <c r="S8" s="199"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -12079,10 +12405,10 @@
       <c r="S20" s="191"/>
     </row>
     <row r="21" spans="1:20" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="272" t="s">
+      <c r="A21" s="276" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="272"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="175">
@@ -12978,10 +13304,10 @@
       <c r="S38" s="163"/>
     </row>
     <row r="39" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="272"/>
+      <c r="B39" s="276"/>
       <c r="C39" s="205"/>
       <c r="D39" s="205"/>
       <c r="E39" s="175">
@@ -13157,47 +13483,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -13243,8 +13569,8 @@
       <c r="Q3" s="244" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="180">
@@ -13458,10 +13784,10 @@
       <c r="S8" s="199"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -14007,10 +14333,10 @@
       <c r="S20" s="191"/>
     </row>
     <row r="21" spans="1:20" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="272" t="s">
+      <c r="A21" s="276" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="272"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="175">
@@ -14906,10 +15232,10 @@
       <c r="S38" s="163"/>
     </row>
     <row r="39" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="272"/>
+      <c r="B39" s="276"/>
       <c r="C39" s="205"/>
       <c r="D39" s="205"/>
       <c r="E39" s="175">
@@ -15002,6 +15328,11 @@
     <sortCondition ref="C10:C19"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -15009,11 +15340,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -15085,47 +15411,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -15171,8 +15497,8 @@
       <c r="Q3" s="248" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="180">
@@ -15386,10 +15712,10 @@
       <c r="S8" s="199"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -15924,10 +16250,10 @@
       <c r="S20" s="191"/>
     </row>
     <row r="21" spans="1:20" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A21" s="272" t="s">
+      <c r="A21" s="276" t="s">
         <v>343</v>
       </c>
-      <c r="B21" s="272"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="205"/>
       <c r="D21" s="205"/>
       <c r="E21" s="175">
@@ -16823,10 +17149,10 @@
       <c r="S38" s="163"/>
     </row>
     <row r="39" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A39" s="272" t="s">
+      <c r="A39" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B39" s="272"/>
+      <c r="B39" s="276"/>
       <c r="C39" s="205"/>
       <c r="D39" s="205"/>
       <c r="E39" s="175">
@@ -16916,6 +17242,11 @@
   </sheetData>
   <autoFilter ref="A3:S21"/>
   <mergeCells count="12">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -16923,11 +17254,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -16999,47 +17325,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -17085,8 +17411,8 @@
       <c r="Q3" s="252" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="180">
@@ -17300,10 +17626,10 @@
       <c r="S8" s="199"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -17908,10 +18234,10 @@
       <c r="S22" s="191"/>
     </row>
     <row r="23" spans="1:20" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A23" s="272" t="s">
+      <c r="A23" s="276" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="272"/>
+      <c r="B23" s="276"/>
       <c r="C23" s="205"/>
       <c r="D23" s="205"/>
       <c r="E23" s="175">
@@ -18807,10 +19133,1994 @@
       <c r="S40" s="163"/>
     </row>
     <row r="41" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="272" t="s">
+      <c r="A41" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B41" s="272"/>
+      <c r="B41" s="276"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="175">
+        <f>SUM(E24:E40)</f>
+        <v>19666640000</v>
+      </c>
+      <c r="F41" s="176">
+        <f>SUM(F24:F40)</f>
+        <v>88000</v>
+      </c>
+      <c r="G41" s="175">
+        <f>SUM(G24:G40)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="176"/>
+      <c r="I41" s="175">
+        <f t="shared" ref="I41:P41" si="12">SUM(I24:I40)</f>
+        <v>166680000</v>
+      </c>
+      <c r="J41" s="176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="175">
+        <f t="shared" si="12"/>
+        <v>19499960000</v>
+      </c>
+      <c r="L41" s="176">
+        <f t="shared" si="12"/>
+        <v>88000</v>
+      </c>
+      <c r="M41" s="175">
+        <f t="shared" si="12"/>
+        <v>176453480.27777779</v>
+      </c>
+      <c r="N41" s="176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="176">
+        <f t="shared" si="12"/>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="P41" s="176">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="206"/>
+      <c r="R41" s="207"/>
+      <c r="S41" s="178"/>
+    </row>
+    <row r="42" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F42" s="218"/>
+    </row>
+    <row r="43" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F43" s="215"/>
+    </row>
+    <row r="44" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F44" s="215"/>
+    </row>
+    <row r="45" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F45" s="215"/>
+    </row>
+    <row r="47" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F47" s="218"/>
+    </row>
+    <row r="55" spans="1:19" s="223" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A55" s="214"/>
+      <c r="B55" s="215"/>
+      <c r="C55" s="216"/>
+      <c r="D55" s="216"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="219"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
+      <c r="K55" s="217"/>
+      <c r="L55" s="221"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="225"/>
+      <c r="O55" s="225"/>
+      <c r="Q55" s="224"/>
+      <c r="R55" s="224"/>
+      <c r="S55" s="214"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:S23"/>
+  <mergeCells count="12">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:T55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="214" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="215" customWidth="1"/>
+    <col min="3" max="4" width="8.28515625" style="216" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="217" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="221" customWidth="1"/>
+    <col min="7" max="7" width="8" style="217" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="219" customWidth="1"/>
+    <col min="9" max="9" width="11" style="220" customWidth="1"/>
+    <col min="10" max="10" width="10" style="220" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="217" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="221" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="222" customWidth="1"/>
+    <col min="14" max="14" width="10" style="222" customWidth="1"/>
+    <col min="15" max="15" width="9" style="222" customWidth="1"/>
+    <col min="16" max="16" width="9" style="223" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="224" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="224" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="214" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="215" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="215"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="133" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="123"/>
+      <c r="B1" s="124" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="123"/>
+    </row>
+    <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="279" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="279" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="281" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
+        <v>270</v>
+      </c>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
+        <v>271</v>
+      </c>
+      <c r="S2" s="279" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
+      <c r="C3" s="135" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="135" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="136" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="226" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="258" t="s">
+        <v>275</v>
+      </c>
+      <c r="J3" s="258" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="259" t="s">
+        <v>275</v>
+      </c>
+      <c r="L3" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="M3" s="256" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="256" t="s">
+        <v>280</v>
+      </c>
+      <c r="O3" s="142" t="s">
+        <v>281</v>
+      </c>
+      <c r="P3" s="257" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q3" s="257" t="s">
+        <v>282</v>
+      </c>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
+    </row>
+    <row r="4" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A4" s="180">
+        <f>ROW()-3</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="187" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="188">
+        <v>42552</v>
+      </c>
+      <c r="D4" s="188">
+        <v>42736</v>
+      </c>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161">
+        <v>43000</v>
+      </c>
+      <c r="G4" s="189"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150">
+        <f>F4-J4</f>
+        <v>43000</v>
+      </c>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161">
+        <f>IF((LEFT(B4,4)="1402"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH(Q4)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>111.08333333333333</v>
+      </c>
+      <c r="P4" s="161">
+        <f>IF((LEFT(B4,4)="1025"),F4*R4*DATEDIF(DATE(YEAR(Q4),MONTH(Q4)-1,IF(MONTH(C4)=(MONTH($O$1)-1),DAY(C4),16)),Q4,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="146">
+        <v>42690</v>
+      </c>
+      <c r="R4" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S4" s="191" t="s">
+        <v>290</v>
+      </c>
+      <c r="T4" s="154"/>
+    </row>
+    <row r="5" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A5" s="180">
+        <f t="shared" ref="A5:A7" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="187" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="188">
+        <v>42586</v>
+      </c>
+      <c r="D5" s="188">
+        <v>42770</v>
+      </c>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161">
+        <v>52300</v>
+      </c>
+      <c r="G5" s="189"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150">
+        <f>F5-J5</f>
+        <v>52300</v>
+      </c>
+      <c r="M5" s="161"/>
+      <c r="N5" s="161"/>
+      <c r="O5" s="161">
+        <f t="shared" ref="O5:O7" si="1">IF((LEFT(B5,4)="1402"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,IF(MONTH(C5)=(MONTH(Q5)-1),DAY(C5),16)),Q5,"d")/360,0)</f>
+        <v>135.10833333333332</v>
+      </c>
+      <c r="P5" s="161">
+        <f t="shared" ref="P5:P7" si="2">IF((LEFT(B5,4)="1025"),F5*R5*DATEDIF(DATE(YEAR(Q5),MONTH(Q5)-1,IF(MONTH(C5)=(MONTH($O$1)-1),DAY(C5),16)),Q5,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="146">
+        <v>42690</v>
+      </c>
+      <c r="R5" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S5" s="191" t="s">
+        <v>295</v>
+      </c>
+      <c r="T5" s="154"/>
+    </row>
+    <row r="6" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A6" s="180">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="187" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="188">
+        <v>42529</v>
+      </c>
+      <c r="D6" s="188">
+        <v>42712</v>
+      </c>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161">
+        <v>95000</v>
+      </c>
+      <c r="G6" s="189"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150">
+        <f>F6-J6</f>
+        <v>95000</v>
+      </c>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161">
+        <f t="shared" si="1"/>
+        <v>245.41666666666666</v>
+      </c>
+      <c r="P6" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="146">
+        <v>42690</v>
+      </c>
+      <c r="R6" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S6" s="191" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A7" s="180">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" s="188">
+        <v>42529</v>
+      </c>
+      <c r="D7" s="188">
+        <v>42712</v>
+      </c>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161">
+        <v>70900</v>
+      </c>
+      <c r="G7" s="189"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150">
+        <f>F7-J7</f>
+        <v>70900</v>
+      </c>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161">
+        <f t="shared" si="1"/>
+        <v>183.15833333333333</v>
+      </c>
+      <c r="P7" s="161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="146">
+        <v>42690</v>
+      </c>
+      <c r="R7" s="228">
+        <v>0.03</v>
+      </c>
+      <c r="S7" s="191" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A8" s="192"/>
+      <c r="B8" s="193"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="195"/>
+      <c r="O8" s="195"/>
+      <c r="P8" s="195"/>
+      <c r="Q8" s="197"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="199"/>
+    </row>
+    <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="280" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="280"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176">
+        <f>SUM(F4:F8)</f>
+        <v>261200</v>
+      </c>
+      <c r="G9" s="175">
+        <f>SUM(G4:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="176"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176">
+        <f>SUM(J4:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="175"/>
+      <c r="L9" s="176">
+        <f>SUM(L4:L8)</f>
+        <v>261200</v>
+      </c>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175">
+        <f>SUM(N4:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="176">
+        <f>SUM(O4:O8)</f>
+        <v>674.76666666666665</v>
+      </c>
+      <c r="P9" s="176">
+        <f>SUM(P4:P8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="178"/>
+      <c r="T9" s="154"/>
+    </row>
+    <row r="10" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A10" s="180">
+        <f t="shared" ref="A10:A21" si="3">ROW()-9</f>
+        <v>1</v>
+      </c>
+      <c r="B10" s="156" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="157">
+        <v>42689</v>
+      </c>
+      <c r="D10" s="157">
+        <v>42870</v>
+      </c>
+      <c r="E10" s="159"/>
+      <c r="F10" s="158">
+        <v>89000</v>
+      </c>
+      <c r="G10" s="159"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="158"/>
+      <c r="J10" s="158"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="147">
+        <f t="shared" ref="L10:L20" si="4">F10-J10</f>
+        <v>89000</v>
+      </c>
+      <c r="M10" s="158"/>
+      <c r="N10" s="158"/>
+      <c r="O10" s="161">
+        <f t="shared" ref="O10:O19" si="5">IF((LEFT(B10,4)="1402"),F10*R10*DATEDIF(DATE(YEAR(Q10),MONTH(Q10)-1,IF(MONTH(C10)=(MONTH(Q10)-1),DAY(C10),16)),Q10,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="161">
+        <f>IF((LEFT(B10,4)="1025"),F10*R10*DATEDIF(DATE(YEAR(Q10),MONTH(Q10)-1,DAY(Q10)),Q10,"d")/360,0)</f>
+        <v>229.91666666666666</v>
+      </c>
+      <c r="Q10" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R10" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S10" s="191" t="s">
+        <v>419</v>
+      </c>
+      <c r="T10" s="231"/>
+    </row>
+    <row r="11" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A11" s="180">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="B11" s="156" t="s">
+        <v>333</v>
+      </c>
+      <c r="C11" s="157">
+        <v>42684</v>
+      </c>
+      <c r="D11" s="157">
+        <v>42865</v>
+      </c>
+      <c r="E11" s="159"/>
+      <c r="F11" s="158">
+        <v>82000</v>
+      </c>
+      <c r="G11" s="159"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="158"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="147">
+        <f t="shared" si="4"/>
+        <v>82000</v>
+      </c>
+      <c r="M11" s="158"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="161">
+        <f t="shared" ref="P11:P19" si="6">IF((LEFT(B11,4)="1025"),F11*R11*DATEDIF(DATE(YEAR(Q11),MONTH(Q11)-1,DAY(Q11)),Q11,"d")/360,0)</f>
+        <v>211.83333333333334</v>
+      </c>
+      <c r="Q11" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R11" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S11" s="191" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A12" s="180">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="B12" s="156" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="157">
+        <v>42660</v>
+      </c>
+      <c r="D12" s="157">
+        <v>42842</v>
+      </c>
+      <c r="E12" s="159"/>
+      <c r="F12" s="158">
+        <v>96000</v>
+      </c>
+      <c r="G12" s="159"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="147">
+        <f t="shared" si="4"/>
+        <v>96000</v>
+      </c>
+      <c r="M12" s="158"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="161">
+        <f>IF((LEFT(B12,4)="1025"),F12*R12*DATEDIF(DATE(YEAR(Q12),MONTH(Q12)-1,DAY(Q12)),Q12,"d")/360,0)</f>
+        <v>248</v>
+      </c>
+      <c r="Q12" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R12" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S12" s="191" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A13" s="180">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="156" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" s="157">
+        <v>42649</v>
+      </c>
+      <c r="D13" s="157">
+        <v>42831</v>
+      </c>
+      <c r="E13" s="159"/>
+      <c r="F13" s="158">
+        <v>96000</v>
+      </c>
+      <c r="G13" s="159"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="147">
+        <f t="shared" si="4"/>
+        <v>96000</v>
+      </c>
+      <c r="M13" s="158"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="161">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="Q13" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R13" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S13" s="191" t="s">
+        <v>420</v>
+      </c>
+      <c r="T13" s="232"/>
+    </row>
+    <row r="14" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A14" s="180">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14" s="157">
+        <v>42545</v>
+      </c>
+      <c r="D14" s="157">
+        <v>42728</v>
+      </c>
+      <c r="E14" s="159"/>
+      <c r="F14" s="158">
+        <v>150000</v>
+      </c>
+      <c r="G14" s="159"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+      <c r="M14" s="158"/>
+      <c r="N14" s="158"/>
+      <c r="O14" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="161">
+        <f t="shared" si="6"/>
+        <v>387.5</v>
+      </c>
+      <c r="Q14" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R14" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S14" s="163" t="s">
+        <v>421</v>
+      </c>
+      <c r="T14" s="242">
+        <f>E13*R13/12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A15" s="180">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B15" s="156" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="157">
+        <v>42552</v>
+      </c>
+      <c r="D15" s="157">
+        <v>42737</v>
+      </c>
+      <c r="E15" s="159"/>
+      <c r="F15" s="158">
+        <v>89500</v>
+      </c>
+      <c r="G15" s="159"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="158"/>
+      <c r="J15" s="158"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147">
+        <f t="shared" si="4"/>
+        <v>89500</v>
+      </c>
+      <c r="M15" s="158"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="161">
+        <f t="shared" si="6"/>
+        <v>231.20833333333334</v>
+      </c>
+      <c r="Q15" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R15" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S15" s="163" t="s">
+        <v>421</v>
+      </c>
+      <c r="T15" s="232"/>
+    </row>
+    <row r="16" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A16" s="180">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B16" s="156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C16" s="157">
+        <v>42556</v>
+      </c>
+      <c r="D16" s="157">
+        <v>42740</v>
+      </c>
+      <c r="E16" s="159"/>
+      <c r="F16" s="158">
+        <v>89000</v>
+      </c>
+      <c r="G16" s="159"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147">
+        <f t="shared" si="4"/>
+        <v>89000</v>
+      </c>
+      <c r="M16" s="158"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="161">
+        <f t="shared" si="6"/>
+        <v>229.91666666666666</v>
+      </c>
+      <c r="Q16" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R16" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S16" s="163" t="s">
+        <v>421</v>
+      </c>
+      <c r="T16" s="232"/>
+    </row>
+    <row r="17" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A17" s="180">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="156" t="s">
+        <v>339</v>
+      </c>
+      <c r="C17" s="201">
+        <v>42600</v>
+      </c>
+      <c r="D17" s="157">
+        <v>42784</v>
+      </c>
+      <c r="E17" s="159"/>
+      <c r="F17" s="202">
+        <v>63000</v>
+      </c>
+      <c r="G17" s="159"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147">
+        <f t="shared" si="4"/>
+        <v>63000</v>
+      </c>
+      <c r="M17" s="202"/>
+      <c r="N17" s="202"/>
+      <c r="O17" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="161">
+        <f t="shared" si="6"/>
+        <v>162.75</v>
+      </c>
+      <c r="Q17" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R17" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S17" s="191" t="s">
+        <v>419</v>
+      </c>
+      <c r="T17" s="232"/>
+    </row>
+    <row r="18" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A18" s="180">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="156" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="201">
+        <v>42612</v>
+      </c>
+      <c r="D18" s="157">
+        <v>42794</v>
+      </c>
+      <c r="E18" s="203"/>
+      <c r="F18" s="202">
+        <v>89500</v>
+      </c>
+      <c r="G18" s="159"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="202"/>
+      <c r="J18" s="202"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147">
+        <f t="shared" si="4"/>
+        <v>89500</v>
+      </c>
+      <c r="M18" s="202"/>
+      <c r="N18" s="202"/>
+      <c r="O18" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="161">
+        <f t="shared" si="6"/>
+        <v>231.20833333333334</v>
+      </c>
+      <c r="Q18" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R18" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S18" s="191" t="s">
+        <v>419</v>
+      </c>
+      <c r="T18" s="232"/>
+    </row>
+    <row r="19" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A19" s="180">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B19" s="156" t="s">
+        <v>353</v>
+      </c>
+      <c r="C19" s="201">
+        <v>42626</v>
+      </c>
+      <c r="D19" s="157">
+        <v>42807</v>
+      </c>
+      <c r="E19" s="203"/>
+      <c r="F19" s="202">
+        <v>88000</v>
+      </c>
+      <c r="G19" s="159"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="202"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="147">
+        <f t="shared" si="4"/>
+        <v>88000</v>
+      </c>
+      <c r="M19" s="202"/>
+      <c r="N19" s="203">
+        <f>P19*G19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="161">
+        <f t="shared" si="6"/>
+        <v>227.33333333333334</v>
+      </c>
+      <c r="Q19" s="146">
+        <v>42696</v>
+      </c>
+      <c r="R19" s="227">
+        <v>0.03</v>
+      </c>
+      <c r="S19" s="191" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A20" s="180">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="156"/>
+      <c r="C20" s="201">
+        <v>42674</v>
+      </c>
+      <c r="D20" s="157">
+        <v>42729</v>
+      </c>
+      <c r="E20" s="203"/>
+      <c r="F20" s="202">
+        <v>33400</v>
+      </c>
+      <c r="G20" s="203"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="202"/>
+      <c r="J20" s="202"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="147">
+        <f t="shared" si="4"/>
+        <v>33400</v>
+      </c>
+      <c r="M20" s="202"/>
+      <c r="N20" s="203"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="227"/>
+      <c r="S20" s="191" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A21" s="180">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B21" s="156"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="203"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="202"/>
+      <c r="J21" s="202"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="202"/>
+      <c r="N21" s="203"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="227"/>
+      <c r="S21" s="191"/>
+    </row>
+    <row r="22" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="180"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="202"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="227"/>
+      <c r="S22" s="191"/>
+    </row>
+    <row r="23" spans="1:20" s="208" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A23" s="276" t="s">
+        <v>343</v>
+      </c>
+      <c r="B23" s="276"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="175">
+        <f>SUM(E4:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="176">
+        <f>SUM(F10:F22)</f>
+        <v>965400</v>
+      </c>
+      <c r="G23" s="175">
+        <f>SUM(G4:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="174"/>
+      <c r="I23" s="176">
+        <f>SUM(I10:I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="176">
+        <f>SUM(J10:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="176">
+        <f>SUM(K10:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="176">
+        <f>SUM(L10:L22)</f>
+        <v>965400</v>
+      </c>
+      <c r="M23" s="176">
+        <f>SUM(M4:M14)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="176"/>
+      <c r="O23" s="176">
+        <f>SUM(O10:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="176">
+        <f>SUM(P10:P22)</f>
+        <v>2407.666666666667</v>
+      </c>
+      <c r="Q23" s="206"/>
+      <c r="R23" s="207"/>
+      <c r="S23" s="178"/>
+    </row>
+    <row r="24" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A24" s="180">
+        <f>ROW()-26</f>
+        <v>-2</v>
+      </c>
+      <c r="B24" s="187" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="188">
+        <v>41870</v>
+      </c>
+      <c r="D24" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E24" s="189">
+        <v>983320000</v>
+      </c>
+      <c r="F24" s="161"/>
+      <c r="G24" s="189"/>
+      <c r="H24" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I24" s="189">
+        <v>8340000</v>
+      </c>
+      <c r="J24" s="161"/>
+      <c r="K24" s="189">
+        <f t="shared" ref="K24:K38" si="7">E24-I24</f>
+        <v>974980000</v>
+      </c>
+      <c r="L24" s="161"/>
+      <c r="M24" s="189">
+        <f>IF((LEFT(B24,4)="1402"),E24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
+        <v>8044103.888888889</v>
+      </c>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161">
+        <f>IF((LEFT(B24,4)="1402"),F24*R24*DATEDIF(DATE(YEAR(Q24),MONTH(Q24)-1,IF(MONTH(C24)=(MONTH(Q24)-1),DAY(C24),16)),Q24,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="161">
+        <f t="shared" ref="P24:P38" si="8">IF((LEFT(B24,4)="1015"),F24*R24*DATEDIF(Q24,Q$1,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R24" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S24" s="210" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A25" s="180">
+        <f t="shared" ref="A25:A38" si="9">ROW()-26</f>
+        <v>-1</v>
+      </c>
+      <c r="B25" s="187" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="188">
+        <v>41905</v>
+      </c>
+      <c r="D25" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E25" s="189">
+        <v>1966660000</v>
+      </c>
+      <c r="F25" s="161"/>
+      <c r="G25" s="189"/>
+      <c r="H25" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I25" s="189">
+        <v>16670000</v>
+      </c>
+      <c r="J25" s="161"/>
+      <c r="K25" s="189">
+        <f t="shared" si="7"/>
+        <v>1949990000</v>
+      </c>
+      <c r="L25" s="161"/>
+      <c r="M25" s="189">
+        <f t="shared" ref="M25:M37" si="10">IF((LEFT(B25,4)="1402"),E25*R25*DATEDIF(DATE(YEAR(Q25),MONTH(Q25)-1,IF(MONTH(C25)=(MONTH(Q25)-1),DAY(C25),16)),Q25,"d")/360,0)</f>
+        <v>17645310.555555556</v>
+      </c>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161">
+        <f t="shared" ref="O25:O38" si="11">IF((LEFT(B25,4)="1402"),F25*R25*DATEDIF(DATE(YEAR(Q25),MONTH(Q25)-1,IF(MONTH(C25)=(MONTH(Q25)-1),DAY(C25),16)),Q25,"d")/360,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R25" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S25" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A26" s="180">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="B26" s="187" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="211">
+        <v>41934</v>
+      </c>
+      <c r="D26" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E26" s="212">
+        <v>1573320000</v>
+      </c>
+      <c r="F26" s="213"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I26" s="212">
+        <v>13340000</v>
+      </c>
+      <c r="J26" s="213"/>
+      <c r="K26" s="189">
+        <f t="shared" si="7"/>
+        <v>1559980000</v>
+      </c>
+      <c r="L26" s="213"/>
+      <c r="M26" s="189">
+        <f t="shared" si="10"/>
+        <v>14116176.666666666</v>
+      </c>
+      <c r="N26" s="213"/>
+      <c r="O26" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R26" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S26" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A27" s="180">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="187" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="211">
+        <v>41963</v>
+      </c>
+      <c r="D27" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E27" s="212">
+        <v>1475000000</v>
+      </c>
+      <c r="F27" s="213"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I27" s="212">
+        <v>12500000</v>
+      </c>
+      <c r="J27" s="213"/>
+      <c r="K27" s="189">
+        <f t="shared" si="7"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L27" s="213"/>
+      <c r="M27" s="189">
+        <f t="shared" si="10"/>
+        <v>13234027.777777778</v>
+      </c>
+      <c r="N27" s="213"/>
+      <c r="O27" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R27" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S27" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A28" s="180">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="B28" s="187" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="211">
+        <v>41984</v>
+      </c>
+      <c r="D28" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E28" s="212">
+        <v>983340000</v>
+      </c>
+      <c r="F28" s="213"/>
+      <c r="G28" s="212"/>
+      <c r="H28" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I28" s="212">
+        <v>8330000</v>
+      </c>
+      <c r="J28" s="213"/>
+      <c r="K28" s="212">
+        <f t="shared" si="7"/>
+        <v>975010000</v>
+      </c>
+      <c r="L28" s="213"/>
+      <c r="M28" s="189">
+        <f t="shared" si="10"/>
+        <v>8822745</v>
+      </c>
+      <c r="N28" s="213"/>
+      <c r="O28" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R28" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S28" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A29" s="180">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="187" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="211">
+        <v>42033</v>
+      </c>
+      <c r="D29" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E29" s="212">
+        <v>1475000000</v>
+      </c>
+      <c r="F29" s="213"/>
+      <c r="G29" s="212"/>
+      <c r="H29" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I29" s="212">
+        <v>12500000</v>
+      </c>
+      <c r="J29" s="213"/>
+      <c r="K29" s="212">
+        <f t="shared" si="7"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L29" s="213"/>
+      <c r="M29" s="189">
+        <f t="shared" si="10"/>
+        <v>13234027.777777778</v>
+      </c>
+      <c r="N29" s="213"/>
+      <c r="O29" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R29" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S29" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A30" s="180">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B30" s="187" t="s">
+        <v>317</v>
+      </c>
+      <c r="C30" s="211">
+        <v>42088</v>
+      </c>
+      <c r="D30" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E30" s="212">
+        <v>1966660000</v>
+      </c>
+      <c r="F30" s="213"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I30" s="212">
+        <v>16670000</v>
+      </c>
+      <c r="J30" s="213"/>
+      <c r="K30" s="212">
+        <f t="shared" si="7"/>
+        <v>1949990000</v>
+      </c>
+      <c r="L30" s="213"/>
+      <c r="M30" s="189">
+        <f t="shared" si="10"/>
+        <v>17645310.555555556</v>
+      </c>
+      <c r="N30" s="213"/>
+      <c r="O30" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R30" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S30" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A31" s="180">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B31" s="187" t="s">
+        <v>318</v>
+      </c>
+      <c r="C31" s="211">
+        <v>42114</v>
+      </c>
+      <c r="D31" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E31" s="212">
+        <v>1376660000</v>
+      </c>
+      <c r="F31" s="213"/>
+      <c r="G31" s="212"/>
+      <c r="H31" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I31" s="212">
+        <v>11670000</v>
+      </c>
+      <c r="J31" s="213"/>
+      <c r="K31" s="212">
+        <f t="shared" si="7"/>
+        <v>1364990000</v>
+      </c>
+      <c r="L31" s="213"/>
+      <c r="M31" s="189">
+        <f t="shared" si="10"/>
+        <v>12351699.444444444</v>
+      </c>
+      <c r="N31" s="213"/>
+      <c r="O31" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R31" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S31" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A32" s="180">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="187" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="211">
+        <v>42138</v>
+      </c>
+      <c r="D32" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E32" s="212">
+        <v>1475000000</v>
+      </c>
+      <c r="F32" s="213"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I32" s="212">
+        <v>12500000</v>
+      </c>
+      <c r="J32" s="213"/>
+      <c r="K32" s="212">
+        <f t="shared" si="7"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L32" s="213"/>
+      <c r="M32" s="189">
+        <f t="shared" si="10"/>
+        <v>13234027.777777778</v>
+      </c>
+      <c r="N32" s="213"/>
+      <c r="O32" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R32" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S32" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A33" s="180">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B33" s="187" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="211">
+        <v>42164</v>
+      </c>
+      <c r="D33" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E33" s="212">
+        <v>1475000000</v>
+      </c>
+      <c r="F33" s="213"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I33" s="212">
+        <v>12500000</v>
+      </c>
+      <c r="J33" s="213"/>
+      <c r="K33" s="212">
+        <f t="shared" si="7"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L33" s="213"/>
+      <c r="M33" s="189">
+        <f t="shared" si="10"/>
+        <v>13234027.777777778</v>
+      </c>
+      <c r="N33" s="213"/>
+      <c r="O33" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R33" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S33" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A34" s="180">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B34" s="187" t="s">
+        <v>321</v>
+      </c>
+      <c r="C34" s="211">
+        <v>42187</v>
+      </c>
+      <c r="D34" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E34" s="212">
+        <v>1475000000</v>
+      </c>
+      <c r="F34" s="213"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I34" s="212">
+        <v>12500000</v>
+      </c>
+      <c r="J34" s="213"/>
+      <c r="K34" s="212">
+        <f t="shared" si="7"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L34" s="213"/>
+      <c r="M34" s="189">
+        <f t="shared" si="10"/>
+        <v>13234027.777777778</v>
+      </c>
+      <c r="N34" s="213"/>
+      <c r="O34" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R34" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S34" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A35" s="180">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B35" s="187" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="211">
+        <v>42195</v>
+      </c>
+      <c r="D35" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E35" s="212">
+        <v>1475000000</v>
+      </c>
+      <c r="F35" s="213"/>
+      <c r="G35" s="212"/>
+      <c r="H35" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I35" s="212">
+        <v>12500000</v>
+      </c>
+      <c r="J35" s="213"/>
+      <c r="K35" s="212">
+        <f t="shared" si="7"/>
+        <v>1462500000</v>
+      </c>
+      <c r="L35" s="213"/>
+      <c r="M35" s="189">
+        <f t="shared" si="10"/>
+        <v>13234027.777777778</v>
+      </c>
+      <c r="N35" s="213"/>
+      <c r="O35" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R35" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S35" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A36" s="180">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B36" s="187" t="s">
+        <v>323</v>
+      </c>
+      <c r="C36" s="211">
+        <v>42215</v>
+      </c>
+      <c r="D36" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E36" s="212">
+        <v>983340000</v>
+      </c>
+      <c r="F36" s="213"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I36" s="212">
+        <v>8330000</v>
+      </c>
+      <c r="J36" s="213"/>
+      <c r="K36" s="212">
+        <f t="shared" si="7"/>
+        <v>975010000</v>
+      </c>
+      <c r="L36" s="213"/>
+      <c r="M36" s="189">
+        <f t="shared" si="10"/>
+        <v>8822745</v>
+      </c>
+      <c r="N36" s="213"/>
+      <c r="O36" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R36" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S36" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A37" s="180">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="187" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="211">
+        <v>42229</v>
+      </c>
+      <c r="D37" s="188">
+        <v>46253</v>
+      </c>
+      <c r="E37" s="212">
+        <v>983340000</v>
+      </c>
+      <c r="F37" s="213"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="188">
+        <v>42693</v>
+      </c>
+      <c r="I37" s="212">
+        <v>8330000</v>
+      </c>
+      <c r="J37" s="213"/>
+      <c r="K37" s="212">
+        <f t="shared" si="7"/>
+        <v>975010000</v>
+      </c>
+      <c r="L37" s="213"/>
+      <c r="M37" s="189">
+        <f t="shared" si="10"/>
+        <v>9601222.5</v>
+      </c>
+      <c r="N37" s="213"/>
+      <c r="O37" s="161">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="230">
+        <v>42632</v>
+      </c>
+      <c r="R37" s="228">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="S37" s="191" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="186" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A38" s="180">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B38" s="187" t="s">
+        <v>344</v>
+      </c>
+      <c r="C38" s="211">
+        <v>42543</v>
+      </c>
+      <c r="D38" s="211">
+        <v>42726</v>
+      </c>
+      <c r="E38" s="212"/>
+      <c r="F38" s="213">
+        <v>88000</v>
+      </c>
+      <c r="G38" s="212"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="212">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="213">
+        <f>F38</f>
+        <v>88000</v>
+      </c>
+      <c r="M38" s="189"/>
+      <c r="N38" s="213"/>
+      <c r="O38" s="161">
+        <f t="shared" si="11"/>
+        <v>293.33333333333331</v>
+      </c>
+      <c r="P38" s="161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="230">
+        <v>42628</v>
+      </c>
+      <c r="R38" s="228">
+        <v>0.04</v>
+      </c>
+      <c r="S38" s="191"/>
+    </row>
+    <row r="39" spans="1:19" s="186" customFormat="1" ht="17.25" hidden="1" customHeight="1">
+      <c r="A39" s="180"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="211"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="213"/>
+      <c r="M39" s="212"/>
+      <c r="N39" s="213"/>
+      <c r="O39" s="213"/>
+      <c r="P39" s="213"/>
+      <c r="Q39" s="209"/>
+      <c r="R39" s="190"/>
+      <c r="S39" s="191"/>
+    </row>
+    <row r="40" spans="1:19" s="154" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A40" s="144"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="203"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="203"/>
+      <c r="J40" s="202"/>
+      <c r="K40" s="203"/>
+      <c r="L40" s="202"/>
+      <c r="M40" s="203"/>
+      <c r="N40" s="202"/>
+      <c r="O40" s="202"/>
+      <c r="P40" s="202"/>
+      <c r="Q40" s="146"/>
+      <c r="R40" s="200"/>
+      <c r="S40" s="163"/>
+    </row>
+    <row r="41" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A41" s="276" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" s="276"/>
       <c r="C41" s="205"/>
       <c r="D41" s="205"/>
       <c r="E41" s="175">
@@ -18927,8 +21237,8 @@
   </sheetPr>
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane ySplit="32" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -18979,11 +21289,11 @@
         <v>29</v>
       </c>
       <c r="T2" s="10">
-        <v>42710</v>
+        <v>42713</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -19014,7 +21324,7 @@
       <c r="B6" s="29"/>
       <c r="C6" s="46" t="str">
         <f>"CTY TNHH HẢI SẢN AN LẠC "&amp;IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="V","TRÀ VINH","")</f>
-        <v xml:space="preserve">CTY TNHH HẢI SẢN AN LẠC </v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -19032,7 +21342,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="53" t="str">
         <f>IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="USD"),"1015 148 5100 9193",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="VNĐ"),"1015 148 5100 9180",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="VNĐ"),"1402 148 5100 9465",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="USD"),"1402 148 5100 9479",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="VNĐ"),"1402 148 5100 7445",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="USD"),"1402 148 5102 8153",""))))))</f>
-        <v>1015 148 5100 9180</v>
+        <v>1402 148 5100 7445</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="9.75" customHeight="1">
@@ -19048,7 +21358,7 @@
       <c r="B10" s="17"/>
       <c r="H10" s="53" t="str">
         <f>IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="1","CHI NHÁNH QUẬN 11",IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="4","CHI NHÁNH QUẬN 4",IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="V","CHI NHÁNH QUẬN 4","")))</f>
-        <v>CHI NHÁNH QUẬN 11</v>
+        <v>CHI NHÁNH QUẬN 4</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="9" customHeight="1">
@@ -19078,7 +21388,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>DNTN THỦY ĐỒNG</v>
+        <v>TÀI KHOẢN CHUYÊN THU NGÂN SÁCH NHÀ NƯỚC</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -19097,7 +21407,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>0500 3899 2421</v>
+        <v>4102 02 003</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -19128,7 +21438,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>Sacombank-PGD Lagi</v>
+        <v>NH Công Thương – CN Cần Thơ</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -19158,7 +21468,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="53" t="str">
         <f>VLOOKUP("X1",DS,9,0)</f>
-        <v>Bình Thuận</v>
+        <v>Cần Thơ</v>
       </c>
       <c r="H18" s="31"/>
       <c r="J18" s="19" t="s">
@@ -19187,7 +21497,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Một tỷ, tám trăm hai mươi bốn triệu, chín trăm hai mươi ngàn, năm trăm đồng.</v>
+        <v>Bảy triệu, năm trăm ba mươi ba ngàn đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -19199,10 +21509,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="265" t="s">
+      <c r="N20" s="269" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="265"/>
+      <c r="O20" s="269"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -19216,10 +21526,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="266" t="s">
+      <c r="N21" s="270" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="266"/>
+      <c r="O21" s="270"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -19228,7 +21538,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>1824920500</v>
+        <v>7533000</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -19243,7 +21553,7 @@
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>Thanh toán tiền hàng</v>
+        <v>Thanh toán phí kiểm nghiệm cho TTCLNLTS 6 nộp vào TK 3511.0.1054053.00000 - KBNN Cần Thơ</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -19379,7 +21689,7 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
@@ -19408,23 +21718,23 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
         <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>42710</v>
+        <v>42718</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1">
@@ -19442,11 +21752,11 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F8" s="267">
+      <c r="F8" s="271">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>552669000</v>
-      </c>
-      <c r="G8" s="267"/>
+        <v>24884526</v>
+      </c>
+      <c r="G8" s="271"/>
       <c r="K8" s="1" t="str">
         <f>IF(O2="vnđ","x","")</f>
         <v>x</v>
@@ -19459,7 +21769,7 @@
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Năm trăm năm mươi hai triệu, sáu trăm sáu mươi chín ngàn đồng.</v>
+        <v>Hai mươi bốn triệu, tám trăm tám mươi bốn ngàn, năm trăm hai mươi sáu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
@@ -19470,13 +21780,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán tiền hàng</v>
+        <v>Thanh toán tiền cước vận chuyển</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
       <c r="F13" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>DNTN THỦY SẢN PHƯƠNG MAI</v>
+        <v>CTY TNHH DỊCH VỤ VẬN CHUYỂN QUỐC TẾ HOÀNG ANH</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -19487,13 +21797,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>7504 201 003 221</v>
+        <v>802 62 809</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Agribank - Sông Đốc, Trần Văn Thời, Cà Mau</v>
+        <v>NH Á CHÂU - CN TP.HCM, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19510,7 +21820,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="98" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19571,11 +21881,11 @@
       </c>
     </row>
     <row r="8" spans="5:18" ht="21" customHeight="1">
-      <c r="E8" s="267">
+      <c r="E8" s="271">
         <f>VLOOKUP("X2",DS,16,0)</f>
         <v>1100000000</v>
       </c>
-      <c r="F8" s="267"/>
+      <c r="F8" s="271"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
@@ -19647,7 +21957,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="98" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19885,11 +22195,11 @@
         <v>115</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="271">
+      <c r="L17" s="275">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>41051</v>
       </c>
-      <c r="M17" s="271"/>
+      <c r="M17" s="275"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -19951,11 +22261,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="268" t="s">
+      <c r="N21" s="272" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="269"/>
-      <c r="P21" s="269"/>
+      <c r="O21" s="273"/>
+      <c r="P21" s="273"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -19970,11 +22280,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="270" t="s">
+      <c r="N22" s="274" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="266"/>
-      <c r="P22" s="266"/>
+      <c r="O22" s="270"/>
+      <c r="P22" s="270"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
@@ -20443,47 +22753,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -20529,8 +22839,8 @@
       <c r="Q3" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="144">
@@ -20762,10 +23072,10 @@
       <c r="S8" s="173"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -21080,10 +23390,10 @@
       <c r="S15" s="199"/>
     </row>
     <row r="16" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A16" s="276" t="s">
+      <c r="A16" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="276"/>
+      <c r="B16" s="280"/>
       <c r="C16" s="174"/>
       <c r="D16" s="174"/>
       <c r="E16" s="175"/>
@@ -21534,10 +23844,10 @@
       <c r="S25" s="173"/>
     </row>
     <row r="26" spans="1:20" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A26" s="272" t="s">
+      <c r="A26" s="276" t="s">
         <v>288</v>
       </c>
-      <c r="B26" s="272"/>
+      <c r="B26" s="276"/>
       <c r="C26" s="205"/>
       <c r="D26" s="205"/>
       <c r="E26" s="176">
@@ -22455,10 +24765,10 @@
       <c r="S43" s="163"/>
     </row>
     <row r="44" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A44" s="272" t="s">
+      <c r="A44" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B44" s="272"/>
+      <c r="B44" s="276"/>
       <c r="C44" s="205"/>
       <c r="D44" s="205"/>
       <c r="E44" s="175">
@@ -22638,47 +24948,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -22724,8 +25034,8 @@
       <c r="Q3" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="144">
@@ -22957,10 +25267,10 @@
       <c r="S8" s="173"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -23224,10 +25534,10 @@
       <c r="S14" s="199"/>
     </row>
     <row r="15" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="276"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="174"/>
       <c r="D15" s="174"/>
       <c r="E15" s="175"/>
@@ -23678,10 +25988,10 @@
       <c r="S24" s="173"/>
     </row>
     <row r="25" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="272" t="s">
+      <c r="A25" s="276" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="272"/>
+      <c r="B25" s="276"/>
       <c r="C25" s="205"/>
       <c r="D25" s="205"/>
       <c r="E25" s="176">
@@ -24599,10 +26909,10 @@
       <c r="S42" s="163"/>
     </row>
     <row r="43" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="272" t="s">
+      <c r="A43" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="272"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="205"/>
       <c r="D43" s="205"/>
       <c r="E43" s="175">
@@ -24782,47 +27092,47 @@
       <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:20" s="134" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="279" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="275" t="s">
+      <c r="B2" s="279" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="278" t="s">
+      <c r="D2" s="281"/>
+      <c r="E2" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="279" t="s">
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="283" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="280" t="s">
+      <c r="I2" s="283"/>
+      <c r="J2" s="283"/>
+      <c r="K2" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="280"/>
-      <c r="M2" s="273" t="s">
+      <c r="L2" s="284"/>
+      <c r="M2" s="277" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="273"/>
-      <c r="O2" s="273"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="274" t="s">
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
+      <c r="P2" s="277"/>
+      <c r="Q2" s="277"/>
+      <c r="R2" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="275" t="s">
+      <c r="S2" s="279" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="134" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="275"/>
-      <c r="B3" s="275"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="279"/>
       <c r="C3" s="135" t="s">
         <v>273</v>
       </c>
@@ -24868,8 +27178,8 @@
       <c r="Q3" s="143" t="s">
         <v>282</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="275"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="279"/>
     </row>
     <row r="4" spans="1:20" s="154" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="144">
@@ -25101,10 +27411,10 @@
       <c r="S8" s="173"/>
     </row>
     <row r="9" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A9" s="276" t="s">
+      <c r="A9" s="280" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="276"/>
+      <c r="B9" s="280"/>
       <c r="C9" s="174"/>
       <c r="D9" s="174"/>
       <c r="E9" s="175"/>
@@ -25368,10 +27678,10 @@
       <c r="S14" s="199"/>
     </row>
     <row r="15" spans="1:20" s="179" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="280" t="s">
         <v>296</v>
       </c>
-      <c r="B15" s="276"/>
+      <c r="B15" s="280"/>
       <c r="C15" s="174"/>
       <c r="D15" s="174"/>
       <c r="E15" s="175"/>
@@ -25822,10 +28132,10 @@
       <c r="S24" s="173"/>
     </row>
     <row r="25" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A25" s="272" t="s">
+      <c r="A25" s="276" t="s">
         <v>288</v>
       </c>
-      <c r="B25" s="272"/>
+      <c r="B25" s="276"/>
       <c r="C25" s="205"/>
       <c r="D25" s="205"/>
       <c r="E25" s="176">
@@ -26743,10 +29053,10 @@
       <c r="S42" s="163"/>
     </row>
     <row r="43" spans="1:19" s="208" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A43" s="272" t="s">
+      <c r="A43" s="276" t="s">
         <v>326</v>
       </c>
-      <c r="B43" s="272"/>
+      <c r="B43" s="276"/>
       <c r="C43" s="205"/>
       <c r="D43" s="205"/>
       <c r="E43" s="175">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="458">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -4022,11 +4022,11 @@
   <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="G139" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P143" sqref="P143:P144"/>
+      <selection pane="bottomRight" activeCell="F148" sqref="F148:N148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -11012,7 +11012,7 @@
       <c r="Q143" s="104"/>
       <c r="R143" s="255" t="str">
         <f>IF(AND(C143="pv",D143='UNC - PV'!$Q$2,LEFT(E143,1)="u",'UNC - PV'!$O$2="vnđ",TH!P143&lt;&gt;""),"p",IF(AND(C143="pv",D143='UNC - PV'!$Q$2,LEFT(E143,1)="u",'UNC - PV'!$O$2="usd",TH!O143&lt;&gt;""),"p1",IF(AND(C143="pv",D143='LC - PV'!$P$2,LEFT(E143,1)="l"),"p2",IF(AND(LEFT(C143,3)="EIB",D143='UNC - EIB'!$T$2,LEFT(E143,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P143&lt;&gt;""),"e",IF(AND(LEFT(C143,3)="EIB",D143='UNC - EIB'!$T$2,LEFT(E143,1)="U",'UNC - EIB'!$R$2="usd",TH!O143&lt;&gt;""),"e1",IF(AND(LEFT(C143,3)="EIB",D143='LC - EIB'!$S$2,LEFT(E143,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="144" spans="1:18" ht="18.75" customHeight="1">
@@ -11059,7 +11059,7 @@
       <c r="Q144" s="104"/>
       <c r="R144" s="255" t="str">
         <f>IF(AND(C144="pv",D144='UNC - PV'!$Q$2,LEFT(E144,1)="u",'UNC - PV'!$O$2="vnđ",TH!P144&lt;&gt;""),"p",IF(AND(C144="pv",D144='UNC - PV'!$Q$2,LEFT(E144,1)="u",'UNC - PV'!$O$2="usd",TH!O144&lt;&gt;""),"p1",IF(AND(C144="pv",D144='LC - PV'!$P$2,LEFT(E144,1)="l"),"p2",IF(AND(LEFT(C144,3)="EIB",D144='UNC - EIB'!$T$2,LEFT(E144,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P144&lt;&gt;""),"e",IF(AND(LEFT(C144,3)="EIB",D144='UNC - EIB'!$T$2,LEFT(E144,1)="U",'UNC - EIB'!$R$2="usd",TH!O144&lt;&gt;""),"e1",IF(AND(LEFT(C144,3)="EIB",D144='LC - EIB'!$S$2,LEFT(E144,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="145" spans="1:18" ht="18.75" customHeight="1">
@@ -11106,13 +11106,13 @@
       <c r="Q145" s="104"/>
       <c r="R145" s="255" t="str">
         <f>IF(AND(C145="pv",D145='UNC - PV'!$Q$2,LEFT(E145,1)="u",'UNC - PV'!$O$2="vnđ",TH!P145&lt;&gt;""),"p",IF(AND(C145="pv",D145='UNC - PV'!$Q$2,LEFT(E145,1)="u",'UNC - PV'!$O$2="usd",TH!O145&lt;&gt;""),"p1",IF(AND(C145="pv",D145='LC - PV'!$P$2,LEFT(E145,1)="l"),"p2",IF(AND(LEFT(C145,3)="EIB",D145='UNC - EIB'!$T$2,LEFT(E145,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P145&lt;&gt;""),"e",IF(AND(LEFT(C145,3)="EIB",D145='UNC - EIB'!$T$2,LEFT(E145,1)="U",'UNC - EIB'!$R$2="usd",TH!O145&lt;&gt;""),"e1",IF(AND(LEFT(C145,3)="EIB",D145='LC - EIB'!$S$2,LEFT(E145,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="146" spans="1:18" ht="18.75" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B146" s="62">
         <f t="shared" si="9"/>
@@ -11153,7 +11153,7 @@
       <c r="Q146" s="104"/>
       <c r="R146" s="255" t="str">
         <f>IF(AND(C146="pv",D146='UNC - PV'!$Q$2,LEFT(E146,1)="u",'UNC - PV'!$O$2="vnđ",TH!P146&lt;&gt;""),"p",IF(AND(C146="pv",D146='UNC - PV'!$Q$2,LEFT(E146,1)="u",'UNC - PV'!$O$2="usd",TH!O146&lt;&gt;""),"p1",IF(AND(C146="pv",D146='LC - PV'!$P$2,LEFT(E146,1)="l"),"p2",IF(AND(LEFT(C146,3)="EIB",D146='UNC - EIB'!$T$2,LEFT(E146,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P146&lt;&gt;""),"e",IF(AND(LEFT(C146,3)="EIB",D146='UNC - EIB'!$T$2,LEFT(E146,1)="U",'UNC - EIB'!$R$2="usd",TH!O146&lt;&gt;""),"e1",IF(AND(LEFT(C146,3)="EIB",D146='LC - EIB'!$S$2,LEFT(E146,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="147" spans="1:18" ht="18.75" customHeight="1">
@@ -11161,23 +11161,41 @@
         <f>IF(AND(C147="pv",E147='UNC - PV'!$S$2,D147='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C147,3)="eib",E147='UNC - EIB'!$V$2,D147='UNC - EIB'!$T$2),"x1",IF(AND(C147="pv",E147='LC - PV'!$R$2,D147='LC - PV'!$P$2),"x2",IF(AND(LEFT(C147,3)="eib",E147='LC - EIB'!$U$2,D147='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B147" s="62" t="str">
+      <c r="B147" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C147" s="62"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="64"/>
-      <c r="G147" s="64"/>
-      <c r="H147" s="64"/>
-      <c r="I147" s="65"/>
+        <v>144</v>
+      </c>
+      <c r="C147" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" s="67">
+        <v>42741</v>
+      </c>
+      <c r="E147" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G147" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="H147" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I147" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J147" s="66"/>
       <c r="K147" s="67"/>
       <c r="L147" s="65"/>
       <c r="M147" s="65"/>
-      <c r="N147" s="64"/>
-      <c r="O147" s="68"/>
+      <c r="N147" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="O147" s="68">
+        <v>43500</v>
+      </c>
       <c r="P147" s="69"/>
       <c r="Q147" s="104"/>
       <c r="R147" s="255" t="str">
@@ -11188,30 +11206,48 @@
     <row r="148" spans="1:18" ht="18.75" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B148" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B148" s="62">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="C148" s="62"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="65"/>
-      <c r="F148" s="64"/>
-      <c r="G148" s="64"/>
-      <c r="H148" s="64"/>
-      <c r="I148" s="65"/>
+        <v>145</v>
+      </c>
+      <c r="C148" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" s="67">
+        <v>42746</v>
+      </c>
+      <c r="E148" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G148" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H148" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I148" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J148" s="66"/>
       <c r="K148" s="67"/>
       <c r="L148" s="65"/>
       <c r="M148" s="65"/>
-      <c r="N148" s="64"/>
+      <c r="N148" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O148" s="68"/>
-      <c r="P148" s="69"/>
+      <c r="P148" s="69">
+        <v>6650000000</v>
+      </c>
       <c r="Q148" s="104"/>
       <c r="R148" s="255" t="str">
         <f>IF(AND(C148="pv",D148='UNC - PV'!$Q$2,LEFT(E148,1)="u",'UNC - PV'!$O$2="vnđ",TH!P148&lt;&gt;""),"p",IF(AND(C148="pv",D148='UNC - PV'!$Q$2,LEFT(E148,1)="u",'UNC - PV'!$O$2="usd",TH!O148&lt;&gt;""),"p1",IF(AND(C148="pv",D148='LC - PV'!$P$2,LEFT(E148,1)="l"),"p2",IF(AND(LEFT(C148,3)="EIB",D148='UNC - EIB'!$T$2,LEFT(E148,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P148&lt;&gt;""),"e",IF(AND(LEFT(C148,3)="EIB",D148='UNC - EIB'!$T$2,LEFT(E148,1)="U",'UNC - EIB'!$R$2="usd",TH!O148&lt;&gt;""),"e1",IF(AND(LEFT(C148,3)="EIB",D148='LC - EIB'!$S$2,LEFT(E148,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="18.75" customHeight="1">
@@ -15328,11 +15364,6 @@
     <sortCondition ref="C10:C19"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -15340,6 +15371,11 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -17242,11 +17278,6 @@
   </sheetData>
   <autoFilter ref="A3:S21"/>
   <mergeCells count="12">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -17254,6 +17285,11 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19226,11 +19262,6 @@
   </sheetData>
   <autoFilter ref="A3:S23"/>
   <mergeCells count="12">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -19238,6 +19269,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -21210,6 +21246,11 @@
   </sheetData>
   <autoFilter ref="A3:S23"/>
   <mergeCells count="12">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -21217,11 +21258,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -21691,7 +21727,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21730,11 +21766,11 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>42718</v>
+        <v>42746</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1">
@@ -21754,7 +21790,7 @@
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
       <c r="F8" s="271">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>24884526</v>
+        <v>6650000000</v>
       </c>
       <c r="G8" s="271"/>
       <c r="K8" s="1" t="str">
@@ -21769,7 +21805,7 @@
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai mươi bốn triệu, tám trăm tám mươi bốn ngàn, năm trăm hai mươi sáu đồng.</v>
+        <v>Sáu tỷ, sáu trăm năm mươi triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
@@ -21780,13 +21816,13 @@
     <row r="11" spans="1:19" ht="17.25" customHeight="1">
       <c r="F11" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán tiền cước vận chuyển</v>
+        <v>Thanh toán tiền hàng</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="25.5" customHeight="1">
       <c r="F13" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH DỊCH VỤ VẬN CHUYỂN QUỐC TẾ HOÀNG ANH</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -21797,13 +21833,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>802 62 809</v>
+        <v>1402 148 5100 7445</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>NH Á CHÂU - CN TP.HCM, TPHCM</v>
+        <v>Eximbank - CN Q4, TPHCM</v>
       </c>
     </row>
   </sheetData>

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -61,7 +61,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'11-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="13">'12-16'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="458">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -4026,7 +4026,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="F148" sqref="F148:N148"/>
+      <selection pane="bottomRight" activeCell="C150" sqref="C150:P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -11206,7 +11206,7 @@
     <row r="148" spans="1:18" ht="18.75" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B148" s="62">
         <f t="shared" si="9"/>
@@ -11247,7 +11247,7 @@
       <c r="Q148" s="104"/>
       <c r="R148" s="255" t="str">
         <f>IF(AND(C148="pv",D148='UNC - PV'!$Q$2,LEFT(E148,1)="u",'UNC - PV'!$O$2="vnđ",TH!P148&lt;&gt;""),"p",IF(AND(C148="pv",D148='UNC - PV'!$Q$2,LEFT(E148,1)="u",'UNC - PV'!$O$2="usd",TH!O148&lt;&gt;""),"p1",IF(AND(C148="pv",D148='LC - PV'!$P$2,LEFT(E148,1)="l"),"p2",IF(AND(LEFT(C148,3)="EIB",D148='UNC - EIB'!$T$2,LEFT(E148,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P148&lt;&gt;""),"e",IF(AND(LEFT(C148,3)="EIB",D148='UNC - EIB'!$T$2,LEFT(E148,1)="U",'UNC - EIB'!$R$2="usd",TH!O148&lt;&gt;""),"e1",IF(AND(LEFT(C148,3)="EIB",D148='LC - EIB'!$S$2,LEFT(E148,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="149" spans="1:18" ht="18.75" customHeight="1">
@@ -11255,23 +11255,41 @@
         <f>IF(AND(C149="pv",E149='UNC - PV'!$S$2,D149='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C149,3)="eib",E149='UNC - EIB'!$V$2,D149='UNC - EIB'!$T$2),"x1",IF(AND(C149="pv",E149='LC - PV'!$R$2,D149='LC - PV'!$P$2),"x2",IF(AND(LEFT(C149,3)="eib",E149='LC - EIB'!$U$2,D149='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B149" s="62" t="str">
+      <c r="B149" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C149" s="62"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="64"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="65"/>
+        <v>146</v>
+      </c>
+      <c r="C149" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D149" s="67">
+        <v>42774</v>
+      </c>
+      <c r="E149" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F149" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G149" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="H149" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I149" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J149" s="66"/>
       <c r="K149" s="67"/>
       <c r="L149" s="65"/>
       <c r="M149" s="65"/>
-      <c r="N149" s="64"/>
-      <c r="O149" s="68"/>
+      <c r="N149" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="O149" s="68">
+        <v>53000</v>
+      </c>
       <c r="P149" s="69"/>
       <c r="Q149" s="104"/>
       <c r="R149" s="255" t="str">
@@ -11282,30 +11300,48 @@
     <row r="150" spans="1:18" ht="18.75" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B150" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B150" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C150" s="62"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="64"/>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="65"/>
+        <v>147</v>
+      </c>
+      <c r="C150" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" s="67">
+        <v>42779</v>
+      </c>
+      <c r="E150" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G150" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H150" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I150" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J150" s="66"/>
       <c r="K150" s="67"/>
       <c r="L150" s="65"/>
       <c r="M150" s="65"/>
-      <c r="N150" s="64"/>
+      <c r="N150" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O150" s="68"/>
-      <c r="P150" s="69"/>
+      <c r="P150" s="69">
+        <v>6280000000</v>
+      </c>
       <c r="Q150" s="104"/>
       <c r="R150" s="255" t="str">
         <f>IF(AND(C150="pv",D150='UNC - PV'!$Q$2,LEFT(E150,1)="u",'UNC - PV'!$O$2="vnđ",TH!P150&lt;&gt;""),"p",IF(AND(C150="pv",D150='UNC - PV'!$Q$2,LEFT(E150,1)="u",'UNC - PV'!$O$2="usd",TH!O150&lt;&gt;""),"p1",IF(AND(C150="pv",D150='LC - PV'!$P$2,LEFT(E150,1)="l"),"p2",IF(AND(LEFT(C150,3)="EIB",D150='UNC - EIB'!$T$2,LEFT(E150,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P150&lt;&gt;""),"e",IF(AND(LEFT(C150,3)="EIB",D150='UNC - EIB'!$T$2,LEFT(E150,1)="U",'UNC - EIB'!$R$2="usd",TH!O150&lt;&gt;""),"e1",IF(AND(LEFT(C150,3)="EIB",D150='LC - EIB'!$S$2,LEFT(E150,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="151" spans="1:18" ht="18.75" customHeight="1">
@@ -15364,6 +15400,11 @@
     <sortCondition ref="C10:C19"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -15371,11 +15412,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -17278,6 +17314,11 @@
   </sheetData>
   <autoFilter ref="A3:S21"/>
   <mergeCells count="12">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -17285,11 +17326,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19262,6 +19298,11 @@
   </sheetData>
   <autoFilter ref="A3:S23"/>
   <mergeCells count="12">
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -19269,11 +19310,6 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -21246,11 +21282,6 @@
   </sheetData>
   <autoFilter ref="A3:S23"/>
   <mergeCells count="12">
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
@@ -21258,6 +21289,11 @@
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
   </mergeCells>
   <pageMargins left="0.18" right="0" top="0.12" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -21727,7 +21763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21766,11 +21802,11 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>42746</v>
+        <v>42779</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1">
@@ -21790,7 +21826,7 @@
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
       <c r="F8" s="271">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>6650000000</v>
+        <v>6280000000</v>
       </c>
       <c r="G8" s="271"/>
       <c r="K8" s="1" t="str">
@@ -21805,7 +21841,7 @@
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Sáu tỷ, sáu trăm năm mươi triệu đồng.</v>
+        <v>Sáu tỷ, hai trăm tám mươi triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="12">'11-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="13">'12-16'!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="459">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2073,6 +2073,9 @@
   </si>
   <si>
     <t>MKH: PB06030022841- Tiền điện kỳ 3 tháng 11 năm 2016</t>
+  </si>
+  <si>
+    <t>0500 3969 9831</t>
   </si>
 </sst>
 </file>
@@ -4021,12 +4024,12 @@
   </sheetPr>
   <dimension ref="A1:R157"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G139" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="J142" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C150" sqref="C150:P150"/>
+      <selection pane="bottomRight" activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4044,7 +4047,7 @@
     <col min="11" max="12" width="8.42578125" style="56" customWidth="1"/>
     <col min="13" max="13" width="7" style="56" customWidth="1"/>
     <col min="14" max="14" width="21.140625" style="57" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="57" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="57" customWidth="1"/>
     <col min="16" max="16" width="14" style="57" customWidth="1"/>
     <col min="17" max="17" width="9.140625" style="105"/>
     <col min="18" max="18" width="4.42578125" style="255" customWidth="1"/>
@@ -11300,7 +11303,7 @@
     <row r="150" spans="1:18" ht="18.75" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B150" s="62">
         <f t="shared" si="0"/>
@@ -11341,7 +11344,7 @@
       <c r="Q150" s="104"/>
       <c r="R150" s="255" t="str">
         <f>IF(AND(C150="pv",D150='UNC - PV'!$Q$2,LEFT(E150,1)="u",'UNC - PV'!$O$2="vnđ",TH!P150&lt;&gt;""),"p",IF(AND(C150="pv",D150='UNC - PV'!$Q$2,LEFT(E150,1)="u",'UNC - PV'!$O$2="usd",TH!O150&lt;&gt;""),"p1",IF(AND(C150="pv",D150='LC - PV'!$P$2,LEFT(E150,1)="l"),"p2",IF(AND(LEFT(C150,3)="EIB",D150='UNC - EIB'!$T$2,LEFT(E150,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P150&lt;&gt;""),"e",IF(AND(LEFT(C150,3)="EIB",D150='UNC - EIB'!$T$2,LEFT(E150,1)="U",'UNC - EIB'!$R$2="usd",TH!O150&lt;&gt;""),"e1",IF(AND(LEFT(C150,3)="EIB",D150='LC - EIB'!$S$2,LEFT(E150,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="151" spans="1:18" ht="18.75" customHeight="1">
@@ -11349,24 +11352,42 @@
         <f>IF(AND(C151="pv",E151='UNC - PV'!$S$2,D151='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C151,3)="eib",E151='UNC - EIB'!$V$2,D151='UNC - EIB'!$T$2),"x1",IF(AND(C151="pv",E151='LC - PV'!$R$2,D151='LC - PV'!$P$2),"x2",IF(AND(LEFT(C151,3)="eib",E151='LC - EIB'!$U$2,D151='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B151" s="62" t="str">
+      <c r="B151" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C151" s="62"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="64"/>
-      <c r="G151" s="64"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="65"/>
+        <v>148</v>
+      </c>
+      <c r="C151" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D151" s="67">
+        <v>42845</v>
+      </c>
+      <c r="E151" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G151" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="H151" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I151" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J151" s="66"/>
       <c r="K151" s="67"/>
       <c r="L151" s="65"/>
       <c r="M151" s="65"/>
-      <c r="N151" s="64"/>
+      <c r="N151" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O151" s="68"/>
-      <c r="P151" s="69"/>
+      <c r="P151" s="69">
+        <v>1419444000</v>
+      </c>
       <c r="Q151" s="104"/>
       <c r="R151" s="255" t="str">
         <f>IF(AND(C151="pv",D151='UNC - PV'!$Q$2,LEFT(E151,1)="u",'UNC - PV'!$O$2="vnđ",TH!P151&lt;&gt;""),"p",IF(AND(C151="pv",D151='UNC - PV'!$Q$2,LEFT(E151,1)="u",'UNC - PV'!$O$2="usd",TH!O151&lt;&gt;""),"p1",IF(AND(C151="pv",D151='LC - PV'!$P$2,LEFT(E151,1)="l"),"p2",IF(AND(LEFT(C151,3)="EIB",D151='UNC - EIB'!$T$2,LEFT(E151,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P151&lt;&gt;""),"e",IF(AND(LEFT(C151,3)="EIB",D151='UNC - EIB'!$T$2,LEFT(E151,1)="U",'UNC - EIB'!$R$2="usd",TH!O151&lt;&gt;""),"e1",IF(AND(LEFT(C151,3)="EIB",D151='LC - EIB'!$S$2,LEFT(E151,1)="l"),"e2",""))))))</f>
@@ -11378,24 +11399,42 @@
         <f>IF(AND(C152="pv",E152='UNC - PV'!$S$2,D152='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C152,3)="eib",E152='UNC - EIB'!$V$2,D152='UNC - EIB'!$T$2),"x1",IF(AND(C152="pv",E152='LC - PV'!$R$2,D152='LC - PV'!$P$2),"x2",IF(AND(LEFT(C152,3)="eib",E152='LC - EIB'!$U$2,D152='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B152" s="62" t="str">
+      <c r="B152" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C152" s="62"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="64"/>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="65"/>
+        <v>149</v>
+      </c>
+      <c r="C152" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" s="67">
+        <v>42845</v>
+      </c>
+      <c r="E152" s="233" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="G152" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="H152" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I152" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J152" s="66"/>
       <c r="K152" s="67"/>
       <c r="L152" s="65"/>
       <c r="M152" s="65"/>
-      <c r="N152" s="64"/>
+      <c r="N152" s="64" t="s">
+        <v>427</v>
+      </c>
       <c r="O152" s="68"/>
-      <c r="P152" s="69"/>
+      <c r="P152" s="69">
+        <v>1653600000</v>
+      </c>
       <c r="Q152" s="104"/>
       <c r="R152" s="255" t="str">
         <f>IF(AND(C152="pv",D152='UNC - PV'!$Q$2,LEFT(E152,1)="u",'UNC - PV'!$O$2="vnđ",TH!P152&lt;&gt;""),"p",IF(AND(C152="pv",D152='UNC - PV'!$Q$2,LEFT(E152,1)="u",'UNC - PV'!$O$2="usd",TH!O152&lt;&gt;""),"p1",IF(AND(C152="pv",D152='LC - PV'!$P$2,LEFT(E152,1)="l"),"p2",IF(AND(LEFT(C152,3)="EIB",D152='UNC - EIB'!$T$2,LEFT(E152,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P152&lt;&gt;""),"e",IF(AND(LEFT(C152,3)="EIB",D152='UNC - EIB'!$T$2,LEFT(E152,1)="U",'UNC - EIB'!$R$2="usd",TH!O152&lt;&gt;""),"e1",IF(AND(LEFT(C152,3)="EIB",D152='LC - EIB'!$S$2,LEFT(E152,1)="l"),"e2",""))))))</f>
@@ -11407,24 +11446,42 @@
         <f>IF(AND(C153="pv",E153='UNC - PV'!$S$2,D153='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C153,3)="eib",E153='UNC - EIB'!$V$2,D153='UNC - EIB'!$T$2),"x1",IF(AND(C153="pv",E153='LC - PV'!$R$2,D153='LC - PV'!$P$2),"x2",IF(AND(LEFT(C153,3)="eib",E153='LC - EIB'!$U$2,D153='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B153" s="62" t="str">
+      <c r="B153" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C153" s="62"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="65"/>
-      <c r="F153" s="64"/>
-      <c r="G153" s="64"/>
-      <c r="H153" s="64"/>
-      <c r="I153" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="C153" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" s="67">
+        <v>42851</v>
+      </c>
+      <c r="E153" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F153" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G153" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="H153" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="I153" s="65" t="s">
+        <v>426</v>
+      </c>
       <c r="J153" s="66"/>
       <c r="K153" s="67"/>
       <c r="L153" s="65"/>
       <c r="M153" s="65"/>
-      <c r="N153" s="64"/>
+      <c r="N153" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O153" s="68"/>
-      <c r="P153" s="69"/>
+      <c r="P153" s="69">
+        <v>2186691000</v>
+      </c>
       <c r="Q153" s="104"/>
       <c r="R153" s="255" t="str">
         <f>IF(AND(C153="pv",D153='UNC - PV'!$Q$2,LEFT(E153,1)="u",'UNC - PV'!$O$2="vnđ",TH!P153&lt;&gt;""),"p",IF(AND(C153="pv",D153='UNC - PV'!$Q$2,LEFT(E153,1)="u",'UNC - PV'!$O$2="usd",TH!O153&lt;&gt;""),"p1",IF(AND(C153="pv",D153='LC - PV'!$P$2,LEFT(E153,1)="l"),"p2",IF(AND(LEFT(C153,3)="EIB",D153='UNC - EIB'!$T$2,LEFT(E153,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P153&lt;&gt;""),"e",IF(AND(LEFT(C153,3)="EIB",D153='UNC - EIB'!$T$2,LEFT(E153,1)="U",'UNC - EIB'!$R$2="usd",TH!O153&lt;&gt;""),"e1",IF(AND(LEFT(C153,3)="EIB",D153='LC - EIB'!$S$2,LEFT(E153,1)="l"),"e2",""))))))</f>
@@ -11434,30 +11491,48 @@
     <row r="154" spans="1:18" ht="18.75" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B154" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B154" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C154" s="62"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="65"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="65"/>
+        <v>151</v>
+      </c>
+      <c r="C154" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D154" s="67">
+        <v>42874</v>
+      </c>
+      <c r="E154" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G154" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H154" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I154" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J154" s="66"/>
       <c r="K154" s="67"/>
       <c r="L154" s="65"/>
       <c r="M154" s="65"/>
-      <c r="N154" s="64"/>
+      <c r="N154" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O154" s="68"/>
-      <c r="P154" s="69"/>
+      <c r="P154" s="69">
+        <v>4200000000</v>
+      </c>
       <c r="Q154" s="104"/>
       <c r="R154" s="255" t="str">
         <f>IF(AND(C154="pv",D154='UNC - PV'!$Q$2,LEFT(E154,1)="u",'UNC - PV'!$O$2="vnđ",TH!P154&lt;&gt;""),"p",IF(AND(C154="pv",D154='UNC - PV'!$Q$2,LEFT(E154,1)="u",'UNC - PV'!$O$2="usd",TH!O154&lt;&gt;""),"p1",IF(AND(C154="pv",D154='LC - PV'!$P$2,LEFT(E154,1)="l"),"p2",IF(AND(LEFT(C154,3)="EIB",D154='UNC - EIB'!$T$2,LEFT(E154,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P154&lt;&gt;""),"e",IF(AND(LEFT(C154,3)="EIB",D154='UNC - EIB'!$T$2,LEFT(E154,1)="U",'UNC - EIB'!$R$2="usd",TH!O154&lt;&gt;""),"e1",IF(AND(LEFT(C154,3)="EIB",D154='LC - EIB'!$S$2,LEFT(E154,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18.75" customHeight="1">
@@ -11465,24 +11540,42 @@
         <f>IF(AND(C155="pv",E155='UNC - PV'!$S$2,D155='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C155,3)="eib",E155='UNC - EIB'!$V$2,D155='UNC - EIB'!$T$2),"x1",IF(AND(C155="pv",E155='LC - PV'!$R$2,D155='LC - PV'!$P$2),"x2",IF(AND(LEFT(C155,3)="eib",E155='LC - EIB'!$U$2,D155='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B155" s="62" t="str">
+      <c r="B155" s="62">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C155" s="62"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="65"/>
+        <v>152</v>
+      </c>
+      <c r="C155" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" s="67">
+        <v>42892</v>
+      </c>
+      <c r="E155" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G155" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H155" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I155" s="106" t="s">
+        <v>10</v>
+      </c>
       <c r="J155" s="66"/>
       <c r="K155" s="67"/>
       <c r="L155" s="65"/>
       <c r="M155" s="65"/>
-      <c r="N155" s="64"/>
+      <c r="N155" s="108" t="s">
+        <v>427</v>
+      </c>
       <c r="O155" s="68"/>
-      <c r="P155" s="69"/>
+      <c r="P155" s="69">
+        <v>6780000000</v>
+      </c>
       <c r="Q155" s="104"/>
       <c r="R155" s="255" t="str">
         <f>IF(AND(C155="pv",D155='UNC - PV'!$Q$2,LEFT(E155,1)="u",'UNC - PV'!$O$2="vnđ",TH!P155&lt;&gt;""),"p",IF(AND(C155="pv",D155='UNC - PV'!$Q$2,LEFT(E155,1)="u",'UNC - PV'!$O$2="usd",TH!O155&lt;&gt;""),"p1",IF(AND(C155="pv",D155='LC - PV'!$P$2,LEFT(E155,1)="l"),"p2",IF(AND(LEFT(C155,3)="EIB",D155='UNC - EIB'!$T$2,LEFT(E155,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P155&lt;&gt;""),"e",IF(AND(LEFT(C155,3)="EIB",D155='UNC - EIB'!$T$2,LEFT(E155,1)="U",'UNC - EIB'!$R$2="usd",TH!O155&lt;&gt;""),"e1",IF(AND(LEFT(C155,3)="EIB",D155='LC - EIB'!$S$2,LEFT(E155,1)="l"),"e2",""))))))</f>
@@ -21761,9 +21854,9 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21802,13 +21895,14 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>42779</v>
+        <v>42874</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="10.5" customHeight="1"/>
     <row r="6" spans="1:19" ht="21" customHeight="1">
       <c r="G6" s="1" t="s">
         <v>2</v>
@@ -21816,8 +21910,8 @@
     </row>
     <row r="7" spans="1:19" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
-        <f>IF($O$2="USD"," 3    7    0    0    0   0   0    0   6   0    7    2"," 0    0    0    0    0   0   0    0   6   0    7    2")</f>
-        <v xml:space="preserve"> 0    0    0    0    0   0   0    0   6   0    7    2</v>
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0   0   2    6    8    6    1    5")</f>
+        <v xml:space="preserve"> 1    0    7    0    0   0   2    6    8    6    1    5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>7</v>
@@ -21826,7 +21920,7 @@
     <row r="8" spans="1:19" ht="22.5" customHeight="1">
       <c r="F8" s="271">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>6280000000</v>
+        <v>4200000000</v>
       </c>
       <c r="G8" s="271"/>
       <c r="K8" s="1" t="str">
@@ -21841,7 +21935,7 @@
     <row r="9" spans="1:19" ht="17.25" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Sáu tỷ, hai trăm tám mươi triệu đồng.</v>
+        <v>Bốn tỷ, hai trăm triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075"/>
+    <workbookView xWindow="480" yWindow="1005" windowWidth="21840" windowHeight="9075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -43,15 +43,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'10-16'!$A$3:$S$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'11-16'!$A$3:$S$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'12-16'!$A$3:$S$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$185</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$156</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39727))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$156</definedName>
+    <definedName name="DS">TH!$A$4:$Q$184</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39755))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$184</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - EIB'!$A$1:$P$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - PV'!$A$1:$M$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - PV'!$A$1:$M$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'04-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">'05-16'!$2:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="8">'06-16'!$2:$3</definedName>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="471">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2076,6 +2076,42 @@
   </si>
   <si>
     <t>0500 3969 9831</t>
+  </si>
+  <si>
+    <t>ĐIỆN LỰC ĐỨC HÒA</t>
+  </si>
+  <si>
+    <t>1681 000 228 089</t>
+  </si>
+  <si>
+    <t>ABBANK - PGD Đức Hòa</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 3 tháng 05 năm 2017</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</t>
+  </si>
+  <si>
+    <t>053 100 250 3669</t>
+  </si>
+  <si>
+    <t>Vietcombank – CN Đông Sài Gòn</t>
+  </si>
+  <si>
+    <t>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</t>
+  </si>
+  <si>
+    <t>CTY CỔ PHẦN BẢO HIỂM VIỄN ĐÔNG-SỞ GIAO DỊCH TPHCM</t>
+  </si>
+  <si>
+    <t>0600 0598 0634</t>
+  </si>
+  <si>
+    <t>Sacombank - CN Trung Tâm</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền BH của HĐ: 17-99-11-020303-0026380</t>
   </si>
 </sst>
 </file>
@@ -2875,7 +2911,7 @@
     <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3657,6 +3693,9 @@
     <xf numFmtId="164" fontId="40" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="cg" xfId="5"/>
@@ -4022,14 +4061,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R157"/>
+  <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="J142" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="G154" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C156" sqref="C156"/>
+      <selection pane="bottomRight" activeCell="C160" sqref="C160:C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -4240,7 +4279,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B156" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B184" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -11491,7 +11530,7 @@
     <row r="154" spans="1:18" ht="18.75" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B154" s="62">
         <f t="shared" si="0"/>
@@ -11532,7 +11571,7 @@
       <c r="Q154" s="104"/>
       <c r="R154" s="255" t="str">
         <f>IF(AND(C154="pv",D154='UNC - PV'!$Q$2,LEFT(E154,1)="u",'UNC - PV'!$O$2="vnđ",TH!P154&lt;&gt;""),"p",IF(AND(C154="pv",D154='UNC - PV'!$Q$2,LEFT(E154,1)="u",'UNC - PV'!$O$2="usd",TH!O154&lt;&gt;""),"p1",IF(AND(C154="pv",D154='LC - PV'!$P$2,LEFT(E154,1)="l"),"p2",IF(AND(LEFT(C154,3)="EIB",D154='UNC - EIB'!$T$2,LEFT(E154,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P154&lt;&gt;""),"e",IF(AND(LEFT(C154,3)="EIB",D154='UNC - EIB'!$T$2,LEFT(E154,1)="U",'UNC - EIB'!$R$2="usd",TH!O154&lt;&gt;""),"e1",IF(AND(LEFT(C154,3)="EIB",D154='LC - EIB'!$S$2,LEFT(E154,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18.75" customHeight="1">
@@ -11587,24 +11626,42 @@
         <f>IF(AND(C156="pv",E156='UNC - PV'!$S$2,D156='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C156,3)="eib",E156='UNC - EIB'!$V$2,D156='UNC - EIB'!$T$2),"x1",IF(AND(C156="pv",E156='LC - PV'!$R$2,D156='LC - PV'!$P$2),"x2",IF(AND(LEFT(C156,3)="eib",E156='LC - EIB'!$U$2,D156='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B156" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C156" s="62"/>
-      <c r="D156" s="67"/>
-      <c r="E156" s="65"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="64"/>
-      <c r="H156" s="64"/>
-      <c r="I156" s="65"/>
+      <c r="B156" s="62">
+        <f t="shared" ref="B156:B180" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
+        <v>153</v>
+      </c>
+      <c r="C156" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D156" s="67">
+        <v>42900</v>
+      </c>
+      <c r="E156" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="G156" s="71" t="s">
+        <v>460</v>
+      </c>
+      <c r="H156" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="I156" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J156" s="66"/>
       <c r="K156" s="67"/>
       <c r="L156" s="65"/>
       <c r="M156" s="65"/>
-      <c r="N156" s="64"/>
+      <c r="N156" s="64" t="s">
+        <v>462</v>
+      </c>
       <c r="O156" s="68"/>
-      <c r="P156" s="69"/>
+      <c r="P156" s="69">
+        <v>33269610</v>
+      </c>
       <c r="Q156" s="104"/>
       <c r="R156" s="255" t="str">
         <f>IF(AND(C156="pv",D156='UNC - PV'!$Q$2,LEFT(E156,1)="u",'UNC - PV'!$O$2="vnđ",TH!P156&lt;&gt;""),"p",IF(AND(C156="pv",D156='UNC - PV'!$Q$2,LEFT(E156,1)="u",'UNC - PV'!$O$2="usd",TH!O156&lt;&gt;""),"p1",IF(AND(C156="pv",D156='LC - PV'!$P$2,LEFT(E156,1)="l"),"p2",IF(AND(LEFT(C156,3)="EIB",D156='UNC - EIB'!$T$2,LEFT(E156,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P156&lt;&gt;""),"e",IF(AND(LEFT(C156,3)="EIB",D156='UNC - EIB'!$T$2,LEFT(E156,1)="U",'UNC - EIB'!$R$2="usd",TH!O156&lt;&gt;""),"e1",IF(AND(LEFT(C156,3)="EIB",D156='LC - EIB'!$S$2,LEFT(E156,1)="l"),"e2",""))))))</f>
@@ -11612,13 +11669,915 @@
       </c>
     </row>
     <row r="157" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A157" s="55" t="str">
+        <f>IF(AND(C157="pv",E157='UNC - PV'!$S$2,D157='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C157,3)="eib",E157='UNC - EIB'!$V$2,D157='UNC - EIB'!$T$2),"x1",IF(AND(C157="pv",E157='LC - PV'!$R$2,D157='LC - PV'!$P$2),"x2",IF(AND(LEFT(C157,3)="eib",E157='LC - EIB'!$U$2,D157='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B157" s="62">
+        <f t="shared" si="10"/>
+        <v>154</v>
+      </c>
+      <c r="C157" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D157" s="67">
+        <v>42907</v>
+      </c>
+      <c r="E157" s="233" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G157" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="H157" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I157" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J157" s="66"/>
+      <c r="K157" s="67"/>
+      <c r="L157" s="65"/>
+      <c r="M157" s="65"/>
+      <c r="N157" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="O157" s="68"/>
+      <c r="P157" s="69">
+        <v>7450000000</v>
+      </c>
+      <c r="Q157" s="104"/>
       <c r="R157" s="255" t="str">
         <f>IF(AND(C157="pv",D157='UNC - PV'!$Q$2,LEFT(E157,1)="u",'UNC - PV'!$O$2="vnđ",TH!P157&lt;&gt;""),"p",IF(AND(C157="pv",D157='UNC - PV'!$Q$2,LEFT(E157,1)="u",'UNC - PV'!$O$2="usd",TH!O157&lt;&gt;""),"p1",IF(AND(C157="pv",D157='LC - PV'!$P$2,LEFT(E157,1)="l"),"p2",IF(AND(LEFT(C157,3)="EIB",D157='UNC - EIB'!$T$2,LEFT(E157,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P157&lt;&gt;""),"e",IF(AND(LEFT(C157,3)="EIB",D157='UNC - EIB'!$T$2,LEFT(E157,1)="U",'UNC - EIB'!$R$2="usd",TH!O157&lt;&gt;""),"e1",IF(AND(LEFT(C157,3)="EIB",D157='LC - EIB'!$S$2,LEFT(E157,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
+    <row r="158" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A158" s="55" t="str">
+        <f>IF(AND(C158="pv",E158='UNC - PV'!$S$2,D158='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C158,3)="eib",E158='UNC - EIB'!$V$2,D158='UNC - EIB'!$T$2),"x1",IF(AND(C158="pv",E158='LC - PV'!$R$2,D158='LC - PV'!$P$2),"x2",IF(AND(LEFT(C158,3)="eib",E158='LC - EIB'!$U$2,D158='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B158" s="62">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="C158" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E158" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F158" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="G158" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="H158" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="I158" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J158" s="66"/>
+      <c r="K158" s="67"/>
+      <c r="L158" s="65"/>
+      <c r="M158" s="65"/>
+      <c r="N158" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O158" s="68"/>
+      <c r="P158" s="69">
+        <v>230000000</v>
+      </c>
+      <c r="Q158" s="104"/>
+      <c r="R158" s="255" t="str">
+        <f>IF(AND(C158="pv",D158='UNC - PV'!$Q$2,LEFT(E158,1)="u",'UNC - PV'!$O$2="vnđ",TH!P158&lt;&gt;""),"p",IF(AND(C158="pv",D158='UNC - PV'!$Q$2,LEFT(E158,1)="u",'UNC - PV'!$O$2="usd",TH!O158&lt;&gt;""),"p1",IF(AND(C158="pv",D158='LC - PV'!$P$2,LEFT(E158,1)="l"),"p2",IF(AND(LEFT(C158,3)="EIB",D158='UNC - EIB'!$T$2,LEFT(E158,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P158&lt;&gt;""),"e",IF(AND(LEFT(C158,3)="EIB",D158='UNC - EIB'!$T$2,LEFT(E158,1)="U",'UNC - EIB'!$R$2="usd",TH!O158&lt;&gt;""),"e1",IF(AND(LEFT(C158,3)="EIB",D158='LC - EIB'!$S$2,LEFT(E158,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A159" s="55" t="str">
+        <f>IF(AND(C159="pv",E159='UNC - PV'!$S$2,D159='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C159,3)="eib",E159='UNC - EIB'!$V$2,D159='UNC - EIB'!$T$2),"x1",IF(AND(C159="pv",E159='LC - PV'!$R$2,D159='LC - PV'!$P$2),"x2",IF(AND(LEFT(C159,3)="eib",E159='LC - EIB'!$U$2,D159='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B159" s="62">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="C159" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E159" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F159" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="G159" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="H159" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="I159" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J159" s="66"/>
+      <c r="K159" s="67"/>
+      <c r="L159" s="65"/>
+      <c r="M159" s="65"/>
+      <c r="N159" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="O159" s="68"/>
+      <c r="P159" s="69">
+        <v>177413940</v>
+      </c>
+      <c r="Q159" s="104"/>
+      <c r="R159" s="255" t="str">
+        <f>IF(AND(C159="pv",D159='UNC - PV'!$Q$2,LEFT(E159,1)="u",'UNC - PV'!$O$2="vnđ",TH!P159&lt;&gt;""),"p",IF(AND(C159="pv",D159='UNC - PV'!$Q$2,LEFT(E159,1)="u",'UNC - PV'!$O$2="usd",TH!O159&lt;&gt;""),"p1",IF(AND(C159="pv",D159='LC - PV'!$P$2,LEFT(E159,1)="l"),"p2",IF(AND(LEFT(C159,3)="EIB",D159='UNC - EIB'!$T$2,LEFT(E159,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P159&lt;&gt;""),"e",IF(AND(LEFT(C159,3)="EIB",D159='UNC - EIB'!$T$2,LEFT(E159,1)="U",'UNC - EIB'!$R$2="usd",TH!O159&lt;&gt;""),"e1",IF(AND(LEFT(C159,3)="EIB",D159='LC - EIB'!$S$2,LEFT(E159,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A160" s="55" t="str">
+        <f>IF(AND(C160="pv",E160='UNC - PV'!$S$2,D160='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C160,3)="eib",E160='UNC - EIB'!$V$2,D160='UNC - EIB'!$T$2),"x1",IF(AND(C160="pv",E160='LC - PV'!$R$2,D160='LC - PV'!$P$2),"x2",IF(AND(LEFT(C160,3)="eib",E160='LC - EIB'!$U$2,D160='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B160" s="62">
+        <f t="shared" si="10"/>
+        <v>157</v>
+      </c>
+      <c r="C160" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" s="67">
+        <v>42914</v>
+      </c>
+      <c r="E160" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="G160" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="H160" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="I160" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J160" s="66"/>
+      <c r="K160" s="67"/>
+      <c r="L160" s="65"/>
+      <c r="M160" s="65"/>
+      <c r="N160" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="O160" s="68"/>
+      <c r="P160" s="69">
+        <v>20293420</v>
+      </c>
+      <c r="Q160" s="104"/>
+      <c r="R160" s="255" t="str">
+        <f>IF(AND(C160="pv",D160='UNC - PV'!$Q$2,LEFT(E160,1)="u",'UNC - PV'!$O$2="vnđ",TH!P160&lt;&gt;""),"p",IF(AND(C160="pv",D160='UNC - PV'!$Q$2,LEFT(E160,1)="u",'UNC - PV'!$O$2="usd",TH!O160&lt;&gt;""),"p1",IF(AND(C160="pv",D160='LC - PV'!$P$2,LEFT(E160,1)="l"),"p2",IF(AND(LEFT(C160,3)="EIB",D160='UNC - EIB'!$T$2,LEFT(E160,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P160&lt;&gt;""),"e",IF(AND(LEFT(C160,3)="EIB",D160='UNC - EIB'!$T$2,LEFT(E160,1)="U",'UNC - EIB'!$R$2="usd",TH!O160&lt;&gt;""),"e1",IF(AND(LEFT(C160,3)="EIB",D160='LC - EIB'!$S$2,LEFT(E160,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A161" s="55" t="str">
+        <f>IF(AND(C161="pv",E161='UNC - PV'!$S$2,D161='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C161,3)="eib",E161='UNC - EIB'!$V$2,D161='UNC - EIB'!$T$2),"x1",IF(AND(C161="pv",E161='LC - PV'!$R$2,D161='LC - PV'!$P$2),"x2",IF(AND(LEFT(C161,3)="eib",E161='LC - EIB'!$U$2,D161='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x</v>
+      </c>
+      <c r="B161" s="62">
+        <f t="shared" si="10"/>
+        <v>158</v>
+      </c>
+      <c r="C161" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" s="67">
+        <v>42915</v>
+      </c>
+      <c r="E161" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F161" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="G161" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="H161" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="I161" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="J161" s="66"/>
+      <c r="K161" s="67"/>
+      <c r="L161" s="65"/>
+      <c r="M161" s="65"/>
+      <c r="N161" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="O161" s="68">
+        <v>243800</v>
+      </c>
+      <c r="P161" s="69"/>
+      <c r="Q161" s="104"/>
+      <c r="R161" s="255" t="str">
+        <f>IF(AND(C161="pv",D161='UNC - PV'!$Q$2,LEFT(E161,1)="u",'UNC - PV'!$O$2="vnđ",TH!P161&lt;&gt;""),"p",IF(AND(C161="pv",D161='UNC - PV'!$Q$2,LEFT(E161,1)="u",'UNC - PV'!$O$2="usd",TH!O161&lt;&gt;""),"p1",IF(AND(C161="pv",D161='LC - PV'!$P$2,LEFT(E161,1)="l"),"p2",IF(AND(LEFT(C161,3)="EIB",D161='UNC - EIB'!$T$2,LEFT(E161,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P161&lt;&gt;""),"e",IF(AND(LEFT(C161,3)="EIB",D161='UNC - EIB'!$T$2,LEFT(E161,1)="U",'UNC - EIB'!$R$2="usd",TH!O161&lt;&gt;""),"e1",IF(AND(LEFT(C161,3)="EIB",D161='LC - EIB'!$S$2,LEFT(E161,1)="l"),"e2",""))))))</f>
+        <v>p1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A162" s="55" t="str">
+        <f>IF(AND(C162="pv",E162='UNC - PV'!$S$2,D162='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C162,3)="eib",E162='UNC - EIB'!$V$2,D162='UNC - EIB'!$T$2),"x1",IF(AND(C162="pv",E162='LC - PV'!$R$2,D162='LC - PV'!$P$2),"x2",IF(AND(LEFT(C162,3)="eib",E162='LC - EIB'!$U$2,D162='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B162" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C162" s="62"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="64"/>
+      <c r="G162" s="64"/>
+      <c r="H162" s="64"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="66"/>
+      <c r="K162" s="67"/>
+      <c r="L162" s="65"/>
+      <c r="M162" s="65"/>
+      <c r="N162" s="64"/>
+      <c r="O162" s="68"/>
+      <c r="P162" s="69"/>
+      <c r="Q162" s="104"/>
+      <c r="R162" s="255" t="str">
+        <f>IF(AND(C162="pv",D162='UNC - PV'!$Q$2,LEFT(E162,1)="u",'UNC - PV'!$O$2="vnđ",TH!P162&lt;&gt;""),"p",IF(AND(C162="pv",D162='UNC - PV'!$Q$2,LEFT(E162,1)="u",'UNC - PV'!$O$2="usd",TH!O162&lt;&gt;""),"p1",IF(AND(C162="pv",D162='LC - PV'!$P$2,LEFT(E162,1)="l"),"p2",IF(AND(LEFT(C162,3)="EIB",D162='UNC - EIB'!$T$2,LEFT(E162,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P162&lt;&gt;""),"e",IF(AND(LEFT(C162,3)="EIB",D162='UNC - EIB'!$T$2,LEFT(E162,1)="U",'UNC - EIB'!$R$2="usd",TH!O162&lt;&gt;""),"e1",IF(AND(LEFT(C162,3)="EIB",D162='LC - EIB'!$S$2,LEFT(E162,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A163" s="55" t="str">
+        <f>IF(AND(C163="pv",E163='UNC - PV'!$S$2,D163='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C163,3)="eib",E163='UNC - EIB'!$V$2,D163='UNC - EIB'!$T$2),"x1",IF(AND(C163="pv",E163='LC - PV'!$R$2,D163='LC - PV'!$P$2),"x2",IF(AND(LEFT(C163,3)="eib",E163='LC - EIB'!$U$2,D163='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B163" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C163" s="62"/>
+      <c r="D163" s="67"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="64"/>
+      <c r="G163" s="64"/>
+      <c r="H163" s="64"/>
+      <c r="I163" s="65"/>
+      <c r="J163" s="66"/>
+      <c r="K163" s="67"/>
+      <c r="L163" s="65"/>
+      <c r="M163" s="65"/>
+      <c r="N163" s="64"/>
+      <c r="O163" s="68"/>
+      <c r="P163" s="69"/>
+      <c r="Q163" s="104"/>
+      <c r="R163" s="255" t="str">
+        <f>IF(AND(C163="pv",D163='UNC - PV'!$Q$2,LEFT(E163,1)="u",'UNC - PV'!$O$2="vnđ",TH!P163&lt;&gt;""),"p",IF(AND(C163="pv",D163='UNC - PV'!$Q$2,LEFT(E163,1)="u",'UNC - PV'!$O$2="usd",TH!O163&lt;&gt;""),"p1",IF(AND(C163="pv",D163='LC - PV'!$P$2,LEFT(E163,1)="l"),"p2",IF(AND(LEFT(C163,3)="EIB",D163='UNC - EIB'!$T$2,LEFT(E163,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P163&lt;&gt;""),"e",IF(AND(LEFT(C163,3)="EIB",D163='UNC - EIB'!$T$2,LEFT(E163,1)="U",'UNC - EIB'!$R$2="usd",TH!O163&lt;&gt;""),"e1",IF(AND(LEFT(C163,3)="EIB",D163='LC - EIB'!$S$2,LEFT(E163,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A164" s="55" t="str">
+        <f>IF(AND(C164="pv",E164='UNC - PV'!$S$2,D164='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C164,3)="eib",E164='UNC - EIB'!$V$2,D164='UNC - EIB'!$T$2),"x1",IF(AND(C164="pv",E164='LC - PV'!$R$2,D164='LC - PV'!$P$2),"x2",IF(AND(LEFT(C164,3)="eib",E164='LC - EIB'!$U$2,D164='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B164" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C164" s="62"/>
+      <c r="D164" s="67"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="64"/>
+      <c r="G164" s="64"/>
+      <c r="H164" s="64"/>
+      <c r="I164" s="65"/>
+      <c r="J164" s="66"/>
+      <c r="K164" s="67"/>
+      <c r="L164" s="65"/>
+      <c r="M164" s="65"/>
+      <c r="N164" s="64"/>
+      <c r="O164" s="68"/>
+      <c r="P164" s="69"/>
+      <c r="Q164" s="104"/>
+      <c r="R164" s="255" t="str">
+        <f>IF(AND(C164="pv",D164='UNC - PV'!$Q$2,LEFT(E164,1)="u",'UNC - PV'!$O$2="vnđ",TH!P164&lt;&gt;""),"p",IF(AND(C164="pv",D164='UNC - PV'!$Q$2,LEFT(E164,1)="u",'UNC - PV'!$O$2="usd",TH!O164&lt;&gt;""),"p1",IF(AND(C164="pv",D164='LC - PV'!$P$2,LEFT(E164,1)="l"),"p2",IF(AND(LEFT(C164,3)="EIB",D164='UNC - EIB'!$T$2,LEFT(E164,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P164&lt;&gt;""),"e",IF(AND(LEFT(C164,3)="EIB",D164='UNC - EIB'!$T$2,LEFT(E164,1)="U",'UNC - EIB'!$R$2="usd",TH!O164&lt;&gt;""),"e1",IF(AND(LEFT(C164,3)="EIB",D164='LC - EIB'!$S$2,LEFT(E164,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A165" s="55" t="str">
+        <f>IF(AND(C165="pv",E165='UNC - PV'!$S$2,D165='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C165,3)="eib",E165='UNC - EIB'!$V$2,D165='UNC - EIB'!$T$2),"x1",IF(AND(C165="pv",E165='LC - PV'!$R$2,D165='LC - PV'!$P$2),"x2",IF(AND(LEFT(C165,3)="eib",E165='LC - EIB'!$U$2,D165='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B165" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C165" s="62"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="64"/>
+      <c r="G165" s="64"/>
+      <c r="H165" s="64"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="66"/>
+      <c r="K165" s="67"/>
+      <c r="L165" s="65"/>
+      <c r="M165" s="65"/>
+      <c r="N165" s="64"/>
+      <c r="O165" s="68"/>
+      <c r="P165" s="69"/>
+      <c r="Q165" s="104"/>
+      <c r="R165" s="255" t="str">
+        <f>IF(AND(C165="pv",D165='UNC - PV'!$Q$2,LEFT(E165,1)="u",'UNC - PV'!$O$2="vnđ",TH!P165&lt;&gt;""),"p",IF(AND(C165="pv",D165='UNC - PV'!$Q$2,LEFT(E165,1)="u",'UNC - PV'!$O$2="usd",TH!O165&lt;&gt;""),"p1",IF(AND(C165="pv",D165='LC - PV'!$P$2,LEFT(E165,1)="l"),"p2",IF(AND(LEFT(C165,3)="EIB",D165='UNC - EIB'!$T$2,LEFT(E165,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P165&lt;&gt;""),"e",IF(AND(LEFT(C165,3)="EIB",D165='UNC - EIB'!$T$2,LEFT(E165,1)="U",'UNC - EIB'!$R$2="usd",TH!O165&lt;&gt;""),"e1",IF(AND(LEFT(C165,3)="EIB",D165='LC - EIB'!$S$2,LEFT(E165,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A166" s="55" t="str">
+        <f>IF(AND(C166="pv",E166='UNC - PV'!$S$2,D166='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C166,3)="eib",E166='UNC - EIB'!$V$2,D166='UNC - EIB'!$T$2),"x1",IF(AND(C166="pv",E166='LC - PV'!$R$2,D166='LC - PV'!$P$2),"x2",IF(AND(LEFT(C166,3)="eib",E166='LC - EIB'!$U$2,D166='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B166" s="62" t="str">
+        <f t="shared" ref="B166:B171" si="11">IF(C166&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C166" s="62"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="65"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="65"/>
+      <c r="J166" s="66"/>
+      <c r="K166" s="67"/>
+      <c r="L166" s="65"/>
+      <c r="M166" s="65"/>
+      <c r="N166" s="64"/>
+      <c r="O166" s="68"/>
+      <c r="P166" s="69"/>
+      <c r="Q166" s="104"/>
+      <c r="R166" s="255" t="str">
+        <f>IF(AND(C166="pv",D166='UNC - PV'!$Q$2,LEFT(E166,1)="u",'UNC - PV'!$O$2="vnđ",TH!P166&lt;&gt;""),"p",IF(AND(C166="pv",D166='UNC - PV'!$Q$2,LEFT(E166,1)="u",'UNC - PV'!$O$2="usd",TH!O166&lt;&gt;""),"p1",IF(AND(C166="pv",D166='LC - PV'!$P$2,LEFT(E166,1)="l"),"p2",IF(AND(LEFT(C166,3)="EIB",D166='UNC - EIB'!$T$2,LEFT(E166,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P166&lt;&gt;""),"e",IF(AND(LEFT(C166,3)="EIB",D166='UNC - EIB'!$T$2,LEFT(E166,1)="U",'UNC - EIB'!$R$2="usd",TH!O166&lt;&gt;""),"e1",IF(AND(LEFT(C166,3)="EIB",D166='LC - EIB'!$S$2,LEFT(E166,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A167" s="55" t="str">
+        <f>IF(AND(C167="pv",E167='UNC - PV'!$S$2,D167='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C167,3)="eib",E167='UNC - EIB'!$V$2,D167='UNC - EIB'!$T$2),"x1",IF(AND(C167="pv",E167='LC - PV'!$R$2,D167='LC - PV'!$P$2),"x2",IF(AND(LEFT(C167,3)="eib",E167='LC - EIB'!$U$2,D167='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B167" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C167" s="62"/>
+      <c r="D167" s="67"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="65"/>
+      <c r="J167" s="66"/>
+      <c r="K167" s="67"/>
+      <c r="L167" s="65"/>
+      <c r="M167" s="65"/>
+      <c r="N167" s="64"/>
+      <c r="O167" s="68"/>
+      <c r="P167" s="69"/>
+      <c r="Q167" s="104"/>
+      <c r="R167" s="255" t="str">
+        <f>IF(AND(C167="pv",D167='UNC - PV'!$Q$2,LEFT(E167,1)="u",'UNC - PV'!$O$2="vnđ",TH!P167&lt;&gt;""),"p",IF(AND(C167="pv",D167='UNC - PV'!$Q$2,LEFT(E167,1)="u",'UNC - PV'!$O$2="usd",TH!O167&lt;&gt;""),"p1",IF(AND(C167="pv",D167='LC - PV'!$P$2,LEFT(E167,1)="l"),"p2",IF(AND(LEFT(C167,3)="EIB",D167='UNC - EIB'!$T$2,LEFT(E167,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P167&lt;&gt;""),"e",IF(AND(LEFT(C167,3)="EIB",D167='UNC - EIB'!$T$2,LEFT(E167,1)="U",'UNC - EIB'!$R$2="usd",TH!O167&lt;&gt;""),"e1",IF(AND(LEFT(C167,3)="EIB",D167='LC - EIB'!$S$2,LEFT(E167,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A168" s="55" t="str">
+        <f>IF(AND(C168="pv",E168='UNC - PV'!$S$2,D168='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C168,3)="eib",E168='UNC - EIB'!$V$2,D168='UNC - EIB'!$T$2),"x1",IF(AND(C168="pv",E168='LC - PV'!$R$2,D168='LC - PV'!$P$2),"x2",IF(AND(LEFT(C168,3)="eib",E168='LC - EIB'!$U$2,D168='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B168" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C168" s="62"/>
+      <c r="D168" s="67"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="66"/>
+      <c r="K168" s="67"/>
+      <c r="L168" s="65"/>
+      <c r="M168" s="65"/>
+      <c r="N168" s="64"/>
+      <c r="O168" s="68"/>
+      <c r="P168" s="69"/>
+      <c r="Q168" s="104"/>
+      <c r="R168" s="255" t="str">
+        <f>IF(AND(C168="pv",D168='UNC - PV'!$Q$2,LEFT(E168,1)="u",'UNC - PV'!$O$2="vnđ",TH!P168&lt;&gt;""),"p",IF(AND(C168="pv",D168='UNC - PV'!$Q$2,LEFT(E168,1)="u",'UNC - PV'!$O$2="usd",TH!O168&lt;&gt;""),"p1",IF(AND(C168="pv",D168='LC - PV'!$P$2,LEFT(E168,1)="l"),"p2",IF(AND(LEFT(C168,3)="EIB",D168='UNC - EIB'!$T$2,LEFT(E168,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P168&lt;&gt;""),"e",IF(AND(LEFT(C168,3)="EIB",D168='UNC - EIB'!$T$2,LEFT(E168,1)="U",'UNC - EIB'!$R$2="usd",TH!O168&lt;&gt;""),"e1",IF(AND(LEFT(C168,3)="EIB",D168='LC - EIB'!$S$2,LEFT(E168,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A169" s="55" t="str">
+        <f>IF(AND(C169="pv",E169='UNC - PV'!$S$2,D169='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C169,3)="eib",E169='UNC - EIB'!$V$2,D169='UNC - EIB'!$T$2),"x1",IF(AND(C169="pv",E169='LC - PV'!$R$2,D169='LC - PV'!$P$2),"x2",IF(AND(LEFT(C169,3)="eib",E169='LC - EIB'!$U$2,D169='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B169" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C169" s="62"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="64"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="65"/>
+      <c r="J169" s="66"/>
+      <c r="K169" s="67"/>
+      <c r="L169" s="65"/>
+      <c r="M169" s="65"/>
+      <c r="N169" s="64"/>
+      <c r="O169" s="68"/>
+      <c r="P169" s="69"/>
+      <c r="Q169" s="104"/>
+      <c r="R169" s="255" t="str">
+        <f>IF(AND(C169="pv",D169='UNC - PV'!$Q$2,LEFT(E169,1)="u",'UNC - PV'!$O$2="vnđ",TH!P169&lt;&gt;""),"p",IF(AND(C169="pv",D169='UNC - PV'!$Q$2,LEFT(E169,1)="u",'UNC - PV'!$O$2="usd",TH!O169&lt;&gt;""),"p1",IF(AND(C169="pv",D169='LC - PV'!$P$2,LEFT(E169,1)="l"),"p2",IF(AND(LEFT(C169,3)="EIB",D169='UNC - EIB'!$T$2,LEFT(E169,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P169&lt;&gt;""),"e",IF(AND(LEFT(C169,3)="EIB",D169='UNC - EIB'!$T$2,LEFT(E169,1)="U",'UNC - EIB'!$R$2="usd",TH!O169&lt;&gt;""),"e1",IF(AND(LEFT(C169,3)="EIB",D169='LC - EIB'!$S$2,LEFT(E169,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A170" s="55" t="str">
+        <f>IF(AND(C170="pv",E170='UNC - PV'!$S$2,D170='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C170,3)="eib",E170='UNC - EIB'!$V$2,D170='UNC - EIB'!$T$2),"x1",IF(AND(C170="pv",E170='LC - PV'!$R$2,D170='LC - PV'!$P$2),"x2",IF(AND(LEFT(C170,3)="eib",E170='LC - EIB'!$U$2,D170='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B170" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C170" s="62"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="65"/>
+      <c r="F170" s="64"/>
+      <c r="G170" s="64"/>
+      <c r="H170" s="64"/>
+      <c r="I170" s="65"/>
+      <c r="J170" s="66"/>
+      <c r="K170" s="67"/>
+      <c r="L170" s="65"/>
+      <c r="M170" s="65"/>
+      <c r="N170" s="64"/>
+      <c r="O170" s="68"/>
+      <c r="P170" s="69"/>
+      <c r="Q170" s="104"/>
+      <c r="R170" s="255" t="str">
+        <f>IF(AND(C170="pv",D170='UNC - PV'!$Q$2,LEFT(E170,1)="u",'UNC - PV'!$O$2="vnđ",TH!P170&lt;&gt;""),"p",IF(AND(C170="pv",D170='UNC - PV'!$Q$2,LEFT(E170,1)="u",'UNC - PV'!$O$2="usd",TH!O170&lt;&gt;""),"p1",IF(AND(C170="pv",D170='LC - PV'!$P$2,LEFT(E170,1)="l"),"p2",IF(AND(LEFT(C170,3)="EIB",D170='UNC - EIB'!$T$2,LEFT(E170,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P170&lt;&gt;""),"e",IF(AND(LEFT(C170,3)="EIB",D170='UNC - EIB'!$T$2,LEFT(E170,1)="U",'UNC - EIB'!$R$2="usd",TH!O170&lt;&gt;""),"e1",IF(AND(LEFT(C170,3)="EIB",D170='LC - EIB'!$S$2,LEFT(E170,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A171" s="55" t="str">
+        <f>IF(AND(C171="pv",E171='UNC - PV'!$S$2,D171='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C171,3)="eib",E171='UNC - EIB'!$V$2,D171='UNC - EIB'!$T$2),"x1",IF(AND(C171="pv",E171='LC - PV'!$R$2,D171='LC - PV'!$P$2),"x2",IF(AND(LEFT(C171,3)="eib",E171='LC - EIB'!$U$2,D171='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B171" s="62" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="C171" s="62"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="64"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="65"/>
+      <c r="J171" s="66"/>
+      <c r="K171" s="67"/>
+      <c r="L171" s="65"/>
+      <c r="M171" s="65"/>
+      <c r="N171" s="64"/>
+      <c r="O171" s="68"/>
+      <c r="P171" s="69"/>
+      <c r="Q171" s="104"/>
+      <c r="R171" s="255" t="str">
+        <f>IF(AND(C171="pv",D171='UNC - PV'!$Q$2,LEFT(E171,1)="u",'UNC - PV'!$O$2="vnđ",TH!P171&lt;&gt;""),"p",IF(AND(C171="pv",D171='UNC - PV'!$Q$2,LEFT(E171,1)="u",'UNC - PV'!$O$2="usd",TH!O171&lt;&gt;""),"p1",IF(AND(C171="pv",D171='LC - PV'!$P$2,LEFT(E171,1)="l"),"p2",IF(AND(LEFT(C171,3)="EIB",D171='UNC - EIB'!$T$2,LEFT(E171,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P171&lt;&gt;""),"e",IF(AND(LEFT(C171,3)="EIB",D171='UNC - EIB'!$T$2,LEFT(E171,1)="U",'UNC - EIB'!$R$2="usd",TH!O171&lt;&gt;""),"e1",IF(AND(LEFT(C171,3)="EIB",D171='LC - EIB'!$S$2,LEFT(E171,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A172" s="55" t="str">
+        <f>IF(AND(C172="pv",E172='UNC - PV'!$S$2,D172='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C172,3)="eib",E172='UNC - EIB'!$V$2,D172='UNC - EIB'!$T$2),"x1",IF(AND(C172="pv",E172='LC - PV'!$R$2,D172='LC - PV'!$P$2),"x2",IF(AND(LEFT(C172,3)="eib",E172='LC - EIB'!$U$2,D172='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B172" s="62" t="str">
+        <f t="shared" ref="B172:B177" si="12">IF(C172&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C172" s="62"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="64"/>
+      <c r="G172" s="64"/>
+      <c r="H172" s="64"/>
+      <c r="I172" s="65"/>
+      <c r="J172" s="66"/>
+      <c r="K172" s="67"/>
+      <c r="L172" s="65"/>
+      <c r="M172" s="65"/>
+      <c r="N172" s="64"/>
+      <c r="O172" s="68"/>
+      <c r="P172" s="69"/>
+      <c r="Q172" s="104"/>
+      <c r="R172" s="255" t="str">
+        <f>IF(AND(C172="pv",D172='UNC - PV'!$Q$2,LEFT(E172,1)="u",'UNC - PV'!$O$2="vnđ",TH!P172&lt;&gt;""),"p",IF(AND(C172="pv",D172='UNC - PV'!$Q$2,LEFT(E172,1)="u",'UNC - PV'!$O$2="usd",TH!O172&lt;&gt;""),"p1",IF(AND(C172="pv",D172='LC - PV'!$P$2,LEFT(E172,1)="l"),"p2",IF(AND(LEFT(C172,3)="EIB",D172='UNC - EIB'!$T$2,LEFT(E172,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P172&lt;&gt;""),"e",IF(AND(LEFT(C172,3)="EIB",D172='UNC - EIB'!$T$2,LEFT(E172,1)="U",'UNC - EIB'!$R$2="usd",TH!O172&lt;&gt;""),"e1",IF(AND(LEFT(C172,3)="EIB",D172='LC - EIB'!$S$2,LEFT(E172,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A173" s="55" t="str">
+        <f>IF(AND(C173="pv",E173='UNC - PV'!$S$2,D173='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C173,3)="eib",E173='UNC - EIB'!$V$2,D173='UNC - EIB'!$T$2),"x1",IF(AND(C173="pv",E173='LC - PV'!$R$2,D173='LC - PV'!$P$2),"x2",IF(AND(LEFT(C173,3)="eib",E173='LC - EIB'!$U$2,D173='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B173" s="62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C173" s="62"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="65"/>
+      <c r="F173" s="64"/>
+      <c r="G173" s="64"/>
+      <c r="H173" s="64"/>
+      <c r="I173" s="65"/>
+      <c r="J173" s="66"/>
+      <c r="K173" s="67"/>
+      <c r="L173" s="65"/>
+      <c r="M173" s="65"/>
+      <c r="N173" s="64"/>
+      <c r="O173" s="68"/>
+      <c r="P173" s="69"/>
+      <c r="Q173" s="104"/>
+      <c r="R173" s="255" t="str">
+        <f>IF(AND(C173="pv",D173='UNC - PV'!$Q$2,LEFT(E173,1)="u",'UNC - PV'!$O$2="vnđ",TH!P173&lt;&gt;""),"p",IF(AND(C173="pv",D173='UNC - PV'!$Q$2,LEFT(E173,1)="u",'UNC - PV'!$O$2="usd",TH!O173&lt;&gt;""),"p1",IF(AND(C173="pv",D173='LC - PV'!$P$2,LEFT(E173,1)="l"),"p2",IF(AND(LEFT(C173,3)="EIB",D173='UNC - EIB'!$T$2,LEFT(E173,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P173&lt;&gt;""),"e",IF(AND(LEFT(C173,3)="EIB",D173='UNC - EIB'!$T$2,LEFT(E173,1)="U",'UNC - EIB'!$R$2="usd",TH!O173&lt;&gt;""),"e1",IF(AND(LEFT(C173,3)="EIB",D173='LC - EIB'!$S$2,LEFT(E173,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A174" s="55" t="str">
+        <f>IF(AND(C174="pv",E174='UNC - PV'!$S$2,D174='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C174,3)="eib",E174='UNC - EIB'!$V$2,D174='UNC - EIB'!$T$2),"x1",IF(AND(C174="pv",E174='LC - PV'!$R$2,D174='LC - PV'!$P$2),"x2",IF(AND(LEFT(C174,3)="eib",E174='LC - EIB'!$U$2,D174='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B174" s="62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C174" s="62"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="65"/>
+      <c r="F174" s="64"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="64"/>
+      <c r="I174" s="65"/>
+      <c r="J174" s="66"/>
+      <c r="K174" s="67"/>
+      <c r="L174" s="65"/>
+      <c r="M174" s="65"/>
+      <c r="N174" s="64"/>
+      <c r="O174" s="68"/>
+      <c r="P174" s="69"/>
+      <c r="Q174" s="104"/>
+      <c r="R174" s="255" t="str">
+        <f>IF(AND(C174="pv",D174='UNC - PV'!$Q$2,LEFT(E174,1)="u",'UNC - PV'!$O$2="vnđ",TH!P174&lt;&gt;""),"p",IF(AND(C174="pv",D174='UNC - PV'!$Q$2,LEFT(E174,1)="u",'UNC - PV'!$O$2="usd",TH!O174&lt;&gt;""),"p1",IF(AND(C174="pv",D174='LC - PV'!$P$2,LEFT(E174,1)="l"),"p2",IF(AND(LEFT(C174,3)="EIB",D174='UNC - EIB'!$T$2,LEFT(E174,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P174&lt;&gt;""),"e",IF(AND(LEFT(C174,3)="EIB",D174='UNC - EIB'!$T$2,LEFT(E174,1)="U",'UNC - EIB'!$R$2="usd",TH!O174&lt;&gt;""),"e1",IF(AND(LEFT(C174,3)="EIB",D174='LC - EIB'!$S$2,LEFT(E174,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A175" s="55" t="str">
+        <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B175" s="62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C175" s="62"/>
+      <c r="D175" s="67"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="65"/>
+      <c r="J175" s="66"/>
+      <c r="K175" s="67"/>
+      <c r="L175" s="65"/>
+      <c r="M175" s="65"/>
+      <c r="N175" s="64"/>
+      <c r="O175" s="68"/>
+      <c r="P175" s="69"/>
+      <c r="Q175" s="104"/>
+      <c r="R175" s="255" t="str">
+        <f>IF(AND(C175="pv",D175='UNC - PV'!$Q$2,LEFT(E175,1)="u",'UNC - PV'!$O$2="vnđ",TH!P175&lt;&gt;""),"p",IF(AND(C175="pv",D175='UNC - PV'!$Q$2,LEFT(E175,1)="u",'UNC - PV'!$O$2="usd",TH!O175&lt;&gt;""),"p1",IF(AND(C175="pv",D175='LC - PV'!$P$2,LEFT(E175,1)="l"),"p2",IF(AND(LEFT(C175,3)="EIB",D175='UNC - EIB'!$T$2,LEFT(E175,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P175&lt;&gt;""),"e",IF(AND(LEFT(C175,3)="EIB",D175='UNC - EIB'!$T$2,LEFT(E175,1)="U",'UNC - EIB'!$R$2="usd",TH!O175&lt;&gt;""),"e1",IF(AND(LEFT(C175,3)="EIB",D175='LC - EIB'!$S$2,LEFT(E175,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A176" s="55" t="str">
+        <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B176" s="62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C176" s="62"/>
+      <c r="D176" s="67"/>
+      <c r="E176" s="65"/>
+      <c r="F176" s="64"/>
+      <c r="G176" s="64"/>
+      <c r="H176" s="64"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="66"/>
+      <c r="K176" s="67"/>
+      <c r="L176" s="65"/>
+      <c r="M176" s="65"/>
+      <c r="N176" s="64"/>
+      <c r="O176" s="68"/>
+      <c r="P176" s="69"/>
+      <c r="Q176" s="104"/>
+      <c r="R176" s="255" t="str">
+        <f>IF(AND(C176="pv",D176='UNC - PV'!$Q$2,LEFT(E176,1)="u",'UNC - PV'!$O$2="vnđ",TH!P176&lt;&gt;""),"p",IF(AND(C176="pv",D176='UNC - PV'!$Q$2,LEFT(E176,1)="u",'UNC - PV'!$O$2="usd",TH!O176&lt;&gt;""),"p1",IF(AND(C176="pv",D176='LC - PV'!$P$2,LEFT(E176,1)="l"),"p2",IF(AND(LEFT(C176,3)="EIB",D176='UNC - EIB'!$T$2,LEFT(E176,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P176&lt;&gt;""),"e",IF(AND(LEFT(C176,3)="EIB",D176='UNC - EIB'!$T$2,LEFT(E176,1)="U",'UNC - EIB'!$R$2="usd",TH!O176&lt;&gt;""),"e1",IF(AND(LEFT(C176,3)="EIB",D176='LC - EIB'!$S$2,LEFT(E176,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A177" s="55" t="str">
+        <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B177" s="62" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="C177" s="62"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="65"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="64"/>
+      <c r="I177" s="65"/>
+      <c r="J177" s="66"/>
+      <c r="K177" s="67"/>
+      <c r="L177" s="65"/>
+      <c r="M177" s="65"/>
+      <c r="N177" s="64"/>
+      <c r="O177" s="68"/>
+      <c r="P177" s="69"/>
+      <c r="Q177" s="104"/>
+      <c r="R177" s="255" t="str">
+        <f>IF(AND(C177="pv",D177='UNC - PV'!$Q$2,LEFT(E177,1)="u",'UNC - PV'!$O$2="vnđ",TH!P177&lt;&gt;""),"p",IF(AND(C177="pv",D177='UNC - PV'!$Q$2,LEFT(E177,1)="u",'UNC - PV'!$O$2="usd",TH!O177&lt;&gt;""),"p1",IF(AND(C177="pv",D177='LC - PV'!$P$2,LEFT(E177,1)="l"),"p2",IF(AND(LEFT(C177,3)="EIB",D177='UNC - EIB'!$T$2,LEFT(E177,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P177&lt;&gt;""),"e",IF(AND(LEFT(C177,3)="EIB",D177='UNC - EIB'!$T$2,LEFT(E177,1)="U",'UNC - EIB'!$R$2="usd",TH!O177&lt;&gt;""),"e1",IF(AND(LEFT(C177,3)="EIB",D177='LC - EIB'!$S$2,LEFT(E177,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A178" s="55" t="str">
+        <f>IF(AND(C178="pv",E178='UNC - PV'!$S$2,D178='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C178,3)="eib",E178='UNC - EIB'!$V$2,D178='UNC - EIB'!$T$2),"x1",IF(AND(C178="pv",E178='LC - PV'!$R$2,D178='LC - PV'!$P$2),"x2",IF(AND(LEFT(C178,3)="eib",E178='LC - EIB'!$U$2,D178='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B178" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C178" s="62"/>
+      <c r="D178" s="67"/>
+      <c r="E178" s="65"/>
+      <c r="F178" s="64"/>
+      <c r="G178" s="64"/>
+      <c r="H178" s="64"/>
+      <c r="I178" s="65"/>
+      <c r="J178" s="66"/>
+      <c r="K178" s="67"/>
+      <c r="L178" s="65"/>
+      <c r="M178" s="65"/>
+      <c r="N178" s="64"/>
+      <c r="O178" s="68"/>
+      <c r="P178" s="69"/>
+      <c r="Q178" s="104"/>
+      <c r="R178" s="255" t="str">
+        <f>IF(AND(C178="pv",D178='UNC - PV'!$Q$2,LEFT(E178,1)="u",'UNC - PV'!$O$2="vnđ",TH!P178&lt;&gt;""),"p",IF(AND(C178="pv",D178='UNC - PV'!$Q$2,LEFT(E178,1)="u",'UNC - PV'!$O$2="usd",TH!O178&lt;&gt;""),"p1",IF(AND(C178="pv",D178='LC - PV'!$P$2,LEFT(E178,1)="l"),"p2",IF(AND(LEFT(C178,3)="EIB",D178='UNC - EIB'!$T$2,LEFT(E178,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P178&lt;&gt;""),"e",IF(AND(LEFT(C178,3)="EIB",D178='UNC - EIB'!$T$2,LEFT(E178,1)="U",'UNC - EIB'!$R$2="usd",TH!O178&lt;&gt;""),"e1",IF(AND(LEFT(C178,3)="EIB",D178='LC - EIB'!$S$2,LEFT(E178,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A179" s="55" t="str">
+        <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B179" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C179" s="62"/>
+      <c r="D179" s="67"/>
+      <c r="E179" s="65"/>
+      <c r="F179" s="64"/>
+      <c r="G179" s="64"/>
+      <c r="H179" s="64"/>
+      <c r="I179" s="65"/>
+      <c r="J179" s="66"/>
+      <c r="K179" s="67"/>
+      <c r="L179" s="65"/>
+      <c r="M179" s="65"/>
+      <c r="N179" s="64"/>
+      <c r="O179" s="68"/>
+      <c r="P179" s="69"/>
+      <c r="Q179" s="104"/>
+      <c r="R179" s="255" t="str">
+        <f>IF(AND(C179="pv",D179='UNC - PV'!$Q$2,LEFT(E179,1)="u",'UNC - PV'!$O$2="vnđ",TH!P179&lt;&gt;""),"p",IF(AND(C179="pv",D179='UNC - PV'!$Q$2,LEFT(E179,1)="u",'UNC - PV'!$O$2="usd",TH!O179&lt;&gt;""),"p1",IF(AND(C179="pv",D179='LC - PV'!$P$2,LEFT(E179,1)="l"),"p2",IF(AND(LEFT(C179,3)="EIB",D179='UNC - EIB'!$T$2,LEFT(E179,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P179&lt;&gt;""),"e",IF(AND(LEFT(C179,3)="EIB",D179='UNC - EIB'!$T$2,LEFT(E179,1)="U",'UNC - EIB'!$R$2="usd",TH!O179&lt;&gt;""),"e1",IF(AND(LEFT(C179,3)="EIB",D179='LC - EIB'!$S$2,LEFT(E179,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A180" s="55" t="str">
+        <f>IF(AND(C180="pv",E180='UNC - PV'!$S$2,D180='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C180,3)="eib",E180='UNC - EIB'!$V$2,D180='UNC - EIB'!$T$2),"x1",IF(AND(C180="pv",E180='LC - PV'!$R$2,D180='LC - PV'!$P$2),"x2",IF(AND(LEFT(C180,3)="eib",E180='LC - EIB'!$U$2,D180='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B180" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C180" s="62"/>
+      <c r="D180" s="67"/>
+      <c r="E180" s="65"/>
+      <c r="F180" s="64"/>
+      <c r="G180" s="64"/>
+      <c r="H180" s="64"/>
+      <c r="I180" s="65"/>
+      <c r="J180" s="66"/>
+      <c r="K180" s="67"/>
+      <c r="L180" s="65"/>
+      <c r="M180" s="65"/>
+      <c r="N180" s="64"/>
+      <c r="O180" s="68"/>
+      <c r="P180" s="69"/>
+      <c r="Q180" s="104"/>
+      <c r="R180" s="255" t="str">
+        <f>IF(AND(C180="pv",D180='UNC - PV'!$Q$2,LEFT(E180,1)="u",'UNC - PV'!$O$2="vnđ",TH!P180&lt;&gt;""),"p",IF(AND(C180="pv",D180='UNC - PV'!$Q$2,LEFT(E180,1)="u",'UNC - PV'!$O$2="usd",TH!O180&lt;&gt;""),"p1",IF(AND(C180="pv",D180='LC - PV'!$P$2,LEFT(E180,1)="l"),"p2",IF(AND(LEFT(C180,3)="EIB",D180='UNC - EIB'!$T$2,LEFT(E180,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P180&lt;&gt;""),"e",IF(AND(LEFT(C180,3)="EIB",D180='UNC - EIB'!$T$2,LEFT(E180,1)="U",'UNC - EIB'!$R$2="usd",TH!O180&lt;&gt;""),"e1",IF(AND(LEFT(C180,3)="EIB",D180='LC - EIB'!$S$2,LEFT(E180,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A181" s="55" t="str">
+        <f>IF(AND(C181="pv",E181='UNC - PV'!$S$2,D181='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C181,3)="eib",E181='UNC - EIB'!$V$2,D181='UNC - EIB'!$T$2),"x1",IF(AND(C181="pv",E181='LC - PV'!$R$2,D181='LC - PV'!$P$2),"x2",IF(AND(LEFT(C181,3)="eib",E181='LC - EIB'!$U$2,D181='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B181" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C181" s="62"/>
+      <c r="D181" s="67"/>
+      <c r="E181" s="65"/>
+      <c r="F181" s="64"/>
+      <c r="G181" s="64"/>
+      <c r="H181" s="64"/>
+      <c r="I181" s="65"/>
+      <c r="J181" s="66"/>
+      <c r="K181" s="67"/>
+      <c r="L181" s="65"/>
+      <c r="M181" s="65"/>
+      <c r="N181" s="64"/>
+      <c r="O181" s="68"/>
+      <c r="P181" s="69"/>
+      <c r="Q181" s="104"/>
+      <c r="R181" s="255" t="str">
+        <f>IF(AND(C181="pv",D181='UNC - PV'!$Q$2,LEFT(E181,1)="u",'UNC - PV'!$O$2="vnđ",TH!P181&lt;&gt;""),"p",IF(AND(C181="pv",D181='UNC - PV'!$Q$2,LEFT(E181,1)="u",'UNC - PV'!$O$2="usd",TH!O181&lt;&gt;""),"p1",IF(AND(C181="pv",D181='LC - PV'!$P$2,LEFT(E181,1)="l"),"p2",IF(AND(LEFT(C181,3)="EIB",D181='UNC - EIB'!$T$2,LEFT(E181,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P181&lt;&gt;""),"e",IF(AND(LEFT(C181,3)="EIB",D181='UNC - EIB'!$T$2,LEFT(E181,1)="U",'UNC - EIB'!$R$2="usd",TH!O181&lt;&gt;""),"e1",IF(AND(LEFT(C181,3)="EIB",D181='LC - EIB'!$S$2,LEFT(E181,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A182" s="55" t="str">
+        <f>IF(AND(C182="pv",E182='UNC - PV'!$S$2,D182='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C182,3)="eib",E182='UNC - EIB'!$V$2,D182='UNC - EIB'!$T$2),"x1",IF(AND(C182="pv",E182='LC - PV'!$R$2,D182='LC - PV'!$P$2),"x2",IF(AND(LEFT(C182,3)="eib",E182='LC - EIB'!$U$2,D182='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B182" s="62" t="str">
+        <f t="shared" ref="B182" si="13">IF(C182&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C182" s="62"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="65"/>
+      <c r="F182" s="64"/>
+      <c r="G182" s="64"/>
+      <c r="H182" s="64"/>
+      <c r="I182" s="65"/>
+      <c r="J182" s="66"/>
+      <c r="K182" s="67"/>
+      <c r="L182" s="65"/>
+      <c r="M182" s="65"/>
+      <c r="N182" s="64"/>
+      <c r="O182" s="68"/>
+      <c r="P182" s="69"/>
+      <c r="Q182" s="104"/>
+      <c r="R182" s="255" t="str">
+        <f>IF(AND(C182="pv",D182='UNC - PV'!$Q$2,LEFT(E182,1)="u",'UNC - PV'!$O$2="vnđ",TH!P182&lt;&gt;""),"p",IF(AND(C182="pv",D182='UNC - PV'!$Q$2,LEFT(E182,1)="u",'UNC - PV'!$O$2="usd",TH!O182&lt;&gt;""),"p1",IF(AND(C182="pv",D182='LC - PV'!$P$2,LEFT(E182,1)="l"),"p2",IF(AND(LEFT(C182,3)="EIB",D182='UNC - EIB'!$T$2,LEFT(E182,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P182&lt;&gt;""),"e",IF(AND(LEFT(C182,3)="EIB",D182='UNC - EIB'!$T$2,LEFT(E182,1)="U",'UNC - EIB'!$R$2="usd",TH!O182&lt;&gt;""),"e1",IF(AND(LEFT(C182,3)="EIB",D182='LC - EIB'!$S$2,LEFT(E182,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A183" s="55" t="str">
+        <f>IF(AND(C183="pv",E183='UNC - PV'!$S$2,D183='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C183,3)="eib",E183='UNC - EIB'!$V$2,D183='UNC - EIB'!$T$2),"x1",IF(AND(C183="pv",E183='LC - PV'!$R$2,D183='LC - PV'!$P$2),"x2",IF(AND(LEFT(C183,3)="eib",E183='LC - EIB'!$U$2,D183='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B183" s="62" t="str">
+        <f t="shared" ref="B183" si="14">IF(C183&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C183" s="62"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="65"/>
+      <c r="F183" s="64"/>
+      <c r="G183" s="64"/>
+      <c r="H183" s="64"/>
+      <c r="I183" s="65"/>
+      <c r="J183" s="66"/>
+      <c r="K183" s="67"/>
+      <c r="L183" s="65"/>
+      <c r="M183" s="65"/>
+      <c r="N183" s="64"/>
+      <c r="O183" s="68"/>
+      <c r="P183" s="69"/>
+      <c r="Q183" s="104"/>
+      <c r="R183" s="255" t="str">
+        <f>IF(AND(C183="pv",D183='UNC - PV'!$Q$2,LEFT(E183,1)="u",'UNC - PV'!$O$2="vnđ",TH!P183&lt;&gt;""),"p",IF(AND(C183="pv",D183='UNC - PV'!$Q$2,LEFT(E183,1)="u",'UNC - PV'!$O$2="usd",TH!O183&lt;&gt;""),"p1",IF(AND(C183="pv",D183='LC - PV'!$P$2,LEFT(E183,1)="l"),"p2",IF(AND(LEFT(C183,3)="EIB",D183='UNC - EIB'!$T$2,LEFT(E183,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P183&lt;&gt;""),"e",IF(AND(LEFT(C183,3)="EIB",D183='UNC - EIB'!$T$2,LEFT(E183,1)="U",'UNC - EIB'!$R$2="usd",TH!O183&lt;&gt;""),"e1",IF(AND(LEFT(C183,3)="EIB",D183='LC - EIB'!$S$2,LEFT(E183,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="18.75" customHeight="1">
+      <c r="A184" s="55" t="str">
+        <f>IF(AND(C184="pv",E184='UNC - PV'!$S$2,D184='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C184,3)="eib",E184='UNC - EIB'!$V$2,D184='UNC - EIB'!$T$2),"x1",IF(AND(C184="pv",E184='LC - PV'!$R$2,D184='LC - PV'!$P$2),"x2",IF(AND(LEFT(C184,3)="eib",E184='LC - EIB'!$U$2,D184='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B184" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C184" s="62"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="65"/>
+      <c r="F184" s="64"/>
+      <c r="G184" s="64"/>
+      <c r="H184" s="64"/>
+      <c r="I184" s="65"/>
+      <c r="J184" s="66"/>
+      <c r="K184" s="67"/>
+      <c r="L184" s="65"/>
+      <c r="M184" s="65"/>
+      <c r="N184" s="64"/>
+      <c r="O184" s="68"/>
+      <c r="P184" s="69"/>
+      <c r="Q184" s="104"/>
+      <c r="R184" s="255" t="str">
+        <f>IF(AND(C184="pv",D184='UNC - PV'!$Q$2,LEFT(E184,1)="u",'UNC - PV'!$O$2="vnđ",TH!P184&lt;&gt;""),"p",IF(AND(C184="pv",D184='UNC - PV'!$Q$2,LEFT(E184,1)="u",'UNC - PV'!$O$2="usd",TH!O184&lt;&gt;""),"p1",IF(AND(C184="pv",D184='LC - PV'!$P$2,LEFT(E184,1)="l"),"p2",IF(AND(LEFT(C184,3)="EIB",D184='UNC - EIB'!$T$2,LEFT(E184,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P184&lt;&gt;""),"e",IF(AND(LEFT(C184,3)="EIB",D184='UNC - EIB'!$T$2,LEFT(E184,1)="U",'UNC - EIB'!$R$2="usd",TH!O184&lt;&gt;""),"e1",IF(AND(LEFT(C184,3)="EIB",D184='LC - EIB'!$S$2,LEFT(E184,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="18.75" customHeight="1">
+      <c r="R185" s="255" t="str">
+        <f>IF(AND(C185="pv",D185='UNC - PV'!$Q$2,LEFT(E185,1)="u",'UNC - PV'!$O$2="vnđ",TH!P185&lt;&gt;""),"p",IF(AND(C185="pv",D185='UNC - PV'!$Q$2,LEFT(E185,1)="u",'UNC - PV'!$O$2="usd",TH!O185&lt;&gt;""),"p1",IF(AND(C185="pv",D185='LC - PV'!$P$2,LEFT(E185,1)="l"),"p2",IF(AND(LEFT(C185,3)="EIB",D185='UNC - EIB'!$T$2,LEFT(E185,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P185&lt;&gt;""),"e",IF(AND(LEFT(C185,3)="EIB",D185='UNC - EIB'!$T$2,LEFT(E185,1)="U",'UNC - EIB'!$R$2="usd",TH!O185&lt;&gt;""),"e1",IF(AND(LEFT(C185,3)="EIB",D185='LC - EIB'!$S$2,LEFT(E185,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X157"/>
+  <autoFilter ref="B3:X185"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -11628,7 +12587,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C156">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C184">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21852,25 +22811,25 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1"/>
@@ -21886,88 +22845,89 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
+        <v>p1</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="10">
-        <v>42874</v>
+        <v>42915</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="10.5" customHeight="1"/>
-    <row r="6" spans="1:19" ht="21" customHeight="1">
-      <c r="G6" s="1" t="s">
+    <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
+    <row r="5" spans="1:19" ht="18.75" customHeight="1">
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1">
-      <c r="E7" s="2" t="str">
-        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0   0   2    6    8    6    1    5")</f>
-        <v xml:space="preserve"> 1    0    7    0    0   0   2    6    8    6    1    5</v>
-      </c>
-      <c r="L7" s="1" t="s">
+    <row r="6" spans="1:19" ht="17.25" customHeight="1">
+      <c r="E6" s="2" t="str">
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4"," 1    0    7    0    0    0    2    6    8    6    1    5")</f>
+        <v xml:space="preserve"> 1    0    1    0    0   0    2    6    8    6    1    4</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F8" s="271">
+    <row r="7" spans="1:19" ht="22.5" customHeight="1">
+      <c r="F7" s="285">
         <f>IF($O$2="VNĐ",VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4200000000</v>
-      </c>
-      <c r="G8" s="271"/>
-      <c r="K8" s="1" t="str">
+        <v>243800</v>
+      </c>
+      <c r="G7" s="285"/>
+      <c r="K7" s="1" t="str">
         <f>IF(O2="vnđ","x","")</f>
+        <v/>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>IF(O2="usd","x","")</f>
         <v>x</v>
       </c>
-      <c r="L8" s="1" t="str">
-        <f>IF(O2="usd","x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F9" s="1" t="str">
-        <f>[1]!VND(F8,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn tỷ, hai trăm triệu đồng.</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" customHeight="1">
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="8" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F8" s="1" t="str">
+        <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Hai trăm bốn mươi ba ngàn, tám trăm đô la mỹ.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" customHeight="1">
+      <c r="G9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F11" s="1" t="str">
+    <row r="10" spans="1:19" ht="21" customHeight="1">
+      <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán tiền hàng</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="25.5" customHeight="1">
-      <c r="F13" s="14" t="str">
+        <v>Chuyển NT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="25.5" customHeight="1">
+      <c r="F12" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
-      </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="16" spans="1:19" ht="24" customHeight="1">
-      <c r="C16" s="1" t="s">
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="14" spans="1:19" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:19" ht="24" customHeight="1">
+      <c r="C15" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E15" s="1" t="str">
+        <f>VLOOKUP("X",DS,7,0)</f>
+        <v>1402 148 5100 9479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="E16" s="1" t="str">
-        <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1402 148 5100 7445</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="15" customHeight="1">
-      <c r="E17" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
         <v>Eximbank - CN Q4, TPHCM</v>
       </c>
@@ -21975,7 +22935,7 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1185" windowWidth="21840" windowHeight="8895" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1185" windowWidth="21840" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -32,12 +32,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - KM'!$A$1:$M$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - PV'!$A$1:$M$17</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="424">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -963,9 +963,6 @@
     <t>CTY TNHH MTV CÔNG NGHỆ MÔI TRƯỜNG CDM</t>
   </si>
   <si>
-    <t>128 196 099</t>
-  </si>
-  <si>
     <t>CẦN THƠ</t>
   </si>
   <si>
@@ -1170,9 +1167,6 @@
     <t>DNTN SX TM NGUYỄN TRÌNH</t>
   </si>
   <si>
-    <t>1020 1000 0712 510</t>
-  </si>
-  <si>
     <t>Thanh toán tiền VLXD – Nguyễn Trình</t>
   </si>
   <si>
@@ -1473,9 +1467,6 @@
     <t>BẢO HIỂM XÃ HỘI TP.TRÀ VINH</t>
   </si>
   <si>
-    <t>7406 202 959 035</t>
-  </si>
-  <si>
     <t>AGRIBANK – CN TP.TRÀ VINH</t>
   </si>
   <si>
@@ -1527,9 +1518,6 @@
     <t>CTY QUẢN LÝ VÀ PHÁT TRIỂN HẠ TẦNG KHU KINH TẾ VÀ CÁC KHU CÔNG NGHIỆP</t>
   </si>
   <si>
-    <t>3751 0 1031156</t>
-  </si>
-  <si>
     <t>Kho Bạc Nhà Nước Trà Vinh</t>
   </si>
   <si>
@@ -1806,13 +1794,34 @@
     <t>Sacombank - CN Bình Thuận</t>
   </si>
   <si>
+    <t>Chuyển tiền theo KUNN số 14 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>0411001004118</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 1/9 năm 2017</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 15 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
     <t>TAMP</t>
   </si>
   <si>
-    <t>Chuyển tiền theo KUNN số 14 -10206/2017/KUNN/PVN-DN.GĐ</t>
-  </si>
-  <si>
-    <t>0411001004118</t>
+    <t>7406202959035</t>
+  </si>
+  <si>
+    <t>102010000319461</t>
+  </si>
+  <si>
+    <t>102010000712510</t>
+  </si>
+  <si>
+    <t>375101031156</t>
+  </si>
+  <si>
+    <t>128196099</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2465,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2827,9 +2836,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3213,17 +3219,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R244"/>
+  <dimension ref="A1:R245"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G197" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P204" sqref="P204"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3233,9 +3239,9 @@
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="6" max="6" width="81.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="12" width="8.42578125" customWidth="1"/>
@@ -3378,7 +3384,7 @@
       <c r="Q3" s="137"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3420,14 +3426,14 @@
         <v>57018720</v>
       </c>
       <c r="Q4" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R4" s="131" t="str">
         <f>IF(AND(C4="pv",D4='UNC - PV'!$Q$2,LEFT(E4,1)="u",'UNC - PV'!$O$2="vnđ",TH!P4&lt;&gt;""),"p",IF(AND(C4="pv",D4='UNC - PV'!$Q$2,LEFT(E4,1)="u",'UNC - PV'!$O$2="usd",TH!O4&lt;&gt;""),"p1",IF(AND(C4="pv",D4='LC - PV'!$P$2,LEFT(E4,1)="l"),"p2",IF(AND(LEFT(C4,3)="EIB",D4='UNC - EIB'!$T$2,LEFT(E4,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P4&lt;&gt;""),"e",IF(AND(LEFT(C4,3)="EIB",D4='UNC - EIB'!$T$2,LEFT(E4,1)="U",'UNC - EIB'!$R$2="usd",TH!O4&lt;&gt;""),"e1",IF(AND(LEFT(C4,3)="EIB",D4='LC - EIB'!$S$2,LEFT(E4,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3469,14 +3475,14 @@
         <v>32574576</v>
       </c>
       <c r="Q5" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R5" s="131" t="str">
         <f>IF(AND(C5="pv",D5='UNC - PV'!$Q$2,LEFT(E5,1)="u",'UNC - PV'!$O$2="vnđ",TH!P5&lt;&gt;""),"p",IF(AND(C5="pv",D5='UNC - PV'!$Q$2,LEFT(E5,1)="u",'UNC - PV'!$O$2="usd",TH!O5&lt;&gt;""),"p1",IF(AND(C5="pv",D5='LC - PV'!$P$2,LEFT(E5,1)="l"),"p2",IF(AND(LEFT(C5,3)="EIB",D5='UNC - EIB'!$T$2,LEFT(E5,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P5&lt;&gt;""),"e",IF(AND(LEFT(C5,3)="EIB",D5='UNC - EIB'!$T$2,LEFT(E5,1)="U",'UNC - EIB'!$R$2="usd",TH!O5&lt;&gt;""),"e1",IF(AND(LEFT(C5,3)="EIB",D5='LC - EIB'!$S$2,LEFT(E5,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3518,14 +3524,14 @@
         <v>80000000</v>
       </c>
       <c r="Q6" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R6" s="131" t="str">
         <f>IF(AND(C6="pv",D6='UNC - PV'!$Q$2,LEFT(E6,1)="u",'UNC - PV'!$O$2="vnđ",TH!P6&lt;&gt;""),"p",IF(AND(C6="pv",D6='UNC - PV'!$Q$2,LEFT(E6,1)="u",'UNC - PV'!$O$2="usd",TH!O6&lt;&gt;""),"p1",IF(AND(C6="pv",D6='LC - PV'!$P$2,LEFT(E6,1)="l"),"p2",IF(AND(LEFT(C6,3)="EIB",D6='UNC - EIB'!$T$2,LEFT(E6,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P6&lt;&gt;""),"e",IF(AND(LEFT(C6,3)="EIB",D6='UNC - EIB'!$T$2,LEFT(E6,1)="U",'UNC - EIB'!$R$2="usd",TH!O6&lt;&gt;""),"e1",IF(AND(LEFT(C6,3)="EIB",D6='LC - EIB'!$S$2,LEFT(E6,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3567,14 +3573,14 @@
         <v>50000000</v>
       </c>
       <c r="Q7" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R7" s="131" t="str">
         <f>IF(AND(C7="pv",D7='UNC - PV'!$Q$2,LEFT(E7,1)="u",'UNC - PV'!$O$2="vnđ",TH!P7&lt;&gt;""),"p",IF(AND(C7="pv",D7='UNC - PV'!$Q$2,LEFT(E7,1)="u",'UNC - PV'!$O$2="usd",TH!O7&lt;&gt;""),"p1",IF(AND(C7="pv",D7='LC - PV'!$P$2,LEFT(E7,1)="l"),"p2",IF(AND(LEFT(C7,3)="EIB",D7='UNC - EIB'!$T$2,LEFT(E7,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P7&lt;&gt;""),"e",IF(AND(LEFT(C7,3)="EIB",D7='UNC - EIB'!$T$2,LEFT(E7,1)="U",'UNC - EIB'!$R$2="usd",TH!O7&lt;&gt;""),"e1",IF(AND(LEFT(C7,3)="EIB",D7='LC - EIB'!$S$2,LEFT(E7,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3616,14 +3622,14 @@
         <v>50000000</v>
       </c>
       <c r="Q8" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R8" s="131" t="str">
         <f>IF(AND(C8="pv",D8='UNC - PV'!$Q$2,LEFT(E8,1)="u",'UNC - PV'!$O$2="vnđ",TH!P8&lt;&gt;""),"p",IF(AND(C8="pv",D8='UNC - PV'!$Q$2,LEFT(E8,1)="u",'UNC - PV'!$O$2="usd",TH!O8&lt;&gt;""),"p1",IF(AND(C8="pv",D8='LC - PV'!$P$2,LEFT(E8,1)="l"),"p2",IF(AND(LEFT(C8,3)="EIB",D8='UNC - EIB'!$T$2,LEFT(E8,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P8&lt;&gt;""),"e",IF(AND(LEFT(C8,3)="EIB",D8='UNC - EIB'!$T$2,LEFT(E8,1)="U",'UNC - EIB'!$R$2="usd",TH!O8&lt;&gt;""),"e1",IF(AND(LEFT(C8,3)="EIB",D8='LC - EIB'!$S$2,LEFT(E8,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3665,14 +3671,14 @@
         <v>28078550</v>
       </c>
       <c r="Q9" s="102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R9" s="131" t="str">
         <f>IF(AND(C9="pv",D9='UNC - PV'!$Q$2,LEFT(E9,1)="u",'UNC - PV'!$O$2="vnđ",TH!P9&lt;&gt;""),"p",IF(AND(C9="pv",D9='UNC - PV'!$Q$2,LEFT(E9,1)="u",'UNC - PV'!$O$2="usd",TH!O9&lt;&gt;""),"p1",IF(AND(C9="pv",D9='LC - PV'!$P$2,LEFT(E9,1)="l"),"p2",IF(AND(LEFT(C9,3)="EIB",D9='UNC - EIB'!$T$2,LEFT(E9,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P9&lt;&gt;""),"e",IF(AND(LEFT(C9,3)="EIB",D9='UNC - EIB'!$T$2,LEFT(E9,1)="U",'UNC - EIB'!$R$2="usd",TH!O9&lt;&gt;""),"e1",IF(AND(LEFT(C9,3)="EIB",D9='LC - EIB'!$S$2,LEFT(E9,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+    <row r="10" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A10" s="55" t="str">
         <f>IF(AND(C10="pv",E10='UNC - PV'!$S$2,D10='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C10,3)="eib",E10='UNC - EIB'!$V$2,D10='UNC - EIB'!$T$2),"x1",IF(AND(C10="pv",E10='LC - PV'!$R$2,D10='LC - PV'!$P$2),"x2",IF(AND(LEFT(C10,3)="eib",E10='LC - EIB'!$U$2,D10='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x2</v>
@@ -3682,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="90">
         <v>42556</v>
@@ -3716,14 +3722,14 @@
         <v>1100000000</v>
       </c>
       <c r="Q10" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R10" s="131" t="str">
         <f>IF(AND(C10="pv",D10='UNC - PV'!$Q$2,LEFT(E10,1)="u",'UNC - PV'!$O$2="vnđ",TH!P10&lt;&gt;""),"p",IF(AND(C10="pv",D10='UNC - PV'!$Q$2,LEFT(E10,1)="u",'UNC - PV'!$O$2="usd",TH!O10&lt;&gt;""),"p1",IF(AND(C10="pv",D10='LC - PV'!$P$2,LEFT(E10,1)="l"),"p2",IF(AND(LEFT(C10,3)="EIB",D10='UNC - EIB'!$T$2,LEFT(E10,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P10&lt;&gt;""),"e",IF(AND(LEFT(C10,3)="EIB",D10='UNC - EIB'!$T$2,LEFT(E10,1)="U",'UNC - EIB'!$R$2="usd",TH!O10&lt;&gt;""),"e1",IF(AND(LEFT(C10,3)="EIB",D10='LC - EIB'!$S$2,LEFT(E10,1)="l"),"e2",""))))))</f>
         <v>p2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A11" s="55" t="str">
         <f>IF(AND(C11="pv",E11='UNC - PV'!$S$2,D11='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C11,3)="eib",E11='UNC - EIB'!$V$2,D11='UNC - EIB'!$T$2),"x1",IF(AND(C11="pv",E11='LC - PV'!$R$2,D11='LC - PV'!$P$2),"x2",IF(AND(LEFT(C11,3)="eib",E11='LC - EIB'!$U$2,D11='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3733,7 +3739,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="90">
         <v>42556</v>
@@ -3765,14 +3771,14 @@
         <v>28078550</v>
       </c>
       <c r="Q11" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R11" s="131" t="str">
         <f>IF(AND(C11="pv",D11='UNC - PV'!$Q$2,LEFT(E11,1)="u",'UNC - PV'!$O$2="vnđ",TH!P11&lt;&gt;""),"p",IF(AND(C11="pv",D11='UNC - PV'!$Q$2,LEFT(E11,1)="u",'UNC - PV'!$O$2="usd",TH!O11&lt;&gt;""),"p1",IF(AND(C11="pv",D11='LC - PV'!$P$2,LEFT(E11,1)="l"),"p2",IF(AND(LEFT(C11,3)="EIB",D11='UNC - EIB'!$T$2,LEFT(E11,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P11&lt;&gt;""),"e",IF(AND(LEFT(C11,3)="EIB",D11='UNC - EIB'!$T$2,LEFT(E11,1)="U",'UNC - EIB'!$R$2="usd",TH!O11&lt;&gt;""),"e1",IF(AND(LEFT(C11,3)="EIB",D11='LC - EIB'!$S$2,LEFT(E11,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="55" t="str">
         <f>IF(AND(C12="pv",E12='UNC - PV'!$S$2,D12='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C12,3)="eib",E12='UNC - EIB'!$V$2,D12='UNC - EIB'!$T$2),"x1",IF(AND(C12="pv",E12='LC - PV'!$R$2,D12='LC - PV'!$P$2),"x2",IF(AND(LEFT(C12,3)="eib",E12='LC - EIB'!$U$2,D12='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x3</v>
@@ -3816,14 +3822,14 @@
         <v>300000000</v>
       </c>
       <c r="Q12" s="103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R12" s="131" t="str">
         <f>IF(AND(C12="pv",D12='UNC - PV'!$Q$2,LEFT(E12,1)="u",'UNC - PV'!$O$2="vnđ",TH!P12&lt;&gt;""),"p",IF(AND(C12="pv",D12='UNC - PV'!$Q$2,LEFT(E12,1)="u",'UNC - PV'!$O$2="usd",TH!O12&lt;&gt;""),"p1",IF(AND(C12="pv",D12='LC - PV'!$P$2,LEFT(E12,1)="l"),"p2",IF(AND(LEFT(C12,3)="EIB",D12='UNC - EIB'!$T$2,LEFT(E12,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P12&lt;&gt;""),"e",IF(AND(LEFT(C12,3)="EIB",D12='UNC - EIB'!$T$2,LEFT(E12,1)="U",'UNC - EIB'!$R$2="usd",TH!O12&lt;&gt;""),"e1",IF(AND(LEFT(C12,3)="EIB",D12='LC - EIB'!$S$2,LEFT(E12,1)="l"),"e2",""))))))</f>
         <v>e2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3865,14 +3871,14 @@
       </c>
       <c r="P13" s="112"/>
       <c r="Q13" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R13" s="131" t="str">
         <f>IF(AND(C13="pv",D13='UNC - PV'!$Q$2,LEFT(E13,1)="u",'UNC - PV'!$O$2="vnđ",TH!P13&lt;&gt;""),"p",IF(AND(C13="pv",D13='UNC - PV'!$Q$2,LEFT(E13,1)="u",'UNC - PV'!$O$2="usd",TH!O13&lt;&gt;""),"p1",IF(AND(C13="pv",D13='LC - PV'!$P$2,LEFT(E13,1)="l"),"p2",IF(AND(LEFT(C13,3)="EIB",D13='UNC - EIB'!$T$2,LEFT(E13,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P13&lt;&gt;""),"e",IF(AND(LEFT(C13,3)="EIB",D13='UNC - EIB'!$T$2,LEFT(E13,1)="U",'UNC - EIB'!$R$2="usd",TH!O13&lt;&gt;""),"e1",IF(AND(LEFT(C13,3)="EIB",D13='LC - EIB'!$S$2,LEFT(E13,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3914,7 +3920,7 @@
         <v>100000000</v>
       </c>
       <c r="Q14" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R14" s="131" t="str">
         <f>IF(AND(C14="pv",D14='UNC - PV'!$Q$2,LEFT(E14,1)="u",'UNC - PV'!$O$2="vnđ",TH!P14&lt;&gt;""),"p",IF(AND(C14="pv",D14='UNC - PV'!$Q$2,LEFT(E14,1)="u",'UNC - PV'!$O$2="usd",TH!O14&lt;&gt;""),"p1",IF(AND(C14="pv",D14='LC - PV'!$P$2,LEFT(E14,1)="l"),"p2",IF(AND(LEFT(C14,3)="EIB",D14='UNC - EIB'!$T$2,LEFT(E14,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P14&lt;&gt;""),"e",IF(AND(LEFT(C14,3)="EIB",D14='UNC - EIB'!$T$2,LEFT(E14,1)="U",'UNC - EIB'!$R$2="usd",TH!O14&lt;&gt;""),"e1",IF(AND(LEFT(C14,3)="EIB",D14='LC - EIB'!$S$2,LEFT(E14,1)="l"),"e2",""))))))</f>
@@ -3942,35 +3948,35 @@
       <c r="F15" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="107" t="s">
+      <c r="G15" s="114" t="s">
+        <v>423</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="110" t="s">
         <v>137</v>
-      </c>
-      <c r="H15" s="107" t="s">
-        <v>139</v>
-      </c>
-      <c r="I15" s="110" t="s">
-        <v>138</v>
       </c>
       <c r="J15" s="108"/>
       <c r="K15" s="109"/>
       <c r="L15" s="110"/>
       <c r="M15" s="110"/>
       <c r="N15" s="107" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O15" s="111"/>
       <c r="P15" s="112">
         <v>100000000</v>
       </c>
       <c r="Q15" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R15" s="131" t="str">
         <f>IF(AND(C15="pv",D15='UNC - PV'!$Q$2,LEFT(E15,1)="u",'UNC - PV'!$O$2="vnđ",TH!P15&lt;&gt;""),"p",IF(AND(C15="pv",D15='UNC - PV'!$Q$2,LEFT(E15,1)="u",'UNC - PV'!$O$2="usd",TH!O15&lt;&gt;""),"p1",IF(AND(C15="pv",D15='LC - PV'!$P$2,LEFT(E15,1)="l"),"p2",IF(AND(LEFT(C15,3)="EIB",D15='UNC - EIB'!$T$2,LEFT(E15,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P15&lt;&gt;""),"e",IF(AND(LEFT(C15,3)="EIB",D15='UNC - EIB'!$T$2,LEFT(E15,1)="U",'UNC - EIB'!$R$2="usd",TH!O15&lt;&gt;""),"e1",IF(AND(LEFT(C15,3)="EIB",D15='LC - EIB'!$S$2,LEFT(E15,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3989,13 +3995,13 @@
         <v>25</v>
       </c>
       <c r="F16" s="107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G16" s="107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" s="107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" s="105" t="s">
         <v>10</v>
@@ -4005,21 +4011,21 @@
       <c r="L16" s="110"/>
       <c r="M16" s="110"/>
       <c r="N16" s="107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O16" s="111"/>
       <c r="P16" s="112">
         <v>77480000</v>
       </c>
       <c r="Q16" s="113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R16" s="131" t="str">
         <f>IF(AND(C16="pv",D16='UNC - PV'!$Q$2,LEFT(E16,1)="u",'UNC - PV'!$O$2="vnđ",TH!P16&lt;&gt;""),"p",IF(AND(C16="pv",D16='UNC - PV'!$Q$2,LEFT(E16,1)="u",'UNC - PV'!$O$2="usd",TH!O16&lt;&gt;""),"p1",IF(AND(C16="pv",D16='LC - PV'!$P$2,LEFT(E16,1)="l"),"p2",IF(AND(LEFT(C16,3)="EIB",D16='UNC - EIB'!$T$2,LEFT(E16,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P16&lt;&gt;""),"e",IF(AND(LEFT(C16,3)="EIB",D16='UNC - EIB'!$T$2,LEFT(E16,1)="U",'UNC - EIB'!$R$2="usd",TH!O16&lt;&gt;""),"e1",IF(AND(LEFT(C16,3)="EIB",D16='LC - EIB'!$S$2,LEFT(E16,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A17" s="55" t="str">
         <f>IF(AND(C17="pv",E17='UNC - PV'!$S$2,D17='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C17,3)="eib",E17='UNC - EIB'!$V$2,D17='UNC - EIB'!$T$2),"x1",IF(AND(C17="pv",E17='LC - PV'!$R$2,D17='LC - PV'!$P$2),"x2",IF(AND(LEFT(C17,3)="eib",E17='LC - EIB'!$U$2,D17='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4038,13 +4044,13 @@
         <v>23</v>
       </c>
       <c r="F17" s="107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G17" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="H17" s="107" t="s">
         <v>150</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>151</v>
       </c>
       <c r="I17" s="110" t="s">
         <v>10</v>
@@ -4054,21 +4060,21 @@
       <c r="L17" s="110"/>
       <c r="M17" s="110"/>
       <c r="N17" s="107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O17" s="111"/>
       <c r="P17" s="112">
         <v>11852379</v>
       </c>
       <c r="Q17" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R17" s="131" t="str">
         <f>IF(AND(C17="pv",D17='UNC - PV'!$Q$2,LEFT(E17,1)="u",'UNC - PV'!$O$2="vnđ",TH!P17&lt;&gt;""),"p",IF(AND(C17="pv",D17='UNC - PV'!$Q$2,LEFT(E17,1)="u",'UNC - PV'!$O$2="usd",TH!O17&lt;&gt;""),"p1",IF(AND(C17="pv",D17='LC - PV'!$P$2,LEFT(E17,1)="l"),"p2",IF(AND(LEFT(C17,3)="EIB",D17='UNC - EIB'!$T$2,LEFT(E17,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P17&lt;&gt;""),"e",IF(AND(LEFT(C17,3)="EIB",D17='UNC - EIB'!$T$2,LEFT(E17,1)="U",'UNC - EIB'!$R$2="usd",TH!O17&lt;&gt;""),"e1",IF(AND(LEFT(C17,3)="EIB",D17='LC - EIB'!$S$2,LEFT(E17,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4087,13 +4093,13 @@
         <v>23</v>
       </c>
       <c r="F18" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="107" t="s">
+      <c r="H18" s="107" t="s">
         <v>155</v>
-      </c>
-      <c r="H18" s="107" t="s">
-        <v>156</v>
       </c>
       <c r="I18" s="110" t="s">
         <v>10</v>
@@ -4103,21 +4109,21 @@
       <c r="L18" s="110"/>
       <c r="M18" s="110"/>
       <c r="N18" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O18" s="111"/>
       <c r="P18" s="112">
         <v>50000000</v>
       </c>
       <c r="Q18" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R18" s="131" t="str">
         <f>IF(AND(C18="pv",D18='UNC - PV'!$Q$2,LEFT(E18,1)="u",'UNC - PV'!$O$2="vnđ",TH!P18&lt;&gt;""),"p",IF(AND(C18="pv",D18='UNC - PV'!$Q$2,LEFT(E18,1)="u",'UNC - PV'!$O$2="usd",TH!O18&lt;&gt;""),"p1",IF(AND(C18="pv",D18='LC - PV'!$P$2,LEFT(E18,1)="l"),"p2",IF(AND(LEFT(C18,3)="EIB",D18='UNC - EIB'!$T$2,LEFT(E18,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P18&lt;&gt;""),"e",IF(AND(LEFT(C18,3)="EIB",D18='UNC - EIB'!$T$2,LEFT(E18,1)="U",'UNC - EIB'!$R$2="usd",TH!O18&lt;&gt;""),"e1",IF(AND(LEFT(C18,3)="EIB",D18='LC - EIB'!$S$2,LEFT(E18,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4159,7 +4165,7 @@
         <v>29000000</v>
       </c>
       <c r="Q19" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R19" s="131" t="str">
         <f>IF(AND(C19="pv",D19='UNC - PV'!$Q$2,LEFT(E19,1)="u",'UNC - PV'!$O$2="vnđ",TH!P19&lt;&gt;""),"p",IF(AND(C19="pv",D19='UNC - PV'!$Q$2,LEFT(E19,1)="u",'UNC - PV'!$O$2="usd",TH!O19&lt;&gt;""),"p1",IF(AND(C19="pv",D19='LC - PV'!$P$2,LEFT(E19,1)="l"),"p2",IF(AND(LEFT(C19,3)="EIB",D19='UNC - EIB'!$T$2,LEFT(E19,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P19&lt;&gt;""),"e",IF(AND(LEFT(C19,3)="EIB",D19='UNC - EIB'!$T$2,LEFT(E19,1)="U",'UNC - EIB'!$R$2="usd",TH!O19&lt;&gt;""),"e1",IF(AND(LEFT(C19,3)="EIB",D19='LC - EIB'!$S$2,LEFT(E19,1)="l"),"e2",""))))))</f>
@@ -4185,37 +4191,37 @@
         <v>25</v>
       </c>
       <c r="F20" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="H20" s="107" t="s">
         <v>159</v>
       </c>
-      <c r="H20" s="107" t="s">
+      <c r="I20" s="110" t="s">
         <v>160</v>
-      </c>
-      <c r="I20" s="110" t="s">
-        <v>161</v>
       </c>
       <c r="J20" s="108"/>
       <c r="K20" s="109"/>
       <c r="L20" s="110"/>
       <c r="M20" s="110"/>
       <c r="N20" s="107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O20" s="111"/>
       <c r="P20" s="112">
         <v>28700000</v>
       </c>
       <c r="Q20" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R20" s="131" t="str">
         <f>IF(AND(C20="pv",D20='UNC - PV'!$Q$2,LEFT(E20,1)="u",'UNC - PV'!$O$2="vnđ",TH!P20&lt;&gt;""),"p",IF(AND(C20="pv",D20='UNC - PV'!$Q$2,LEFT(E20,1)="u",'UNC - PV'!$O$2="usd",TH!O20&lt;&gt;""),"p1",IF(AND(C20="pv",D20='LC - PV'!$P$2,LEFT(E20,1)="l"),"p2",IF(AND(LEFT(C20,3)="EIB",D20='UNC - EIB'!$T$2,LEFT(E20,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P20&lt;&gt;""),"e",IF(AND(LEFT(C20,3)="EIB",D20='UNC - EIB'!$T$2,LEFT(E20,1)="U",'UNC - EIB'!$R$2="usd",TH!O20&lt;&gt;""),"e1",IF(AND(LEFT(C20,3)="EIB",D20='LC - EIB'!$S$2,LEFT(E20,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4237,10 +4243,10 @@
         <v>132</v>
       </c>
       <c r="G21" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" s="64" t="s">
         <v>163</v>
-      </c>
-      <c r="H21" s="64" t="s">
-        <v>164</v>
       </c>
       <c r="I21" s="105" t="s">
         <v>10</v>
@@ -4250,21 +4256,21 @@
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
         <v>32000000</v>
       </c>
       <c r="Q21" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R21" s="131" t="str">
         <f>IF(AND(C21="pv",D21='UNC - PV'!$Q$2,LEFT(E21,1)="u",'UNC - PV'!$O$2="vnđ",TH!P21&lt;&gt;""),"p",IF(AND(C21="pv",D21='UNC - PV'!$Q$2,LEFT(E21,1)="u",'UNC - PV'!$O$2="usd",TH!O21&lt;&gt;""),"p1",IF(AND(C21="pv",D21='LC - PV'!$P$2,LEFT(E21,1)="l"),"p2",IF(AND(LEFT(C21,3)="EIB",D21='UNC - EIB'!$T$2,LEFT(E21,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P21&lt;&gt;""),"e",IF(AND(LEFT(C21,3)="EIB",D21='UNC - EIB'!$T$2,LEFT(E21,1)="U",'UNC - EIB'!$R$2="usd",TH!O21&lt;&gt;""),"e1",IF(AND(LEFT(C21,3)="EIB",D21='LC - EIB'!$S$2,LEFT(E21,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A22" s="55" t="str">
         <f>IF(AND(C22="pv",E22='UNC - PV'!$S$2,D22='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C22,3)="eib",E22='UNC - EIB'!$V$2,D22='UNC - EIB'!$T$2),"x1",IF(AND(C22="pv",E22='LC - PV'!$R$2,D22='LC - PV'!$P$2),"x2",IF(AND(LEFT(C22,3)="eib",E22='LC - EIB'!$U$2,D22='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4306,14 +4312,14 @@
         <v>160000000</v>
       </c>
       <c r="Q22" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R22" s="131" t="str">
         <f>IF(AND(C22="pv",D22='UNC - PV'!$Q$2,LEFT(E22,1)="u",'UNC - PV'!$O$2="vnđ",TH!P22&lt;&gt;""),"p",IF(AND(C22="pv",D22='UNC - PV'!$Q$2,LEFT(E22,1)="u",'UNC - PV'!$O$2="usd",TH!O22&lt;&gt;""),"p1",IF(AND(C22="pv",D22='LC - PV'!$P$2,LEFT(E22,1)="l"),"p2",IF(AND(LEFT(C22,3)="EIB",D22='UNC - EIB'!$T$2,LEFT(E22,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P22&lt;&gt;""),"e",IF(AND(LEFT(C22,3)="EIB",D22='UNC - EIB'!$T$2,LEFT(E22,1)="U",'UNC - EIB'!$R$2="usd",TH!O22&lt;&gt;""),"e1",IF(AND(LEFT(C22,3)="EIB",D22='LC - EIB'!$S$2,LEFT(E22,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4332,13 +4338,13 @@
         <v>25</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H23" s="107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I23" s="105" t="s">
         <v>10</v>
@@ -4348,21 +4354,21 @@
       <c r="L23" s="110"/>
       <c r="M23" s="110"/>
       <c r="N23" s="107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O23" s="111"/>
       <c r="P23" s="112">
         <v>40000000</v>
       </c>
       <c r="Q23" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R23" s="131" t="str">
         <f>IF(AND(C23="pv",D23='UNC - PV'!$Q$2,LEFT(E23,1)="u",'UNC - PV'!$O$2="vnđ",TH!P23&lt;&gt;""),"p",IF(AND(C23="pv",D23='UNC - PV'!$Q$2,LEFT(E23,1)="u",'UNC - PV'!$O$2="usd",TH!O23&lt;&gt;""),"p1",IF(AND(C23="pv",D23='LC - PV'!$P$2,LEFT(E23,1)="l"),"p2",IF(AND(LEFT(C23,3)="EIB",D23='UNC - EIB'!$T$2,LEFT(E23,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P23&lt;&gt;""),"e",IF(AND(LEFT(C23,3)="EIB",D23='UNC - EIB'!$T$2,LEFT(E23,1)="U",'UNC - EIB'!$R$2="usd",TH!O23&lt;&gt;""),"e1",IF(AND(LEFT(C23,3)="EIB",D23='LC - EIB'!$S$2,LEFT(E23,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4397,14 +4403,14 @@
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O24" s="68"/>
       <c r="P24" s="69">
         <v>20769870</v>
       </c>
       <c r="Q24" s="113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R24" s="131" t="str">
         <f>IF(AND(C24="pv",D24='UNC - PV'!$Q$2,LEFT(E24,1)="u",'UNC - PV'!$O$2="vnđ",TH!P24&lt;&gt;""),"p",IF(AND(C24="pv",D24='UNC - PV'!$Q$2,LEFT(E24,1)="u",'UNC - PV'!$O$2="usd",TH!O24&lt;&gt;""),"p1",IF(AND(C24="pv",D24='LC - PV'!$P$2,LEFT(E24,1)="l"),"p2",IF(AND(LEFT(C24,3)="EIB",D24='UNC - EIB'!$T$2,LEFT(E24,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P24&lt;&gt;""),"e",IF(AND(LEFT(C24,3)="EIB",D24='UNC - EIB'!$T$2,LEFT(E24,1)="U",'UNC - EIB'!$R$2="usd",TH!O24&lt;&gt;""),"e1",IF(AND(LEFT(C24,3)="EIB",D24='LC - EIB'!$S$2,LEFT(E24,1)="l"),"e2",""))))))</f>
@@ -4430,23 +4436,23 @@
         <v>23</v>
       </c>
       <c r="F25" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="64" t="s">
-        <v>168</v>
-      </c>
       <c r="I25" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J25" s="66"/>
       <c r="K25" s="67"/>
       <c r="L25" s="65"/>
       <c r="M25" s="65"/>
       <c r="N25" s="115" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -4454,14 +4460,14 @@
         <v>53135390</v>
       </c>
       <c r="Q25" s="113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R25" s="131" t="str">
         <f>IF(AND(C25="pv",D25='UNC - PV'!$Q$2,LEFT(E25,1)="u",'UNC - PV'!$O$2="vnđ",TH!P25&lt;&gt;""),"p",IF(AND(C25="pv",D25='UNC - PV'!$Q$2,LEFT(E25,1)="u",'UNC - PV'!$O$2="usd",TH!O25&lt;&gt;""),"p1",IF(AND(C25="pv",D25='LC - PV'!$P$2,LEFT(E25,1)="l"),"p2",IF(AND(LEFT(C25,3)="EIB",D25='UNC - EIB'!$T$2,LEFT(E25,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P25&lt;&gt;""),"e",IF(AND(LEFT(C25,3)="EIB",D25='UNC - EIB'!$T$2,LEFT(E25,1)="U",'UNC - EIB'!$R$2="usd",TH!O25&lt;&gt;""),"e1",IF(AND(LEFT(C25,3)="EIB",D25='LC - EIB'!$S$2,LEFT(E25,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4483,10 +4489,10 @@
         <v>132</v>
       </c>
       <c r="G26" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="105" t="s">
         <v>10</v>
@@ -4496,21 +4502,21 @@
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O26" s="68">
         <v>500</v>
       </c>
       <c r="P26" s="69"/>
       <c r="Q26" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R26" s="131" t="str">
         <f>IF(AND(C26="pv",D26='UNC - PV'!$Q$2,LEFT(E26,1)="u",'UNC - PV'!$O$2="vnđ",TH!P26&lt;&gt;""),"p",IF(AND(C26="pv",D26='UNC - PV'!$Q$2,LEFT(E26,1)="u",'UNC - PV'!$O$2="usd",TH!O26&lt;&gt;""),"p1",IF(AND(C26="pv",D26='LC - PV'!$P$2,LEFT(E26,1)="l"),"p2",IF(AND(LEFT(C26,3)="EIB",D26='UNC - EIB'!$T$2,LEFT(E26,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P26&lt;&gt;""),"e",IF(AND(LEFT(C26,3)="EIB",D26='UNC - EIB'!$T$2,LEFT(E26,1)="U",'UNC - EIB'!$R$2="usd",TH!O26&lt;&gt;""),"e1",IF(AND(LEFT(C26,3)="EIB",D26='LC - EIB'!$S$2,LEFT(E26,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4545,21 +4551,21 @@
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" s="68"/>
       <c r="P27" s="69">
         <v>23985830</v>
       </c>
       <c r="Q27" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R27" s="131" t="str">
         <f>IF(AND(C27="pv",D27='UNC - PV'!$Q$2,LEFT(E27,1)="u",'UNC - PV'!$O$2="vnđ",TH!P27&lt;&gt;""),"p",IF(AND(C27="pv",D27='UNC - PV'!$Q$2,LEFT(E27,1)="u",'UNC - PV'!$O$2="usd",TH!O27&lt;&gt;""),"p1",IF(AND(C27="pv",D27='LC - PV'!$P$2,LEFT(E27,1)="l"),"p2",IF(AND(LEFT(C27,3)="EIB",D27='UNC - EIB'!$T$2,LEFT(E27,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P27&lt;&gt;""),"e",IF(AND(LEFT(C27,3)="EIB",D27='UNC - EIB'!$T$2,LEFT(E27,1)="U",'UNC - EIB'!$R$2="usd",TH!O27&lt;&gt;""),"e1",IF(AND(LEFT(C27,3)="EIB",D27='LC - EIB'!$S$2,LEFT(E27,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4578,13 +4584,13 @@
         <v>24</v>
       </c>
       <c r="F28" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G28" s="71" t="s">
+      <c r="H28" s="64" t="s">
         <v>175</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>176</v>
       </c>
       <c r="I28" s="105" t="s">
         <v>10</v>
@@ -4594,21 +4600,21 @@
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O28" s="68"/>
       <c r="P28" s="69">
         <v>64375104</v>
       </c>
       <c r="Q28" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R28" s="131" t="str">
         <f>IF(AND(C28="pv",D28='UNC - PV'!$Q$2,LEFT(E28,1)="u",'UNC - PV'!$O$2="vnđ",TH!P28&lt;&gt;""),"p",IF(AND(C28="pv",D28='UNC - PV'!$Q$2,LEFT(E28,1)="u",'UNC - PV'!$O$2="usd",TH!O28&lt;&gt;""),"p1",IF(AND(C28="pv",D28='LC - PV'!$P$2,LEFT(E28,1)="l"),"p2",IF(AND(LEFT(C28,3)="EIB",D28='UNC - EIB'!$T$2,LEFT(E28,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P28&lt;&gt;""),"e",IF(AND(LEFT(C28,3)="EIB",D28='UNC - EIB'!$T$2,LEFT(E28,1)="U",'UNC - EIB'!$R$2="usd",TH!O28&lt;&gt;""),"e1",IF(AND(LEFT(C28,3)="EIB",D28='LC - EIB'!$S$2,LEFT(E28,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A29" s="55" t="str">
         <f>IF(AND(C29="pv",E29='UNC - PV'!$S$2,D29='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C29,3)="eib",E29='UNC - EIB'!$V$2,D29='UNC - EIB'!$T$2),"x1",IF(AND(C29="pv",E29='LC - PV'!$R$2,D29='LC - PV'!$P$2),"x2",IF(AND(LEFT(C29,3)="eib",E29='LC - EIB'!$U$2,D29='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4627,13 +4633,13 @@
         <v>25</v>
       </c>
       <c r="F29" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="71" t="s">
+      <c r="H29" s="64" t="s">
         <v>179</v>
-      </c>
-      <c r="H29" s="64" t="s">
-        <v>180</v>
       </c>
       <c r="I29" s="105" t="s">
         <v>10</v>
@@ -4643,21 +4649,21 @@
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O29" s="68"/>
       <c r="P29" s="69">
         <v>420000</v>
       </c>
       <c r="Q29" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R29" s="131" t="str">
         <f>IF(AND(C29="pv",D29='UNC - PV'!$Q$2,LEFT(E29,1)="u",'UNC - PV'!$O$2="vnđ",TH!P29&lt;&gt;""),"p",IF(AND(C29="pv",D29='UNC - PV'!$Q$2,LEFT(E29,1)="u",'UNC - PV'!$O$2="usd",TH!O29&lt;&gt;""),"p1",IF(AND(C29="pv",D29='LC - PV'!$P$2,LEFT(E29,1)="l"),"p2",IF(AND(LEFT(C29,3)="EIB",D29='UNC - EIB'!$T$2,LEFT(E29,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P29&lt;&gt;""),"e",IF(AND(LEFT(C29,3)="EIB",D29='UNC - EIB'!$T$2,LEFT(E29,1)="U",'UNC - EIB'!$R$2="usd",TH!O29&lt;&gt;""),"e1",IF(AND(LEFT(C29,3)="EIB",D29='LC - EIB'!$S$2,LEFT(E29,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A30" s="55" t="str">
         <f>IF(AND(C30="pv",E30='UNC - PV'!$S$2,D30='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C30,3)="eib",E30='UNC - EIB'!$V$2,D30='UNC - EIB'!$T$2),"x1",IF(AND(C30="pv",E30='LC - PV'!$R$2,D30='LC - PV'!$P$2),"x2",IF(AND(LEFT(C30,3)="eib",E30='LC - EIB'!$U$2,D30='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4676,13 +4682,13 @@
         <v>26</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G30" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="H30" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="I30" s="105" t="s">
         <v>10</v>
@@ -4692,21 +4698,21 @@
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="N30" s="64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="69">
         <v>9215000</v>
       </c>
       <c r="Q30" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R30" s="131" t="str">
         <f>IF(AND(C30="pv",D30='UNC - PV'!$Q$2,LEFT(E30,1)="u",'UNC - PV'!$O$2="vnđ",TH!P30&lt;&gt;""),"p",IF(AND(C30="pv",D30='UNC - PV'!$Q$2,LEFT(E30,1)="u",'UNC - PV'!$O$2="usd",TH!O30&lt;&gt;""),"p1",IF(AND(C30="pv",D30='LC - PV'!$P$2,LEFT(E30,1)="l"),"p2",IF(AND(LEFT(C30,3)="EIB",D30='UNC - EIB'!$T$2,LEFT(E30,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P30&lt;&gt;""),"e",IF(AND(LEFT(C30,3)="EIB",D30='UNC - EIB'!$T$2,LEFT(E30,1)="U",'UNC - EIB'!$R$2="usd",TH!O30&lt;&gt;""),"e1",IF(AND(LEFT(C30,3)="EIB",D30='LC - EIB'!$S$2,LEFT(E30,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="55" t="str">
         <f>IF(AND(C31="pv",E31='UNC - PV'!$S$2,D31='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C31,3)="eib",E31='UNC - EIB'!$V$2,D31='UNC - EIB'!$T$2),"x1",IF(AND(C31="pv",E31='LC - PV'!$R$2,D31='LC - PV'!$P$2),"x2",IF(AND(LEFT(C31,3)="eib",E31='LC - EIB'!$U$2,D31='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4748,7 +4754,7 @@
         <v>61000000</v>
       </c>
       <c r="Q31" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R31" s="131" t="str">
         <f>IF(AND(C31="pv",D31='UNC - PV'!$Q$2,LEFT(E31,1)="u",'UNC - PV'!$O$2="vnđ",TH!P31&lt;&gt;""),"p",IF(AND(C31="pv",D31='UNC - PV'!$Q$2,LEFT(E31,1)="u",'UNC - PV'!$O$2="usd",TH!O31&lt;&gt;""),"p1",IF(AND(C31="pv",D31='LC - PV'!$P$2,LEFT(E31,1)="l"),"p2",IF(AND(LEFT(C31,3)="EIB",D31='UNC - EIB'!$T$2,LEFT(E31,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P31&lt;&gt;""),"e",IF(AND(LEFT(C31,3)="EIB",D31='UNC - EIB'!$T$2,LEFT(E31,1)="U",'UNC - EIB'!$R$2="usd",TH!O31&lt;&gt;""),"e1",IF(AND(LEFT(C31,3)="EIB",D31='LC - EIB'!$S$2,LEFT(E31,1)="l"),"e2",""))))))</f>
@@ -4774,13 +4780,13 @@
         <v>85</v>
       </c>
       <c r="F32" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H32" s="64" t="s">
         <v>190</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>191</v>
       </c>
       <c r="I32" s="105" t="s">
         <v>10</v>
@@ -4790,14 +4796,14 @@
       <c r="L32" s="65"/>
       <c r="M32" s="65"/>
       <c r="N32" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="69">
         <v>21000000</v>
       </c>
       <c r="Q32" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R32" s="131" t="str">
         <f>IF(AND(C32="pv",D32='UNC - PV'!$Q$2,LEFT(E32,1)="u",'UNC - PV'!$O$2="vnđ",TH!P32&lt;&gt;""),"p",IF(AND(C32="pv",D32='UNC - PV'!$Q$2,LEFT(E32,1)="u",'UNC - PV'!$O$2="usd",TH!O32&lt;&gt;""),"p1",IF(AND(C32="pv",D32='LC - PV'!$P$2,LEFT(E32,1)="l"),"p2",IF(AND(LEFT(C32,3)="EIB",D32='UNC - EIB'!$T$2,LEFT(E32,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P32&lt;&gt;""),"e",IF(AND(LEFT(C32,3)="EIB",D32='UNC - EIB'!$T$2,LEFT(E32,1)="U",'UNC - EIB'!$R$2="usd",TH!O32&lt;&gt;""),"e1",IF(AND(LEFT(C32,3)="EIB",D32='LC - EIB'!$S$2,LEFT(E32,1)="l"),"e2",""))))))</f>
@@ -4820,33 +4826,33 @@
         <v>42586</v>
       </c>
       <c r="E33" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="G33" s="64" t="s">
+      <c r="H33" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="H33" s="64" t="s">
+      <c r="I33" s="65" t="s">
         <v>187</v>
-      </c>
-      <c r="I33" s="65" t="s">
-        <v>188</v>
       </c>
       <c r="J33" s="66"/>
       <c r="K33" s="67"/>
       <c r="L33" s="65"/>
       <c r="M33" s="65"/>
       <c r="N33" s="64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O33" s="68"/>
       <c r="P33" s="69">
         <v>40920000</v>
       </c>
       <c r="Q33" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R33" s="131" t="str">
         <f>IF(AND(C33="pv",D33='UNC - PV'!$Q$2,LEFT(E33,1)="u",'UNC - PV'!$O$2="vnđ",TH!P33&lt;&gt;""),"p",IF(AND(C33="pv",D33='UNC - PV'!$Q$2,LEFT(E33,1)="u",'UNC - PV'!$O$2="usd",TH!O33&lt;&gt;""),"p1",IF(AND(C33="pv",D33='LC - PV'!$P$2,LEFT(E33,1)="l"),"p2",IF(AND(LEFT(C33,3)="EIB",D33='UNC - EIB'!$T$2,LEFT(E33,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P33&lt;&gt;""),"e",IF(AND(LEFT(C33,3)="EIB",D33='UNC - EIB'!$T$2,LEFT(E33,1)="U",'UNC - EIB'!$R$2="usd",TH!O33&lt;&gt;""),"e1",IF(AND(LEFT(C33,3)="EIB",D33='LC - EIB'!$S$2,LEFT(E33,1)="l"),"e2",""))))))</f>
@@ -4872,30 +4878,30 @@
         <v>23</v>
       </c>
       <c r="F34" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G34" s="64" t="s">
+      <c r="H34" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="H34" s="64" t="s">
-        <v>199</v>
-      </c>
       <c r="I34" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J34" s="66"/>
       <c r="K34" s="67"/>
       <c r="L34" s="65"/>
       <c r="M34" s="65"/>
       <c r="N34" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O34" s="68"/>
       <c r="P34" s="69">
         <v>31034850</v>
       </c>
       <c r="Q34" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R34" s="131" t="str">
         <f>IF(AND(C34="pv",D34='UNC - PV'!$Q$2,LEFT(E34,1)="u",'UNC - PV'!$O$2="vnđ",TH!P34&lt;&gt;""),"p",IF(AND(C34="pv",D34='UNC - PV'!$Q$2,LEFT(E34,1)="u",'UNC - PV'!$O$2="usd",TH!O34&lt;&gt;""),"p1",IF(AND(C34="pv",D34='LC - PV'!$P$2,LEFT(E34,1)="l"),"p2",IF(AND(LEFT(C34,3)="EIB",D34='UNC - EIB'!$T$2,LEFT(E34,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P34&lt;&gt;""),"e",IF(AND(LEFT(C34,3)="EIB",D34='UNC - EIB'!$T$2,LEFT(E34,1)="U",'UNC - EIB'!$R$2="usd",TH!O34&lt;&gt;""),"e1",IF(AND(LEFT(C34,3)="EIB",D34='LC - EIB'!$S$2,LEFT(E34,1)="l"),"e2",""))))))</f>
@@ -4921,30 +4927,30 @@
         <v>24</v>
       </c>
       <c r="F35" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G35" s="64" t="s">
-        <v>202</v>
-      </c>
       <c r="H35" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I35" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J35" s="66"/>
       <c r="K35" s="67"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
       <c r="N35" s="64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="69">
         <v>17500000</v>
       </c>
       <c r="Q35" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R35" s="131" t="str">
         <f>IF(AND(C35="pv",D35='UNC - PV'!$Q$2,LEFT(E35,1)="u",'UNC - PV'!$O$2="vnđ",TH!P35&lt;&gt;""),"p",IF(AND(C35="pv",D35='UNC - PV'!$Q$2,LEFT(E35,1)="u",'UNC - PV'!$O$2="usd",TH!O35&lt;&gt;""),"p1",IF(AND(C35="pv",D35='LC - PV'!$P$2,LEFT(E35,1)="l"),"p2",IF(AND(LEFT(C35,3)="EIB",D35='UNC - EIB'!$T$2,LEFT(E35,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P35&lt;&gt;""),"e",IF(AND(LEFT(C35,3)="EIB",D35='UNC - EIB'!$T$2,LEFT(E35,1)="U",'UNC - EIB'!$R$2="usd",TH!O35&lt;&gt;""),"e1",IF(AND(LEFT(C35,3)="EIB",D35='LC - EIB'!$S$2,LEFT(E35,1)="l"),"e2",""))))))</f>
@@ -4970,30 +4976,30 @@
         <v>23</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="G36" s="64" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>421</v>
       </c>
       <c r="H36" s="64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I36" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J36" s="66"/>
       <c r="K36" s="67"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="69">
         <v>62466820</v>
       </c>
       <c r="Q36" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R36" s="131" t="str">
         <f>IF(AND(C36="pv",D36='UNC - PV'!$Q$2,LEFT(E36,1)="u",'UNC - PV'!$O$2="vnđ",TH!P36&lt;&gt;""),"p",IF(AND(C36="pv",D36='UNC - PV'!$Q$2,LEFT(E36,1)="u",'UNC - PV'!$O$2="usd",TH!O36&lt;&gt;""),"p1",IF(AND(C36="pv",D36='LC - PV'!$P$2,LEFT(E36,1)="l"),"p2",IF(AND(LEFT(C36,3)="EIB",D36='UNC - EIB'!$T$2,LEFT(E36,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P36&lt;&gt;""),"e",IF(AND(LEFT(C36,3)="EIB",D36='UNC - EIB'!$T$2,LEFT(E36,1)="U",'UNC - EIB'!$R$2="usd",TH!O36&lt;&gt;""),"e1",IF(AND(LEFT(C36,3)="EIB",D36='LC - EIB'!$S$2,LEFT(E36,1)="l"),"e2",""))))))</f>
@@ -5022,10 +5028,10 @@
         <v>132</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I37" s="65" t="s">
         <v>10</v>
@@ -5035,21 +5041,21 @@
       <c r="L37" s="65"/>
       <c r="M37" s="65"/>
       <c r="N37" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O37" s="68"/>
       <c r="P37" s="69">
         <v>18000000</v>
       </c>
       <c r="Q37" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R37" s="131" t="str">
         <f>IF(AND(C37="pv",D37='UNC - PV'!$Q$2,LEFT(E37,1)="u",'UNC - PV'!$O$2="vnđ",TH!P37&lt;&gt;""),"p",IF(AND(C37="pv",D37='UNC - PV'!$Q$2,LEFT(E37,1)="u",'UNC - PV'!$O$2="usd",TH!O37&lt;&gt;""),"p1",IF(AND(C37="pv",D37='LC - PV'!$P$2,LEFT(E37,1)="l"),"p2",IF(AND(LEFT(C37,3)="EIB",D37='UNC - EIB'!$T$2,LEFT(E37,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P37&lt;&gt;""),"e",IF(AND(LEFT(C37,3)="EIB",D37='UNC - EIB'!$T$2,LEFT(E37,1)="U",'UNC - EIB'!$R$2="usd",TH!O37&lt;&gt;""),"e1",IF(AND(LEFT(C37,3)="EIB",D37='LC - EIB'!$S$2,LEFT(E37,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5084,14 +5090,14 @@
       <c r="L38" s="65"/>
       <c r="M38" s="65"/>
       <c r="N38" s="64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O38" s="68"/>
       <c r="P38" s="69">
         <v>17432580</v>
       </c>
       <c r="Q38" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R38" s="131" t="str">
         <f>IF(AND(C38="pv",D38='UNC - PV'!$Q$2,LEFT(E38,1)="u",'UNC - PV'!$O$2="vnđ",TH!P38&lt;&gt;""),"p",IF(AND(C38="pv",D38='UNC - PV'!$Q$2,LEFT(E38,1)="u",'UNC - PV'!$O$2="usd",TH!O38&lt;&gt;""),"p1",IF(AND(C38="pv",D38='LC - PV'!$P$2,LEFT(E38,1)="l"),"p2",IF(AND(LEFT(C38,3)="EIB",D38='UNC - EIB'!$T$2,LEFT(E38,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P38&lt;&gt;""),"e",IF(AND(LEFT(C38,3)="EIB",D38='UNC - EIB'!$T$2,LEFT(E38,1)="U",'UNC - EIB'!$R$2="usd",TH!O38&lt;&gt;""),"e1",IF(AND(LEFT(C38,3)="EIB",D38='LC - EIB'!$S$2,LEFT(E38,1)="l"),"e2",""))))))</f>
@@ -5117,37 +5123,37 @@
         <v>26</v>
       </c>
       <c r="F39" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G39" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="H39" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="G39" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" s="64" t="s">
-        <v>214</v>
-      </c>
       <c r="I39" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J39" s="66"/>
       <c r="K39" s="67"/>
       <c r="L39" s="65"/>
       <c r="M39" s="65"/>
       <c r="N39" s="64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O39" s="68"/>
       <c r="P39" s="69">
         <v>200000000</v>
       </c>
       <c r="Q39" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R39" s="131" t="str">
         <f>IF(AND(C39="pv",D39='UNC - PV'!$Q$2,LEFT(E39,1)="u",'UNC - PV'!$O$2="vnđ",TH!P39&lt;&gt;""),"p",IF(AND(C39="pv",D39='UNC - PV'!$Q$2,LEFT(E39,1)="u",'UNC - PV'!$O$2="usd",TH!O39&lt;&gt;""),"p1",IF(AND(C39="pv",D39='LC - PV'!$P$2,LEFT(E39,1)="l"),"p2",IF(AND(LEFT(C39,3)="EIB",D39='UNC - EIB'!$T$2,LEFT(E39,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P39&lt;&gt;""),"e",IF(AND(LEFT(C39,3)="EIB",D39='UNC - EIB'!$T$2,LEFT(E39,1)="U",'UNC - EIB'!$R$2="usd",TH!O39&lt;&gt;""),"e1",IF(AND(LEFT(C39,3)="EIB",D39='LC - EIB'!$S$2,LEFT(E39,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5189,14 +5195,14 @@
       </c>
       <c r="P40" s="69"/>
       <c r="Q40" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R40" s="131" t="str">
         <f>IF(AND(C40="pv",D40='UNC - PV'!$Q$2,LEFT(E40,1)="u",'UNC - PV'!$O$2="vnđ",TH!P40&lt;&gt;""),"p",IF(AND(C40="pv",D40='UNC - PV'!$Q$2,LEFT(E40,1)="u",'UNC - PV'!$O$2="usd",TH!O40&lt;&gt;""),"p1",IF(AND(C40="pv",D40='LC - PV'!$P$2,LEFT(E40,1)="l"),"p2",IF(AND(LEFT(C40,3)="EIB",D40='UNC - EIB'!$T$2,LEFT(E40,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P40&lt;&gt;""),"e",IF(AND(LEFT(C40,3)="EIB",D40='UNC - EIB'!$T$2,LEFT(E40,1)="U",'UNC - EIB'!$R$2="usd",TH!O40&lt;&gt;""),"e1",IF(AND(LEFT(C40,3)="EIB",D40='LC - EIB'!$S$2,LEFT(E40,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="41" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A41" s="55" t="str">
         <f>IF(AND(C41="pv",E41='UNC - PV'!$S$2,D41='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C41,3)="eib",E41='UNC - EIB'!$V$2,D41='UNC - EIB'!$T$2),"x1",IF(AND(C41="pv",E41='LC - PV'!$R$2,D41='LC - PV'!$P$2),"x2",IF(AND(LEFT(C41,3)="eib",E41='LC - EIB'!$U$2,D41='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5206,7 +5212,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="67">
         <v>42600</v>
@@ -5218,10 +5224,10 @@
         <v>132</v>
       </c>
       <c r="G41" s="64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H41" s="107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I41" s="105" t="s">
         <v>10</v>
@@ -5231,21 +5237,21 @@
       <c r="L41" s="65"/>
       <c r="M41" s="65"/>
       <c r="N41" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O41" s="68"/>
       <c r="P41" s="69">
         <v>500000000</v>
       </c>
       <c r="Q41" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R41" s="131" t="str">
         <f>IF(AND(C41="pv",D41='UNC - PV'!$Q$2,LEFT(E41,1)="u",'UNC - PV'!$O$2="vnđ",TH!P41&lt;&gt;""),"p",IF(AND(C41="pv",D41='UNC - PV'!$Q$2,LEFT(E41,1)="u",'UNC - PV'!$O$2="usd",TH!O41&lt;&gt;""),"p1",IF(AND(C41="pv",D41='LC - PV'!$P$2,LEFT(E41,1)="l"),"p2",IF(AND(LEFT(C41,3)="EIB",D41='UNC - EIB'!$T$2,LEFT(E41,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P41&lt;&gt;""),"e",IF(AND(LEFT(C41,3)="EIB",D41='UNC - EIB'!$T$2,LEFT(E41,1)="U",'UNC - EIB'!$R$2="usd",TH!O41&lt;&gt;""),"e1",IF(AND(LEFT(C41,3)="EIB",D41='LC - EIB'!$S$2,LEFT(E41,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="42" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A42" s="55" t="str">
         <f>IF(AND(C42="pv",E42='UNC - PV'!$S$2,D42='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C42,3)="eib",E42='UNC - EIB'!$V$2,D42='UNC - EIB'!$T$2),"x1",IF(AND(C42="pv",E42='LC - PV'!$R$2,D42='LC - PV'!$P$2),"x2",IF(AND(LEFT(C42,3)="eib",E42='LC - EIB'!$U$2,D42='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5255,7 +5261,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="67">
         <v>42600</v>
@@ -5287,14 +5293,14 @@
         <v>20000000</v>
       </c>
       <c r="Q42" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R42" s="131" t="str">
         <f>IF(AND(C42="pv",D42='UNC - PV'!$Q$2,LEFT(E42,1)="u",'UNC - PV'!$O$2="vnđ",TH!P42&lt;&gt;""),"p",IF(AND(C42="pv",D42='UNC - PV'!$Q$2,LEFT(E42,1)="u",'UNC - PV'!$O$2="usd",TH!O42&lt;&gt;""),"p1",IF(AND(C42="pv",D42='LC - PV'!$P$2,LEFT(E42,1)="l"),"p2",IF(AND(LEFT(C42,3)="EIB",D42='UNC - EIB'!$T$2,LEFT(E42,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P42&lt;&gt;""),"e",IF(AND(LEFT(C42,3)="EIB",D42='UNC - EIB'!$T$2,LEFT(E42,1)="U",'UNC - EIB'!$R$2="usd",TH!O42&lt;&gt;""),"e1",IF(AND(LEFT(C42,3)="EIB",D42='LC - EIB'!$S$2,LEFT(E42,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5313,13 +5319,13 @@
         <v>23</v>
       </c>
       <c r="F43" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="H43" s="107" t="s">
         <v>155</v>
-      </c>
-      <c r="H43" s="107" t="s">
-        <v>156</v>
       </c>
       <c r="I43" s="110" t="s">
         <v>10</v>
@@ -5329,21 +5335,21 @@
       <c r="L43" s="110"/>
       <c r="M43" s="110"/>
       <c r="N43" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O43" s="111"/>
       <c r="P43" s="112">
         <v>59355400</v>
       </c>
       <c r="Q43" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R43" s="131" t="str">
         <f>IF(AND(C43="pv",D43='UNC - PV'!$Q$2,LEFT(E43,1)="u",'UNC - PV'!$O$2="vnđ",TH!P43&lt;&gt;""),"p",IF(AND(C43="pv",D43='UNC - PV'!$Q$2,LEFT(E43,1)="u",'UNC - PV'!$O$2="usd",TH!O43&lt;&gt;""),"p1",IF(AND(C43="pv",D43='LC - PV'!$P$2,LEFT(E43,1)="l"),"p2",IF(AND(LEFT(C43,3)="EIB",D43='UNC - EIB'!$T$2,LEFT(E43,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P43&lt;&gt;""),"e",IF(AND(LEFT(C43,3)="EIB",D43='UNC - EIB'!$T$2,LEFT(E43,1)="U",'UNC - EIB'!$R$2="usd",TH!O43&lt;&gt;""),"e1",IF(AND(LEFT(C43,3)="EIB",D43='LC - EIB'!$S$2,LEFT(E43,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5385,14 +5391,14 @@
         <v>50100000</v>
       </c>
       <c r="Q44" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R44" s="131" t="str">
         <f>IF(AND(C44="pv",D44='UNC - PV'!$Q$2,LEFT(E44,1)="u",'UNC - PV'!$O$2="vnđ",TH!P44&lt;&gt;""),"p",IF(AND(C44="pv",D44='UNC - PV'!$Q$2,LEFT(E44,1)="u",'UNC - PV'!$O$2="usd",TH!O44&lt;&gt;""),"p1",IF(AND(C44="pv",D44='LC - PV'!$P$2,LEFT(E44,1)="l"),"p2",IF(AND(LEFT(C44,3)="EIB",D44='UNC - EIB'!$T$2,LEFT(E44,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P44&lt;&gt;""),"e",IF(AND(LEFT(C44,3)="EIB",D44='UNC - EIB'!$T$2,LEFT(E44,1)="U",'UNC - EIB'!$R$2="usd",TH!O44&lt;&gt;""),"e1",IF(AND(LEFT(C44,3)="EIB",D44='LC - EIB'!$S$2,LEFT(E44,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5434,14 +5440,14 @@
         <v>50000000</v>
       </c>
       <c r="Q45" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R45" s="131" t="str">
         <f>IF(AND(C45="pv",D45='UNC - PV'!$Q$2,LEFT(E45,1)="u",'UNC - PV'!$O$2="vnđ",TH!P45&lt;&gt;""),"p",IF(AND(C45="pv",D45='UNC - PV'!$Q$2,LEFT(E45,1)="u",'UNC - PV'!$O$2="usd",TH!O45&lt;&gt;""),"p1",IF(AND(C45="pv",D45='LC - PV'!$P$2,LEFT(E45,1)="l"),"p2",IF(AND(LEFT(C45,3)="EIB",D45='UNC - EIB'!$T$2,LEFT(E45,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P45&lt;&gt;""),"e",IF(AND(LEFT(C45,3)="EIB",D45='UNC - EIB'!$T$2,LEFT(E45,1)="U",'UNC - EIB'!$R$2="usd",TH!O45&lt;&gt;""),"e1",IF(AND(LEFT(C45,3)="EIB",D45='LC - EIB'!$S$2,LEFT(E45,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A46" s="55" t="str">
         <f>IF(AND(C46="pv",E46='UNC - PV'!$S$2,D46='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C46,3)="eib",E46='UNC - EIB'!$V$2,D46='UNC - EIB'!$T$2),"x1",IF(AND(C46="pv",E46='LC - PV'!$R$2,D46='LC - PV'!$P$2),"x2",IF(AND(LEFT(C46,3)="eib",E46='LC - EIB'!$U$2,D46='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5460,13 +5466,13 @@
         <v>26</v>
       </c>
       <c r="F46" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="64" t="s">
         <v>216</v>
-      </c>
-      <c r="G46" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="H46" s="64" t="s">
-        <v>218</v>
       </c>
       <c r="I46" s="62" t="s">
         <v>10</v>
@@ -5476,21 +5482,21 @@
       <c r="L46" s="65"/>
       <c r="M46" s="65"/>
       <c r="N46" s="64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O46" s="68"/>
       <c r="P46" s="69">
         <v>6400000</v>
       </c>
       <c r="Q46" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R46" s="131" t="str">
         <f>IF(AND(C46="pv",D46='UNC - PV'!$Q$2,LEFT(E46,1)="u",'UNC - PV'!$O$2="vnđ",TH!P46&lt;&gt;""),"p",IF(AND(C46="pv",D46='UNC - PV'!$Q$2,LEFT(E46,1)="u",'UNC - PV'!$O$2="usd",TH!O46&lt;&gt;""),"p1",IF(AND(C46="pv",D46='LC - PV'!$P$2,LEFT(E46,1)="l"),"p2",IF(AND(LEFT(C46,3)="EIB",D46='UNC - EIB'!$T$2,LEFT(E46,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P46&lt;&gt;""),"e",IF(AND(LEFT(C46,3)="EIB",D46='UNC - EIB'!$T$2,LEFT(E46,1)="U",'UNC - EIB'!$R$2="usd",TH!O46&lt;&gt;""),"e1",IF(AND(LEFT(C46,3)="EIB",D46='LC - EIB'!$S$2,LEFT(E46,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A47" s="55" t="str">
         <f>IF(AND(C47="pv",E47='UNC - PV'!$S$2,D47='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C47,3)="eib",E47='UNC - EIB'!$V$2,D47='UNC - EIB'!$T$2),"x1",IF(AND(C47="pv",E47='LC - PV'!$R$2,D47='LC - PV'!$P$2),"x2",IF(AND(LEFT(C47,3)="eib",E47='LC - EIB'!$U$2,D47='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5525,21 +5531,21 @@
       <c r="L47" s="65"/>
       <c r="M47" s="65"/>
       <c r="N47" s="64" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O47" s="68"/>
       <c r="P47" s="69">
         <v>32480910</v>
       </c>
       <c r="Q47" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R47" s="131" t="str">
         <f>IF(AND(C47="pv",D47='UNC - PV'!$Q$2,LEFT(E47,1)="u",'UNC - PV'!$O$2="vnđ",TH!P47&lt;&gt;""),"p",IF(AND(C47="pv",D47='UNC - PV'!$Q$2,LEFT(E47,1)="u",'UNC - PV'!$O$2="usd",TH!O47&lt;&gt;""),"p1",IF(AND(C47="pv",D47='LC - PV'!$P$2,LEFT(E47,1)="l"),"p2",IF(AND(LEFT(C47,3)="EIB",D47='UNC - EIB'!$T$2,LEFT(E47,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P47&lt;&gt;""),"e",IF(AND(LEFT(C47,3)="EIB",D47='UNC - EIB'!$T$2,LEFT(E47,1)="U",'UNC - EIB'!$R$2="usd",TH!O47&lt;&gt;""),"e1",IF(AND(LEFT(C47,3)="EIB",D47='LC - EIB'!$S$2,LEFT(E47,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5574,14 +5580,14 @@
       <c r="L48" s="62"/>
       <c r="M48" s="62"/>
       <c r="N48" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O48" s="68"/>
       <c r="P48" s="69">
         <v>17842328</v>
       </c>
       <c r="Q48" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R48" s="131" t="str">
         <f>IF(AND(C48="pv",D48='UNC - PV'!$Q$2,LEFT(E48,1)="u",'UNC - PV'!$O$2="vnđ",TH!P48&lt;&gt;""),"p",IF(AND(C48="pv",D48='UNC - PV'!$Q$2,LEFT(E48,1)="u",'UNC - PV'!$O$2="usd",TH!O48&lt;&gt;""),"p1",IF(AND(C48="pv",D48='LC - PV'!$P$2,LEFT(E48,1)="l"),"p2",IF(AND(LEFT(C48,3)="EIB",D48='UNC - EIB'!$T$2,LEFT(E48,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P48&lt;&gt;""),"e",IF(AND(LEFT(C48,3)="EIB",D48='UNC - EIB'!$T$2,LEFT(E48,1)="U",'UNC - EIB'!$R$2="usd",TH!O48&lt;&gt;""),"e1",IF(AND(LEFT(C48,3)="EIB",D48='LC - EIB'!$S$2,LEFT(E48,1)="l"),"e2",""))))))</f>
@@ -5604,16 +5610,16 @@
         <v>42600</v>
       </c>
       <c r="E49" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F49" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="G49" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="H49" s="64" t="s">
         <v>223</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="H49" s="64" t="s">
-        <v>225</v>
       </c>
       <c r="I49" s="62" t="s">
         <v>10</v>
@@ -5623,14 +5629,14 @@
       <c r="L49" s="65"/>
       <c r="M49" s="65"/>
       <c r="N49" s="64" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O49" s="68"/>
       <c r="P49" s="69">
         <v>9487000</v>
       </c>
       <c r="Q49" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R49" s="131" t="str">
         <f>IF(AND(C49="pv",D49='UNC - PV'!$Q$2,LEFT(E49,1)="u",'UNC - PV'!$O$2="vnđ",TH!P49&lt;&gt;""),"p",IF(AND(C49="pv",D49='UNC - PV'!$Q$2,LEFT(E49,1)="u",'UNC - PV'!$O$2="usd",TH!O49&lt;&gt;""),"p1",IF(AND(C49="pv",D49='LC - PV'!$P$2,LEFT(E49,1)="l"),"p2",IF(AND(LEFT(C49,3)="EIB",D49='UNC - EIB'!$T$2,LEFT(E49,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P49&lt;&gt;""),"e",IF(AND(LEFT(C49,3)="EIB",D49='UNC - EIB'!$T$2,LEFT(E49,1)="U",'UNC - EIB'!$R$2="usd",TH!O49&lt;&gt;""),"e1",IF(AND(LEFT(C49,3)="EIB",D49='LC - EIB'!$S$2,LEFT(E49,1)="l"),"e2",""))))))</f>
@@ -5653,40 +5659,40 @@
         <v>42600</v>
       </c>
       <c r="E50" s="105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F50" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="H50" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="G50" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="H50" s="64" t="s">
-        <v>229</v>
-      </c>
       <c r="I50" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J50" s="66"/>
       <c r="K50" s="67"/>
       <c r="L50" s="65"/>
       <c r="M50" s="65"/>
       <c r="N50" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O50" s="68"/>
       <c r="P50" s="69">
         <v>8143872</v>
       </c>
       <c r="Q50" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R50" s="131" t="str">
         <f>IF(AND(C50="pv",D50='UNC - PV'!$Q$2,LEFT(E50,1)="u",'UNC - PV'!$O$2="vnđ",TH!P50&lt;&gt;""),"p",IF(AND(C50="pv",D50='UNC - PV'!$Q$2,LEFT(E50,1)="u",'UNC - PV'!$O$2="usd",TH!O50&lt;&gt;""),"p1",IF(AND(C50="pv",D50='LC - PV'!$P$2,LEFT(E50,1)="l"),"p2",IF(AND(LEFT(C50,3)="EIB",D50='UNC - EIB'!$T$2,LEFT(E50,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P50&lt;&gt;""),"e",IF(AND(LEFT(C50,3)="EIB",D50='UNC - EIB'!$T$2,LEFT(E50,1)="U",'UNC - EIB'!$R$2="usd",TH!O50&lt;&gt;""),"e1",IF(AND(LEFT(C50,3)="EIB",D50='LC - EIB'!$S$2,LEFT(E50,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5702,7 +5708,7 @@
         <v>42600</v>
       </c>
       <c r="E51" s="105" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F51" s="107" t="s">
         <v>133</v>
@@ -5728,7 +5734,7 @@
         <v>30000000</v>
       </c>
       <c r="Q51" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R51" s="131" t="str">
         <f>IF(AND(C51="pv",D51='UNC - PV'!$Q$2,LEFT(E51,1)="u",'UNC - PV'!$O$2="vnđ",TH!P51&lt;&gt;""),"p",IF(AND(C51="pv",D51='UNC - PV'!$Q$2,LEFT(E51,1)="u",'UNC - PV'!$O$2="usd",TH!O51&lt;&gt;""),"p1",IF(AND(C51="pv",D51='LC - PV'!$P$2,LEFT(E51,1)="l"),"p2",IF(AND(LEFT(C51,3)="EIB",D51='UNC - EIB'!$T$2,LEFT(E51,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P51&lt;&gt;""),"e",IF(AND(LEFT(C51,3)="EIB",D51='UNC - EIB'!$T$2,LEFT(E51,1)="U",'UNC - EIB'!$R$2="usd",TH!O51&lt;&gt;""),"e1",IF(AND(LEFT(C51,3)="EIB",D51='LC - EIB'!$S$2,LEFT(E51,1)="l"),"e2",""))))))</f>
@@ -5751,40 +5757,40 @@
         <v>42600</v>
       </c>
       <c r="E52" s="105" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F52" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H52" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="G52" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H52" s="64" t="s">
-        <v>168</v>
-      </c>
       <c r="I52" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J52" s="66"/>
       <c r="K52" s="67"/>
       <c r="L52" s="65"/>
       <c r="M52" s="65"/>
       <c r="N52" s="115" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O52" s="68"/>
       <c r="P52" s="69">
         <v>30533800</v>
       </c>
       <c r="Q52" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R52" s="131" t="str">
         <f>IF(AND(C52="pv",D52='UNC - PV'!$Q$2,LEFT(E52,1)="u",'UNC - PV'!$O$2="vnđ",TH!P52&lt;&gt;""),"p",IF(AND(C52="pv",D52='UNC - PV'!$Q$2,LEFT(E52,1)="u",'UNC - PV'!$O$2="usd",TH!O52&lt;&gt;""),"p1",IF(AND(C52="pv",D52='LC - PV'!$P$2,LEFT(E52,1)="l"),"p2",IF(AND(LEFT(C52,3)="EIB",D52='UNC - EIB'!$T$2,LEFT(E52,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P52&lt;&gt;""),"e",IF(AND(LEFT(C52,3)="EIB",D52='UNC - EIB'!$T$2,LEFT(E52,1)="U",'UNC - EIB'!$R$2="usd",TH!O52&lt;&gt;""),"e1",IF(AND(LEFT(C52,3)="EIB",D52='LC - EIB'!$S$2,LEFT(E52,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5803,13 +5809,13 @@
         <v>23</v>
       </c>
       <c r="F53" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H53" s="64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I53" s="62" t="s">
         <v>10</v>
@@ -5819,21 +5825,21 @@
       <c r="L53" s="65"/>
       <c r="M53" s="65"/>
       <c r="N53" s="64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O53" s="68"/>
       <c r="P53" s="69">
         <v>28690200</v>
       </c>
       <c r="Q53" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R53" s="131" t="str">
         <f>IF(AND(C53="pv",D53='UNC - PV'!$Q$2,LEFT(E53,1)="u",'UNC - PV'!$O$2="vnđ",TH!P53&lt;&gt;""),"p",IF(AND(C53="pv",D53='UNC - PV'!$Q$2,LEFT(E53,1)="u",'UNC - PV'!$O$2="usd",TH!O53&lt;&gt;""),"p1",IF(AND(C53="pv",D53='LC - PV'!$P$2,LEFT(E53,1)="l"),"p2",IF(AND(LEFT(C53,3)="EIB",D53='UNC - EIB'!$T$2,LEFT(E53,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P53&lt;&gt;""),"e",IF(AND(LEFT(C53,3)="EIB",D53='UNC - EIB'!$T$2,LEFT(E53,1)="U",'UNC - EIB'!$R$2="usd",TH!O53&lt;&gt;""),"e1",IF(AND(LEFT(C53,3)="EIB",D53='LC - EIB'!$S$2,LEFT(E53,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5875,14 +5881,14 @@
       </c>
       <c r="P54" s="69"/>
       <c r="Q54" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R54" s="131" t="str">
         <f>IF(AND(C54="pv",D54='UNC - PV'!$Q$2,LEFT(E54,1)="u",'UNC - PV'!$O$2="vnđ",TH!P54&lt;&gt;""),"p",IF(AND(C54="pv",D54='UNC - PV'!$Q$2,LEFT(E54,1)="u",'UNC - PV'!$O$2="usd",TH!O54&lt;&gt;""),"p1",IF(AND(C54="pv",D54='LC - PV'!$P$2,LEFT(E54,1)="l"),"p2",IF(AND(LEFT(C54,3)="EIB",D54='UNC - EIB'!$T$2,LEFT(E54,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P54&lt;&gt;""),"e",IF(AND(LEFT(C54,3)="EIB",D54='UNC - EIB'!$T$2,LEFT(E54,1)="U",'UNC - EIB'!$R$2="usd",TH!O54&lt;&gt;""),"e1",IF(AND(LEFT(C54,3)="EIB",D54='LC - EIB'!$S$2,LEFT(E54,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5904,10 +5910,10 @@
         <v>132</v>
       </c>
       <c r="G55" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="64" t="s">
         <v>163</v>
-      </c>
-      <c r="H55" s="64" t="s">
-        <v>164</v>
       </c>
       <c r="I55" s="105" t="s">
         <v>10</v>
@@ -5917,21 +5923,21 @@
       <c r="L55" s="65"/>
       <c r="M55" s="65"/>
       <c r="N55" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="68"/>
       <c r="P55" s="69">
         <v>210000000</v>
       </c>
       <c r="Q55" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R55" s="131" t="str">
         <f>IF(AND(C55="pv",D55='UNC - PV'!$Q$2,LEFT(E55,1)="u",'UNC - PV'!$O$2="vnđ",TH!P55&lt;&gt;""),"p",IF(AND(C55="pv",D55='UNC - PV'!$Q$2,LEFT(E55,1)="u",'UNC - PV'!$O$2="usd",TH!O55&lt;&gt;""),"p1",IF(AND(C55="pv",D55='LC - PV'!$P$2,LEFT(E55,1)="l"),"p2",IF(AND(LEFT(C55,3)="EIB",D55='UNC - EIB'!$T$2,LEFT(E55,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P55&lt;&gt;""),"e",IF(AND(LEFT(C55,3)="EIB",D55='UNC - EIB'!$T$2,LEFT(E55,1)="U",'UNC - EIB'!$R$2="usd",TH!O55&lt;&gt;""),"e1",IF(AND(LEFT(C55,3)="EIB",D55='LC - EIB'!$S$2,LEFT(E55,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="56" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A56" s="55" t="str">
         <f>IF(AND(C56="pv",E56='UNC - PV'!$S$2,D56='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C56,3)="eib",E56='UNC - EIB'!$V$2,D56='UNC - EIB'!$T$2),"x1",IF(AND(C56="pv",E56='LC - PV'!$R$2,D56='LC - PV'!$P$2),"x2",IF(AND(LEFT(C56,3)="eib",E56='LC - EIB'!$U$2,D56='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5941,7 +5947,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="67">
         <v>42611</v>
@@ -5953,7 +5959,7 @@
         <v>132</v>
       </c>
       <c r="G56" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H56" s="107" t="s">
         <v>130</v>
@@ -5966,21 +5972,21 @@
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
       <c r="N56" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="68">
         <v>6700</v>
       </c>
       <c r="P56" s="69"/>
       <c r="Q56" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R56" s="131" t="str">
         <f>IF(AND(C56="pv",D56='UNC - PV'!$Q$2,LEFT(E56,1)="u",'UNC - PV'!$O$2="vnđ",TH!P56&lt;&gt;""),"p",IF(AND(C56="pv",D56='UNC - PV'!$Q$2,LEFT(E56,1)="u",'UNC - PV'!$O$2="usd",TH!O56&lt;&gt;""),"p1",IF(AND(C56="pv",D56='LC - PV'!$P$2,LEFT(E56,1)="l"),"p2",IF(AND(LEFT(C56,3)="EIB",D56='UNC - EIB'!$T$2,LEFT(E56,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P56&lt;&gt;""),"e",IF(AND(LEFT(C56,3)="EIB",D56='UNC - EIB'!$T$2,LEFT(E56,1)="U",'UNC - EIB'!$R$2="usd",TH!O56&lt;&gt;""),"e1",IF(AND(LEFT(C56,3)="EIB",D56='LC - EIB'!$S$2,LEFT(E56,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6002,10 +6008,10 @@
         <v>132</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H57" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I57" s="65" t="s">
         <v>10</v>
@@ -6022,14 +6028,14 @@
       </c>
       <c r="P57" s="69"/>
       <c r="Q57" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R57" s="131" t="str">
         <f>IF(AND(C57="pv",D57='UNC - PV'!$Q$2,LEFT(E57,1)="u",'UNC - PV'!$O$2="vnđ",TH!P57&lt;&gt;""),"p",IF(AND(C57="pv",D57='UNC - PV'!$Q$2,LEFT(E57,1)="u",'UNC - PV'!$O$2="usd",TH!O57&lt;&gt;""),"p1",IF(AND(C57="pv",D57='LC - PV'!$P$2,LEFT(E57,1)="l"),"p2",IF(AND(LEFT(C57,3)="EIB",D57='UNC - EIB'!$T$2,LEFT(E57,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P57&lt;&gt;""),"e",IF(AND(LEFT(C57,3)="EIB",D57='UNC - EIB'!$T$2,LEFT(E57,1)="U",'UNC - EIB'!$R$2="usd",TH!O57&lt;&gt;""),"e1",IF(AND(LEFT(C57,3)="EIB",D57='LC - EIB'!$S$2,LEFT(E57,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6071,7 +6077,7 @@
         <v>23000000</v>
       </c>
       <c r="Q58" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R58" s="131" t="str">
         <f>IF(AND(C58="pv",D58='UNC - PV'!$Q$2,LEFT(E58,1)="u",'UNC - PV'!$O$2="vnđ",TH!P58&lt;&gt;""),"p",IF(AND(C58="pv",D58='UNC - PV'!$Q$2,LEFT(E58,1)="u",'UNC - PV'!$O$2="usd",TH!O58&lt;&gt;""),"p1",IF(AND(C58="pv",D58='LC - PV'!$P$2,LEFT(E58,1)="l"),"p2",IF(AND(LEFT(C58,3)="EIB",D58='UNC - EIB'!$T$2,LEFT(E58,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P58&lt;&gt;""),"e",IF(AND(LEFT(C58,3)="EIB",D58='UNC - EIB'!$T$2,LEFT(E58,1)="U",'UNC - EIB'!$R$2="usd",TH!O58&lt;&gt;""),"e1",IF(AND(LEFT(C58,3)="EIB",D58='LC - EIB'!$S$2,LEFT(E58,1)="l"),"e2",""))))))</f>
@@ -6097,37 +6103,37 @@
         <v>26</v>
       </c>
       <c r="F59" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G59" s="64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H59" s="64" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I59" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J59" s="66"/>
       <c r="K59" s="67"/>
       <c r="L59" s="65"/>
       <c r="M59" s="65"/>
       <c r="N59" s="115" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O59" s="68"/>
       <c r="P59" s="69">
         <v>22821810</v>
       </c>
       <c r="Q59" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R59" s="131" t="str">
         <f>IF(AND(C59="pv",D59='UNC - PV'!$Q$2,LEFT(E59,1)="u",'UNC - PV'!$O$2="vnđ",TH!P59&lt;&gt;""),"p",IF(AND(C59="pv",D59='UNC - PV'!$Q$2,LEFT(E59,1)="u",'UNC - PV'!$O$2="usd",TH!O59&lt;&gt;""),"p1",IF(AND(C59="pv",D59='LC - PV'!$P$2,LEFT(E59,1)="l"),"p2",IF(AND(LEFT(C59,3)="EIB",D59='UNC - EIB'!$T$2,LEFT(E59,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P59&lt;&gt;""),"e",IF(AND(LEFT(C59,3)="EIB",D59='UNC - EIB'!$T$2,LEFT(E59,1)="U",'UNC - EIB'!$R$2="usd",TH!O59&lt;&gt;""),"e1",IF(AND(LEFT(C59,3)="EIB",D59='LC - EIB'!$S$2,LEFT(E59,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="60" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A60" s="55" t="str">
         <f>IF(AND(C60="pv",E60='UNC - PV'!$S$2,D60='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C60,3)="eib",E60='UNC - EIB'!$V$2,D60='UNC - EIB'!$T$2),"x1",IF(AND(C60="pv",E60='LC - PV'!$R$2,D60='LC - PV'!$P$2),"x2",IF(AND(LEFT(C60,3)="eib",E60='LC - EIB'!$U$2,D60='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6137,7 +6143,7 @@
         <v>57</v>
       </c>
       <c r="C60" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" s="67">
         <v>42627</v>
@@ -6162,21 +6168,21 @@
       <c r="L60" s="65"/>
       <c r="M60" s="65"/>
       <c r="N60" s="64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O60" s="68"/>
       <c r="P60" s="69">
         <v>24068550</v>
       </c>
       <c r="Q60" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R60" s="131" t="str">
         <f>IF(AND(C60="pv",D60='UNC - PV'!$Q$2,LEFT(E60,1)="u",'UNC - PV'!$O$2="vnđ",TH!P60&lt;&gt;""),"p",IF(AND(C60="pv",D60='UNC - PV'!$Q$2,LEFT(E60,1)="u",'UNC - PV'!$O$2="usd",TH!O60&lt;&gt;""),"p1",IF(AND(C60="pv",D60='LC - PV'!$P$2,LEFT(E60,1)="l"),"p2",IF(AND(LEFT(C60,3)="EIB",D60='UNC - EIB'!$T$2,LEFT(E60,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P60&lt;&gt;""),"e",IF(AND(LEFT(C60,3)="EIB",D60='UNC - EIB'!$T$2,LEFT(E60,1)="U",'UNC - EIB'!$R$2="usd",TH!O60&lt;&gt;""),"e1",IF(AND(LEFT(C60,3)="EIB",D60='LC - EIB'!$S$2,LEFT(E60,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6211,21 +6217,21 @@
       <c r="L61" s="65"/>
       <c r="M61" s="65"/>
       <c r="N61" s="64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O61" s="68"/>
       <c r="P61" s="69">
         <v>21641290</v>
       </c>
       <c r="Q61" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R61" s="131" t="str">
         <f>IF(AND(C61="pv",D61='UNC - PV'!$Q$2,LEFT(E61,1)="u",'UNC - PV'!$O$2="vnđ",TH!P61&lt;&gt;""),"p",IF(AND(C61="pv",D61='UNC - PV'!$Q$2,LEFT(E61,1)="u",'UNC - PV'!$O$2="usd",TH!O61&lt;&gt;""),"p1",IF(AND(C61="pv",D61='LC - PV'!$P$2,LEFT(E61,1)="l"),"p2",IF(AND(LEFT(C61,3)="EIB",D61='UNC - EIB'!$T$2,LEFT(E61,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P61&lt;&gt;""),"e",IF(AND(LEFT(C61,3)="EIB",D61='UNC - EIB'!$T$2,LEFT(E61,1)="U",'UNC - EIB'!$R$2="usd",TH!O61&lt;&gt;""),"e1",IF(AND(LEFT(C61,3)="EIB",D61='LC - EIB'!$S$2,LEFT(E61,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A62" s="55" t="str">
         <f>IF(AND(C62="pv",E62='UNC - PV'!$S$2,D62='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C62,3)="eib",E62='UNC - EIB'!$V$2,D62='UNC - EIB'!$T$2),"x1",IF(AND(C62="pv",E62='LC - PV'!$R$2,D62='LC - PV'!$P$2),"x2",IF(AND(LEFT(C62,3)="eib",E62='LC - EIB'!$U$2,D62='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6244,13 +6250,13 @@
         <v>24</v>
       </c>
       <c r="F62" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H62" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="105" t="s">
         <v>10</v>
@@ -6260,21 +6266,21 @@
       <c r="L62" s="65"/>
       <c r="M62" s="65"/>
       <c r="N62" s="64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O62" s="68"/>
       <c r="P62" s="69">
         <v>1663000</v>
       </c>
       <c r="Q62" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R62" s="131" t="str">
         <f>IF(AND(C62="pv",D62='UNC - PV'!$Q$2,LEFT(E62,1)="u",'UNC - PV'!$O$2="vnđ",TH!P62&lt;&gt;""),"p",IF(AND(C62="pv",D62='UNC - PV'!$Q$2,LEFT(E62,1)="u",'UNC - PV'!$O$2="usd",TH!O62&lt;&gt;""),"p1",IF(AND(C62="pv",D62='LC - PV'!$P$2,LEFT(E62,1)="l"),"p2",IF(AND(LEFT(C62,3)="EIB",D62='UNC - EIB'!$T$2,LEFT(E62,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P62&lt;&gt;""),"e",IF(AND(LEFT(C62,3)="EIB",D62='UNC - EIB'!$T$2,LEFT(E62,1)="U",'UNC - EIB'!$R$2="usd",TH!O62&lt;&gt;""),"e1",IF(AND(LEFT(C62,3)="EIB",D62='LC - EIB'!$S$2,LEFT(E62,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6293,13 +6299,13 @@
         <v>25</v>
       </c>
       <c r="F63" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G63" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="H63" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="I63" s="105" t="s">
         <v>10</v>
@@ -6309,21 +6315,21 @@
       <c r="L63" s="65"/>
       <c r="M63" s="65"/>
       <c r="N63" s="64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O63" s="68"/>
       <c r="P63" s="69">
         <v>27700000</v>
       </c>
       <c r="Q63" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R63" s="131" t="str">
         <f>IF(AND(C63="pv",D63='UNC - PV'!$Q$2,LEFT(E63,1)="u",'UNC - PV'!$O$2="vnđ",TH!P63&lt;&gt;""),"p",IF(AND(C63="pv",D63='UNC - PV'!$Q$2,LEFT(E63,1)="u",'UNC - PV'!$O$2="usd",TH!O63&lt;&gt;""),"p1",IF(AND(C63="pv",D63='LC - PV'!$P$2,LEFT(E63,1)="l"),"p2",IF(AND(LEFT(C63,3)="EIB",D63='UNC - EIB'!$T$2,LEFT(E63,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P63&lt;&gt;""),"e",IF(AND(LEFT(C63,3)="EIB",D63='UNC - EIB'!$T$2,LEFT(E63,1)="U",'UNC - EIB'!$R$2="usd",TH!O63&lt;&gt;""),"e1",IF(AND(LEFT(C63,3)="EIB",D63='LC - EIB'!$S$2,LEFT(E63,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="64" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A64" s="55" t="str">
         <f>IF(AND(C64="pv",E64='UNC - PV'!$S$2,D64='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C64,3)="eib",E64='UNC - EIB'!$V$2,D64='UNC - EIB'!$T$2),"x1",IF(AND(C64="pv",E64='LC - PV'!$R$2,D64='LC - PV'!$P$2),"x2",IF(AND(LEFT(C64,3)="eib",E64='LC - EIB'!$U$2,D64='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6333,7 +6339,7 @@
         <v>61</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D64" s="67">
         <v>42642</v>
@@ -6365,7 +6371,7 @@
         <v>60000000</v>
       </c>
       <c r="Q64" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R64" s="131" t="str">
         <f>IF(AND(C64="pv",D64='UNC - PV'!$Q$2,LEFT(E64,1)="u",'UNC - PV'!$O$2="vnđ",TH!P64&lt;&gt;""),"p",IF(AND(C64="pv",D64='UNC - PV'!$Q$2,LEFT(E64,1)="u",'UNC - PV'!$O$2="usd",TH!O64&lt;&gt;""),"p1",IF(AND(C64="pv",D64='LC - PV'!$P$2,LEFT(E64,1)="l"),"p2",IF(AND(LEFT(C64,3)="EIB",D64='UNC - EIB'!$T$2,LEFT(E64,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P64&lt;&gt;""),"e",IF(AND(LEFT(C64,3)="EIB",D64='UNC - EIB'!$T$2,LEFT(E64,1)="U",'UNC - EIB'!$R$2="usd",TH!O64&lt;&gt;""),"e1",IF(AND(LEFT(C64,3)="EIB",D64='LC - EIB'!$S$2,LEFT(E64,1)="l"),"e2",""))))))</f>
@@ -6391,23 +6397,23 @@
         <v>24</v>
       </c>
       <c r="F65" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H65" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="G65" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H65" s="64" t="s">
-        <v>168</v>
-      </c>
       <c r="I65" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J65" s="66"/>
       <c r="K65" s="67"/>
       <c r="L65" s="65"/>
       <c r="M65" s="65"/>
       <c r="N65" s="115" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O65" s="68"/>
       <c r="P65" s="69">
@@ -6415,14 +6421,14 @@
         <v>88048620</v>
       </c>
       <c r="Q65" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R65" s="131" t="str">
         <f>IF(AND(C65="pv",D65='UNC - PV'!$Q$2,LEFT(E65,1)="u",'UNC - PV'!$O$2="vnđ",TH!P65&lt;&gt;""),"p",IF(AND(C65="pv",D65='UNC - PV'!$Q$2,LEFT(E65,1)="u",'UNC - PV'!$O$2="usd",TH!O65&lt;&gt;""),"p1",IF(AND(C65="pv",D65='LC - PV'!$P$2,LEFT(E65,1)="l"),"p2",IF(AND(LEFT(C65,3)="EIB",D65='UNC - EIB'!$T$2,LEFT(E65,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P65&lt;&gt;""),"e",IF(AND(LEFT(C65,3)="EIB",D65='UNC - EIB'!$T$2,LEFT(E65,1)="U",'UNC - EIB'!$R$2="usd",TH!O65&lt;&gt;""),"e1",IF(AND(LEFT(C65,3)="EIB",D65='LC - EIB'!$S$2,LEFT(E65,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6441,37 +6447,37 @@
         <v>23</v>
       </c>
       <c r="F66" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="G66" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="H66" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="G66" s="64" t="s">
+      <c r="I66" s="65" t="s">
         <v>278</v>
-      </c>
-      <c r="H66" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="I66" s="65" t="s">
-        <v>280</v>
       </c>
       <c r="J66" s="66"/>
       <c r="K66" s="67"/>
       <c r="L66" s="65"/>
       <c r="M66" s="65"/>
       <c r="N66" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O66" s="68"/>
       <c r="P66" s="69">
         <v>100000000</v>
       </c>
       <c r="Q66" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R66" s="131" t="str">
         <f>IF(AND(C66="pv",D66='UNC - PV'!$Q$2,LEFT(E66,1)="u",'UNC - PV'!$O$2="vnđ",TH!P66&lt;&gt;""),"p",IF(AND(C66="pv",D66='UNC - PV'!$Q$2,LEFT(E66,1)="u",'UNC - PV'!$O$2="usd",TH!O66&lt;&gt;""),"p1",IF(AND(C66="pv",D66='LC - PV'!$P$2,LEFT(E66,1)="l"),"p2",IF(AND(LEFT(C66,3)="EIB",D66='UNC - EIB'!$T$2,LEFT(E66,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P66&lt;&gt;""),"e",IF(AND(LEFT(C66,3)="EIB",D66='UNC - EIB'!$T$2,LEFT(E66,1)="U",'UNC - EIB'!$R$2="usd",TH!O66&lt;&gt;""),"e1",IF(AND(LEFT(C66,3)="EIB",D66='LC - EIB'!$S$2,LEFT(E66,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6506,21 +6512,21 @@
       <c r="L67" s="65"/>
       <c r="M67" s="65"/>
       <c r="N67" s="64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O67" s="68"/>
       <c r="P67" s="69">
         <v>24156880</v>
       </c>
       <c r="Q67" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R67" s="131" t="str">
         <f>IF(AND(C67="pv",D67='UNC - PV'!$Q$2,LEFT(E67,1)="u",'UNC - PV'!$O$2="vnđ",TH!P67&lt;&gt;""),"p",IF(AND(C67="pv",D67='UNC - PV'!$Q$2,LEFT(E67,1)="u",'UNC - PV'!$O$2="usd",TH!O67&lt;&gt;""),"p1",IF(AND(C67="pv",D67='LC - PV'!$P$2,LEFT(E67,1)="l"),"p2",IF(AND(LEFT(C67,3)="EIB",D67='UNC - EIB'!$T$2,LEFT(E67,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P67&lt;&gt;""),"e",IF(AND(LEFT(C67,3)="EIB",D67='UNC - EIB'!$T$2,LEFT(E67,1)="U",'UNC - EIB'!$R$2="usd",TH!O67&lt;&gt;""),"e1",IF(AND(LEFT(C67,3)="EIB",D67='LC - EIB'!$S$2,LEFT(E67,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="68" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A68" s="55" t="str">
         <f>IF(AND(C68="pv",E68='UNC - PV'!$S$2,D68='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C68,3)="eib",E68='UNC - EIB'!$V$2,D68='UNC - EIB'!$T$2),"x1",IF(AND(C68="pv",E68='LC - PV'!$R$2,D68='LC - PV'!$P$2),"x2",IF(AND(LEFT(C68,3)="eib",E68='LC - EIB'!$U$2,D68='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6530,7 +6536,7 @@
         <v>65</v>
       </c>
       <c r="C68" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D68" s="67">
         <v>42648</v>
@@ -6539,13 +6545,13 @@
         <v>23</v>
       </c>
       <c r="F68" s="64" t="s">
+        <v>280</v>
+      </c>
+      <c r="G68" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="G68" s="64" t="s">
-        <v>284</v>
-      </c>
       <c r="H68" s="64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I68" s="105" t="s">
         <v>10</v>
@@ -6555,21 +6561,21 @@
       <c r="L68" s="65"/>
       <c r="M68" s="65"/>
       <c r="N68" s="64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O68" s="68"/>
       <c r="P68" s="69">
         <v>873400</v>
       </c>
       <c r="Q68" s="104" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R68" s="131" t="str">
         <f>IF(AND(C68="pv",D68='UNC - PV'!$Q$2,LEFT(E68,1)="u",'UNC - PV'!$O$2="vnđ",TH!P68&lt;&gt;""),"p",IF(AND(C68="pv",D68='UNC - PV'!$Q$2,LEFT(E68,1)="u",'UNC - PV'!$O$2="usd",TH!O68&lt;&gt;""),"p1",IF(AND(C68="pv",D68='LC - PV'!$P$2,LEFT(E68,1)="l"),"p2",IF(AND(LEFT(C68,3)="EIB",D68='UNC - EIB'!$T$2,LEFT(E68,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P68&lt;&gt;""),"e",IF(AND(LEFT(C68,3)="EIB",D68='UNC - EIB'!$T$2,LEFT(E68,1)="U",'UNC - EIB'!$R$2="usd",TH!O68&lt;&gt;""),"e1",IF(AND(LEFT(C68,3)="EIB",D68='LC - EIB'!$S$2,LEFT(E68,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" s="130" customFormat="1" ht="18.75" customHeight="1">
+    <row r="69" spans="1:18" s="130" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A69" s="55" t="str">
         <f>IF(AND(C69="pv",E69='UNC - PV'!$S$2,D69='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C69,3)="eib",E69='UNC - EIB'!$V$2,D69='UNC - EIB'!$T$2),"x1",IF(AND(C69="pv",E69='LC - PV'!$R$2,D69='LC - PV'!$P$2),"x2",IF(AND(LEFT(C69,3)="eib",E69='LC - EIB'!$U$2,D69='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6579,7 +6585,7 @@
         <v>66</v>
       </c>
       <c r="C69" s="122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D69" s="123">
         <v>42650</v>
@@ -6588,13 +6594,13 @@
         <v>23</v>
       </c>
       <c r="F69" s="125" t="s">
+        <v>280</v>
+      </c>
+      <c r="G69" s="125" t="s">
         <v>282</v>
       </c>
-      <c r="G69" s="125" t="s">
-        <v>284</v>
-      </c>
       <c r="H69" s="125" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I69" s="122" t="s">
         <v>10</v>
@@ -6604,7 +6610,7 @@
       <c r="L69" s="124"/>
       <c r="M69" s="124"/>
       <c r="N69" s="125" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O69" s="127"/>
       <c r="P69" s="128">
@@ -6612,14 +6618,14 @@
         <v>12324480</v>
       </c>
       <c r="Q69" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R69" s="131" t="str">
         <f>IF(AND(C69="pv",D69='UNC - PV'!$Q$2,LEFT(E69,1)="u",'UNC - PV'!$O$2="vnđ",TH!P69&lt;&gt;""),"p",IF(AND(C69="pv",D69='UNC - PV'!$Q$2,LEFT(E69,1)="u",'UNC - PV'!$O$2="usd",TH!O69&lt;&gt;""),"p1",IF(AND(C69="pv",D69='LC - PV'!$P$2,LEFT(E69,1)="l"),"p2",IF(AND(LEFT(C69,3)="EIB",D69='UNC - EIB'!$T$2,LEFT(E69,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P69&lt;&gt;""),"e",IF(AND(LEFT(C69,3)="EIB",D69='UNC - EIB'!$T$2,LEFT(E69,1)="U",'UNC - EIB'!$R$2="usd",TH!O69&lt;&gt;""),"e1",IF(AND(LEFT(C69,3)="EIB",D69='LC - EIB'!$S$2,LEFT(E69,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" s="130" customFormat="1" ht="18.75" customHeight="1">
+    <row r="70" spans="1:18" s="130" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A70" s="55" t="str">
         <f>IF(AND(C70="pv",E70='UNC - PV'!$S$2,D70='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C70,3)="eib",E70='UNC - EIB'!$V$2,D70='UNC - EIB'!$T$2),"x1",IF(AND(C70="pv",E70='LC - PV'!$R$2,D70='LC - PV'!$P$2),"x2",IF(AND(LEFT(C70,3)="eib",E70='LC - EIB'!$U$2,D70='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6629,7 +6635,7 @@
         <v>67</v>
       </c>
       <c r="C70" s="122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D70" s="123">
         <v>42650</v>
@@ -6638,13 +6644,13 @@
         <v>24</v>
       </c>
       <c r="F70" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="G70" s="125" t="s">
+        <v>286</v>
+      </c>
+      <c r="H70" s="125" t="s">
         <v>287</v>
-      </c>
-      <c r="G70" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="H70" s="125" t="s">
-        <v>289</v>
       </c>
       <c r="I70" s="122" t="s">
         <v>10</v>
@@ -6654,7 +6660,7 @@
       <c r="L70" s="124"/>
       <c r="M70" s="124"/>
       <c r="N70" s="125" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O70" s="127"/>
       <c r="P70" s="128">
@@ -6662,14 +6668,14 @@
         <v>103180000</v>
       </c>
       <c r="Q70" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R70" s="131" t="str">
         <f>IF(AND(C70="pv",D70='UNC - PV'!$Q$2,LEFT(E70,1)="u",'UNC - PV'!$O$2="vnđ",TH!P70&lt;&gt;""),"p",IF(AND(C70="pv",D70='UNC - PV'!$Q$2,LEFT(E70,1)="u",'UNC - PV'!$O$2="usd",TH!O70&lt;&gt;""),"p1",IF(AND(C70="pv",D70='LC - PV'!$P$2,LEFT(E70,1)="l"),"p2",IF(AND(LEFT(C70,3)="EIB",D70='UNC - EIB'!$T$2,LEFT(E70,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P70&lt;&gt;""),"e",IF(AND(LEFT(C70,3)="EIB",D70='UNC - EIB'!$T$2,LEFT(E70,1)="U",'UNC - EIB'!$R$2="usd",TH!O70&lt;&gt;""),"e1",IF(AND(LEFT(C70,3)="EIB",D70='LC - EIB'!$S$2,LEFT(E70,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="71" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A71" s="55" t="str">
         <f>IF(AND(C71="pv",E71='UNC - PV'!$S$2,D71='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C71,3)="eib",E71='UNC - EIB'!$V$2,D71='UNC - EIB'!$T$2),"x1",IF(AND(C71="pv",E71='LC - PV'!$R$2,D71='LC - PV'!$P$2),"x2",IF(AND(LEFT(C71,3)="eib",E71='LC - EIB'!$U$2,D71='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6679,7 +6685,7 @@
         <v>68</v>
       </c>
       <c r="C71" s="122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" s="123">
         <v>42650</v>
@@ -6688,37 +6694,37 @@
         <v>25</v>
       </c>
       <c r="F71" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="G71" s="64" t="s">
+      <c r="I71" s="65" t="s">
         <v>278</v>
-      </c>
-      <c r="H71" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="I71" s="65" t="s">
-        <v>280</v>
       </c>
       <c r="J71" s="66"/>
       <c r="K71" s="67"/>
       <c r="L71" s="65"/>
       <c r="M71" s="65"/>
       <c r="N71" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O71" s="68"/>
       <c r="P71" s="69">
         <v>98056855</v>
       </c>
       <c r="Q71" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R71" s="131" t="str">
         <f>IF(AND(C71="pv",D71='UNC - PV'!$Q$2,LEFT(E71,1)="u",'UNC - PV'!$O$2="vnđ",TH!P71&lt;&gt;""),"p",IF(AND(C71="pv",D71='UNC - PV'!$Q$2,LEFT(E71,1)="u",'UNC - PV'!$O$2="usd",TH!O71&lt;&gt;""),"p1",IF(AND(C71="pv",D71='LC - PV'!$P$2,LEFT(E71,1)="l"),"p2",IF(AND(LEFT(C71,3)="EIB",D71='UNC - EIB'!$T$2,LEFT(E71,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P71&lt;&gt;""),"e",IF(AND(LEFT(C71,3)="EIB",D71='UNC - EIB'!$T$2,LEFT(E71,1)="U",'UNC - EIB'!$R$2="usd",TH!O71&lt;&gt;""),"e1",IF(AND(LEFT(C71,3)="EIB",D71='LC - EIB'!$S$2,LEFT(E71,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="72" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A72" s="55" t="str">
         <f>IF(AND(C72="pv",E72='UNC - PV'!$S$2,D72='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C72,3)="eib",E72='UNC - EIB'!$V$2,D72='UNC - EIB'!$T$2),"x1",IF(AND(C72="pv",E72='LC - PV'!$R$2,D72='LC - PV'!$P$2),"x2",IF(AND(LEFT(C72,3)="eib",E72='LC - EIB'!$U$2,D72='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6728,7 +6734,7 @@
         <v>69</v>
       </c>
       <c r="C72" s="122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D72" s="123">
         <v>42650</v>
@@ -6737,13 +6743,13 @@
         <v>26</v>
       </c>
       <c r="F72" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="G72" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="H72" s="125" t="s">
         <v>265</v>
-      </c>
-      <c r="G72" s="125" t="s">
-        <v>266</v>
-      </c>
-      <c r="H72" s="125" t="s">
-        <v>267</v>
       </c>
       <c r="I72" s="124" t="s">
         <v>10</v>
@@ -6753,21 +6759,21 @@
       <c r="L72" s="124"/>
       <c r="M72" s="124"/>
       <c r="N72" s="125" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O72" s="127"/>
       <c r="P72" s="128">
         <v>84566900</v>
       </c>
       <c r="Q72" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R72" s="131" t="str">
         <f>IF(AND(C72="pv",D72='UNC - PV'!$Q$2,LEFT(E72,1)="u",'UNC - PV'!$O$2="vnđ",TH!P72&lt;&gt;""),"p",IF(AND(C72="pv",D72='UNC - PV'!$Q$2,LEFT(E72,1)="u",'UNC - PV'!$O$2="usd",TH!O72&lt;&gt;""),"p1",IF(AND(C72="pv",D72='LC - PV'!$P$2,LEFT(E72,1)="l"),"p2",IF(AND(LEFT(C72,3)="EIB",D72='UNC - EIB'!$T$2,LEFT(E72,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P72&lt;&gt;""),"e",IF(AND(LEFT(C72,3)="EIB",D72='UNC - EIB'!$T$2,LEFT(E72,1)="U",'UNC - EIB'!$R$2="usd",TH!O72&lt;&gt;""),"e1",IF(AND(LEFT(C72,3)="EIB",D72='LC - EIB'!$S$2,LEFT(E72,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="73" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A73" s="55" t="str">
         <f>IF(AND(C73="pv",E73='UNC - PV'!$S$2,D73='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C73,3)="eib",E73='UNC - EIB'!$V$2,D73='UNC - EIB'!$T$2),"x1",IF(AND(C73="pv",E73='LC - PV'!$R$2,D73='LC - PV'!$P$2),"x2",IF(AND(LEFT(C73,3)="eib",E73='LC - EIB'!$U$2,D73='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6777,7 +6783,7 @@
         <v>70</v>
       </c>
       <c r="C73" s="122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D73" s="123">
         <v>42650</v>
@@ -6786,13 +6792,13 @@
         <v>84</v>
       </c>
       <c r="F73" s="107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G73" s="107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H73" s="107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I73" s="105" t="s">
         <v>10</v>
@@ -6802,21 +6808,21 @@
       <c r="L73" s="110"/>
       <c r="M73" s="110"/>
       <c r="N73" s="107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O73" s="111"/>
       <c r="P73" s="112">
         <v>37480000</v>
       </c>
       <c r="Q73" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R73" s="131" t="str">
         <f>IF(AND(C73="pv",D73='UNC - PV'!$Q$2,LEFT(E73,1)="u",'UNC - PV'!$O$2="vnđ",TH!P73&lt;&gt;""),"p",IF(AND(C73="pv",D73='UNC - PV'!$Q$2,LEFT(E73,1)="u",'UNC - PV'!$O$2="usd",TH!O73&lt;&gt;""),"p1",IF(AND(C73="pv",D73='LC - PV'!$P$2,LEFT(E73,1)="l"),"p2",IF(AND(LEFT(C73,3)="EIB",D73='UNC - EIB'!$T$2,LEFT(E73,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P73&lt;&gt;""),"e",IF(AND(LEFT(C73,3)="EIB",D73='UNC - EIB'!$T$2,LEFT(E73,1)="U",'UNC - EIB'!$R$2="usd",TH!O73&lt;&gt;""),"e1",IF(AND(LEFT(C73,3)="EIB",D73='LC - EIB'!$S$2,LEFT(E73,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="74" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A74" s="55" t="str">
         <f>IF(AND(C74="pv",E74='UNC - PV'!$S$2,D74='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C74,3)="eib",E74='UNC - EIB'!$V$2,D74='UNC - EIB'!$T$2),"x1",IF(AND(C74="pv",E74='LC - PV'!$R$2,D74='LC - PV'!$P$2),"x2",IF(AND(LEFT(C74,3)="eib",E74='LC - EIB'!$U$2,D74='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6826,7 +6832,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="122" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" s="123">
         <v>42650</v>
@@ -6838,7 +6844,7 @@
         <v>132</v>
       </c>
       <c r="G74" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H74" s="107" t="s">
         <v>130</v>
@@ -6851,14 +6857,14 @@
       <c r="L74" s="65"/>
       <c r="M74" s="65"/>
       <c r="N74" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O74" s="68">
         <v>94600</v>
       </c>
       <c r="P74" s="112"/>
       <c r="Q74" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R74" s="131" t="str">
         <f>IF(AND(C74="pv",D74='UNC - PV'!$Q$2,LEFT(E74,1)="u",'UNC - PV'!$O$2="vnđ",TH!P74&lt;&gt;""),"p",IF(AND(C74="pv",D74='UNC - PV'!$Q$2,LEFT(E74,1)="u",'UNC - PV'!$O$2="usd",TH!O74&lt;&gt;""),"p1",IF(AND(C74="pv",D74='LC - PV'!$P$2,LEFT(E74,1)="l"),"p2",IF(AND(LEFT(C74,3)="EIB",D74='UNC - EIB'!$T$2,LEFT(E74,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P74&lt;&gt;""),"e",IF(AND(LEFT(C74,3)="EIB",D74='UNC - EIB'!$T$2,LEFT(E74,1)="U",'UNC - EIB'!$R$2="usd",TH!O74&lt;&gt;""),"e1",IF(AND(LEFT(C74,3)="EIB",D74='LC - EIB'!$S$2,LEFT(E74,1)="l"),"e2",""))))))</f>
@@ -6884,13 +6890,13 @@
         <v>23</v>
       </c>
       <c r="F75" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G75" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H75" s="64" t="s">
         <v>190</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="H75" s="64" t="s">
-        <v>191</v>
       </c>
       <c r="I75" s="105" t="s">
         <v>10</v>
@@ -6900,14 +6906,14 @@
       <c r="L75" s="65"/>
       <c r="M75" s="65"/>
       <c r="N75" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O75" s="68"/>
       <c r="P75" s="69">
         <v>23500000</v>
       </c>
       <c r="Q75" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R75" s="131" t="str">
         <f>IF(AND(C75="pv",D75='UNC - PV'!$Q$2,LEFT(E75,1)="u",'UNC - PV'!$O$2="vnđ",TH!P75&lt;&gt;""),"p",IF(AND(C75="pv",D75='UNC - PV'!$Q$2,LEFT(E75,1)="u",'UNC - PV'!$O$2="usd",TH!O75&lt;&gt;""),"p1",IF(AND(C75="pv",D75='LC - PV'!$P$2,LEFT(E75,1)="l"),"p2",IF(AND(LEFT(C75,3)="EIB",D75='UNC - EIB'!$T$2,LEFT(E75,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P75&lt;&gt;""),"e",IF(AND(LEFT(C75,3)="EIB",D75='UNC - EIB'!$T$2,LEFT(E75,1)="U",'UNC - EIB'!$R$2="usd",TH!O75&lt;&gt;""),"e1",IF(AND(LEFT(C75,3)="EIB",D75='LC - EIB'!$S$2,LEFT(E75,1)="l"),"e2",""))))))</f>
@@ -6933,30 +6939,30 @@
         <v>24</v>
       </c>
       <c r="F76" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="G76" s="64" t="s">
+        <v>211</v>
+      </c>
+      <c r="H76" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="G76" s="64" t="s">
-        <v>213</v>
-      </c>
-      <c r="H76" s="64" t="s">
-        <v>214</v>
-      </c>
       <c r="I76" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J76" s="66"/>
       <c r="K76" s="67"/>
       <c r="L76" s="65"/>
       <c r="M76" s="65"/>
       <c r="N76" s="64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O76" s="68"/>
       <c r="P76" s="69">
         <v>200000000</v>
       </c>
       <c r="Q76" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R76" s="131" t="str">
         <f>IF(AND(C76="pv",D76='UNC - PV'!$Q$2,LEFT(E76,1)="u",'UNC - PV'!$O$2="vnđ",TH!P76&lt;&gt;""),"p",IF(AND(C76="pv",D76='UNC - PV'!$Q$2,LEFT(E76,1)="u",'UNC - PV'!$O$2="usd",TH!O76&lt;&gt;""),"p1",IF(AND(C76="pv",D76='LC - PV'!$P$2,LEFT(E76,1)="l"),"p2",IF(AND(LEFT(C76,3)="EIB",D76='UNC - EIB'!$T$2,LEFT(E76,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P76&lt;&gt;""),"e",IF(AND(LEFT(C76,3)="EIB",D76='UNC - EIB'!$T$2,LEFT(E76,1)="U",'UNC - EIB'!$R$2="usd",TH!O76&lt;&gt;""),"e1",IF(AND(LEFT(C76,3)="EIB",D76='LC - EIB'!$S$2,LEFT(E76,1)="l"),"e2",""))))))</f>
@@ -6982,13 +6988,13 @@
         <v>25</v>
       </c>
       <c r="F77" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="G77" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="H77" s="64" t="s">
         <v>291</v>
-      </c>
-      <c r="G77" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="H77" s="64" t="s">
-        <v>293</v>
       </c>
       <c r="I77" s="105" t="s">
         <v>10</v>
@@ -6998,14 +7004,14 @@
       <c r="L77" s="65"/>
       <c r="M77" s="65"/>
       <c r="N77" s="64" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" s="68"/>
       <c r="P77" s="69">
         <v>200000000</v>
       </c>
       <c r="Q77" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R77" s="131" t="str">
         <f>IF(AND(C77="pv",D77='UNC - PV'!$Q$2,LEFT(E77,1)="u",'UNC - PV'!$O$2="vnđ",TH!P77&lt;&gt;""),"p",IF(AND(C77="pv",D77='UNC - PV'!$Q$2,LEFT(E77,1)="u",'UNC - PV'!$O$2="usd",TH!O77&lt;&gt;""),"p1",IF(AND(C77="pv",D77='LC - PV'!$P$2,LEFT(E77,1)="l"),"p2",IF(AND(LEFT(C77,3)="EIB",D77='UNC - EIB'!$T$2,LEFT(E77,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P77&lt;&gt;""),"e",IF(AND(LEFT(C77,3)="EIB",D77='UNC - EIB'!$T$2,LEFT(E77,1)="U",'UNC - EIB'!$R$2="usd",TH!O77&lt;&gt;""),"e1",IF(AND(LEFT(C77,3)="EIB",D77='LC - EIB'!$S$2,LEFT(E77,1)="l"),"e2",""))))))</f>
@@ -7031,13 +7037,13 @@
         <v>26</v>
       </c>
       <c r="F78" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="G78" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="H78" s="64" t="s">
         <v>294</v>
-      </c>
-      <c r="G78" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="H78" s="64" t="s">
-        <v>296</v>
       </c>
       <c r="I78" s="105" t="s">
         <v>10</v>
@@ -7047,14 +7053,14 @@
       <c r="L78" s="65"/>
       <c r="M78" s="65"/>
       <c r="N78" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O78" s="68"/>
       <c r="P78" s="69">
         <v>199632000</v>
       </c>
       <c r="Q78" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R78" s="131" t="str">
         <f>IF(AND(C78="pv",D78='UNC - PV'!$Q$2,LEFT(E78,1)="u",'UNC - PV'!$O$2="vnđ",TH!P78&lt;&gt;""),"p",IF(AND(C78="pv",D78='UNC - PV'!$Q$2,LEFT(E78,1)="u",'UNC - PV'!$O$2="usd",TH!O78&lt;&gt;""),"p1",IF(AND(C78="pv",D78='LC - PV'!$P$2,LEFT(E78,1)="l"),"p2",IF(AND(LEFT(C78,3)="EIB",D78='UNC - EIB'!$T$2,LEFT(E78,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P78&lt;&gt;""),"e",IF(AND(LEFT(C78,3)="EIB",D78='UNC - EIB'!$T$2,LEFT(E78,1)="U",'UNC - EIB'!$R$2="usd",TH!O78&lt;&gt;""),"e1",IF(AND(LEFT(C78,3)="EIB",D78='LC - EIB'!$S$2,LEFT(E78,1)="l"),"e2",""))))))</f>
@@ -7080,13 +7086,13 @@
         <v>84</v>
       </c>
       <c r="F79" s="64" t="s">
+        <v>296</v>
+      </c>
+      <c r="G79" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="H79" s="64" t="s">
         <v>298</v>
-      </c>
-      <c r="G79" s="64" t="s">
-        <v>299</v>
-      </c>
-      <c r="H79" s="64" t="s">
-        <v>300</v>
       </c>
       <c r="I79" s="105" t="s">
         <v>10</v>
@@ -7096,14 +7102,14 @@
       <c r="L79" s="65"/>
       <c r="M79" s="65"/>
       <c r="N79" s="64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O79" s="68"/>
       <c r="P79" s="69">
         <v>94100000</v>
       </c>
       <c r="Q79" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R79" s="131" t="str">
         <f>IF(AND(C79="pv",D79='UNC - PV'!$Q$2,LEFT(E79,1)="u",'UNC - PV'!$O$2="vnđ",TH!P79&lt;&gt;""),"p",IF(AND(C79="pv",D79='UNC - PV'!$Q$2,LEFT(E79,1)="u",'UNC - PV'!$O$2="usd",TH!O79&lt;&gt;""),"p1",IF(AND(C79="pv",D79='LC - PV'!$P$2,LEFT(E79,1)="l"),"p2",IF(AND(LEFT(C79,3)="EIB",D79='UNC - EIB'!$T$2,LEFT(E79,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P79&lt;&gt;""),"e",IF(AND(LEFT(C79,3)="EIB",D79='UNC - EIB'!$T$2,LEFT(E79,1)="U",'UNC - EIB'!$R$2="usd",TH!O79&lt;&gt;""),"e1",IF(AND(LEFT(C79,3)="EIB",D79='LC - EIB'!$S$2,LEFT(E79,1)="l"),"e2",""))))))</f>
@@ -7129,30 +7135,30 @@
         <v>85</v>
       </c>
       <c r="F80" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="G80" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="H80" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="G80" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="H80" s="64" t="s">
-        <v>304</v>
-      </c>
       <c r="I80" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J80" s="66"/>
       <c r="K80" s="67"/>
       <c r="L80" s="65"/>
       <c r="M80" s="65"/>
       <c r="N80" s="64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O80" s="68"/>
       <c r="P80" s="69">
         <v>25850000</v>
       </c>
       <c r="Q80" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R80" s="131" t="str">
         <f>IF(AND(C80="pv",D80='UNC - PV'!$Q$2,LEFT(E80,1)="u",'UNC - PV'!$O$2="vnđ",TH!P80&lt;&gt;""),"p",IF(AND(C80="pv",D80='UNC - PV'!$Q$2,LEFT(E80,1)="u",'UNC - PV'!$O$2="usd",TH!O80&lt;&gt;""),"p1",IF(AND(C80="pv",D80='LC - PV'!$P$2,LEFT(E80,1)="l"),"p2",IF(AND(LEFT(C80,3)="EIB",D80='UNC - EIB'!$T$2,LEFT(E80,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P80&lt;&gt;""),"e",IF(AND(LEFT(C80,3)="EIB",D80='UNC - EIB'!$T$2,LEFT(E80,1)="U",'UNC - EIB'!$R$2="usd",TH!O80&lt;&gt;""),"e1",IF(AND(LEFT(C80,3)="EIB",D80='LC - EIB'!$S$2,LEFT(E80,1)="l"),"e2",""))))))</f>
@@ -7175,40 +7181,40 @@
         <v>42650</v>
       </c>
       <c r="E81" s="122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F81" s="64" t="s">
-        <v>306</v>
-      </c>
-      <c r="G81" s="64" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="G81" s="71" t="s">
+        <v>419</v>
       </c>
       <c r="H81" s="64" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I81" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J81" s="66"/>
       <c r="K81" s="67"/>
       <c r="L81" s="65"/>
       <c r="M81" s="65"/>
       <c r="N81" s="64" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O81" s="68"/>
       <c r="P81" s="69">
         <v>100000000</v>
       </c>
       <c r="Q81" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R81" s="131" t="str">
         <f>IF(AND(C81="pv",D81='UNC - PV'!$Q$2,LEFT(E81,1)="u",'UNC - PV'!$O$2="vnđ",TH!P81&lt;&gt;""),"p",IF(AND(C81="pv",D81='UNC - PV'!$Q$2,LEFT(E81,1)="u",'UNC - PV'!$O$2="usd",TH!O81&lt;&gt;""),"p1",IF(AND(C81="pv",D81='LC - PV'!$P$2,LEFT(E81,1)="l"),"p2",IF(AND(LEFT(C81,3)="EIB",D81='UNC - EIB'!$T$2,LEFT(E81,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P81&lt;&gt;""),"e",IF(AND(LEFT(C81,3)="EIB",D81='UNC - EIB'!$T$2,LEFT(E81,1)="U",'UNC - EIB'!$R$2="usd",TH!O81&lt;&gt;""),"e1",IF(AND(LEFT(C81,3)="EIB",D81='LC - EIB'!$S$2,LEFT(E81,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7250,7 +7256,7 @@
       </c>
       <c r="P82" s="69"/>
       <c r="Q82" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R82" s="131" t="str">
         <f>IF(AND(C82="pv",D82='UNC - PV'!$Q$2,LEFT(E82,1)="u",'UNC - PV'!$O$2="vnđ",TH!P82&lt;&gt;""),"p",IF(AND(C82="pv",D82='UNC - PV'!$Q$2,LEFT(E82,1)="u",'UNC - PV'!$O$2="usd",TH!O82&lt;&gt;""),"p1",IF(AND(C82="pv",D82='LC - PV'!$P$2,LEFT(E82,1)="l"),"p2",IF(AND(LEFT(C82,3)="EIB",D82='UNC - EIB'!$T$2,LEFT(E82,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P82&lt;&gt;""),"e",IF(AND(LEFT(C82,3)="EIB",D82='UNC - EIB'!$T$2,LEFT(E82,1)="U",'UNC - EIB'!$R$2="usd",TH!O82&lt;&gt;""),"e1",IF(AND(LEFT(C82,3)="EIB",D82='LC - EIB'!$S$2,LEFT(E82,1)="l"),"e2",""))))))</f>
@@ -7276,37 +7282,37 @@
         <v>23</v>
       </c>
       <c r="F83" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="G83" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="H83" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="G83" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="H83" s="64" t="s">
-        <v>304</v>
-      </c>
       <c r="I83" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J83" s="66"/>
       <c r="K83" s="67"/>
       <c r="L83" s="65"/>
       <c r="M83" s="65"/>
       <c r="N83" s="64" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O83" s="68"/>
       <c r="P83" s="69">
         <v>49232000</v>
       </c>
       <c r="Q83" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R83" s="131" t="str">
         <f>IF(AND(C83="pv",D83='UNC - PV'!$Q$2,LEFT(E83,1)="u",'UNC - PV'!$O$2="vnđ",TH!P83&lt;&gt;""),"p",IF(AND(C83="pv",D83='UNC - PV'!$Q$2,LEFT(E83,1)="u",'UNC - PV'!$O$2="usd",TH!O83&lt;&gt;""),"p1",IF(AND(C83="pv",D83='LC - PV'!$P$2,LEFT(E83,1)="l"),"p2",IF(AND(LEFT(C83,3)="EIB",D83='UNC - EIB'!$T$2,LEFT(E83,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P83&lt;&gt;""),"e",IF(AND(LEFT(C83,3)="EIB",D83='UNC - EIB'!$T$2,LEFT(E83,1)="U",'UNC - EIB'!$R$2="usd",TH!O83&lt;&gt;""),"e1",IF(AND(LEFT(C83,3)="EIB",D83='LC - EIB'!$S$2,LEFT(E83,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="84" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A84" s="55" t="str">
         <f>IF(AND(C84="pv",E84='UNC - PV'!$S$2,D84='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C84,3)="eib",E84='UNC - EIB'!$V$2,D84='UNC - EIB'!$T$2),"x1",IF(AND(C84="pv",E84='LC - PV'!$R$2,D84='LC - PV'!$P$2),"x2",IF(AND(LEFT(C84,3)="eib",E84='LC - EIB'!$U$2,D84='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7316,7 +7322,7 @@
         <v>81</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D84" s="67">
         <v>42653</v>
@@ -7341,21 +7347,21 @@
       <c r="L84" s="65"/>
       <c r="M84" s="65"/>
       <c r="N84" s="64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O84" s="68"/>
       <c r="P84" s="69">
         <v>21023640</v>
       </c>
       <c r="Q84" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R84" s="131" t="str">
         <f>IF(AND(C84="pv",D84='UNC - PV'!$Q$2,LEFT(E84,1)="u",'UNC - PV'!$O$2="vnđ",TH!P84&lt;&gt;""),"p",IF(AND(C84="pv",D84='UNC - PV'!$Q$2,LEFT(E84,1)="u",'UNC - PV'!$O$2="usd",TH!O84&lt;&gt;""),"p1",IF(AND(C84="pv",D84='LC - PV'!$P$2,LEFT(E84,1)="l"),"p2",IF(AND(LEFT(C84,3)="EIB",D84='UNC - EIB'!$T$2,LEFT(E84,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P84&lt;&gt;""),"e",IF(AND(LEFT(C84,3)="EIB",D84='UNC - EIB'!$T$2,LEFT(E84,1)="U",'UNC - EIB'!$R$2="usd",TH!O84&lt;&gt;""),"e1",IF(AND(LEFT(C84,3)="EIB",D84='LC - EIB'!$S$2,LEFT(E84,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="85" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A85" s="55" t="str">
         <f>IF(AND(C85="pv",E85='UNC - PV'!$S$2,D85='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C85,3)="eib",E85='UNC - EIB'!$V$2,D85='UNC - EIB'!$T$2),"x1",IF(AND(C85="pv",E85='LC - PV'!$R$2,D85='LC - PV'!$P$2),"x2",IF(AND(LEFT(C85,3)="eib",E85='LC - EIB'!$U$2,D85='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7365,7 +7371,7 @@
         <v>82</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D85" s="67">
         <v>42662</v>
@@ -7390,21 +7396,21 @@
       <c r="L85" s="62"/>
       <c r="M85" s="62"/>
       <c r="N85" s="70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O85" s="68"/>
       <c r="P85" s="69">
         <v>16302356</v>
       </c>
       <c r="Q85" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R85" s="131" t="str">
         <f>IF(AND(C85="pv",D85='UNC - PV'!$Q$2,LEFT(E85,1)="u",'UNC - PV'!$O$2="vnđ",TH!P85&lt;&gt;""),"p",IF(AND(C85="pv",D85='UNC - PV'!$Q$2,LEFT(E85,1)="u",'UNC - PV'!$O$2="usd",TH!O85&lt;&gt;""),"p1",IF(AND(C85="pv",D85='LC - PV'!$P$2,LEFT(E85,1)="l"),"p2",IF(AND(LEFT(C85,3)="EIB",D85='UNC - EIB'!$T$2,LEFT(E85,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P85&lt;&gt;""),"e",IF(AND(LEFT(C85,3)="EIB",D85='UNC - EIB'!$T$2,LEFT(E85,1)="U",'UNC - EIB'!$R$2="usd",TH!O85&lt;&gt;""),"e1",IF(AND(LEFT(C85,3)="EIB",D85='LC - EIB'!$S$2,LEFT(E85,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="86" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A86" s="55" t="str">
         <f>IF(AND(C86="pv",E86='UNC - PV'!$S$2,D86='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C86,3)="eib",E86='UNC - EIB'!$V$2,D86='UNC - EIB'!$T$2),"x1",IF(AND(C86="pv",E86='LC - PV'!$R$2,D86='LC - PV'!$P$2),"x2",IF(AND(LEFT(C86,3)="eib",E86='LC - EIB'!$U$2,D86='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7414,7 +7420,7 @@
         <v>83</v>
       </c>
       <c r="C86" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" s="67">
         <v>42662</v>
@@ -7439,21 +7445,21 @@
       <c r="L86" s="65"/>
       <c r="M86" s="65"/>
       <c r="N86" s="64" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O86" s="68"/>
       <c r="P86" s="69">
         <v>20797260</v>
       </c>
       <c r="Q86" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R86" s="131" t="str">
         <f>IF(AND(C86="pv",D86='UNC - PV'!$Q$2,LEFT(E86,1)="u",'UNC - PV'!$O$2="vnđ",TH!P86&lt;&gt;""),"p",IF(AND(C86="pv",D86='UNC - PV'!$Q$2,LEFT(E86,1)="u",'UNC - PV'!$O$2="usd",TH!O86&lt;&gt;""),"p1",IF(AND(C86="pv",D86='LC - PV'!$P$2,LEFT(E86,1)="l"),"p2",IF(AND(LEFT(C86,3)="EIB",D86='UNC - EIB'!$T$2,LEFT(E86,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P86&lt;&gt;""),"e",IF(AND(LEFT(C86,3)="EIB",D86='UNC - EIB'!$T$2,LEFT(E86,1)="U",'UNC - EIB'!$R$2="usd",TH!O86&lt;&gt;""),"e1",IF(AND(LEFT(C86,3)="EIB",D86='LC - EIB'!$S$2,LEFT(E86,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="87" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A87" s="55" t="str">
         <f>IF(AND(C87="pv",E87='UNC - PV'!$S$2,D87='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C87,3)="eib",E87='UNC - EIB'!$V$2,D87='UNC - EIB'!$T$2),"x1",IF(AND(C87="pv",E87='LC - PV'!$R$2,D87='LC - PV'!$P$2),"x2",IF(AND(LEFT(C87,3)="eib",E87='LC - EIB'!$U$2,D87='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7463,7 +7469,7 @@
         <v>84</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="67">
         <v>42662</v>
@@ -7472,13 +7478,13 @@
         <v>25</v>
       </c>
       <c r="F87" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G87" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G87" s="71" t="s">
+      <c r="H87" s="64" t="s">
         <v>175</v>
-      </c>
-      <c r="H87" s="64" t="s">
-        <v>176</v>
       </c>
       <c r="I87" s="105" t="s">
         <v>10</v>
@@ -7488,21 +7494,21 @@
       <c r="L87" s="65"/>
       <c r="M87" s="65"/>
       <c r="N87" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O87" s="68"/>
       <c r="P87" s="69">
         <v>100000000</v>
       </c>
       <c r="Q87" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R87" s="131" t="str">
         <f>IF(AND(C87="pv",D87='UNC - PV'!$Q$2,LEFT(E87,1)="u",'UNC - PV'!$O$2="vnđ",TH!P87&lt;&gt;""),"p",IF(AND(C87="pv",D87='UNC - PV'!$Q$2,LEFT(E87,1)="u",'UNC - PV'!$O$2="usd",TH!O87&lt;&gt;""),"p1",IF(AND(C87="pv",D87='LC - PV'!$P$2,LEFT(E87,1)="l"),"p2",IF(AND(LEFT(C87,3)="EIB",D87='UNC - EIB'!$T$2,LEFT(E87,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P87&lt;&gt;""),"e",IF(AND(LEFT(C87,3)="EIB",D87='UNC - EIB'!$T$2,LEFT(E87,1)="U",'UNC - EIB'!$R$2="usd",TH!O87&lt;&gt;""),"e1",IF(AND(LEFT(C87,3)="EIB",D87='LC - EIB'!$S$2,LEFT(E87,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="88" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A88" s="55" t="str">
         <f>IF(AND(C88="pv",E88='UNC - PV'!$S$2,D88='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C88,3)="eib",E88='UNC - EIB'!$V$2,D88='UNC - EIB'!$T$2),"x1",IF(AND(C88="pv",E88='LC - PV'!$R$2,D88='LC - PV'!$P$2),"x2",IF(AND(LEFT(C88,3)="eib",E88='LC - EIB'!$U$2,D88='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7512,7 +7518,7 @@
         <v>85</v>
       </c>
       <c r="C88" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D88" s="67">
         <v>42662</v>
@@ -7544,7 +7550,7 @@
         <v>42930000</v>
       </c>
       <c r="Q88" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R88" s="131" t="str">
         <f>IF(AND(C88="pv",D88='UNC - PV'!$Q$2,LEFT(E88,1)="u",'UNC - PV'!$O$2="vnđ",TH!P88&lt;&gt;""),"p",IF(AND(C88="pv",D88='UNC - PV'!$Q$2,LEFT(E88,1)="u",'UNC - PV'!$O$2="usd",TH!O88&lt;&gt;""),"p1",IF(AND(C88="pv",D88='LC - PV'!$P$2,LEFT(E88,1)="l"),"p2",IF(AND(LEFT(C88,3)="EIB",D88='UNC - EIB'!$T$2,LEFT(E88,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P88&lt;&gt;""),"e",IF(AND(LEFT(C88,3)="EIB",D88='UNC - EIB'!$T$2,LEFT(E88,1)="U",'UNC - EIB'!$R$2="usd",TH!O88&lt;&gt;""),"e1",IF(AND(LEFT(C88,3)="EIB",D88='LC - EIB'!$S$2,LEFT(E88,1)="l"),"e2",""))))))</f>
@@ -7570,13 +7576,13 @@
         <v>23</v>
       </c>
       <c r="F89" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G89" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="H89" s="64" t="s">
         <v>313</v>
-      </c>
-      <c r="G89" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="H89" s="64" t="s">
-        <v>316</v>
       </c>
       <c r="I89" s="105" t="s">
         <v>10</v>
@@ -7586,21 +7592,21 @@
       <c r="L89" s="65"/>
       <c r="M89" s="65"/>
       <c r="N89" s="64" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O89" s="68"/>
       <c r="P89" s="69">
         <v>42930000</v>
       </c>
       <c r="Q89" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R89" s="131" t="str">
         <f>IF(AND(C89="pv",D89='UNC - PV'!$Q$2,LEFT(E89,1)="u",'UNC - PV'!$O$2="vnđ",TH!P89&lt;&gt;""),"p",IF(AND(C89="pv",D89='UNC - PV'!$Q$2,LEFT(E89,1)="u",'UNC - PV'!$O$2="usd",TH!O89&lt;&gt;""),"p1",IF(AND(C89="pv",D89='LC - PV'!$P$2,LEFT(E89,1)="l"),"p2",IF(AND(LEFT(C89,3)="EIB",D89='UNC - EIB'!$T$2,LEFT(E89,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P89&lt;&gt;""),"e",IF(AND(LEFT(C89,3)="EIB",D89='UNC - EIB'!$T$2,LEFT(E89,1)="U",'UNC - EIB'!$R$2="usd",TH!O89&lt;&gt;""),"e1",IF(AND(LEFT(C89,3)="EIB",D89='LC - EIB'!$S$2,LEFT(E89,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7642,14 +7648,14 @@
       </c>
       <c r="P90" s="69"/>
       <c r="Q90" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R90" s="131" t="str">
         <f>IF(AND(C90="pv",D90='UNC - PV'!$Q$2,LEFT(E90,1)="u",'UNC - PV'!$O$2="vnđ",TH!P90&lt;&gt;""),"p",IF(AND(C90="pv",D90='UNC - PV'!$Q$2,LEFT(E90,1)="u",'UNC - PV'!$O$2="usd",TH!O90&lt;&gt;""),"p1",IF(AND(C90="pv",D90='LC - PV'!$P$2,LEFT(E90,1)="l"),"p2",IF(AND(LEFT(C90,3)="EIB",D90='UNC - EIB'!$T$2,LEFT(E90,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P90&lt;&gt;""),"e",IF(AND(LEFT(C90,3)="EIB",D90='UNC - EIB'!$T$2,LEFT(E90,1)="U",'UNC - EIB'!$R$2="usd",TH!O90&lt;&gt;""),"e1",IF(AND(LEFT(C90,3)="EIB",D90='LC - EIB'!$S$2,LEFT(E90,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7668,13 +7674,13 @@
         <v>24</v>
       </c>
       <c r="F91" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91" s="64" t="s">
         <v>216</v>
-      </c>
-      <c r="G91" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="H91" s="64" t="s">
-        <v>218</v>
       </c>
       <c r="I91" s="62" t="s">
         <v>10</v>
@@ -7684,21 +7690,21 @@
       <c r="L91" s="65"/>
       <c r="M91" s="65"/>
       <c r="N91" s="64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O91" s="68"/>
       <c r="P91" s="69">
         <v>19200000</v>
       </c>
       <c r="Q91" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R91" s="131" t="str">
         <f>IF(AND(C91="pv",D91='UNC - PV'!$Q$2,LEFT(E91,1)="u",'UNC - PV'!$O$2="vnđ",TH!P91&lt;&gt;""),"p",IF(AND(C91="pv",D91='UNC - PV'!$Q$2,LEFT(E91,1)="u",'UNC - PV'!$O$2="usd",TH!O91&lt;&gt;""),"p1",IF(AND(C91="pv",D91='LC - PV'!$P$2,LEFT(E91,1)="l"),"p2",IF(AND(LEFT(C91,3)="EIB",D91='UNC - EIB'!$T$2,LEFT(E91,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P91&lt;&gt;""),"e",IF(AND(LEFT(C91,3)="EIB",D91='UNC - EIB'!$T$2,LEFT(E91,1)="U",'UNC - EIB'!$R$2="usd",TH!O91&lt;&gt;""),"e1",IF(AND(LEFT(C91,3)="EIB",D91='LC - EIB'!$S$2,LEFT(E91,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A92" s="55" t="str">
         <f>IF(AND(C92="pv",E92='UNC - PV'!$S$2,D92='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C92,3)="eib",E92='UNC - EIB'!$V$2,D92='UNC - EIB'!$T$2),"x1",IF(AND(C92="pv",E92='LC - PV'!$R$2,D92='LC - PV'!$P$2),"x2",IF(AND(LEFT(C92,3)="eib",E92='LC - EIB'!$U$2,D92='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7717,13 +7723,13 @@
         <v>25</v>
       </c>
       <c r="F92" s="64" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G92" s="64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H92" s="64" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I92" s="62" t="s">
         <v>10</v>
@@ -7733,21 +7739,21 @@
       <c r="L92" s="65"/>
       <c r="M92" s="65"/>
       <c r="N92" s="64" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O92" s="68"/>
       <c r="P92" s="69">
         <v>10803694</v>
       </c>
       <c r="Q92" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R92" s="131" t="str">
         <f>IF(AND(C92="pv",D92='UNC - PV'!$Q$2,LEFT(E92,1)="u",'UNC - PV'!$O$2="vnđ",TH!P92&lt;&gt;""),"p",IF(AND(C92="pv",D92='UNC - PV'!$Q$2,LEFT(E92,1)="u",'UNC - PV'!$O$2="usd",TH!O92&lt;&gt;""),"p1",IF(AND(C92="pv",D92='LC - PV'!$P$2,LEFT(E92,1)="l"),"p2",IF(AND(LEFT(C92,3)="EIB",D92='UNC - EIB'!$T$2,LEFT(E92,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P92&lt;&gt;""),"e",IF(AND(LEFT(C92,3)="EIB",D92='UNC - EIB'!$T$2,LEFT(E92,1)="U",'UNC - EIB'!$R$2="usd",TH!O92&lt;&gt;""),"e1",IF(AND(LEFT(C92,3)="EIB",D92='LC - EIB'!$S$2,LEFT(E92,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7782,21 +7788,21 @@
       <c r="L93" s="65"/>
       <c r="M93" s="65"/>
       <c r="N93" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O93" s="68"/>
       <c r="P93" s="69">
         <v>9000000</v>
       </c>
       <c r="Q93" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R93" s="131" t="str">
         <f>IF(AND(C93="pv",D93='UNC - PV'!$Q$2,LEFT(E93,1)="u",'UNC - PV'!$O$2="vnđ",TH!P93&lt;&gt;""),"p",IF(AND(C93="pv",D93='UNC - PV'!$Q$2,LEFT(E93,1)="u",'UNC - PV'!$O$2="usd",TH!O93&lt;&gt;""),"p1",IF(AND(C93="pv",D93='LC - PV'!$P$2,LEFT(E93,1)="l"),"p2",IF(AND(LEFT(C93,3)="EIB",D93='UNC - EIB'!$T$2,LEFT(E93,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P93&lt;&gt;""),"e",IF(AND(LEFT(C93,3)="EIB",D93='UNC - EIB'!$T$2,LEFT(E93,1)="U",'UNC - EIB'!$R$2="usd",TH!O93&lt;&gt;""),"e1",IF(AND(LEFT(C93,3)="EIB",D93='LC - EIB'!$S$2,LEFT(E93,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7838,7 +7844,7 @@
         <v>25000000</v>
       </c>
       <c r="Q94" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R94" s="131" t="str">
         <f>IF(AND(C94="pv",D94='UNC - PV'!$Q$2,LEFT(E94,1)="u",'UNC - PV'!$O$2="vnđ",TH!P94&lt;&gt;""),"p",IF(AND(C94="pv",D94='UNC - PV'!$Q$2,LEFT(E94,1)="u",'UNC - PV'!$O$2="usd",TH!O94&lt;&gt;""),"p1",IF(AND(C94="pv",D94='LC - PV'!$P$2,LEFT(E94,1)="l"),"p2",IF(AND(LEFT(C94,3)="EIB",D94='UNC - EIB'!$T$2,LEFT(E94,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P94&lt;&gt;""),"e",IF(AND(LEFT(C94,3)="EIB",D94='UNC - EIB'!$T$2,LEFT(E94,1)="U",'UNC - EIB'!$R$2="usd",TH!O94&lt;&gt;""),"e1",IF(AND(LEFT(C94,3)="EIB",D94='LC - EIB'!$S$2,LEFT(E94,1)="l"),"e2",""))))))</f>
@@ -7864,23 +7870,23 @@
         <v>23</v>
       </c>
       <c r="F95" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G95" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="H95" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="G95" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H95" s="64" t="s">
-        <v>168</v>
-      </c>
       <c r="I95" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J95" s="66"/>
       <c r="K95" s="67"/>
       <c r="L95" s="65"/>
       <c r="M95" s="65"/>
       <c r="N95" s="115" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O95" s="68"/>
       <c r="P95" s="69">
@@ -7888,14 +7894,14 @@
         <v>80253910</v>
       </c>
       <c r="Q95" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R95" s="131" t="str">
         <f>IF(AND(C95="pv",D95='UNC - PV'!$Q$2,LEFT(E95,1)="u",'UNC - PV'!$O$2="vnđ",TH!P95&lt;&gt;""),"p",IF(AND(C95="pv",D95='UNC - PV'!$Q$2,LEFT(E95,1)="u",'UNC - PV'!$O$2="usd",TH!O95&lt;&gt;""),"p1",IF(AND(C95="pv",D95='LC - PV'!$P$2,LEFT(E95,1)="l"),"p2",IF(AND(LEFT(C95,3)="EIB",D95='UNC - EIB'!$T$2,LEFT(E95,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P95&lt;&gt;""),"e",IF(AND(LEFT(C95,3)="EIB",D95='UNC - EIB'!$T$2,LEFT(E95,1)="U",'UNC - EIB'!$R$2="usd",TH!O95&lt;&gt;""),"e1",IF(AND(LEFT(C95,3)="EIB",D95='LC - EIB'!$S$2,LEFT(E95,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="96" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A96" s="55" t="str">
         <f>IF(AND(C96="pv",E96='UNC - PV'!$S$2,D96='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C96,3)="eib",E96='UNC - EIB'!$V$2,D96='UNC - EIB'!$T$2),"x1",IF(AND(C96="pv",E96='LC - PV'!$R$2,D96='LC - PV'!$P$2),"x2",IF(AND(LEFT(C96,3)="eib",E96='LC - EIB'!$U$2,D96='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7905,7 +7911,7 @@
         <v>93</v>
       </c>
       <c r="C96" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" s="67">
         <v>42675</v>
@@ -7930,21 +7936,21 @@
       <c r="L96" s="65"/>
       <c r="M96" s="65"/>
       <c r="N96" s="64" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O96" s="68"/>
       <c r="P96" s="69">
         <v>24338820</v>
       </c>
       <c r="Q96" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R96" s="131" t="str">
         <f>IF(AND(C96="pv",D96='UNC - PV'!$Q$2,LEFT(E96,1)="u",'UNC - PV'!$O$2="vnđ",TH!P96&lt;&gt;""),"p",IF(AND(C96="pv",D96='UNC - PV'!$Q$2,LEFT(E96,1)="u",'UNC - PV'!$O$2="usd",TH!O96&lt;&gt;""),"p1",IF(AND(C96="pv",D96='LC - PV'!$P$2,LEFT(E96,1)="l"),"p2",IF(AND(LEFT(C96,3)="EIB",D96='UNC - EIB'!$T$2,LEFT(E96,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P96&lt;&gt;""),"e",IF(AND(LEFT(C96,3)="EIB",D96='UNC - EIB'!$T$2,LEFT(E96,1)="U",'UNC - EIB'!$R$2="usd",TH!O96&lt;&gt;""),"e1",IF(AND(LEFT(C96,3)="EIB",D96='LC - EIB'!$S$2,LEFT(E96,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="97" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A97" s="55" t="str">
         <f>IF(AND(C97="pv",E97='UNC - PV'!$S$2,D97='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C97,3)="eib",E97='UNC - EIB'!$V$2,D97='UNC - EIB'!$T$2),"x1",IF(AND(C97="pv",E97='LC - PV'!$R$2,D97='LC - PV'!$P$2),"x2",IF(AND(LEFT(C97,3)="eib",E97='LC - EIB'!$U$2,D97='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7954,7 +7960,7 @@
         <v>94</v>
       </c>
       <c r="C97" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D97" s="67">
         <v>42675</v>
@@ -7966,10 +7972,10 @@
         <v>132</v>
       </c>
       <c r="G97" s="107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H97" s="107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I97" s="105" t="s">
         <v>10</v>
@@ -7979,21 +7985,21 @@
       <c r="L97" s="65"/>
       <c r="M97" s="65"/>
       <c r="N97" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O97" s="68">
         <v>87500</v>
       </c>
       <c r="P97" s="69"/>
       <c r="Q97" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R97" s="131" t="str">
         <f>IF(AND(C97="pv",D97='UNC - PV'!$Q$2,LEFT(E97,1)="u",'UNC - PV'!$O$2="vnđ",TH!P97&lt;&gt;""),"p",IF(AND(C97="pv",D97='UNC - PV'!$Q$2,LEFT(E97,1)="u",'UNC - PV'!$O$2="usd",TH!O97&lt;&gt;""),"p1",IF(AND(C97="pv",D97='LC - PV'!$P$2,LEFT(E97,1)="l"),"p2",IF(AND(LEFT(C97,3)="EIB",D97='UNC - EIB'!$T$2,LEFT(E97,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P97&lt;&gt;""),"e",IF(AND(LEFT(C97,3)="EIB",D97='UNC - EIB'!$T$2,LEFT(E97,1)="U",'UNC - EIB'!$R$2="usd",TH!O97&lt;&gt;""),"e1",IF(AND(LEFT(C97,3)="EIB",D97='LC - EIB'!$S$2,LEFT(E97,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A98" s="55" t="str">
         <f>IF(AND(C98="pv",E98='UNC - PV'!$S$2,D98='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C98,3)="eib",E98='UNC - EIB'!$V$2,D98='UNC - EIB'!$T$2),"x1",IF(AND(C98="pv",E98='LC - PV'!$R$2,D98='LC - PV'!$P$2),"x2",IF(AND(LEFT(C98,3)="eib",E98='LC - EIB'!$U$2,D98='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8015,10 +8021,10 @@
         <v>132</v>
       </c>
       <c r="G98" s="64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H98" s="64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I98" s="65" t="s">
         <v>10</v>
@@ -8035,14 +8041,14 @@
       </c>
       <c r="P98" s="69"/>
       <c r="Q98" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R98" s="131" t="str">
         <f>IF(AND(C98="pv",D98='UNC - PV'!$Q$2,LEFT(E98,1)="u",'UNC - PV'!$O$2="vnđ",TH!P98&lt;&gt;""),"p",IF(AND(C98="pv",D98='UNC - PV'!$Q$2,LEFT(E98,1)="u",'UNC - PV'!$O$2="usd",TH!O98&lt;&gt;""),"p1",IF(AND(C98="pv",D98='LC - PV'!$P$2,LEFT(E98,1)="l"),"p2",IF(AND(LEFT(C98,3)="EIB",D98='UNC - EIB'!$T$2,LEFT(E98,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P98&lt;&gt;""),"e",IF(AND(LEFT(C98,3)="EIB",D98='UNC - EIB'!$T$2,LEFT(E98,1)="U",'UNC - EIB'!$R$2="usd",TH!O98&lt;&gt;""),"e1",IF(AND(LEFT(C98,3)="EIB",D98='LC - EIB'!$S$2,LEFT(E98,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A99" s="55" t="str">
         <f>IF(AND(C99="pv",E99='UNC - PV'!$S$2,D99='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C99,3)="eib",E99='UNC - EIB'!$V$2,D99='UNC - EIB'!$T$2),"x1",IF(AND(C99="pv",E99='LC - PV'!$R$2,D99='LC - PV'!$P$2),"x2",IF(AND(LEFT(C99,3)="eib",E99='LC - EIB'!$U$2,D99='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8061,13 +8067,13 @@
         <v>23</v>
       </c>
       <c r="F99" s="125" t="s">
+        <v>285</v>
+      </c>
+      <c r="G99" s="125" t="s">
+        <v>286</v>
+      </c>
+      <c r="H99" s="125" t="s">
         <v>287</v>
-      </c>
-      <c r="G99" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="H99" s="125" t="s">
-        <v>289</v>
       </c>
       <c r="I99" s="122" t="s">
         <v>10</v>
@@ -8077,7 +8083,7 @@
       <c r="L99" s="124"/>
       <c r="M99" s="124"/>
       <c r="N99" s="125" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O99" s="127"/>
       <c r="P99" s="69">
@@ -8085,14 +8091,14 @@
         <v>102960000</v>
       </c>
       <c r="Q99" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R99" s="131" t="str">
         <f>IF(AND(C99="pv",D99='UNC - PV'!$Q$2,LEFT(E99,1)="u",'UNC - PV'!$O$2="vnđ",TH!P99&lt;&gt;""),"p",IF(AND(C99="pv",D99='UNC - PV'!$Q$2,LEFT(E99,1)="u",'UNC - PV'!$O$2="usd",TH!O99&lt;&gt;""),"p1",IF(AND(C99="pv",D99='LC - PV'!$P$2,LEFT(E99,1)="l"),"p2",IF(AND(LEFT(C99,3)="EIB",D99='UNC - EIB'!$T$2,LEFT(E99,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P99&lt;&gt;""),"e",IF(AND(LEFT(C99,3)="EIB",D99='UNC - EIB'!$T$2,LEFT(E99,1)="U",'UNC - EIB'!$R$2="usd",TH!O99&lt;&gt;""),"e1",IF(AND(LEFT(C99,3)="EIB",D99='LC - EIB'!$S$2,LEFT(E99,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8134,7 +8140,7 @@
         <v>38000000</v>
       </c>
       <c r="Q100" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R100" s="131" t="str">
         <f>IF(AND(C100="pv",D100='UNC - PV'!$Q$2,LEFT(E100,1)="u",'UNC - PV'!$O$2="vnđ",TH!P100&lt;&gt;""),"p",IF(AND(C100="pv",D100='UNC - PV'!$Q$2,LEFT(E100,1)="u",'UNC - PV'!$O$2="usd",TH!O100&lt;&gt;""),"p1",IF(AND(C100="pv",D100='LC - PV'!$P$2,LEFT(E100,1)="l"),"p2",IF(AND(LEFT(C100,3)="EIB",D100='UNC - EIB'!$T$2,LEFT(E100,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P100&lt;&gt;""),"e",IF(AND(LEFT(C100,3)="EIB",D100='UNC - EIB'!$T$2,LEFT(E100,1)="U",'UNC - EIB'!$R$2="usd",TH!O100&lt;&gt;""),"e1",IF(AND(LEFT(C100,3)="EIB",D100='LC - EIB'!$S$2,LEFT(E100,1)="l"),"e2",""))))))</f>
@@ -8160,30 +8166,30 @@
         <v>25</v>
       </c>
       <c r="F101" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="G101" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="H101" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="H101" s="64" t="s">
-        <v>229</v>
-      </c>
       <c r="I101" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J101" s="66"/>
       <c r="K101" s="67"/>
       <c r="L101" s="65"/>
       <c r="M101" s="65"/>
       <c r="N101" s="64" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O101" s="68"/>
       <c r="P101" s="69">
         <v>27760761</v>
       </c>
       <c r="Q101" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R101" s="131" t="str">
         <f>IF(AND(C101="pv",D101='UNC - PV'!$Q$2,LEFT(E101,1)="u",'UNC - PV'!$O$2="vnđ",TH!P101&lt;&gt;""),"p",IF(AND(C101="pv",D101='UNC - PV'!$Q$2,LEFT(E101,1)="u",'UNC - PV'!$O$2="usd",TH!O101&lt;&gt;""),"p1",IF(AND(C101="pv",D101='LC - PV'!$P$2,LEFT(E101,1)="l"),"p2",IF(AND(LEFT(C101,3)="EIB",D101='UNC - EIB'!$T$2,LEFT(E101,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P101&lt;&gt;""),"e",IF(AND(LEFT(C101,3)="EIB",D101='UNC - EIB'!$T$2,LEFT(E101,1)="U",'UNC - EIB'!$R$2="usd",TH!O101&lt;&gt;""),"e1",IF(AND(LEFT(C101,3)="EIB",D101='LC - EIB'!$S$2,LEFT(E101,1)="l"),"e2",""))))))</f>
@@ -8209,37 +8215,37 @@
         <v>26</v>
       </c>
       <c r="F102" s="64" t="s">
-        <v>324</v>
-      </c>
-      <c r="G102" s="64" t="s">
-        <v>325</v>
+        <v>321</v>
+      </c>
+      <c r="G102" s="71" t="s">
+        <v>422</v>
       </c>
       <c r="H102" s="64" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="I102" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J102" s="66"/>
       <c r="K102" s="67"/>
       <c r="L102" s="65"/>
       <c r="M102" s="65"/>
       <c r="N102" s="64" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="O102" s="68"/>
       <c r="P102" s="69">
         <v>10035666</v>
       </c>
       <c r="Q102" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R102" s="131" t="str">
         <f>IF(AND(C102="pv",D102='UNC - PV'!$Q$2,LEFT(E102,1)="u",'UNC - PV'!$O$2="vnđ",TH!P102&lt;&gt;""),"p",IF(AND(C102="pv",D102='UNC - PV'!$Q$2,LEFT(E102,1)="u",'UNC - PV'!$O$2="usd",TH!O102&lt;&gt;""),"p1",IF(AND(C102="pv",D102='LC - PV'!$P$2,LEFT(E102,1)="l"),"p2",IF(AND(LEFT(C102,3)="EIB",D102='UNC - EIB'!$T$2,LEFT(E102,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P102&lt;&gt;""),"e",IF(AND(LEFT(C102,3)="EIB",D102='UNC - EIB'!$T$2,LEFT(E102,1)="U",'UNC - EIB'!$R$2="usd",TH!O102&lt;&gt;""),"e1",IF(AND(LEFT(C102,3)="EIB",D102='LC - EIB'!$S$2,LEFT(E102,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8281,14 +8287,14 @@
         <v>100000000</v>
       </c>
       <c r="Q103" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R103" s="131" t="str">
         <f>IF(AND(C103="pv",D103='UNC - PV'!$Q$2,LEFT(E103,1)="u",'UNC - PV'!$O$2="vnđ",TH!P103&lt;&gt;""),"p",IF(AND(C103="pv",D103='UNC - PV'!$Q$2,LEFT(E103,1)="u",'UNC - PV'!$O$2="usd",TH!O103&lt;&gt;""),"p1",IF(AND(C103="pv",D103='LC - PV'!$P$2,LEFT(E103,1)="l"),"p2",IF(AND(LEFT(C103,3)="EIB",D103='UNC - EIB'!$T$2,LEFT(E103,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P103&lt;&gt;""),"e",IF(AND(LEFT(C103,3)="EIB",D103='UNC - EIB'!$T$2,LEFT(E103,1)="U",'UNC - EIB'!$R$2="usd",TH!O103&lt;&gt;""),"e1",IF(AND(LEFT(C103,3)="EIB",D103='LC - EIB'!$S$2,LEFT(E103,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="104" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A104" s="55" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8307,13 +8313,13 @@
         <v>85</v>
       </c>
       <c r="F104" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G104" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="H104" s="64" t="s">
         <v>190</v>
-      </c>
-      <c r="G104" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="H104" s="64" t="s">
-        <v>191</v>
       </c>
       <c r="I104" s="105" t="s">
         <v>10</v>
@@ -8323,21 +8329,21 @@
       <c r="L104" s="65"/>
       <c r="M104" s="65"/>
       <c r="N104" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O104" s="68"/>
       <c r="P104" s="69">
         <v>58750000</v>
       </c>
       <c r="Q104" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R104" s="131" t="str">
         <f>IF(AND(C104="pv",D104='UNC - PV'!$Q$2,LEFT(E104,1)="u",'UNC - PV'!$O$2="vnđ",TH!P104&lt;&gt;""),"p",IF(AND(C104="pv",D104='UNC - PV'!$Q$2,LEFT(E104,1)="u",'UNC - PV'!$O$2="usd",TH!O104&lt;&gt;""),"p1",IF(AND(C104="pv",D104='LC - PV'!$P$2,LEFT(E104,1)="l"),"p2",IF(AND(LEFT(C104,3)="EIB",D104='UNC - EIB'!$T$2,LEFT(E104,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P104&lt;&gt;""),"e",IF(AND(LEFT(C104,3)="EIB",D104='UNC - EIB'!$T$2,LEFT(E104,1)="U",'UNC - EIB'!$R$2="usd",TH!O104&lt;&gt;""),"e1",IF(AND(LEFT(C104,3)="EIB",D104='LC - EIB'!$S$2,LEFT(E104,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8353,40 +8359,40 @@
         <v>42676</v>
       </c>
       <c r="E105" s="122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F105" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="G105" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="H105" s="64" t="s">
         <v>277</v>
       </c>
-      <c r="G105" s="71" t="s">
-        <v>420</v>
-      </c>
-      <c r="H105" s="64" t="s">
-        <v>279</v>
-      </c>
       <c r="I105" s="65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J105" s="66"/>
       <c r="K105" s="67"/>
       <c r="L105" s="65"/>
       <c r="M105" s="65"/>
       <c r="N105" s="64" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O105" s="68"/>
       <c r="P105" s="69">
         <v>100000000</v>
       </c>
       <c r="Q105" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R105" s="131" t="str">
         <f>IF(AND(C105="pv",D105='UNC - PV'!$Q$2,LEFT(E105,1)="u",'UNC - PV'!$O$2="vnđ",TH!P105&lt;&gt;""),"p",IF(AND(C105="pv",D105='UNC - PV'!$Q$2,LEFT(E105,1)="u",'UNC - PV'!$O$2="usd",TH!O105&lt;&gt;""),"p1",IF(AND(C105="pv",D105='LC - PV'!$P$2,LEFT(E105,1)="l"),"p2",IF(AND(LEFT(C105,3)="EIB",D105='UNC - EIB'!$T$2,LEFT(E105,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P105&lt;&gt;""),"e",IF(AND(LEFT(C105,3)="EIB",D105='UNC - EIB'!$T$2,LEFT(E105,1)="U",'UNC - EIB'!$R$2="usd",TH!O105&lt;&gt;""),"e1",IF(AND(LEFT(C105,3)="EIB",D105='LC - EIB'!$S$2,LEFT(E105,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A106" s="55" t="str">
         <f>IF(AND(C106="pv",E106='UNC - PV'!$S$2,D106='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C106,3)="eib",E106='UNC - EIB'!$V$2,D106='UNC - EIB'!$T$2),"x1",IF(AND(C106="pv",E106='LC - PV'!$R$2,D106='LC - PV'!$P$2),"x2",IF(AND(LEFT(C106,3)="eib",E106='LC - EIB'!$U$2,D106='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8402,16 +8408,16 @@
         <v>42676</v>
       </c>
       <c r="E106" s="122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F106" s="64" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G106" s="64" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H106" s="64" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I106" s="105" t="s">
         <v>10</v>
@@ -8421,21 +8427,21 @@
       <c r="L106" s="65"/>
       <c r="M106" s="65"/>
       <c r="N106" s="64" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O106" s="68"/>
       <c r="P106" s="69">
         <v>29656000</v>
       </c>
       <c r="Q106" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R106" s="131" t="str">
         <f>IF(AND(C106="pv",D106='UNC - PV'!$Q$2,LEFT(E106,1)="u",'UNC - PV'!$O$2="vnđ",TH!P106&lt;&gt;""),"p",IF(AND(C106="pv",D106='UNC - PV'!$Q$2,LEFT(E106,1)="u",'UNC - PV'!$O$2="usd",TH!O106&lt;&gt;""),"p1",IF(AND(C106="pv",D106='LC - PV'!$P$2,LEFT(E106,1)="l"),"p2",IF(AND(LEFT(C106,3)="EIB",D106='UNC - EIB'!$T$2,LEFT(E106,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P106&lt;&gt;""),"e",IF(AND(LEFT(C106,3)="EIB",D106='UNC - EIB'!$T$2,LEFT(E106,1)="U",'UNC - EIB'!$R$2="usd",TH!O106&lt;&gt;""),"e1",IF(AND(LEFT(C106,3)="EIB",D106='LC - EIB'!$S$2,LEFT(E106,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="107" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A107" s="55" t="str">
         <f>IF(AND(C107="pv",E107='UNC - PV'!$S$2,D107='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C107,3)="eib",E107='UNC - EIB'!$V$2,D107='UNC - EIB'!$T$2),"x1",IF(AND(C107="pv",E107='LC - PV'!$R$2,D107='LC - PV'!$P$2),"x2",IF(AND(LEFT(C107,3)="eib",E107='LC - EIB'!$U$2,D107='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8445,7 +8451,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D107" s="67">
         <v>42689</v>
@@ -8457,10 +8463,10 @@
         <v>132</v>
       </c>
       <c r="G107" s="107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H107" s="107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I107" s="105" t="s">
         <v>10</v>
@@ -8470,21 +8476,21 @@
       <c r="L107" s="65"/>
       <c r="M107" s="65"/>
       <c r="N107" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O107" s="68">
         <v>4400</v>
       </c>
       <c r="P107" s="69"/>
       <c r="Q107" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R107" s="131" t="str">
         <f>IF(AND(C107="pv",D107='UNC - PV'!$Q$2,LEFT(E107,1)="u",'UNC - PV'!$O$2="vnđ",TH!P107&lt;&gt;""),"p",IF(AND(C107="pv",D107='UNC - PV'!$Q$2,LEFT(E107,1)="u",'UNC - PV'!$O$2="usd",TH!O107&lt;&gt;""),"p1",IF(AND(C107="pv",D107='LC - PV'!$P$2,LEFT(E107,1)="l"),"p2",IF(AND(LEFT(C107,3)="EIB",D107='UNC - EIB'!$T$2,LEFT(E107,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P107&lt;&gt;""),"e",IF(AND(LEFT(C107,3)="EIB",D107='UNC - EIB'!$T$2,LEFT(E107,1)="U",'UNC - EIB'!$R$2="usd",TH!O107&lt;&gt;""),"e1",IF(AND(LEFT(C107,3)="EIB",D107='LC - EIB'!$S$2,LEFT(E107,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8519,14 +8525,14 @@
       <c r="L108" s="65"/>
       <c r="M108" s="65"/>
       <c r="N108" s="64" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="O108" s="68"/>
       <c r="P108" s="69">
         <v>22634810</v>
       </c>
       <c r="Q108" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R108" s="131" t="str">
         <f>IF(AND(C108="pv",D108='UNC - PV'!$Q$2,LEFT(E108,1)="u",'UNC - PV'!$O$2="vnđ",TH!P108&lt;&gt;""),"p",IF(AND(C108="pv",D108='UNC - PV'!$Q$2,LEFT(E108,1)="u",'UNC - PV'!$O$2="usd",TH!O108&lt;&gt;""),"p1",IF(AND(C108="pv",D108='LC - PV'!$P$2,LEFT(E108,1)="l"),"p2",IF(AND(LEFT(C108,3)="EIB",D108='UNC - EIB'!$T$2,LEFT(E108,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P108&lt;&gt;""),"e",IF(AND(LEFT(C108,3)="EIB",D108='UNC - EIB'!$T$2,LEFT(E108,1)="U",'UNC - EIB'!$R$2="usd",TH!O108&lt;&gt;""),"e1",IF(AND(LEFT(C108,3)="EIB",D108='LC - EIB'!$S$2,LEFT(E108,1)="l"),"e2",""))))))</f>
@@ -8552,13 +8558,13 @@
         <v>25</v>
       </c>
       <c r="F109" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="G109" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="H109" s="64" t="s">
         <v>313</v>
-      </c>
-      <c r="G109" s="64" t="s">
-        <v>314</v>
-      </c>
-      <c r="H109" s="64" t="s">
-        <v>316</v>
       </c>
       <c r="I109" s="105" t="s">
         <v>10</v>
@@ -8568,21 +8574,21 @@
       <c r="L109" s="65"/>
       <c r="M109" s="65"/>
       <c r="N109" s="64" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O109" s="68"/>
       <c r="P109" s="69">
         <v>100000000</v>
       </c>
       <c r="Q109" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R109" s="131" t="str">
         <f>IF(AND(C109="pv",D109='UNC - PV'!$Q$2,LEFT(E109,1)="u",'UNC - PV'!$O$2="vnđ",TH!P109&lt;&gt;""),"p",IF(AND(C109="pv",D109='UNC - PV'!$Q$2,LEFT(E109,1)="u",'UNC - PV'!$O$2="usd",TH!O109&lt;&gt;""),"p1",IF(AND(C109="pv",D109='LC - PV'!$P$2,LEFT(E109,1)="l"),"p2",IF(AND(LEFT(C109,3)="EIB",D109='UNC - EIB'!$T$2,LEFT(E109,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P109&lt;&gt;""),"e",IF(AND(LEFT(C109,3)="EIB",D109='UNC - EIB'!$T$2,LEFT(E109,1)="U",'UNC - EIB'!$R$2="usd",TH!O109&lt;&gt;""),"e1",IF(AND(LEFT(C109,3)="EIB",D109='LC - EIB'!$S$2,LEFT(E109,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="110" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A110" s="55" t="str">
         <f>IF(AND(C110="pv",E110='UNC - PV'!$S$2,D110='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C110,3)="eib",E110='UNC - EIB'!$V$2,D110='UNC - EIB'!$T$2),"x1",IF(AND(C110="pv",E110='LC - PV'!$R$2,D110='LC - PV'!$P$2),"x2",IF(AND(LEFT(C110,3)="eib",E110='LC - EIB'!$U$2,D110='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8592,7 +8598,7 @@
         <v>107</v>
       </c>
       <c r="C110" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110" s="67">
         <v>42697</v>
@@ -8601,37 +8607,37 @@
         <v>23</v>
       </c>
       <c r="F110" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G110" s="64" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H110" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I110" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J110" s="66"/>
       <c r="K110" s="67"/>
       <c r="L110" s="65"/>
       <c r="M110" s="65"/>
       <c r="N110" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O110" s="68"/>
       <c r="P110" s="69">
         <v>4394000000</v>
       </c>
       <c r="Q110" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R110" s="131" t="str">
         <f>IF(AND(C110="pv",D110='UNC - PV'!$Q$2,LEFT(E110,1)="u",'UNC - PV'!$O$2="vnđ",TH!P110&lt;&gt;""),"p",IF(AND(C110="pv",D110='UNC - PV'!$Q$2,LEFT(E110,1)="u",'UNC - PV'!$O$2="usd",TH!O110&lt;&gt;""),"p1",IF(AND(C110="pv",D110='LC - PV'!$P$2,LEFT(E110,1)="l"),"p2",IF(AND(LEFT(C110,3)="EIB",D110='UNC - EIB'!$T$2,LEFT(E110,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P110&lt;&gt;""),"e",IF(AND(LEFT(C110,3)="EIB",D110='UNC - EIB'!$T$2,LEFT(E110,1)="U",'UNC - EIB'!$R$2="usd",TH!O110&lt;&gt;""),"e1",IF(AND(LEFT(C110,3)="EIB",D110='LC - EIB'!$S$2,LEFT(E110,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="111" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A111" s="55" t="str">
         <f>IF(AND(C111="pv",E111='UNC - PV'!$S$2,D111='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C111,3)="eib",E111='UNC - EIB'!$V$2,D111='UNC - EIB'!$T$2),"x1",IF(AND(C111="pv",E111='LC - PV'!$R$2,D111='LC - PV'!$P$2),"x2",IF(AND(LEFT(C111,3)="eib",E111='LC - EIB'!$U$2,D111='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8641,7 +8647,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D111" s="67">
         <v>42697</v>
@@ -8666,21 +8672,21 @@
       <c r="L111" s="65"/>
       <c r="M111" s="65"/>
       <c r="N111" s="64" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O111" s="68"/>
       <c r="P111" s="69">
         <v>31233070</v>
       </c>
       <c r="Q111" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R111" s="131" t="str">
         <f>IF(AND(C111="pv",D111='UNC - PV'!$Q$2,LEFT(E111,1)="u",'UNC - PV'!$O$2="vnđ",TH!P111&lt;&gt;""),"p",IF(AND(C111="pv",D111='UNC - PV'!$Q$2,LEFT(E111,1)="u",'UNC - PV'!$O$2="usd",TH!O111&lt;&gt;""),"p1",IF(AND(C111="pv",D111='LC - PV'!$P$2,LEFT(E111,1)="l"),"p2",IF(AND(LEFT(C111,3)="EIB",D111='UNC - EIB'!$T$2,LEFT(E111,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P111&lt;&gt;""),"e",IF(AND(LEFT(C111,3)="EIB",D111='UNC - EIB'!$T$2,LEFT(E111,1)="U",'UNC - EIB'!$R$2="usd",TH!O111&lt;&gt;""),"e1",IF(AND(LEFT(C111,3)="EIB",D111='LC - EIB'!$S$2,LEFT(E111,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="112" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A112" s="55" t="str">
         <f>IF(AND(C112="pv",E112='UNC - PV'!$S$2,D112='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C112,3)="eib",E112='UNC - EIB'!$V$2,D112='UNC - EIB'!$T$2),"x1",IF(AND(C112="pv",E112='LC - PV'!$R$2,D112='LC - PV'!$P$2),"x2",IF(AND(LEFT(C112,3)="eib",E112='LC - EIB'!$U$2,D112='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8690,7 +8696,7 @@
         <v>109</v>
       </c>
       <c r="C112" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D112" s="67">
         <v>42697</v>
@@ -8715,21 +8721,21 @@
       <c r="L112" s="65"/>
       <c r="M112" s="65"/>
       <c r="N112" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O112" s="68"/>
       <c r="P112" s="69">
         <v>2250000000</v>
       </c>
       <c r="Q112" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R112" s="131" t="str">
         <f>IF(AND(C112="pv",D112='UNC - PV'!$Q$2,LEFT(E112,1)="u",'UNC - PV'!$O$2="vnđ",TH!P112&lt;&gt;""),"p",IF(AND(C112="pv",D112='UNC - PV'!$Q$2,LEFT(E112,1)="u",'UNC - PV'!$O$2="usd",TH!O112&lt;&gt;""),"p1",IF(AND(C112="pv",D112='LC - PV'!$P$2,LEFT(E112,1)="l"),"p2",IF(AND(LEFT(C112,3)="EIB",D112='UNC - EIB'!$T$2,LEFT(E112,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P112&lt;&gt;""),"e",IF(AND(LEFT(C112,3)="EIB",D112='UNC - EIB'!$T$2,LEFT(E112,1)="U",'UNC - EIB'!$R$2="usd",TH!O112&lt;&gt;""),"e1",IF(AND(LEFT(C112,3)="EIB",D112='LC - EIB'!$S$2,LEFT(E112,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8771,14 +8777,14 @@
       </c>
       <c r="P113" s="69"/>
       <c r="Q113" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R113" s="131" t="str">
         <f>IF(AND(C113="pv",D113='UNC - PV'!$Q$2,LEFT(E113,1)="u",'UNC - PV'!$O$2="vnđ",TH!P113&lt;&gt;""),"p",IF(AND(C113="pv",D113='UNC - PV'!$Q$2,LEFT(E113,1)="u",'UNC - PV'!$O$2="usd",TH!O113&lt;&gt;""),"p1",IF(AND(C113="pv",D113='LC - PV'!$P$2,LEFT(E113,1)="l"),"p2",IF(AND(LEFT(C113,3)="EIB",D113='UNC - EIB'!$T$2,LEFT(E113,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P113&lt;&gt;""),"e",IF(AND(LEFT(C113,3)="EIB",D113='UNC - EIB'!$T$2,LEFT(E113,1)="U",'UNC - EIB'!$R$2="usd",TH!O113&lt;&gt;""),"e1",IF(AND(LEFT(C113,3)="EIB",D113='LC - EIB'!$S$2,LEFT(E113,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8820,14 +8826,14 @@
         <v>80000000</v>
       </c>
       <c r="Q114" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R114" s="131" t="str">
         <f>IF(AND(C114="pv",D114='UNC - PV'!$Q$2,LEFT(E114,1)="u",'UNC - PV'!$O$2="vnđ",TH!P114&lt;&gt;""),"p",IF(AND(C114="pv",D114='UNC - PV'!$Q$2,LEFT(E114,1)="u",'UNC - PV'!$O$2="usd",TH!O114&lt;&gt;""),"p1",IF(AND(C114="pv",D114='LC - PV'!$P$2,LEFT(E114,1)="l"),"p2",IF(AND(LEFT(C114,3)="EIB",D114='UNC - EIB'!$T$2,LEFT(E114,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P114&lt;&gt;""),"e",IF(AND(LEFT(C114,3)="EIB",D114='UNC - EIB'!$T$2,LEFT(E114,1)="U",'UNC - EIB'!$R$2="usd",TH!O114&lt;&gt;""),"e1",IF(AND(LEFT(C114,3)="EIB",D114='LC - EIB'!$S$2,LEFT(E114,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8846,13 +8852,13 @@
         <v>25</v>
       </c>
       <c r="F115" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G115" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="G115" s="71" t="s">
+      <c r="H115" s="64" t="s">
         <v>179</v>
-      </c>
-      <c r="H115" s="64" t="s">
-        <v>180</v>
       </c>
       <c r="I115" s="105" t="s">
         <v>10</v>
@@ -8862,21 +8868,21 @@
       <c r="L115" s="65"/>
       <c r="M115" s="65"/>
       <c r="N115" s="64" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O115" s="68"/>
       <c r="P115" s="69">
         <v>810000</v>
       </c>
       <c r="Q115" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R115" s="131" t="str">
         <f>IF(AND(C115="pv",D115='UNC - PV'!$Q$2,LEFT(E115,1)="u",'UNC - PV'!$O$2="vnđ",TH!P115&lt;&gt;""),"p",IF(AND(C115="pv",D115='UNC - PV'!$Q$2,LEFT(E115,1)="u",'UNC - PV'!$O$2="usd",TH!O115&lt;&gt;""),"p1",IF(AND(C115="pv",D115='LC - PV'!$P$2,LEFT(E115,1)="l"),"p2",IF(AND(LEFT(C115,3)="EIB",D115='UNC - EIB'!$T$2,LEFT(E115,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P115&lt;&gt;""),"e",IF(AND(LEFT(C115,3)="EIB",D115='UNC - EIB'!$T$2,LEFT(E115,1)="U",'UNC - EIB'!$R$2="usd",TH!O115&lt;&gt;""),"e1",IF(AND(LEFT(C115,3)="EIB",D115='LC - EIB'!$S$2,LEFT(E115,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8895,13 +8901,13 @@
         <v>26</v>
       </c>
       <c r="F116" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G116" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="H116" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="H116" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="I116" s="105" t="s">
         <v>10</v>
@@ -8911,21 +8917,21 @@
       <c r="L116" s="65"/>
       <c r="M116" s="65"/>
       <c r="N116" s="64" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O116" s="68"/>
       <c r="P116" s="69">
         <v>2230000</v>
       </c>
       <c r="Q116" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R116" s="131" t="str">
         <f>IF(AND(C116="pv",D116='UNC - PV'!$Q$2,LEFT(E116,1)="u",'UNC - PV'!$O$2="vnđ",TH!P116&lt;&gt;""),"p",IF(AND(C116="pv",D116='UNC - PV'!$Q$2,LEFT(E116,1)="u",'UNC - PV'!$O$2="usd",TH!O116&lt;&gt;""),"p1",IF(AND(C116="pv",D116='LC - PV'!$P$2,LEFT(E116,1)="l"),"p2",IF(AND(LEFT(C116,3)="EIB",D116='UNC - EIB'!$T$2,LEFT(E116,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P116&lt;&gt;""),"e",IF(AND(LEFT(C116,3)="EIB",D116='UNC - EIB'!$T$2,LEFT(E116,1)="U",'UNC - EIB'!$R$2="usd",TH!O116&lt;&gt;""),"e1",IF(AND(LEFT(C116,3)="EIB",D116='LC - EIB'!$S$2,LEFT(E116,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="117" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A117" s="55" t="str">
         <f>IF(AND(C117="pv",E117='UNC - PV'!$S$2,D117='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C117,3)="eib",E117='UNC - EIB'!$V$2,D117='UNC - EIB'!$T$2),"x1",IF(AND(C117="pv",E117='LC - PV'!$R$2,D117='LC - PV'!$P$2),"x2",IF(AND(LEFT(C117,3)="eib",E117='LC - EIB'!$U$2,D117='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8935,7 +8941,7 @@
         <v>114</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D117" s="67">
         <v>42699</v>
@@ -8944,37 +8950,37 @@
         <v>23</v>
       </c>
       <c r="F117" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G117" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H117" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I117" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J117" s="66"/>
       <c r="K117" s="67"/>
       <c r="L117" s="65"/>
       <c r="M117" s="65"/>
       <c r="N117" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O117" s="68"/>
       <c r="P117" s="69">
         <v>1441167000</v>
       </c>
       <c r="Q117" s="129" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R117" s="131" t="str">
         <f>IF(AND(C117="pv",D117='UNC - PV'!$Q$2,LEFT(E117,1)="u",'UNC - PV'!$O$2="vnđ",TH!P117&lt;&gt;""),"p",IF(AND(C117="pv",D117='UNC - PV'!$Q$2,LEFT(E117,1)="u",'UNC - PV'!$O$2="usd",TH!O117&lt;&gt;""),"p1",IF(AND(C117="pv",D117='LC - PV'!$P$2,LEFT(E117,1)="l"),"p2",IF(AND(LEFT(C117,3)="EIB",D117='UNC - EIB'!$T$2,LEFT(E117,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P117&lt;&gt;""),"e",IF(AND(LEFT(C117,3)="EIB",D117='UNC - EIB'!$T$2,LEFT(E117,1)="U",'UNC - EIB'!$R$2="usd",TH!O117&lt;&gt;""),"e1",IF(AND(LEFT(C117,3)="EIB",D117='LC - EIB'!$S$2,LEFT(E117,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="118" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A118" s="55" t="str">
         <f>IF(AND(C118="pv",E118='UNC - PV'!$S$2,D118='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C118,3)="eib",E118='UNC - EIB'!$V$2,D118='UNC - EIB'!$T$2),"x1",IF(AND(C118="pv",E118='LC - PV'!$R$2,D118='LC - PV'!$P$2),"x2",IF(AND(LEFT(C118,3)="eib",E118='LC - EIB'!$U$2,D118='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8984,7 +8990,7 @@
         <v>115</v>
       </c>
       <c r="C118" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D118" s="67">
         <v>42699</v>
@@ -9009,21 +9015,21 @@
       <c r="L118" s="65"/>
       <c r="M118" s="65"/>
       <c r="N118" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O118" s="68"/>
       <c r="P118" s="69">
         <v>1319000000</v>
       </c>
       <c r="Q118" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R118" s="131" t="str">
         <f>IF(AND(C118="pv",D118='UNC - PV'!$Q$2,LEFT(E118,1)="u",'UNC - PV'!$O$2="vnđ",TH!P118&lt;&gt;""),"p",IF(AND(C118="pv",D118='UNC - PV'!$Q$2,LEFT(E118,1)="u",'UNC - PV'!$O$2="usd",TH!O118&lt;&gt;""),"p1",IF(AND(C118="pv",D118='LC - PV'!$P$2,LEFT(E118,1)="l"),"p2",IF(AND(LEFT(C118,3)="EIB",D118='UNC - EIB'!$T$2,LEFT(E118,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P118&lt;&gt;""),"e",IF(AND(LEFT(C118,3)="EIB",D118='UNC - EIB'!$T$2,LEFT(E118,1)="U",'UNC - EIB'!$R$2="usd",TH!O118&lt;&gt;""),"e1",IF(AND(LEFT(C118,3)="EIB",D118='LC - EIB'!$S$2,LEFT(E118,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="119" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A119" s="55" t="str">
         <f>IF(AND(C119="pv",E119='UNC - PV'!$S$2,D119='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C119,3)="eib",E119='UNC - EIB'!$V$2,D119='UNC - EIB'!$T$2),"x1",IF(AND(C119="pv",E119='LC - PV'!$R$2,D119='LC - PV'!$P$2),"x2",IF(AND(LEFT(C119,3)="eib",E119='LC - EIB'!$U$2,D119='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9033,7 +9039,7 @@
         <v>116</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D119" s="67">
         <v>42699</v>
@@ -9042,37 +9048,37 @@
         <v>25</v>
       </c>
       <c r="F119" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="G119" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H119" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="G119" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="H119" s="64" t="s">
-        <v>347</v>
-      </c>
       <c r="I119" s="65" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J119" s="66"/>
       <c r="K119" s="67"/>
       <c r="L119" s="65"/>
       <c r="M119" s="65"/>
       <c r="N119" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O119" s="68"/>
       <c r="P119" s="69">
         <v>541450000</v>
       </c>
       <c r="Q119" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R119" s="131" t="str">
         <f>IF(AND(C119="pv",D119='UNC - PV'!$Q$2,LEFT(E119,1)="u",'UNC - PV'!$O$2="vnđ",TH!P119&lt;&gt;""),"p",IF(AND(C119="pv",D119='UNC - PV'!$Q$2,LEFT(E119,1)="u",'UNC - PV'!$O$2="usd",TH!O119&lt;&gt;""),"p1",IF(AND(C119="pv",D119='LC - PV'!$P$2,LEFT(E119,1)="l"),"p2",IF(AND(LEFT(C119,3)="EIB",D119='UNC - EIB'!$T$2,LEFT(E119,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P119&lt;&gt;""),"e",IF(AND(LEFT(C119,3)="EIB",D119='UNC - EIB'!$T$2,LEFT(E119,1)="U",'UNC - EIB'!$R$2="usd",TH!O119&lt;&gt;""),"e1",IF(AND(LEFT(C119,3)="EIB",D119='LC - EIB'!$S$2,LEFT(E119,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="120" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A120" s="55" t="str">
         <f>IF(AND(C120="pv",E120='UNC - PV'!$S$2,D120='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C120,3)="eib",E120='UNC - EIB'!$V$2,D120='UNC - EIB'!$T$2),"x1",IF(AND(C120="pv",E120='LC - PV'!$R$2,D120='LC - PV'!$P$2),"x2",IF(AND(LEFT(C120,3)="eib",E120='LC - EIB'!$U$2,D120='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9082,7 +9088,7 @@
         <v>117</v>
       </c>
       <c r="C120" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D120" s="67">
         <v>42703</v>
@@ -9091,13 +9097,13 @@
         <v>23</v>
       </c>
       <c r="F120" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G120" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="H120" s="64" t="s">
         <v>181</v>
-      </c>
-      <c r="H120" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="I120" s="105" t="s">
         <v>10</v>
@@ -9107,21 +9113,21 @@
       <c r="L120" s="65"/>
       <c r="M120" s="65"/>
       <c r="N120" s="64" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O120" s="68"/>
       <c r="P120" s="69">
         <v>3555000</v>
       </c>
       <c r="Q120" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R120" s="131" t="str">
         <f>IF(AND(C120="pv",D120='UNC - PV'!$Q$2,LEFT(E120,1)="u",'UNC - PV'!$O$2="vnđ",TH!P120&lt;&gt;""),"p",IF(AND(C120="pv",D120='UNC - PV'!$Q$2,LEFT(E120,1)="u",'UNC - PV'!$O$2="usd",TH!O120&lt;&gt;""),"p1",IF(AND(C120="pv",D120='LC - PV'!$P$2,LEFT(E120,1)="l"),"p2",IF(AND(LEFT(C120,3)="EIB",D120='UNC - EIB'!$T$2,LEFT(E120,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P120&lt;&gt;""),"e",IF(AND(LEFT(C120,3)="EIB",D120='UNC - EIB'!$T$2,LEFT(E120,1)="U",'UNC - EIB'!$R$2="usd",TH!O120&lt;&gt;""),"e1",IF(AND(LEFT(C120,3)="EIB",D120='LC - EIB'!$S$2,LEFT(E120,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="121" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A121" s="55" t="str">
         <f>IF(AND(C121="pv",E121='UNC - PV'!$S$2,D121='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C121,3)="eib",E121='UNC - EIB'!$V$2,D121='UNC - EIB'!$T$2),"x1",IF(AND(C121="pv",E121='LC - PV'!$R$2,D121='LC - PV'!$P$2),"x2",IF(AND(LEFT(C121,3)="eib",E121='LC - EIB'!$U$2,D121='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9131,7 +9137,7 @@
         <v>118</v>
       </c>
       <c r="C121" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D121" s="67">
         <v>42703</v>
@@ -9140,37 +9146,37 @@
         <v>24</v>
       </c>
       <c r="F121" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G121" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H121" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I121" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J121" s="66"/>
       <c r="K121" s="67"/>
       <c r="L121" s="65"/>
       <c r="M121" s="65"/>
       <c r="N121" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O121" s="68"/>
       <c r="P121" s="69">
         <v>1508000000</v>
       </c>
       <c r="Q121" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R121" s="131" t="str">
         <f>IF(AND(C121="pv",D121='UNC - PV'!$Q$2,LEFT(E121,1)="u",'UNC - PV'!$O$2="vnđ",TH!P121&lt;&gt;""),"p",IF(AND(C121="pv",D121='UNC - PV'!$Q$2,LEFT(E121,1)="u",'UNC - PV'!$O$2="usd",TH!O121&lt;&gt;""),"p1",IF(AND(C121="pv",D121='LC - PV'!$P$2,LEFT(E121,1)="l"),"p2",IF(AND(LEFT(C121,3)="EIB",D121='UNC - EIB'!$T$2,LEFT(E121,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P121&lt;&gt;""),"e",IF(AND(LEFT(C121,3)="EIB",D121='UNC - EIB'!$T$2,LEFT(E121,1)="U",'UNC - EIB'!$R$2="usd",TH!O121&lt;&gt;""),"e1",IF(AND(LEFT(C121,3)="EIB",D121='LC - EIB'!$S$2,LEFT(E121,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="122" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A122" s="55" t="str">
         <f>IF(AND(C122="pv",E122='UNC - PV'!$S$2,D122='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C122,3)="eib",E122='UNC - EIB'!$V$2,D122='UNC - EIB'!$T$2),"x1",IF(AND(C122="pv",E122='LC - PV'!$R$2,D122='LC - PV'!$P$2),"x2",IF(AND(LEFT(C122,3)="eib",E122='LC - EIB'!$U$2,D122='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9180,7 +9186,7 @@
         <v>119</v>
       </c>
       <c r="C122" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D122" s="67">
         <v>42703</v>
@@ -9189,37 +9195,37 @@
         <v>25</v>
       </c>
       <c r="F122" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G122" s="64" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H122" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I122" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J122" s="66"/>
       <c r="K122" s="67"/>
       <c r="L122" s="65"/>
       <c r="M122" s="65"/>
       <c r="N122" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O122" s="68"/>
       <c r="P122" s="69">
         <v>1674100000</v>
       </c>
       <c r="Q122" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R122" s="131" t="str">
         <f>IF(AND(C122="pv",D122='UNC - PV'!$Q$2,LEFT(E122,1)="u",'UNC - PV'!$O$2="vnđ",TH!P122&lt;&gt;""),"p",IF(AND(C122="pv",D122='UNC - PV'!$Q$2,LEFT(E122,1)="u",'UNC - PV'!$O$2="usd",TH!O122&lt;&gt;""),"p1",IF(AND(C122="pv",D122='LC - PV'!$P$2,LEFT(E122,1)="l"),"p2",IF(AND(LEFT(C122,3)="EIB",D122='UNC - EIB'!$T$2,LEFT(E122,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P122&lt;&gt;""),"e",IF(AND(LEFT(C122,3)="EIB",D122='UNC - EIB'!$T$2,LEFT(E122,1)="U",'UNC - EIB'!$R$2="usd",TH!O122&lt;&gt;""),"e1",IF(AND(LEFT(C122,3)="EIB",D122='LC - EIB'!$S$2,LEFT(E122,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="123" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A123" s="55" t="str">
         <f>IF(AND(C123="pv",E123='UNC - PV'!$S$2,D123='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C123,3)="eib",E123='UNC - EIB'!$V$2,D123='UNC - EIB'!$T$2),"x1",IF(AND(C123="pv",E123='LC - PV'!$R$2,D123='LC - PV'!$P$2),"x2",IF(AND(LEFT(C123,3)="eib",E123='LC - EIB'!$U$2,D123='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9229,7 +9235,7 @@
         <v>120</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D123" s="67">
         <v>42703</v>
@@ -9254,14 +9260,14 @@
       <c r="L123" s="65"/>
       <c r="M123" s="65"/>
       <c r="N123" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O123" s="68"/>
       <c r="P123" s="69">
         <v>100000000</v>
       </c>
       <c r="Q123" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R123" s="131" t="str">
         <f>IF(AND(C123="pv",D123='UNC - PV'!$Q$2,LEFT(E123,1)="u",'UNC - PV'!$O$2="vnđ",TH!P123&lt;&gt;""),"p",IF(AND(C123="pv",D123='UNC - PV'!$Q$2,LEFT(E123,1)="u",'UNC - PV'!$O$2="usd",TH!O123&lt;&gt;""),"p1",IF(AND(C123="pv",D123='LC - PV'!$P$2,LEFT(E123,1)="l"),"p2",IF(AND(LEFT(C123,3)="EIB",D123='UNC - EIB'!$T$2,LEFT(E123,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P123&lt;&gt;""),"e",IF(AND(LEFT(C123,3)="EIB",D123='UNC - EIB'!$T$2,LEFT(E123,1)="U",'UNC - EIB'!$R$2="usd",TH!O123&lt;&gt;""),"e1",IF(AND(LEFT(C123,3)="EIB",D123='LC - EIB'!$S$2,LEFT(E123,1)="l"),"e2",""))))))</f>
@@ -9287,23 +9293,23 @@
         <v>84</v>
       </c>
       <c r="F124" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="G124" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="H124" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="G124" s="64" t="s">
-        <v>203</v>
-      </c>
-      <c r="H124" s="64" t="s">
-        <v>168</v>
-      </c>
       <c r="I124" s="110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J124" s="66"/>
       <c r="K124" s="67"/>
       <c r="L124" s="65"/>
       <c r="M124" s="65"/>
       <c r="N124" s="115" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O124" s="68"/>
       <c r="P124" s="69">
@@ -9311,14 +9317,14 @@
         <v>93958480</v>
       </c>
       <c r="Q124" s="104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R124" s="131" t="str">
         <f>IF(AND(C124="pv",D124='UNC - PV'!$Q$2,LEFT(E124,1)="u",'UNC - PV'!$O$2="vnđ",TH!P124&lt;&gt;""),"p",IF(AND(C124="pv",D124='UNC - PV'!$Q$2,LEFT(E124,1)="u",'UNC - PV'!$O$2="usd",TH!O124&lt;&gt;""),"p1",IF(AND(C124="pv",D124='LC - PV'!$P$2,LEFT(E124,1)="l"),"p2",IF(AND(LEFT(C124,3)="EIB",D124='UNC - EIB'!$T$2,LEFT(E124,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P124&lt;&gt;""),"e",IF(AND(LEFT(C124,3)="EIB",D124='UNC - EIB'!$T$2,LEFT(E124,1)="U",'UNC - EIB'!$R$2="usd",TH!O124&lt;&gt;""),"e1",IF(AND(LEFT(C124,3)="EIB",D124='LC - EIB'!$S$2,LEFT(E124,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9353,7 +9359,7 @@
       <c r="L125" s="65"/>
       <c r="M125" s="65"/>
       <c r="N125" s="64" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O125" s="68"/>
       <c r="P125" s="69">
@@ -9365,7 +9371,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="126" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A126" s="55" t="str">
         <f>IF(AND(C126="pv",E126='UNC - PV'!$S$2,D126='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C126,3)="eib",E126='UNC - EIB'!$V$2,D126='UNC - EIB'!$T$2),"x1",IF(AND(C126="pv",E126='LC - PV'!$R$2,D126='LC - PV'!$P$2),"x2",IF(AND(LEFT(C126,3)="eib",E126='LC - EIB'!$U$2,D126='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9375,7 +9381,7 @@
         <v>123</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D126" s="67">
         <v>42704</v>
@@ -9400,7 +9406,7 @@
       <c r="L126" s="110"/>
       <c r="M126" s="65"/>
       <c r="N126" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O126" s="68"/>
       <c r="P126" s="69">
@@ -9412,7 +9418,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="127" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A127" s="55" t="str">
         <f>IF(AND(C127="pv",E127='UNC - PV'!$S$2,D127='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C127,3)="eib",E127='UNC - EIB'!$V$2,D127='UNC - EIB'!$T$2),"x1",IF(AND(C127="pv",E127='LC - PV'!$R$2,D127='LC - PV'!$P$2),"x2",IF(AND(LEFT(C127,3)="eib",E127='LC - EIB'!$U$2,D127='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9422,7 +9428,7 @@
         <v>124</v>
       </c>
       <c r="C127" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D127" s="67">
         <v>42709</v>
@@ -9434,7 +9440,7 @@
         <v>132</v>
       </c>
       <c r="G127" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H127" s="107" t="s">
         <v>130</v>
@@ -9447,7 +9453,7 @@
       <c r="L127" s="65"/>
       <c r="M127" s="65"/>
       <c r="N127" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O127" s="68">
         <v>95500</v>
@@ -9459,7 +9465,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="128" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A128" s="55" t="str">
         <f>IF(AND(C128="pv",E128='UNC - PV'!$S$2,D128='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C128,3)="eib",E128='UNC - EIB'!$V$2,D128='UNC - EIB'!$T$2),"x1",IF(AND(C128="pv",E128='LC - PV'!$R$2,D128='LC - PV'!$P$2),"x2",IF(AND(LEFT(C128,3)="eib",E128='LC - EIB'!$U$2,D128='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9469,7 +9475,7 @@
         <v>125</v>
       </c>
       <c r="C128" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D128" s="67">
         <v>42710</v>
@@ -9478,23 +9484,23 @@
         <v>23</v>
       </c>
       <c r="F128" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G128" s="64" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H128" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I128" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J128" s="66"/>
       <c r="K128" s="67"/>
       <c r="L128" s="65"/>
       <c r="M128" s="65"/>
       <c r="N128" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O128" s="68"/>
       <c r="P128" s="69">
@@ -9506,7 +9512,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="129" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A129" s="55" t="str">
         <f>IF(AND(C129="pv",E129='UNC - PV'!$S$2,D129='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C129,3)="eib",E129='UNC - EIB'!$V$2,D129='UNC - EIB'!$T$2),"x1",IF(AND(C129="pv",E129='LC - PV'!$R$2,D129='LC - PV'!$P$2),"x2",IF(AND(LEFT(C129,3)="eib",E129='LC - EIB'!$U$2,D129='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9516,7 +9522,7 @@
         <v>126</v>
       </c>
       <c r="C129" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" s="67">
         <v>42710</v>
@@ -9525,23 +9531,23 @@
         <v>24</v>
       </c>
       <c r="F129" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G129" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H129" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I129" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J129" s="66"/>
       <c r="K129" s="67"/>
       <c r="L129" s="65"/>
       <c r="M129" s="65"/>
       <c r="N129" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O129" s="68"/>
       <c r="P129" s="69">
@@ -9553,7 +9559,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="130" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A130" s="55" t="str">
         <f>IF(AND(C130="pv",E130='UNC - PV'!$S$2,D130='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C130,3)="eib",E130='UNC - EIB'!$V$2,D130='UNC - EIB'!$T$2),"x1",IF(AND(C130="pv",E130='LC - PV'!$R$2,D130='LC - PV'!$P$2),"x2",IF(AND(LEFT(C130,3)="eib",E130='LC - EIB'!$U$2,D130='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9563,7 +9569,7 @@
         <v>127</v>
       </c>
       <c r="C130" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D130" s="67">
         <v>42710</v>
@@ -9572,23 +9578,23 @@
         <v>25</v>
       </c>
       <c r="F130" s="64" t="s">
+        <v>339</v>
+      </c>
+      <c r="G130" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H130" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="G130" s="64" t="s">
-        <v>344</v>
-      </c>
-      <c r="H130" s="64" t="s">
-        <v>347</v>
-      </c>
       <c r="I130" s="65" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="J130" s="66"/>
       <c r="K130" s="67"/>
       <c r="L130" s="65"/>
       <c r="M130" s="65"/>
       <c r="N130" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O130" s="68"/>
       <c r="P130" s="69">
@@ -9619,23 +9625,23 @@
         <v>23</v>
       </c>
       <c r="F131" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="G131" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H131" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="I131" s="65" t="s">
         <v>350</v>
-      </c>
-      <c r="G131" s="64" t="s">
-        <v>352</v>
-      </c>
-      <c r="H131" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="I131" s="65" t="s">
-        <v>354</v>
       </c>
       <c r="J131" s="66"/>
       <c r="K131" s="67"/>
       <c r="L131" s="65"/>
       <c r="M131" s="65"/>
       <c r="N131" s="64" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O131" s="68"/>
       <c r="P131" s="69">
@@ -9666,23 +9672,23 @@
         <v>24</v>
       </c>
       <c r="F132" s="64" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G132" s="64" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H132" s="64" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I132" s="65" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J132" s="66"/>
       <c r="K132" s="67"/>
       <c r="L132" s="65"/>
       <c r="M132" s="65"/>
       <c r="N132" s="64" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="O132" s="68"/>
       <c r="P132" s="69">
@@ -9694,7 +9700,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9741,7 +9747,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9760,13 +9766,13 @@
         <v>23</v>
       </c>
       <c r="F134" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G134" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G134" s="71" t="s">
+      <c r="H134" s="64" t="s">
         <v>175</v>
-      </c>
-      <c r="H134" s="64" t="s">
-        <v>176</v>
       </c>
       <c r="I134" s="105" t="s">
         <v>10</v>
@@ -9776,7 +9782,7 @@
       <c r="L134" s="65"/>
       <c r="M134" s="65"/>
       <c r="N134" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O134" s="68"/>
       <c r="P134" s="69">
@@ -9788,7 +9794,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9807,13 +9813,13 @@
         <v>24</v>
       </c>
       <c r="F135" s="64" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G135" s="64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H135" s="64" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I135" s="62" t="s">
         <v>10</v>
@@ -9823,7 +9829,7 @@
       <c r="L135" s="65"/>
       <c r="M135" s="65"/>
       <c r="N135" s="64" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O135" s="68"/>
       <c r="P135" s="69">
@@ -9835,7 +9841,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A136" s="55" t="str">
         <f>IF(AND(C136="pv",E136='UNC - PV'!$S$2,D136='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C136,3)="eib",E136='UNC - EIB'!$V$2,D136='UNC - EIB'!$T$2),"x1",IF(AND(C136="pv",E136='LC - PV'!$R$2,D136='LC - PV'!$P$2),"x2",IF(AND(LEFT(C136,3)="eib",E136='LC - EIB'!$U$2,D136='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9854,13 +9860,13 @@
         <v>25</v>
       </c>
       <c r="F136" s="64" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G136" s="64" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H136" s="64" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I136" s="62" t="s">
         <v>10</v>
@@ -9870,7 +9876,7 @@
       <c r="L136" s="65"/>
       <c r="M136" s="65"/>
       <c r="N136" s="64" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O136" s="68"/>
       <c r="P136" s="69">
@@ -9882,7 +9888,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9901,13 +9907,13 @@
         <v>26</v>
       </c>
       <c r="F137" s="64" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G137" s="64" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H137" s="64" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I137" s="62" t="s">
         <v>10</v>
@@ -9917,7 +9923,7 @@
       <c r="L137" s="65"/>
       <c r="M137" s="65"/>
       <c r="N137" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O137" s="68"/>
       <c r="P137" s="69">
@@ -9929,7 +9935,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9964,7 +9970,7 @@
       <c r="L138" s="62"/>
       <c r="M138" s="62"/>
       <c r="N138" s="70" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="O138" s="68"/>
       <c r="P138" s="69">
@@ -9976,7 +9982,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10011,7 +10017,7 @@
       <c r="L139" s="65"/>
       <c r="M139" s="65"/>
       <c r="N139" s="64" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="O139" s="68"/>
       <c r="P139" s="69">
@@ -10039,26 +10045,26 @@
         <v>42713</v>
       </c>
       <c r="E140" s="122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F140" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="G140" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H140" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="I140" s="65" t="s">
         <v>350</v>
-      </c>
-      <c r="G140" s="64" t="s">
-        <v>352</v>
-      </c>
-      <c r="H140" s="64" t="s">
-        <v>353</v>
-      </c>
-      <c r="I140" s="65" t="s">
-        <v>354</v>
       </c>
       <c r="J140" s="66"/>
       <c r="K140" s="67"/>
       <c r="L140" s="65"/>
       <c r="M140" s="65"/>
       <c r="N140" s="64" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O140" s="68"/>
       <c r="P140" s="69">
@@ -10070,7 +10076,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10086,16 +10092,16 @@
         <v>42713</v>
       </c>
       <c r="E141" s="122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F141" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G141" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="G141" s="107" t="s">
+      <c r="H141" s="107" t="s">
         <v>155</v>
-      </c>
-      <c r="H141" s="107" t="s">
-        <v>156</v>
       </c>
       <c r="I141" s="110" t="s">
         <v>10</v>
@@ -10105,7 +10111,7 @@
       <c r="L141" s="110"/>
       <c r="M141" s="110"/>
       <c r="N141" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O141" s="111"/>
       <c r="P141" s="69">
@@ -10117,7 +10123,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="142" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A142" s="55" t="str">
         <f>IF(AND(C142="pv",E142='UNC - PV'!$S$2,D142='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C142,3)="eib",E142='UNC - EIB'!$V$2,D142='UNC - EIB'!$T$2),"x1",IF(AND(C142="pv",E142='LC - PV'!$R$2,D142='LC - PV'!$P$2),"x2",IF(AND(LEFT(C142,3)="eib",E142='LC - EIB'!$U$2,D142='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10127,7 +10133,7 @@
         <v>139</v>
       </c>
       <c r="C142" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D142" s="67">
         <v>42717</v>
@@ -10139,7 +10145,7 @@
         <v>132</v>
       </c>
       <c r="G142" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H142" s="107" t="s">
         <v>130</v>
@@ -10152,7 +10158,7 @@
       <c r="L142" s="65"/>
       <c r="M142" s="65"/>
       <c r="N142" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O142" s="68">
         <v>71000</v>
@@ -10164,7 +10170,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="143" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A143" s="55" t="str">
         <f>IF(AND(C143="pv",E143='UNC - PV'!$S$2,D143='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C143,3)="eib",E143='UNC - EIB'!$V$2,D143='UNC - EIB'!$T$2),"x1",IF(AND(C143="pv",E143='LC - PV'!$R$2,D143='LC - PV'!$P$2),"x2",IF(AND(LEFT(C143,3)="eib",E143='LC - EIB'!$U$2,D143='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10174,7 +10180,7 @@
         <v>140</v>
       </c>
       <c r="C143" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D143" s="67">
         <v>42718</v>
@@ -10183,23 +10189,23 @@
         <v>23</v>
       </c>
       <c r="F143" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G143" s="64" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H143" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I143" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J143" s="66"/>
       <c r="K143" s="67"/>
       <c r="L143" s="65"/>
       <c r="M143" s="65"/>
       <c r="N143" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O143" s="68"/>
       <c r="P143" s="69">
@@ -10211,7 +10217,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="144" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A144" s="55" t="str">
         <f>IF(AND(C144="pv",E144='UNC - PV'!$S$2,D144='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C144,3)="eib",E144='UNC - EIB'!$V$2,D144='UNC - EIB'!$T$2),"x1",IF(AND(C144="pv",E144='LC - PV'!$R$2,D144='LC - PV'!$P$2),"x2",IF(AND(LEFT(C144,3)="eib",E144='LC - EIB'!$U$2,D144='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10221,7 +10227,7 @@
         <v>141</v>
       </c>
       <c r="C144" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D144" s="67">
         <v>42718</v>
@@ -10230,23 +10236,23 @@
         <v>24</v>
       </c>
       <c r="F144" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G144" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H144" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I144" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J144" s="66"/>
       <c r="K144" s="67"/>
       <c r="L144" s="65"/>
       <c r="M144" s="65"/>
       <c r="N144" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O144" s="68"/>
       <c r="P144" s="69">
@@ -10258,7 +10264,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="145" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A145" s="55" t="str">
         <f>IF(AND(C145="pv",E145='UNC - PV'!$S$2,D145='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C145,3)="eib",E145='UNC - EIB'!$V$2,D145='UNC - EIB'!$T$2),"x1",IF(AND(C145="pv",E145='LC - PV'!$R$2,D145='LC - PV'!$P$2),"x2",IF(AND(LEFT(C145,3)="eib",E145='LC - EIB'!$U$2,D145='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10268,7 +10274,7 @@
         <v>142</v>
       </c>
       <c r="C145" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D145" s="67">
         <v>42718</v>
@@ -10277,13 +10283,13 @@
         <v>25</v>
       </c>
       <c r="F145" s="64" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G145" s="64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H145" s="64" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I145" s="62" t="s">
         <v>10</v>
@@ -10293,7 +10299,7 @@
       <c r="L145" s="65"/>
       <c r="M145" s="65"/>
       <c r="N145" s="64" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O145" s="68"/>
       <c r="P145" s="69">
@@ -10305,7 +10311,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="146" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10315,7 +10321,7 @@
         <v>143</v>
       </c>
       <c r="C146" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="67">
         <v>42718</v>
@@ -10324,13 +10330,13 @@
         <v>26</v>
       </c>
       <c r="F146" s="64" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G146" s="64" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H146" s="64" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I146" s="62" t="s">
         <v>10</v>
@@ -10340,7 +10346,7 @@
       <c r="L146" s="65"/>
       <c r="M146" s="65"/>
       <c r="N146" s="64" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O146" s="68"/>
       <c r="P146" s="69">
@@ -10352,7 +10358,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="147" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A147" s="55" t="str">
         <f>IF(AND(C147="pv",E147='UNC - PV'!$S$2,D147='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C147,3)="eib",E147='UNC - EIB'!$V$2,D147='UNC - EIB'!$T$2),"x1",IF(AND(C147="pv",E147='LC - PV'!$R$2,D147='LC - PV'!$P$2),"x2",IF(AND(LEFT(C147,3)="eib",E147='LC - EIB'!$U$2,D147='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10362,7 +10368,7 @@
         <v>144</v>
       </c>
       <c r="C147" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D147" s="67">
         <v>42741</v>
@@ -10374,7 +10380,7 @@
         <v>132</v>
       </c>
       <c r="G147" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H147" s="107" t="s">
         <v>130</v>
@@ -10387,7 +10393,7 @@
       <c r="L147" s="65"/>
       <c r="M147" s="65"/>
       <c r="N147" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O147" s="68">
         <v>43500</v>
@@ -10399,7 +10405,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="148" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10409,7 +10415,7 @@
         <v>145</v>
       </c>
       <c r="C148" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D148" s="67">
         <v>42746</v>
@@ -10434,7 +10440,7 @@
       <c r="L148" s="65"/>
       <c r="M148" s="65"/>
       <c r="N148" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O148" s="68"/>
       <c r="P148" s="69">
@@ -10446,7 +10452,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="149" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A149" s="55" t="str">
         <f>IF(AND(C149="pv",E149='UNC - PV'!$S$2,D149='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C149,3)="eib",E149='UNC - EIB'!$V$2,D149='UNC - EIB'!$T$2),"x1",IF(AND(C149="pv",E149='LC - PV'!$R$2,D149='LC - PV'!$P$2),"x2",IF(AND(LEFT(C149,3)="eib",E149='LC - EIB'!$U$2,D149='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10456,7 +10462,7 @@
         <v>146</v>
       </c>
       <c r="C149" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="67">
         <v>42774</v>
@@ -10468,7 +10474,7 @@
         <v>132</v>
       </c>
       <c r="G149" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H149" s="107" t="s">
         <v>130</v>
@@ -10481,7 +10487,7 @@
       <c r="L149" s="65"/>
       <c r="M149" s="65"/>
       <c r="N149" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O149" s="68">
         <v>53000</v>
@@ -10493,7 +10499,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="150" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10503,7 +10509,7 @@
         <v>147</v>
       </c>
       <c r="C150" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D150" s="67">
         <v>42779</v>
@@ -10528,7 +10534,7 @@
       <c r="L150" s="65"/>
       <c r="M150" s="65"/>
       <c r="N150" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O150" s="68"/>
       <c r="P150" s="69">
@@ -10540,7 +10546,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="151" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A151" s="55" t="str">
         <f>IF(AND(C151="pv",E151='UNC - PV'!$S$2,D151='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C151,3)="eib",E151='UNC - EIB'!$V$2,D151='UNC - EIB'!$T$2),"x1",IF(AND(C151="pv",E151='LC - PV'!$R$2,D151='LC - PV'!$P$2),"x2",IF(AND(LEFT(C151,3)="eib",E151='LC - EIB'!$U$2,D151='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10550,7 +10556,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D151" s="67">
         <v>42845</v>
@@ -10559,23 +10565,23 @@
         <v>23</v>
       </c>
       <c r="F151" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G151" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H151" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I151" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J151" s="66"/>
       <c r="K151" s="67"/>
       <c r="L151" s="65"/>
       <c r="M151" s="65"/>
       <c r="N151" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O151" s="68"/>
       <c r="P151" s="69">
@@ -10587,7 +10593,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="152" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A152" s="55" t="str">
         <f>IF(AND(C152="pv",E152='UNC - PV'!$S$2,D152='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C152,3)="eib",E152='UNC - EIB'!$V$2,D152='UNC - EIB'!$T$2),"x1",IF(AND(C152="pv",E152='LC - PV'!$R$2,D152='LC - PV'!$P$2),"x2",IF(AND(LEFT(C152,3)="eib",E152='LC - EIB'!$U$2,D152='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10597,7 +10603,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D152" s="67">
         <v>42845</v>
@@ -10606,23 +10612,23 @@
         <v>24</v>
       </c>
       <c r="F152" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G152" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H152" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I152" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J152" s="66"/>
       <c r="K152" s="67"/>
       <c r="L152" s="65"/>
       <c r="M152" s="65"/>
       <c r="N152" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O152" s="68"/>
       <c r="P152" s="69">
@@ -10634,7 +10640,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="153" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A153" s="55" t="str">
         <f>IF(AND(C153="pv",E153='UNC - PV'!$S$2,D153='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C153,3)="eib",E153='UNC - EIB'!$V$2,D153='UNC - EIB'!$T$2),"x1",IF(AND(C153="pv",E153='LC - PV'!$R$2,D153='LC - PV'!$P$2),"x2",IF(AND(LEFT(C153,3)="eib",E153='LC - EIB'!$U$2,D153='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10644,7 +10650,7 @@
         <v>150</v>
       </c>
       <c r="C153" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D153" s="67">
         <v>42851</v>
@@ -10653,23 +10659,23 @@
         <v>23</v>
       </c>
       <c r="F153" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G153" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H153" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I153" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J153" s="66"/>
       <c r="K153" s="67"/>
       <c r="L153" s="65"/>
       <c r="M153" s="65"/>
       <c r="N153" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O153" s="68"/>
       <c r="P153" s="69">
@@ -10681,7 +10687,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="154" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10691,7 +10697,7 @@
         <v>151</v>
       </c>
       <c r="C154" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154" s="67">
         <v>42874</v>
@@ -10716,7 +10722,7 @@
       <c r="L154" s="65"/>
       <c r="M154" s="65"/>
       <c r="N154" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O154" s="68"/>
       <c r="P154" s="69">
@@ -10728,7 +10734,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="155" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A155" s="55" t="str">
         <f>IF(AND(C155="pv",E155='UNC - PV'!$S$2,D155='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C155,3)="eib",E155='UNC - EIB'!$V$2,D155='UNC - EIB'!$T$2),"x1",IF(AND(C155="pv",E155='LC - PV'!$R$2,D155='LC - PV'!$P$2),"x2",IF(AND(LEFT(C155,3)="eib",E155='LC - EIB'!$U$2,D155='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10738,7 +10744,7 @@
         <v>152</v>
       </c>
       <c r="C155" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D155" s="67">
         <v>42892</v>
@@ -10763,7 +10769,7 @@
       <c r="L155" s="65"/>
       <c r="M155" s="65"/>
       <c r="N155" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O155" s="68"/>
       <c r="P155" s="69">
@@ -10775,7 +10781,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="156" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A156" s="55" t="str">
         <f>IF(AND(C156="pv",E156='UNC - PV'!$S$2,D156='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C156,3)="eib",E156='UNC - EIB'!$V$2,D156='UNC - EIB'!$T$2),"x1",IF(AND(C156="pv",E156='LC - PV'!$R$2,D156='LC - PV'!$P$2),"x2",IF(AND(LEFT(C156,3)="eib",E156='LC - EIB'!$U$2,D156='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10785,7 +10791,7 @@
         <v>153</v>
       </c>
       <c r="C156" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D156" s="67">
         <v>42900</v>
@@ -10794,13 +10800,13 @@
         <v>23</v>
       </c>
       <c r="F156" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G156" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H156" s="64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I156" s="65" t="s">
         <v>35</v>
@@ -10810,7 +10816,7 @@
       <c r="L156" s="65"/>
       <c r="M156" s="65"/>
       <c r="N156" s="64" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="O156" s="68"/>
       <c r="P156" s="69">
@@ -10822,7 +10828,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="157" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A157" s="55" t="str">
         <f>IF(AND(C157="pv",E157='UNC - PV'!$S$2,D157='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C157,3)="eib",E157='UNC - EIB'!$V$2,D157='UNC - EIB'!$T$2),"x1",IF(AND(C157="pv",E157='LC - PV'!$R$2,D157='LC - PV'!$P$2),"x2",IF(AND(LEFT(C157,3)="eib",E157='LC - EIB'!$U$2,D157='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10832,7 +10838,7 @@
         <v>154</v>
       </c>
       <c r="C157" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D157" s="67">
         <v>42907</v>
@@ -10857,7 +10863,7 @@
       <c r="L157" s="65"/>
       <c r="M157" s="65"/>
       <c r="N157" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O157" s="68"/>
       <c r="P157" s="69">
@@ -10869,7 +10875,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="158" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A158" s="55" t="str">
         <f>IF(AND(C158="pv",E158='UNC - PV'!$S$2,D158='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C158,3)="eib",E158='UNC - EIB'!$V$2,D158='UNC - EIB'!$T$2),"x1",IF(AND(C158="pv",E158='LC - PV'!$R$2,D158='LC - PV'!$P$2),"x2",IF(AND(LEFT(C158,3)="eib",E158='LC - EIB'!$U$2,D158='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10879,7 +10885,7 @@
         <v>155</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D158" s="67">
         <v>42914</v>
@@ -10888,13 +10894,13 @@
         <v>23</v>
       </c>
       <c r="F158" s="64" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G158" s="64" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H158" s="64" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I158" s="105" t="s">
         <v>10</v>
@@ -10904,7 +10910,7 @@
       <c r="L158" s="65"/>
       <c r="M158" s="65"/>
       <c r="N158" s="64" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O158" s="68"/>
       <c r="P158" s="69">
@@ -10916,7 +10922,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="159" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A159" s="55" t="str">
         <f>IF(AND(C159="pv",E159='UNC - PV'!$S$2,D159='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C159,3)="eib",E159='UNC - EIB'!$V$2,D159='UNC - EIB'!$T$2),"x1",IF(AND(C159="pv",E159='LC - PV'!$R$2,D159='LC - PV'!$P$2),"x2",IF(AND(LEFT(C159,3)="eib",E159='LC - EIB'!$U$2,D159='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10926,7 +10932,7 @@
         <v>156</v>
       </c>
       <c r="C159" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D159" s="67">
         <v>42914</v>
@@ -10935,13 +10941,13 @@
         <v>24</v>
       </c>
       <c r="F159" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G159" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G159" s="71" t="s">
+      <c r="H159" s="64" t="s">
         <v>175</v>
-      </c>
-      <c r="H159" s="64" t="s">
-        <v>176</v>
       </c>
       <c r="I159" s="105" t="s">
         <v>10</v>
@@ -10951,7 +10957,7 @@
       <c r="L159" s="65"/>
       <c r="M159" s="65"/>
       <c r="N159" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O159" s="68"/>
       <c r="P159" s="69">
@@ -10963,7 +10969,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="160" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A160" s="55" t="str">
         <f>IF(AND(C160="pv",E160='UNC - PV'!$S$2,D160='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C160,3)="eib",E160='UNC - EIB'!$V$2,D160='UNC - EIB'!$T$2),"x1",IF(AND(C160="pv",E160='LC - PV'!$R$2,D160='LC - PV'!$P$2),"x2",IF(AND(LEFT(C160,3)="eib",E160='LC - EIB'!$U$2,D160='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10973,7 +10979,7 @@
         <v>157</v>
       </c>
       <c r="C160" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D160" s="67">
         <v>42914</v>
@@ -10982,13 +10988,13 @@
         <v>25</v>
       </c>
       <c r="F160" s="64" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G160" s="64" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H160" s="64" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I160" s="105" t="s">
         <v>10</v>
@@ -10998,7 +11004,7 @@
       <c r="L160" s="65"/>
       <c r="M160" s="65"/>
       <c r="N160" s="64" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O160" s="68"/>
       <c r="P160" s="69">
@@ -11010,7 +11016,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="161" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A161" s="55" t="str">
         <f>IF(AND(C161="pv",E161='UNC - PV'!$S$2,D161='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C161,3)="eib",E161='UNC - EIB'!$V$2,D161='UNC - EIB'!$T$2),"x1",IF(AND(C161="pv",E161='LC - PV'!$R$2,D161='LC - PV'!$P$2),"x2",IF(AND(LEFT(C161,3)="eib",E161='LC - EIB'!$U$2,D161='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11020,7 +11026,7 @@
         <v>158</v>
       </c>
       <c r="C161" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D161" s="67">
         <v>42915</v>
@@ -11032,7 +11038,7 @@
         <v>132</v>
       </c>
       <c r="G161" s="107" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H161" s="107" t="s">
         <v>130</v>
@@ -11045,7 +11051,7 @@
       <c r="L161" s="65"/>
       <c r="M161" s="65"/>
       <c r="N161" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O161" s="68">
         <v>243800</v>
@@ -11057,7 +11063,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="162" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A162" s="55" t="str">
         <f>IF(AND(C162="pv",E162='UNC - PV'!$S$2,D162='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C162,3)="eib",E162='UNC - EIB'!$V$2,D162='UNC - EIB'!$T$2),"x1",IF(AND(C162="pv",E162='LC - PV'!$R$2,D162='LC - PV'!$P$2),"x2",IF(AND(LEFT(C162,3)="eib",E162='LC - EIB'!$U$2,D162='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11067,7 +11073,7 @@
         <v>159</v>
       </c>
       <c r="C162" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D162" s="67">
         <v>42922</v>
@@ -11076,13 +11082,13 @@
         <v>23</v>
       </c>
       <c r="F162" s="64" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G162" s="71" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H162" s="64" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I162" s="105" t="s">
         <v>10</v>
@@ -11092,7 +11098,7 @@
       <c r="L162" s="65"/>
       <c r="M162" s="65"/>
       <c r="N162" s="64" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O162" s="68"/>
       <c r="P162" s="69">
@@ -11104,7 +11110,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="163" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A163" s="55" t="str">
         <f>IF(AND(C163="pv",E163='UNC - PV'!$S$2,D163='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C163,3)="eib",E163='UNC - EIB'!$V$2,D163='UNC - EIB'!$T$2),"x1",IF(AND(C163="pv",E163='LC - PV'!$R$2,D163='LC - PV'!$P$2),"x2",IF(AND(LEFT(C163,3)="eib",E163='LC - EIB'!$U$2,D163='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11114,7 +11120,7 @@
         <v>160</v>
       </c>
       <c r="C163" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D163" s="67">
         <v>42922</v>
@@ -11123,13 +11129,13 @@
         <v>24</v>
       </c>
       <c r="F163" s="64" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G163" s="64" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H163" s="64" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I163" s="65" t="s">
         <v>35</v>
@@ -11139,7 +11145,7 @@
       <c r="L163" s="65"/>
       <c r="M163" s="65"/>
       <c r="N163" s="64" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="O163" s="68"/>
       <c r="P163" s="69">
@@ -11151,7 +11157,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="164" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A164" s="55" t="str">
         <f>IF(AND(C164="pv",E164='UNC - PV'!$S$2,D164='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C164,3)="eib",E164='UNC - EIB'!$V$2,D164='UNC - EIB'!$T$2),"x1",IF(AND(C164="pv",E164='LC - PV'!$R$2,D164='LC - PV'!$P$2),"x2",IF(AND(LEFT(C164,3)="eib",E164='LC - EIB'!$U$2,D164='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11161,7 +11167,7 @@
         <v>161</v>
       </c>
       <c r="C164" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D164" s="67">
         <v>42922</v>
@@ -11170,23 +11176,23 @@
         <v>25</v>
       </c>
       <c r="F164" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G164" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H164" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I164" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J164" s="66"/>
       <c r="K164" s="67"/>
       <c r="L164" s="65"/>
       <c r="M164" s="65"/>
       <c r="N164" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O164" s="68"/>
       <c r="P164" s="69">
@@ -11198,7 +11204,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="165" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A165" s="55" t="str">
         <f>IF(AND(C165="pv",E165='UNC - PV'!$S$2,D165='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C165,3)="eib",E165='UNC - EIB'!$V$2,D165='UNC - EIB'!$T$2),"x1",IF(AND(C165="pv",E165='LC - PV'!$R$2,D165='LC - PV'!$P$2),"x2",IF(AND(LEFT(C165,3)="eib",E165='LC - EIB'!$U$2,D165='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11208,7 +11214,7 @@
         <v>162</v>
       </c>
       <c r="C165" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D165" s="67">
         <v>42922</v>
@@ -11217,23 +11223,23 @@
         <v>26</v>
       </c>
       <c r="F165" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G165" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H165" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I165" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J165" s="66"/>
       <c r="K165" s="67"/>
       <c r="L165" s="65"/>
       <c r="M165" s="65"/>
       <c r="N165" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O165" s="68"/>
       <c r="P165" s="69">
@@ -11245,7 +11251,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="166" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A166" s="55" t="str">
         <f>IF(AND(C166="pv",E166='UNC - PV'!$S$2,D166='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C166,3)="eib",E166='UNC - EIB'!$V$2,D166='UNC - EIB'!$T$2),"x1",IF(AND(C166="pv",E166='LC - PV'!$R$2,D166='LC - PV'!$P$2),"x2",IF(AND(LEFT(C166,3)="eib",E166='LC - EIB'!$U$2,D166='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11255,7 +11261,7 @@
         <v>163</v>
       </c>
       <c r="C166" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D166" s="67">
         <v>42923</v>
@@ -11280,7 +11286,7 @@
       <c r="L166" s="65"/>
       <c r="M166" s="65"/>
       <c r="N166" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O166" s="68"/>
       <c r="P166" s="69">
@@ -11292,7 +11298,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="167" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A167" s="55" t="str">
         <f>IF(AND(C167="pv",E167='UNC - PV'!$S$2,D167='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C167,3)="eib",E167='UNC - EIB'!$V$2,D167='UNC - EIB'!$T$2),"x1",IF(AND(C167="pv",E167='LC - PV'!$R$2,D167='LC - PV'!$P$2),"x2",IF(AND(LEFT(C167,3)="eib",E167='LC - EIB'!$U$2,D167='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11302,7 +11308,7 @@
         <v>164</v>
       </c>
       <c r="C167" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D167" s="67">
         <v>42926</v>
@@ -11311,23 +11317,23 @@
         <v>23</v>
       </c>
       <c r="F167" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G167" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H167" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I167" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J167" s="66"/>
       <c r="K167" s="67"/>
       <c r="L167" s="65"/>
       <c r="M167" s="65"/>
       <c r="N167" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O167" s="68"/>
       <c r="P167" s="69">
@@ -11339,7 +11345,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="168" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A168" s="55" t="str">
         <f>IF(AND(C168="pv",E168='UNC - PV'!$S$2,D168='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C168,3)="eib",E168='UNC - EIB'!$V$2,D168='UNC - EIB'!$T$2),"x1",IF(AND(C168="pv",E168='LC - PV'!$R$2,D168='LC - PV'!$P$2),"x2",IF(AND(LEFT(C168,3)="eib",E168='LC - EIB'!$U$2,D168='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11349,7 +11355,7 @@
         <v>165</v>
       </c>
       <c r="C168" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D168" s="67">
         <v>42926</v>
@@ -11358,23 +11364,23 @@
         <v>24</v>
       </c>
       <c r="F168" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G168" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H168" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I168" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J168" s="66"/>
       <c r="K168" s="67"/>
       <c r="L168" s="65"/>
       <c r="M168" s="65"/>
       <c r="N168" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O168" s="68"/>
       <c r="P168" s="69">
@@ -11386,7 +11392,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="169" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A169" s="55" t="str">
         <f>IF(AND(C169="pv",E169='UNC - PV'!$S$2,D169='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C169,3)="eib",E169='UNC - EIB'!$V$2,D169='UNC - EIB'!$T$2),"x1",IF(AND(C169="pv",E169='LC - PV'!$R$2,D169='LC - PV'!$P$2),"x2",IF(AND(LEFT(C169,3)="eib",E169='LC - EIB'!$U$2,D169='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11396,7 +11402,7 @@
         <v>166</v>
       </c>
       <c r="C169" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D169" s="67">
         <v>42926</v>
@@ -11405,13 +11411,13 @@
         <v>25</v>
       </c>
       <c r="F169" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G169" s="71" t="s">
+        <v>385</v>
+      </c>
+      <c r="H169" s="64" t="s">
         <v>190</v>
-      </c>
-      <c r="G169" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="H169" s="64" t="s">
-        <v>191</v>
       </c>
       <c r="I169" s="105" t="s">
         <v>10</v>
@@ -11421,7 +11427,7 @@
       <c r="L169" s="65"/>
       <c r="M169" s="65"/>
       <c r="N169" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O169" s="68"/>
       <c r="P169" s="69">
@@ -11433,7 +11439,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="170" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A170" s="55" t="str">
         <f>IF(AND(C170="pv",E170='UNC - PV'!$S$2,D170='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C170,3)="eib",E170='UNC - EIB'!$V$2,D170='UNC - EIB'!$T$2),"x1",IF(AND(C170="pv",E170='LC - PV'!$R$2,D170='LC - PV'!$P$2),"x2",IF(AND(LEFT(C170,3)="eib",E170='LC - EIB'!$U$2,D170='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11443,7 +11449,7 @@
         <v>167</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D170" s="67">
         <v>42926</v>
@@ -11452,13 +11458,13 @@
         <v>26</v>
       </c>
       <c r="F170" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G170" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H170" s="64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I170" s="65" t="s">
         <v>35</v>
@@ -11468,7 +11474,7 @@
       <c r="L170" s="65"/>
       <c r="M170" s="65"/>
       <c r="N170" s="64" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O170" s="68"/>
       <c r="P170" s="69">
@@ -11480,7 +11486,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="171" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A171" s="55" t="str">
         <f>IF(AND(C171="pv",E171='UNC - PV'!$S$2,D171='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C171,3)="eib",E171='UNC - EIB'!$V$2,D171='UNC - EIB'!$T$2),"x1",IF(AND(C171="pv",E171='LC - PV'!$R$2,D171='LC - PV'!$P$2),"x2",IF(AND(LEFT(C171,3)="eib",E171='LC - EIB'!$U$2,D171='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11490,7 +11496,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D171" s="67">
         <v>42926</v>
@@ -11499,23 +11505,23 @@
         <v>84</v>
       </c>
       <c r="F171" s="64" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G171" s="64" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H171" s="64" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I171" s="65" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J171" s="66"/>
       <c r="K171" s="67"/>
       <c r="L171" s="65"/>
       <c r="M171" s="65"/>
       <c r="N171" s="64" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O171" s="68"/>
       <c r="P171" s="69">
@@ -11527,7 +11533,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="172" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A172" s="55" t="str">
         <f>IF(AND(C172="pv",E172='UNC - PV'!$S$2,D172='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C172,3)="eib",E172='UNC - EIB'!$V$2,D172='UNC - EIB'!$T$2),"x1",IF(AND(C172="pv",E172='LC - PV'!$R$2,D172='LC - PV'!$P$2),"x2",IF(AND(LEFT(C172,3)="eib",E172='LC - EIB'!$U$2,D172='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11537,7 +11543,7 @@
         <v>169</v>
       </c>
       <c r="C172" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D172" s="67">
         <v>42930</v>
@@ -11546,23 +11552,23 @@
         <v>23</v>
       </c>
       <c r="F172" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G172" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H172" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I172" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J172" s="66"/>
       <c r="K172" s="67"/>
       <c r="L172" s="65"/>
       <c r="M172" s="65"/>
       <c r="N172" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O172" s="68"/>
       <c r="P172" s="69">
@@ -11574,7 +11580,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="173" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A173" s="55" t="str">
         <f>IF(AND(C173="pv",E173='UNC - PV'!$S$2,D173='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C173,3)="eib",E173='UNC - EIB'!$V$2,D173='UNC - EIB'!$T$2),"x1",IF(AND(C173="pv",E173='LC - PV'!$R$2,D173='LC - PV'!$P$2),"x2",IF(AND(LEFT(C173,3)="eib",E173='LC - EIB'!$U$2,D173='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11584,7 +11590,7 @@
         <v>170</v>
       </c>
       <c r="C173" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D173" s="67">
         <v>42930</v>
@@ -11593,23 +11599,23 @@
         <v>24</v>
       </c>
       <c r="F173" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G173" s="64" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H173" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I173" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J173" s="66"/>
       <c r="K173" s="67"/>
       <c r="L173" s="65"/>
       <c r="M173" s="65"/>
       <c r="N173" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O173" s="68"/>
       <c r="P173" s="69">
@@ -11621,7 +11627,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="174" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A174" s="55" t="str">
         <f>IF(AND(C174="pv",E174='UNC - PV'!$S$2,D174='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C174,3)="eib",E174='UNC - EIB'!$V$2,D174='UNC - EIB'!$T$2),"x1",IF(AND(C174="pv",E174='LC - PV'!$R$2,D174='LC - PV'!$P$2),"x2",IF(AND(LEFT(C174,3)="eib",E174='LC - EIB'!$U$2,D174='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11631,7 +11637,7 @@
         <v>171</v>
       </c>
       <c r="C174" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D174" s="67">
         <v>42933</v>
@@ -11656,7 +11662,7 @@
       <c r="L174" s="65"/>
       <c r="M174" s="65"/>
       <c r="N174" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O174" s="68"/>
       <c r="P174" s="69">
@@ -11668,7 +11674,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="175" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A175" s="55" t="str">
         <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11678,7 +11684,7 @@
         <v>172</v>
       </c>
       <c r="C175" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D175" s="67">
         <v>42933</v>
@@ -11687,13 +11693,13 @@
         <v>24</v>
       </c>
       <c r="F175" s="64" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G175" s="64" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H175" s="64" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I175" s="105" t="s">
         <v>10</v>
@@ -11703,7 +11709,7 @@
       <c r="L175" s="65"/>
       <c r="M175" s="65"/>
       <c r="N175" s="64" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O175" s="68"/>
       <c r="P175" s="69">
@@ -11715,7 +11721,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="176" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A176" s="55" t="str">
         <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11725,7 +11731,7 @@
         <v>173</v>
       </c>
       <c r="C176" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D176" s="67">
         <v>42933</v>
@@ -11734,13 +11740,13 @@
         <v>25</v>
       </c>
       <c r="F176" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G176" s="71" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H176" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I176" s="105" t="s">
         <v>10</v>
@@ -11750,7 +11756,7 @@
       <c r="L176" s="65"/>
       <c r="M176" s="65"/>
       <c r="N176" s="64" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O176" s="68"/>
       <c r="P176" s="69">
@@ -11762,7 +11768,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="177" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A177" s="55" t="str">
         <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11772,7 +11778,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D177" s="67">
         <v>42933</v>
@@ -11781,13 +11787,13 @@
         <v>26</v>
       </c>
       <c r="F177" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G177" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="H177" s="64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I177" s="105" t="s">
         <v>10</v>
@@ -11797,7 +11803,7 @@
       <c r="L177" s="65"/>
       <c r="M177" s="65"/>
       <c r="N177" s="64" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="O177" s="68"/>
       <c r="P177" s="69">
@@ -11809,7 +11815,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="178" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A178" s="55" t="str">
         <f>IF(AND(C178="pv",E178='UNC - PV'!$S$2,D178='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C178,3)="eib",E178='UNC - EIB'!$V$2,D178='UNC - EIB'!$T$2),"x1",IF(AND(C178="pv",E178='LC - PV'!$R$2,D178='LC - PV'!$P$2),"x2",IF(AND(LEFT(C178,3)="eib",E178='LC - EIB'!$U$2,D178='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11819,7 +11825,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D178" s="67">
         <v>42935</v>
@@ -11828,23 +11834,23 @@
         <v>23</v>
       </c>
       <c r="F178" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G178" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H178" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I178" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J178" s="66"/>
       <c r="K178" s="67"/>
       <c r="L178" s="65"/>
       <c r="M178" s="65"/>
       <c r="N178" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O178" s="68"/>
       <c r="P178" s="132">
@@ -11856,7 +11862,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="179" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A179" s="55" t="str">
         <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11866,7 +11872,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D179" s="67">
         <v>42935</v>
@@ -11875,23 +11881,23 @@
         <v>24</v>
       </c>
       <c r="F179" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G179" s="64" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H179" s="64" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I179" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J179" s="66"/>
       <c r="K179" s="67"/>
       <c r="L179" s="65"/>
       <c r="M179" s="65"/>
       <c r="N179" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O179" s="68"/>
       <c r="P179" s="132">
@@ -11903,7 +11909,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="180" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A180" s="55" t="str">
         <f>IF(AND(C180="pv",E180='UNC - PV'!$S$2,D180='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C180,3)="eib",E180='UNC - EIB'!$V$2,D180='UNC - EIB'!$T$2),"x1",IF(AND(C180="pv",E180='LC - PV'!$R$2,D180='LC - PV'!$P$2),"x2",IF(AND(LEFT(C180,3)="eib",E180='LC - EIB'!$U$2,D180='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11913,7 +11919,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D180" s="67">
         <v>42942</v>
@@ -11922,23 +11928,23 @@
         <v>23</v>
       </c>
       <c r="F180" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G180" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H180" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I180" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J180" s="66"/>
       <c r="K180" s="67"/>
       <c r="L180" s="65"/>
       <c r="M180" s="65"/>
       <c r="N180" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O180" s="68"/>
       <c r="P180" s="132">
@@ -11950,7 +11956,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="181" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A181" s="55" t="str">
         <f>IF(AND(C181="pv",E181='UNC - PV'!$S$2,D181='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C181,3)="eib",E181='UNC - EIB'!$V$2,D181='UNC - EIB'!$T$2),"x1",IF(AND(C181="pv",E181='LC - PV'!$R$2,D181='LC - PV'!$P$2),"x2",IF(AND(LEFT(C181,3)="eib",E181='LC - EIB'!$U$2,D181='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11960,7 +11966,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D181" s="67">
         <v>42944</v>
@@ -11969,13 +11975,13 @@
         <v>23</v>
       </c>
       <c r="F181" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G181" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H181" s="64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I181" s="65" t="s">
         <v>35</v>
@@ -11985,7 +11991,7 @@
       <c r="L181" s="65"/>
       <c r="M181" s="65"/>
       <c r="N181" s="64" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="O181" s="68"/>
       <c r="P181" s="69">
@@ -11998,7 +12004,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="182" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A182" s="55" t="str">
         <f>IF(AND(C182="pv",E182='UNC - PV'!$S$2,D182='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C182,3)="eib",E182='UNC - EIB'!$V$2,D182='UNC - EIB'!$T$2),"x1",IF(AND(C182="pv",E182='LC - PV'!$R$2,D182='LC - PV'!$P$2),"x2",IF(AND(LEFT(C182,3)="eib",E182='LC - EIB'!$U$2,D182='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12008,7 +12014,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D182" s="67">
         <v>42948</v>
@@ -12045,7 +12051,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="183" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A183" s="55" t="str">
         <f>IF(AND(C183="pv",E183='UNC - PV'!$S$2,D183='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C183,3)="eib",E183='UNC - EIB'!$V$2,D183='UNC - EIB'!$T$2),"x1",IF(AND(C183="pv",E183='LC - PV'!$R$2,D183='LC - PV'!$P$2),"x2",IF(AND(LEFT(C183,3)="eib",E183='LC - EIB'!$U$2,D183='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12055,7 +12061,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D183" s="67">
         <v>42948</v>
@@ -12064,13 +12070,13 @@
         <v>24</v>
       </c>
       <c r="F183" s="64" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G183" s="64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H183" s="64" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I183" s="62" t="s">
         <v>10</v>
@@ -12080,7 +12086,7 @@
       <c r="L183" s="65"/>
       <c r="M183" s="65"/>
       <c r="N183" s="64" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O183" s="68"/>
       <c r="P183" s="69">
@@ -12092,7 +12098,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="184" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A184" s="55" t="str">
         <f>IF(AND(C184="pv",E184='UNC - PV'!$S$2,D184='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C184,3)="eib",E184='UNC - EIB'!$V$2,D184='UNC - EIB'!$T$2),"x1",IF(AND(C184="pv",E184='LC - PV'!$R$2,D184='LC - PV'!$P$2),"x2",IF(AND(LEFT(C184,3)="eib",E184='LC - EIB'!$U$2,D184='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12102,7 +12108,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D184" s="67">
         <v>42948</v>
@@ -12111,13 +12117,13 @@
         <v>25</v>
       </c>
       <c r="F184" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G184" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="G184" s="107" t="s">
+      <c r="H184" s="107" t="s">
         <v>155</v>
-      </c>
-      <c r="H184" s="107" t="s">
-        <v>156</v>
       </c>
       <c r="I184" s="110" t="s">
         <v>10</v>
@@ -12127,7 +12133,7 @@
       <c r="L184" s="110"/>
       <c r="M184" s="110"/>
       <c r="N184" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O184" s="68"/>
       <c r="P184" s="69">
@@ -12139,7 +12145,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="185" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A185" s="55" t="str">
         <f>IF(AND(C185="pv",E185='UNC - PV'!$S$2,D185='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C185,3)="eib",E185='UNC - EIB'!$V$2,D185='UNC - EIB'!$T$2),"x1",IF(AND(C185="pv",E185='LC - PV'!$R$2,D185='LC - PV'!$P$2),"x2",IF(AND(LEFT(C185,3)="eib",E185='LC - EIB'!$U$2,D185='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12149,7 +12155,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D185" s="67">
         <v>42957</v>
@@ -12158,23 +12164,23 @@
         <v>23</v>
       </c>
       <c r="F185" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G185" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H185" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I185" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J185" s="66"/>
       <c r="K185" s="67"/>
       <c r="L185" s="65"/>
       <c r="M185" s="65"/>
       <c r="N185" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O185" s="68"/>
       <c r="P185" s="69">
@@ -12186,7 +12192,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="186" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A186" s="55" t="str">
         <f>IF(AND(C186="pv",E186='UNC - PV'!$S$2,D186='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C186,3)="eib",E186='UNC - EIB'!$V$2,D186='UNC - EIB'!$T$2),"x1",IF(AND(C186="pv",E186='LC - PV'!$R$2,D186='LC - PV'!$P$2),"x2",IF(AND(LEFT(C186,3)="eib",E186='LC - EIB'!$U$2,D186='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12196,7 +12202,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D186" s="67">
         <v>42957</v>
@@ -12205,23 +12211,23 @@
         <v>24</v>
       </c>
       <c r="F186" s="64" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G186" s="64" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H186" s="64" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I186" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J186" s="66"/>
       <c r="K186" s="67"/>
       <c r="L186" s="65"/>
       <c r="M186" s="65"/>
       <c r="N186" s="107" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O186" s="68"/>
       <c r="P186" s="69">
@@ -12233,7 +12239,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="187" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A187" s="55" t="str">
         <f>IF(AND(C187="pv",E187='UNC - PV'!$S$2,D187='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C187,3)="eib",E187='UNC - EIB'!$V$2,D187='UNC - EIB'!$T$2),"x1",IF(AND(C187="pv",E187='LC - PV'!$R$2,D187='LC - PV'!$P$2),"x2",IF(AND(LEFT(C187,3)="eib",E187='LC - EIB'!$U$2,D187='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12243,7 +12249,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D187" s="67">
         <v>42964</v>
@@ -12252,13 +12258,13 @@
         <v>23</v>
       </c>
       <c r="F187" s="64" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G187" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H187" s="64" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I187" s="105" t="s">
         <v>10</v>
@@ -12268,7 +12274,7 @@
       <c r="L187" s="65"/>
       <c r="M187" s="65"/>
       <c r="N187" s="64" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O187" s="68"/>
       <c r="P187" s="69">
@@ -12280,7 +12286,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="188" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A188" s="55" t="str">
         <f>IF(AND(C188="pv",E188='UNC - PV'!$S$2,D188='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C188,3)="eib",E188='UNC - EIB'!$V$2,D188='UNC - EIB'!$T$2),"x1",IF(AND(C188="pv",E188='LC - PV'!$R$2,D188='LC - PV'!$P$2),"x2",IF(AND(LEFT(C188,3)="eib",E188='LC - EIB'!$U$2,D188='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12290,7 +12296,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D188" s="67">
         <v>42964</v>
@@ -12299,13 +12305,13 @@
         <v>24</v>
       </c>
       <c r="F188" s="64" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G188" s="71" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H188" s="64" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I188" s="105" t="s">
         <v>10</v>
@@ -12315,7 +12321,7 @@
       <c r="L188" s="65"/>
       <c r="M188" s="65"/>
       <c r="N188" s="64" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O188" s="68"/>
       <c r="P188" s="69">
@@ -12327,7 +12333,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="189" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A189" s="55" t="str">
         <f>IF(AND(C189="pv",E189='UNC - PV'!$S$2,D189='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C189,3)="eib",E189='UNC - EIB'!$V$2,D189='UNC - EIB'!$T$2),"x1",IF(AND(C189="pv",E189='LC - PV'!$R$2,D189='LC - PV'!$P$2),"x2",IF(AND(LEFT(C189,3)="eib",E189='LC - EIB'!$U$2,D189='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12337,7 +12343,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D189" s="67">
         <v>42964</v>
@@ -12346,13 +12352,13 @@
         <v>25</v>
       </c>
       <c r="F189" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H189" s="64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I189" s="65" t="s">
         <v>35</v>
@@ -12362,7 +12368,7 @@
       <c r="L189" s="65"/>
       <c r="M189" s="65"/>
       <c r="N189" s="64" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O189" s="68"/>
       <c r="P189" s="69">
@@ -12374,7 +12380,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="190" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A190" s="55" t="str">
         <f>IF(AND(C190="pv",E190='UNC - PV'!$S$2,D190='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C190,3)="eib",E190='UNC - EIB'!$V$2,D190='UNC - EIB'!$T$2),"x1",IF(AND(C190="pv",E190='LC - PV'!$R$2,D190='LC - PV'!$P$2),"x2",IF(AND(LEFT(C190,3)="eib",E190='LC - EIB'!$U$2,D190='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12384,7 +12390,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D190" s="67">
         <v>42964</v>
@@ -12393,13 +12399,13 @@
         <v>26</v>
       </c>
       <c r="F190" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G190" s="107" t="s">
         <v>154</v>
       </c>
-      <c r="G190" s="107" t="s">
+      <c r="H190" s="107" t="s">
         <v>155</v>
-      </c>
-      <c r="H190" s="107" t="s">
-        <v>156</v>
       </c>
       <c r="I190" s="110" t="s">
         <v>10</v>
@@ -12409,7 +12415,7 @@
       <c r="L190" s="110"/>
       <c r="M190" s="110"/>
       <c r="N190" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O190" s="68"/>
       <c r="P190" s="69">
@@ -12421,7 +12427,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="191" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A191" s="55" t="str">
         <f>IF(AND(C191="pv",E191='UNC - PV'!$S$2,D191='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C191,3)="eib",E191='UNC - EIB'!$V$2,D191='UNC - EIB'!$T$2),"x1",IF(AND(C191="pv",E191='LC - PV'!$R$2,D191='LC - PV'!$P$2),"x2",IF(AND(LEFT(C191,3)="eib",E191='LC - EIB'!$U$2,D191='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12431,7 +12437,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D191" s="67">
         <v>42965</v>
@@ -12440,23 +12446,23 @@
         <v>23</v>
       </c>
       <c r="F191" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G191" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H191" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I191" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J191" s="66"/>
       <c r="K191" s="67"/>
       <c r="L191" s="65"/>
       <c r="M191" s="65"/>
       <c r="N191" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O191" s="68"/>
       <c r="P191" s="69">
@@ -12468,7 +12474,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="192" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A192" s="55" t="str">
         <f>IF(AND(C192="pv",E192='UNC - PV'!$S$2,D192='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C192,3)="eib",E192='UNC - EIB'!$V$2,D192='UNC - EIB'!$T$2),"x1",IF(AND(C192="pv",E192='LC - PV'!$R$2,D192='LC - PV'!$P$2),"x2",IF(AND(LEFT(C192,3)="eib",E192='LC - EIB'!$U$2,D192='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12478,7 +12484,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D192" s="67">
         <v>42972</v>
@@ -12490,10 +12496,10 @@
         <v>132</v>
       </c>
       <c r="G192" s="71" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H192" s="64" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I192" s="105" t="s">
         <v>10</v>
@@ -12503,7 +12509,7 @@
       <c r="L192" s="65"/>
       <c r="M192" s="65"/>
       <c r="N192" s="64" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O192" s="68">
         <v>400</v>
@@ -12515,7 +12521,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="193" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A193" s="55" t="str">
         <f>IF(AND(C193="pv",E193='UNC - PV'!$S$2,D193='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C193,3)="eib",E193='UNC - EIB'!$V$2,D193='UNC - EIB'!$T$2),"x1",IF(AND(C193="pv",E193='LC - PV'!$R$2,D193='LC - PV'!$P$2),"x2",IF(AND(LEFT(C193,3)="eib",E193='LC - EIB'!$U$2,D193='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12525,7 +12531,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D193" s="67">
         <v>42972</v>
@@ -12550,7 +12556,7 @@
       <c r="L193" s="65"/>
       <c r="M193" s="65"/>
       <c r="N193" s="70" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="O193" s="68"/>
       <c r="P193" s="69">
@@ -12562,7 +12568,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="194" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A194" s="55" t="str">
         <f>IF(AND(C194="pv",E194='UNC - PV'!$S$2,D194='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C194,3)="eib",E194='UNC - EIB'!$V$2,D194='UNC - EIB'!$T$2),"x1",IF(AND(C194="pv",E194='LC - PV'!$R$2,D194='LC - PV'!$P$2),"x2",IF(AND(LEFT(C194,3)="eib",E194='LC - EIB'!$U$2,D194='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12572,7 +12578,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D194" s="67">
         <v>42979</v>
@@ -12581,13 +12587,13 @@
         <v>23</v>
       </c>
       <c r="F194" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G194" s="71" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H194" s="64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I194" s="65" t="s">
         <v>35</v>
@@ -12597,7 +12603,7 @@
       <c r="L194" s="65"/>
       <c r="M194" s="65"/>
       <c r="N194" s="64" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O194" s="68"/>
       <c r="P194" s="69">
@@ -12610,7 +12616,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="195" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A195" s="55" t="str">
         <f>IF(AND(C195="pv",E195='UNC - PV'!$S$2,D195='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C195,3)="eib",E195='UNC - EIB'!$V$2,D195='UNC - EIB'!$T$2),"x1",IF(AND(C195="pv",E195='LC - PV'!$R$2,D195='LC - PV'!$P$2),"x2",IF(AND(LEFT(C195,3)="eib",E195='LC - EIB'!$U$2,D195='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12620,7 +12626,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D195" s="67">
         <v>42979</v>
@@ -12629,13 +12635,13 @@
         <v>24</v>
       </c>
       <c r="F195" s="64" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G195" s="64" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H195" s="64" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I195" s="65"/>
       <c r="J195" s="66"/>
@@ -12643,7 +12649,7 @@
       <c r="L195" s="65"/>
       <c r="M195" s="65"/>
       <c r="N195" s="64" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="O195" s="68"/>
       <c r="P195" s="69">
@@ -12656,7 +12662,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="196" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A196" s="55" t="str">
         <f>IF(AND(C196="pv",E196='UNC - PV'!$S$2,D196='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C196,3)="eib",E196='UNC - EIB'!$V$2,D196='UNC - EIB'!$T$2),"x1",IF(AND(C196="pv",E196='LC - PV'!$R$2,D196='LC - PV'!$P$2),"x2",IF(AND(LEFT(C196,3)="eib",E196='LC - EIB'!$U$2,D196='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12666,7 +12672,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D196" s="67">
         <v>42999</v>
@@ -12678,10 +12684,10 @@
         <v>132</v>
       </c>
       <c r="G196" s="71" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H196" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I196" s="105" t="s">
         <v>10</v>
@@ -12691,7 +12697,7 @@
       <c r="L196" s="65"/>
       <c r="M196" s="65"/>
       <c r="N196" s="64" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O196" s="68"/>
       <c r="P196" s="69">
@@ -12703,7 +12709,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x1</v>
@@ -12722,23 +12728,23 @@
         <v>24</v>
       </c>
       <c r="F197" s="64" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G197" s="64" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H197" s="64" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I197" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J197" s="66"/>
       <c r="K197" s="67"/>
       <c r="L197" s="65"/>
       <c r="M197" s="65"/>
       <c r="N197" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O197" s="68"/>
       <c r="P197" s="69">
@@ -12750,7 +12756,7 @@
         <v>e</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12763,13 +12769,13 @@
       <c r="D198" s="67"/>
       <c r="E198" s="65"/>
       <c r="F198" s="64" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G198" s="71" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H198" s="64" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I198" s="65" t="s">
         <v>35</v>
@@ -12779,7 +12785,7 @@
       <c r="L198" s="65"/>
       <c r="M198" s="65"/>
       <c r="N198" s="64" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="O198" s="68"/>
       <c r="P198" s="69">
@@ -12792,7 +12798,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="199" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A199" s="55" t="str">
         <f>IF(AND(C199="pv",E199='UNC - PV'!$S$2,D199='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C199,3)="eib",E199='UNC - EIB'!$V$2,D199='UNC - EIB'!$T$2),"x1",IF(AND(C199="pv",E199='LC - PV'!$R$2,D199='LC - PV'!$P$2),"x2",IF(AND(LEFT(C199,3)="eib",E199='LC - EIB'!$U$2,D199='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12802,7 +12808,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D199" s="67">
         <v>43000</v>
@@ -12811,13 +12817,13 @@
         <v>23</v>
       </c>
       <c r="F199" s="64" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G199" s="71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H199" s="64" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I199" s="105" t="s">
         <v>10</v>
@@ -12827,7 +12833,7 @@
       <c r="L199" s="65"/>
       <c r="M199" s="65"/>
       <c r="N199" s="64" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="O199" s="68"/>
       <c r="P199" s="69">
@@ -12839,7 +12845,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="200" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A200" s="55" t="str">
         <f>IF(AND(C200="pv",E200='UNC - PV'!$S$2,D200='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C200,3)="eib",E200='UNC - EIB'!$V$2,D200='UNC - EIB'!$T$2),"x1",IF(AND(C200="pv",E200='LC - PV'!$R$2,D200='LC - PV'!$P$2),"x2",IF(AND(LEFT(C200,3)="eib",E200='LC - EIB'!$U$2,D200='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12849,7 +12855,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D200" s="67">
         <v>43000</v>
@@ -12858,13 +12864,13 @@
         <v>24</v>
       </c>
       <c r="F200" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G200" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="H200" s="64" t="s">
         <v>216</v>
-      </c>
-      <c r="G200" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="H200" s="64" t="s">
-        <v>218</v>
       </c>
       <c r="I200" s="62" t="s">
         <v>10</v>
@@ -12874,7 +12880,7 @@
       <c r="L200" s="65"/>
       <c r="M200" s="65"/>
       <c r="N200" s="64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O200" s="68"/>
       <c r="P200" s="69">
@@ -12886,7 +12892,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="201" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A201" s="55" t="str">
         <f>IF(AND(C201="pv",E201='UNC - PV'!$S$2,D201='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C201,3)="eib",E201='UNC - EIB'!$V$2,D201='UNC - EIB'!$T$2),"x1",IF(AND(C201="pv",E201='LC - PV'!$R$2,D201='LC - PV'!$P$2),"x2",IF(AND(LEFT(C201,3)="eib",E201='LC - EIB'!$U$2,D201='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12896,7 +12902,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D201" s="67">
         <v>43003</v>
@@ -12905,23 +12911,23 @@
         <v>23</v>
       </c>
       <c r="F201" s="64" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G201" s="71" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H201" s="64" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="I201" s="65" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="J201" s="66"/>
       <c r="K201" s="67"/>
       <c r="L201" s="65"/>
       <c r="M201" s="65"/>
       <c r="N201" s="64" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="O201" s="68"/>
       <c r="P201" s="69">
@@ -12933,7 +12939,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="202" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A202" s="55" t="str">
         <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12943,7 +12949,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D202" s="67">
         <v>43004</v>
@@ -12955,10 +12961,10 @@
         <v>132</v>
       </c>
       <c r="G202" s="71" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H202" s="64" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I202" s="105" t="s">
         <v>10</v>
@@ -12968,7 +12974,7 @@
       <c r="L202" s="65"/>
       <c r="M202" s="65"/>
       <c r="N202" s="64" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O202" s="68">
         <v>200</v>
@@ -12980,17 +12986,17 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="203" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A203" s="55" t="str">
         <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B203" s="62">
         <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="C203" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D203" s="67">
         <v>43004</v>
@@ -13002,10 +13008,10 @@
         <v>132</v>
       </c>
       <c r="G203" s="71" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H203" s="64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I203" s="105" t="s">
         <v>10</v>
@@ -13015,7 +13021,7 @@
       <c r="L203" s="65"/>
       <c r="M203" s="65"/>
       <c r="N203" s="64" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="O203" s="68"/>
       <c r="P203" s="69">
@@ -13027,123 +13033,196 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="204" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A204" s="55" t="str">
         <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B204" s="62" t="str">
+      <c r="B204" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C204" s="62"/>
-      <c r="D204" s="67"/>
-      <c r="E204" s="65"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="65"/>
+        <v>201</v>
+      </c>
+      <c r="C204" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D204" s="67">
+        <v>43005</v>
+      </c>
+      <c r="E204" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="G204" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="H204" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="I204" s="65" t="s">
+        <v>333</v>
+      </c>
       <c r="J204" s="66"/>
       <c r="K204" s="67"/>
       <c r="L204" s="65"/>
       <c r="M204" s="65"/>
-      <c r="N204" s="64"/>
+      <c r="N204" s="64" t="s">
+        <v>334</v>
+      </c>
       <c r="O204" s="68"/>
-      <c r="P204" s="69"/>
+      <c r="P204" s="69">
+        <v>1480660000</v>
+      </c>
       <c r="Q204" s="104"/>
       <c r="R204" s="131" t="str">
         <f>IF(AND(C204="pv",D204='UNC - PV'!$Q$2,LEFT(E204,1)="u",'UNC - PV'!$O$2="vnđ",TH!P204&lt;&gt;""),"p",IF(AND(C204="pv",D204='UNC - PV'!$Q$2,LEFT(E204,1)="u",'UNC - PV'!$O$2="usd",TH!O204&lt;&gt;""),"p1",IF(AND(C204="pv",D204='LC - PV'!$P$2,LEFT(E204,1)="l"),"p2",IF(AND(LEFT(C204,3)="EIB",D204='UNC - EIB'!$T$2,LEFT(E204,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P204&lt;&gt;""),"e",IF(AND(LEFT(C204,3)="EIB",D204='UNC - EIB'!$T$2,LEFT(E204,1)="U",'UNC - EIB'!$R$2="usd",TH!O204&lt;&gt;""),"e1",IF(AND(LEFT(C204,3)="EIB",D204='LC - EIB'!$S$2,LEFT(E204,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="205" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A205" s="55" t="str">
         <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B205" s="62" t="str">
+      <c r="B205" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C205" s="62"/>
-      <c r="D205" s="67"/>
-      <c r="E205" s="65"/>
-      <c r="F205" s="64"/>
-      <c r="G205" s="64"/>
-      <c r="H205" s="64"/>
-      <c r="I205" s="65"/>
+        <v>202</v>
+      </c>
+      <c r="C205" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D205" s="67">
+        <v>43005</v>
+      </c>
+      <c r="E205" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F205" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="G205" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="H205" s="64" t="s">
+        <v>413</v>
+      </c>
+      <c r="I205" s="65" t="s">
+        <v>333</v>
+      </c>
       <c r="J205" s="66"/>
       <c r="K205" s="67"/>
       <c r="L205" s="65"/>
       <c r="M205" s="65"/>
-      <c r="N205" s="64"/>
+      <c r="N205" s="64" t="s">
+        <v>334</v>
+      </c>
       <c r="O205" s="68"/>
-      <c r="P205" s="69"/>
+      <c r="P205" s="69">
+        <f>2746000000-P204</f>
+        <v>1265340000</v>
+      </c>
       <c r="Q205" s="104"/>
       <c r="R205" s="131" t="str">
         <f>IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="vnđ",TH!P205&lt;&gt;""),"p",IF(AND(C205="pv",D205='UNC - PV'!$Q$2,LEFT(E205,1)="u",'UNC - PV'!$O$2="usd",TH!O205&lt;&gt;""),"p1",IF(AND(C205="pv",D205='LC - PV'!$P$2,LEFT(E205,1)="l"),"p2",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P205&lt;&gt;""),"e",IF(AND(LEFT(C205,3)="EIB",D205='UNC - EIB'!$T$2,LEFT(E205,1)="U",'UNC - EIB'!$R$2="usd",TH!O205&lt;&gt;""),"e1",IF(AND(LEFT(C205,3)="EIB",D205='LC - EIB'!$S$2,LEFT(E205,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="206" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A206" s="55" t="str">
         <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B206" s="62" t="str">
+      <c r="B206" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C206" s="62"/>
-      <c r="D206" s="67"/>
-      <c r="E206" s="65"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="64"/>
-      <c r="I206" s="65"/>
+        <v>203</v>
+      </c>
+      <c r="C206" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D206" s="67">
+        <v>43005</v>
+      </c>
+      <c r="E206" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G206" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H206" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I206" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J206" s="66"/>
       <c r="K206" s="67"/>
       <c r="L206" s="65"/>
       <c r="M206" s="65"/>
-      <c r="N206" s="64"/>
+      <c r="N206" s="64" t="s">
+        <v>416</v>
+      </c>
       <c r="O206" s="68"/>
-      <c r="P206" s="69"/>
+      <c r="P206" s="69">
+        <v>32216250</v>
+      </c>
       <c r="Q206" s="104"/>
       <c r="R206" s="131" t="str">
         <f>IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="vnđ",TH!P206&lt;&gt;""),"p",IF(AND(C206="pv",D206='UNC - PV'!$Q$2,LEFT(E206,1)="u",'UNC - PV'!$O$2="usd",TH!O206&lt;&gt;""),"p1",IF(AND(C206="pv",D206='LC - PV'!$P$2,LEFT(E206,1)="l"),"p2",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P206&lt;&gt;""),"e",IF(AND(LEFT(C206,3)="EIB",D206='UNC - EIB'!$T$2,LEFT(E206,1)="U",'UNC - EIB'!$R$2="usd",TH!O206&lt;&gt;""),"e1",IF(AND(LEFT(C206,3)="EIB",D206='LC - EIB'!$S$2,LEFT(E206,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="207" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A207" s="55" t="str">
         <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B207" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B207" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C207" s="62"/>
-      <c r="D207" s="67"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="64"/>
-      <c r="G207" s="64"/>
-      <c r="H207" s="64"/>
-      <c r="I207" s="65"/>
-      <c r="J207" s="66"/>
+        <v>204</v>
+      </c>
+      <c r="C207" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D207" s="67">
+        <v>43005</v>
+      </c>
+      <c r="E207" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F207" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G207" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H207" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I207" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J207" s="56"/>
       <c r="K207" s="67"/>
       <c r="L207" s="65"/>
       <c r="M207" s="65"/>
-      <c r="N207" s="64"/>
+      <c r="N207" s="64" t="s">
+        <v>417</v>
+      </c>
       <c r="O207" s="68"/>
-      <c r="P207" s="69"/>
+      <c r="P207" s="69">
+        <v>166332360</v>
+      </c>
       <c r="Q207" s="104"/>
       <c r="R207" s="131" t="str">
         <f>IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="vnđ",TH!P207&lt;&gt;""),"p",IF(AND(C207="pv",D207='UNC - PV'!$Q$2,LEFT(E207,1)="u",'UNC - PV'!$O$2="usd",TH!O207&lt;&gt;""),"p1",IF(AND(C207="pv",D207='LC - PV'!$P$2,LEFT(E207,1)="l"),"p2",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P207&lt;&gt;""),"e",IF(AND(LEFT(C207,3)="EIB",D207='UNC - EIB'!$T$2,LEFT(E207,1)="U",'UNC - EIB'!$R$2="usd",TH!O207&lt;&gt;""),"e1",IF(AND(LEFT(C207,3)="EIB",D207='LC - EIB'!$S$2,LEFT(E207,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="208" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A208" s="55" t="str">
         <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13172,7 +13251,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="209" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A209" s="55" t="str">
         <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13201,7 +13280,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="210" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A210" s="55" t="str">
         <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13230,7 +13309,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="211" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A211" s="55" t="str">
         <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13259,7 +13338,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="212" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A212" s="55" t="str">
         <f>IF(AND(C212="pv",E212='UNC - PV'!$S$2,D212='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C212,3)="eib",E212='UNC - EIB'!$V$2,D212='UNC - EIB'!$T$2),"x1",IF(AND(C212="pv",E212='LC - PV'!$R$2,D212='LC - PV'!$P$2),"x2",IF(AND(LEFT(C212,3)="eib",E212='LC - EIB'!$U$2,D212='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13288,7 +13367,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="213" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A213" s="55" t="str">
         <f>IF(AND(C213="pv",E213='UNC - PV'!$S$2,D213='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C213,3)="eib",E213='UNC - EIB'!$V$2,D213='UNC - EIB'!$T$2),"x1",IF(AND(C213="pv",E213='LC - PV'!$R$2,D213='LC - PV'!$P$2),"x2",IF(AND(LEFT(C213,3)="eib",E213='LC - EIB'!$U$2,D213='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13317,7 +13396,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="214" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A214" s="55" t="str">
         <f>IF(AND(C214="pv",E214='UNC - PV'!$S$2,D214='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C214,3)="eib",E214='UNC - EIB'!$V$2,D214='UNC - EIB'!$T$2),"x1",IF(AND(C214="pv",E214='LC - PV'!$R$2,D214='LC - PV'!$P$2),"x2",IF(AND(LEFT(C214,3)="eib",E214='LC - EIB'!$U$2,D214='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13346,7 +13425,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="215" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A215" s="55" t="str">
         <f>IF(AND(C215="pv",E215='UNC - PV'!$S$2,D215='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C215,3)="eib",E215='UNC - EIB'!$V$2,D215='UNC - EIB'!$T$2),"x1",IF(AND(C215="pv",E215='LC - PV'!$R$2,D215='LC - PV'!$P$2),"x2",IF(AND(LEFT(C215,3)="eib",E215='LC - EIB'!$U$2,D215='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13375,7 +13454,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="216" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A216" s="55" t="str">
         <f>IF(AND(C216="pv",E216='UNC - PV'!$S$2,D216='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C216,3)="eib",E216='UNC - EIB'!$V$2,D216='UNC - EIB'!$T$2),"x1",IF(AND(C216="pv",E216='LC - PV'!$R$2,D216='LC - PV'!$P$2),"x2",IF(AND(LEFT(C216,3)="eib",E216='LC - EIB'!$U$2,D216='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13404,7 +13483,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="217" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A217" s="55" t="str">
         <f>IF(AND(C217="pv",E217='UNC - PV'!$S$2,D217='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C217,3)="eib",E217='UNC - EIB'!$V$2,D217='UNC - EIB'!$T$2),"x1",IF(AND(C217="pv",E217='LC - PV'!$R$2,D217='LC - PV'!$P$2),"x2",IF(AND(LEFT(C217,3)="eib",E217='LC - EIB'!$U$2,D217='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13433,7 +13512,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="218" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A218" s="55" t="str">
         <f>IF(AND(C218="pv",E218='UNC - PV'!$S$2,D218='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C218,3)="eib",E218='UNC - EIB'!$V$2,D218='UNC - EIB'!$T$2),"x1",IF(AND(C218="pv",E218='LC - PV'!$R$2,D218='LC - PV'!$P$2),"x2",IF(AND(LEFT(C218,3)="eib",E218='LC - EIB'!$U$2,D218='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13462,7 +13541,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="219" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A219" s="55" t="str">
         <f>IF(AND(C219="pv",E219='UNC - PV'!$S$2,D219='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C219,3)="eib",E219='UNC - EIB'!$V$2,D219='UNC - EIB'!$T$2),"x1",IF(AND(C219="pv",E219='LC - PV'!$R$2,D219='LC - PV'!$P$2),"x2",IF(AND(LEFT(C219,3)="eib",E219='LC - EIB'!$U$2,D219='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13491,7 +13570,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="220" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A220" s="55" t="str">
         <f>IF(AND(C220="pv",E220='UNC - PV'!$S$2,D220='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C220,3)="eib",E220='UNC - EIB'!$V$2,D220='UNC - EIB'!$T$2),"x1",IF(AND(C220="pv",E220='LC - PV'!$R$2,D220='LC - PV'!$P$2),"x2",IF(AND(LEFT(C220,3)="eib",E220='LC - EIB'!$U$2,D220='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13520,7 +13599,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="221" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A221" s="55" t="str">
         <f>IF(AND(C221="pv",E221='UNC - PV'!$S$2,D221='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C221,3)="eib",E221='UNC - EIB'!$V$2,D221='UNC - EIB'!$T$2),"x1",IF(AND(C221="pv",E221='LC - PV'!$R$2,D221='LC - PV'!$P$2),"x2",IF(AND(LEFT(C221,3)="eib",E221='LC - EIB'!$U$2,D221='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13549,7 +13628,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13578,7 +13657,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13607,7 +13686,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="224" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A224" s="55" t="str">
         <f>IF(AND(C224="pv",E224='UNC - PV'!$S$2,D224='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C224,3)="eib",E224='UNC - EIB'!$V$2,D224='UNC - EIB'!$T$2),"x1",IF(AND(C224="pv",E224='LC - PV'!$R$2,D224='LC - PV'!$P$2),"x2",IF(AND(LEFT(C224,3)="eib",E224='LC - EIB'!$U$2,D224='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13636,7 +13715,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="225" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A225" s="55" t="str">
         <f>IF(AND(C225="pv",E225='UNC - PV'!$S$2,D225='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C225,3)="eib",E225='UNC - EIB'!$V$2,D225='UNC - EIB'!$T$2),"x1",IF(AND(C225="pv",E225='LC - PV'!$R$2,D225='LC - PV'!$P$2),"x2",IF(AND(LEFT(C225,3)="eib",E225='LC - EIB'!$U$2,D225='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13665,7 +13744,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="226" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A226" s="55" t="str">
         <f>IF(AND(C226="pv",E226='UNC - PV'!$S$2,D226='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C226,3)="eib",E226='UNC - EIB'!$V$2,D226='UNC - EIB'!$T$2),"x1",IF(AND(C226="pv",E226='LC - PV'!$R$2,D226='LC - PV'!$P$2),"x2",IF(AND(LEFT(C226,3)="eib",E226='LC - EIB'!$U$2,D226='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13694,7 +13773,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="227" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A227" s="55" t="str">
         <f>IF(AND(C227="pv",E227='UNC - PV'!$S$2,D227='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C227,3)="eib",E227='UNC - EIB'!$V$2,D227='UNC - EIB'!$T$2),"x1",IF(AND(C227="pv",E227='LC - PV'!$R$2,D227='LC - PV'!$P$2),"x2",IF(AND(LEFT(C227,3)="eib",E227='LC - EIB'!$U$2,D227='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13723,7 +13802,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="228" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A228" s="55" t="str">
         <f>IF(AND(C228="pv",E228='UNC - PV'!$S$2,D228='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C228,3)="eib",E228='UNC - EIB'!$V$2,D228='UNC - EIB'!$T$2),"x1",IF(AND(C228="pv",E228='LC - PV'!$R$2,D228='LC - PV'!$P$2),"x2",IF(AND(LEFT(C228,3)="eib",E228='LC - EIB'!$U$2,D228='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13752,7 +13831,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="229" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A229" s="55" t="str">
         <f>IF(AND(C229="pv",E229='UNC - PV'!$S$2,D229='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C229,3)="eib",E229='UNC - EIB'!$V$2,D229='UNC - EIB'!$T$2),"x1",IF(AND(C229="pv",E229='LC - PV'!$R$2,D229='LC - PV'!$P$2),"x2",IF(AND(LEFT(C229,3)="eib",E229='LC - EIB'!$U$2,D229='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13781,7 +13860,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="230" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A230" s="55" t="str">
         <f>IF(AND(C230="pv",E230='UNC - PV'!$S$2,D230='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C230,3)="eib",E230='UNC - EIB'!$V$2,D230='UNC - EIB'!$T$2),"x1",IF(AND(C230="pv",E230='LC - PV'!$R$2,D230='LC - PV'!$P$2),"x2",IF(AND(LEFT(C230,3)="eib",E230='LC - EIB'!$U$2,D230='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13810,7 +13889,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A231" s="55" t="str">
         <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13839,7 +13918,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A232" s="55" t="str">
         <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13868,7 +13947,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="233" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A233" s="55" t="str">
         <f>IF(AND(C233="pv",E233='UNC - PV'!$S$2,D233='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C233,3)="eib",E233='UNC - EIB'!$V$2,D233='UNC - EIB'!$T$2),"x1",IF(AND(C233="pv",E233='LC - PV'!$R$2,D233='LC - PV'!$P$2),"x2",IF(AND(LEFT(C233,3)="eib",E233='LC - EIB'!$U$2,D233='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13897,7 +13976,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="234" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A234" s="55" t="str">
         <f>IF(AND(C234="pv",E234='UNC - PV'!$S$2,D234='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C234,3)="eib",E234='UNC - EIB'!$V$2,D234='UNC - EIB'!$T$2),"x1",IF(AND(C234="pv",E234='LC - PV'!$R$2,D234='LC - PV'!$P$2),"x2",IF(AND(LEFT(C234,3)="eib",E234='LC - EIB'!$U$2,D234='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13926,7 +14005,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="235" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A235" s="55" t="str">
         <f>IF(AND(C235="pv",E235='UNC - PV'!$S$2,D235='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C235,3)="eib",E235='UNC - EIB'!$V$2,D235='UNC - EIB'!$T$2),"x1",IF(AND(C235="pv",E235='LC - PV'!$R$2,D235='LC - PV'!$P$2),"x2",IF(AND(LEFT(C235,3)="eib",E235='LC - EIB'!$U$2,D235='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13955,7 +14034,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="236" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A236" s="55" t="str">
         <f>IF(AND(C236="pv",E236='UNC - PV'!$S$2,D236='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C236,3)="eib",E236='UNC - EIB'!$V$2,D236='UNC - EIB'!$T$2),"x1",IF(AND(C236="pv",E236='LC - PV'!$R$2,D236='LC - PV'!$P$2),"x2",IF(AND(LEFT(C236,3)="eib",E236='LC - EIB'!$U$2,D236='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13984,7 +14063,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="237" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A237" s="55" t="str">
         <f>IF(AND(C237="pv",E237='UNC - PV'!$S$2,D237='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C237,3)="eib",E237='UNC - EIB'!$V$2,D237='UNC - EIB'!$T$2),"x1",IF(AND(C237="pv",E237='LC - PV'!$R$2,D237='LC - PV'!$P$2),"x2",IF(AND(LEFT(C237,3)="eib",E237='LC - EIB'!$U$2,D237='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14013,7 +14092,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="238" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A238" s="55" t="str">
         <f>IF(AND(C238="pv",E238='UNC - PV'!$S$2,D238='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C238,3)="eib",E238='UNC - EIB'!$V$2,D238='UNC - EIB'!$T$2),"x1",IF(AND(C238="pv",E238='LC - PV'!$R$2,D238='LC - PV'!$P$2),"x2",IF(AND(LEFT(C238,3)="eib",E238='LC - EIB'!$U$2,D238='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14042,7 +14121,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="239" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A239" s="55" t="str">
         <f>IF(AND(C239="pv",E239='UNC - PV'!$S$2,D239='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C239,3)="eib",E239='UNC - EIB'!$V$2,D239='UNC - EIB'!$T$2),"x1",IF(AND(C239="pv",E239='LC - PV'!$R$2,D239='LC - PV'!$P$2),"x2",IF(AND(LEFT(C239,3)="eib",E239='LC - EIB'!$U$2,D239='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14071,7 +14150,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A240" s="55" t="str">
         <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14100,7 +14179,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A241" s="55" t="str">
         <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14129,7 +14208,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="242" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A242" s="55" t="str">
         <f>IF(AND(C242="pv",E242='UNC - PV'!$S$2,D242='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C242,3)="eib",E242='UNC - EIB'!$V$2,D242='UNC - EIB'!$T$2),"x1",IF(AND(C242="pv",E242='LC - PV'!$R$2,D242='LC - PV'!$P$2),"x2",IF(AND(LEFT(C242,3)="eib",E242='LC - EIB'!$U$2,D242='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14158,7 +14237,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="243" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A243" s="55" t="str">
         <f>IF(AND(C243="pv",E243='UNC - PV'!$S$2,D243='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C243,3)="eib",E243='UNC - EIB'!$V$2,D243='UNC - EIB'!$T$2),"x1",IF(AND(C243="pv",E243='LC - PV'!$R$2,D243='LC - PV'!$P$2),"x2",IF(AND(LEFT(C243,3)="eib",E243='LC - EIB'!$U$2,D243='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14187,7 +14266,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="244" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A244" s="55" t="str">
         <f>IF(AND(C244="pv",E244='UNC - PV'!$S$2,D244='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C244,3)="eib",E244='UNC - EIB'!$V$2,D244='UNC - EIB'!$T$2),"x1",IF(AND(C244="pv",E244='LC - PV'!$R$2,D244='LC - PV'!$P$2),"x2",IF(AND(LEFT(C244,3)="eib",E244='LC - EIB'!$U$2,D244='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14216,8 +14295,15 @@
         <v/>
       </c>
     </row>
+    <row r="245" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B3:X245"/>
+  <autoFilter ref="B3:X245">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EIB-TV"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -14243,9 +14329,9 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14284,11 +14370,11 @@
         <v>418</v>
       </c>
       <c r="Q2" s="10">
-        <v>43004</v>
+        <v>43005</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
@@ -14309,7 +14395,7 @@
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="F7" s="143">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2022525000</v>
+        <v>166332360</v>
       </c>
       <c r="G7" s="143"/>
       <c r="K7" s="1" t="str">
@@ -14324,7 +14410,7 @@
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, không trăm hai mươi hai triệu, năm trăm hai mươi lăm ngàn đồng.</v>
+        <v>Một trăm sáu mươi sáu triệu, ba trăm ba mươi hai ngàn, ba trăm sáu mươi đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -14335,7 +14421,7 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 14 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 15 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
@@ -14390,7 +14476,7 @@
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14433,11 +14519,11 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
-      <c r="F8" s="144">
+      <c r="F8" s="143">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2022525000</v>
-      </c>
-      <c r="G8" s="144"/>
+        <v>166332360</v>
+      </c>
+      <c r="G8" s="143"/>
       <c r="K8" s="7" t="str">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),"x","")</f>
         <v>x</v>
@@ -14450,7 +14536,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, không trăm hai mươi hai triệu, năm trăm hai mươi lăm ngàn đồng.</v>
+        <v>Một trăm sáu mươi sáu triệu, ba trăm ba mươi hai ngàn, ba trăm sáu mươi đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -14461,7 +14547,7 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 14 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 15 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
@@ -14781,10 +14867,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="145" t="s">
+      <c r="N20" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="145"/>
+      <c r="O20" s="144"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -14798,10 +14884,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="146" t="s">
+      <c r="N21" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="146"/>
+      <c r="O21" s="145"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -15130,7 +15216,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="6.75" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21.75" customHeight="1" thickBot="1">
@@ -15325,11 +15411,11 @@
         <v>115</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="150">
+      <c r="L17" s="149">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>41051</v>
       </c>
-      <c r="M17" s="150"/>
+      <c r="M17" s="149"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -15391,11 +15477,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="147" t="s">
+      <c r="N21" s="146" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="148"/>
-      <c r="P21" s="148"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="147"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -15410,11 +15496,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="149" t="s">
+      <c r="N22" s="148" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
@@ -15602,160 +15688,160 @@
   <sheetData>
     <row r="1" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="116" t="s">
         <v>237</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>239</v>
       </c>
       <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="118" t="s">
         <v>240</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="118" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="118" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="D3" s="119" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A4" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="D4" s="120" t="s">
         <v>248</v>
-      </c>
-      <c r="C4" s="120" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="116"/>
       <c r="B5" s="116" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D5" s="116"/>
     </row>
     <row r="6" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A6" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="118" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D6" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" s="119" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C8" s="120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D8" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="116"/>
       <c r="B9" s="116" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" s="116" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D9" s="116"/>
     </row>
     <row r="10" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10" s="118" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A11" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B11" s="119" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
@@ -15766,44 +15852,44 @@
     </row>
     <row r="14" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B14" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D14" s="118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B16" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C16" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D16" s="120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,40 +4,46 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1185" windowWidth="21840" windowHeight="8895"/>
+    <workbookView xWindow="480" yWindow="1245" windowWidth="21840" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
     <sheet name="UNC - PV" sheetId="2" r:id="rId2"/>
-    <sheet name="UNC - KM" sheetId="18" r:id="rId3"/>
-    <sheet name="UNC - EIB" sheetId="6" r:id="rId4"/>
-    <sheet name="LC - PV" sheetId="4" r:id="rId5"/>
-    <sheet name="LC - EIB" sheetId="7" r:id="rId6"/>
-    <sheet name="U&amp;P" sheetId="8" r:id="rId7"/>
+    <sheet name="UNC - PV (3)" sheetId="20" r:id="rId3"/>
+    <sheet name="UNC - PV (2)" sheetId="19" r:id="rId4"/>
+    <sheet name="UNC - KM" sheetId="18" r:id="rId5"/>
+    <sheet name="UNC - EIB" sheetId="6" r:id="rId6"/>
+    <sheet name="LC - PV" sheetId="4" r:id="rId7"/>
+    <sheet name="LC - EIB" sheetId="7" r:id="rId8"/>
+    <sheet name="U&amp;P" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Fill" localSheetId="6" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="8" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="3" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$244</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$244</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39815))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$244</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'LC - EIB'!$A$1:$Q$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'LC - PV'!$A$1:$N$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'UNC - EIB'!$A$1:$P$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - KM'!$A$1:$M$18</definedName>
+    <definedName name="DS">TH!$A$4:$Q$243</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39814))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$243</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'LC - EIB'!$A$1:$Q$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'LC - PV'!$A$1:$N$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'UNC - EIB'!$A$1:$P$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'UNC - KM'!$A$1:$M$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - PV'!$A$1:$M$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'UNC - PV (2)'!$A$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - PV (3)'!$A$1:$M$16</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="431">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -1806,9 +1812,6 @@
     <t>Chuyển tiền theo KUNN số 15 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
   <si>
-    <t>TAMP</t>
-  </si>
-  <si>
     <t>7406202959035</t>
   </si>
   <si>
@@ -1822,6 +1825,30 @@
   </si>
   <si>
     <t>128196099</t>
+  </si>
+  <si>
+    <t>6600202939015</t>
+  </si>
+  <si>
+    <t>THANH TOÁN BẢO HIỂM HÀNG HÓA</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 16 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 17 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Sacombank - CN Trà Vinh</t>
+  </si>
+  <si>
+    <t>070067729194</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 18 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền nước, phí CSHT  T08 &amp; T09/2017 -Hải Sơn</t>
   </si>
 </sst>
 </file>
@@ -3219,17 +3246,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R243"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I219" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F233" sqref="F233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3384,7 +3411,7 @@
       <c r="Q3" s="137"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3433,13 +3460,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B244" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B243" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -3482,7 +3509,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3531,7 +3558,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3580,7 +3607,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3629,7 +3656,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3678,7 +3705,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A10" s="55" t="str">
         <f>IF(AND(C10="pv",E10='UNC - PV'!$S$2,D10='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C10,3)="eib",E10='UNC - EIB'!$V$2,D10='UNC - EIB'!$T$2),"x1",IF(AND(C10="pv",E10='LC - PV'!$R$2,D10='LC - PV'!$P$2),"x2",IF(AND(LEFT(C10,3)="eib",E10='LC - EIB'!$U$2,D10='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x2</v>
@@ -3729,7 +3756,7 @@
         <v>p2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="11" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="55" t="str">
         <f>IF(AND(C11="pv",E11='UNC - PV'!$S$2,D11='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C11,3)="eib",E11='UNC - EIB'!$V$2,D11='UNC - EIB'!$T$2),"x1",IF(AND(C11="pv",E11='LC - PV'!$R$2,D11='LC - PV'!$P$2),"x2",IF(AND(LEFT(C11,3)="eib",E11='LC - EIB'!$U$2,D11='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3778,7 +3805,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="55" t="str">
         <f>IF(AND(C12="pv",E12='UNC - PV'!$S$2,D12='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C12,3)="eib",E12='UNC - EIB'!$V$2,D12='UNC - EIB'!$T$2),"x1",IF(AND(C12="pv",E12='LC - PV'!$R$2,D12='LC - PV'!$P$2),"x2",IF(AND(LEFT(C12,3)="eib",E12='LC - EIB'!$U$2,D12='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x3</v>
@@ -3829,7 +3856,7 @@
         <v>e2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3878,7 +3905,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3949,7 +3976,7 @@
         <v>136</v>
       </c>
       <c r="G15" s="114" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H15" s="107" t="s">
         <v>138</v>
@@ -3976,7 +4003,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4025,7 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="55" t="str">
         <f>IF(AND(C17="pv",E17='UNC - PV'!$S$2,D17='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C17,3)="eib",E17='UNC - EIB'!$V$2,D17='UNC - EIB'!$T$2),"x1",IF(AND(C17="pv",E17='LC - PV'!$R$2,D17='LC - PV'!$P$2),"x2",IF(AND(LEFT(C17,3)="eib",E17='LC - EIB'!$U$2,D17='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4074,7 +4101,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4123,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4221,7 +4248,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4270,7 +4297,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="55" t="str">
         <f>IF(AND(C22="pv",E22='UNC - PV'!$S$2,D22='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C22,3)="eib",E22='UNC - EIB'!$V$2,D22='UNC - EIB'!$T$2),"x1",IF(AND(C22="pv",E22='LC - PV'!$R$2,D22='LC - PV'!$P$2),"x2",IF(AND(LEFT(C22,3)="eib",E22='LC - EIB'!$U$2,D22='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4319,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4368,7 +4395,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4467,7 +4494,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4516,7 +4543,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4565,7 +4592,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4614,7 +4641,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="55" t="str">
         <f>IF(AND(C29="pv",E29='UNC - PV'!$S$2,D29='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C29,3)="eib",E29='UNC - EIB'!$V$2,D29='UNC - EIB'!$T$2),"x1",IF(AND(C29="pv",E29='LC - PV'!$R$2,D29='LC - PV'!$P$2),"x2",IF(AND(LEFT(C29,3)="eib",E29='LC - EIB'!$U$2,D29='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4663,7 +4690,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="55" t="str">
         <f>IF(AND(C30="pv",E30='UNC - PV'!$S$2,D30='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C30,3)="eib",E30='UNC - EIB'!$V$2,D30='UNC - EIB'!$T$2),"x1",IF(AND(C30="pv",E30='LC - PV'!$R$2,D30='LC - PV'!$P$2),"x2",IF(AND(LEFT(C30,3)="eib",E30='LC - EIB'!$U$2,D30='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4712,7 +4739,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="55" t="str">
         <f>IF(AND(C31="pv",E31='UNC - PV'!$S$2,D31='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C31,3)="eib",E31='UNC - EIB'!$V$2,D31='UNC - EIB'!$T$2),"x1",IF(AND(C31="pv",E31='LC - PV'!$R$2,D31='LC - PV'!$P$2),"x2",IF(AND(LEFT(C31,3)="eib",E31='LC - EIB'!$U$2,D31='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4979,7 +5006,7 @@
         <v>204</v>
       </c>
       <c r="G36" s="71" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H36" s="64" t="s">
         <v>167</v>
@@ -5055,7 +5082,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5153,7 +5180,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5202,7 +5229,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="41" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A41" s="55" t="str">
         <f>IF(AND(C41="pv",E41='UNC - PV'!$S$2,D41='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C41,3)="eib",E41='UNC - EIB'!$V$2,D41='UNC - EIB'!$T$2),"x1",IF(AND(C41="pv",E41='LC - PV'!$R$2,D41='LC - PV'!$P$2),"x2",IF(AND(LEFT(C41,3)="eib",E41='LC - EIB'!$U$2,D41='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5251,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="42" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A42" s="55" t="str">
         <f>IF(AND(C42="pv",E42='UNC - PV'!$S$2,D42='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C42,3)="eib",E42='UNC - EIB'!$V$2,D42='UNC - EIB'!$T$2),"x1",IF(AND(C42="pv",E42='LC - PV'!$R$2,D42='LC - PV'!$P$2),"x2",IF(AND(LEFT(C42,3)="eib",E42='LC - EIB'!$U$2,D42='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5300,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5349,7 +5376,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5398,7 +5425,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5447,7 +5474,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="55" t="str">
         <f>IF(AND(C46="pv",E46='UNC - PV'!$S$2,D46='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C46,3)="eib",E46='UNC - EIB'!$V$2,D46='UNC - EIB'!$T$2),"x1",IF(AND(C46="pv",E46='LC - PV'!$R$2,D46='LC - PV'!$P$2),"x2",IF(AND(LEFT(C46,3)="eib",E46='LC - EIB'!$U$2,D46='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5496,7 +5523,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A47" s="55" t="str">
         <f>IF(AND(C47="pv",E47='UNC - PV'!$S$2,D47='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C47,3)="eib",E47='UNC - EIB'!$V$2,D47='UNC - EIB'!$T$2),"x1",IF(AND(C47="pv",E47='LC - PV'!$R$2,D47='LC - PV'!$P$2),"x2",IF(AND(LEFT(C47,3)="eib",E47='LC - EIB'!$U$2,D47='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5545,7 +5572,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5692,7 +5719,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5790,7 +5817,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5839,7 +5866,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5888,7 +5915,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5937,7 +5964,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="56" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A56" s="55" t="str">
         <f>IF(AND(C56="pv",E56='UNC - PV'!$S$2,D56='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C56,3)="eib",E56='UNC - EIB'!$V$2,D56='UNC - EIB'!$T$2),"x1",IF(AND(C56="pv",E56='LC - PV'!$R$2,D56='LC - PV'!$P$2),"x2",IF(AND(LEFT(C56,3)="eib",E56='LC - EIB'!$U$2,D56='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5986,7 +6013,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6035,7 +6062,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6133,7 +6160,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="60" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A60" s="55" t="str">
         <f>IF(AND(C60="pv",E60='UNC - PV'!$S$2,D60='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C60,3)="eib",E60='UNC - EIB'!$V$2,D60='UNC - EIB'!$T$2),"x1",IF(AND(C60="pv",E60='LC - PV'!$R$2,D60='LC - PV'!$P$2),"x2",IF(AND(LEFT(C60,3)="eib",E60='LC - EIB'!$U$2,D60='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6182,7 +6209,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6231,7 +6258,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A62" s="55" t="str">
         <f>IF(AND(C62="pv",E62='UNC - PV'!$S$2,D62='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C62,3)="eib",E62='UNC - EIB'!$V$2,D62='UNC - EIB'!$T$2),"x1",IF(AND(C62="pv",E62='LC - PV'!$R$2,D62='LC - PV'!$P$2),"x2",IF(AND(LEFT(C62,3)="eib",E62='LC - EIB'!$U$2,D62='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6280,7 +6307,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6329,7 +6356,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="64" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A64" s="55" t="str">
         <f>IF(AND(C64="pv",E64='UNC - PV'!$S$2,D64='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C64,3)="eib",E64='UNC - EIB'!$V$2,D64='UNC - EIB'!$T$2),"x1",IF(AND(C64="pv",E64='LC - PV'!$R$2,D64='LC - PV'!$P$2),"x2",IF(AND(LEFT(C64,3)="eib",E64='LC - EIB'!$U$2,D64='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6428,7 +6455,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6477,7 +6504,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6526,7 +6553,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="68" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A68" s="55" t="str">
         <f>IF(AND(C68="pv",E68='UNC - PV'!$S$2,D68='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C68,3)="eib",E68='UNC - EIB'!$V$2,D68='UNC - EIB'!$T$2),"x1",IF(AND(C68="pv",E68='LC - PV'!$R$2,D68='LC - PV'!$P$2),"x2",IF(AND(LEFT(C68,3)="eib",E68='LC - EIB'!$U$2,D68='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6575,7 +6602,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:18" s="130" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="69" spans="1:18" s="130" customFormat="1" ht="18.75" customHeight="1">
       <c r="A69" s="55" t="str">
         <f>IF(AND(C69="pv",E69='UNC - PV'!$S$2,D69='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C69,3)="eib",E69='UNC - EIB'!$V$2,D69='UNC - EIB'!$T$2),"x1",IF(AND(C69="pv",E69='LC - PV'!$R$2,D69='LC - PV'!$P$2),"x2",IF(AND(LEFT(C69,3)="eib",E69='LC - EIB'!$U$2,D69='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6625,7 +6652,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:18" s="130" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="70" spans="1:18" s="130" customFormat="1" ht="18.75" customHeight="1">
       <c r="A70" s="55" t="str">
         <f>IF(AND(C70="pv",E70='UNC - PV'!$S$2,D70='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C70,3)="eib",E70='UNC - EIB'!$V$2,D70='UNC - EIB'!$T$2),"x1",IF(AND(C70="pv",E70='LC - PV'!$R$2,D70='LC - PV'!$P$2),"x2",IF(AND(LEFT(C70,3)="eib",E70='LC - EIB'!$U$2,D70='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6675,7 +6702,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="71" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A71" s="55" t="str">
         <f>IF(AND(C71="pv",E71='UNC - PV'!$S$2,D71='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C71,3)="eib",E71='UNC - EIB'!$V$2,D71='UNC - EIB'!$T$2),"x1",IF(AND(C71="pv",E71='LC - PV'!$R$2,D71='LC - PV'!$P$2),"x2",IF(AND(LEFT(C71,3)="eib",E71='LC - EIB'!$U$2,D71='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6724,7 +6751,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="72" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A72" s="55" t="str">
         <f>IF(AND(C72="pv",E72='UNC - PV'!$S$2,D72='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C72,3)="eib",E72='UNC - EIB'!$V$2,D72='UNC - EIB'!$T$2),"x1",IF(AND(C72="pv",E72='LC - PV'!$R$2,D72='LC - PV'!$P$2),"x2",IF(AND(LEFT(C72,3)="eib",E72='LC - EIB'!$U$2,D72='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6773,7 +6800,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="73" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A73" s="55" t="str">
         <f>IF(AND(C73="pv",E73='UNC - PV'!$S$2,D73='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C73,3)="eib",E73='UNC - EIB'!$V$2,D73='UNC - EIB'!$T$2),"x1",IF(AND(C73="pv",E73='LC - PV'!$R$2,D73='LC - PV'!$P$2),"x2",IF(AND(LEFT(C73,3)="eib",E73='LC - EIB'!$U$2,D73='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6822,7 +6849,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="74" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A74" s="55" t="str">
         <f>IF(AND(C74="pv",E74='UNC - PV'!$S$2,D74='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C74,3)="eib",E74='UNC - EIB'!$V$2,D74='UNC - EIB'!$T$2),"x1",IF(AND(C74="pv",E74='LC - PV'!$R$2,D74='LC - PV'!$P$2),"x2",IF(AND(LEFT(C74,3)="eib",E74='LC - EIB'!$U$2,D74='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7187,7 +7214,7 @@
         <v>304</v>
       </c>
       <c r="G81" s="71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H81" s="64" t="s">
         <v>305</v>
@@ -7214,7 +7241,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7312,7 +7339,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="84" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A84" s="55" t="str">
         <f>IF(AND(C84="pv",E84='UNC - PV'!$S$2,D84='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C84,3)="eib",E84='UNC - EIB'!$V$2,D84='UNC - EIB'!$T$2),"x1",IF(AND(C84="pv",E84='LC - PV'!$R$2,D84='LC - PV'!$P$2),"x2",IF(AND(LEFT(C84,3)="eib",E84='LC - EIB'!$U$2,D84='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7361,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="85" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A85" s="55" t="str">
         <f>IF(AND(C85="pv",E85='UNC - PV'!$S$2,D85='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C85,3)="eib",E85='UNC - EIB'!$V$2,D85='UNC - EIB'!$T$2),"x1",IF(AND(C85="pv",E85='LC - PV'!$R$2,D85='LC - PV'!$P$2),"x2",IF(AND(LEFT(C85,3)="eib",E85='LC - EIB'!$U$2,D85='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7410,7 +7437,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="86" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A86" s="55" t="str">
         <f>IF(AND(C86="pv",E86='UNC - PV'!$S$2,D86='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C86,3)="eib",E86='UNC - EIB'!$V$2,D86='UNC - EIB'!$T$2),"x1",IF(AND(C86="pv",E86='LC - PV'!$R$2,D86='LC - PV'!$P$2),"x2",IF(AND(LEFT(C86,3)="eib",E86='LC - EIB'!$U$2,D86='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7459,7 +7486,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="87" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A87" s="55" t="str">
         <f>IF(AND(C87="pv",E87='UNC - PV'!$S$2,D87='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C87,3)="eib",E87='UNC - EIB'!$V$2,D87='UNC - EIB'!$T$2),"x1",IF(AND(C87="pv",E87='LC - PV'!$R$2,D87='LC - PV'!$P$2),"x2",IF(AND(LEFT(C87,3)="eib",E87='LC - EIB'!$U$2,D87='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7508,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="88" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A88" s="55" t="str">
         <f>IF(AND(C88="pv",E88='UNC - PV'!$S$2,D88='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C88,3)="eib",E88='UNC - EIB'!$V$2,D88='UNC - EIB'!$T$2),"x1",IF(AND(C88="pv",E88='LC - PV'!$R$2,D88='LC - PV'!$P$2),"x2",IF(AND(LEFT(C88,3)="eib",E88='LC - EIB'!$U$2,D88='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7606,7 +7633,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7655,7 +7682,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7704,7 +7731,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A92" s="55" t="str">
         <f>IF(AND(C92="pv",E92='UNC - PV'!$S$2,D92='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C92,3)="eib",E92='UNC - EIB'!$V$2,D92='UNC - EIB'!$T$2),"x1",IF(AND(C92="pv",E92='LC - PV'!$R$2,D92='LC - PV'!$P$2),"x2",IF(AND(LEFT(C92,3)="eib",E92='LC - EIB'!$U$2,D92='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7753,7 +7780,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7802,7 +7829,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7901,7 +7928,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="96" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A96" s="55" t="str">
         <f>IF(AND(C96="pv",E96='UNC - PV'!$S$2,D96='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C96,3)="eib",E96='UNC - EIB'!$V$2,D96='UNC - EIB'!$T$2),"x1",IF(AND(C96="pv",E96='LC - PV'!$R$2,D96='LC - PV'!$P$2),"x2",IF(AND(LEFT(C96,3)="eib",E96='LC - EIB'!$U$2,D96='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7950,7 +7977,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="97" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A97" s="55" t="str">
         <f>IF(AND(C97="pv",E97='UNC - PV'!$S$2,D97='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C97,3)="eib",E97='UNC - EIB'!$V$2,D97='UNC - EIB'!$T$2),"x1",IF(AND(C97="pv",E97='LC - PV'!$R$2,D97='LC - PV'!$P$2),"x2",IF(AND(LEFT(C97,3)="eib",E97='LC - EIB'!$U$2,D97='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7999,7 +8026,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A98" s="55" t="str">
         <f>IF(AND(C98="pv",E98='UNC - PV'!$S$2,D98='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C98,3)="eib",E98='UNC - EIB'!$V$2,D98='UNC - EIB'!$T$2),"x1",IF(AND(C98="pv",E98='LC - PV'!$R$2,D98='LC - PV'!$P$2),"x2",IF(AND(LEFT(C98,3)="eib",E98='LC - EIB'!$U$2,D98='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8048,7 +8075,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A99" s="55" t="str">
         <f>IF(AND(C99="pv",E99='UNC - PV'!$S$2,D99='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C99,3)="eib",E99='UNC - EIB'!$V$2,D99='UNC - EIB'!$T$2),"x1",IF(AND(C99="pv",E99='LC - PV'!$R$2,D99='LC - PV'!$P$2),"x2",IF(AND(LEFT(C99,3)="eib",E99='LC - EIB'!$U$2,D99='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8098,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8218,7 +8245,7 @@
         <v>321</v>
       </c>
       <c r="G102" s="71" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H102" s="64" t="s">
         <v>322</v>
@@ -8245,7 +8272,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8294,7 +8321,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="104" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A104" s="55" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8343,7 +8370,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8392,7 +8419,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A106" s="55" t="str">
         <f>IF(AND(C106="pv",E106='UNC - PV'!$S$2,D106='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C106,3)="eib",E106='UNC - EIB'!$V$2,D106='UNC - EIB'!$T$2),"x1",IF(AND(C106="pv",E106='LC - PV'!$R$2,D106='LC - PV'!$P$2),"x2",IF(AND(LEFT(C106,3)="eib",E106='LC - EIB'!$U$2,D106='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8441,7 +8468,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="107" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A107" s="55" t="str">
         <f>IF(AND(C107="pv",E107='UNC - PV'!$S$2,D107='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C107,3)="eib",E107='UNC - EIB'!$V$2,D107='UNC - EIB'!$T$2),"x1",IF(AND(C107="pv",E107='LC - PV'!$R$2,D107='LC - PV'!$P$2),"x2",IF(AND(LEFT(C107,3)="eib",E107='LC - EIB'!$U$2,D107='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8490,7 +8517,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8588,7 +8615,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="110" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A110" s="55" t="str">
         <f>IF(AND(C110="pv",E110='UNC - PV'!$S$2,D110='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C110,3)="eib",E110='UNC - EIB'!$V$2,D110='UNC - EIB'!$T$2),"x1",IF(AND(C110="pv",E110='LC - PV'!$R$2,D110='LC - PV'!$P$2),"x2",IF(AND(LEFT(C110,3)="eib",E110='LC - EIB'!$U$2,D110='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8637,7 +8664,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="111" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A111" s="55" t="str">
         <f>IF(AND(C111="pv",E111='UNC - PV'!$S$2,D111='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C111,3)="eib",E111='UNC - EIB'!$V$2,D111='UNC - EIB'!$T$2),"x1",IF(AND(C111="pv",E111='LC - PV'!$R$2,D111='LC - PV'!$P$2),"x2",IF(AND(LEFT(C111,3)="eib",E111='LC - EIB'!$U$2,D111='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8686,7 +8713,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="112" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A112" s="55" t="str">
         <f>IF(AND(C112="pv",E112='UNC - PV'!$S$2,D112='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C112,3)="eib",E112='UNC - EIB'!$V$2,D112='UNC - EIB'!$T$2),"x1",IF(AND(C112="pv",E112='LC - PV'!$R$2,D112='LC - PV'!$P$2),"x2",IF(AND(LEFT(C112,3)="eib",E112='LC - EIB'!$U$2,D112='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8735,7 +8762,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8784,7 +8811,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8805,8 +8832,8 @@
       <c r="F114" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G114" s="64" t="s">
-        <v>92</v>
+      <c r="G114" s="71" t="s">
+        <v>423</v>
       </c>
       <c r="H114" s="64" t="s">
         <v>93</v>
@@ -8833,7 +8860,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8882,7 +8909,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8931,7 +8958,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="117" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A117" s="55" t="str">
         <f>IF(AND(C117="pv",E117='UNC - PV'!$S$2,D117='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C117,3)="eib",E117='UNC - EIB'!$V$2,D117='UNC - EIB'!$T$2),"x1",IF(AND(C117="pv",E117='LC - PV'!$R$2,D117='LC - PV'!$P$2),"x2",IF(AND(LEFT(C117,3)="eib",E117='LC - EIB'!$U$2,D117='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8980,7 +9007,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="118" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A118" s="55" t="str">
         <f>IF(AND(C118="pv",E118='UNC - PV'!$S$2,D118='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C118,3)="eib",E118='UNC - EIB'!$V$2,D118='UNC - EIB'!$T$2),"x1",IF(AND(C118="pv",E118='LC - PV'!$R$2,D118='LC - PV'!$P$2),"x2",IF(AND(LEFT(C118,3)="eib",E118='LC - EIB'!$U$2,D118='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9029,7 +9056,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="119" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A119" s="55" t="str">
         <f>IF(AND(C119="pv",E119='UNC - PV'!$S$2,D119='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C119,3)="eib",E119='UNC - EIB'!$V$2,D119='UNC - EIB'!$T$2),"x1",IF(AND(C119="pv",E119='LC - PV'!$R$2,D119='LC - PV'!$P$2),"x2",IF(AND(LEFT(C119,3)="eib",E119='LC - EIB'!$U$2,D119='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9078,7 +9105,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="120" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A120" s="55" t="str">
         <f>IF(AND(C120="pv",E120='UNC - PV'!$S$2,D120='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C120,3)="eib",E120='UNC - EIB'!$V$2,D120='UNC - EIB'!$T$2),"x1",IF(AND(C120="pv",E120='LC - PV'!$R$2,D120='LC - PV'!$P$2),"x2",IF(AND(LEFT(C120,3)="eib",E120='LC - EIB'!$U$2,D120='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9127,7 +9154,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="121" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A121" s="55" t="str">
         <f>IF(AND(C121="pv",E121='UNC - PV'!$S$2,D121='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C121,3)="eib",E121='UNC - EIB'!$V$2,D121='UNC - EIB'!$T$2),"x1",IF(AND(C121="pv",E121='LC - PV'!$R$2,D121='LC - PV'!$P$2),"x2",IF(AND(LEFT(C121,3)="eib",E121='LC - EIB'!$U$2,D121='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9176,7 +9203,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="122" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A122" s="55" t="str">
         <f>IF(AND(C122="pv",E122='UNC - PV'!$S$2,D122='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C122,3)="eib",E122='UNC - EIB'!$V$2,D122='UNC - EIB'!$T$2),"x1",IF(AND(C122="pv",E122='LC - PV'!$R$2,D122='LC - PV'!$P$2),"x2",IF(AND(LEFT(C122,3)="eib",E122='LC - EIB'!$U$2,D122='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9225,7 +9252,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="123" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A123" s="55" t="str">
         <f>IF(AND(C123="pv",E123='UNC - PV'!$S$2,D123='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C123,3)="eib",E123='UNC - EIB'!$V$2,D123='UNC - EIB'!$T$2),"x1",IF(AND(C123="pv",E123='LC - PV'!$R$2,D123='LC - PV'!$P$2),"x2",IF(AND(LEFT(C123,3)="eib",E123='LC - EIB'!$U$2,D123='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9296,7 +9323,7 @@
         <v>166</v>
       </c>
       <c r="G124" s="71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H124" s="64" t="s">
         <v>167</v>
@@ -9324,7 +9351,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9371,7 +9398,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="126" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A126" s="55" t="str">
         <f>IF(AND(C126="pv",E126='UNC - PV'!$S$2,D126='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C126,3)="eib",E126='UNC - EIB'!$V$2,D126='UNC - EIB'!$T$2),"x1",IF(AND(C126="pv",E126='LC - PV'!$R$2,D126='LC - PV'!$P$2),"x2",IF(AND(LEFT(C126,3)="eib",E126='LC - EIB'!$U$2,D126='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9418,7 +9445,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="127" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A127" s="55" t="str">
         <f>IF(AND(C127="pv",E127='UNC - PV'!$S$2,D127='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C127,3)="eib",E127='UNC - EIB'!$V$2,D127='UNC - EIB'!$T$2),"x1",IF(AND(C127="pv",E127='LC - PV'!$R$2,D127='LC - PV'!$P$2),"x2",IF(AND(LEFT(C127,3)="eib",E127='LC - EIB'!$U$2,D127='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9465,7 +9492,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="128" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A128" s="55" t="str">
         <f>IF(AND(C128="pv",E128='UNC - PV'!$S$2,D128='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C128,3)="eib",E128='UNC - EIB'!$V$2,D128='UNC - EIB'!$T$2),"x1",IF(AND(C128="pv",E128='LC - PV'!$R$2,D128='LC - PV'!$P$2),"x2",IF(AND(LEFT(C128,3)="eib",E128='LC - EIB'!$U$2,D128='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9512,7 +9539,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="129" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A129" s="55" t="str">
         <f>IF(AND(C129="pv",E129='UNC - PV'!$S$2,D129='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C129,3)="eib",E129='UNC - EIB'!$V$2,D129='UNC - EIB'!$T$2),"x1",IF(AND(C129="pv",E129='LC - PV'!$R$2,D129='LC - PV'!$P$2),"x2",IF(AND(LEFT(C129,3)="eib",E129='LC - EIB'!$U$2,D129='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9559,7 +9586,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="130" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A130" s="55" t="str">
         <f>IF(AND(C130="pv",E130='UNC - PV'!$S$2,D130='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C130,3)="eib",E130='UNC - EIB'!$V$2,D130='UNC - EIB'!$T$2),"x1",IF(AND(C130="pv",E130='LC - PV'!$R$2,D130='LC - PV'!$P$2),"x2",IF(AND(LEFT(C130,3)="eib",E130='LC - EIB'!$U$2,D130='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9700,7 +9727,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9747,7 +9774,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9794,7 +9821,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9841,7 +9868,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A136" s="55" t="str">
         <f>IF(AND(C136="pv",E136='UNC - PV'!$S$2,D136='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C136,3)="eib",E136='UNC - EIB'!$V$2,D136='UNC - EIB'!$T$2),"x1",IF(AND(C136="pv",E136='LC - PV'!$R$2,D136='LC - PV'!$P$2),"x2",IF(AND(LEFT(C136,3)="eib",E136='LC - EIB'!$U$2,D136='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9888,7 +9915,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9935,7 +9962,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9982,7 +10009,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10076,7 +10103,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10123,7 +10150,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="142" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A142" s="55" t="str">
         <f>IF(AND(C142="pv",E142='UNC - PV'!$S$2,D142='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C142,3)="eib",E142='UNC - EIB'!$V$2,D142='UNC - EIB'!$T$2),"x1",IF(AND(C142="pv",E142='LC - PV'!$R$2,D142='LC - PV'!$P$2),"x2",IF(AND(LEFT(C142,3)="eib",E142='LC - EIB'!$U$2,D142='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10170,7 +10197,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="143" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A143" s="55" t="str">
         <f>IF(AND(C143="pv",E143='UNC - PV'!$S$2,D143='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C143,3)="eib",E143='UNC - EIB'!$V$2,D143='UNC - EIB'!$T$2),"x1",IF(AND(C143="pv",E143='LC - PV'!$R$2,D143='LC - PV'!$P$2),"x2",IF(AND(LEFT(C143,3)="eib",E143='LC - EIB'!$U$2,D143='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10217,7 +10244,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="144" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A144" s="55" t="str">
         <f>IF(AND(C144="pv",E144='UNC - PV'!$S$2,D144='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C144,3)="eib",E144='UNC - EIB'!$V$2,D144='UNC - EIB'!$T$2),"x1",IF(AND(C144="pv",E144='LC - PV'!$R$2,D144='LC - PV'!$P$2),"x2",IF(AND(LEFT(C144,3)="eib",E144='LC - EIB'!$U$2,D144='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10264,7 +10291,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="145" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A145" s="55" t="str">
         <f>IF(AND(C145="pv",E145='UNC - PV'!$S$2,D145='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C145,3)="eib",E145='UNC - EIB'!$V$2,D145='UNC - EIB'!$T$2),"x1",IF(AND(C145="pv",E145='LC - PV'!$R$2,D145='LC - PV'!$P$2),"x2",IF(AND(LEFT(C145,3)="eib",E145='LC - EIB'!$U$2,D145='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10311,7 +10338,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="146" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A146" s="55" t="str">
         <f>IF(AND(C146="pv",E146='UNC - PV'!$S$2,D146='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C146,3)="eib",E146='UNC - EIB'!$V$2,D146='UNC - EIB'!$T$2),"x1",IF(AND(C146="pv",E146='LC - PV'!$R$2,D146='LC - PV'!$P$2),"x2",IF(AND(LEFT(C146,3)="eib",E146='LC - EIB'!$U$2,D146='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10358,7 +10385,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="147" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A147" s="55" t="str">
         <f>IF(AND(C147="pv",E147='UNC - PV'!$S$2,D147='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C147,3)="eib",E147='UNC - EIB'!$V$2,D147='UNC - EIB'!$T$2),"x1",IF(AND(C147="pv",E147='LC - PV'!$R$2,D147='LC - PV'!$P$2),"x2",IF(AND(LEFT(C147,3)="eib",E147='LC - EIB'!$U$2,D147='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10405,7 +10432,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="148" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A148" s="55" t="str">
         <f>IF(AND(C148="pv",E148='UNC - PV'!$S$2,D148='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C148,3)="eib",E148='UNC - EIB'!$V$2,D148='UNC - EIB'!$T$2),"x1",IF(AND(C148="pv",E148='LC - PV'!$R$2,D148='LC - PV'!$P$2),"x2",IF(AND(LEFT(C148,3)="eib",E148='LC - EIB'!$U$2,D148='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10452,7 +10479,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="149" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A149" s="55" t="str">
         <f>IF(AND(C149="pv",E149='UNC - PV'!$S$2,D149='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C149,3)="eib",E149='UNC - EIB'!$V$2,D149='UNC - EIB'!$T$2),"x1",IF(AND(C149="pv",E149='LC - PV'!$R$2,D149='LC - PV'!$P$2),"x2",IF(AND(LEFT(C149,3)="eib",E149='LC - EIB'!$U$2,D149='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10499,7 +10526,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="150" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A150" s="55" t="str">
         <f>IF(AND(C150="pv",E150='UNC - PV'!$S$2,D150='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C150,3)="eib",E150='UNC - EIB'!$V$2,D150='UNC - EIB'!$T$2),"x1",IF(AND(C150="pv",E150='LC - PV'!$R$2,D150='LC - PV'!$P$2),"x2",IF(AND(LEFT(C150,3)="eib",E150='LC - EIB'!$U$2,D150='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10546,7 +10573,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="151" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A151" s="55" t="str">
         <f>IF(AND(C151="pv",E151='UNC - PV'!$S$2,D151='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C151,3)="eib",E151='UNC - EIB'!$V$2,D151='UNC - EIB'!$T$2),"x1",IF(AND(C151="pv",E151='LC - PV'!$R$2,D151='LC - PV'!$P$2),"x2",IF(AND(LEFT(C151,3)="eib",E151='LC - EIB'!$U$2,D151='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10593,7 +10620,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="152" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A152" s="55" t="str">
         <f>IF(AND(C152="pv",E152='UNC - PV'!$S$2,D152='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C152,3)="eib",E152='UNC - EIB'!$V$2,D152='UNC - EIB'!$T$2),"x1",IF(AND(C152="pv",E152='LC - PV'!$R$2,D152='LC - PV'!$P$2),"x2",IF(AND(LEFT(C152,3)="eib",E152='LC - EIB'!$U$2,D152='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10640,7 +10667,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="153" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A153" s="55" t="str">
         <f>IF(AND(C153="pv",E153='UNC - PV'!$S$2,D153='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C153,3)="eib",E153='UNC - EIB'!$V$2,D153='UNC - EIB'!$T$2),"x1",IF(AND(C153="pv",E153='LC - PV'!$R$2,D153='LC - PV'!$P$2),"x2",IF(AND(LEFT(C153,3)="eib",E153='LC - EIB'!$U$2,D153='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10687,7 +10714,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="154" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A154" s="55" t="str">
         <f>IF(AND(C154="pv",E154='UNC - PV'!$S$2,D154='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C154,3)="eib",E154='UNC - EIB'!$V$2,D154='UNC - EIB'!$T$2),"x1",IF(AND(C154="pv",E154='LC - PV'!$R$2,D154='LC - PV'!$P$2),"x2",IF(AND(LEFT(C154,3)="eib",E154='LC - EIB'!$U$2,D154='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10734,7 +10761,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="155" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A155" s="55" t="str">
         <f>IF(AND(C155="pv",E155='UNC - PV'!$S$2,D155='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C155,3)="eib",E155='UNC - EIB'!$V$2,D155='UNC - EIB'!$T$2),"x1",IF(AND(C155="pv",E155='LC - PV'!$R$2,D155='LC - PV'!$P$2),"x2",IF(AND(LEFT(C155,3)="eib",E155='LC - EIB'!$U$2,D155='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10781,13 +10808,13 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="156" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A156" s="55" t="str">
         <f>IF(AND(C156="pv",E156='UNC - PV'!$S$2,D156='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C156,3)="eib",E156='UNC - EIB'!$V$2,D156='UNC - EIB'!$T$2),"x1",IF(AND(C156="pv",E156='LC - PV'!$R$2,D156='LC - PV'!$P$2),"x2",IF(AND(LEFT(C156,3)="eib",E156='LC - EIB'!$U$2,D156='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B156" s="62">
-        <f t="shared" ref="B156:B240" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B156:B239" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
         <v>153</v>
       </c>
       <c r="C156" s="62" t="s">
@@ -10828,7 +10855,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="157" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A157" s="55" t="str">
         <f>IF(AND(C157="pv",E157='UNC - PV'!$S$2,D157='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C157,3)="eib",E157='UNC - EIB'!$V$2,D157='UNC - EIB'!$T$2),"x1",IF(AND(C157="pv",E157='LC - PV'!$R$2,D157='LC - PV'!$P$2),"x2",IF(AND(LEFT(C157,3)="eib",E157='LC - EIB'!$U$2,D157='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10875,7 +10902,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="158" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A158" s="55" t="str">
         <f>IF(AND(C158="pv",E158='UNC - PV'!$S$2,D158='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C158,3)="eib",E158='UNC - EIB'!$V$2,D158='UNC - EIB'!$T$2),"x1",IF(AND(C158="pv",E158='LC - PV'!$R$2,D158='LC - PV'!$P$2),"x2",IF(AND(LEFT(C158,3)="eib",E158='LC - EIB'!$U$2,D158='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10922,7 +10949,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="159" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A159" s="55" t="str">
         <f>IF(AND(C159="pv",E159='UNC - PV'!$S$2,D159='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C159,3)="eib",E159='UNC - EIB'!$V$2,D159='UNC - EIB'!$T$2),"x1",IF(AND(C159="pv",E159='LC - PV'!$R$2,D159='LC - PV'!$P$2),"x2",IF(AND(LEFT(C159,3)="eib",E159='LC - EIB'!$U$2,D159='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10969,7 +10996,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="160" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A160" s="55" t="str">
         <f>IF(AND(C160="pv",E160='UNC - PV'!$S$2,D160='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C160,3)="eib",E160='UNC - EIB'!$V$2,D160='UNC - EIB'!$T$2),"x1",IF(AND(C160="pv",E160='LC - PV'!$R$2,D160='LC - PV'!$P$2),"x2",IF(AND(LEFT(C160,3)="eib",E160='LC - EIB'!$U$2,D160='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11016,7 +11043,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="161" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A161" s="55" t="str">
         <f>IF(AND(C161="pv",E161='UNC - PV'!$S$2,D161='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C161,3)="eib",E161='UNC - EIB'!$V$2,D161='UNC - EIB'!$T$2),"x1",IF(AND(C161="pv",E161='LC - PV'!$R$2,D161='LC - PV'!$P$2),"x2",IF(AND(LEFT(C161,3)="eib",E161='LC - EIB'!$U$2,D161='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11063,7 +11090,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="162" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A162" s="55" t="str">
         <f>IF(AND(C162="pv",E162='UNC - PV'!$S$2,D162='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C162,3)="eib",E162='UNC - EIB'!$V$2,D162='UNC - EIB'!$T$2),"x1",IF(AND(C162="pv",E162='LC - PV'!$R$2,D162='LC - PV'!$P$2),"x2",IF(AND(LEFT(C162,3)="eib",E162='LC - EIB'!$U$2,D162='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11110,7 +11137,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="163" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A163" s="55" t="str">
         <f>IF(AND(C163="pv",E163='UNC - PV'!$S$2,D163='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C163,3)="eib",E163='UNC - EIB'!$V$2,D163='UNC - EIB'!$T$2),"x1",IF(AND(C163="pv",E163='LC - PV'!$R$2,D163='LC - PV'!$P$2),"x2",IF(AND(LEFT(C163,3)="eib",E163='LC - EIB'!$U$2,D163='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11157,7 +11184,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="164" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A164" s="55" t="str">
         <f>IF(AND(C164="pv",E164='UNC - PV'!$S$2,D164='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C164,3)="eib",E164='UNC - EIB'!$V$2,D164='UNC - EIB'!$T$2),"x1",IF(AND(C164="pv",E164='LC - PV'!$R$2,D164='LC - PV'!$P$2),"x2",IF(AND(LEFT(C164,3)="eib",E164='LC - EIB'!$U$2,D164='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11204,7 +11231,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="165" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A165" s="55" t="str">
         <f>IF(AND(C165="pv",E165='UNC - PV'!$S$2,D165='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C165,3)="eib",E165='UNC - EIB'!$V$2,D165='UNC - EIB'!$T$2),"x1",IF(AND(C165="pv",E165='LC - PV'!$R$2,D165='LC - PV'!$P$2),"x2",IF(AND(LEFT(C165,3)="eib",E165='LC - EIB'!$U$2,D165='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11251,7 +11278,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="166" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A166" s="55" t="str">
         <f>IF(AND(C166="pv",E166='UNC - PV'!$S$2,D166='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C166,3)="eib",E166='UNC - EIB'!$V$2,D166='UNC - EIB'!$T$2),"x1",IF(AND(C166="pv",E166='LC - PV'!$R$2,D166='LC - PV'!$P$2),"x2",IF(AND(LEFT(C166,3)="eib",E166='LC - EIB'!$U$2,D166='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11298,7 +11325,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="167" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A167" s="55" t="str">
         <f>IF(AND(C167="pv",E167='UNC - PV'!$S$2,D167='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C167,3)="eib",E167='UNC - EIB'!$V$2,D167='UNC - EIB'!$T$2),"x1",IF(AND(C167="pv",E167='LC - PV'!$R$2,D167='LC - PV'!$P$2),"x2",IF(AND(LEFT(C167,3)="eib",E167='LC - EIB'!$U$2,D167='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11345,7 +11372,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="168" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A168" s="55" t="str">
         <f>IF(AND(C168="pv",E168='UNC - PV'!$S$2,D168='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C168,3)="eib",E168='UNC - EIB'!$V$2,D168='UNC - EIB'!$T$2),"x1",IF(AND(C168="pv",E168='LC - PV'!$R$2,D168='LC - PV'!$P$2),"x2",IF(AND(LEFT(C168,3)="eib",E168='LC - EIB'!$U$2,D168='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11392,7 +11419,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="169" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A169" s="55" t="str">
         <f>IF(AND(C169="pv",E169='UNC - PV'!$S$2,D169='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C169,3)="eib",E169='UNC - EIB'!$V$2,D169='UNC - EIB'!$T$2),"x1",IF(AND(C169="pv",E169='LC - PV'!$R$2,D169='LC - PV'!$P$2),"x2",IF(AND(LEFT(C169,3)="eib",E169='LC - EIB'!$U$2,D169='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11439,7 +11466,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A170" s="55" t="str">
         <f>IF(AND(C170="pv",E170='UNC - PV'!$S$2,D170='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C170,3)="eib",E170='UNC - EIB'!$V$2,D170='UNC - EIB'!$T$2),"x1",IF(AND(C170="pv",E170='LC - PV'!$R$2,D170='LC - PV'!$P$2),"x2",IF(AND(LEFT(C170,3)="eib",E170='LC - EIB'!$U$2,D170='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11486,7 +11513,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="171" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A171" s="55" t="str">
         <f>IF(AND(C171="pv",E171='UNC - PV'!$S$2,D171='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C171,3)="eib",E171='UNC - EIB'!$V$2,D171='UNC - EIB'!$T$2),"x1",IF(AND(C171="pv",E171='LC - PV'!$R$2,D171='LC - PV'!$P$2),"x2",IF(AND(LEFT(C171,3)="eib",E171='LC - EIB'!$U$2,D171='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11533,13 +11560,13 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="172" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A172" s="55" t="str">
         <f>IF(AND(C172="pv",E172='UNC - PV'!$S$2,D172='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C172,3)="eib",E172='UNC - EIB'!$V$2,D172='UNC - EIB'!$T$2),"x1",IF(AND(C172="pv",E172='LC - PV'!$R$2,D172='LC - PV'!$P$2),"x2",IF(AND(LEFT(C172,3)="eib",E172='LC - EIB'!$U$2,D172='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B172" s="62">
-        <f t="shared" ref="B172:B237" si="12">IF(C172&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B172:B236" si="12">IF(C172&lt;&gt;"",ROW()-3,"")</f>
         <v>169</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -11580,7 +11607,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="173" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A173" s="55" t="str">
         <f>IF(AND(C173="pv",E173='UNC - PV'!$S$2,D173='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C173,3)="eib",E173='UNC - EIB'!$V$2,D173='UNC - EIB'!$T$2),"x1",IF(AND(C173="pv",E173='LC - PV'!$R$2,D173='LC - PV'!$P$2),"x2",IF(AND(LEFT(C173,3)="eib",E173='LC - EIB'!$U$2,D173='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11627,7 +11654,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="174" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A174" s="55" t="str">
         <f>IF(AND(C174="pv",E174='UNC - PV'!$S$2,D174='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C174,3)="eib",E174='UNC - EIB'!$V$2,D174='UNC - EIB'!$T$2),"x1",IF(AND(C174="pv",E174='LC - PV'!$R$2,D174='LC - PV'!$P$2),"x2",IF(AND(LEFT(C174,3)="eib",E174='LC - EIB'!$U$2,D174='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11674,7 +11701,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="175" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A175" s="55" t="str">
         <f>IF(AND(C175="pv",E175='UNC - PV'!$S$2,D175='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C175,3)="eib",E175='UNC - EIB'!$V$2,D175='UNC - EIB'!$T$2),"x1",IF(AND(C175="pv",E175='LC - PV'!$R$2,D175='LC - PV'!$P$2),"x2",IF(AND(LEFT(C175,3)="eib",E175='LC - EIB'!$U$2,D175='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11721,7 +11748,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="176" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A176" s="55" t="str">
         <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11768,7 +11795,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="177" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A177" s="55" t="str">
         <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11815,7 +11842,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="178" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A178" s="55" t="str">
         <f>IF(AND(C178="pv",E178='UNC - PV'!$S$2,D178='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C178,3)="eib",E178='UNC - EIB'!$V$2,D178='UNC - EIB'!$T$2),"x1",IF(AND(C178="pv",E178='LC - PV'!$R$2,D178='LC - PV'!$P$2),"x2",IF(AND(LEFT(C178,3)="eib",E178='LC - EIB'!$U$2,D178='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11862,7 +11889,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="179" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A179" s="55" t="str">
         <f>IF(AND(C179="pv",E179='UNC - PV'!$S$2,D179='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C179,3)="eib",E179='UNC - EIB'!$V$2,D179='UNC - EIB'!$T$2),"x1",IF(AND(C179="pv",E179='LC - PV'!$R$2,D179='LC - PV'!$P$2),"x2",IF(AND(LEFT(C179,3)="eib",E179='LC - EIB'!$U$2,D179='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11909,7 +11936,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="180" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A180" s="55" t="str">
         <f>IF(AND(C180="pv",E180='UNC - PV'!$S$2,D180='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C180,3)="eib",E180='UNC - EIB'!$V$2,D180='UNC - EIB'!$T$2),"x1",IF(AND(C180="pv",E180='LC - PV'!$R$2,D180='LC - PV'!$P$2),"x2",IF(AND(LEFT(C180,3)="eib",E180='LC - EIB'!$U$2,D180='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -11956,7 +11983,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="181" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A181" s="55" t="str">
         <f>IF(AND(C181="pv",E181='UNC - PV'!$S$2,D181='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C181,3)="eib",E181='UNC - EIB'!$V$2,D181='UNC - EIB'!$T$2),"x1",IF(AND(C181="pv",E181='LC - PV'!$R$2,D181='LC - PV'!$P$2),"x2",IF(AND(LEFT(C181,3)="eib",E181='LC - EIB'!$U$2,D181='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12004,7 +12031,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="182" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A182" s="55" t="str">
         <f>IF(AND(C182="pv",E182='UNC - PV'!$S$2,D182='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C182,3)="eib",E182='UNC - EIB'!$V$2,D182='UNC - EIB'!$T$2),"x1",IF(AND(C182="pv",E182='LC - PV'!$R$2,D182='LC - PV'!$P$2),"x2",IF(AND(LEFT(C182,3)="eib",E182='LC - EIB'!$U$2,D182='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12051,7 +12078,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="183" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A183" s="55" t="str">
         <f>IF(AND(C183="pv",E183='UNC - PV'!$S$2,D183='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C183,3)="eib",E183='UNC - EIB'!$V$2,D183='UNC - EIB'!$T$2),"x1",IF(AND(C183="pv",E183='LC - PV'!$R$2,D183='LC - PV'!$P$2),"x2",IF(AND(LEFT(C183,3)="eib",E183='LC - EIB'!$U$2,D183='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12098,7 +12125,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="184" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A184" s="55" t="str">
         <f>IF(AND(C184="pv",E184='UNC - PV'!$S$2,D184='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C184,3)="eib",E184='UNC - EIB'!$V$2,D184='UNC - EIB'!$T$2),"x1",IF(AND(C184="pv",E184='LC - PV'!$R$2,D184='LC - PV'!$P$2),"x2",IF(AND(LEFT(C184,3)="eib",E184='LC - EIB'!$U$2,D184='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12145,7 +12172,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="185" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A185" s="55" t="str">
         <f>IF(AND(C185="pv",E185='UNC - PV'!$S$2,D185='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C185,3)="eib",E185='UNC - EIB'!$V$2,D185='UNC - EIB'!$T$2),"x1",IF(AND(C185="pv",E185='LC - PV'!$R$2,D185='LC - PV'!$P$2),"x2",IF(AND(LEFT(C185,3)="eib",E185='LC - EIB'!$U$2,D185='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12192,7 +12219,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="186" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A186" s="55" t="str">
         <f>IF(AND(C186="pv",E186='UNC - PV'!$S$2,D186='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C186,3)="eib",E186='UNC - EIB'!$V$2,D186='UNC - EIB'!$T$2),"x1",IF(AND(C186="pv",E186='LC - PV'!$R$2,D186='LC - PV'!$P$2),"x2",IF(AND(LEFT(C186,3)="eib",E186='LC - EIB'!$U$2,D186='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12239,7 +12266,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="187" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A187" s="55" t="str">
         <f>IF(AND(C187="pv",E187='UNC - PV'!$S$2,D187='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C187,3)="eib",E187='UNC - EIB'!$V$2,D187='UNC - EIB'!$T$2),"x1",IF(AND(C187="pv",E187='LC - PV'!$R$2,D187='LC - PV'!$P$2),"x2",IF(AND(LEFT(C187,3)="eib",E187='LC - EIB'!$U$2,D187='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12286,7 +12313,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="188" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A188" s="55" t="str">
         <f>IF(AND(C188="pv",E188='UNC - PV'!$S$2,D188='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C188,3)="eib",E188='UNC - EIB'!$V$2,D188='UNC - EIB'!$T$2),"x1",IF(AND(C188="pv",E188='LC - PV'!$R$2,D188='LC - PV'!$P$2),"x2",IF(AND(LEFT(C188,3)="eib",E188='LC - EIB'!$U$2,D188='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12333,7 +12360,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="189" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A189" s="55" t="str">
         <f>IF(AND(C189="pv",E189='UNC - PV'!$S$2,D189='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C189,3)="eib",E189='UNC - EIB'!$V$2,D189='UNC - EIB'!$T$2),"x1",IF(AND(C189="pv",E189='LC - PV'!$R$2,D189='LC - PV'!$P$2),"x2",IF(AND(LEFT(C189,3)="eib",E189='LC - EIB'!$U$2,D189='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12380,7 +12407,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="190" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A190" s="55" t="str">
         <f>IF(AND(C190="pv",E190='UNC - PV'!$S$2,D190='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C190,3)="eib",E190='UNC - EIB'!$V$2,D190='UNC - EIB'!$T$2),"x1",IF(AND(C190="pv",E190='LC - PV'!$R$2,D190='LC - PV'!$P$2),"x2",IF(AND(LEFT(C190,3)="eib",E190='LC - EIB'!$U$2,D190='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12427,7 +12454,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="191" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A191" s="55" t="str">
         <f>IF(AND(C191="pv",E191='UNC - PV'!$S$2,D191='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C191,3)="eib",E191='UNC - EIB'!$V$2,D191='UNC - EIB'!$T$2),"x1",IF(AND(C191="pv",E191='LC - PV'!$R$2,D191='LC - PV'!$P$2),"x2",IF(AND(LEFT(C191,3)="eib",E191='LC - EIB'!$U$2,D191='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12474,7 +12501,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="192" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A192" s="55" t="str">
         <f>IF(AND(C192="pv",E192='UNC - PV'!$S$2,D192='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C192,3)="eib",E192='UNC - EIB'!$V$2,D192='UNC - EIB'!$T$2),"x1",IF(AND(C192="pv",E192='LC - PV'!$R$2,D192='LC - PV'!$P$2),"x2",IF(AND(LEFT(C192,3)="eib",E192='LC - EIB'!$U$2,D192='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12521,7 +12548,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="193" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A193" s="55" t="str">
         <f>IF(AND(C193="pv",E193='UNC - PV'!$S$2,D193='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C193,3)="eib",E193='UNC - EIB'!$V$2,D193='UNC - EIB'!$T$2),"x1",IF(AND(C193="pv",E193='LC - PV'!$R$2,D193='LC - PV'!$P$2),"x2",IF(AND(LEFT(C193,3)="eib",E193='LC - EIB'!$U$2,D193='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12568,7 +12595,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="194" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A194" s="55" t="str">
         <f>IF(AND(C194="pv",E194='UNC - PV'!$S$2,D194='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C194,3)="eib",E194='UNC - EIB'!$V$2,D194='UNC - EIB'!$T$2),"x1",IF(AND(C194="pv",E194='LC - PV'!$R$2,D194='LC - PV'!$P$2),"x2",IF(AND(LEFT(C194,3)="eib",E194='LC - EIB'!$U$2,D194='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12616,7 +12643,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="195" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A195" s="55" t="str">
         <f>IF(AND(C195="pv",E195='UNC - PV'!$S$2,D195='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C195,3)="eib",E195='UNC - EIB'!$V$2,D195='UNC - EIB'!$T$2),"x1",IF(AND(C195="pv",E195='LC - PV'!$R$2,D195='LC - PV'!$P$2),"x2",IF(AND(LEFT(C195,3)="eib",E195='LC - EIB'!$U$2,D195='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12662,7 +12689,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="196" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A196" s="55" t="str">
         <f>IF(AND(C196="pv",E196='UNC - PV'!$S$2,D196='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C196,3)="eib",E196='UNC - EIB'!$V$2,D196='UNC - EIB'!$T$2),"x1",IF(AND(C196="pv",E196='LC - PV'!$R$2,D196='LC - PV'!$P$2),"x2",IF(AND(LEFT(C196,3)="eib",E196='LC - EIB'!$U$2,D196='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12709,10 +12736,10 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B197" s="62">
         <f t="shared" ref="B197:B212" si="14">IF(C197&lt;&gt;"",ROW()-3,"")</f>
@@ -12753,10 +12780,10 @@
       <c r="Q197" s="104"/>
       <c r="R197" s="131" t="str">
         <f>IF(AND(C197="pv",D197='UNC - PV'!$Q$2,LEFT(E197,1)="u",'UNC - PV'!$O$2="vnđ",TH!P197&lt;&gt;""),"p",IF(AND(C197="pv",D197='UNC - PV'!$Q$2,LEFT(E197,1)="u",'UNC - PV'!$O$2="usd",TH!O197&lt;&gt;""),"p1",IF(AND(C197="pv",D197='LC - PV'!$P$2,LEFT(E197,1)="l"),"p2",IF(AND(LEFT(C197,3)="EIB",D197='UNC - EIB'!$T$2,LEFT(E197,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P197&lt;&gt;""),"e",IF(AND(LEFT(C197,3)="EIB",D197='UNC - EIB'!$T$2,LEFT(E197,1)="U",'UNC - EIB'!$R$2="usd",TH!O197&lt;&gt;""),"e1",IF(AND(LEFT(C197,3)="EIB",D197='LC - EIB'!$S$2,LEFT(E197,1)="l"),"e2",""))))))</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12798,7 +12825,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="199" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A199" s="55" t="str">
         <f>IF(AND(C199="pv",E199='UNC - PV'!$S$2,D199='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C199,3)="eib",E199='UNC - EIB'!$V$2,D199='UNC - EIB'!$T$2),"x1",IF(AND(C199="pv",E199='LC - PV'!$R$2,D199='LC - PV'!$P$2),"x2",IF(AND(LEFT(C199,3)="eib",E199='LC - EIB'!$U$2,D199='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12845,7 +12872,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="200" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A200" s="55" t="str">
         <f>IF(AND(C200="pv",E200='UNC - PV'!$S$2,D200='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C200,3)="eib",E200='UNC - EIB'!$V$2,D200='UNC - EIB'!$T$2),"x1",IF(AND(C200="pv",E200='LC - PV'!$R$2,D200='LC - PV'!$P$2),"x2",IF(AND(LEFT(C200,3)="eib",E200='LC - EIB'!$U$2,D200='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12892,7 +12919,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="201" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A201" s="55" t="str">
         <f>IF(AND(C201="pv",E201='UNC - PV'!$S$2,D201='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C201,3)="eib",E201='UNC - EIB'!$V$2,D201='UNC - EIB'!$T$2),"x1",IF(AND(C201="pv",E201='LC - PV'!$R$2,D201='LC - PV'!$P$2),"x2",IF(AND(LEFT(C201,3)="eib",E201='LC - EIB'!$U$2,D201='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12939,7 +12966,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="202" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A202" s="55" t="str">
         <f>IF(AND(C202="pv",E202='UNC - PV'!$S$2,D202='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C202,3)="eib",E202='UNC - EIB'!$V$2,D202='UNC - EIB'!$T$2),"x1",IF(AND(C202="pv",E202='LC - PV'!$R$2,D202='LC - PV'!$P$2),"x2",IF(AND(LEFT(C202,3)="eib",E202='LC - EIB'!$U$2,D202='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -12986,7 +13013,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="203" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A203" s="55" t="str">
         <f>IF(AND(C203="pv",E203='UNC - PV'!$S$2,D203='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C203,3)="eib",E203='UNC - EIB'!$V$2,D203='UNC - EIB'!$T$2),"x1",IF(AND(C203="pv",E203='LC - PV'!$R$2,D203='LC - PV'!$P$2),"x2",IF(AND(LEFT(C203,3)="eib",E203='LC - EIB'!$U$2,D203='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13033,7 +13060,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="204" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A204" s="55" t="str">
         <f>IF(AND(C204="pv",E204='UNC - PV'!$S$2,D204='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C204,3)="eib",E204='UNC - EIB'!$V$2,D204='UNC - EIB'!$T$2),"x1",IF(AND(C204="pv",E204='LC - PV'!$R$2,D204='LC - PV'!$P$2),"x2",IF(AND(LEFT(C204,3)="eib",E204='LC - EIB'!$U$2,D204='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13080,7 +13107,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="205" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A205" s="55" t="str">
         <f>IF(AND(C205="pv",E205='UNC - PV'!$S$2,D205='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C205,3)="eib",E205='UNC - EIB'!$V$2,D205='UNC - EIB'!$T$2),"x1",IF(AND(C205="pv",E205='LC - PV'!$R$2,D205='LC - PV'!$P$2),"x2",IF(AND(LEFT(C205,3)="eib",E205='LC - EIB'!$U$2,D205='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13128,7 +13155,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="206" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A206" s="55" t="str">
         <f>IF(AND(C206="pv",E206='UNC - PV'!$S$2,D206='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C206,3)="eib",E206='UNC - EIB'!$V$2,D206='UNC - EIB'!$T$2),"x1",IF(AND(C206="pv",E206='LC - PV'!$R$2,D206='LC - PV'!$P$2),"x2",IF(AND(LEFT(C206,3)="eib",E206='LC - EIB'!$U$2,D206='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13175,10 +13202,10 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="207" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A207" s="55" t="str">
         <f>IF(AND(C207="pv",E207='UNC - PV'!$S$2,D207='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C207,3)="eib",E207='UNC - EIB'!$V$2,D207='UNC - EIB'!$T$2),"x1",IF(AND(C207="pv",E207='LC - PV'!$R$2,D207='LC - PV'!$P$2),"x2",IF(AND(LEFT(C207,3)="eib",E207='LC - EIB'!$U$2,D207='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B207" s="62">
         <f t="shared" si="14"/>
@@ -13222,376 +13249,611 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="208" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A208" s="55" t="str">
         <f>IF(AND(C208="pv",E208='UNC - PV'!$S$2,D208='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C208,3)="eib",E208='UNC - EIB'!$V$2,D208='UNC - EIB'!$T$2),"x1",IF(AND(C208="pv",E208='LC - PV'!$R$2,D208='LC - PV'!$P$2),"x2",IF(AND(LEFT(C208,3)="eib",E208='LC - EIB'!$U$2,D208='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B208" s="62" t="str">
+      <c r="B208" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C208" s="62"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="65"/>
-      <c r="F208" s="64"/>
-      <c r="G208" s="64"/>
-      <c r="H208" s="64"/>
-      <c r="I208" s="65"/>
+        <v>205</v>
+      </c>
+      <c r="C208" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D208" s="67">
+        <v>43011</v>
+      </c>
+      <c r="E208" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F208" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G208" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="H208" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I208" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J208" s="66"/>
       <c r="K208" s="67"/>
       <c r="L208" s="65"/>
       <c r="M208" s="65"/>
-      <c r="N208" s="64"/>
+      <c r="N208" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="O208" s="68"/>
-      <c r="P208" s="69"/>
+      <c r="P208" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q208" s="104"/>
       <c r="R208" s="131" t="str">
         <f>IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="vnđ",TH!P208&lt;&gt;""),"p",IF(AND(C208="pv",D208='UNC - PV'!$Q$2,LEFT(E208,1)="u",'UNC - PV'!$O$2="usd",TH!O208&lt;&gt;""),"p1",IF(AND(C208="pv",D208='LC - PV'!$P$2,LEFT(E208,1)="l"),"p2",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P208&lt;&gt;""),"e",IF(AND(LEFT(C208,3)="EIB",D208='UNC - EIB'!$T$2,LEFT(E208,1)="U",'UNC - EIB'!$R$2="usd",TH!O208&lt;&gt;""),"e1",IF(AND(LEFT(C208,3)="EIB",D208='LC - EIB'!$S$2,LEFT(E208,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="209" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A209" s="55" t="str">
         <f>IF(AND(C209="pv",E209='UNC - PV'!$S$2,D209='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C209,3)="eib",E209='UNC - EIB'!$V$2,D209='UNC - EIB'!$T$2),"x1",IF(AND(C209="pv",E209='LC - PV'!$R$2,D209='LC - PV'!$P$2),"x2",IF(AND(LEFT(C209,3)="eib",E209='LC - EIB'!$U$2,D209='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B209" s="62" t="str">
+      <c r="B209" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C209" s="62"/>
-      <c r="D209" s="67"/>
-      <c r="E209" s="65"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="65"/>
+        <v>206</v>
+      </c>
+      <c r="C209" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D209" s="67">
+        <v>43011</v>
+      </c>
+      <c r="E209" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F209" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G209" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H209" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I209" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J209" s="66"/>
       <c r="K209" s="67"/>
       <c r="L209" s="65"/>
       <c r="M209" s="65"/>
-      <c r="N209" s="64"/>
+      <c r="N209" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="O209" s="68"/>
-      <c r="P209" s="69"/>
+      <c r="P209" s="69">
+        <v>10500000000</v>
+      </c>
       <c r="Q209" s="104"/>
       <c r="R209" s="131" t="str">
         <f>IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="vnđ",TH!P209&lt;&gt;""),"p",IF(AND(C209="pv",D209='UNC - PV'!$Q$2,LEFT(E209,1)="u",'UNC - PV'!$O$2="usd",TH!O209&lt;&gt;""),"p1",IF(AND(C209="pv",D209='LC - PV'!$P$2,LEFT(E209,1)="l"),"p2",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P209&lt;&gt;""),"e",IF(AND(LEFT(C209,3)="EIB",D209='UNC - EIB'!$T$2,LEFT(E209,1)="U",'UNC - EIB'!$R$2="usd",TH!O209&lt;&gt;""),"e1",IF(AND(LEFT(C209,3)="EIB",D209='LC - EIB'!$S$2,LEFT(E209,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="210" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A210" s="55" t="str">
         <f>IF(AND(C210="pv",E210='UNC - PV'!$S$2,D210='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C210,3)="eib",E210='UNC - EIB'!$V$2,D210='UNC - EIB'!$T$2),"x1",IF(AND(C210="pv",E210='LC - PV'!$R$2,D210='LC - PV'!$P$2),"x2",IF(AND(LEFT(C210,3)="eib",E210='LC - EIB'!$U$2,D210='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B210" s="62" t="str">
+      <c r="B210" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C210" s="62"/>
-      <c r="D210" s="67"/>
-      <c r="E210" s="65"/>
-      <c r="F210" s="64"/>
-      <c r="G210" s="64"/>
-      <c r="H210" s="64"/>
-      <c r="I210" s="65"/>
+        <v>207</v>
+      </c>
+      <c r="C210" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D210" s="67">
+        <v>43011</v>
+      </c>
+      <c r="E210" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F210" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G210" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="H210" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I210" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J210" s="66"/>
       <c r="K210" s="67"/>
       <c r="L210" s="65"/>
       <c r="M210" s="65"/>
-      <c r="N210" s="64"/>
+      <c r="N210" s="64" t="s">
+        <v>373</v>
+      </c>
       <c r="O210" s="68"/>
-      <c r="P210" s="69"/>
+      <c r="P210" s="69">
+        <v>200000000</v>
+      </c>
       <c r="Q210" s="104"/>
       <c r="R210" s="131" t="str">
         <f>IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="vnđ",TH!P210&lt;&gt;""),"p",IF(AND(C210="pv",D210='UNC - PV'!$Q$2,LEFT(E210,1)="u",'UNC - PV'!$O$2="usd",TH!O210&lt;&gt;""),"p1",IF(AND(C210="pv",D210='LC - PV'!$P$2,LEFT(E210,1)="l"),"p2",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P210&lt;&gt;""),"e",IF(AND(LEFT(C210,3)="EIB",D210='UNC - EIB'!$T$2,LEFT(E210,1)="U",'UNC - EIB'!$R$2="usd",TH!O210&lt;&gt;""),"e1",IF(AND(LEFT(C210,3)="EIB",D210='LC - EIB'!$S$2,LEFT(E210,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="211" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A211" s="55" t="str">
         <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B211" s="62" t="str">
+      <c r="B211" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C211" s="62"/>
-      <c r="D211" s="67"/>
-      <c r="E211" s="65"/>
-      <c r="F211" s="64"/>
-      <c r="G211" s="64"/>
-      <c r="H211" s="64"/>
-      <c r="I211" s="65"/>
+        <v>208</v>
+      </c>
+      <c r="C211" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D211" s="67">
+        <v>43011</v>
+      </c>
+      <c r="E211" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F211" s="64" t="s">
+        <v>378</v>
+      </c>
+      <c r="G211" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="H211" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="I211" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J211" s="66"/>
       <c r="K211" s="67"/>
       <c r="L211" s="65"/>
       <c r="M211" s="65"/>
-      <c r="N211" s="64"/>
+      <c r="N211" s="64" t="s">
+        <v>359</v>
+      </c>
       <c r="O211" s="68"/>
-      <c r="P211" s="69"/>
+      <c r="P211" s="69">
+        <v>200000000</v>
+      </c>
       <c r="Q211" s="104"/>
       <c r="R211" s="131" t="str">
         <f>IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="vnđ",TH!P211&lt;&gt;""),"p",IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="usd",TH!O211&lt;&gt;""),"p1",IF(AND(C211="pv",D211='LC - PV'!$P$2,LEFT(E211,1)="l"),"p2",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P211&lt;&gt;""),"e",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="U",'UNC - EIB'!$R$2="usd",TH!O211&lt;&gt;""),"e1",IF(AND(LEFT(C211,3)="EIB",D211='LC - EIB'!$S$2,LEFT(E211,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="212" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A212" s="55" t="str">
         <f>IF(AND(C212="pv",E212='UNC - PV'!$S$2,D212='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C212,3)="eib",E212='UNC - EIB'!$V$2,D212='UNC - EIB'!$T$2),"x1",IF(AND(C212="pv",E212='LC - PV'!$R$2,D212='LC - PV'!$P$2),"x2",IF(AND(LEFT(C212,3)="eib",E212='LC - EIB'!$U$2,D212='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B212" s="62" t="str">
+      <c r="B212" s="62">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="C212" s="62"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="64"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="64"/>
-      <c r="I212" s="65"/>
+        <v>209</v>
+      </c>
+      <c r="C212" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D212" s="67">
+        <v>43011</v>
+      </c>
+      <c r="E212" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F212" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G212" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="H212" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="I212" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J212" s="66"/>
       <c r="K212" s="67"/>
       <c r="L212" s="65"/>
       <c r="M212" s="65"/>
-      <c r="N212" s="64"/>
+      <c r="N212" s="64" t="s">
+        <v>424</v>
+      </c>
       <c r="O212" s="68"/>
-      <c r="P212" s="69"/>
+      <c r="P212" s="69">
+        <v>28780652</v>
+      </c>
       <c r="Q212" s="104"/>
       <c r="R212" s="131" t="str">
         <f>IF(AND(C212="pv",D212='UNC - PV'!$Q$2,LEFT(E212,1)="u",'UNC - PV'!$O$2="vnđ",TH!P212&lt;&gt;""),"p",IF(AND(C212="pv",D212='UNC - PV'!$Q$2,LEFT(E212,1)="u",'UNC - PV'!$O$2="usd",TH!O212&lt;&gt;""),"p1",IF(AND(C212="pv",D212='LC - PV'!$P$2,LEFT(E212,1)="l"),"p2",IF(AND(LEFT(C212,3)="EIB",D212='UNC - EIB'!$T$2,LEFT(E212,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P212&lt;&gt;""),"e",IF(AND(LEFT(C212,3)="EIB",D212='UNC - EIB'!$T$2,LEFT(E212,1)="U",'UNC - EIB'!$R$2="usd",TH!O212&lt;&gt;""),"e1",IF(AND(LEFT(C212,3)="EIB",D212='LC - EIB'!$S$2,LEFT(E212,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="213" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A213" s="55" t="str">
         <f>IF(AND(C213="pv",E213='UNC - PV'!$S$2,D213='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C213,3)="eib",E213='UNC - EIB'!$V$2,D213='UNC - EIB'!$T$2),"x1",IF(AND(C213="pv",E213='LC - PV'!$R$2,D213='LC - PV'!$P$2),"x2",IF(AND(LEFT(C213,3)="eib",E213='LC - EIB'!$U$2,D213='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B213" s="62" t="str">
+      <c r="B213" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C213" s="62"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="65"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="64"/>
-      <c r="I213" s="65"/>
-      <c r="J213" s="66"/>
+        <v>210</v>
+      </c>
+      <c r="C213" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D213" s="67">
+        <v>43020</v>
+      </c>
+      <c r="E213" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F213" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G213" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H213" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I213" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J213" s="56"/>
       <c r="K213" s="67"/>
       <c r="L213" s="65"/>
       <c r="M213" s="65"/>
-      <c r="N213" s="64"/>
+      <c r="N213" s="64" t="s">
+        <v>425</v>
+      </c>
       <c r="O213" s="68"/>
-      <c r="P213" s="69"/>
+      <c r="P213" s="69">
+        <f>3973*22690</f>
+        <v>90147370</v>
+      </c>
       <c r="Q213" s="104"/>
       <c r="R213" s="131" t="str">
         <f>IF(AND(C213="pv",D213='UNC - PV'!$Q$2,LEFT(E213,1)="u",'UNC - PV'!$O$2="vnđ",TH!P213&lt;&gt;""),"p",IF(AND(C213="pv",D213='UNC - PV'!$Q$2,LEFT(E213,1)="u",'UNC - PV'!$O$2="usd",TH!O213&lt;&gt;""),"p1",IF(AND(C213="pv",D213='LC - PV'!$P$2,LEFT(E213,1)="l"),"p2",IF(AND(LEFT(C213,3)="EIB",D213='UNC - EIB'!$T$2,LEFT(E213,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P213&lt;&gt;""),"e",IF(AND(LEFT(C213,3)="EIB",D213='UNC - EIB'!$T$2,LEFT(E213,1)="U",'UNC - EIB'!$R$2="usd",TH!O213&lt;&gt;""),"e1",IF(AND(LEFT(C213,3)="EIB",D213='LC - EIB'!$S$2,LEFT(E213,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="214" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A214" s="55" t="str">
         <f>IF(AND(C214="pv",E214='UNC - PV'!$S$2,D214='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C214,3)="eib",E214='UNC - EIB'!$V$2,D214='UNC - EIB'!$T$2),"x1",IF(AND(C214="pv",E214='LC - PV'!$R$2,D214='LC - PV'!$P$2),"x2",IF(AND(LEFT(C214,3)="eib",E214='LC - EIB'!$U$2,D214='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B214" s="62" t="str">
+      <c r="B214" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C214" s="62"/>
-      <c r="D214" s="67"/>
-      <c r="E214" s="65"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="65"/>
-      <c r="J214" s="66"/>
-      <c r="K214" s="67"/>
-      <c r="L214" s="65"/>
-      <c r="M214" s="65"/>
-      <c r="N214" s="64"/>
+        <v>211</v>
+      </c>
+      <c r="C214" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D214" s="67">
+        <v>43020</v>
+      </c>
+      <c r="E214" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F214" s="107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G214" s="107" t="s">
+        <v>154</v>
+      </c>
+      <c r="H214" s="107" t="s">
+        <v>155</v>
+      </c>
+      <c r="I214" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="J214" s="108"/>
+      <c r="K214" s="109"/>
+      <c r="L214" s="110"/>
+      <c r="M214" s="110"/>
+      <c r="N214" s="107" t="s">
+        <v>156</v>
+      </c>
       <c r="O214" s="68"/>
-      <c r="P214" s="69"/>
+      <c r="P214" s="69">
+        <v>69355400</v>
+      </c>
       <c r="Q214" s="104"/>
       <c r="R214" s="131" t="str">
         <f>IF(AND(C214="pv",D214='UNC - PV'!$Q$2,LEFT(E214,1)="u",'UNC - PV'!$O$2="vnđ",TH!P214&lt;&gt;""),"p",IF(AND(C214="pv",D214='UNC - PV'!$Q$2,LEFT(E214,1)="u",'UNC - PV'!$O$2="usd",TH!O214&lt;&gt;""),"p1",IF(AND(C214="pv",D214='LC - PV'!$P$2,LEFT(E214,1)="l"),"p2",IF(AND(LEFT(C214,3)="EIB",D214='UNC - EIB'!$T$2,LEFT(E214,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P214&lt;&gt;""),"e",IF(AND(LEFT(C214,3)="EIB",D214='UNC - EIB'!$T$2,LEFT(E214,1)="U",'UNC - EIB'!$R$2="usd",TH!O214&lt;&gt;""),"e1",IF(AND(LEFT(C214,3)="EIB",D214='LC - EIB'!$S$2,LEFT(E214,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="215" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A215" s="55" t="str">
         <f>IF(AND(C215="pv",E215='UNC - PV'!$S$2,D215='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C215,3)="eib",E215='UNC - EIB'!$V$2,D215='UNC - EIB'!$T$2),"x1",IF(AND(C215="pv",E215='LC - PV'!$R$2,D215='LC - PV'!$P$2),"x2",IF(AND(LEFT(C215,3)="eib",E215='LC - EIB'!$U$2,D215='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B215" s="62" t="str">
+      <c r="B215" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C215" s="62"/>
-      <c r="D215" s="67"/>
-      <c r="E215" s="65"/>
-      <c r="F215" s="64"/>
-      <c r="G215" s="64"/>
-      <c r="H215" s="64"/>
-      <c r="I215" s="65"/>
-      <c r="J215" s="66"/>
+        <v>212</v>
+      </c>
+      <c r="C215" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D215" s="67">
+        <v>43027</v>
+      </c>
+      <c r="E215" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F215" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G215" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H215" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I215" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J215" s="56"/>
       <c r="K215" s="67"/>
       <c r="L215" s="65"/>
       <c r="M215" s="65"/>
-      <c r="N215" s="64"/>
+      <c r="N215" s="64" t="s">
+        <v>426</v>
+      </c>
       <c r="O215" s="68"/>
-      <c r="P215" s="69"/>
+      <c r="P215" s="69">
+        <v>1074230300</v>
+      </c>
       <c r="Q215" s="104"/>
       <c r="R215" s="131" t="str">
         <f>IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="vnđ",TH!P215&lt;&gt;""),"p",IF(AND(C215="pv",D215='UNC - PV'!$Q$2,LEFT(E215,1)="u",'UNC - PV'!$O$2="usd",TH!O215&lt;&gt;""),"p1",IF(AND(C215="pv",D215='LC - PV'!$P$2,LEFT(E215,1)="l"),"p2",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P215&lt;&gt;""),"e",IF(AND(LEFT(C215,3)="EIB",D215='UNC - EIB'!$T$2,LEFT(E215,1)="U",'UNC - EIB'!$R$2="usd",TH!O215&lt;&gt;""),"e1",IF(AND(LEFT(C215,3)="EIB",D215='LC - EIB'!$S$2,LEFT(E215,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="216" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A216" s="55" t="str">
         <f>IF(AND(C216="pv",E216='UNC - PV'!$S$2,D216='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C216,3)="eib",E216='UNC - EIB'!$V$2,D216='UNC - EIB'!$T$2),"x1",IF(AND(C216="pv",E216='LC - PV'!$R$2,D216='LC - PV'!$P$2),"x2",IF(AND(LEFT(C216,3)="eib",E216='LC - EIB'!$U$2,D216='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B216" s="62" t="str">
+      <c r="B216" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C216" s="62"/>
-      <c r="D216" s="67"/>
-      <c r="E216" s="65"/>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-      <c r="I216" s="65"/>
+        <v>213</v>
+      </c>
+      <c r="C216" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D216" s="67">
+        <v>43028</v>
+      </c>
+      <c r="E216" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F216" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G216" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="H216" s="107" t="s">
+        <v>427</v>
+      </c>
+      <c r="I216" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J216" s="66"/>
       <c r="K216" s="67"/>
       <c r="L216" s="65"/>
       <c r="M216" s="65"/>
-      <c r="N216" s="64"/>
+      <c r="N216" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="O216" s="68"/>
-      <c r="P216" s="69"/>
+      <c r="P216" s="69">
+        <v>55000000</v>
+      </c>
       <c r="Q216" s="104"/>
       <c r="R216" s="131" t="str">
         <f>IF(AND(C216="pv",D216='UNC - PV'!$Q$2,LEFT(E216,1)="u",'UNC - PV'!$O$2="vnđ",TH!P216&lt;&gt;""),"p",IF(AND(C216="pv",D216='UNC - PV'!$Q$2,LEFT(E216,1)="u",'UNC - PV'!$O$2="usd",TH!O216&lt;&gt;""),"p1",IF(AND(C216="pv",D216='LC - PV'!$P$2,LEFT(E216,1)="l"),"p2",IF(AND(LEFT(C216,3)="EIB",D216='UNC - EIB'!$T$2,LEFT(E216,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P216&lt;&gt;""),"e",IF(AND(LEFT(C216,3)="EIB",D216='UNC - EIB'!$T$2,LEFT(E216,1)="U",'UNC - EIB'!$R$2="usd",TH!O216&lt;&gt;""),"e1",IF(AND(LEFT(C216,3)="EIB",D216='LC - EIB'!$S$2,LEFT(E216,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="217" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A217" s="55" t="str">
         <f>IF(AND(C217="pv",E217='UNC - PV'!$S$2,D217='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C217,3)="eib",E217='UNC - EIB'!$V$2,D217='UNC - EIB'!$T$2),"x1",IF(AND(C217="pv",E217='LC - PV'!$R$2,D217='LC - PV'!$P$2),"x2",IF(AND(LEFT(C217,3)="eib",E217='LC - EIB'!$U$2,D217='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B217" s="62" t="str">
+      <c r="B217" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C217" s="62"/>
-      <c r="D217" s="67"/>
-      <c r="E217" s="65"/>
-      <c r="F217" s="64"/>
-      <c r="G217" s="64"/>
-      <c r="H217" s="64"/>
-      <c r="I217" s="65"/>
-      <c r="J217" s="66"/>
-      <c r="K217" s="67"/>
-      <c r="L217" s="65"/>
-      <c r="M217" s="65"/>
-      <c r="N217" s="64"/>
+        <v>214</v>
+      </c>
+      <c r="C217" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D217" s="67">
+        <v>43028</v>
+      </c>
+      <c r="E217" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F217" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="G217" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="H217" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="I217" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J217" s="126"/>
+      <c r="K217" s="123"/>
+      <c r="L217" s="124"/>
+      <c r="M217" s="124"/>
+      <c r="N217" s="125" t="s">
+        <v>266</v>
+      </c>
       <c r="O217" s="68"/>
-      <c r="P217" s="69"/>
+      <c r="P217" s="69">
+        <v>42439320</v>
+      </c>
       <c r="Q217" s="104"/>
       <c r="R217" s="131" t="str">
         <f>IF(AND(C217="pv",D217='UNC - PV'!$Q$2,LEFT(E217,1)="u",'UNC - PV'!$O$2="vnđ",TH!P217&lt;&gt;""),"p",IF(AND(C217="pv",D217='UNC - PV'!$Q$2,LEFT(E217,1)="u",'UNC - PV'!$O$2="usd",TH!O217&lt;&gt;""),"p1",IF(AND(C217="pv",D217='LC - PV'!$P$2,LEFT(E217,1)="l"),"p2",IF(AND(LEFT(C217,3)="EIB",D217='UNC - EIB'!$T$2,LEFT(E217,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P217&lt;&gt;""),"e",IF(AND(LEFT(C217,3)="EIB",D217='UNC - EIB'!$T$2,LEFT(E217,1)="U",'UNC - EIB'!$R$2="usd",TH!O217&lt;&gt;""),"e1",IF(AND(LEFT(C217,3)="EIB",D217='LC - EIB'!$S$2,LEFT(E217,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="218" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A218" s="55" t="str">
         <f>IF(AND(C218="pv",E218='UNC - PV'!$S$2,D218='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C218,3)="eib",E218='UNC - EIB'!$V$2,D218='UNC - EIB'!$T$2),"x1",IF(AND(C218="pv",E218='LC - PV'!$R$2,D218='LC - PV'!$P$2),"x2",IF(AND(LEFT(C218,3)="eib",E218='LC - EIB'!$U$2,D218='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B218" s="62" t="str">
+      <c r="B218" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C218" s="62"/>
-      <c r="D218" s="67"/>
-      <c r="E218" s="65"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
-      <c r="H218" s="64"/>
-      <c r="I218" s="65"/>
+        <v>215</v>
+      </c>
+      <c r="C218" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D218" s="67">
+        <v>43028</v>
+      </c>
+      <c r="E218" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F218" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="G218" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="H218" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="I218" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J218" s="66"/>
       <c r="K218" s="67"/>
       <c r="L218" s="65"/>
       <c r="M218" s="65"/>
-      <c r="N218" s="64"/>
+      <c r="N218" s="64" t="s">
+        <v>317</v>
+      </c>
       <c r="O218" s="68"/>
-      <c r="P218" s="69"/>
+      <c r="P218" s="69">
+        <v>90000000</v>
+      </c>
       <c r="Q218" s="104"/>
       <c r="R218" s="131" t="str">
         <f>IF(AND(C218="pv",D218='UNC - PV'!$Q$2,LEFT(E218,1)="u",'UNC - PV'!$O$2="vnđ",TH!P218&lt;&gt;""),"p",IF(AND(C218="pv",D218='UNC - PV'!$Q$2,LEFT(E218,1)="u",'UNC - PV'!$O$2="usd",TH!O218&lt;&gt;""),"p1",IF(AND(C218="pv",D218='LC - PV'!$P$2,LEFT(E218,1)="l"),"p2",IF(AND(LEFT(C218,3)="EIB",D218='UNC - EIB'!$T$2,LEFT(E218,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P218&lt;&gt;""),"e",IF(AND(LEFT(C218,3)="EIB",D218='UNC - EIB'!$T$2,LEFT(E218,1)="U",'UNC - EIB'!$R$2="usd",TH!O218&lt;&gt;""),"e1",IF(AND(LEFT(C218,3)="EIB",D218='LC - EIB'!$S$2,LEFT(E218,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A219" s="55" t="str">
         <f>IF(AND(C219="pv",E219='UNC - PV'!$S$2,D219='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C219,3)="eib",E219='UNC - EIB'!$V$2,D219='UNC - EIB'!$T$2),"x1",IF(AND(C219="pv",E219='LC - PV'!$R$2,D219='LC - PV'!$P$2),"x2",IF(AND(LEFT(C219,3)="eib",E219='LC - EIB'!$U$2,D219='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B219" s="62" t="str">
+      <c r="B219" s="62">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C219" s="62"/>
-      <c r="D219" s="67"/>
-      <c r="E219" s="65"/>
-      <c r="F219" s="64"/>
-      <c r="G219" s="64"/>
-      <c r="H219" s="64"/>
-      <c r="I219" s="65"/>
+        <v>216</v>
+      </c>
+      <c r="C219" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D219" s="67">
+        <v>43028</v>
+      </c>
+      <c r="E219" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F219" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="G219" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="H219" s="64" t="s">
+        <v>383</v>
+      </c>
+      <c r="I219" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J219" s="66"/>
       <c r="K219" s="67"/>
       <c r="L219" s="65"/>
       <c r="M219" s="65"/>
-      <c r="N219" s="64"/>
+      <c r="N219" s="64" t="s">
+        <v>384</v>
+      </c>
       <c r="O219" s="68"/>
-      <c r="P219" s="69"/>
+      <c r="P219" s="69">
+        <v>102204753</v>
+      </c>
       <c r="Q219" s="104"/>
       <c r="R219" s="131" t="str">
         <f>IF(AND(C219="pv",D219='UNC - PV'!$Q$2,LEFT(E219,1)="u",'UNC - PV'!$O$2="vnđ",TH!P219&lt;&gt;""),"p",IF(AND(C219="pv",D219='UNC - PV'!$Q$2,LEFT(E219,1)="u",'UNC - PV'!$O$2="usd",TH!O219&lt;&gt;""),"p1",IF(AND(C219="pv",D219='LC - PV'!$P$2,LEFT(E219,1)="l"),"p2",IF(AND(LEFT(C219,3)="EIB",D219='UNC - EIB'!$T$2,LEFT(E219,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P219&lt;&gt;""),"e",IF(AND(LEFT(C219,3)="EIB",D219='UNC - EIB'!$T$2,LEFT(E219,1)="U",'UNC - EIB'!$R$2="usd",TH!O219&lt;&gt;""),"e1",IF(AND(LEFT(C219,3)="EIB",D219='LC - EIB'!$S$2,LEFT(E219,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="220" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A220" s="55" t="str">
         <f>IF(AND(C220="pv",E220='UNC - PV'!$S$2,D220='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C220,3)="eib",E220='UNC - EIB'!$V$2,D220='UNC - EIB'!$T$2),"x1",IF(AND(C220="pv",E220='LC - PV'!$R$2,D220='LC - PV'!$P$2),"x2",IF(AND(LEFT(C220,3)="eib",E220='LC - EIB'!$U$2,D220='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B220" s="62" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C220" s="62"/>
-      <c r="D220" s="67"/>
-      <c r="E220" s="65"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="65"/>
+      <c r="B220" s="62">
+        <f t="shared" ref="B220:B228" si="15">IF(C220&lt;&gt;"",ROW()-3,"")</f>
+        <v>217</v>
+      </c>
+      <c r="C220" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D220" s="67">
+        <v>43031</v>
+      </c>
+      <c r="E220" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F220" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G220" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="H220" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I220" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J220" s="66"/>
       <c r="K220" s="67"/>
       <c r="L220" s="65"/>
       <c r="M220" s="65"/>
-      <c r="N220" s="64"/>
-      <c r="O220" s="68"/>
+      <c r="N220" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O220" s="68">
+        <v>256500</v>
+      </c>
       <c r="P220" s="69"/>
       <c r="Q220" s="104"/>
       <c r="R220" s="131" t="str">
@@ -13599,28 +13861,46 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="221" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A221" s="55" t="str">
         <f>IF(AND(C221="pv",E221='UNC - PV'!$S$2,D221='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C221,3)="eib",E221='UNC - EIB'!$V$2,D221='UNC - EIB'!$T$2),"x1",IF(AND(C221="pv",E221='LC - PV'!$R$2,D221='LC - PV'!$P$2),"x2",IF(AND(LEFT(C221,3)="eib",E221='LC - EIB'!$U$2,D221='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B221" s="62" t="str">
-        <f t="shared" ref="B221:B228" si="15">IF(C221&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C221" s="62"/>
-      <c r="D221" s="67"/>
-      <c r="E221" s="65"/>
-      <c r="F221" s="64"/>
-      <c r="G221" s="64"/>
-      <c r="H221" s="64"/>
-      <c r="I221" s="65"/>
+      <c r="B221" s="62">
+        <f t="shared" si="15"/>
+        <v>218</v>
+      </c>
+      <c r="C221" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D221" s="67">
+        <v>43031</v>
+      </c>
+      <c r="E221" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G221" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H221" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I221" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J221" s="66"/>
       <c r="K221" s="67"/>
       <c r="L221" s="65"/>
       <c r="M221" s="65"/>
-      <c r="N221" s="64"/>
-      <c r="O221" s="68"/>
+      <c r="N221" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O221" s="68">
+        <v>3500</v>
+      </c>
       <c r="P221" s="69"/>
       <c r="Q221" s="104"/>
       <c r="R221" s="131" t="str">
@@ -13628,28 +13908,46 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B222" s="62" t="str">
+      <c r="B222" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C222" s="62"/>
-      <c r="D222" s="67"/>
-      <c r="E222" s="65"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
-      <c r="H222" s="64"/>
-      <c r="I222" s="65"/>
-      <c r="J222" s="66"/>
+        <v>219</v>
+      </c>
+      <c r="C222" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D222" s="67">
+        <v>43031</v>
+      </c>
+      <c r="E222" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F222" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G222" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="H222" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I222" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J222" s="108"/>
       <c r="K222" s="67"/>
       <c r="L222" s="65"/>
       <c r="M222" s="65"/>
-      <c r="N222" s="64"/>
-      <c r="O222" s="68"/>
+      <c r="N222" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O222" s="68">
+        <v>256500</v>
+      </c>
       <c r="P222" s="69"/>
       <c r="Q222" s="104"/>
       <c r="R222" s="131" t="str">
@@ -13657,239 +13955,383 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B223" s="62" t="str">
+        <v>x1</v>
+      </c>
+      <c r="B223" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C223" s="62"/>
-      <c r="D223" s="67"/>
-      <c r="E223" s="65"/>
-      <c r="F223" s="64"/>
-      <c r="G223" s="64"/>
-      <c r="H223" s="64"/>
-      <c r="I223" s="65"/>
+        <v>220</v>
+      </c>
+      <c r="C223" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D223" s="67">
+        <v>43031</v>
+      </c>
+      <c r="E223" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F223" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G223" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H223" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I223" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J223" s="66"/>
       <c r="K223" s="67"/>
       <c r="L223" s="65"/>
       <c r="M223" s="65"/>
-      <c r="N223" s="64"/>
+      <c r="N223" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="O223" s="68"/>
-      <c r="P223" s="69"/>
+      <c r="P223" s="69">
+        <v>5820000000</v>
+      </c>
       <c r="Q223" s="104"/>
       <c r="R223" s="131" t="str">
         <f>IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="vnđ",TH!P223&lt;&gt;""),"p",IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="usd",TH!O223&lt;&gt;""),"p1",IF(AND(C223="pv",D223='LC - PV'!$P$2,LEFT(E223,1)="l"),"p2",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P223&lt;&gt;""),"e",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="U",'UNC - EIB'!$R$2="usd",TH!O223&lt;&gt;""),"e1",IF(AND(LEFT(C223,3)="EIB",D223='LC - EIB'!$S$2,LEFT(E223,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A224" s="55" t="str">
         <f>IF(AND(C224="pv",E224='UNC - PV'!$S$2,D224='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C224,3)="eib",E224='UNC - EIB'!$V$2,D224='UNC - EIB'!$T$2),"x1",IF(AND(C224="pv",E224='LC - PV'!$R$2,D224='LC - PV'!$P$2),"x2",IF(AND(LEFT(C224,3)="eib",E224='LC - EIB'!$U$2,D224='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B224" s="62" t="str">
+      <c r="B224" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C224" s="62"/>
-      <c r="D224" s="67"/>
-      <c r="E224" s="65"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="64"/>
-      <c r="I224" s="65"/>
-      <c r="J224" s="66"/>
+        <v>221</v>
+      </c>
+      <c r="C224" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D224" s="67">
+        <v>43031</v>
+      </c>
+      <c r="E224" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F224" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G224" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H224" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I224" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J224" s="56"/>
       <c r="K224" s="67"/>
       <c r="L224" s="65"/>
       <c r="M224" s="65"/>
-      <c r="N224" s="64"/>
+      <c r="N224" s="64" t="s">
+        <v>429</v>
+      </c>
       <c r="O224" s="68"/>
-      <c r="P224" s="69"/>
+      <c r="P224" s="69">
+        <v>4154207700</v>
+      </c>
       <c r="Q224" s="104"/>
       <c r="R224" s="131" t="str">
         <f>IF(AND(C224="pv",D224='UNC - PV'!$Q$2,LEFT(E224,1)="u",'UNC - PV'!$O$2="vnđ",TH!P224&lt;&gt;""),"p",IF(AND(C224="pv",D224='UNC - PV'!$Q$2,LEFT(E224,1)="u",'UNC - PV'!$O$2="usd",TH!O224&lt;&gt;""),"p1",IF(AND(C224="pv",D224='LC - PV'!$P$2,LEFT(E224,1)="l"),"p2",IF(AND(LEFT(C224,3)="EIB",D224='UNC - EIB'!$T$2,LEFT(E224,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P224&lt;&gt;""),"e",IF(AND(LEFT(C224,3)="EIB",D224='UNC - EIB'!$T$2,LEFT(E224,1)="U",'UNC - EIB'!$R$2="usd",TH!O224&lt;&gt;""),"e1",IF(AND(LEFT(C224,3)="EIB",D224='LC - EIB'!$S$2,LEFT(E224,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="225" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="225" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A225" s="55" t="str">
         <f>IF(AND(C225="pv",E225='UNC - PV'!$S$2,D225='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C225,3)="eib",E225='UNC - EIB'!$V$2,D225='UNC - EIB'!$T$2),"x1",IF(AND(C225="pv",E225='LC - PV'!$R$2,D225='LC - PV'!$P$2),"x2",IF(AND(LEFT(C225,3)="eib",E225='LC - EIB'!$U$2,D225='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B225" s="62" t="str">
+      <c r="B225" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C225" s="62"/>
-      <c r="D225" s="67"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="64"/>
-      <c r="H225" s="64"/>
-      <c r="I225" s="65"/>
+        <v>222</v>
+      </c>
+      <c r="C225" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D225" s="67">
+        <v>43032</v>
+      </c>
+      <c r="E225" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G225" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="H225" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I225" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J225" s="66"/>
       <c r="K225" s="67"/>
       <c r="L225" s="65"/>
       <c r="M225" s="65"/>
-      <c r="N225" s="64"/>
+      <c r="N225" s="64" t="s">
+        <v>373</v>
+      </c>
       <c r="O225" s="68"/>
-      <c r="P225" s="69"/>
+      <c r="P225" s="69">
+        <v>400000000</v>
+      </c>
       <c r="Q225" s="104"/>
       <c r="R225" s="131" t="str">
         <f>IF(AND(C225="pv",D225='UNC - PV'!$Q$2,LEFT(E225,1)="u",'UNC - PV'!$O$2="vnđ",TH!P225&lt;&gt;""),"p",IF(AND(C225="pv",D225='UNC - PV'!$Q$2,LEFT(E225,1)="u",'UNC - PV'!$O$2="usd",TH!O225&lt;&gt;""),"p1",IF(AND(C225="pv",D225='LC - PV'!$P$2,LEFT(E225,1)="l"),"p2",IF(AND(LEFT(C225,3)="EIB",D225='UNC - EIB'!$T$2,LEFT(E225,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P225&lt;&gt;""),"e",IF(AND(LEFT(C225,3)="EIB",D225='UNC - EIB'!$T$2,LEFT(E225,1)="U",'UNC - EIB'!$R$2="usd",TH!O225&lt;&gt;""),"e1",IF(AND(LEFT(C225,3)="EIB",D225='LC - EIB'!$S$2,LEFT(E225,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="226" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A226" s="55" t="str">
         <f>IF(AND(C226="pv",E226='UNC - PV'!$S$2,D226='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C226,3)="eib",E226='UNC - EIB'!$V$2,D226='UNC - EIB'!$T$2),"x1",IF(AND(C226="pv",E226='LC - PV'!$R$2,D226='LC - PV'!$P$2),"x2",IF(AND(LEFT(C226,3)="eib",E226='LC - EIB'!$U$2,D226='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B226" s="62" t="str">
+      <c r="B226" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C226" s="62"/>
-      <c r="D226" s="67"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="64"/>
-      <c r="G226" s="64"/>
-      <c r="H226" s="64"/>
-      <c r="I226" s="65"/>
+        <v>223</v>
+      </c>
+      <c r="C226" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D226" s="67">
+        <v>43032</v>
+      </c>
+      <c r="E226" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G226" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="H226" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="I226" s="65" t="s">
+        <v>333</v>
+      </c>
       <c r="J226" s="66"/>
       <c r="K226" s="67"/>
       <c r="L226" s="65"/>
       <c r="M226" s="65"/>
-      <c r="N226" s="64"/>
+      <c r="N226" s="64" t="s">
+        <v>334</v>
+      </c>
       <c r="O226" s="68"/>
-      <c r="P226" s="69"/>
+      <c r="P226" s="69">
+        <v>4400162000</v>
+      </c>
       <c r="Q226" s="104"/>
       <c r="R226" s="131" t="str">
         <f>IF(AND(C226="pv",D226='UNC - PV'!$Q$2,LEFT(E226,1)="u",'UNC - PV'!$O$2="vnđ",TH!P226&lt;&gt;""),"p",IF(AND(C226="pv",D226='UNC - PV'!$Q$2,LEFT(E226,1)="u",'UNC - PV'!$O$2="usd",TH!O226&lt;&gt;""),"p1",IF(AND(C226="pv",D226='LC - PV'!$P$2,LEFT(E226,1)="l"),"p2",IF(AND(LEFT(C226,3)="EIB",D226='UNC - EIB'!$T$2,LEFT(E226,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P226&lt;&gt;""),"e",IF(AND(LEFT(C226,3)="EIB",D226='UNC - EIB'!$T$2,LEFT(E226,1)="U",'UNC - EIB'!$R$2="usd",TH!O226&lt;&gt;""),"e1",IF(AND(LEFT(C226,3)="EIB",D226='LC - EIB'!$S$2,LEFT(E226,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="227" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="227" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A227" s="55" t="str">
         <f>IF(AND(C227="pv",E227='UNC - PV'!$S$2,D227='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C227,3)="eib",E227='UNC - EIB'!$V$2,D227='UNC - EIB'!$T$2),"x1",IF(AND(C227="pv",E227='LC - PV'!$R$2,D227='LC - PV'!$P$2),"x2",IF(AND(LEFT(C227,3)="eib",E227='LC - EIB'!$U$2,D227='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B227" s="62" t="str">
+      <c r="B227" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C227" s="62"/>
-      <c r="D227" s="67"/>
-      <c r="E227" s="65"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="64"/>
-      <c r="I227" s="65"/>
+        <v>224</v>
+      </c>
+      <c r="C227" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D227" s="67">
+        <v>43033</v>
+      </c>
+      <c r="E227" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F227" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G227" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H227" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I227" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J227" s="66"/>
       <c r="K227" s="67"/>
       <c r="L227" s="65"/>
       <c r="M227" s="65"/>
-      <c r="N227" s="64"/>
+      <c r="N227" s="70" t="s">
+        <v>430</v>
+      </c>
       <c r="O227" s="68"/>
-      <c r="P227" s="69"/>
+      <c r="P227" s="69">
+        <v>18540913</v>
+      </c>
       <c r="Q227" s="104"/>
       <c r="R227" s="131" t="str">
         <f>IF(AND(C227="pv",D227='UNC - PV'!$Q$2,LEFT(E227,1)="u",'UNC - PV'!$O$2="vnđ",TH!P227&lt;&gt;""),"p",IF(AND(C227="pv",D227='UNC - PV'!$Q$2,LEFT(E227,1)="u",'UNC - PV'!$O$2="usd",TH!O227&lt;&gt;""),"p1",IF(AND(C227="pv",D227='LC - PV'!$P$2,LEFT(E227,1)="l"),"p2",IF(AND(LEFT(C227,3)="EIB",D227='UNC - EIB'!$T$2,LEFT(E227,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P227&lt;&gt;""),"e",IF(AND(LEFT(C227,3)="EIB",D227='UNC - EIB'!$T$2,LEFT(E227,1)="U",'UNC - EIB'!$R$2="usd",TH!O227&lt;&gt;""),"e1",IF(AND(LEFT(C227,3)="EIB",D227='LC - EIB'!$S$2,LEFT(E227,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="228" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A228" s="55" t="str">
         <f>IF(AND(C228="pv",E228='UNC - PV'!$S$2,D228='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C228,3)="eib",E228='UNC - EIB'!$V$2,D228='UNC - EIB'!$T$2),"x1",IF(AND(C228="pv",E228='LC - PV'!$R$2,D228='LC - PV'!$P$2),"x2",IF(AND(LEFT(C228,3)="eib",E228='LC - EIB'!$U$2,D228='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B228" s="62" t="str">
+      <c r="B228" s="62">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="C228" s="62"/>
-      <c r="D228" s="67"/>
-      <c r="E228" s="65"/>
-      <c r="F228" s="64"/>
-      <c r="G228" s="64"/>
-      <c r="H228" s="64"/>
-      <c r="I228" s="65"/>
-      <c r="J228" s="66"/>
+        <v>225</v>
+      </c>
+      <c r="C228" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D228" s="67">
+        <v>43034</v>
+      </c>
+      <c r="E228" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F228" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G228" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H228" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I228" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J228" s="56"/>
       <c r="K228" s="67"/>
       <c r="L228" s="65"/>
       <c r="M228" s="65"/>
-      <c r="N228" s="64"/>
+      <c r="N228" s="64" t="s">
+        <v>429</v>
+      </c>
       <c r="O228" s="68"/>
-      <c r="P228" s="69"/>
+      <c r="P228" s="69">
+        <v>237656421</v>
+      </c>
       <c r="Q228" s="104"/>
       <c r="R228" s="131" t="str">
         <f>IF(AND(C228="pv",D228='UNC - PV'!$Q$2,LEFT(E228,1)="u",'UNC - PV'!$O$2="vnđ",TH!P228&lt;&gt;""),"p",IF(AND(C228="pv",D228='UNC - PV'!$Q$2,LEFT(E228,1)="u",'UNC - PV'!$O$2="usd",TH!O228&lt;&gt;""),"p1",IF(AND(C228="pv",D228='LC - PV'!$P$2,LEFT(E228,1)="l"),"p2",IF(AND(LEFT(C228,3)="EIB",D228='UNC - EIB'!$T$2,LEFT(E228,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P228&lt;&gt;""),"e",IF(AND(LEFT(C228,3)="EIB",D228='UNC - EIB'!$T$2,LEFT(E228,1)="U",'UNC - EIB'!$R$2="usd",TH!O228&lt;&gt;""),"e1",IF(AND(LEFT(C228,3)="EIB",D228='LC - EIB'!$S$2,LEFT(E228,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="229" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A229" s="55" t="str">
         <f>IF(AND(C229="pv",E229='UNC - PV'!$S$2,D229='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C229,3)="eib",E229='UNC - EIB'!$V$2,D229='UNC - EIB'!$T$2),"x1",IF(AND(C229="pv",E229='LC - PV'!$R$2,D229='LC - PV'!$P$2),"x2",IF(AND(LEFT(C229,3)="eib",E229='LC - EIB'!$U$2,D229='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B229" s="62" t="str">
-        <f t="shared" ref="B229:B236" si="16">IF(C229&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C229" s="62"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="65"/>
-      <c r="F229" s="64"/>
-      <c r="G229" s="64"/>
-      <c r="H229" s="64"/>
-      <c r="I229" s="65"/>
+      <c r="B229" s="62">
+        <f t="shared" ref="B228:B235" si="16">IF(C229&lt;&gt;"",ROW()-3,"")</f>
+        <v>226</v>
+      </c>
+      <c r="C229" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D229" s="67">
+        <v>43034</v>
+      </c>
+      <c r="E229" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F229" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G229" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="H229" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I229" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J229" s="66"/>
       <c r="K229" s="67"/>
       <c r="L229" s="65"/>
       <c r="M229" s="65"/>
-      <c r="N229" s="64"/>
-      <c r="O229" s="68"/>
+      <c r="N229" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O229" s="68">
+        <v>233000</v>
+      </c>
       <c r="P229" s="69"/>
       <c r="Q229" s="104"/>
       <c r="R229" s="131" t="str">
         <f>IF(AND(C229="pv",D229='UNC - PV'!$Q$2,LEFT(E229,1)="u",'UNC - PV'!$O$2="vnđ",TH!P229&lt;&gt;""),"p",IF(AND(C229="pv",D229='UNC - PV'!$Q$2,LEFT(E229,1)="u",'UNC - PV'!$O$2="usd",TH!O229&lt;&gt;""),"p1",IF(AND(C229="pv",D229='LC - PV'!$P$2,LEFT(E229,1)="l"),"p2",IF(AND(LEFT(C229,3)="EIB",D229='UNC - EIB'!$T$2,LEFT(E229,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P229&lt;&gt;""),"e",IF(AND(LEFT(C229,3)="EIB",D229='UNC - EIB'!$T$2,LEFT(E229,1)="U",'UNC - EIB'!$R$2="usd",TH!O229&lt;&gt;""),"e1",IF(AND(LEFT(C229,3)="EIB",D229='LC - EIB'!$S$2,LEFT(E229,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="230" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+        <v>p1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A230" s="55" t="str">
         <f>IF(AND(C230="pv",E230='UNC - PV'!$S$2,D230='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C230,3)="eib",E230='UNC - EIB'!$V$2,D230='UNC - EIB'!$T$2),"x1",IF(AND(C230="pv",E230='LC - PV'!$R$2,D230='LC - PV'!$P$2),"x2",IF(AND(LEFT(C230,3)="eib",E230='LC - EIB'!$U$2,D230='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B230" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B230" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C230" s="62"/>
-      <c r="D230" s="67"/>
-      <c r="E230" s="65"/>
-      <c r="F230" s="64"/>
-      <c r="G230" s="64"/>
-      <c r="H230" s="64"/>
-      <c r="I230" s="65"/>
+        <v>227</v>
+      </c>
+      <c r="C230" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230" s="67">
+        <v>43034</v>
+      </c>
+      <c r="E230" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F230" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G230" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H230" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I230" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J230" s="66"/>
       <c r="K230" s="67"/>
       <c r="L230" s="65"/>
       <c r="M230" s="65"/>
-      <c r="N230" s="64"/>
-      <c r="O230" s="68"/>
+      <c r="N230" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O230" s="68">
+        <v>4000</v>
+      </c>
       <c r="P230" s="69"/>
       <c r="Q230" s="104"/>
       <c r="R230" s="131" t="str">
         <f>IF(AND(C230="pv",D230='UNC - PV'!$Q$2,LEFT(E230,1)="u",'UNC - PV'!$O$2="vnđ",TH!P230&lt;&gt;""),"p",IF(AND(C230="pv",D230='UNC - PV'!$Q$2,LEFT(E230,1)="u",'UNC - PV'!$O$2="usd",TH!O230&lt;&gt;""),"p1",IF(AND(C230="pv",D230='LC - PV'!$P$2,LEFT(E230,1)="l"),"p2",IF(AND(LEFT(C230,3)="EIB",D230='UNC - EIB'!$T$2,LEFT(E230,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P230&lt;&gt;""),"e",IF(AND(LEFT(C230,3)="EIB",D230='UNC - EIB'!$T$2,LEFT(E230,1)="U",'UNC - EIB'!$R$2="usd",TH!O230&lt;&gt;""),"e1",IF(AND(LEFT(C230,3)="EIB",D230='LC - EIB'!$S$2,LEFT(E230,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+        <v>p1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A231" s="55" t="str">
         <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13900,7 +14342,9 @@
       </c>
       <c r="C231" s="62"/>
       <c r="D231" s="67"/>
-      <c r="E231" s="65"/>
+      <c r="E231" s="65" t="s">
+        <v>26</v>
+      </c>
       <c r="F231" s="64"/>
       <c r="G231" s="64"/>
       <c r="H231" s="64"/>
@@ -13918,7 +14362,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A232" s="55" t="str">
         <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13947,7 +14391,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="233" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A233" s="55" t="str">
         <f>IF(AND(C233="pv",E233='UNC - PV'!$S$2,D233='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C233,3)="eib",E233='UNC - EIB'!$V$2,D233='UNC - EIB'!$T$2),"x1",IF(AND(C233="pv",E233='LC - PV'!$R$2,D233='LC - PV'!$P$2),"x2",IF(AND(LEFT(C233,3)="eib",E233='LC - EIB'!$U$2,D233='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13976,7 +14420,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="234" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A234" s="55" t="str">
         <f>IF(AND(C234="pv",E234='UNC - PV'!$S$2,D234='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C234,3)="eib",E234='UNC - EIB'!$V$2,D234='UNC - EIB'!$T$2),"x1",IF(AND(C234="pv",E234='LC - PV'!$R$2,D234='LC - PV'!$P$2),"x2",IF(AND(LEFT(C234,3)="eib",E234='LC - EIB'!$U$2,D234='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14005,7 +14449,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="235" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A235" s="55" t="str">
         <f>IF(AND(C235="pv",E235='UNC - PV'!$S$2,D235='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C235,3)="eib",E235='UNC - EIB'!$V$2,D235='UNC - EIB'!$T$2),"x1",IF(AND(C235="pv",E235='LC - PV'!$R$2,D235='LC - PV'!$P$2),"x2",IF(AND(LEFT(C235,3)="eib",E235='LC - EIB'!$U$2,D235='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14034,13 +14478,13 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="236" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A236" s="55" t="str">
         <f>IF(AND(C236="pv",E236='UNC - PV'!$S$2,D236='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C236,3)="eib",E236='UNC - EIB'!$V$2,D236='UNC - EIB'!$T$2),"x1",IF(AND(C236="pv",E236='LC - PV'!$R$2,D236='LC - PV'!$P$2),"x2",IF(AND(LEFT(C236,3)="eib",E236='LC - EIB'!$U$2,D236='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B236" s="62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C236" s="62"/>
@@ -14063,13 +14507,13 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="237" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A237" s="55" t="str">
         <f>IF(AND(C237="pv",E237='UNC - PV'!$S$2,D237='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C237,3)="eib",E237='UNC - EIB'!$V$2,D237='UNC - EIB'!$T$2),"x1",IF(AND(C237="pv",E237='LC - PV'!$R$2,D237='LC - PV'!$P$2),"x2",IF(AND(LEFT(C237,3)="eib",E237='LC - EIB'!$U$2,D237='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B237" s="62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="C237" s="62"/>
@@ -14092,7 +14536,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="238" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A238" s="55" t="str">
         <f>IF(AND(C238="pv",E238='UNC - PV'!$S$2,D238='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C238,3)="eib",E238='UNC - EIB'!$V$2,D238='UNC - EIB'!$T$2),"x1",IF(AND(C238="pv",E238='LC - PV'!$R$2,D238='LC - PV'!$P$2),"x2",IF(AND(LEFT(C238,3)="eib",E238='LC - EIB'!$U$2,D238='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14121,7 +14565,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="239" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A239" s="55" t="str">
         <f>IF(AND(C239="pv",E239='UNC - PV'!$S$2,D239='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C239,3)="eib",E239='UNC - EIB'!$V$2,D239='UNC - EIB'!$T$2),"x1",IF(AND(C239="pv",E239='LC - PV'!$R$2,D239='LC - PV'!$P$2),"x2",IF(AND(LEFT(C239,3)="eib",E239='LC - EIB'!$U$2,D239='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14150,13 +14594,13 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A240" s="55" t="str">
         <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B240" s="62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C240" s="62"/>
@@ -14179,13 +14623,13 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A241" s="55" t="str">
         <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B241" s="62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B241" si="17">IF(C241&lt;&gt;"",ROW()-3,"")</f>
         <v/>
       </c>
       <c r="C241" s="62"/>
@@ -14208,13 +14652,13 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="242" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A242" s="55" t="str">
         <f>IF(AND(C242="pv",E242='UNC - PV'!$S$2,D242='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C242,3)="eib",E242='UNC - EIB'!$V$2,D242='UNC - EIB'!$T$2),"x1",IF(AND(C242="pv",E242='LC - PV'!$R$2,D242='LC - PV'!$P$2),"x2",IF(AND(LEFT(C242,3)="eib",E242='LC - EIB'!$U$2,D242='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B242" s="62" t="str">
-        <f t="shared" ref="B242" si="17">IF(C242&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B242" si="18">IF(C242&lt;&gt;"",ROW()-3,"")</f>
         <v/>
       </c>
       <c r="C242" s="62"/>
@@ -14237,13 +14681,13 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="243" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A243" s="55" t="str">
         <f>IF(AND(C243="pv",E243='UNC - PV'!$S$2,D243='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C243,3)="eib",E243='UNC - EIB'!$V$2,D243='UNC - EIB'!$T$2),"x1",IF(AND(C243="pv",E243='LC - PV'!$R$2,D243='LC - PV'!$P$2),"x2",IF(AND(LEFT(C243,3)="eib",E243='LC - EIB'!$U$2,D243='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B243" s="62" t="str">
-        <f t="shared" ref="B243" si="18">IF(C243&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C243" s="62"/>
@@ -14266,44 +14710,8 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
-      <c r="A244" s="55" t="str">
-        <f>IF(AND(C244="pv",E244='UNC - PV'!$S$2,D244='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C244,3)="eib",E244='UNC - EIB'!$V$2,D244='UNC - EIB'!$T$2),"x1",IF(AND(C244="pv",E244='LC - PV'!$R$2,D244='LC - PV'!$P$2),"x2",IF(AND(LEFT(C244,3)="eib",E244='LC - EIB'!$U$2,D244='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B244" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C244" s="62"/>
-      <c r="D244" s="67"/>
-      <c r="E244" s="65"/>
-      <c r="F244" s="64"/>
-      <c r="G244" s="64"/>
-      <c r="H244" s="64"/>
-      <c r="I244" s="65"/>
-      <c r="J244" s="66"/>
-      <c r="K244" s="67"/>
-      <c r="L244" s="65"/>
-      <c r="M244" s="65"/>
-      <c r="N244" s="64"/>
-      <c r="O244" s="68"/>
-      <c r="P244" s="69"/>
-      <c r="Q244" s="104"/>
-      <c r="R244" s="131" t="str">
-        <f>IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="vnđ",TH!P244&lt;&gt;""),"p",IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="usd",TH!O244&lt;&gt;""),"p1",IF(AND(C244="pv",D244='LC - PV'!$P$2,LEFT(E244,1)="l"),"p2",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P244&lt;&gt;""),"e",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="U",'UNC - EIB'!$R$2="usd",TH!O244&lt;&gt;""),"e1",IF(AND(LEFT(C244,3)="EIB",D244='LC - EIB'!$S$2,LEFT(E244,1)="l"),"e2",""))))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="245" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B3:X245">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="EIB-TV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:X244"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -14313,7 +14721,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C244">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C243">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14331,7 +14739,151 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="6"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="str">
+        <f>IF($O$2="vnđ","p","p1")</f>
+        <v>p1</v>
+      </c>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+      <c r="O2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>43034</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
+    <row r="5" spans="1:19" ht="18.75" customHeight="1">
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.25" customHeight="1">
+      <c r="E6" s="2" t="str">
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
+        <v xml:space="preserve"> 1    0    1    0    0   0    2    6    8    6    1    4</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="22.5" customHeight="1">
+      <c r="F7" s="143">
+        <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
+        <v>4000</v>
+      </c>
+      <c r="G7" s="143"/>
+      <c r="K7" s="1" t="str">
+        <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
+        <v/>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f>IF(O2="usd","x","")</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F8" s="1" t="str">
+        <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Bốn ngàn đô la mỹ.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" customHeight="1">
+      <c r="G9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1">
+      <c r="F10" s="1" t="str">
+        <f>VLOOKUP("X",DS,14,0)</f>
+        <v>Chuyển USD</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="25.5" customHeight="1">
+      <c r="F12" s="14" t="str">
+        <f>VLOOKUP("X",DS,6,0)</f>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="14" spans="1:19" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:19" ht="24" customHeight="1">
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>VLOOKUP("X",DS,7,0)</f>
+        <v>125 759 122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="E16" s="1" t="str">
+        <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
+        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="F7:G7"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>OFFSET(INDIRECT(ADDRESS(MATCH(A1,N_1,0)+3,5,,,"TH")),0,0,COUNTIF(N_1,A1),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"USD,VNĐ,TAMP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14361,104 +14913,104 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p1</v>
+        <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>418</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>43005</v>
+        <v>43011</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
-    <row r="5" spans="1:19" ht="18.75" customHeight="1">
-      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" customHeight="1"/>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="17.25" customHeight="1">
-      <c r="E6" s="2" t="str">
+    <row r="5" spans="1:19" ht="17.25" customHeight="1">
+      <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
-      </c>
-      <c r="L6" s="1" t="s">
+        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F7" s="143">
+    <row r="6" spans="1:19" ht="22.5" customHeight="1">
+      <c r="F6" s="143">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>166332360</v>
-      </c>
-      <c r="G7" s="143"/>
-      <c r="K7" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="143"/>
+      <c r="K6" s="1" t="str">
         <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
         <v>x</v>
       </c>
-      <c r="L7" s="1" t="str">
+      <c r="L6" s="1" t="str">
         <f>IF(O2="usd","x","")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="17.25" customHeight="1">
-      <c r="F8" s="1" t="str">
-        <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Một trăm sáu mươi sáu triệu, ba trăm ba mươi hai ngàn, ba trăm sáu mươi đồng.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" customHeight="1">
-      <c r="G9" s="1" t="s">
+    <row r="7" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F7" s="1" t="str">
+        <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Không đồng.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1">
+      <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1">
-      <c r="F10" s="1" t="str">
+    <row r="9" spans="1:19" ht="21" customHeight="1">
+      <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 15 -10206/2017/KUNN/PVN-DN.GĐ</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="25.5" customHeight="1">
-      <c r="F12" s="14" t="str">
+        <v>Chuyển USD</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="25.5" customHeight="1">
+      <c r="F11" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
         <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="14" spans="1:19" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:19" ht="24" customHeight="1">
-      <c r="C15" s="1" t="s">
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="13" spans="1:19" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:19" ht="24" customHeight="1">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E14" s="1" t="str">
+        <f>VLOOKUP("X",DS,7,0)</f>
+        <v>125 759 122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
-        <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
-      <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
+        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"USD,VNĐ,TAMP"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
       <formula1>OFFSET(INDIRECT(ADDRESS(MATCH(A1,N_1,0)+3,5,,,"TH")),0,0,COUNTIF(N_1,A1),1)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>"USD,VNĐ,TAMP"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14466,7 +15018,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="6"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="str">
+        <f>IF($O$2="vnđ","p","p1")</f>
+        <v>p</v>
+      </c>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+      <c r="O2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>43011</v>
+      </c>
+      <c r="R2" s="11"/>
+      <c r="S2" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.25" customHeight="1">
+      <c r="E5" s="2" t="str">
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
+        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="22.5" customHeight="1">
+      <c r="F6" s="143">
+        <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="143"/>
+      <c r="K6" s="1" t="str">
+        <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>IF(O2="usd","x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.25" customHeight="1">
+      <c r="F7" s="1" t="str">
+        <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Không đồng.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" customHeight="1">
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="21.75" customHeight="1">
+      <c r="F9" s="1" t="str">
+        <f>VLOOKUP("X",DS,14,0)</f>
+        <v>Chuyển USD</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1">
+      <c r="F10" s="14" t="str">
+        <f>VLOOKUP("X",DS,6,0)</f>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" ht="17.25" customHeight="1"/>
+    <row r="12" spans="1:19" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:19" ht="24" customHeight="1">
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>VLOOKUP("X",DS,7,0)</f>
+        <v>125 759 122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="E14" s="1" t="str">
+        <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
+        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"USD,VNĐ,TAMP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
+      <formula1>OFFSET(INDIRECT(ADDRESS(MATCH(A1,N_1,0)+3,5,,,"TH")),0,0,COUNTIF(N_1,A1),1)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -14476,7 +15171,7 @@
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14512,7 +15207,7 @@
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
         <f>IF('UNC - PV'!$O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF('UNC - PV'!$O$2="VNĐ"," 1    0    7    0    0    0   2    6    8    6    1    5"," 2    5    7    0    0    0   0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 2    5    7    0    0    0   0    4    8    0    1    5</v>
+        <v xml:space="preserve"> 1    0    1    0    0   0    2    6    8    6    1    4</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
@@ -14521,22 +15216,22 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="F8" s="143">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>166332360</v>
+        <v>4000</v>
       </c>
       <c r="G8" s="143"/>
       <c r="K8" s="7" t="str">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),"x","")</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="L8" s="7" t="str">
         <f>IF('UNC - PV'!$O$2="usd","x","")</f>
-        <v/>
+        <v>x</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Một trăm sáu mươi sáu triệu, ba trăm ba mươi hai ngàn, ba trăm sáu mươi đồng.</v>
+        <v>Bốn ngàn đô la mỹ.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -14547,7 +15242,7 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 15 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển USD</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
@@ -14564,13 +15259,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
+        <v>125 759 122</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
+        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -14588,7 +15283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -14597,7 +15292,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14647,11 +15342,11 @@
         <v>29</v>
       </c>
       <c r="T2" s="10">
-        <v>42999</v>
+        <v>43031</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -14746,7 +15441,7 @@
       <c r="B12" s="17"/>
       <c r="C12" s="43" t="str">
         <f>VLOOKUP("X1",DS,6,0)</f>
-        <v>DNTN HẢI SẢN KIM CHÂU</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1">
@@ -14765,7 +15460,7 @@
       </c>
       <c r="C14" s="53" t="str">
         <f>VLOOKUP("X1",DS,7,0)</f>
-        <v>0500 3969 9831</v>
+        <v>1402 148 5100 7445</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="7" t="s">
@@ -14796,7 +15491,7 @@
       <c r="B16" s="17"/>
       <c r="C16" s="52" t="str">
         <f>VLOOKUP("X1",DS,8,0)</f>
-        <v>Sacombank-PGD Lagi</v>
+        <v>Eximbank - CN Q4</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -14826,7 +15521,7 @@
       <c r="B18" s="17"/>
       <c r="C18" s="53" t="str">
         <f>VLOOKUP("X1",DS,9,0)</f>
-        <v>Bình Thuận</v>
+        <v>TPHCM</v>
       </c>
       <c r="H18" s="31"/>
       <c r="J18" s="19" t="s">
@@ -14855,7 +15550,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Sáu tỷ, một trăm mười bốn triệu, không trăm ba mươi ngàn đồng.</v>
+        <v>Năm tỷ, tám trăm hai mươi triệu đồng.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -14896,7 +15591,7 @@
       <c r="M22" s="31"/>
       <c r="N22" s="50">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>6114030000</v>
+        <v>5820000000</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
@@ -15040,7 +15735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -15177,7 +15872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -15667,7 +16362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1245" windowWidth="21840" windowHeight="8835"/>
+    <workbookView xWindow="480" yWindow="1245" windowWidth="21840" windowHeight="8835" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -25,17 +25,17 @@
     <definedName name="_Fill" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$244</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$288</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$243</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39814))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$243</definedName>
+    <definedName name="DS">TH!$A$4:$Q$287</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39858))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$287</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'UNC - EIB'!$A$1:$P$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'UNC - KM'!$A$1:$M$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - PV'!$A$1:$M$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'UNC - PV (2)'!$A$1:$M$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'UNC - PV (2)'!$A$1:$M$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - PV (3)'!$A$1:$M$16</definedName>
   </definedNames>
   <calcPr calcId="144525" iterate="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="473">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -1849,6 +1849,132 @@
   </si>
   <si>
     <t>Thanh toán tiền nước, phí CSHT  T08 &amp; T09/2017 -Hải Sơn</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 20 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 21 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>125 660 843</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 22 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 23 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 2/10 năm 2017</t>
+  </si>
+  <si>
+    <t>CTY TNHH XK THỦY SẢN HẢI VIỆT</t>
+  </si>
+  <si>
+    <t>119 0000 16692</t>
+  </si>
+  <si>
+    <t>NH Công Thương - CN Bình Thuận</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền mực</t>
+  </si>
+  <si>
+    <t>050039699831</t>
+  </si>
+  <si>
+    <t>TRUNG TAM CHAT LUONG NONG LAM THUY SAN VUNG 4</t>
+  </si>
+  <si>
+    <t>THANH TOAN PHI KIEM NGHIEM T09 VA10/2017</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 24 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 25 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>210314851008898</t>
+  </si>
+  <si>
+    <t>070047382171</t>
+  </si>
+  <si>
+    <t>060005977811</t>
+  </si>
+  <si>
+    <t>0421000457457</t>
+  </si>
+  <si>
+    <t>8168219</t>
+  </si>
+  <si>
+    <t>060005980634</t>
+  </si>
+  <si>
+    <t>531002503669</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 26 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH MTV BTFOOD</t>
+  </si>
+  <si>
+    <t>174848779</t>
+  </si>
+  <si>
+    <t>ACB - CN Thủ Đức</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền đường</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 27 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 28 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 29 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 30 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>0071001293855</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 31 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 32 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 33 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 34 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 2&amp;3/12 năm 2017</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 35 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>060005954609</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 36 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 37 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 38 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2618,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2835,6 +2961,115 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3249,14 +3484,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R243"/>
+  <dimension ref="A1:R287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I219" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="I259" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="F233" sqref="F233"/>
+      <selection pane="bottomRight" activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3335,39 +3570,39 @@
     </row>
     <row r="2" spans="1:18" s="59" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="58"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="139" t="s">
+      <c r="C2" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="139" t="s">
+      <c r="D2" s="177"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="134" t="s">
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="138" t="s">
+      <c r="O2" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="136" t="s">
+      <c r="P2" s="175"/>
+      <c r="Q2" s="173" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="58"/>
     </row>
     <row r="3" spans="1:18" s="59" customFormat="1" ht="36.75" customHeight="1">
       <c r="A3" s="58"/>
-      <c r="B3" s="135"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="60" t="s">
         <v>14</v>
       </c>
@@ -3401,14 +3636,14 @@
       <c r="M3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="135"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="61" t="s">
         <v>28</v>
       </c>
       <c r="P3" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="137"/>
+      <c r="Q3" s="174"/>
       <c r="R3" s="58"/>
     </row>
     <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -3466,7 +3701,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B243" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B287" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -5398,7 +5633,7 @@
         <v>95</v>
       </c>
       <c r="G44" s="71" t="s">
-        <v>98</v>
+        <v>450</v>
       </c>
       <c r="H44" s="64" t="s">
         <v>96</v>
@@ -7899,8 +8134,8 @@
       <c r="F95" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="G95" s="64" t="s">
-        <v>202</v>
+      <c r="G95" s="71" t="s">
+        <v>419</v>
       </c>
       <c r="H95" s="64" t="s">
         <v>167</v>
@@ -8321,51 +8556,51 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A104" s="55" t="str">
+    <row r="104" spans="1:18" s="150" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A104" s="137" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B104" s="62">
+      <c r="B104" s="138">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C104" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="D104" s="67">
+      <c r="D104" s="139">
         <v>42676</v>
       </c>
-      <c r="E104" s="122" t="s">
+      <c r="E104" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="F104" s="64" t="s">
+      <c r="F104" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="G104" s="64" t="s">
-        <v>195</v>
-      </c>
-      <c r="H104" s="64" t="s">
+      <c r="G104" s="142" t="s">
+        <v>385</v>
+      </c>
+      <c r="H104" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="I104" s="105" t="s">
+      <c r="I104" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="J104" s="66"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="65"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="64" t="s">
+      <c r="J104" s="144"/>
+      <c r="K104" s="139"/>
+      <c r="L104" s="145"/>
+      <c r="M104" s="145"/>
+      <c r="N104" s="141" t="s">
         <v>191</v>
       </c>
-      <c r="O104" s="68"/>
-      <c r="P104" s="69">
+      <c r="O104" s="146"/>
+      <c r="P104" s="147">
         <v>58750000</v>
       </c>
-      <c r="Q104" s="129" t="s">
+      <c r="Q104" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="R104" s="131" t="str">
+      <c r="R104" s="149" t="str">
         <f>IF(AND(C104="pv",D104='UNC - PV'!$Q$2,LEFT(E104,1)="u",'UNC - PV'!$O$2="vnđ",TH!P104&lt;&gt;""),"p",IF(AND(C104="pv",D104='UNC - PV'!$Q$2,LEFT(E104,1)="u",'UNC - PV'!$O$2="usd",TH!O104&lt;&gt;""),"p1",IF(AND(C104="pv",D104='LC - PV'!$P$2,LEFT(E104,1)="l"),"p2",IF(AND(LEFT(C104,3)="EIB",D104='UNC - EIB'!$T$2,LEFT(E104,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P104&lt;&gt;""),"e",IF(AND(LEFT(C104,3)="EIB",D104='UNC - EIB'!$T$2,LEFT(E104,1)="U",'UNC - EIB'!$R$2="usd",TH!O104&lt;&gt;""),"e1",IF(AND(LEFT(C104,3)="EIB",D104='LC - EIB'!$S$2,LEFT(E104,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
@@ -9983,8 +10218,8 @@
       <c r="F138" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G138" s="70" t="s">
-        <v>5</v>
+      <c r="G138" s="134" t="s">
+        <v>446</v>
       </c>
       <c r="H138" s="70" t="s">
         <v>6</v>
@@ -10814,7 +11049,7 @@
         <v/>
       </c>
       <c r="B156" s="62">
-        <f t="shared" ref="B156:B239" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B156:B283" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
         <v>153</v>
       </c>
       <c r="C156" s="62" t="s">
@@ -10923,8 +11158,8 @@
       <c r="F158" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="G158" s="64" t="s">
-        <v>371</v>
+      <c r="G158" s="71" t="s">
+        <v>452</v>
       </c>
       <c r="H158" s="64" t="s">
         <v>372</v>
@@ -11566,7 +11801,7 @@
         <v/>
       </c>
       <c r="B172" s="62">
-        <f t="shared" ref="B172:B236" si="12">IF(C172&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B172:B252" si="12">IF(C172&lt;&gt;"",ROW()-3,"")</f>
         <v>169</v>
       </c>
       <c r="C172" s="62" t="s">
@@ -11748,96 +11983,96 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A176" s="55" t="str">
+    <row r="176" spans="1:18" s="165" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A176" s="153" t="str">
         <f>IF(AND(C176="pv",E176='UNC - PV'!$S$2,D176='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C176,3)="eib",E176='UNC - EIB'!$V$2,D176='UNC - EIB'!$T$2),"x1",IF(AND(C176="pv",E176='LC - PV'!$R$2,D176='LC - PV'!$P$2),"x2",IF(AND(LEFT(C176,3)="eib",E176='LC - EIB'!$U$2,D176='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B176" s="62">
+      <c r="B176" s="154">
         <f t="shared" si="12"/>
         <v>173</v>
       </c>
-      <c r="C176" s="62" t="s">
+      <c r="C176" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="D176" s="67">
+      <c r="D176" s="155">
         <v>42933</v>
       </c>
-      <c r="E176" s="65" t="s">
+      <c r="E176" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="F176" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="G176" s="71" t="s">
+      <c r="F176" s="167" t="s">
+        <v>442</v>
+      </c>
+      <c r="G176" s="168" t="s">
         <v>409</v>
       </c>
-      <c r="H176" s="64" t="s">
+      <c r="H176" s="167" t="s">
         <v>179</v>
       </c>
-      <c r="I176" s="105" t="s">
+      <c r="I176" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="J176" s="66"/>
-      <c r="K176" s="67"/>
-      <c r="L176" s="65"/>
-      <c r="M176" s="65"/>
-      <c r="N176" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="O176" s="68"/>
-      <c r="P176" s="69">
+      <c r="J176" s="170"/>
+      <c r="K176" s="155"/>
+      <c r="L176" s="156"/>
+      <c r="M176" s="156"/>
+      <c r="N176" s="167" t="s">
+        <v>443</v>
+      </c>
+      <c r="O176" s="161"/>
+      <c r="P176" s="162">
         <v>3065000</v>
       </c>
-      <c r="Q176" s="104"/>
-      <c r="R176" s="131" t="str">
+      <c r="Q176" s="163"/>
+      <c r="R176" s="164" t="str">
         <f>IF(AND(C176="pv",D176='UNC - PV'!$Q$2,LEFT(E176,1)="u",'UNC - PV'!$O$2="vnđ",TH!P176&lt;&gt;""),"p",IF(AND(C176="pv",D176='UNC - PV'!$Q$2,LEFT(E176,1)="u",'UNC - PV'!$O$2="usd",TH!O176&lt;&gt;""),"p1",IF(AND(C176="pv",D176='LC - PV'!$P$2,LEFT(E176,1)="l"),"p2",IF(AND(LEFT(C176,3)="EIB",D176='UNC - EIB'!$T$2,LEFT(E176,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P176&lt;&gt;""),"e",IF(AND(LEFT(C176,3)="EIB",D176='UNC - EIB'!$T$2,LEFT(E176,1)="U",'UNC - EIB'!$R$2="usd",TH!O176&lt;&gt;""),"e1",IF(AND(LEFT(C176,3)="EIB",D176='LC - EIB'!$S$2,LEFT(E176,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A177" s="55" t="str">
+    <row r="177" spans="1:18" s="165" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A177" s="153" t="str">
         <f>IF(AND(C177="pv",E177='UNC - PV'!$S$2,D177='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C177,3)="eib",E177='UNC - EIB'!$V$2,D177='UNC - EIB'!$T$2),"x1",IF(AND(C177="pv",E177='LC - PV'!$R$2,D177='LC - PV'!$P$2),"x2",IF(AND(LEFT(C177,3)="eib",E177='LC - EIB'!$U$2,D177='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B177" s="62">
+      <c r="B177" s="154">
         <f t="shared" si="12"/>
         <v>174</v>
       </c>
-      <c r="C177" s="62" t="s">
+      <c r="C177" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="D177" s="67">
+      <c r="D177" s="155">
         <v>42933</v>
       </c>
-      <c r="E177" s="65" t="s">
+      <c r="E177" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="F177" s="64" t="s">
+      <c r="F177" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="G177" s="71" t="s">
+      <c r="G177" s="168" t="s">
         <v>410</v>
       </c>
-      <c r="H177" s="64" t="s">
+      <c r="H177" s="167" t="s">
         <v>181</v>
       </c>
-      <c r="I177" s="105" t="s">
+      <c r="I177" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="J177" s="66"/>
-      <c r="K177" s="67"/>
-      <c r="L177" s="65"/>
-      <c r="M177" s="65"/>
-      <c r="N177" s="64" t="s">
+      <c r="J177" s="170"/>
+      <c r="K177" s="155"/>
+      <c r="L177" s="156"/>
+      <c r="M177" s="156"/>
+      <c r="N177" s="167" t="s">
         <v>392</v>
       </c>
-      <c r="O177" s="68"/>
-      <c r="P177" s="69">
+      <c r="O177" s="161"/>
+      <c r="P177" s="162">
         <v>700000</v>
       </c>
-      <c r="Q177" s="104"/>
-      <c r="R177" s="131" t="str">
+      <c r="Q177" s="163"/>
+      <c r="R177" s="164" t="str">
         <f>IF(AND(C177="pv",D177='UNC - PV'!$Q$2,LEFT(E177,1)="u",'UNC - PV'!$O$2="vnđ",TH!P177&lt;&gt;""),"p",IF(AND(C177="pv",D177='UNC - PV'!$Q$2,LEFT(E177,1)="u",'UNC - PV'!$O$2="usd",TH!O177&lt;&gt;""),"p1",IF(AND(C177="pv",D177='LC - PV'!$P$2,LEFT(E177,1)="l"),"p2",IF(AND(LEFT(C177,3)="EIB",D177='UNC - EIB'!$T$2,LEFT(E177,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P177&lt;&gt;""),"e",IF(AND(LEFT(C177,3)="EIB",D177='UNC - EIB'!$T$2,LEFT(E177,1)="U",'UNC - EIB'!$R$2="usd",TH!O177&lt;&gt;""),"e1",IF(AND(LEFT(C177,3)="EIB",D177='LC - EIB'!$S$2,LEFT(E177,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
@@ -12664,8 +12899,8 @@
       <c r="F195" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="G195" s="64" t="s">
-        <v>375</v>
+      <c r="G195" s="71" t="s">
+        <v>451</v>
       </c>
       <c r="H195" s="64" t="s">
         <v>376</v>
@@ -13270,8 +13505,8 @@
       <c r="F208" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="G208" s="64" t="s">
-        <v>100</v>
+      <c r="G208" s="71" t="s">
+        <v>448</v>
       </c>
       <c r="H208" s="64" t="s">
         <v>101</v>
@@ -13390,49 +13625,49 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A211" s="55" t="str">
+    <row r="211" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A211" s="135" t="str">
         <f>IF(AND(C211="pv",E211='UNC - PV'!$S$2,D211='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C211,3)="eib",E211='UNC - EIB'!$V$2,D211='UNC - EIB'!$T$2),"x1",IF(AND(C211="pv",E211='LC - PV'!$R$2,D211='LC - PV'!$P$2),"x2",IF(AND(LEFT(C211,3)="eib",E211='LC - EIB'!$U$2,D211='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B211" s="62">
+      <c r="B211" s="89">
         <f t="shared" si="14"/>
         <v>208</v>
       </c>
-      <c r="C211" s="62" t="s">
+      <c r="C211" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="D211" s="67">
+      <c r="D211" s="94">
         <v>43011</v>
       </c>
-      <c r="E211" s="65" t="s">
+      <c r="E211" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="F211" s="64" t="s">
+      <c r="F211" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="G211" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="H211" s="64" t="s">
+      <c r="G211" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="H211" s="91" t="s">
         <v>380</v>
       </c>
-      <c r="I211" s="105" t="s">
+      <c r="I211" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="J211" s="66"/>
-      <c r="K211" s="67"/>
-      <c r="L211" s="65"/>
-      <c r="M211" s="65"/>
-      <c r="N211" s="64" t="s">
+      <c r="J211" s="93"/>
+      <c r="K211" s="94"/>
+      <c r="L211" s="92"/>
+      <c r="M211" s="92"/>
+      <c r="N211" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="O211" s="68"/>
-      <c r="P211" s="69">
+      <c r="O211" s="95"/>
+      <c r="P211" s="96">
         <v>200000000</v>
       </c>
-      <c r="Q211" s="104"/>
-      <c r="R211" s="131" t="str">
+      <c r="Q211" s="103"/>
+      <c r="R211" s="97" t="str">
         <f>IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="vnđ",TH!P211&lt;&gt;""),"p",IF(AND(C211="pv",D211='UNC - PV'!$Q$2,LEFT(E211,1)="u",'UNC - PV'!$O$2="usd",TH!O211&lt;&gt;""),"p1",IF(AND(C211="pv",D211='LC - PV'!$P$2,LEFT(E211,1)="l"),"p2",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P211&lt;&gt;""),"e",IF(AND(LEFT(C211,3)="EIB",D211='UNC - EIB'!$T$2,LEFT(E211,1)="U",'UNC - EIB'!$R$2="usd",TH!O211&lt;&gt;""),"e1",IF(AND(LEFT(C211,3)="EIB",D211='LC - EIB'!$S$2,LEFT(E211,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
@@ -13741,8 +13976,8 @@
       <c r="F218" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="G218" s="64" t="s">
-        <v>315</v>
+      <c r="G218" s="71" t="s">
+        <v>462</v>
       </c>
       <c r="H218" s="64" t="s">
         <v>316</v>
@@ -13788,8 +14023,8 @@
       <c r="F219" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="G219" s="64" t="s">
-        <v>382</v>
+      <c r="G219" s="71" t="s">
+        <v>447</v>
       </c>
       <c r="H219" s="64" t="s">
         <v>383</v>
@@ -13958,7 +14193,7 @@
     <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x1</v>
+        <v/>
       </c>
       <c r="B223" s="62">
         <f t="shared" si="15"/>
@@ -13999,7 +14234,7 @@
       <c r="Q223" s="104"/>
       <c r="R223" s="131" t="str">
         <f>IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="vnđ",TH!P223&lt;&gt;""),"p",IF(AND(C223="pv",D223='UNC - PV'!$Q$2,LEFT(E223,1)="u",'UNC - PV'!$O$2="usd",TH!O223&lt;&gt;""),"p1",IF(AND(C223="pv",D223='LC - PV'!$P$2,LEFT(E223,1)="l"),"p2",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P223&lt;&gt;""),"e",IF(AND(LEFT(C223,3)="EIB",D223='UNC - EIB'!$T$2,LEFT(E223,1)="U",'UNC - EIB'!$R$2="usd",TH!O223&lt;&gt;""),"e1",IF(AND(LEFT(C223,3)="EIB",D223='LC - EIB'!$S$2,LEFT(E223,1)="l"),"e2",""))))))</f>
-        <v>e</v>
+        <v/>
       </c>
     </row>
     <row r="224" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -14117,8 +14352,8 @@
       <c r="F226" s="64" t="s">
         <v>330</v>
       </c>
-      <c r="G226" s="64" t="s">
-        <v>365</v>
+      <c r="G226" s="71" t="s">
+        <v>441</v>
       </c>
       <c r="H226" s="64" t="s">
         <v>332</v>
@@ -14243,7 +14478,7 @@
         <v/>
       </c>
       <c r="B229" s="62">
-        <f t="shared" ref="B228:B235" si="16">IF(C229&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B229:B251" si="16">IF(C229&lt;&gt;"",ROW()-3,"")</f>
         <v>226</v>
       </c>
       <c r="C229" s="62" t="s">
@@ -14281,13 +14516,13 @@
       <c r="Q229" s="104"/>
       <c r="R229" s="131" t="str">
         <f>IF(AND(C229="pv",D229='UNC - PV'!$Q$2,LEFT(E229,1)="u",'UNC - PV'!$O$2="vnđ",TH!P229&lt;&gt;""),"p",IF(AND(C229="pv",D229='UNC - PV'!$Q$2,LEFT(E229,1)="u",'UNC - PV'!$O$2="usd",TH!O229&lt;&gt;""),"p1",IF(AND(C229="pv",D229='LC - PV'!$P$2,LEFT(E229,1)="l"),"p2",IF(AND(LEFT(C229,3)="EIB",D229='UNC - EIB'!$T$2,LEFT(E229,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P229&lt;&gt;""),"e",IF(AND(LEFT(C229,3)="EIB",D229='UNC - EIB'!$T$2,LEFT(E229,1)="U",'UNC - EIB'!$R$2="usd",TH!O229&lt;&gt;""),"e1",IF(AND(LEFT(C229,3)="EIB",D229='LC - EIB'!$S$2,LEFT(E229,1)="l"),"e2",""))))))</f>
-        <v>p1</v>
+        <v/>
       </c>
     </row>
     <row r="230" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A230" s="55" t="str">
         <f>IF(AND(C230="pv",E230='UNC - PV'!$S$2,D230='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C230,3)="eib",E230='UNC - EIB'!$V$2,D230='UNC - EIB'!$T$2),"x1",IF(AND(C230="pv",E230='LC - PV'!$R$2,D230='LC - PV'!$P$2),"x2",IF(AND(LEFT(C230,3)="eib",E230='LC - EIB'!$U$2,D230='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B230" s="62">
         <f t="shared" si="16"/>
@@ -14328,7 +14563,7 @@
       <c r="Q230" s="104"/>
       <c r="R230" s="131" t="str">
         <f>IF(AND(C230="pv",D230='UNC - PV'!$Q$2,LEFT(E230,1)="u",'UNC - PV'!$O$2="vnđ",TH!P230&lt;&gt;""),"p",IF(AND(C230="pv",D230='UNC - PV'!$Q$2,LEFT(E230,1)="u",'UNC - PV'!$O$2="usd",TH!O230&lt;&gt;""),"p1",IF(AND(C230="pv",D230='LC - PV'!$P$2,LEFT(E230,1)="l"),"p2",IF(AND(LEFT(C230,3)="EIB",D230='UNC - EIB'!$T$2,LEFT(E230,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P230&lt;&gt;""),"e",IF(AND(LEFT(C230,3)="EIB",D230='UNC - EIB'!$T$2,LEFT(E230,1)="U",'UNC - EIB'!$R$2="usd",TH!O230&lt;&gt;""),"e1",IF(AND(LEFT(C230,3)="EIB",D230='LC - EIB'!$S$2,LEFT(E230,1)="l"),"e2",""))))))</f>
-        <v>p1</v>
+        <v/>
       </c>
     </row>
     <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -14336,25 +14571,41 @@
         <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B231" s="62" t="str">
+      <c r="B231" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C231" s="62"/>
-      <c r="D231" s="67"/>
+        <v>228</v>
+      </c>
+      <c r="C231" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D231" s="67">
+        <v>43034</v>
+      </c>
       <c r="E231" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F231" s="64"/>
-      <c r="G231" s="64"/>
-      <c r="H231" s="64"/>
-      <c r="I231" s="65"/>
-      <c r="J231" s="66"/>
+      <c r="F231" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G231" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="H231" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I231" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J231" s="108"/>
       <c r="K231" s="67"/>
       <c r="L231" s="65"/>
       <c r="M231" s="65"/>
-      <c r="N231" s="64"/>
-      <c r="O231" s="68"/>
+      <c r="N231" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O231" s="68">
+        <v>233000</v>
+      </c>
       <c r="P231" s="69"/>
       <c r="Q231" s="104"/>
       <c r="R231" s="131" t="str">
@@ -14367,24 +14618,42 @@
         <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B232" s="62" t="str">
+      <c r="B232" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C232" s="62"/>
-      <c r="D232" s="67"/>
-      <c r="E232" s="65"/>
-      <c r="F232" s="64"/>
-      <c r="G232" s="64"/>
-      <c r="H232" s="64"/>
-      <c r="I232" s="65"/>
+        <v>229</v>
+      </c>
+      <c r="C232" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D232" s="67">
+        <v>43034</v>
+      </c>
+      <c r="E232" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F232" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G232" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H232" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I232" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J232" s="66"/>
       <c r="K232" s="67"/>
       <c r="L232" s="65"/>
       <c r="M232" s="65"/>
-      <c r="N232" s="64"/>
+      <c r="N232" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="O232" s="68"/>
-      <c r="P232" s="69"/>
+      <c r="P232" s="69">
+        <v>4700000000</v>
+      </c>
       <c r="Q232" s="104"/>
       <c r="R232" s="131" t="str">
         <f>IF(AND(C232="pv",D232='UNC - PV'!$Q$2,LEFT(E232,1)="u",'UNC - PV'!$O$2="vnđ",TH!P232&lt;&gt;""),"p",IF(AND(C232="pv",D232='UNC - PV'!$Q$2,LEFT(E232,1)="u",'UNC - PV'!$O$2="usd",TH!O232&lt;&gt;""),"p1",IF(AND(C232="pv",D232='LC - PV'!$P$2,LEFT(E232,1)="l"),"p2",IF(AND(LEFT(C232,3)="EIB",D232='UNC - EIB'!$T$2,LEFT(E232,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P232&lt;&gt;""),"e",IF(AND(LEFT(C232,3)="EIB",D232='UNC - EIB'!$T$2,LEFT(E232,1)="U",'UNC - EIB'!$R$2="usd",TH!O232&lt;&gt;""),"e1",IF(AND(LEFT(C232,3)="EIB",D232='LC - EIB'!$S$2,LEFT(E232,1)="l"),"e2",""))))))</f>
@@ -14396,24 +14665,43 @@
         <f>IF(AND(C233="pv",E233='UNC - PV'!$S$2,D233='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C233,3)="eib",E233='UNC - EIB'!$V$2,D233='UNC - EIB'!$T$2),"x1",IF(AND(C233="pv",E233='LC - PV'!$R$2,D233='LC - PV'!$P$2),"x2",IF(AND(LEFT(C233,3)="eib",E233='LC - EIB'!$U$2,D233='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B233" s="62" t="str">
+      <c r="B233" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C233" s="62"/>
-      <c r="D233" s="67"/>
-      <c r="E233" s="65"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="64"/>
-      <c r="H233" s="64"/>
-      <c r="I233" s="65"/>
-      <c r="J233" s="66"/>
+        <v>230</v>
+      </c>
+      <c r="C233" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D233" s="67">
+        <v>43038</v>
+      </c>
+      <c r="E233" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F233" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G233" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H233" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I233" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J233" s="56"/>
       <c r="K233" s="67"/>
       <c r="L233" s="65"/>
       <c r="M233" s="65"/>
-      <c r="N233" s="64"/>
+      <c r="N233" s="64" t="s">
+        <v>431</v>
+      </c>
       <c r="O233" s="68"/>
-      <c r="P233" s="69"/>
+      <c r="P233" s="69">
+        <f>189000*22708</f>
+        <v>4291812000</v>
+      </c>
       <c r="Q233" s="104"/>
       <c r="R233" s="131" t="str">
         <f>IF(AND(C233="pv",D233='UNC - PV'!$Q$2,LEFT(E233,1)="u",'UNC - PV'!$O$2="vnđ",TH!P233&lt;&gt;""),"p",IF(AND(C233="pv",D233='UNC - PV'!$Q$2,LEFT(E233,1)="u",'UNC - PV'!$O$2="usd",TH!O233&lt;&gt;""),"p1",IF(AND(C233="pv",D233='LC - PV'!$P$2,LEFT(E233,1)="l"),"p2",IF(AND(LEFT(C233,3)="EIB",D233='UNC - EIB'!$T$2,LEFT(E233,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P233&lt;&gt;""),"e",IF(AND(LEFT(C233,3)="EIB",D233='UNC - EIB'!$T$2,LEFT(E233,1)="U",'UNC - EIB'!$R$2="usd",TH!O233&lt;&gt;""),"e1",IF(AND(LEFT(C233,3)="EIB",D233='LC - EIB'!$S$2,LEFT(E233,1)="l"),"e2",""))))))</f>
@@ -14425,24 +14713,43 @@
         <f>IF(AND(C234="pv",E234='UNC - PV'!$S$2,D234='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C234,3)="eib",E234='UNC - EIB'!$V$2,D234='UNC - EIB'!$T$2),"x1",IF(AND(C234="pv",E234='LC - PV'!$R$2,D234='LC - PV'!$P$2),"x2",IF(AND(LEFT(C234,3)="eib",E234='LC - EIB'!$U$2,D234='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B234" s="62" t="str">
+      <c r="B234" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C234" s="62"/>
-      <c r="D234" s="67"/>
-      <c r="E234" s="65"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="64"/>
-      <c r="H234" s="64"/>
-      <c r="I234" s="65"/>
-      <c r="J234" s="66"/>
+        <v>231</v>
+      </c>
+      <c r="C234" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D234" s="67">
+        <v>43038</v>
+      </c>
+      <c r="E234" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F234" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G234" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H234" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I234" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J234" s="56"/>
       <c r="K234" s="67"/>
       <c r="L234" s="65"/>
       <c r="M234" s="65"/>
-      <c r="N234" s="64"/>
+      <c r="N234" s="64" t="s">
+        <v>432</v>
+      </c>
       <c r="O234" s="68"/>
-      <c r="P234" s="69"/>
+      <c r="P234" s="69">
+        <f>40100*22708</f>
+        <v>910590800</v>
+      </c>
       <c r="Q234" s="104"/>
       <c r="R234" s="131" t="str">
         <f>IF(AND(C234="pv",D234='UNC - PV'!$Q$2,LEFT(E234,1)="u",'UNC - PV'!$O$2="vnđ",TH!P234&lt;&gt;""),"p",IF(AND(C234="pv",D234='UNC - PV'!$Q$2,LEFT(E234,1)="u",'UNC - PV'!$O$2="usd",TH!O234&lt;&gt;""),"p1",IF(AND(C234="pv",D234='LC - PV'!$P$2,LEFT(E234,1)="l"),"p2",IF(AND(LEFT(C234,3)="EIB",D234='UNC - EIB'!$T$2,LEFT(E234,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P234&lt;&gt;""),"e",IF(AND(LEFT(C234,3)="EIB",D234='UNC - EIB'!$T$2,LEFT(E234,1)="U",'UNC - EIB'!$R$2="usd",TH!O234&lt;&gt;""),"e1",IF(AND(LEFT(C234,3)="EIB",D234='LC - EIB'!$S$2,LEFT(E234,1)="l"),"e2",""))))))</f>
@@ -14454,24 +14761,42 @@
         <f>IF(AND(C235="pv",E235='UNC - PV'!$S$2,D235='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C235,3)="eib",E235='UNC - EIB'!$V$2,D235='UNC - EIB'!$T$2),"x1",IF(AND(C235="pv",E235='LC - PV'!$R$2,D235='LC - PV'!$P$2),"x2",IF(AND(LEFT(C235,3)="eib",E235='LC - EIB'!$U$2,D235='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B235" s="62" t="str">
+      <c r="B235" s="62">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="C235" s="62"/>
-      <c r="D235" s="67"/>
-      <c r="E235" s="65"/>
-      <c r="F235" s="64"/>
-      <c r="G235" s="64"/>
-      <c r="H235" s="64"/>
-      <c r="I235" s="65"/>
+        <v>232</v>
+      </c>
+      <c r="C235" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D235" s="67">
+        <v>43038</v>
+      </c>
+      <c r="E235" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F235" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G235" s="71" t="s">
+        <v>433</v>
+      </c>
+      <c r="H235" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I235" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J235" s="66"/>
       <c r="K235" s="67"/>
       <c r="L235" s="65"/>
       <c r="M235" s="65"/>
-      <c r="N235" s="64"/>
+      <c r="N235" s="64" t="s">
+        <v>164</v>
+      </c>
       <c r="O235" s="68"/>
-      <c r="P235" s="69"/>
+      <c r="P235" s="69">
+        <v>200000000</v>
+      </c>
       <c r="Q235" s="104"/>
       <c r="R235" s="131" t="str">
         <f>IF(AND(C235="pv",D235='UNC - PV'!$Q$2,LEFT(E235,1)="u",'UNC - PV'!$O$2="vnđ",TH!P235&lt;&gt;""),"p",IF(AND(C235="pv",D235='UNC - PV'!$Q$2,LEFT(E235,1)="u",'UNC - PV'!$O$2="usd",TH!O235&lt;&gt;""),"p1",IF(AND(C235="pv",D235='LC - PV'!$P$2,LEFT(E235,1)="l"),"p2",IF(AND(LEFT(C235,3)="EIB",D235='UNC - EIB'!$T$2,LEFT(E235,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P235&lt;&gt;""),"e",IF(AND(LEFT(C235,3)="EIB",D235='UNC - EIB'!$T$2,LEFT(E235,1)="U",'UNC - EIB'!$R$2="usd",TH!O235&lt;&gt;""),"e1",IF(AND(LEFT(C235,3)="EIB",D235='LC - EIB'!$S$2,LEFT(E235,1)="l"),"e2",""))))))</f>
@@ -14483,23 +14808,41 @@
         <f>IF(AND(C236="pv",E236='UNC - PV'!$S$2,D236='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C236,3)="eib",E236='UNC - EIB'!$V$2,D236='UNC - EIB'!$T$2),"x1",IF(AND(C236="pv",E236='LC - PV'!$R$2,D236='LC - PV'!$P$2),"x2",IF(AND(LEFT(C236,3)="eib",E236='LC - EIB'!$U$2,D236='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B236" s="62" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="C236" s="62"/>
-      <c r="D236" s="67"/>
-      <c r="E236" s="65"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="64"/>
-      <c r="H236" s="64"/>
-      <c r="I236" s="65"/>
+      <c r="B236" s="62">
+        <f t="shared" si="16"/>
+        <v>233</v>
+      </c>
+      <c r="C236" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D236" s="67">
+        <v>43041</v>
+      </c>
+      <c r="E236" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F236" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G236" s="107" t="s">
+        <v>261</v>
+      </c>
+      <c r="H236" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I236" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J236" s="66"/>
       <c r="K236" s="67"/>
       <c r="L236" s="65"/>
       <c r="M236" s="65"/>
-      <c r="N236" s="64"/>
-      <c r="O236" s="68"/>
+      <c r="N236" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O236" s="68">
+        <v>564500</v>
+      </c>
       <c r="P236" s="69"/>
       <c r="Q236" s="104"/>
       <c r="R236" s="131" t="str">
@@ -14512,55 +14855,92 @@
         <f>IF(AND(C237="pv",E237='UNC - PV'!$S$2,D237='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C237,3)="eib",E237='UNC - EIB'!$V$2,D237='UNC - EIB'!$T$2),"x1",IF(AND(C237="pv",E237='LC - PV'!$R$2,D237='LC - PV'!$P$2),"x2",IF(AND(LEFT(C237,3)="eib",E237='LC - EIB'!$U$2,D237='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B237" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C237" s="62"/>
-      <c r="D237" s="67"/>
-      <c r="E237" s="65"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="64"/>
-      <c r="H237" s="64"/>
-      <c r="I237" s="65"/>
-      <c r="J237" s="66"/>
+      <c r="B237" s="62">
+        <f t="shared" si="16"/>
+        <v>234</v>
+      </c>
+      <c r="C237" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D237" s="67">
+        <v>43041</v>
+      </c>
+      <c r="E237" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F237" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G237" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H237" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I237" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J237" s="56"/>
       <c r="K237" s="67"/>
       <c r="L237" s="65"/>
       <c r="M237" s="65"/>
-      <c r="N237" s="64"/>
+      <c r="N237" s="64" t="s">
+        <v>434</v>
+      </c>
       <c r="O237" s="68"/>
-      <c r="P237" s="69"/>
+      <c r="P237" s="69">
+        <f>68400*22702</f>
+        <v>1552816800</v>
+      </c>
       <c r="Q237" s="104"/>
       <c r="R237" s="131" t="str">
         <f>IF(AND(C237="pv",D237='UNC - PV'!$Q$2,LEFT(E237,1)="u",'UNC - PV'!$O$2="vnđ",TH!P237&lt;&gt;""),"p",IF(AND(C237="pv",D237='UNC - PV'!$Q$2,LEFT(E237,1)="u",'UNC - PV'!$O$2="usd",TH!O237&lt;&gt;""),"p1",IF(AND(C237="pv",D237='LC - PV'!$P$2,LEFT(E237,1)="l"),"p2",IF(AND(LEFT(C237,3)="EIB",D237='UNC - EIB'!$T$2,LEFT(E237,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P237&lt;&gt;""),"e",IF(AND(LEFT(C237,3)="EIB",D237='UNC - EIB'!$T$2,LEFT(E237,1)="U",'UNC - EIB'!$R$2="usd",TH!O237&lt;&gt;""),"e1",IF(AND(LEFT(C237,3)="EIB",D237='LC - EIB'!$S$2,LEFT(E237,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A238" s="55" t="str">
+    <row r="238" spans="1:18" s="165" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A238" s="153" t="str">
         <f>IF(AND(C238="pv",E238='UNC - PV'!$S$2,D238='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C238,3)="eib",E238='UNC - EIB'!$V$2,D238='UNC - EIB'!$T$2),"x1",IF(AND(C238="pv",E238='LC - PV'!$R$2,D238='LC - PV'!$P$2),"x2",IF(AND(LEFT(C238,3)="eib",E238='LC - EIB'!$U$2,D238='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B238" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C238" s="62"/>
-      <c r="D238" s="67"/>
-      <c r="E238" s="65"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="64"/>
-      <c r="H238" s="64"/>
-      <c r="I238" s="65"/>
-      <c r="J238" s="66"/>
-      <c r="K238" s="67"/>
-      <c r="L238" s="65"/>
-      <c r="M238" s="65"/>
-      <c r="N238" s="64"/>
-      <c r="O238" s="68"/>
-      <c r="P238" s="69"/>
-      <c r="Q238" s="104"/>
-      <c r="R238" s="131" t="str">
+      <c r="B238" s="154">
+        <f t="shared" si="16"/>
+        <v>235</v>
+      </c>
+      <c r="C238" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="D238" s="155">
+        <v>43042</v>
+      </c>
+      <c r="E238" s="156" t="s">
+        <v>23</v>
+      </c>
+      <c r="F238" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="G238" s="166" t="s">
+        <v>469</v>
+      </c>
+      <c r="H238" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="I238" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="J238" s="159"/>
+      <c r="K238" s="160"/>
+      <c r="L238" s="158"/>
+      <c r="M238" s="158"/>
+      <c r="N238" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="O238" s="161"/>
+      <c r="P238" s="162">
+        <v>40000000</v>
+      </c>
+      <c r="Q238" s="163"/>
+      <c r="R238" s="164" t="str">
         <f>IF(AND(C238="pv",D238='UNC - PV'!$Q$2,LEFT(E238,1)="u",'UNC - PV'!$O$2="vnđ",TH!P238&lt;&gt;""),"p",IF(AND(C238="pv",D238='UNC - PV'!$Q$2,LEFT(E238,1)="u",'UNC - PV'!$O$2="usd",TH!O238&lt;&gt;""),"p1",IF(AND(C238="pv",D238='LC - PV'!$P$2,LEFT(E238,1)="l"),"p2",IF(AND(LEFT(C238,3)="EIB",D238='UNC - EIB'!$T$2,LEFT(E238,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P238&lt;&gt;""),"e",IF(AND(LEFT(C238,3)="EIB",D238='UNC - EIB'!$T$2,LEFT(E238,1)="U",'UNC - EIB'!$R$2="usd",TH!O238&lt;&gt;""),"e1",IF(AND(LEFT(C238,3)="EIB",D238='LC - EIB'!$S$2,LEFT(E238,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
@@ -14570,24 +14950,42 @@
         <f>IF(AND(C239="pv",E239='UNC - PV'!$S$2,D239='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C239,3)="eib",E239='UNC - EIB'!$V$2,D239='UNC - EIB'!$T$2),"x1",IF(AND(C239="pv",E239='LC - PV'!$R$2,D239='LC - PV'!$P$2),"x2",IF(AND(LEFT(C239,3)="eib",E239='LC - EIB'!$U$2,D239='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B239" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C239" s="62"/>
-      <c r="D239" s="67"/>
-      <c r="E239" s="65"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="64"/>
-      <c r="H239" s="64"/>
-      <c r="I239" s="65"/>
+      <c r="B239" s="62">
+        <f t="shared" si="16"/>
+        <v>236</v>
+      </c>
+      <c r="C239" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D239" s="67">
+        <v>43042</v>
+      </c>
+      <c r="E239" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G239" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H239" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I239" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J239" s="66"/>
       <c r="K239" s="67"/>
       <c r="L239" s="65"/>
       <c r="M239" s="65"/>
-      <c r="N239" s="64"/>
+      <c r="N239" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="O239" s="68"/>
-      <c r="P239" s="69"/>
+      <c r="P239" s="69">
+        <v>600000000</v>
+      </c>
       <c r="Q239" s="104"/>
       <c r="R239" s="131" t="str">
         <f>IF(AND(C239="pv",D239='UNC - PV'!$Q$2,LEFT(E239,1)="u",'UNC - PV'!$O$2="vnđ",TH!P239&lt;&gt;""),"p",IF(AND(C239="pv",D239='UNC - PV'!$Q$2,LEFT(E239,1)="u",'UNC - PV'!$O$2="usd",TH!O239&lt;&gt;""),"p1",IF(AND(C239="pv",D239='LC - PV'!$P$2,LEFT(E239,1)="l"),"p2",IF(AND(LEFT(C239,3)="EIB",D239='UNC - EIB'!$T$2,LEFT(E239,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P239&lt;&gt;""),"e",IF(AND(LEFT(C239,3)="EIB",D239='UNC - EIB'!$T$2,LEFT(E239,1)="U",'UNC - EIB'!$R$2="usd",TH!O239&lt;&gt;""),"e1",IF(AND(LEFT(C239,3)="EIB",D239='LC - EIB'!$S$2,LEFT(E239,1)="l"),"e2",""))))))</f>
@@ -14599,23 +14997,41 @@
         <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B240" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C240" s="62"/>
-      <c r="D240" s="67"/>
-      <c r="E240" s="65"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="64"/>
-      <c r="I240" s="65"/>
-      <c r="J240" s="66"/>
+      <c r="B240" s="62">
+        <f t="shared" si="16"/>
+        <v>237</v>
+      </c>
+      <c r="C240" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D240" s="67">
+        <v>43045</v>
+      </c>
+      <c r="E240" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F240" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G240" s="107" t="s">
+        <v>131</v>
+      </c>
+      <c r="H240" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I240" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J240" s="108"/>
       <c r="K240" s="67"/>
       <c r="L240" s="65"/>
       <c r="M240" s="65"/>
-      <c r="N240" s="64"/>
-      <c r="O240" s="68"/>
+      <c r="N240" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O240" s="68">
+        <v>563800</v>
+      </c>
       <c r="P240" s="69"/>
       <c r="Q240" s="104"/>
       <c r="R240" s="131" t="str">
@@ -14628,24 +15044,42 @@
         <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B241" s="62" t="str">
-        <f t="shared" ref="B241" si="17">IF(C241&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C241" s="62"/>
-      <c r="D241" s="67"/>
-      <c r="E241" s="65"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="64"/>
-      <c r="H241" s="64"/>
-      <c r="I241" s="65"/>
+      <c r="B241" s="62">
+        <f t="shared" si="16"/>
+        <v>238</v>
+      </c>
+      <c r="C241" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D241" s="67">
+        <v>43045</v>
+      </c>
+      <c r="E241" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F241" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G241" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H241" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I241" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J241" s="66"/>
       <c r="K241" s="67"/>
       <c r="L241" s="65"/>
       <c r="M241" s="65"/>
-      <c r="N241" s="64"/>
+      <c r="N241" s="107" t="s">
+        <v>334</v>
+      </c>
       <c r="O241" s="68"/>
-      <c r="P241" s="69"/>
+      <c r="P241" s="69">
+        <v>12800000000</v>
+      </c>
       <c r="Q241" s="104"/>
       <c r="R241" s="131" t="str">
         <f>IF(AND(C241="pv",D241='UNC - PV'!$Q$2,LEFT(E241,1)="u",'UNC - PV'!$O$2="vnđ",TH!P241&lt;&gt;""),"p",IF(AND(C241="pv",D241='UNC - PV'!$Q$2,LEFT(E241,1)="u",'UNC - PV'!$O$2="usd",TH!O241&lt;&gt;""),"p1",IF(AND(C241="pv",D241='LC - PV'!$P$2,LEFT(E241,1)="l"),"p2",IF(AND(LEFT(C241,3)="EIB",D241='UNC - EIB'!$T$2,LEFT(E241,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P241&lt;&gt;""),"e",IF(AND(LEFT(C241,3)="EIB",D241='UNC - EIB'!$T$2,LEFT(E241,1)="U",'UNC - EIB'!$R$2="usd",TH!O241&lt;&gt;""),"e1",IF(AND(LEFT(C241,3)="EIB",D241='LC - EIB'!$S$2,LEFT(E241,1)="l"),"e2",""))))))</f>
@@ -14657,24 +15091,42 @@
         <f>IF(AND(C242="pv",E242='UNC - PV'!$S$2,D242='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C242,3)="eib",E242='UNC - EIB'!$V$2,D242='UNC - EIB'!$T$2),"x1",IF(AND(C242="pv",E242='LC - PV'!$R$2,D242='LC - PV'!$P$2),"x2",IF(AND(LEFT(C242,3)="eib",E242='LC - EIB'!$U$2,D242='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B242" s="62" t="str">
-        <f t="shared" ref="B242" si="18">IF(C242&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C242" s="62"/>
-      <c r="D242" s="67"/>
-      <c r="E242" s="65"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="64"/>
-      <c r="H242" s="64"/>
-      <c r="I242" s="65"/>
-      <c r="J242" s="66"/>
+      <c r="B242" s="62">
+        <f t="shared" si="16"/>
+        <v>239</v>
+      </c>
+      <c r="C242" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D242" s="67">
+        <v>43045</v>
+      </c>
+      <c r="E242" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F242" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G242" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H242" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I242" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J242" s="56"/>
       <c r="K242" s="67"/>
       <c r="L242" s="65"/>
       <c r="M242" s="65"/>
-      <c r="N242" s="64"/>
+      <c r="N242" s="64" t="s">
+        <v>435</v>
+      </c>
       <c r="O242" s="68"/>
-      <c r="P242" s="69"/>
+      <c r="P242" s="69">
+        <v>1861400000</v>
+      </c>
       <c r="Q242" s="104"/>
       <c r="R242" s="131" t="str">
         <f>IF(AND(C242="pv",D242='UNC - PV'!$Q$2,LEFT(E242,1)="u",'UNC - PV'!$O$2="vnđ",TH!P242&lt;&gt;""),"p",IF(AND(C242="pv",D242='UNC - PV'!$Q$2,LEFT(E242,1)="u",'UNC - PV'!$O$2="usd",TH!O242&lt;&gt;""),"p1",IF(AND(C242="pv",D242='LC - PV'!$P$2,LEFT(E242,1)="l"),"p2",IF(AND(LEFT(C242,3)="EIB",D242='UNC - EIB'!$T$2,LEFT(E242,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P242&lt;&gt;""),"e",IF(AND(LEFT(C242,3)="EIB",D242='UNC - EIB'!$T$2,LEFT(E242,1)="U",'UNC - EIB'!$R$2="usd",TH!O242&lt;&gt;""),"e1",IF(AND(LEFT(C242,3)="EIB",D242='LC - EIB'!$S$2,LEFT(E242,1)="l"),"e2",""))))))</f>
@@ -14686,23 +15138,41 @@
         <f>IF(AND(C243="pv",E243='UNC - PV'!$S$2,D243='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C243,3)="eib",E243='UNC - EIB'!$V$2,D243='UNC - EIB'!$T$2),"x1",IF(AND(C243="pv",E243='LC - PV'!$R$2,D243='LC - PV'!$P$2),"x2",IF(AND(LEFT(C243,3)="eib",E243='LC - EIB'!$U$2,D243='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B243" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C243" s="62"/>
-      <c r="D243" s="67"/>
-      <c r="E243" s="65"/>
-      <c r="F243" s="64"/>
-      <c r="G243" s="64"/>
-      <c r="H243" s="64"/>
-      <c r="I243" s="65"/>
+      <c r="B243" s="62">
+        <f t="shared" ref="B243:B250" si="17">IF(C243&lt;&gt;"",ROW()-3,"")</f>
+        <v>240</v>
+      </c>
+      <c r="C243" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D243" s="67">
+        <v>43047</v>
+      </c>
+      <c r="E243" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F243" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G243" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H243" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I243" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J243" s="66"/>
       <c r="K243" s="67"/>
       <c r="L243" s="65"/>
       <c r="M243" s="65"/>
-      <c r="N243" s="64"/>
-      <c r="O243" s="68"/>
+      <c r="N243" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O243" s="68">
+        <v>519000</v>
+      </c>
       <c r="P243" s="69"/>
       <c r="Q243" s="104"/>
       <c r="R243" s="131" t="str">
@@ -14710,8 +15180,1913 @@
         <v/>
       </c>
     </row>
+    <row r="244" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A244" s="55" t="str">
+        <f>IF(AND(C244="pv",E244='UNC - PV'!$S$2,D244='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C244,3)="eib",E244='UNC - EIB'!$V$2,D244='UNC - EIB'!$T$2),"x1",IF(AND(C244="pv",E244='LC - PV'!$R$2,D244='LC - PV'!$P$2),"x2",IF(AND(LEFT(C244,3)="eib",E244='LC - EIB'!$U$2,D244='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B244" s="62">
+        <f t="shared" si="17"/>
+        <v>241</v>
+      </c>
+      <c r="C244" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D244" s="67">
+        <v>43048</v>
+      </c>
+      <c r="E244" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F244" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G244" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H244" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I244" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="J244" s="66"/>
+      <c r="K244" s="67"/>
+      <c r="L244" s="65"/>
+      <c r="M244" s="65"/>
+      <c r="N244" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="O244" s="68"/>
+      <c r="P244" s="69">
+        <v>36547610</v>
+      </c>
+      <c r="Q244" s="104"/>
+      <c r="R244" s="131" t="str">
+        <f>IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="vnđ",TH!P244&lt;&gt;""),"p",IF(AND(C244="pv",D244='UNC - PV'!$Q$2,LEFT(E244,1)="u",'UNC - PV'!$O$2="usd",TH!O244&lt;&gt;""),"p1",IF(AND(C244="pv",D244='LC - PV'!$P$2,LEFT(E244,1)="l"),"p2",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P244&lt;&gt;""),"e",IF(AND(LEFT(C244,3)="EIB",D244='UNC - EIB'!$T$2,LEFT(E244,1)="U",'UNC - EIB'!$R$2="usd",TH!O244&lt;&gt;""),"e1",IF(AND(LEFT(C244,3)="EIB",D244='LC - EIB'!$S$2,LEFT(E244,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A245" s="55" t="str">
+        <f>IF(AND(C245="pv",E245='UNC - PV'!$S$2,D245='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C245,3)="eib",E245='UNC - EIB'!$V$2,D245='UNC - EIB'!$T$2),"x1",IF(AND(C245="pv",E245='LC - PV'!$R$2,D245='LC - PV'!$P$2),"x2",IF(AND(LEFT(C245,3)="eib",E245='LC - EIB'!$U$2,D245='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B245" s="62">
+        <f t="shared" si="17"/>
+        <v>242</v>
+      </c>
+      <c r="C245" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D245" s="67">
+        <v>43048</v>
+      </c>
+      <c r="E245" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F245" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="G245" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="H245" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="I245" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="J245" s="66"/>
+      <c r="K245" s="67"/>
+      <c r="L245" s="65"/>
+      <c r="M245" s="65"/>
+      <c r="N245" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="O245" s="68"/>
+      <c r="P245" s="69">
+        <v>800000000</v>
+      </c>
+      <c r="Q245" s="104"/>
+      <c r="R245" s="131" t="str">
+        <f>IF(AND(C245="pv",D245='UNC - PV'!$Q$2,LEFT(E245,1)="u",'UNC - PV'!$O$2="vnđ",TH!P245&lt;&gt;""),"p",IF(AND(C245="pv",D245='UNC - PV'!$Q$2,LEFT(E245,1)="u",'UNC - PV'!$O$2="usd",TH!O245&lt;&gt;""),"p1",IF(AND(C245="pv",D245='LC - PV'!$P$2,LEFT(E245,1)="l"),"p2",IF(AND(LEFT(C245,3)="EIB",D245='UNC - EIB'!$T$2,LEFT(E245,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P245&lt;&gt;""),"e",IF(AND(LEFT(C245,3)="EIB",D245='UNC - EIB'!$T$2,LEFT(E245,1)="U",'UNC - EIB'!$R$2="usd",TH!O245&lt;&gt;""),"e1",IF(AND(LEFT(C245,3)="EIB",D245='LC - EIB'!$S$2,LEFT(E245,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A246" s="55" t="str">
+        <f>IF(AND(C246="pv",E246='UNC - PV'!$S$2,D246='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C246,3)="eib",E246='UNC - EIB'!$V$2,D246='UNC - EIB'!$T$2),"x1",IF(AND(C246="pv",E246='LC - PV'!$R$2,D246='LC - PV'!$P$2),"x2",IF(AND(LEFT(C246,3)="eib",E246='LC - EIB'!$U$2,D246='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B246" s="62">
+        <f t="shared" si="17"/>
+        <v>243</v>
+      </c>
+      <c r="C246" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D246" s="67">
+        <v>43053</v>
+      </c>
+      <c r="E246" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F246" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G246" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H246" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I246" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J246" s="56"/>
+      <c r="K246" s="67"/>
+      <c r="L246" s="65"/>
+      <c r="M246" s="65"/>
+      <c r="N246" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="O246" s="68"/>
+      <c r="P246" s="69">
+        <f>103808.14*22700</f>
+        <v>2356444778</v>
+      </c>
+      <c r="Q246" s="104"/>
+      <c r="R246" s="131" t="str">
+        <f>IF(AND(C246="pv",D246='UNC - PV'!$Q$2,LEFT(E246,1)="u",'UNC - PV'!$O$2="vnđ",TH!P246&lt;&gt;""),"p",IF(AND(C246="pv",D246='UNC - PV'!$Q$2,LEFT(E246,1)="u",'UNC - PV'!$O$2="usd",TH!O246&lt;&gt;""),"p1",IF(AND(C246="pv",D246='LC - PV'!$P$2,LEFT(E246,1)="l"),"p2",IF(AND(LEFT(C246,3)="EIB",D246='UNC - EIB'!$T$2,LEFT(E246,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P246&lt;&gt;""),"e",IF(AND(LEFT(C246,3)="EIB",D246='UNC - EIB'!$T$2,LEFT(E246,1)="U",'UNC - EIB'!$R$2="usd",TH!O246&lt;&gt;""),"e1",IF(AND(LEFT(C246,3)="EIB",D246='LC - EIB'!$S$2,LEFT(E246,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A247" s="55" t="str">
+        <f>IF(AND(C247="pv",E247='UNC - PV'!$S$2,D247='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C247,3)="eib",E247='UNC - EIB'!$V$2,D247='UNC - EIB'!$T$2),"x1",IF(AND(C247="pv",E247='LC - PV'!$R$2,D247='LC - PV'!$P$2),"x2",IF(AND(LEFT(C247,3)="eib",E247='LC - EIB'!$U$2,D247='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B247" s="62">
+        <f t="shared" si="17"/>
+        <v>244</v>
+      </c>
+      <c r="C247" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D247" s="67">
+        <v>43053</v>
+      </c>
+      <c r="E247" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F247" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G247" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H247" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I247" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J247" s="66"/>
+      <c r="K247" s="67"/>
+      <c r="L247" s="65"/>
+      <c r="M247" s="65"/>
+      <c r="N247" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O247" s="68">
+        <v>510000</v>
+      </c>
+      <c r="P247" s="69"/>
+      <c r="Q247" s="104"/>
+      <c r="R247" s="131" t="str">
+        <f>IF(AND(C247="pv",D247='UNC - PV'!$Q$2,LEFT(E247,1)="u",'UNC - PV'!$O$2="vnđ",TH!P247&lt;&gt;""),"p",IF(AND(C247="pv",D247='UNC - PV'!$Q$2,LEFT(E247,1)="u",'UNC - PV'!$O$2="usd",TH!O247&lt;&gt;""),"p1",IF(AND(C247="pv",D247='LC - PV'!$P$2,LEFT(E247,1)="l"),"p2",IF(AND(LEFT(C247,3)="EIB",D247='UNC - EIB'!$T$2,LEFT(E247,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P247&lt;&gt;""),"e",IF(AND(LEFT(C247,3)="EIB",D247='UNC - EIB'!$T$2,LEFT(E247,1)="U",'UNC - EIB'!$R$2="usd",TH!O247&lt;&gt;""),"e1",IF(AND(LEFT(C247,3)="EIB",D247='LC - EIB'!$S$2,LEFT(E247,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A248" s="55" t="str">
+        <f>IF(AND(C248="pv",E248='UNC - PV'!$S$2,D248='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C248,3)="eib",E248='UNC - EIB'!$V$2,D248='UNC - EIB'!$T$2),"x1",IF(AND(C248="pv",E248='LC - PV'!$R$2,D248='LC - PV'!$P$2),"x2",IF(AND(LEFT(C248,3)="eib",E248='LC - EIB'!$U$2,D248='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B248" s="62">
+        <f t="shared" si="17"/>
+        <v>245</v>
+      </c>
+      <c r="C248" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D248" s="67">
+        <v>43053</v>
+      </c>
+      <c r="E248" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F248" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G248" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H248" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I248" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J248" s="56"/>
+      <c r="K248" s="67"/>
+      <c r="L248" s="65"/>
+      <c r="M248" s="65"/>
+      <c r="N248" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="O248" s="68"/>
+      <c r="P248" s="69">
+        <v>2020300000</v>
+      </c>
+      <c r="Q248" s="104"/>
+      <c r="R248" s="131" t="str">
+        <f>IF(AND(C248="pv",D248='UNC - PV'!$Q$2,LEFT(E248,1)="u",'UNC - PV'!$O$2="vnđ",TH!P248&lt;&gt;""),"p",IF(AND(C248="pv",D248='UNC - PV'!$Q$2,LEFT(E248,1)="u",'UNC - PV'!$O$2="usd",TH!O248&lt;&gt;""),"p1",IF(AND(C248="pv",D248='LC - PV'!$P$2,LEFT(E248,1)="l"),"p2",IF(AND(LEFT(C248,3)="EIB",D248='UNC - EIB'!$T$2,LEFT(E248,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P248&lt;&gt;""),"e",IF(AND(LEFT(C248,3)="EIB",D248='UNC - EIB'!$T$2,LEFT(E248,1)="U",'UNC - EIB'!$R$2="usd",TH!O248&lt;&gt;""),"e1",IF(AND(LEFT(C248,3)="EIB",D248='LC - EIB'!$S$2,LEFT(E248,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A249" s="55" t="str">
+        <f>IF(AND(C249="pv",E249='UNC - PV'!$S$2,D249='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C249,3)="eib",E249='UNC - EIB'!$V$2,D249='UNC - EIB'!$T$2),"x1",IF(AND(C249="pv",E249='LC - PV'!$R$2,D249='LC - PV'!$P$2),"x2",IF(AND(LEFT(C249,3)="eib",E249='LC - EIB'!$U$2,D249='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B249" s="62">
+        <f t="shared" si="17"/>
+        <v>246</v>
+      </c>
+      <c r="C249" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D249" s="67">
+        <v>43054</v>
+      </c>
+      <c r="E249" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F249" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="G249" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="H249" s="64" t="s">
+        <v>439</v>
+      </c>
+      <c r="I249" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="J249" s="66"/>
+      <c r="K249" s="67"/>
+      <c r="L249" s="65"/>
+      <c r="M249" s="65"/>
+      <c r="N249" s="64" t="s">
+        <v>440</v>
+      </c>
+      <c r="O249" s="68"/>
+      <c r="P249" s="69">
+        <v>2062550000</v>
+      </c>
+      <c r="Q249" s="104"/>
+      <c r="R249" s="131" t="str">
+        <f>IF(AND(C249="pv",D249='UNC - PV'!$Q$2,LEFT(E249,1)="u",'UNC - PV'!$O$2="vnđ",TH!P249&lt;&gt;""),"p",IF(AND(C249="pv",D249='UNC - PV'!$Q$2,LEFT(E249,1)="u",'UNC - PV'!$O$2="usd",TH!O249&lt;&gt;""),"p1",IF(AND(C249="pv",D249='LC - PV'!$P$2,LEFT(E249,1)="l"),"p2",IF(AND(LEFT(C249,3)="EIB",D249='UNC - EIB'!$T$2,LEFT(E249,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P249&lt;&gt;""),"e",IF(AND(LEFT(C249,3)="EIB",D249='UNC - EIB'!$T$2,LEFT(E249,1)="U",'UNC - EIB'!$R$2="usd",TH!O249&lt;&gt;""),"e1",IF(AND(LEFT(C249,3)="EIB",D249='LC - EIB'!$S$2,LEFT(E249,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A250" s="55" t="str">
+        <f>IF(AND(C250="pv",E250='UNC - PV'!$S$2,D250='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C250,3)="eib",E250='UNC - EIB'!$V$2,D250='UNC - EIB'!$T$2),"x1",IF(AND(C250="pv",E250='LC - PV'!$R$2,D250='LC - PV'!$P$2),"x2",IF(AND(LEFT(C250,3)="eib",E250='LC - EIB'!$U$2,D250='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B250" s="62">
+        <f t="shared" si="17"/>
+        <v>247</v>
+      </c>
+      <c r="C250" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D250" s="67">
+        <v>43061</v>
+      </c>
+      <c r="E250" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F250" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G250" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H250" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I250" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J250" s="66"/>
+      <c r="K250" s="67"/>
+      <c r="L250" s="65"/>
+      <c r="M250" s="65"/>
+      <c r="N250" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O250" s="68">
+        <v>3600</v>
+      </c>
+      <c r="P250" s="69"/>
+      <c r="Q250" s="104"/>
+      <c r="R250" s="131" t="str">
+        <f>IF(AND(C250="pv",D250='UNC - PV'!$Q$2,LEFT(E250,1)="u",'UNC - PV'!$O$2="vnđ",TH!P250&lt;&gt;""),"p",IF(AND(C250="pv",D250='UNC - PV'!$Q$2,LEFT(E250,1)="u",'UNC - PV'!$O$2="usd",TH!O250&lt;&gt;""),"p1",IF(AND(C250="pv",D250='LC - PV'!$P$2,LEFT(E250,1)="l"),"p2",IF(AND(LEFT(C250,3)="EIB",D250='UNC - EIB'!$T$2,LEFT(E250,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P250&lt;&gt;""),"e",IF(AND(LEFT(C250,3)="EIB",D250='UNC - EIB'!$T$2,LEFT(E250,1)="U",'UNC - EIB'!$R$2="usd",TH!O250&lt;&gt;""),"e1",IF(AND(LEFT(C250,3)="EIB",D250='LC - EIB'!$S$2,LEFT(E250,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A251" s="55" t="str">
+        <f>IF(AND(C251="pv",E251='UNC - PV'!$S$2,D251='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C251,3)="eib",E251='UNC - EIB'!$V$2,D251='UNC - EIB'!$T$2),"x1",IF(AND(C251="pv",E251='LC - PV'!$R$2,D251='LC - PV'!$P$2),"x2",IF(AND(LEFT(C251,3)="eib",E251='LC - EIB'!$U$2,D251='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B251" s="62">
+        <f t="shared" si="16"/>
+        <v>248</v>
+      </c>
+      <c r="C251" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D251" s="67">
+        <v>43063</v>
+      </c>
+      <c r="E251" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F251" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G251" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H251" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I251" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J251" s="66"/>
+      <c r="K251" s="67"/>
+      <c r="L251" s="65"/>
+      <c r="M251" s="65"/>
+      <c r="N251" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O251" s="68"/>
+      <c r="P251" s="69">
+        <v>80000000</v>
+      </c>
+      <c r="Q251" s="104"/>
+      <c r="R251" s="131" t="str">
+        <f>IF(AND(C251="pv",D251='UNC - PV'!$Q$2,LEFT(E251,1)="u",'UNC - PV'!$O$2="vnđ",TH!P251&lt;&gt;""),"p",IF(AND(C251="pv",D251='UNC - PV'!$Q$2,LEFT(E251,1)="u",'UNC - PV'!$O$2="usd",TH!O251&lt;&gt;""),"p1",IF(AND(C251="pv",D251='LC - PV'!$P$2,LEFT(E251,1)="l"),"p2",IF(AND(LEFT(C251,3)="EIB",D251='UNC - EIB'!$T$2,LEFT(E251,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P251&lt;&gt;""),"e",IF(AND(LEFT(C251,3)="EIB",D251='UNC - EIB'!$T$2,LEFT(E251,1)="U",'UNC - EIB'!$R$2="usd",TH!O251&lt;&gt;""),"e1",IF(AND(LEFT(C251,3)="EIB",D251='LC - EIB'!$S$2,LEFT(E251,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A252" s="55" t="str">
+        <f>IF(AND(C252="pv",E252='UNC - PV'!$S$2,D252='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C252,3)="eib",E252='UNC - EIB'!$V$2,D252='UNC - EIB'!$T$2),"x1",IF(AND(C252="pv",E252='LC - PV'!$R$2,D252='LC - PV'!$P$2),"x2",IF(AND(LEFT(C252,3)="eib",E252='LC - EIB'!$U$2,D252='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B252" s="62">
+        <f t="shared" si="12"/>
+        <v>249</v>
+      </c>
+      <c r="C252" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D252" s="67">
+        <v>43067</v>
+      </c>
+      <c r="E252" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F252" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G252" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H252" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I252" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J252" s="56"/>
+      <c r="K252" s="67"/>
+      <c r="L252" s="65"/>
+      <c r="M252" s="65"/>
+      <c r="N252" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="O252" s="68"/>
+      <c r="P252" s="69">
+        <f>70000*22707</f>
+        <v>1589490000</v>
+      </c>
+      <c r="Q252" s="104"/>
+      <c r="R252" s="131" t="str">
+        <f>IF(AND(C252="pv",D252='UNC - PV'!$Q$2,LEFT(E252,1)="u",'UNC - PV'!$O$2="vnđ",TH!P252&lt;&gt;""),"p",IF(AND(C252="pv",D252='UNC - PV'!$Q$2,LEFT(E252,1)="u",'UNC - PV'!$O$2="usd",TH!O252&lt;&gt;""),"p1",IF(AND(C252="pv",D252='LC - PV'!$P$2,LEFT(E252,1)="l"),"p2",IF(AND(LEFT(C252,3)="EIB",D252='UNC - EIB'!$T$2,LEFT(E252,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P252&lt;&gt;""),"e",IF(AND(LEFT(C252,3)="EIB",D252='UNC - EIB'!$T$2,LEFT(E252,1)="U",'UNC - EIB'!$R$2="usd",TH!O252&lt;&gt;""),"e1",IF(AND(LEFT(C252,3)="EIB",D252='LC - EIB'!$S$2,LEFT(E252,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A253" s="55" t="str">
+        <f>IF(AND(C253="pv",E253='UNC - PV'!$S$2,D253='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C253,3)="eib",E253='UNC - EIB'!$V$2,D253='UNC - EIB'!$T$2),"x1",IF(AND(C253="pv",E253='LC - PV'!$R$2,D253='LC - PV'!$P$2),"x2",IF(AND(LEFT(C253,3)="eib",E253='LC - EIB'!$U$2,D253='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B253" s="62">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="C253" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D253" s="67">
+        <v>43067</v>
+      </c>
+      <c r="E253" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F253" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G253" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H253" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I253" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J253" s="66"/>
+      <c r="K253" s="67"/>
+      <c r="L253" s="65"/>
+      <c r="M253" s="65"/>
+      <c r="N253" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O253" s="68"/>
+      <c r="P253" s="69">
+        <v>850000000</v>
+      </c>
+      <c r="Q253" s="104"/>
+      <c r="R253" s="131" t="str">
+        <f>IF(AND(C253="pv",D253='UNC - PV'!$Q$2,LEFT(E253,1)="u",'UNC - PV'!$O$2="vnđ",TH!P253&lt;&gt;""),"p",IF(AND(C253="pv",D253='UNC - PV'!$Q$2,LEFT(E253,1)="u",'UNC - PV'!$O$2="usd",TH!O253&lt;&gt;""),"p1",IF(AND(C253="pv",D253='LC - PV'!$P$2,LEFT(E253,1)="l"),"p2",IF(AND(LEFT(C253,3)="EIB",D253='UNC - EIB'!$T$2,LEFT(E253,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P253&lt;&gt;""),"e",IF(AND(LEFT(C253,3)="EIB",D253='UNC - EIB'!$T$2,LEFT(E253,1)="U",'UNC - EIB'!$R$2="usd",TH!O253&lt;&gt;""),"e1",IF(AND(LEFT(C253,3)="EIB",D253='LC - EIB'!$S$2,LEFT(E253,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A254" s="55" t="str">
+        <f>IF(AND(C254="pv",E254='UNC - PV'!$S$2,D254='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C254,3)="eib",E254='UNC - EIB'!$V$2,D254='UNC - EIB'!$T$2),"x1",IF(AND(C254="pv",E254='LC - PV'!$R$2,D254='LC - PV'!$P$2),"x2",IF(AND(LEFT(C254,3)="eib",E254='LC - EIB'!$U$2,D254='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B254" s="62">
+        <f t="shared" ref="B254:B269" si="18">IF(C254&lt;&gt;"",ROW()-3,"")</f>
+        <v>251</v>
+      </c>
+      <c r="C254" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D254" s="67">
+        <v>43068</v>
+      </c>
+      <c r="E254" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F254" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G254" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="H254" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="I254" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J254" s="66"/>
+      <c r="K254" s="67"/>
+      <c r="L254" s="65"/>
+      <c r="M254" s="65"/>
+      <c r="N254" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="O254" s="68"/>
+      <c r="P254" s="69">
+        <v>28600000</v>
+      </c>
+      <c r="Q254" s="104"/>
+      <c r="R254" s="131" t="str">
+        <f>IF(AND(C254="pv",D254='UNC - PV'!$Q$2,LEFT(E254,1)="u",'UNC - PV'!$O$2="vnđ",TH!P254&lt;&gt;""),"p",IF(AND(C254="pv",D254='UNC - PV'!$Q$2,LEFT(E254,1)="u",'UNC - PV'!$O$2="usd",TH!O254&lt;&gt;""),"p1",IF(AND(C254="pv",D254='LC - PV'!$P$2,LEFT(E254,1)="l"),"p2",IF(AND(LEFT(C254,3)="EIB",D254='UNC - EIB'!$T$2,LEFT(E254,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P254&lt;&gt;""),"e",IF(AND(LEFT(C254,3)="EIB",D254='UNC - EIB'!$T$2,LEFT(E254,1)="U",'UNC - EIB'!$R$2="usd",TH!O254&lt;&gt;""),"e1",IF(AND(LEFT(C254,3)="EIB",D254='LC - EIB'!$S$2,LEFT(E254,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A255" s="55" t="str">
+        <f>IF(AND(C255="pv",E255='UNC - PV'!$S$2,D255='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C255,3)="eib",E255='UNC - EIB'!$V$2,D255='UNC - EIB'!$T$2),"x1",IF(AND(C255="pv",E255='LC - PV'!$R$2,D255='LC - PV'!$P$2),"x2",IF(AND(LEFT(C255,3)="eib",E255='LC - EIB'!$U$2,D255='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B255" s="62">
+        <f t="shared" si="18"/>
+        <v>252</v>
+      </c>
+      <c r="C255" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D255" s="67">
+        <v>43070</v>
+      </c>
+      <c r="E255" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F255" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G255" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H255" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I255" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J255" s="56"/>
+      <c r="K255" s="67"/>
+      <c r="L255" s="65"/>
+      <c r="M255" s="65"/>
+      <c r="N255" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="O255" s="68"/>
+      <c r="P255" s="69">
+        <f>40500*22703</f>
+        <v>919471500</v>
+      </c>
+      <c r="Q255" s="104"/>
+      <c r="R255" s="131" t="str">
+        <f>IF(AND(C255="pv",D255='UNC - PV'!$Q$2,LEFT(E255,1)="u",'UNC - PV'!$O$2="vnđ",TH!P255&lt;&gt;""),"p",IF(AND(C255="pv",D255='UNC - PV'!$Q$2,LEFT(E255,1)="u",'UNC - PV'!$O$2="usd",TH!O255&lt;&gt;""),"p1",IF(AND(C255="pv",D255='LC - PV'!$P$2,LEFT(E255,1)="l"),"p2",IF(AND(LEFT(C255,3)="EIB",D255='UNC - EIB'!$T$2,LEFT(E255,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P255&lt;&gt;""),"e",IF(AND(LEFT(C255,3)="EIB",D255='UNC - EIB'!$T$2,LEFT(E255,1)="U",'UNC - EIB'!$R$2="usd",TH!O255&lt;&gt;""),"e1",IF(AND(LEFT(C255,3)="EIB",D255='LC - EIB'!$S$2,LEFT(E255,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A256" s="55" t="str">
+        <f>IF(AND(C256="pv",E256='UNC - PV'!$S$2,D256='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C256,3)="eib",E256='UNC - EIB'!$V$2,D256='UNC - EIB'!$T$2),"x1",IF(AND(C256="pv",E256='LC - PV'!$R$2,D256='LC - PV'!$P$2),"x2",IF(AND(LEFT(C256,3)="eib",E256='LC - EIB'!$U$2,D256='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B256" s="62">
+        <f t="shared" si="18"/>
+        <v>253</v>
+      </c>
+      <c r="C256" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D256" s="67">
+        <v>43073</v>
+      </c>
+      <c r="E256" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F256" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G256" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H256" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I256" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J256" s="56"/>
+      <c r="K256" s="67"/>
+      <c r="L256" s="65"/>
+      <c r="M256" s="65"/>
+      <c r="N256" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="O256" s="68"/>
+      <c r="P256" s="69">
+        <f>67000*22705</f>
+        <v>1521235000</v>
+      </c>
+      <c r="Q256" s="104"/>
+      <c r="R256" s="131" t="str">
+        <f>IF(AND(C256="pv",D256='UNC - PV'!$Q$2,LEFT(E256,1)="u",'UNC - PV'!$O$2="vnđ",TH!P256&lt;&gt;""),"p",IF(AND(C256="pv",D256='UNC - PV'!$Q$2,LEFT(E256,1)="u",'UNC - PV'!$O$2="usd",TH!O256&lt;&gt;""),"p1",IF(AND(C256="pv",D256='LC - PV'!$P$2,LEFT(E256,1)="l"),"p2",IF(AND(LEFT(C256,3)="EIB",D256='UNC - EIB'!$T$2,LEFT(E256,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P256&lt;&gt;""),"e",IF(AND(LEFT(C256,3)="EIB",D256='UNC - EIB'!$T$2,LEFT(E256,1)="U",'UNC - EIB'!$R$2="usd",TH!O256&lt;&gt;""),"e1",IF(AND(LEFT(C256,3)="EIB",D256='LC - EIB'!$S$2,LEFT(E256,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A257" s="55" t="str">
+        <f>IF(AND(C257="pv",E257='UNC - PV'!$S$2,D257='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C257,3)="eib",E257='UNC - EIB'!$V$2,D257='UNC - EIB'!$T$2),"x1",IF(AND(C257="pv",E257='LC - PV'!$R$2,D257='LC - PV'!$P$2),"x2",IF(AND(LEFT(C257,3)="eib",E257='LC - EIB'!$U$2,D257='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B257" s="62">
+        <f t="shared" si="18"/>
+        <v>254</v>
+      </c>
+      <c r="C257" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D257" s="67">
+        <v>43074</v>
+      </c>
+      <c r="E257" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F257" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G257" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H257" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I257" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J257" s="66"/>
+      <c r="K257" s="67"/>
+      <c r="L257" s="65"/>
+      <c r="M257" s="65"/>
+      <c r="N257" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O257" s="68"/>
+      <c r="P257" s="69">
+        <v>600000000</v>
+      </c>
+      <c r="Q257" s="104"/>
+      <c r="R257" s="131" t="str">
+        <f>IF(AND(C257="pv",D257='UNC - PV'!$Q$2,LEFT(E257,1)="u",'UNC - PV'!$O$2="vnđ",TH!P257&lt;&gt;""),"p",IF(AND(C257="pv",D257='UNC - PV'!$Q$2,LEFT(E257,1)="u",'UNC - PV'!$O$2="usd",TH!O257&lt;&gt;""),"p1",IF(AND(C257="pv",D257='LC - PV'!$P$2,LEFT(E257,1)="l"),"p2",IF(AND(LEFT(C257,3)="EIB",D257='UNC - EIB'!$T$2,LEFT(E257,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P257&lt;&gt;""),"e",IF(AND(LEFT(C257,3)="EIB",D257='UNC - EIB'!$T$2,LEFT(E257,1)="U",'UNC - EIB'!$R$2="usd",TH!O257&lt;&gt;""),"e1",IF(AND(LEFT(C257,3)="EIB",D257='LC - EIB'!$S$2,LEFT(E257,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A258" s="55" t="str">
+        <f>IF(AND(C258="pv",E258='UNC - PV'!$S$2,D258='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C258,3)="eib",E258='UNC - EIB'!$V$2,D258='UNC - EIB'!$T$2),"x1",IF(AND(C258="pv",E258='LC - PV'!$R$2,D258='LC - PV'!$P$2),"x2",IF(AND(LEFT(C258,3)="eib",E258='LC - EIB'!$U$2,D258='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B258" s="62">
+        <f t="shared" ref="B258:B259" si="19">IF(C258&lt;&gt;"",ROW()-3,"")</f>
+        <v>255</v>
+      </c>
+      <c r="C258" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D258" s="67">
+        <v>43082</v>
+      </c>
+      <c r="E258" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F258" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G258" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H258" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I258" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J258" s="56"/>
+      <c r="K258" s="67"/>
+      <c r="L258" s="65"/>
+      <c r="M258" s="65"/>
+      <c r="N258" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="O258" s="68"/>
+      <c r="P258" s="69">
+        <f>84000*22705</f>
+        <v>1907220000</v>
+      </c>
+      <c r="Q258" s="104"/>
+      <c r="R258" s="131" t="str">
+        <f>IF(AND(C258="pv",D258='UNC - PV'!$Q$2,LEFT(E258,1)="u",'UNC - PV'!$O$2="vnđ",TH!P258&lt;&gt;""),"p",IF(AND(C258="pv",D258='UNC - PV'!$Q$2,LEFT(E258,1)="u",'UNC - PV'!$O$2="usd",TH!O258&lt;&gt;""),"p1",IF(AND(C258="pv",D258='LC - PV'!$P$2,LEFT(E258,1)="l"),"p2",IF(AND(LEFT(C258,3)="EIB",D258='UNC - EIB'!$T$2,LEFT(E258,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P258&lt;&gt;""),"e",IF(AND(LEFT(C258,3)="EIB",D258='UNC - EIB'!$T$2,LEFT(E258,1)="U",'UNC - EIB'!$R$2="usd",TH!O258&lt;&gt;""),"e1",IF(AND(LEFT(C258,3)="EIB",D258='LC - EIB'!$S$2,LEFT(E258,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A259" s="55" t="str">
+        <f>IF(AND(C259="pv",E259='UNC - PV'!$S$2,D259='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C259,3)="eib",E259='UNC - EIB'!$V$2,D259='UNC - EIB'!$T$2),"x1",IF(AND(C259="pv",E259='LC - PV'!$R$2,D259='LC - PV'!$P$2),"x2",IF(AND(LEFT(C259,3)="eib",E259='LC - EIB'!$U$2,D259='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B259" s="62">
+        <f t="shared" si="19"/>
+        <v>256</v>
+      </c>
+      <c r="C259" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D259" s="67">
+        <v>43082</v>
+      </c>
+      <c r="E259" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F259" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G259" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H259" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I259" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J259" s="56"/>
+      <c r="K259" s="67"/>
+      <c r="L259" s="65"/>
+      <c r="M259" s="65"/>
+      <c r="N259" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="O259" s="68"/>
+      <c r="P259" s="69">
+        <f>40100*22705</f>
+        <v>910470500</v>
+      </c>
+      <c r="Q259" s="104"/>
+      <c r="R259" s="131" t="str">
+        <f>IF(AND(C259="pv",D259='UNC - PV'!$Q$2,LEFT(E259,1)="u",'UNC - PV'!$O$2="vnđ",TH!P259&lt;&gt;""),"p",IF(AND(C259="pv",D259='UNC - PV'!$Q$2,LEFT(E259,1)="u",'UNC - PV'!$O$2="usd",TH!O259&lt;&gt;""),"p1",IF(AND(C259="pv",D259='LC - PV'!$P$2,LEFT(E259,1)="l"),"p2",IF(AND(LEFT(C259,3)="EIB",D259='UNC - EIB'!$T$2,LEFT(E259,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P259&lt;&gt;""),"e",IF(AND(LEFT(C259,3)="EIB",D259='UNC - EIB'!$T$2,LEFT(E259,1)="U",'UNC - EIB'!$R$2="usd",TH!O259&lt;&gt;""),"e1",IF(AND(LEFT(C259,3)="EIB",D259='LC - EIB'!$S$2,LEFT(E259,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A260" s="55" t="str">
+        <f>IF(AND(C260="pv",E260='UNC - PV'!$S$2,D260='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C260,3)="eib",E260='UNC - EIB'!$V$2,D260='UNC - EIB'!$T$2),"x1",IF(AND(C260="pv",E260='LC - PV'!$R$2,D260='LC - PV'!$P$2),"x2",IF(AND(LEFT(C260,3)="eib",E260='LC - EIB'!$U$2,D260='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B260" s="62">
+        <f t="shared" si="18"/>
+        <v>257</v>
+      </c>
+      <c r="C260" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D260" s="67">
+        <v>43088</v>
+      </c>
+      <c r="E260" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F260" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G260" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H260" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I260" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J260" s="66"/>
+      <c r="K260" s="67"/>
+      <c r="L260" s="65"/>
+      <c r="M260" s="65"/>
+      <c r="N260" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O260" s="68"/>
+      <c r="P260" s="69">
+        <f>6050000000-200000000</f>
+        <v>5850000000</v>
+      </c>
+      <c r="Q260" s="104"/>
+      <c r="R260" s="131" t="str">
+        <f>IF(AND(C260="pv",D260='UNC - PV'!$Q$2,LEFT(E260,1)="u",'UNC - PV'!$O$2="vnđ",TH!P260&lt;&gt;""),"p",IF(AND(C260="pv",D260='UNC - PV'!$Q$2,LEFT(E260,1)="u",'UNC - PV'!$O$2="usd",TH!O260&lt;&gt;""),"p1",IF(AND(C260="pv",D260='LC - PV'!$P$2,LEFT(E260,1)="l"),"p2",IF(AND(LEFT(C260,3)="EIB",D260='UNC - EIB'!$T$2,LEFT(E260,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P260&lt;&gt;""),"e",IF(AND(LEFT(C260,3)="EIB",D260='UNC - EIB'!$T$2,LEFT(E260,1)="U",'UNC - EIB'!$R$2="usd",TH!O260&lt;&gt;""),"e1",IF(AND(LEFT(C260,3)="EIB",D260='LC - EIB'!$S$2,LEFT(E260,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A261" s="55" t="str">
+        <f>IF(AND(C261="pv",E261='UNC - PV'!$S$2,D261='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C261,3)="eib",E261='UNC - EIB'!$V$2,D261='UNC - EIB'!$T$2),"x1",IF(AND(C261="pv",E261='LC - PV'!$R$2,D261='LC - PV'!$P$2),"x2",IF(AND(LEFT(C261,3)="eib",E261='LC - EIB'!$U$2,D261='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B261" s="62">
+        <f t="shared" si="18"/>
+        <v>258</v>
+      </c>
+      <c r="C261" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D261" s="67">
+        <v>43090</v>
+      </c>
+      <c r="E261" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F261" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G261" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H261" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I261" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J261" s="66"/>
+      <c r="K261" s="67"/>
+      <c r="L261" s="65"/>
+      <c r="M261" s="65"/>
+      <c r="N261" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O261" s="68">
+        <v>122300</v>
+      </c>
+      <c r="P261" s="69"/>
+      <c r="Q261" s="104"/>
+      <c r="R261" s="131" t="str">
+        <f>IF(AND(C261="pv",D261='UNC - PV'!$Q$2,LEFT(E261,1)="u",'UNC - PV'!$O$2="vnđ",TH!P261&lt;&gt;""),"p",IF(AND(C261="pv",D261='UNC - PV'!$Q$2,LEFT(E261,1)="u",'UNC - PV'!$O$2="usd",TH!O261&lt;&gt;""),"p1",IF(AND(C261="pv",D261='LC - PV'!$P$2,LEFT(E261,1)="l"),"p2",IF(AND(LEFT(C261,3)="EIB",D261='UNC - EIB'!$T$2,LEFT(E261,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P261&lt;&gt;""),"e",IF(AND(LEFT(C261,3)="EIB",D261='UNC - EIB'!$T$2,LEFT(E261,1)="U",'UNC - EIB'!$R$2="usd",TH!O261&lt;&gt;""),"e1",IF(AND(LEFT(C261,3)="EIB",D261='LC - EIB'!$S$2,LEFT(E261,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A262" s="55" t="str">
+        <f>IF(AND(C262="pv",E262='UNC - PV'!$S$2,D262='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C262,3)="eib",E262='UNC - EIB'!$V$2,D262='UNC - EIB'!$T$2),"x1",IF(AND(C262="pv",E262='LC - PV'!$R$2,D262='LC - PV'!$P$2),"x2",IF(AND(LEFT(C262,3)="eib",E262='LC - EIB'!$U$2,D262='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B262" s="62">
+        <f t="shared" si="18"/>
+        <v>259</v>
+      </c>
+      <c r="C262" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D262" s="67">
+        <v>43091</v>
+      </c>
+      <c r="E262" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F262" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G262" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H262" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I262" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J262" s="56"/>
+      <c r="K262" s="67"/>
+      <c r="L262" s="65"/>
+      <c r="M262" s="65"/>
+      <c r="N262" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="O262" s="68"/>
+      <c r="P262" s="69">
+        <f>23662*22702</f>
+        <v>537174724</v>
+      </c>
+      <c r="Q262" s="104"/>
+      <c r="R262" s="131" t="str">
+        <f>IF(AND(C262="pv",D262='UNC - PV'!$Q$2,LEFT(E262,1)="u",'UNC - PV'!$O$2="vnđ",TH!P262&lt;&gt;""),"p",IF(AND(C262="pv",D262='UNC - PV'!$Q$2,LEFT(E262,1)="u",'UNC - PV'!$O$2="usd",TH!O262&lt;&gt;""),"p1",IF(AND(C262="pv",D262='LC - PV'!$P$2,LEFT(E262,1)="l"),"p2",IF(AND(LEFT(C262,3)="EIB",D262='UNC - EIB'!$T$2,LEFT(E262,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P262&lt;&gt;""),"e",IF(AND(LEFT(C262,3)="EIB",D262='UNC - EIB'!$T$2,LEFT(E262,1)="U",'UNC - EIB'!$R$2="usd",TH!O262&lt;&gt;""),"e1",IF(AND(LEFT(C262,3)="EIB",D262='LC - EIB'!$S$2,LEFT(E262,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A263" s="55" t="str">
+        <f>IF(AND(C263="pv",E263='UNC - PV'!$S$2,D263='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C263,3)="eib",E263='UNC - EIB'!$V$2,D263='UNC - EIB'!$T$2),"x1",IF(AND(C263="pv",E263='LC - PV'!$R$2,D263='LC - PV'!$P$2),"x2",IF(AND(LEFT(C263,3)="eib",E263='LC - EIB'!$U$2,D263='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B263" s="62">
+        <f t="shared" si="18"/>
+        <v>260</v>
+      </c>
+      <c r="C263" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D263" s="67">
+        <v>43091</v>
+      </c>
+      <c r="E263" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F263" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G263" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H263" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I263" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J263" s="56"/>
+      <c r="K263" s="67"/>
+      <c r="L263" s="65"/>
+      <c r="M263" s="65"/>
+      <c r="N263" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="O263" s="68"/>
+      <c r="P263" s="69">
+        <f>92500*22702</f>
+        <v>2099935000</v>
+      </c>
+      <c r="Q263" s="104"/>
+      <c r="R263" s="131" t="str">
+        <f>IF(AND(C263="pv",D263='UNC - PV'!$Q$2,LEFT(E263,1)="u",'UNC - PV'!$O$2="vnđ",TH!P263&lt;&gt;""),"p",IF(AND(C263="pv",D263='UNC - PV'!$Q$2,LEFT(E263,1)="u",'UNC - PV'!$O$2="usd",TH!O263&lt;&gt;""),"p1",IF(AND(C263="pv",D263='LC - PV'!$P$2,LEFT(E263,1)="l"),"p2",IF(AND(LEFT(C263,3)="EIB",D263='UNC - EIB'!$T$2,LEFT(E263,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P263&lt;&gt;""),"e",IF(AND(LEFT(C263,3)="EIB",D263='UNC - EIB'!$T$2,LEFT(E263,1)="U",'UNC - EIB'!$R$2="usd",TH!O263&lt;&gt;""),"e1",IF(AND(LEFT(C263,3)="EIB",D263='LC - EIB'!$S$2,LEFT(E263,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A264" s="55" t="str">
+        <f>IF(AND(C264="pv",E264='UNC - PV'!$S$2,D264='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C264,3)="eib",E264='UNC - EIB'!$V$2,D264='UNC - EIB'!$T$2),"x1",IF(AND(C264="pv",E264='LC - PV'!$R$2,D264='LC - PV'!$P$2),"x2",IF(AND(LEFT(C264,3)="eib",E264='LC - EIB'!$U$2,D264='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B264" s="62">
+        <f t="shared" si="18"/>
+        <v>261</v>
+      </c>
+      <c r="C264" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D264" s="67">
+        <v>43095</v>
+      </c>
+      <c r="E264" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F264" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G264" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H264" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I264" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J264" s="66"/>
+      <c r="K264" s="67"/>
+      <c r="L264" s="65"/>
+      <c r="M264" s="65"/>
+      <c r="N264" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O264" s="68"/>
+      <c r="P264" s="69">
+        <v>3590000000</v>
+      </c>
+      <c r="Q264" s="104"/>
+      <c r="R264" s="131" t="str">
+        <f>IF(AND(C264="pv",D264='UNC - PV'!$Q$2,LEFT(E264,1)="u",'UNC - PV'!$O$2="vnđ",TH!P264&lt;&gt;""),"p",IF(AND(C264="pv",D264='UNC - PV'!$Q$2,LEFT(E264,1)="u",'UNC - PV'!$O$2="usd",TH!O264&lt;&gt;""),"p1",IF(AND(C264="pv",D264='LC - PV'!$P$2,LEFT(E264,1)="l"),"p2",IF(AND(LEFT(C264,3)="EIB",D264='UNC - EIB'!$T$2,LEFT(E264,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P264&lt;&gt;""),"e",IF(AND(LEFT(C264,3)="EIB",D264='UNC - EIB'!$T$2,LEFT(E264,1)="U",'UNC - EIB'!$R$2="usd",TH!O264&lt;&gt;""),"e1",IF(AND(LEFT(C264,3)="EIB",D264='LC - EIB'!$S$2,LEFT(E264,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A265" s="55" t="str">
+        <f>IF(AND(C265="pv",E265='UNC - PV'!$S$2,D265='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C265,3)="eib",E265='UNC - EIB'!$V$2,D265='UNC - EIB'!$T$2),"x1",IF(AND(C265="pv",E265='LC - PV'!$R$2,D265='LC - PV'!$P$2),"x2",IF(AND(LEFT(C265,3)="eib",E265='LC - EIB'!$U$2,D265='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B265" s="62">
+        <f t="shared" ref="B265" si="20">IF(C265&lt;&gt;"",ROW()-3,"")</f>
+        <v>262</v>
+      </c>
+      <c r="C265" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D265" s="67">
+        <v>43096</v>
+      </c>
+      <c r="E265" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F265" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G265" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H265" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I265" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J265" s="66"/>
+      <c r="K265" s="67"/>
+      <c r="L265" s="65"/>
+      <c r="M265" s="65"/>
+      <c r="N265" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O265" s="68">
+        <v>258500</v>
+      </c>
+      <c r="P265" s="69"/>
+      <c r="Q265" s="104"/>
+      <c r="R265" s="131" t="str">
+        <f>IF(AND(C265="pv",D265='UNC - PV'!$Q$2,LEFT(E265,1)="u",'UNC - PV'!$O$2="vnđ",TH!P265&lt;&gt;""),"p",IF(AND(C265="pv",D265='UNC - PV'!$Q$2,LEFT(E265,1)="u",'UNC - PV'!$O$2="usd",TH!O265&lt;&gt;""),"p1",IF(AND(C265="pv",D265='LC - PV'!$P$2,LEFT(E265,1)="l"),"p2",IF(AND(LEFT(C265,3)="EIB",D265='UNC - EIB'!$T$2,LEFT(E265,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P265&lt;&gt;""),"e",IF(AND(LEFT(C265,3)="EIB",D265='UNC - EIB'!$T$2,LEFT(E265,1)="U",'UNC - EIB'!$R$2="usd",TH!O265&lt;&gt;""),"e1",IF(AND(LEFT(C265,3)="EIB",D265='LC - EIB'!$S$2,LEFT(E265,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A266" s="55" t="str">
+        <f>IF(AND(C266="pv",E266='UNC - PV'!$S$2,D266='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C266,3)="eib",E266='UNC - EIB'!$V$2,D266='UNC - EIB'!$T$2),"x1",IF(AND(C266="pv",E266='LC - PV'!$R$2,D266='LC - PV'!$P$2),"x2",IF(AND(LEFT(C266,3)="eib",E266='LC - EIB'!$U$2,D266='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B266" s="62">
+        <f t="shared" si="18"/>
+        <v>263</v>
+      </c>
+      <c r="C266" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D266" s="67">
+        <v>43097</v>
+      </c>
+      <c r="E266" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F266" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G266" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H266" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I266" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J266" s="66"/>
+      <c r="K266" s="67"/>
+      <c r="L266" s="65"/>
+      <c r="M266" s="65"/>
+      <c r="N266" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="O266" s="68"/>
+      <c r="P266" s="69">
+        <v>5619134000</v>
+      </c>
+      <c r="Q266" s="104"/>
+      <c r="R266" s="131" t="str">
+        <f>IF(AND(C266="pv",D266='UNC - PV'!$Q$2,LEFT(E266,1)="u",'UNC - PV'!$O$2="vnđ",TH!P266&lt;&gt;""),"p",IF(AND(C266="pv",D266='UNC - PV'!$Q$2,LEFT(E266,1)="u",'UNC - PV'!$O$2="usd",TH!O266&lt;&gt;""),"p1",IF(AND(C266="pv",D266='LC - PV'!$P$2,LEFT(E266,1)="l"),"p2",IF(AND(LEFT(C266,3)="EIB",D266='UNC - EIB'!$T$2,LEFT(E266,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P266&lt;&gt;""),"e",IF(AND(LEFT(C266,3)="EIB",D266='UNC - EIB'!$T$2,LEFT(E266,1)="U",'UNC - EIB'!$R$2="usd",TH!O266&lt;&gt;""),"e1",IF(AND(LEFT(C266,3)="EIB",D266='LC - EIB'!$S$2,LEFT(E266,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A267" s="55" t="str">
+        <f>IF(AND(C267="pv",E267='UNC - PV'!$S$2,D267='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C267,3)="eib",E267='UNC - EIB'!$V$2,D267='UNC - EIB'!$T$2),"x1",IF(AND(C267="pv",E267='LC - PV'!$R$2,D267='LC - PV'!$P$2),"x2",IF(AND(LEFT(C267,3)="eib",E267='LC - EIB'!$U$2,D267='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B267" s="62">
+        <f t="shared" si="18"/>
+        <v>264</v>
+      </c>
+      <c r="C267" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D267" s="67">
+        <v>43097</v>
+      </c>
+      <c r="E267" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F267" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G267" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H267" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I267" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J267" s="56"/>
+      <c r="K267" s="67"/>
+      <c r="L267" s="65"/>
+      <c r="M267" s="65"/>
+      <c r="N267" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="O267" s="68"/>
+      <c r="P267" s="69">
+        <f>26200*22700</f>
+        <v>594740000</v>
+      </c>
+      <c r="Q267" s="104"/>
+      <c r="R267" s="131" t="str">
+        <f>IF(AND(C267="pv",D267='UNC - PV'!$Q$2,LEFT(E267,1)="u",'UNC - PV'!$O$2="vnđ",TH!P267&lt;&gt;""),"p",IF(AND(C267="pv",D267='UNC - PV'!$Q$2,LEFT(E267,1)="u",'UNC - PV'!$O$2="usd",TH!O267&lt;&gt;""),"p1",IF(AND(C267="pv",D267='LC - PV'!$P$2,LEFT(E267,1)="l"),"p2",IF(AND(LEFT(C267,3)="EIB",D267='UNC - EIB'!$T$2,LEFT(E267,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P267&lt;&gt;""),"e",IF(AND(LEFT(C267,3)="EIB",D267='UNC - EIB'!$T$2,LEFT(E267,1)="U",'UNC - EIB'!$R$2="usd",TH!O267&lt;&gt;""),"e1",IF(AND(LEFT(C267,3)="EIB",D267='LC - EIB'!$S$2,LEFT(E267,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A268" s="55" t="str">
+        <f>IF(AND(C268="pv",E268='UNC - PV'!$S$2,D268='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C268,3)="eib",E268='UNC - EIB'!$V$2,D268='UNC - EIB'!$T$2),"x1",IF(AND(C268="pv",E268='LC - PV'!$R$2,D268='LC - PV'!$P$2),"x2",IF(AND(LEFT(C268,3)="eib",E268='LC - EIB'!$U$2,D268='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B268" s="62">
+        <f t="shared" si="18"/>
+        <v>265</v>
+      </c>
+      <c r="C268" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D268" s="67">
+        <v>43098</v>
+      </c>
+      <c r="E268" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F268" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="G268" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="H268" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="I268" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="J268" s="66"/>
+      <c r="K268" s="67"/>
+      <c r="L268" s="65"/>
+      <c r="M268" s="65"/>
+      <c r="N268" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="O268" s="68"/>
+      <c r="P268" s="69">
+        <v>44307122</v>
+      </c>
+      <c r="Q268" s="104"/>
+      <c r="R268" s="131" t="str">
+        <f>IF(AND(C268="pv",D268='UNC - PV'!$Q$2,LEFT(E268,1)="u",'UNC - PV'!$O$2="vnđ",TH!P268&lt;&gt;""),"p",IF(AND(C268="pv",D268='UNC - PV'!$Q$2,LEFT(E268,1)="u",'UNC - PV'!$O$2="usd",TH!O268&lt;&gt;""),"p1",IF(AND(C268="pv",D268='LC - PV'!$P$2,LEFT(E268,1)="l"),"p2",IF(AND(LEFT(C268,3)="EIB",D268='UNC - EIB'!$T$2,LEFT(E268,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P268&lt;&gt;""),"e",IF(AND(LEFT(C268,3)="EIB",D268='UNC - EIB'!$T$2,LEFT(E268,1)="U",'UNC - EIB'!$R$2="usd",TH!O268&lt;&gt;""),"e1",IF(AND(LEFT(C268,3)="EIB",D268='LC - EIB'!$S$2,LEFT(E268,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A269" s="55" t="str">
+        <f>IF(AND(C269="pv",E269='UNC - PV'!$S$2,D269='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C269,3)="eib",E269='UNC - EIB'!$V$2,D269='UNC - EIB'!$T$2),"x1",IF(AND(C269="pv",E269='LC - PV'!$R$2,D269='LC - PV'!$P$2),"x2",IF(AND(LEFT(C269,3)="eib",E269='LC - EIB'!$U$2,D269='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B269" s="62">
+        <f t="shared" si="18"/>
+        <v>266</v>
+      </c>
+      <c r="C269" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D269" s="67">
+        <v>43098</v>
+      </c>
+      <c r="E269" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F269" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G269" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H269" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I269" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J269" s="56"/>
+      <c r="K269" s="67"/>
+      <c r="L269" s="65"/>
+      <c r="M269" s="65"/>
+      <c r="N269" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="O269" s="68"/>
+      <c r="P269" s="69">
+        <f>25080*22700</f>
+        <v>569316000</v>
+      </c>
+      <c r="Q269" s="104"/>
+      <c r="R269" s="131" t="str">
+        <f>IF(AND(C269="pv",D269='UNC - PV'!$Q$2,LEFT(E269,1)="u",'UNC - PV'!$O$2="vnđ",TH!P269&lt;&gt;""),"p",IF(AND(C269="pv",D269='UNC - PV'!$Q$2,LEFT(E269,1)="u",'UNC - PV'!$O$2="usd",TH!O269&lt;&gt;""),"p1",IF(AND(C269="pv",D269='LC - PV'!$P$2,LEFT(E269,1)="l"),"p2",IF(AND(LEFT(C269,3)="EIB",D269='UNC - EIB'!$T$2,LEFT(E269,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P269&lt;&gt;""),"e",IF(AND(LEFT(C269,3)="EIB",D269='UNC - EIB'!$T$2,LEFT(E269,1)="U",'UNC - EIB'!$R$2="usd",TH!O269&lt;&gt;""),"e1",IF(AND(LEFT(C269,3)="EIB",D269='LC - EIB'!$S$2,LEFT(E269,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A270" s="55" t="str">
+        <f>IF(AND(C270="pv",E270='UNC - PV'!$S$2,D270='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C270,3)="eib",E270='UNC - EIB'!$V$2,D270='UNC - EIB'!$T$2),"x1",IF(AND(C270="pv",E270='LC - PV'!$R$2,D270='LC - PV'!$P$2),"x2",IF(AND(LEFT(C270,3)="eib",E270='LC - EIB'!$U$2,D270='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B270" s="62">
+        <f t="shared" si="10"/>
+        <v>267</v>
+      </c>
+      <c r="C270" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D270" s="67">
+        <v>43098</v>
+      </c>
+      <c r="E270" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F270" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G270" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H270" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I270" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="J270" s="66"/>
+      <c r="K270" s="67"/>
+      <c r="L270" s="65"/>
+      <c r="M270" s="65"/>
+      <c r="N270" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="O270" s="68"/>
+      <c r="P270" s="69">
+        <f>30915720+25284270</f>
+        <v>56199990</v>
+      </c>
+      <c r="Q270" s="104"/>
+      <c r="R270" s="131" t="str">
+        <f>IF(AND(C270="pv",D270='UNC - PV'!$Q$2,LEFT(E270,1)="u",'UNC - PV'!$O$2="vnđ",TH!P270&lt;&gt;""),"p",IF(AND(C270="pv",D270='UNC - PV'!$Q$2,LEFT(E270,1)="u",'UNC - PV'!$O$2="usd",TH!O270&lt;&gt;""),"p1",IF(AND(C270="pv",D270='LC - PV'!$P$2,LEFT(E270,1)="l"),"p2",IF(AND(LEFT(C270,3)="EIB",D270='UNC - EIB'!$T$2,LEFT(E270,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P270&lt;&gt;""),"e",IF(AND(LEFT(C270,3)="EIB",D270='UNC - EIB'!$T$2,LEFT(E270,1)="U",'UNC - EIB'!$R$2="usd",TH!O270&lt;&gt;""),"e1",IF(AND(LEFT(C270,3)="EIB",D270='LC - EIB'!$S$2,LEFT(E270,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A271" s="55" t="str">
+        <f>IF(AND(C271="pv",E271='UNC - PV'!$S$2,D271='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C271,3)="eib",E271='UNC - EIB'!$V$2,D271='UNC - EIB'!$T$2),"x1",IF(AND(C271="pv",E271='LC - PV'!$R$2,D271='LC - PV'!$P$2),"x2",IF(AND(LEFT(C271,3)="eib",E271='LC - EIB'!$U$2,D271='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x1</v>
+      </c>
+      <c r="B271" s="62">
+        <f t="shared" si="10"/>
+        <v>268</v>
+      </c>
+      <c r="C271" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D271" s="67">
+        <v>43103</v>
+      </c>
+      <c r="E271" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F271" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G271" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H271" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I271" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J271" s="66"/>
+      <c r="K271" s="67"/>
+      <c r="L271" s="65"/>
+      <c r="M271" s="65"/>
+      <c r="N271" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="O271" s="68">
+        <v>98200</v>
+      </c>
+      <c r="P271" s="69"/>
+      <c r="Q271" s="104"/>
+      <c r="R271" s="131" t="str">
+        <f>IF(AND(C271="pv",D271='UNC - PV'!$Q$2,LEFT(E271,1)="u",'UNC - PV'!$O$2="vnđ",TH!P271&lt;&gt;""),"p",IF(AND(C271="pv",D271='UNC - PV'!$Q$2,LEFT(E271,1)="u",'UNC - PV'!$O$2="usd",TH!O271&lt;&gt;""),"p1",IF(AND(C271="pv",D271='LC - PV'!$P$2,LEFT(E271,1)="l"),"p2",IF(AND(LEFT(C271,3)="EIB",D271='UNC - EIB'!$T$2,LEFT(E271,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P271&lt;&gt;""),"e",IF(AND(LEFT(C271,3)="EIB",D271='UNC - EIB'!$T$2,LEFT(E271,1)="U",'UNC - EIB'!$R$2="usd",TH!O271&lt;&gt;""),"e1",IF(AND(LEFT(C271,3)="EIB",D271='LC - EIB'!$S$2,LEFT(E271,1)="l"),"e2",""))))))</f>
+        <v>e1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A272" s="55" t="str">
+        <f>IF(AND(C272="pv",E272='UNC - PV'!$S$2,D272='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C272,3)="eib",E272='UNC - EIB'!$V$2,D272='UNC - EIB'!$T$2),"x1",IF(AND(C272="pv",E272='LC - PV'!$R$2,D272='LC - PV'!$P$2),"x2",IF(AND(LEFT(C272,3)="eib",E272='LC - EIB'!$U$2,D272='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B272" s="62">
+        <f t="shared" si="10"/>
+        <v>269</v>
+      </c>
+      <c r="C272" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D272" s="67">
+        <v>43104</v>
+      </c>
+      <c r="E272" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F272" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G272" s="71" t="s">
+        <v>441</v>
+      </c>
+      <c r="H272" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="I272" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="J272" s="66"/>
+      <c r="K272" s="67"/>
+      <c r="L272" s="65"/>
+      <c r="M272" s="65"/>
+      <c r="N272" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="O272" s="68"/>
+      <c r="P272" s="69">
+        <f>32898*39500</f>
+        <v>1299471000</v>
+      </c>
+      <c r="Q272" s="104"/>
+      <c r="R272" s="131" t="str">
+        <f>IF(AND(C272="pv",D272='UNC - PV'!$Q$2,LEFT(E272,1)="u",'UNC - PV'!$O$2="vnđ",TH!P272&lt;&gt;""),"p",IF(AND(C272="pv",D272='UNC - PV'!$Q$2,LEFT(E272,1)="u",'UNC - PV'!$O$2="usd",TH!O272&lt;&gt;""),"p1",IF(AND(C272="pv",D272='LC - PV'!$P$2,LEFT(E272,1)="l"),"p2",IF(AND(LEFT(C272,3)="EIB",D272='UNC - EIB'!$T$2,LEFT(E272,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P272&lt;&gt;""),"e",IF(AND(LEFT(C272,3)="EIB",D272='UNC - EIB'!$T$2,LEFT(E272,1)="U",'UNC - EIB'!$R$2="usd",TH!O272&lt;&gt;""),"e1",IF(AND(LEFT(C272,3)="EIB",D272='LC - EIB'!$S$2,LEFT(E272,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A273" s="55" t="str">
+        <f>IF(AND(C273="pv",E273='UNC - PV'!$S$2,D273='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C273,3)="eib",E273='UNC - EIB'!$V$2,D273='UNC - EIB'!$T$2),"x1",IF(AND(C273="pv",E273='LC - PV'!$R$2,D273='LC - PV'!$P$2),"x2",IF(AND(LEFT(C273,3)="eib",E273='LC - EIB'!$U$2,D273='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B273" s="62">
+        <f t="shared" si="10"/>
+        <v>270</v>
+      </c>
+      <c r="C273" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D273" s="67">
+        <v>43104</v>
+      </c>
+      <c r="E273" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F273" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G273" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H273" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I273" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J273" s="56"/>
+      <c r="K273" s="67"/>
+      <c r="L273" s="65"/>
+      <c r="M273" s="65"/>
+      <c r="N273" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="O273" s="68"/>
+      <c r="P273" s="69">
+        <f>48700*22699</f>
+        <v>1105441300</v>
+      </c>
+      <c r="Q273" s="104"/>
+      <c r="R273" s="131" t="str">
+        <f>IF(AND(C273="pv",D273='UNC - PV'!$Q$2,LEFT(E273,1)="u",'UNC - PV'!$O$2="vnđ",TH!P273&lt;&gt;""),"p",IF(AND(C273="pv",D273='UNC - PV'!$Q$2,LEFT(E273,1)="u",'UNC - PV'!$O$2="usd",TH!O273&lt;&gt;""),"p1",IF(AND(C273="pv",D273='LC - PV'!$P$2,LEFT(E273,1)="l"),"p2",IF(AND(LEFT(C273,3)="EIB",D273='UNC - EIB'!$T$2,LEFT(E273,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P273&lt;&gt;""),"e",IF(AND(LEFT(C273,3)="EIB",D273='UNC - EIB'!$T$2,LEFT(E273,1)="U",'UNC - EIB'!$R$2="usd",TH!O273&lt;&gt;""),"e1",IF(AND(LEFT(C273,3)="EIB",D273='LC - EIB'!$S$2,LEFT(E273,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A274" s="55" t="str">
+        <f>IF(AND(C274="pv",E274='UNC - PV'!$S$2,D274='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C274,3)="eib",E274='UNC - EIB'!$V$2,D274='UNC - EIB'!$T$2),"x1",IF(AND(C274="pv",E274='LC - PV'!$R$2,D274='LC - PV'!$P$2),"x2",IF(AND(LEFT(C274,3)="eib",E274='LC - EIB'!$U$2,D274='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B274" s="62">
+        <f t="shared" si="10"/>
+        <v>271</v>
+      </c>
+      <c r="C274" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D274" s="67">
+        <v>43105</v>
+      </c>
+      <c r="E274" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F274" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G274" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H274" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I274" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J274" s="56"/>
+      <c r="K274" s="67"/>
+      <c r="L274" s="65"/>
+      <c r="M274" s="65"/>
+      <c r="N274" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="O274" s="68"/>
+      <c r="P274" s="69">
+        <f>63000*22707</f>
+        <v>1430541000</v>
+      </c>
+      <c r="Q274" s="104"/>
+      <c r="R274" s="131" t="str">
+        <f>IF(AND(C274="pv",D274='UNC - PV'!$Q$2,LEFT(E274,1)="u",'UNC - PV'!$O$2="vnđ",TH!P274&lt;&gt;""),"p",IF(AND(C274="pv",D274='UNC - PV'!$Q$2,LEFT(E274,1)="u",'UNC - PV'!$O$2="usd",TH!O274&lt;&gt;""),"p1",IF(AND(C274="pv",D274='LC - PV'!$P$2,LEFT(E274,1)="l"),"p2",IF(AND(LEFT(C274,3)="EIB",D274='UNC - EIB'!$T$2,LEFT(E274,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P274&lt;&gt;""),"e",IF(AND(LEFT(C274,3)="EIB",D274='UNC - EIB'!$T$2,LEFT(E274,1)="U",'UNC - EIB'!$R$2="usd",TH!O274&lt;&gt;""),"e1",IF(AND(LEFT(C274,3)="EIB",D274='LC - EIB'!$S$2,LEFT(E274,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A275" s="55" t="str">
+        <f>IF(AND(C275="pv",E275='UNC - PV'!$S$2,D275='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C275,3)="eib",E275='UNC - EIB'!$V$2,D275='UNC - EIB'!$T$2),"x1",IF(AND(C275="pv",E275='LC - PV'!$R$2,D275='LC - PV'!$P$2),"x2",IF(AND(LEFT(C275,3)="eib",E275='LC - EIB'!$U$2,D275='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B275" s="62">
+        <f t="shared" si="10"/>
+        <v>272</v>
+      </c>
+      <c r="C275" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D275" s="67">
+        <v>43115</v>
+      </c>
+      <c r="E275" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F275" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G275" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H275" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I275" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J275" s="56"/>
+      <c r="K275" s="67"/>
+      <c r="L275" s="65"/>
+      <c r="M275" s="65"/>
+      <c r="N275" s="64" t="s">
+        <v>471</v>
+      </c>
+      <c r="O275" s="68"/>
+      <c r="P275" s="69">
+        <f>83500*22700</f>
+        <v>1895450000</v>
+      </c>
+      <c r="Q275" s="104"/>
+      <c r="R275" s="131" t="str">
+        <f>IF(AND(C275="pv",D275='UNC - PV'!$Q$2,LEFT(E275,1)="u",'UNC - PV'!$O$2="vnđ",TH!P275&lt;&gt;""),"p",IF(AND(C275="pv",D275='UNC - PV'!$Q$2,LEFT(E275,1)="u",'UNC - PV'!$O$2="usd",TH!O275&lt;&gt;""),"p1",IF(AND(C275="pv",D275='LC - PV'!$P$2,LEFT(E275,1)="l"),"p2",IF(AND(LEFT(C275,3)="EIB",D275='UNC - EIB'!$T$2,LEFT(E275,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P275&lt;&gt;""),"e",IF(AND(LEFT(C275,3)="EIB",D275='UNC - EIB'!$T$2,LEFT(E275,1)="U",'UNC - EIB'!$R$2="usd",TH!O275&lt;&gt;""),"e1",IF(AND(LEFT(C275,3)="EIB",D275='LC - EIB'!$S$2,LEFT(E275,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A276" s="55" t="str">
+        <f>IF(AND(C276="pv",E276='UNC - PV'!$S$2,D276='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C276,3)="eib",E276='UNC - EIB'!$V$2,D276='UNC - EIB'!$T$2),"x1",IF(AND(C276="pv",E276='LC - PV'!$R$2,D276='LC - PV'!$P$2),"x2",IF(AND(LEFT(C276,3)="eib",E276='LC - EIB'!$U$2,D276='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B276" s="62">
+        <f t="shared" ref="B276:B281" si="21">IF(C276&lt;&gt;"",ROW()-3,"")</f>
+        <v>273</v>
+      </c>
+      <c r="C276" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D276" s="67">
+        <v>43118</v>
+      </c>
+      <c r="E276" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F276" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G276" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H276" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I276" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J276" s="56"/>
+      <c r="K276" s="67"/>
+      <c r="L276" s="65"/>
+      <c r="M276" s="65"/>
+      <c r="N276" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="O276" s="68"/>
+      <c r="P276" s="69">
+        <f>56000*22704</f>
+        <v>1271424000</v>
+      </c>
+      <c r="Q276" s="104"/>
+      <c r="R276" s="131" t="str">
+        <f>IF(AND(C276="pv",D276='UNC - PV'!$Q$2,LEFT(E276,1)="u",'UNC - PV'!$O$2="vnđ",TH!P276&lt;&gt;""),"p",IF(AND(C276="pv",D276='UNC - PV'!$Q$2,LEFT(E276,1)="u",'UNC - PV'!$O$2="usd",TH!O276&lt;&gt;""),"p1",IF(AND(C276="pv",D276='LC - PV'!$P$2,LEFT(E276,1)="l"),"p2",IF(AND(LEFT(C276,3)="EIB",D276='UNC - EIB'!$T$2,LEFT(E276,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P276&lt;&gt;""),"e",IF(AND(LEFT(C276,3)="EIB",D276='UNC - EIB'!$T$2,LEFT(E276,1)="U",'UNC - EIB'!$R$2="usd",TH!O276&lt;&gt;""),"e1",IF(AND(LEFT(C276,3)="EIB",D276='LC - EIB'!$S$2,LEFT(E276,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A277" s="55" t="str">
+        <f>IF(AND(C277="pv",E277='UNC - PV'!$S$2,D277='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C277,3)="eib",E277='UNC - EIB'!$V$2,D277='UNC - EIB'!$T$2),"x1",IF(AND(C277="pv",E277='LC - PV'!$R$2,D277='LC - PV'!$P$2),"x2",IF(AND(LEFT(C277,3)="eib",E277='LC - EIB'!$U$2,D277='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x</v>
+      </c>
+      <c r="B277" s="62">
+        <f t="shared" si="21"/>
+        <v>274</v>
+      </c>
+      <c r="C277" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D277" s="67">
+        <v>43119</v>
+      </c>
+      <c r="E277" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F277" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G277" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="H277" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I277" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J277" s="66"/>
+      <c r="K277" s="67"/>
+      <c r="L277" s="65"/>
+      <c r="M277" s="65"/>
+      <c r="N277" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="O277" s="68"/>
+      <c r="P277" s="69">
+        <v>500000000</v>
+      </c>
+      <c r="Q277" s="104"/>
+      <c r="R277" s="131" t="str">
+        <f>IF(AND(C277="pv",D277='UNC - PV'!$Q$2,LEFT(E277,1)="u",'UNC - PV'!$O$2="vnđ",TH!P277&lt;&gt;""),"p",IF(AND(C277="pv",D277='UNC - PV'!$Q$2,LEFT(E277,1)="u",'UNC - PV'!$O$2="usd",TH!O277&lt;&gt;""),"p1",IF(AND(C277="pv",D277='LC - PV'!$P$2,LEFT(E277,1)="l"),"p2",IF(AND(LEFT(C277,3)="EIB",D277='UNC - EIB'!$T$2,LEFT(E277,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P277&lt;&gt;""),"e",IF(AND(LEFT(C277,3)="EIB",D277='UNC - EIB'!$T$2,LEFT(E277,1)="U",'UNC - EIB'!$R$2="usd",TH!O277&lt;&gt;""),"e1",IF(AND(LEFT(C277,3)="EIB",D277='LC - EIB'!$S$2,LEFT(E277,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A278" s="55" t="str">
+        <f>IF(AND(C278="pv",E278='UNC - PV'!$S$2,D278='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C278,3)="eib",E278='UNC - EIB'!$V$2,D278='UNC - EIB'!$T$2),"x1",IF(AND(C278="pv",E278='LC - PV'!$R$2,D278='LC - PV'!$P$2),"x2",IF(AND(LEFT(C278,3)="eib",E278='LC - EIB'!$U$2,D278='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B278" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C278" s="62"/>
+      <c r="D278" s="67"/>
+      <c r="E278" s="65"/>
+      <c r="F278" s="64"/>
+      <c r="G278" s="64"/>
+      <c r="H278" s="64"/>
+      <c r="I278" s="65"/>
+      <c r="J278" s="66"/>
+      <c r="K278" s="67"/>
+      <c r="L278" s="65"/>
+      <c r="M278" s="65"/>
+      <c r="N278" s="64"/>
+      <c r="O278" s="68"/>
+      <c r="P278" s="69"/>
+      <c r="Q278" s="104"/>
+      <c r="R278" s="131" t="str">
+        <f>IF(AND(C278="pv",D278='UNC - PV'!$Q$2,LEFT(E278,1)="u",'UNC - PV'!$O$2="vnđ",TH!P278&lt;&gt;""),"p",IF(AND(C278="pv",D278='UNC - PV'!$Q$2,LEFT(E278,1)="u",'UNC - PV'!$O$2="usd",TH!O278&lt;&gt;""),"p1",IF(AND(C278="pv",D278='LC - PV'!$P$2,LEFT(E278,1)="l"),"p2",IF(AND(LEFT(C278,3)="EIB",D278='UNC - EIB'!$T$2,LEFT(E278,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P278&lt;&gt;""),"e",IF(AND(LEFT(C278,3)="EIB",D278='UNC - EIB'!$T$2,LEFT(E278,1)="U",'UNC - EIB'!$R$2="usd",TH!O278&lt;&gt;""),"e1",IF(AND(LEFT(C278,3)="EIB",D278='LC - EIB'!$S$2,LEFT(E278,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A279" s="55" t="str">
+        <f>IF(AND(C279="pv",E279='UNC - PV'!$S$2,D279='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C279,3)="eib",E279='UNC - EIB'!$V$2,D279='UNC - EIB'!$T$2),"x1",IF(AND(C279="pv",E279='LC - PV'!$R$2,D279='LC - PV'!$P$2),"x2",IF(AND(LEFT(C279,3)="eib",E279='LC - EIB'!$U$2,D279='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B279" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C279" s="62"/>
+      <c r="D279" s="67"/>
+      <c r="E279" s="65"/>
+      <c r="F279" s="64"/>
+      <c r="G279" s="64"/>
+      <c r="H279" s="64"/>
+      <c r="I279" s="65"/>
+      <c r="J279" s="66"/>
+      <c r="K279" s="67"/>
+      <c r="L279" s="65"/>
+      <c r="M279" s="65"/>
+      <c r="N279" s="64"/>
+      <c r="O279" s="68"/>
+      <c r="P279" s="69"/>
+      <c r="Q279" s="104"/>
+      <c r="R279" s="131" t="str">
+        <f>IF(AND(C279="pv",D279='UNC - PV'!$Q$2,LEFT(E279,1)="u",'UNC - PV'!$O$2="vnđ",TH!P279&lt;&gt;""),"p",IF(AND(C279="pv",D279='UNC - PV'!$Q$2,LEFT(E279,1)="u",'UNC - PV'!$O$2="usd",TH!O279&lt;&gt;""),"p1",IF(AND(C279="pv",D279='LC - PV'!$P$2,LEFT(E279,1)="l"),"p2",IF(AND(LEFT(C279,3)="EIB",D279='UNC - EIB'!$T$2,LEFT(E279,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P279&lt;&gt;""),"e",IF(AND(LEFT(C279,3)="EIB",D279='UNC - EIB'!$T$2,LEFT(E279,1)="U",'UNC - EIB'!$R$2="usd",TH!O279&lt;&gt;""),"e1",IF(AND(LEFT(C279,3)="EIB",D279='LC - EIB'!$S$2,LEFT(E279,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A280" s="55" t="str">
+        <f>IF(AND(C280="pv",E280='UNC - PV'!$S$2,D280='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C280,3)="eib",E280='UNC - EIB'!$V$2,D280='UNC - EIB'!$T$2),"x1",IF(AND(C280="pv",E280='LC - PV'!$R$2,D280='LC - PV'!$P$2),"x2",IF(AND(LEFT(C280,3)="eib",E280='LC - EIB'!$U$2,D280='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B280" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C280" s="62"/>
+      <c r="D280" s="67"/>
+      <c r="E280" s="65"/>
+      <c r="F280" s="64"/>
+      <c r="G280" s="64"/>
+      <c r="H280" s="64"/>
+      <c r="I280" s="65"/>
+      <c r="J280" s="66"/>
+      <c r="K280" s="67"/>
+      <c r="L280" s="65"/>
+      <c r="M280" s="65"/>
+      <c r="N280" s="64"/>
+      <c r="O280" s="68"/>
+      <c r="P280" s="69"/>
+      <c r="Q280" s="104"/>
+      <c r="R280" s="131" t="str">
+        <f>IF(AND(C280="pv",D280='UNC - PV'!$Q$2,LEFT(E280,1)="u",'UNC - PV'!$O$2="vnđ",TH!P280&lt;&gt;""),"p",IF(AND(C280="pv",D280='UNC - PV'!$Q$2,LEFT(E280,1)="u",'UNC - PV'!$O$2="usd",TH!O280&lt;&gt;""),"p1",IF(AND(C280="pv",D280='LC - PV'!$P$2,LEFT(E280,1)="l"),"p2",IF(AND(LEFT(C280,3)="EIB",D280='UNC - EIB'!$T$2,LEFT(E280,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P280&lt;&gt;""),"e",IF(AND(LEFT(C280,3)="EIB",D280='UNC - EIB'!$T$2,LEFT(E280,1)="U",'UNC - EIB'!$R$2="usd",TH!O280&lt;&gt;""),"e1",IF(AND(LEFT(C280,3)="EIB",D280='LC - EIB'!$S$2,LEFT(E280,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A281" s="55" t="str">
+        <f>IF(AND(C281="pv",E281='UNC - PV'!$S$2,D281='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C281,3)="eib",E281='UNC - EIB'!$V$2,D281='UNC - EIB'!$T$2),"x1",IF(AND(C281="pv",E281='LC - PV'!$R$2,D281='LC - PV'!$P$2),"x2",IF(AND(LEFT(C281,3)="eib",E281='LC - EIB'!$U$2,D281='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B281" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C281" s="62"/>
+      <c r="D281" s="67"/>
+      <c r="E281" s="65"/>
+      <c r="F281" s="64"/>
+      <c r="G281" s="64"/>
+      <c r="H281" s="64"/>
+      <c r="I281" s="65"/>
+      <c r="J281" s="66"/>
+      <c r="K281" s="67"/>
+      <c r="L281" s="65"/>
+      <c r="M281" s="65"/>
+      <c r="N281" s="64"/>
+      <c r="O281" s="68"/>
+      <c r="P281" s="69"/>
+      <c r="Q281" s="104"/>
+      <c r="R281" s="131" t="str">
+        <f>IF(AND(C281="pv",D281='UNC - PV'!$Q$2,LEFT(E281,1)="u",'UNC - PV'!$O$2="vnđ",TH!P281&lt;&gt;""),"p",IF(AND(C281="pv",D281='UNC - PV'!$Q$2,LEFT(E281,1)="u",'UNC - PV'!$O$2="usd",TH!O281&lt;&gt;""),"p1",IF(AND(C281="pv",D281='LC - PV'!$P$2,LEFT(E281,1)="l"),"p2",IF(AND(LEFT(C281,3)="EIB",D281='UNC - EIB'!$T$2,LEFT(E281,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P281&lt;&gt;""),"e",IF(AND(LEFT(C281,3)="EIB",D281='UNC - EIB'!$T$2,LEFT(E281,1)="U",'UNC - EIB'!$R$2="usd",TH!O281&lt;&gt;""),"e1",IF(AND(LEFT(C281,3)="EIB",D281='LC - EIB'!$S$2,LEFT(E281,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A282" s="55" t="str">
+        <f>IF(AND(C282="pv",E282='UNC - PV'!$S$2,D282='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C282,3)="eib",E282='UNC - EIB'!$V$2,D282='UNC - EIB'!$T$2),"x1",IF(AND(C282="pv",E282='LC - PV'!$R$2,D282='LC - PV'!$P$2),"x2",IF(AND(LEFT(C282,3)="eib",E282='LC - EIB'!$U$2,D282='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B282" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C282" s="62"/>
+      <c r="D282" s="67"/>
+      <c r="E282" s="65"/>
+      <c r="F282" s="64"/>
+      <c r="G282" s="64"/>
+      <c r="H282" s="64"/>
+      <c r="I282" s="65"/>
+      <c r="J282" s="66"/>
+      <c r="K282" s="67"/>
+      <c r="L282" s="65"/>
+      <c r="M282" s="65"/>
+      <c r="N282" s="64"/>
+      <c r="O282" s="68"/>
+      <c r="P282" s="69"/>
+      <c r="Q282" s="104"/>
+      <c r="R282" s="131" t="str">
+        <f>IF(AND(C282="pv",D282='UNC - PV'!$Q$2,LEFT(E282,1)="u",'UNC - PV'!$O$2="vnđ",TH!P282&lt;&gt;""),"p",IF(AND(C282="pv",D282='UNC - PV'!$Q$2,LEFT(E282,1)="u",'UNC - PV'!$O$2="usd",TH!O282&lt;&gt;""),"p1",IF(AND(C282="pv",D282='LC - PV'!$P$2,LEFT(E282,1)="l"),"p2",IF(AND(LEFT(C282,3)="EIB",D282='UNC - EIB'!$T$2,LEFT(E282,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P282&lt;&gt;""),"e",IF(AND(LEFT(C282,3)="EIB",D282='UNC - EIB'!$T$2,LEFT(E282,1)="U",'UNC - EIB'!$R$2="usd",TH!O282&lt;&gt;""),"e1",IF(AND(LEFT(C282,3)="EIB",D282='LC - EIB'!$S$2,LEFT(E282,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A283" s="55" t="str">
+        <f>IF(AND(C283="pv",E283='UNC - PV'!$S$2,D283='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C283,3)="eib",E283='UNC - EIB'!$V$2,D283='UNC - EIB'!$T$2),"x1",IF(AND(C283="pv",E283='LC - PV'!$R$2,D283='LC - PV'!$P$2),"x2",IF(AND(LEFT(C283,3)="eib",E283='LC - EIB'!$U$2,D283='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B283" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C283" s="62"/>
+      <c r="D283" s="67"/>
+      <c r="E283" s="65"/>
+      <c r="F283" s="64"/>
+      <c r="G283" s="64"/>
+      <c r="H283" s="64"/>
+      <c r="I283" s="65"/>
+      <c r="J283" s="66"/>
+      <c r="K283" s="67"/>
+      <c r="L283" s="65"/>
+      <c r="M283" s="65"/>
+      <c r="N283" s="64"/>
+      <c r="O283" s="68"/>
+      <c r="P283" s="69"/>
+      <c r="Q283" s="104"/>
+      <c r="R283" s="131" t="str">
+        <f>IF(AND(C283="pv",D283='UNC - PV'!$Q$2,LEFT(E283,1)="u",'UNC - PV'!$O$2="vnđ",TH!P283&lt;&gt;""),"p",IF(AND(C283="pv",D283='UNC - PV'!$Q$2,LEFT(E283,1)="u",'UNC - PV'!$O$2="usd",TH!O283&lt;&gt;""),"p1",IF(AND(C283="pv",D283='LC - PV'!$P$2,LEFT(E283,1)="l"),"p2",IF(AND(LEFT(C283,3)="EIB",D283='UNC - EIB'!$T$2,LEFT(E283,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P283&lt;&gt;""),"e",IF(AND(LEFT(C283,3)="EIB",D283='UNC - EIB'!$T$2,LEFT(E283,1)="U",'UNC - EIB'!$R$2="usd",TH!O283&lt;&gt;""),"e1",IF(AND(LEFT(C283,3)="EIB",D283='LC - EIB'!$S$2,LEFT(E283,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A284" s="55" t="str">
+        <f>IF(AND(C284="pv",E284='UNC - PV'!$S$2,D284='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C284,3)="eib",E284='UNC - EIB'!$V$2,D284='UNC - EIB'!$T$2),"x1",IF(AND(C284="pv",E284='LC - PV'!$R$2,D284='LC - PV'!$P$2),"x2",IF(AND(LEFT(C284,3)="eib",E284='LC - EIB'!$U$2,D284='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B284" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C284" s="62"/>
+      <c r="D284" s="67"/>
+      <c r="E284" s="65"/>
+      <c r="F284" s="64"/>
+      <c r="G284" s="64"/>
+      <c r="H284" s="64"/>
+      <c r="I284" s="65"/>
+      <c r="J284" s="66"/>
+      <c r="K284" s="67"/>
+      <c r="L284" s="65"/>
+      <c r="M284" s="65"/>
+      <c r="N284" s="64"/>
+      <c r="O284" s="68"/>
+      <c r="P284" s="69"/>
+      <c r="Q284" s="104"/>
+      <c r="R284" s="131" t="str">
+        <f>IF(AND(C284="pv",D284='UNC - PV'!$Q$2,LEFT(E284,1)="u",'UNC - PV'!$O$2="vnđ",TH!P284&lt;&gt;""),"p",IF(AND(C284="pv",D284='UNC - PV'!$Q$2,LEFT(E284,1)="u",'UNC - PV'!$O$2="usd",TH!O284&lt;&gt;""),"p1",IF(AND(C284="pv",D284='LC - PV'!$P$2,LEFT(E284,1)="l"),"p2",IF(AND(LEFT(C284,3)="EIB",D284='UNC - EIB'!$T$2,LEFT(E284,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P284&lt;&gt;""),"e",IF(AND(LEFT(C284,3)="EIB",D284='UNC - EIB'!$T$2,LEFT(E284,1)="U",'UNC - EIB'!$R$2="usd",TH!O284&lt;&gt;""),"e1",IF(AND(LEFT(C284,3)="EIB",D284='LC - EIB'!$S$2,LEFT(E284,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A285" s="55" t="str">
+        <f>IF(AND(C285="pv",E285='UNC - PV'!$S$2,D285='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C285,3)="eib",E285='UNC - EIB'!$V$2,D285='UNC - EIB'!$T$2),"x1",IF(AND(C285="pv",E285='LC - PV'!$R$2,D285='LC - PV'!$P$2),"x2",IF(AND(LEFT(C285,3)="eib",E285='LC - EIB'!$U$2,D285='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B285" s="62" t="str">
+        <f t="shared" ref="B285" si="22">IF(C285&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C285" s="62"/>
+      <c r="D285" s="67"/>
+      <c r="E285" s="65"/>
+      <c r="F285" s="64"/>
+      <c r="G285" s="64"/>
+      <c r="H285" s="64"/>
+      <c r="I285" s="65"/>
+      <c r="J285" s="66"/>
+      <c r="K285" s="67"/>
+      <c r="L285" s="65"/>
+      <c r="M285" s="65"/>
+      <c r="N285" s="64"/>
+      <c r="O285" s="68"/>
+      <c r="P285" s="69"/>
+      <c r="Q285" s="104"/>
+      <c r="R285" s="131" t="str">
+        <f>IF(AND(C285="pv",D285='UNC - PV'!$Q$2,LEFT(E285,1)="u",'UNC - PV'!$O$2="vnđ",TH!P285&lt;&gt;""),"p",IF(AND(C285="pv",D285='UNC - PV'!$Q$2,LEFT(E285,1)="u",'UNC - PV'!$O$2="usd",TH!O285&lt;&gt;""),"p1",IF(AND(C285="pv",D285='LC - PV'!$P$2,LEFT(E285,1)="l"),"p2",IF(AND(LEFT(C285,3)="EIB",D285='UNC - EIB'!$T$2,LEFT(E285,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P285&lt;&gt;""),"e",IF(AND(LEFT(C285,3)="EIB",D285='UNC - EIB'!$T$2,LEFT(E285,1)="U",'UNC - EIB'!$R$2="usd",TH!O285&lt;&gt;""),"e1",IF(AND(LEFT(C285,3)="EIB",D285='LC - EIB'!$S$2,LEFT(E285,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A286" s="55" t="str">
+        <f>IF(AND(C286="pv",E286='UNC - PV'!$S$2,D286='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C286,3)="eib",E286='UNC - EIB'!$V$2,D286='UNC - EIB'!$T$2),"x1",IF(AND(C286="pv",E286='LC - PV'!$R$2,D286='LC - PV'!$P$2),"x2",IF(AND(LEFT(C286,3)="eib",E286='LC - EIB'!$U$2,D286='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B286" s="62" t="str">
+        <f t="shared" ref="B286" si="23">IF(C286&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C286" s="62"/>
+      <c r="D286" s="67"/>
+      <c r="E286" s="65"/>
+      <c r="F286" s="64"/>
+      <c r="G286" s="64"/>
+      <c r="H286" s="64"/>
+      <c r="I286" s="65"/>
+      <c r="J286" s="66"/>
+      <c r="K286" s="67"/>
+      <c r="L286" s="65"/>
+      <c r="M286" s="65"/>
+      <c r="N286" s="64"/>
+      <c r="O286" s="68"/>
+      <c r="P286" s="69"/>
+      <c r="Q286" s="104"/>
+      <c r="R286" s="131" t="str">
+        <f>IF(AND(C286="pv",D286='UNC - PV'!$Q$2,LEFT(E286,1)="u",'UNC - PV'!$O$2="vnđ",TH!P286&lt;&gt;""),"p",IF(AND(C286="pv",D286='UNC - PV'!$Q$2,LEFT(E286,1)="u",'UNC - PV'!$O$2="usd",TH!O286&lt;&gt;""),"p1",IF(AND(C286="pv",D286='LC - PV'!$P$2,LEFT(E286,1)="l"),"p2",IF(AND(LEFT(C286,3)="EIB",D286='UNC - EIB'!$T$2,LEFT(E286,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P286&lt;&gt;""),"e",IF(AND(LEFT(C286,3)="EIB",D286='UNC - EIB'!$T$2,LEFT(E286,1)="U",'UNC - EIB'!$R$2="usd",TH!O286&lt;&gt;""),"e1",IF(AND(LEFT(C286,3)="EIB",D286='LC - EIB'!$S$2,LEFT(E286,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A287" s="55" t="str">
+        <f>IF(AND(C287="pv",E287='UNC - PV'!$S$2,D287='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C287,3)="eib",E287='UNC - EIB'!$V$2,D287='UNC - EIB'!$T$2),"x1",IF(AND(C287="pv",E287='LC - PV'!$R$2,D287='LC - PV'!$P$2),"x2",IF(AND(LEFT(C287,3)="eib",E287='LC - EIB'!$U$2,D287='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B287" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C287" s="62"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="65"/>
+      <c r="F287" s="64"/>
+      <c r="G287" s="64"/>
+      <c r="H287" s="64"/>
+      <c r="I287" s="65"/>
+      <c r="J287" s="66"/>
+      <c r="K287" s="67"/>
+      <c r="L287" s="65"/>
+      <c r="M287" s="65"/>
+      <c r="N287" s="64"/>
+      <c r="O287" s="68"/>
+      <c r="P287" s="69"/>
+      <c r="Q287" s="104"/>
+      <c r="R287" s="131" t="str">
+        <f>IF(AND(C287="pv",D287='UNC - PV'!$Q$2,LEFT(E287,1)="u",'UNC - PV'!$O$2="vnđ",TH!P287&lt;&gt;""),"p",IF(AND(C287="pv",D287='UNC - PV'!$Q$2,LEFT(E287,1)="u",'UNC - PV'!$O$2="usd",TH!O287&lt;&gt;""),"p1",IF(AND(C287="pv",D287='LC - PV'!$P$2,LEFT(E287,1)="l"),"p2",IF(AND(LEFT(C287,3)="EIB",D287='UNC - EIB'!$T$2,LEFT(E287,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P287&lt;&gt;""),"e",IF(AND(LEFT(C287,3)="EIB",D287='UNC - EIB'!$T$2,LEFT(E287,1)="U",'UNC - EIB'!$R$2="usd",TH!O287&lt;&gt;""),"e1",IF(AND(LEFT(C287,3)="EIB",D287='LC - EIB'!$S$2,LEFT(E287,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X244"/>
+  <autoFilter ref="B3:X288"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -14721,12 +17096,12 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C243">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C287">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14739,7 +17114,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14769,20 +17144,20 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p1</v>
+        <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>43034</v>
+        <v>43119</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
@@ -14794,31 +17169,31 @@
     <row r="6" spans="1:19" ht="17.25" customHeight="1">
       <c r="E6" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    1    0    0   0    2    6    8    6    1    4</v>
+        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F7" s="143">
+      <c r="F7" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4000</v>
-      </c>
-      <c r="G7" s="143"/>
+        <v>500000000</v>
+      </c>
+      <c r="G7" s="180"/>
       <c r="K7" s="1" t="str">
         <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>IF(O2="usd","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn ngàn đô la mỹ.</v>
+        <v>Năm trăm triệu đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -14829,13 +17204,13 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển USD</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
       <c r="F12" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -14847,13 +17222,13 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>125 759 122</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -14879,11 +17254,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14903,39 +17278,28 @@
     <col min="13" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="6"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
         <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
-        <v>43011</v>
-      </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1"/>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:15" ht="19.5" customHeight="1"/>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1">
+    <row r="5" spans="1:15" ht="17.25" customHeight="1">
       <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
         <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
@@ -14944,12 +17308,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F6" s="143">
+    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+      <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="143"/>
+        <v>500000000</v>
+      </c>
+      <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
         <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
         <v>x</v>
@@ -14959,45 +17323,45 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1">
+    <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Không đồng.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1">
+        <v>Năm trăm triệu đồng.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1">
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="21" customHeight="1">
+    <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển USD</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="25.5" customHeight="1">
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="25.5" customHeight="1">
       <c r="F11" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="13" spans="1:19" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:19" ht="24" customHeight="1">
+    <row r="12" spans="1:15" ht="17.25" customHeight="1"/>
+    <row r="13" spans="1:15" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:15" ht="24" customHeight="1">
       <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>125 759 122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1">
+        <v>0531002503669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -15005,12 +17369,9 @@
   <mergeCells count="1">
     <mergeCell ref="F6:G6"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
       <formula1>"USD,VNĐ,TAMP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>OFFSET(INDIRECT(ADDRESS(MATCH(A1,N_1,0)+3,5,,,"TH")),0,0,COUNTIF(N_1,A1),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -15023,11 +17384,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15037,48 +17398,38 @@
     <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="6"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
         <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="10">
-        <v>43011</v>
-      </c>
-      <c r="R2" s="11"/>
-      <c r="S2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="18.75" customHeight="1">
+    </row>
+    <row r="3" spans="1:15" ht="23.25" customHeight="1"/>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1">
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
         <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
@@ -15087,12 +17438,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="22.5" customHeight="1">
-      <c r="F6" s="143">
+    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+      <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="143"/>
+        <v>500000000</v>
+      </c>
+      <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
         <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
         <v>x</v>
@@ -15102,45 +17453,47 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="17.25" customHeight="1">
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Không đồng.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" customHeight="1">
+        <v>Năm trăm triệu đồng.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="G8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="21.75" customHeight="1">
-      <c r="F9" s="1" t="str">
+    <row r="9" spans="1:15" ht="17.25" customHeight="1">
+      <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển USD</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1">
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+      </c>
+      <c r="M9" s="151"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="17.25" customHeight="1"/>
-    <row r="12" spans="1:19" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:19" ht="24" customHeight="1">
-      <c r="C13" s="1" t="s">
+    <row r="11" spans="1:15" ht="17.25" customHeight="1"/>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1"/>
+    <row r="14" spans="1:15" ht="24" customHeight="1">
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>125 759 122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="E14" s="1" t="str">
+        <v>0531002503669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1">
+      <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -15148,12 +17501,9 @@
   <mergeCells count="1">
     <mergeCell ref="F6:G6"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
       <formula1>"USD,VNĐ,TAMP"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
-      <formula1>OFFSET(INDIRECT(ADDRESS(MATCH(A1,N_1,0)+3,5,,,"TH")),0,0,COUNTIF(N_1,A1),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -15171,7 +17521,7 @@
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15207,31 +17557,31 @@
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
         <f>IF('UNC - PV'!$O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF('UNC - PV'!$O$2="VNĐ"," 1    0    7    0    0    0   2    6    8    6    1    5"," 2    5    7    0    0    0   0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    1    0    0   0    2    6    8    6    1    4</v>
+        <v xml:space="preserve"> 1    0    7    0    0    0   2    6    8    6    1    5</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
-      <c r="F8" s="143">
+      <c r="F8" s="180">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4000</v>
-      </c>
-      <c r="G8" s="143"/>
+        <v>500000000</v>
+      </c>
+      <c r="G8" s="180"/>
       <c r="K8" s="7" t="str">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),"x","")</f>
-        <v/>
+        <v>x</v>
       </c>
       <c r="L8" s="7" t="str">
         <f>IF('UNC - PV'!$O$2="usd","x","")</f>
-        <v>x</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn ngàn đô la mỹ.</v>
+        <v>Năm trăm triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -15242,13 +17592,13 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển USD</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="F13" s="133" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -15259,13 +17609,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>125 759 122</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VPBANK - PGD Bùi Hữu Nghĩa, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -15292,7 +17642,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <pane ySplit="32" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15324,7 +17674,7 @@
     <row r="1" spans="1:22" ht="6.75" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($R$2="vnđ","E","E1")</f>
-        <v>E</v>
+        <v>E1</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="21.75" customHeight="1" thickBot="1">
@@ -15339,14 +17689,14 @@
       </c>
       <c r="N2" s="27"/>
       <c r="R2" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T2" s="10">
-        <v>43031</v>
+        <v>43103</v>
       </c>
       <c r="U2" s="11"/>
       <c r="V2" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1">
@@ -15377,7 +17727,7 @@
       <c r="B6" s="29"/>
       <c r="C6" s="46" t="str">
         <f>"CTY TNHH HẢI SẢN AN LẠC "&amp;IF(RIGHT(VLOOKUP("X1",DS,3,0),1)="V","TRÀ VINH","")</f>
-        <v xml:space="preserve">CTY TNHH HẢI SẢN AN LẠC </v>
+        <v>CTY TNHH HẢI SẢN AN LẠC TRÀ VINH</v>
       </c>
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
@@ -15395,7 +17745,7 @@
       <c r="B8" s="17"/>
       <c r="C8" s="53" t="str">
         <f>IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="USD"),"1015 148 5100 9193",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="1",$R$2="VNĐ"),"1015 148 5100 9180",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="VNĐ"),"1402 148 5100 9465",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="4",$R$2="USD"),"1402 148 5100 9479",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="VNĐ"),"1402 148 5100 7445",IF(AND(RIGHT(VLOOKUP("X1",DS,3,0),1)="V",$R$2="USD"),"1402 148 5102 8153",""))))))</f>
-        <v>1402 148 5100 9465</v>
+        <v>1402 148 5102 8153</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="9.75" customHeight="1">
@@ -15550,7 +17900,7 @@
       <c r="B20" s="34"/>
       <c r="C20" s="52" t="str">
         <f>[1]!VND($N$22,FALSE)&amp;IF($R$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Năm tỷ, tám trăm hai mươi triệu đồng.</v>
+        <v>Chín mươi tám ngàn, hai trăm đô la mỹ.</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -15562,10 +17912,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="144" t="s">
+      <c r="N20" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="144"/>
+      <c r="O20" s="181"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -15579,34 +17929,34 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="145" t="s">
+      <c r="N21" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="145"/>
+      <c r="O21" s="182"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="50">
+      <c r="N22" s="152">
         <f>IF($R$2="VNĐ",VLOOKUP("X1",DS,16,0),VLOOKUP("X1",DS,15,0))</f>
-        <v>5820000000</v>
+        <v>98200</v>
       </c>
       <c r="O22" s="44" t="str">
         <f>R2</f>
-        <v>VNĐ</v>
+        <v>USD</v>
       </c>
       <c r="P22" s="32"/>
     </row>
-    <row r="23" spans="1:16" ht="12" customHeight="1">
+    <row r="23" spans="1:16" ht="15" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="52" t="str">
         <f>VLOOKUP("X1",DS,14,0)</f>
-        <v>Thanh toán tiền hàng</v>
+        <v>BÁN NT</v>
       </c>
       <c r="M23" s="31"/>
       <c r="P23" s="32"/>
@@ -15792,11 +18142,11 @@
       </c>
     </row>
     <row r="8" spans="5:18" ht="21" customHeight="1">
-      <c r="E8" s="143">
+      <c r="E8" s="180">
         <f>VLOOKUP("X2",DS,16,0)</f>
         <v>1100000000</v>
       </c>
-      <c r="F8" s="143"/>
+      <c r="F8" s="180"/>
       <c r="G8" s="5"/>
       <c r="L8" s="1" t="s">
         <v>3</v>
@@ -16106,11 +18456,11 @@
         <v>115</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="149">
+      <c r="L17" s="186">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>41051</v>
       </c>
-      <c r="M17" s="149"/>
+      <c r="M17" s="186"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -16172,11 +18522,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="146" t="s">
+      <c r="N21" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="147"/>
-      <c r="P21" s="147"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -16191,11 +18541,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="148" t="s">
+      <c r="N22" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="145"/>
-      <c r="P22" s="145"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,46 +4,49 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1245" windowWidth="21840" windowHeight="8835" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="1305" windowWidth="21840" windowHeight="8775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
     <sheet name="UNC - PV" sheetId="2" r:id="rId2"/>
     <sheet name="UNC - PV (3)" sheetId="20" r:id="rId3"/>
     <sheet name="UNC - PV (2)" sheetId="19" r:id="rId4"/>
-    <sheet name="UNC - KM" sheetId="18" r:id="rId5"/>
-    <sheet name="UNC - EIB" sheetId="6" r:id="rId6"/>
-    <sheet name="LC - PV" sheetId="4" r:id="rId7"/>
-    <sheet name="LC - EIB" sheetId="7" r:id="rId8"/>
-    <sheet name="U&amp;P" sheetId="8" r:id="rId9"/>
+    <sheet name="UNC - PV (4)" sheetId="21" r:id="rId5"/>
+    <sheet name="UNC - KM" sheetId="18" r:id="rId6"/>
+    <sheet name="UNC - EIB" sheetId="6" r:id="rId7"/>
+    <sheet name="LC - PV" sheetId="4" r:id="rId8"/>
+    <sheet name="LC - EIB" sheetId="7" r:id="rId9"/>
+    <sheet name="U&amp;P" sheetId="8" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_Fill" localSheetId="8" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="9" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="_Fill" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$288</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$306</definedName>
+    <definedName name="dgd" hidden="1">#REF!</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$287</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39858))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$287</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'LC - EIB'!$A$1:$Q$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'LC - PV'!$A$1:$N$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'UNC - EIB'!$A$1:$P$32</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'UNC - KM'!$A$1:$M$18</definedName>
+    <definedName name="DS">TH!$A$4:$Q$305</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39876))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$305</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'LC - EIB'!$A$1:$Q$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'LC - PV'!$A$1:$N$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'UNC - EIB'!$A$1:$P$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'UNC - PV'!$A$1:$M$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'UNC - PV (2)'!$A$1:$M$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'UNC - PV (3)'!$A$1:$M$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'UNC - PV (4)'!$A$1:$M$16</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="482">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -1975,6 +1978,33 @@
   </si>
   <si>
     <t>Chuyển tiền theo KUNN số 38 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 1/01 năm 2018</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 39 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 40 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 2&amp;3/01 năm 2018</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 41 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Thanh toán cước vận chuyển và phí liên quan - AAAS</t>
+  </si>
+  <si>
+    <t>Thanh toán phí kiểm nghiệm T01/2018</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>TAMP</t>
   </si>
 </sst>
 </file>
@@ -3484,14 +3514,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R287"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I259" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I280" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="F278" sqref="F278"/>
+      <selection pane="bottomRight" activeCell="P296" sqref="P296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3701,7 +3731,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B287" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B305" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -11049,7 +11079,7 @@
         <v/>
       </c>
       <c r="B156" s="62">
-        <f t="shared" ref="B156:B283" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B156:B301" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
         <v>153</v>
       </c>
       <c r="C156" s="62" t="s">
@@ -13693,8 +13723,8 @@
       <c r="F212" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="G212" s="64" t="s">
-        <v>375</v>
+      <c r="G212" s="71" t="s">
+        <v>451</v>
       </c>
       <c r="H212" s="64" t="s">
         <v>376</v>
@@ -16706,7 +16736,7 @@
         <v/>
       </c>
       <c r="B276" s="62">
-        <f t="shared" ref="B276:B281" si="21">IF(C276&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B276:B299" si="21">IF(C276&lt;&gt;"",ROW()-3,"")</f>
         <v>273</v>
       </c>
       <c r="C276" s="62" t="s">
@@ -16751,7 +16781,7 @@
     <row r="277" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A277" s="55" t="str">
         <f>IF(AND(C277="pv",E277='UNC - PV'!$S$2,D277='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C277,3)="eib",E277='UNC - EIB'!$V$2,D277='UNC - EIB'!$T$2),"x1",IF(AND(C277="pv",E277='LC - PV'!$R$2,D277='LC - PV'!$P$2),"x2",IF(AND(LEFT(C277,3)="eib",E277='LC - EIB'!$U$2,D277='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B277" s="62">
         <f t="shared" si="21"/>
@@ -16792,7 +16822,7 @@
       <c r="Q277" s="104"/>
       <c r="R277" s="131" t="str">
         <f>IF(AND(C277="pv",D277='UNC - PV'!$Q$2,LEFT(E277,1)="u",'UNC - PV'!$O$2="vnđ",TH!P277&lt;&gt;""),"p",IF(AND(C277="pv",D277='UNC - PV'!$Q$2,LEFT(E277,1)="u",'UNC - PV'!$O$2="usd",TH!O277&lt;&gt;""),"p1",IF(AND(C277="pv",D277='LC - PV'!$P$2,LEFT(E277,1)="l"),"p2",IF(AND(LEFT(C277,3)="EIB",D277='UNC - EIB'!$T$2,LEFT(E277,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P277&lt;&gt;""),"e",IF(AND(LEFT(C277,3)="EIB",D277='UNC - EIB'!$T$2,LEFT(E277,1)="U",'UNC - EIB'!$R$2="usd",TH!O277&lt;&gt;""),"e1",IF(AND(LEFT(C277,3)="EIB",D277='LC - EIB'!$S$2,LEFT(E277,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="278" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -16800,24 +16830,42 @@
         <f>IF(AND(C278="pv",E278='UNC - PV'!$S$2,D278='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C278,3)="eib",E278='UNC - EIB'!$V$2,D278='UNC - EIB'!$T$2),"x1",IF(AND(C278="pv",E278='LC - PV'!$R$2,D278='LC - PV'!$P$2),"x2",IF(AND(LEFT(C278,3)="eib",E278='LC - EIB'!$U$2,D278='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B278" s="62" t="str">
+      <c r="B278" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C278" s="62"/>
-      <c r="D278" s="67"/>
-      <c r="E278" s="65"/>
-      <c r="F278" s="64"/>
-      <c r="G278" s="64"/>
-      <c r="H278" s="64"/>
-      <c r="I278" s="65"/>
+        <v>275</v>
+      </c>
+      <c r="C278" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D278" s="67">
+        <v>43124</v>
+      </c>
+      <c r="E278" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F278" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G278" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="H278" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="I278" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J278" s="66"/>
       <c r="K278" s="67"/>
       <c r="L278" s="65"/>
       <c r="M278" s="65"/>
-      <c r="N278" s="64"/>
+      <c r="N278" s="64" t="s">
+        <v>334</v>
+      </c>
       <c r="O278" s="68"/>
-      <c r="P278" s="69"/>
+      <c r="P278" s="69">
+        <v>100135000</v>
+      </c>
       <c r="Q278" s="104"/>
       <c r="R278" s="131" t="str">
         <f>IF(AND(C278="pv",D278='UNC - PV'!$Q$2,LEFT(E278,1)="u",'UNC - PV'!$O$2="vnđ",TH!P278&lt;&gt;""),"p",IF(AND(C278="pv",D278='UNC - PV'!$Q$2,LEFT(E278,1)="u",'UNC - PV'!$O$2="usd",TH!O278&lt;&gt;""),"p1",IF(AND(C278="pv",D278='LC - PV'!$P$2,LEFT(E278,1)="l"),"p2",IF(AND(LEFT(C278,3)="EIB",D278='UNC - EIB'!$T$2,LEFT(E278,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P278&lt;&gt;""),"e",IF(AND(LEFT(C278,3)="EIB",D278='UNC - EIB'!$T$2,LEFT(E278,1)="U",'UNC - EIB'!$R$2="usd",TH!O278&lt;&gt;""),"e1",IF(AND(LEFT(C278,3)="EIB",D278='LC - EIB'!$S$2,LEFT(E278,1)="l"),"e2",""))))))</f>
@@ -16829,24 +16877,42 @@
         <f>IF(AND(C279="pv",E279='UNC - PV'!$S$2,D279='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C279,3)="eib",E279='UNC - EIB'!$V$2,D279='UNC - EIB'!$T$2),"x1",IF(AND(C279="pv",E279='LC - PV'!$R$2,D279='LC - PV'!$P$2),"x2",IF(AND(LEFT(C279,3)="eib",E279='LC - EIB'!$U$2,D279='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B279" s="62" t="str">
+      <c r="B279" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C279" s="62"/>
-      <c r="D279" s="67"/>
-      <c r="E279" s="65"/>
-      <c r="F279" s="64"/>
-      <c r="G279" s="64"/>
-      <c r="H279" s="64"/>
-      <c r="I279" s="65"/>
-      <c r="J279" s="66"/>
-      <c r="K279" s="67"/>
-      <c r="L279" s="65"/>
-      <c r="M279" s="65"/>
-      <c r="N279" s="64"/>
+        <v>276</v>
+      </c>
+      <c r="C279" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D279" s="67">
+        <v>43124</v>
+      </c>
+      <c r="E279" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F279" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="G279" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="H279" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="I279" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J279" s="126"/>
+      <c r="K279" s="123"/>
+      <c r="L279" s="124"/>
+      <c r="M279" s="124"/>
+      <c r="N279" s="125" t="s">
+        <v>266</v>
+      </c>
       <c r="O279" s="68"/>
-      <c r="P279" s="69"/>
+      <c r="P279" s="69">
+        <v>39322800</v>
+      </c>
       <c r="Q279" s="104"/>
       <c r="R279" s="131" t="str">
         <f>IF(AND(C279="pv",D279='UNC - PV'!$Q$2,LEFT(E279,1)="u",'UNC - PV'!$O$2="vnđ",TH!P279&lt;&gt;""),"p",IF(AND(C279="pv",D279='UNC - PV'!$Q$2,LEFT(E279,1)="u",'UNC - PV'!$O$2="usd",TH!O279&lt;&gt;""),"p1",IF(AND(C279="pv",D279='LC - PV'!$P$2,LEFT(E279,1)="l"),"p2",IF(AND(LEFT(C279,3)="EIB",D279='UNC - EIB'!$T$2,LEFT(E279,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P279&lt;&gt;""),"e",IF(AND(LEFT(C279,3)="EIB",D279='UNC - EIB'!$T$2,LEFT(E279,1)="U",'UNC - EIB'!$R$2="usd",TH!O279&lt;&gt;""),"e1",IF(AND(LEFT(C279,3)="EIB",D279='LC - EIB'!$S$2,LEFT(E279,1)="l"),"e2",""))))))</f>
@@ -16858,24 +16924,42 @@
         <f>IF(AND(C280="pv",E280='UNC - PV'!$S$2,D280='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C280,3)="eib",E280='UNC - EIB'!$V$2,D280='UNC - EIB'!$T$2),"x1",IF(AND(C280="pv",E280='LC - PV'!$R$2,D280='LC - PV'!$P$2),"x2",IF(AND(LEFT(C280,3)="eib",E280='LC - EIB'!$U$2,D280='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B280" s="62" t="str">
+      <c r="B280" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C280" s="62"/>
-      <c r="D280" s="67"/>
-      <c r="E280" s="65"/>
-      <c r="F280" s="64"/>
-      <c r="G280" s="64"/>
-      <c r="H280" s="64"/>
-      <c r="I280" s="65"/>
+        <v>277</v>
+      </c>
+      <c r="C280" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D280" s="67">
+        <v>43124</v>
+      </c>
+      <c r="E280" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F280" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G280" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H280" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I280" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J280" s="66"/>
       <c r="K280" s="67"/>
       <c r="L280" s="65"/>
       <c r="M280" s="65"/>
-      <c r="N280" s="64"/>
+      <c r="N280" s="64" t="s">
+        <v>473</v>
+      </c>
       <c r="O280" s="68"/>
-      <c r="P280" s="69"/>
+      <c r="P280" s="69">
+        <v>35033790</v>
+      </c>
       <c r="Q280" s="104"/>
       <c r="R280" s="131" t="str">
         <f>IF(AND(C280="pv",D280='UNC - PV'!$Q$2,LEFT(E280,1)="u",'UNC - PV'!$O$2="vnđ",TH!P280&lt;&gt;""),"p",IF(AND(C280="pv",D280='UNC - PV'!$Q$2,LEFT(E280,1)="u",'UNC - PV'!$O$2="usd",TH!O280&lt;&gt;""),"p1",IF(AND(C280="pv",D280='LC - PV'!$P$2,LEFT(E280,1)="l"),"p2",IF(AND(LEFT(C280,3)="EIB",D280='UNC - EIB'!$T$2,LEFT(E280,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P280&lt;&gt;""),"e",IF(AND(LEFT(C280,3)="EIB",D280='UNC - EIB'!$T$2,LEFT(E280,1)="U",'UNC - EIB'!$R$2="usd",TH!O280&lt;&gt;""),"e1",IF(AND(LEFT(C280,3)="EIB",D280='LC - EIB'!$S$2,LEFT(E280,1)="l"),"e2",""))))))</f>
@@ -16887,23 +16971,41 @@
         <f>IF(AND(C281="pv",E281='UNC - PV'!$S$2,D281='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C281,3)="eib",E281='UNC - EIB'!$V$2,D281='UNC - EIB'!$T$2),"x1",IF(AND(C281="pv",E281='LC - PV'!$R$2,D281='LC - PV'!$P$2),"x2",IF(AND(LEFT(C281,3)="eib",E281='LC - EIB'!$U$2,D281='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B281" s="62" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C281" s="62"/>
-      <c r="D281" s="67"/>
-      <c r="E281" s="65"/>
-      <c r="F281" s="64"/>
-      <c r="G281" s="64"/>
-      <c r="H281" s="64"/>
-      <c r="I281" s="65"/>
+      <c r="B281" s="62">
+        <f t="shared" ref="B281:B286" si="22">IF(C281&lt;&gt;"",ROW()-3,"")</f>
+        <v>278</v>
+      </c>
+      <c r="C281" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D281" s="67">
+        <v>43124</v>
+      </c>
+      <c r="E281" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F281" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G281" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H281" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I281" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J281" s="66"/>
       <c r="K281" s="67"/>
       <c r="L281" s="65"/>
       <c r="M281" s="65"/>
-      <c r="N281" s="64"/>
-      <c r="O281" s="68"/>
+      <c r="N281" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O281" s="68">
+        <v>23000</v>
+      </c>
       <c r="P281" s="69"/>
       <c r="Q281" s="104"/>
       <c r="R281" s="131" t="str">
@@ -16916,24 +17018,42 @@
         <f>IF(AND(C282="pv",E282='UNC - PV'!$S$2,D282='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C282,3)="eib",E282='UNC - EIB'!$V$2,D282='UNC - EIB'!$T$2),"x1",IF(AND(C282="pv",E282='LC - PV'!$R$2,D282='LC - PV'!$P$2),"x2",IF(AND(LEFT(C282,3)="eib",E282='LC - EIB'!$U$2,D282='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B282" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C282" s="62"/>
-      <c r="D282" s="67"/>
-      <c r="E282" s="65"/>
-      <c r="F282" s="64"/>
-      <c r="G282" s="64"/>
-      <c r="H282" s="64"/>
-      <c r="I282" s="65"/>
+      <c r="B282" s="62">
+        <f t="shared" si="22"/>
+        <v>279</v>
+      </c>
+      <c r="C282" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D282" s="67">
+        <v>43125</v>
+      </c>
+      <c r="E282" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F282" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="G282" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="H282" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="I282" s="65" t="s">
+        <v>278</v>
+      </c>
       <c r="J282" s="66"/>
       <c r="K282" s="67"/>
       <c r="L282" s="65"/>
       <c r="M282" s="65"/>
-      <c r="N282" s="64"/>
+      <c r="N282" s="64" t="s">
+        <v>274</v>
+      </c>
       <c r="O282" s="68"/>
-      <c r="P282" s="69"/>
+      <c r="P282" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q282" s="104"/>
       <c r="R282" s="131" t="str">
         <f>IF(AND(C282="pv",D282='UNC - PV'!$Q$2,LEFT(E282,1)="u",'UNC - PV'!$O$2="vnđ",TH!P282&lt;&gt;""),"p",IF(AND(C282="pv",D282='UNC - PV'!$Q$2,LEFT(E282,1)="u",'UNC - PV'!$O$2="usd",TH!O282&lt;&gt;""),"p1",IF(AND(C282="pv",D282='LC - PV'!$P$2,LEFT(E282,1)="l"),"p2",IF(AND(LEFT(C282,3)="EIB",D282='UNC - EIB'!$T$2,LEFT(E282,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P282&lt;&gt;""),"e",IF(AND(LEFT(C282,3)="EIB",D282='UNC - EIB'!$T$2,LEFT(E282,1)="U",'UNC - EIB'!$R$2="usd",TH!O282&lt;&gt;""),"e1",IF(AND(LEFT(C282,3)="EIB",D282='LC - EIB'!$S$2,LEFT(E282,1)="l"),"e2",""))))))</f>
@@ -16945,24 +17065,42 @@
         <f>IF(AND(C283="pv",E283='UNC - PV'!$S$2,D283='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C283,3)="eib",E283='UNC - EIB'!$V$2,D283='UNC - EIB'!$T$2),"x1",IF(AND(C283="pv",E283='LC - PV'!$R$2,D283='LC - PV'!$P$2),"x2",IF(AND(LEFT(C283,3)="eib",E283='LC - EIB'!$U$2,D283='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B283" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C283" s="62"/>
-      <c r="D283" s="67"/>
-      <c r="E283" s="65"/>
-      <c r="F283" s="64"/>
-      <c r="G283" s="64"/>
-      <c r="H283" s="64"/>
-      <c r="I283" s="65"/>
+      <c r="B283" s="62">
+        <f t="shared" si="22"/>
+        <v>280</v>
+      </c>
+      <c r="C283" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D283" s="67">
+        <v>43125</v>
+      </c>
+      <c r="E283" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F283" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G283" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="H283" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I283" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J283" s="66"/>
       <c r="K283" s="67"/>
       <c r="L283" s="65"/>
       <c r="M283" s="65"/>
-      <c r="N283" s="64"/>
+      <c r="N283" s="64" t="s">
+        <v>97</v>
+      </c>
       <c r="O283" s="68"/>
-      <c r="P283" s="69"/>
+      <c r="P283" s="69">
+        <v>72380000</v>
+      </c>
       <c r="Q283" s="104"/>
       <c r="R283" s="131" t="str">
         <f>IF(AND(C283="pv",D283='UNC - PV'!$Q$2,LEFT(E283,1)="u",'UNC - PV'!$O$2="vnđ",TH!P283&lt;&gt;""),"p",IF(AND(C283="pv",D283='UNC - PV'!$Q$2,LEFT(E283,1)="u",'UNC - PV'!$O$2="usd",TH!O283&lt;&gt;""),"p1",IF(AND(C283="pv",D283='LC - PV'!$P$2,LEFT(E283,1)="l"),"p2",IF(AND(LEFT(C283,3)="EIB",D283='UNC - EIB'!$T$2,LEFT(E283,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P283&lt;&gt;""),"e",IF(AND(LEFT(C283,3)="EIB",D283='UNC - EIB'!$T$2,LEFT(E283,1)="U",'UNC - EIB'!$R$2="usd",TH!O283&lt;&gt;""),"e1",IF(AND(LEFT(C283,3)="EIB",D283='LC - EIB'!$S$2,LEFT(E283,1)="l"),"e2",""))))))</f>
@@ -16974,24 +17112,42 @@
         <f>IF(AND(C284="pv",E284='UNC - PV'!$S$2,D284='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C284,3)="eib",E284='UNC - EIB'!$V$2,D284='UNC - EIB'!$T$2),"x1",IF(AND(C284="pv",E284='LC - PV'!$R$2,D284='LC - PV'!$P$2),"x2",IF(AND(LEFT(C284,3)="eib",E284='LC - EIB'!$U$2,D284='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B284" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C284" s="62"/>
-      <c r="D284" s="67"/>
-      <c r="E284" s="65"/>
-      <c r="F284" s="64"/>
-      <c r="G284" s="64"/>
-      <c r="H284" s="64"/>
-      <c r="I284" s="65"/>
+      <c r="B284" s="62">
+        <f t="shared" si="22"/>
+        <v>281</v>
+      </c>
+      <c r="C284" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D284" s="67">
+        <v>43126</v>
+      </c>
+      <c r="E284" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F284" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G284" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H284" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I284" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J284" s="66"/>
       <c r="K284" s="67"/>
       <c r="L284" s="65"/>
       <c r="M284" s="65"/>
-      <c r="N284" s="64"/>
+      <c r="N284" s="107" t="s">
+        <v>135</v>
+      </c>
       <c r="O284" s="68"/>
-      <c r="P284" s="69"/>
+      <c r="P284" s="69">
+        <v>250000000</v>
+      </c>
       <c r="Q284" s="104"/>
       <c r="R284" s="131" t="str">
         <f>IF(AND(C284="pv",D284='UNC - PV'!$Q$2,LEFT(E284,1)="u",'UNC - PV'!$O$2="vnđ",TH!P284&lt;&gt;""),"p",IF(AND(C284="pv",D284='UNC - PV'!$Q$2,LEFT(E284,1)="u",'UNC - PV'!$O$2="usd",TH!O284&lt;&gt;""),"p1",IF(AND(C284="pv",D284='LC - PV'!$P$2,LEFT(E284,1)="l"),"p2",IF(AND(LEFT(C284,3)="EIB",D284='UNC - EIB'!$T$2,LEFT(E284,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P284&lt;&gt;""),"e",IF(AND(LEFT(C284,3)="EIB",D284='UNC - EIB'!$T$2,LEFT(E284,1)="U",'UNC - EIB'!$R$2="usd",TH!O284&lt;&gt;""),"e1",IF(AND(LEFT(C284,3)="EIB",D284='LC - EIB'!$S$2,LEFT(E284,1)="l"),"e2",""))))))</f>
@@ -17003,24 +17159,43 @@
         <f>IF(AND(C285="pv",E285='UNC - PV'!$S$2,D285='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C285,3)="eib",E285='UNC - EIB'!$V$2,D285='UNC - EIB'!$T$2),"x1",IF(AND(C285="pv",E285='LC - PV'!$R$2,D285='LC - PV'!$P$2),"x2",IF(AND(LEFT(C285,3)="eib",E285='LC - EIB'!$U$2,D285='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B285" s="62" t="str">
-        <f t="shared" ref="B285" si="22">IF(C285&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C285" s="62"/>
-      <c r="D285" s="67"/>
-      <c r="E285" s="65"/>
-      <c r="F285" s="64"/>
-      <c r="G285" s="64"/>
-      <c r="H285" s="64"/>
-      <c r="I285" s="65"/>
-      <c r="J285" s="66"/>
+      <c r="B285" s="62">
+        <f t="shared" si="22"/>
+        <v>282</v>
+      </c>
+      <c r="C285" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D285" s="67">
+        <v>43130</v>
+      </c>
+      <c r="E285" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F285" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G285" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H285" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I285" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J285" s="56"/>
       <c r="K285" s="67"/>
       <c r="L285" s="65"/>
       <c r="M285" s="65"/>
-      <c r="N285" s="64"/>
+      <c r="N285" s="64" t="s">
+        <v>474</v>
+      </c>
       <c r="O285" s="68"/>
-      <c r="P285" s="69"/>
+      <c r="P285" s="69">
+        <f>87500*22702</f>
+        <v>1986425000</v>
+      </c>
       <c r="Q285" s="104"/>
       <c r="R285" s="131" t="str">
         <f>IF(AND(C285="pv",D285='UNC - PV'!$Q$2,LEFT(E285,1)="u",'UNC - PV'!$O$2="vnđ",TH!P285&lt;&gt;""),"p",IF(AND(C285="pv",D285='UNC - PV'!$Q$2,LEFT(E285,1)="u",'UNC - PV'!$O$2="usd",TH!O285&lt;&gt;""),"p1",IF(AND(C285="pv",D285='LC - PV'!$P$2,LEFT(E285,1)="l"),"p2",IF(AND(LEFT(C285,3)="EIB",D285='UNC - EIB'!$T$2,LEFT(E285,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P285&lt;&gt;""),"e",IF(AND(LEFT(C285,3)="EIB",D285='UNC - EIB'!$T$2,LEFT(E285,1)="U",'UNC - EIB'!$R$2="usd",TH!O285&lt;&gt;""),"e1",IF(AND(LEFT(C285,3)="EIB",D285='LC - EIB'!$S$2,LEFT(E285,1)="l"),"e2",""))))))</f>
@@ -17032,24 +17207,43 @@
         <f>IF(AND(C286="pv",E286='UNC - PV'!$S$2,D286='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C286,3)="eib",E286='UNC - EIB'!$V$2,D286='UNC - EIB'!$T$2),"x1",IF(AND(C286="pv",E286='LC - PV'!$R$2,D286='LC - PV'!$P$2),"x2",IF(AND(LEFT(C286,3)="eib",E286='LC - EIB'!$U$2,D286='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B286" s="62" t="str">
-        <f t="shared" ref="B286" si="23">IF(C286&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C286" s="62"/>
-      <c r="D286" s="67"/>
-      <c r="E286" s="65"/>
-      <c r="F286" s="64"/>
-      <c r="G286" s="64"/>
-      <c r="H286" s="64"/>
-      <c r="I286" s="65"/>
-      <c r="J286" s="66"/>
+      <c r="B286" s="62">
+        <f t="shared" si="22"/>
+        <v>283</v>
+      </c>
+      <c r="C286" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D286" s="67">
+        <v>43131</v>
+      </c>
+      <c r="E286" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F286" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G286" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H286" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I286" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J286" s="56"/>
       <c r="K286" s="67"/>
       <c r="L286" s="65"/>
       <c r="M286" s="65"/>
-      <c r="N286" s="64"/>
+      <c r="N286" s="64" t="s">
+        <v>475</v>
+      </c>
       <c r="O286" s="68"/>
-      <c r="P286" s="69"/>
+      <c r="P286" s="69">
+        <f>24800*22700</f>
+        <v>562960000</v>
+      </c>
       <c r="Q286" s="104"/>
       <c r="R286" s="131" t="str">
         <f>IF(AND(C286="pv",D286='UNC - PV'!$Q$2,LEFT(E286,1)="u",'UNC - PV'!$O$2="vnđ",TH!P286&lt;&gt;""),"p",IF(AND(C286="pv",D286='UNC - PV'!$Q$2,LEFT(E286,1)="u",'UNC - PV'!$O$2="usd",TH!O286&lt;&gt;""),"p1",IF(AND(C286="pv",D286='LC - PV'!$P$2,LEFT(E286,1)="l"),"p2",IF(AND(LEFT(C286,3)="EIB",D286='UNC - EIB'!$T$2,LEFT(E286,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P286&lt;&gt;""),"e",IF(AND(LEFT(C286,3)="EIB",D286='UNC - EIB'!$T$2,LEFT(E286,1)="U",'UNC - EIB'!$R$2="usd",TH!O286&lt;&gt;""),"e1",IF(AND(LEFT(C286,3)="EIB",D286='LC - EIB'!$S$2,LEFT(E286,1)="l"),"e2",""))))))</f>
@@ -17061,32 +17255,719 @@
         <f>IF(AND(C287="pv",E287='UNC - PV'!$S$2,D287='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C287,3)="eib",E287='UNC - EIB'!$V$2,D287='UNC - EIB'!$T$2),"x1",IF(AND(C287="pv",E287='LC - PV'!$R$2,D287='LC - PV'!$P$2),"x2",IF(AND(LEFT(C287,3)="eib",E287='LC - EIB'!$U$2,D287='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B287" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C287" s="62"/>
-      <c r="D287" s="67"/>
-      <c r="E287" s="65"/>
-      <c r="F287" s="64"/>
-      <c r="G287" s="64"/>
-      <c r="H287" s="64"/>
-      <c r="I287" s="65"/>
+      <c r="B287" s="62">
+        <f t="shared" si="21"/>
+        <v>284</v>
+      </c>
+      <c r="C287" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D287" s="67">
+        <v>43131</v>
+      </c>
+      <c r="E287" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G287" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H287" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I287" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J287" s="66"/>
       <c r="K287" s="67"/>
       <c r="L287" s="65"/>
       <c r="M287" s="65"/>
-      <c r="N287" s="64"/>
+      <c r="N287" s="64" t="s">
+        <v>476</v>
+      </c>
       <c r="O287" s="68"/>
-      <c r="P287" s="69"/>
+      <c r="P287" s="69">
+        <f>24830850+21316350</f>
+        <v>46147200</v>
+      </c>
       <c r="Q287" s="104"/>
       <c r="R287" s="131" t="str">
         <f>IF(AND(C287="pv",D287='UNC - PV'!$Q$2,LEFT(E287,1)="u",'UNC - PV'!$O$2="vnđ",TH!P287&lt;&gt;""),"p",IF(AND(C287="pv",D287='UNC - PV'!$Q$2,LEFT(E287,1)="u",'UNC - PV'!$O$2="usd",TH!O287&lt;&gt;""),"p1",IF(AND(C287="pv",D287='LC - PV'!$P$2,LEFT(E287,1)="l"),"p2",IF(AND(LEFT(C287,3)="EIB",D287='UNC - EIB'!$T$2,LEFT(E287,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P287&lt;&gt;""),"e",IF(AND(LEFT(C287,3)="EIB",D287='UNC - EIB'!$T$2,LEFT(E287,1)="U",'UNC - EIB'!$R$2="usd",TH!O287&lt;&gt;""),"e1",IF(AND(LEFT(C287,3)="EIB",D287='LC - EIB'!$S$2,LEFT(E287,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
+    <row r="288" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A288" s="55" t="str">
+        <f>IF(AND(C288="pv",E288='UNC - PV'!$S$2,D288='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C288,3)="eib",E288='UNC - EIB'!$V$2,D288='UNC - EIB'!$T$2),"x1",IF(AND(C288="pv",E288='LC - PV'!$R$2,D288='LC - PV'!$P$2),"x2",IF(AND(LEFT(C288,3)="eib",E288='LC - EIB'!$U$2,D288='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B288" s="62">
+        <f t="shared" si="21"/>
+        <v>285</v>
+      </c>
+      <c r="C288" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D288" s="67">
+        <v>43136</v>
+      </c>
+      <c r="E288" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F288" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G288" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H288" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I288" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J288" s="56"/>
+      <c r="K288" s="67"/>
+      <c r="L288" s="65"/>
+      <c r="M288" s="65"/>
+      <c r="N288" s="64" t="s">
+        <v>477</v>
+      </c>
+      <c r="O288" s="68"/>
+      <c r="P288" s="69">
+        <f>57300*22700</f>
+        <v>1300710000</v>
+      </c>
+      <c r="Q288" s="104"/>
+      <c r="R288" s="131" t="str">
+        <f>IF(AND(C288="pv",D288='UNC - PV'!$Q$2,LEFT(E288,1)="u",'UNC - PV'!$O$2="vnđ",TH!P288&lt;&gt;""),"p",IF(AND(C288="pv",D288='UNC - PV'!$Q$2,LEFT(E288,1)="u",'UNC - PV'!$O$2="usd",TH!O288&lt;&gt;""),"p1",IF(AND(C288="pv",D288='LC - PV'!$P$2,LEFT(E288,1)="l"),"p2",IF(AND(LEFT(C288,3)="EIB",D288='UNC - EIB'!$T$2,LEFT(E288,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P288&lt;&gt;""),"e",IF(AND(LEFT(C288,3)="EIB",D288='UNC - EIB'!$T$2,LEFT(E288,1)="U",'UNC - EIB'!$R$2="usd",TH!O288&lt;&gt;""),"e1",IF(AND(LEFT(C288,3)="EIB",D288='LC - EIB'!$S$2,LEFT(E288,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A289" s="55" t="str">
+        <f>IF(AND(C289="pv",E289='UNC - PV'!$S$2,D289='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C289,3)="eib",E289='UNC - EIB'!$V$2,D289='UNC - EIB'!$T$2),"x1",IF(AND(C289="pv",E289='LC - PV'!$R$2,D289='LC - PV'!$P$2),"x2",IF(AND(LEFT(C289,3)="eib",E289='LC - EIB'!$U$2,D289='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B289" s="62">
+        <f t="shared" si="21"/>
+        <v>286</v>
+      </c>
+      <c r="C289" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D289" s="67">
+        <v>43137</v>
+      </c>
+      <c r="E289" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F289" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="G289" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="H289" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="I289" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="J289" s="93"/>
+      <c r="K289" s="94"/>
+      <c r="L289" s="92"/>
+      <c r="M289" s="92"/>
+      <c r="N289" s="91" t="s">
+        <v>359</v>
+      </c>
+      <c r="O289" s="68"/>
+      <c r="P289" s="69">
+        <v>106170000</v>
+      </c>
+      <c r="Q289" s="104"/>
+      <c r="R289" s="131" t="str">
+        <f>IF(AND(C289="pv",D289='UNC - PV'!$Q$2,LEFT(E289,1)="u",'UNC - PV'!$O$2="vnđ",TH!P289&lt;&gt;""),"p",IF(AND(C289="pv",D289='UNC - PV'!$Q$2,LEFT(E289,1)="u",'UNC - PV'!$O$2="usd",TH!O289&lt;&gt;""),"p1",IF(AND(C289="pv",D289='LC - PV'!$P$2,LEFT(E289,1)="l"),"p2",IF(AND(LEFT(C289,3)="EIB",D289='UNC - EIB'!$T$2,LEFT(E289,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P289&lt;&gt;""),"e",IF(AND(LEFT(C289,3)="EIB",D289='UNC - EIB'!$T$2,LEFT(E289,1)="U",'UNC - EIB'!$R$2="usd",TH!O289&lt;&gt;""),"e1",IF(AND(LEFT(C289,3)="EIB",D289='LC - EIB'!$S$2,LEFT(E289,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A290" s="55" t="str">
+        <f>IF(AND(C290="pv",E290='UNC - PV'!$S$2,D290='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C290,3)="eib",E290='UNC - EIB'!$V$2,D290='UNC - EIB'!$T$2),"x1",IF(AND(C290="pv",E290='LC - PV'!$R$2,D290='LC - PV'!$P$2),"x2",IF(AND(LEFT(C290,3)="eib",E290='LC - EIB'!$U$2,D290='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B290" s="62">
+        <f t="shared" si="21"/>
+        <v>287</v>
+      </c>
+      <c r="C290" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D290" s="67">
+        <v>43138</v>
+      </c>
+      <c r="E290" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F290" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G290" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="H290" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I290" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J290" s="66"/>
+      <c r="K290" s="67"/>
+      <c r="L290" s="65"/>
+      <c r="M290" s="65"/>
+      <c r="N290" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="O290" s="68"/>
+      <c r="P290" s="69">
+        <v>100000000</v>
+      </c>
+      <c r="Q290" s="104"/>
+      <c r="R290" s="131" t="str">
+        <f>IF(AND(C290="pv",D290='UNC - PV'!$Q$2,LEFT(E290,1)="u",'UNC - PV'!$O$2="vnđ",TH!P290&lt;&gt;""),"p",IF(AND(C290="pv",D290='UNC - PV'!$Q$2,LEFT(E290,1)="u",'UNC - PV'!$O$2="usd",TH!O290&lt;&gt;""),"p1",IF(AND(C290="pv",D290='LC - PV'!$P$2,LEFT(E290,1)="l"),"p2",IF(AND(LEFT(C290,3)="EIB",D290='UNC - EIB'!$T$2,LEFT(E290,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P290&lt;&gt;""),"e",IF(AND(LEFT(C290,3)="EIB",D290='UNC - EIB'!$T$2,LEFT(E290,1)="U",'UNC - EIB'!$R$2="usd",TH!O290&lt;&gt;""),"e1",IF(AND(LEFT(C290,3)="EIB",D290='LC - EIB'!$S$2,LEFT(E290,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A291" s="55" t="str">
+        <f>IF(AND(C291="pv",E291='UNC - PV'!$S$2,D291='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C291,3)="eib",E291='UNC - EIB'!$V$2,D291='UNC - EIB'!$T$2),"x1",IF(AND(C291="pv",E291='LC - PV'!$R$2,D291='LC - PV'!$P$2),"x2",IF(AND(LEFT(C291,3)="eib",E291='LC - EIB'!$U$2,D291='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B291" s="62">
+        <f t="shared" si="21"/>
+        <v>288</v>
+      </c>
+      <c r="C291" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D291" s="67">
+        <v>43138</v>
+      </c>
+      <c r="E291" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F291" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="G291" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="H291" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="I291" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J291" s="66"/>
+      <c r="K291" s="67"/>
+      <c r="L291" s="65"/>
+      <c r="M291" s="65"/>
+      <c r="N291" s="64" t="s">
+        <v>478</v>
+      </c>
+      <c r="O291" s="68"/>
+      <c r="P291" s="69">
+        <v>132904195</v>
+      </c>
+      <c r="Q291" s="104"/>
+      <c r="R291" s="131" t="str">
+        <f>IF(AND(C291="pv",D291='UNC - PV'!$Q$2,LEFT(E291,1)="u",'UNC - PV'!$O$2="vnđ",TH!P291&lt;&gt;""),"p",IF(AND(C291="pv",D291='UNC - PV'!$Q$2,LEFT(E291,1)="u",'UNC - PV'!$O$2="usd",TH!O291&lt;&gt;""),"p1",IF(AND(C291="pv",D291='LC - PV'!$P$2,LEFT(E291,1)="l"),"p2",IF(AND(LEFT(C291,3)="EIB",D291='UNC - EIB'!$T$2,LEFT(E291,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P291&lt;&gt;""),"e",IF(AND(LEFT(C291,3)="EIB",D291='UNC - EIB'!$T$2,LEFT(E291,1)="U",'UNC - EIB'!$R$2="usd",TH!O291&lt;&gt;""),"e1",IF(AND(LEFT(C291,3)="EIB",D291='LC - EIB'!$S$2,LEFT(E291,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A292" s="55" t="str">
+        <f>IF(AND(C292="pv",E292='UNC - PV'!$S$2,D292='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C292,3)="eib",E292='UNC - EIB'!$V$2,D292='UNC - EIB'!$T$2),"x1",IF(AND(C292="pv",E292='LC - PV'!$R$2,D292='LC - PV'!$P$2),"x2",IF(AND(LEFT(C292,3)="eib",E292='LC - EIB'!$U$2,D292='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B292" s="62">
+        <f t="shared" si="21"/>
+        <v>289</v>
+      </c>
+      <c r="C292" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D292" s="67">
+        <v>43138</v>
+      </c>
+      <c r="E292" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F292" s="167" t="s">
+        <v>177</v>
+      </c>
+      <c r="G292" s="168" t="s">
+        <v>409</v>
+      </c>
+      <c r="H292" s="167" t="s">
+        <v>179</v>
+      </c>
+      <c r="I292" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J292" s="170"/>
+      <c r="K292" s="155"/>
+      <c r="L292" s="156"/>
+      <c r="M292" s="156"/>
+      <c r="N292" s="167" t="s">
+        <v>479</v>
+      </c>
+      <c r="O292" s="68"/>
+      <c r="P292" s="69">
+        <v>1150000</v>
+      </c>
+      <c r="Q292" s="104"/>
+      <c r="R292" s="131" t="str">
+        <f>IF(AND(C292="pv",D292='UNC - PV'!$Q$2,LEFT(E292,1)="u",'UNC - PV'!$O$2="vnđ",TH!P292&lt;&gt;""),"p",IF(AND(C292="pv",D292='UNC - PV'!$Q$2,LEFT(E292,1)="u",'UNC - PV'!$O$2="usd",TH!O292&lt;&gt;""),"p1",IF(AND(C292="pv",D292='LC - PV'!$P$2,LEFT(E292,1)="l"),"p2",IF(AND(LEFT(C292,3)="EIB",D292='UNC - EIB'!$T$2,LEFT(E292,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P292&lt;&gt;""),"e",IF(AND(LEFT(C292,3)="EIB",D292='UNC - EIB'!$T$2,LEFT(E292,1)="U",'UNC - EIB'!$R$2="usd",TH!O292&lt;&gt;""),"e1",IF(AND(LEFT(C292,3)="EIB",D292='LC - EIB'!$S$2,LEFT(E292,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A293" s="55" t="str">
+        <f>IF(AND(C293="pv",E293='UNC - PV'!$S$2,D293='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C293,3)="eib",E293='UNC - EIB'!$V$2,D293='UNC - EIB'!$T$2),"x1",IF(AND(C293="pv",E293='LC - PV'!$R$2,D293='LC - PV'!$P$2),"x2",IF(AND(LEFT(C293,3)="eib",E293='LC - EIB'!$U$2,D293='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B293" s="62">
+        <f t="shared" ref="B293:B298" si="23">IF(C293&lt;&gt;"",ROW()-3,"")</f>
+        <v>290</v>
+      </c>
+      <c r="C293" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D293" s="67">
+        <v>43138</v>
+      </c>
+      <c r="E293" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F293" s="167" t="s">
+        <v>177</v>
+      </c>
+      <c r="G293" s="168" t="s">
+        <v>410</v>
+      </c>
+      <c r="H293" s="167" t="s">
+        <v>181</v>
+      </c>
+      <c r="I293" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J293" s="170"/>
+      <c r="K293" s="155"/>
+      <c r="L293" s="156"/>
+      <c r="M293" s="156"/>
+      <c r="N293" s="167" t="s">
+        <v>479</v>
+      </c>
+      <c r="O293" s="68"/>
+      <c r="P293" s="69">
+        <v>7425000</v>
+      </c>
+      <c r="Q293" s="104"/>
+      <c r="R293" s="131" t="str">
+        <f>IF(AND(C293="pv",D293='UNC - PV'!$Q$2,LEFT(E293,1)="u",'UNC - PV'!$O$2="vnđ",TH!P293&lt;&gt;""),"p",IF(AND(C293="pv",D293='UNC - PV'!$Q$2,LEFT(E293,1)="u",'UNC - PV'!$O$2="usd",TH!O293&lt;&gt;""),"p1",IF(AND(C293="pv",D293='LC - PV'!$P$2,LEFT(E293,1)="l"),"p2",IF(AND(LEFT(C293,3)="EIB",D293='UNC - EIB'!$T$2,LEFT(E293,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P293&lt;&gt;""),"e",IF(AND(LEFT(C293,3)="EIB",D293='UNC - EIB'!$T$2,LEFT(E293,1)="U",'UNC - EIB'!$R$2="usd",TH!O293&lt;&gt;""),"e1",IF(AND(LEFT(C293,3)="EIB",D293='LC - EIB'!$S$2,LEFT(E293,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A294" s="55" t="str">
+        <f>IF(AND(C294="pv",E294='UNC - PV'!$S$2,D294='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C294,3)="eib",E294='UNC - EIB'!$V$2,D294='UNC - EIB'!$T$2),"x1",IF(AND(C294="pv",E294='LC - PV'!$R$2,D294='LC - PV'!$P$2),"x2",IF(AND(LEFT(C294,3)="eib",E294='LC - EIB'!$U$2,D294='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B294" s="62">
+        <f t="shared" si="23"/>
+        <v>291</v>
+      </c>
+      <c r="C294" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D294" s="67">
+        <v>43138</v>
+      </c>
+      <c r="E294" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F294" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G294" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="H294" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I294" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J294" s="66"/>
+      <c r="K294" s="67"/>
+      <c r="L294" s="65"/>
+      <c r="M294" s="65"/>
+      <c r="N294" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="O294" s="68"/>
+      <c r="P294" s="69">
+        <v>350000000</v>
+      </c>
+      <c r="Q294" s="104"/>
+      <c r="R294" s="131" t="str">
+        <f>IF(AND(C294="pv",D294='UNC - PV'!$Q$2,LEFT(E294,1)="u",'UNC - PV'!$O$2="vnđ",TH!P294&lt;&gt;""),"p",IF(AND(C294="pv",D294='UNC - PV'!$Q$2,LEFT(E294,1)="u",'UNC - PV'!$O$2="usd",TH!O294&lt;&gt;""),"p1",IF(AND(C294="pv",D294='LC - PV'!$P$2,LEFT(E294,1)="l"),"p2",IF(AND(LEFT(C294,3)="EIB",D294='UNC - EIB'!$T$2,LEFT(E294,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P294&lt;&gt;""),"e",IF(AND(LEFT(C294,3)="EIB",D294='UNC - EIB'!$T$2,LEFT(E294,1)="U",'UNC - EIB'!$R$2="usd",TH!O294&lt;&gt;""),"e1",IF(AND(LEFT(C294,3)="EIB",D294='LC - EIB'!$S$2,LEFT(E294,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A295" s="55" t="str">
+        <f>IF(AND(C295="pv",E295='UNC - PV'!$S$2,D295='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C295,3)="eib",E295='UNC - EIB'!$V$2,D295='UNC - EIB'!$T$2),"x1",IF(AND(C295="pv",E295='LC - PV'!$R$2,D295='LC - PV'!$P$2),"x2",IF(AND(LEFT(C295,3)="eib",E295='LC - EIB'!$U$2,D295='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x</v>
+      </c>
+      <c r="B295" s="62">
+        <f t="shared" si="23"/>
+        <v>292</v>
+      </c>
+      <c r="C295" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D295" s="67">
+        <v>43140</v>
+      </c>
+      <c r="E295" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F295" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G295" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H295" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I295" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J295" s="56"/>
+      <c r="K295" s="67"/>
+      <c r="L295" s="65"/>
+      <c r="M295" s="65"/>
+      <c r="N295" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="O295" s="68"/>
+      <c r="P295" s="69">
+        <f>111700*22690</f>
+        <v>2534473000</v>
+      </c>
+      <c r="Q295" s="104"/>
+      <c r="R295" s="131" t="str">
+        <f>IF(AND(C295="pv",D295='UNC - PV'!$Q$2,LEFT(E295,1)="u",'UNC - PV'!$O$2="vnđ",TH!P295&lt;&gt;""),"p",IF(AND(C295="pv",D295='UNC - PV'!$Q$2,LEFT(E295,1)="u",'UNC - PV'!$O$2="usd",TH!O295&lt;&gt;""),"p1",IF(AND(C295="pv",D295='LC - PV'!$P$2,LEFT(E295,1)="l"),"p2",IF(AND(LEFT(C295,3)="EIB",D295='UNC - EIB'!$T$2,LEFT(E295,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P295&lt;&gt;""),"e",IF(AND(LEFT(C295,3)="EIB",D295='UNC - EIB'!$T$2,LEFT(E295,1)="U",'UNC - EIB'!$R$2="usd",TH!O295&lt;&gt;""),"e1",IF(AND(LEFT(C295,3)="EIB",D295='LC - EIB'!$S$2,LEFT(E295,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A296" s="55" t="str">
+        <f>IF(AND(C296="pv",E296='UNC - PV'!$S$2,D296='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C296,3)="eib",E296='UNC - EIB'!$V$2,D296='UNC - EIB'!$T$2),"x1",IF(AND(C296="pv",E296='LC - PV'!$R$2,D296='LC - PV'!$P$2),"x2",IF(AND(LEFT(C296,3)="eib",E296='LC - EIB'!$U$2,D296='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B296" s="62" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="C296" s="62"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="65"/>
+      <c r="F296" s="64"/>
+      <c r="G296" s="64"/>
+      <c r="H296" s="64"/>
+      <c r="I296" s="65"/>
+      <c r="J296" s="66"/>
+      <c r="K296" s="67"/>
+      <c r="L296" s="65"/>
+      <c r="M296" s="65"/>
+      <c r="N296" s="64"/>
+      <c r="O296" s="68"/>
+      <c r="P296" s="69"/>
+      <c r="Q296" s="104"/>
+      <c r="R296" s="131" t="str">
+        <f>IF(AND(C296="pv",D296='UNC - PV'!$Q$2,LEFT(E296,1)="u",'UNC - PV'!$O$2="vnđ",TH!P296&lt;&gt;""),"p",IF(AND(C296="pv",D296='UNC - PV'!$Q$2,LEFT(E296,1)="u",'UNC - PV'!$O$2="usd",TH!O296&lt;&gt;""),"p1",IF(AND(C296="pv",D296='LC - PV'!$P$2,LEFT(E296,1)="l"),"p2",IF(AND(LEFT(C296,3)="EIB",D296='UNC - EIB'!$T$2,LEFT(E296,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P296&lt;&gt;""),"e",IF(AND(LEFT(C296,3)="EIB",D296='UNC - EIB'!$T$2,LEFT(E296,1)="U",'UNC - EIB'!$R$2="usd",TH!O296&lt;&gt;""),"e1",IF(AND(LEFT(C296,3)="EIB",D296='LC - EIB'!$S$2,LEFT(E296,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A297" s="55" t="str">
+        <f>IF(AND(C297="pv",E297='UNC - PV'!$S$2,D297='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C297,3)="eib",E297='UNC - EIB'!$V$2,D297='UNC - EIB'!$T$2),"x1",IF(AND(C297="pv",E297='LC - PV'!$R$2,D297='LC - PV'!$P$2),"x2",IF(AND(LEFT(C297,3)="eib",E297='LC - EIB'!$U$2,D297='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B297" s="62" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="C297" s="62"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="65"/>
+      <c r="F297" s="64"/>
+      <c r="G297" s="64"/>
+      <c r="H297" s="64"/>
+      <c r="I297" s="65"/>
+      <c r="J297" s="66"/>
+      <c r="K297" s="67"/>
+      <c r="L297" s="65"/>
+      <c r="M297" s="65"/>
+      <c r="N297" s="64"/>
+      <c r="O297" s="68"/>
+      <c r="P297" s="69"/>
+      <c r="Q297" s="104"/>
+      <c r="R297" s="131" t="str">
+        <f>IF(AND(C297="pv",D297='UNC - PV'!$Q$2,LEFT(E297,1)="u",'UNC - PV'!$O$2="vnđ",TH!P297&lt;&gt;""),"p",IF(AND(C297="pv",D297='UNC - PV'!$Q$2,LEFT(E297,1)="u",'UNC - PV'!$O$2="usd",TH!O297&lt;&gt;""),"p1",IF(AND(C297="pv",D297='LC - PV'!$P$2,LEFT(E297,1)="l"),"p2",IF(AND(LEFT(C297,3)="EIB",D297='UNC - EIB'!$T$2,LEFT(E297,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P297&lt;&gt;""),"e",IF(AND(LEFT(C297,3)="EIB",D297='UNC - EIB'!$T$2,LEFT(E297,1)="U",'UNC - EIB'!$R$2="usd",TH!O297&lt;&gt;""),"e1",IF(AND(LEFT(C297,3)="EIB",D297='LC - EIB'!$S$2,LEFT(E297,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A298" s="55" t="str">
+        <f>IF(AND(C298="pv",E298='UNC - PV'!$S$2,D298='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C298,3)="eib",E298='UNC - EIB'!$V$2,D298='UNC - EIB'!$T$2),"x1",IF(AND(C298="pv",E298='LC - PV'!$R$2,D298='LC - PV'!$P$2),"x2",IF(AND(LEFT(C298,3)="eib",E298='LC - EIB'!$U$2,D298='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B298" s="62" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="C298" s="62"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="65"/>
+      <c r="F298" s="64"/>
+      <c r="G298" s="64"/>
+      <c r="H298" s="64"/>
+      <c r="I298" s="65"/>
+      <c r="J298" s="66"/>
+      <c r="K298" s="67"/>
+      <c r="L298" s="65"/>
+      <c r="M298" s="65"/>
+      <c r="N298" s="64"/>
+      <c r="O298" s="68"/>
+      <c r="P298" s="69"/>
+      <c r="Q298" s="104"/>
+      <c r="R298" s="131" t="str">
+        <f>IF(AND(C298="pv",D298='UNC - PV'!$Q$2,LEFT(E298,1)="u",'UNC - PV'!$O$2="vnđ",TH!P298&lt;&gt;""),"p",IF(AND(C298="pv",D298='UNC - PV'!$Q$2,LEFT(E298,1)="u",'UNC - PV'!$O$2="usd",TH!O298&lt;&gt;""),"p1",IF(AND(C298="pv",D298='LC - PV'!$P$2,LEFT(E298,1)="l"),"p2",IF(AND(LEFT(C298,3)="EIB",D298='UNC - EIB'!$T$2,LEFT(E298,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P298&lt;&gt;""),"e",IF(AND(LEFT(C298,3)="EIB",D298='UNC - EIB'!$T$2,LEFT(E298,1)="U",'UNC - EIB'!$R$2="usd",TH!O298&lt;&gt;""),"e1",IF(AND(LEFT(C298,3)="EIB",D298='LC - EIB'!$S$2,LEFT(E298,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A299" s="55" t="str">
+        <f>IF(AND(C299="pv",E299='UNC - PV'!$S$2,D299='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C299,3)="eib",E299='UNC - EIB'!$V$2,D299='UNC - EIB'!$T$2),"x1",IF(AND(C299="pv",E299='LC - PV'!$R$2,D299='LC - PV'!$P$2),"x2",IF(AND(LEFT(C299,3)="eib",E299='LC - EIB'!$U$2,D299='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B299" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C299" s="62"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="65"/>
+      <c r="F299" s="64"/>
+      <c r="G299" s="64"/>
+      <c r="H299" s="64"/>
+      <c r="I299" s="65"/>
+      <c r="J299" s="66"/>
+      <c r="K299" s="67"/>
+      <c r="L299" s="65"/>
+      <c r="M299" s="65"/>
+      <c r="N299" s="64"/>
+      <c r="O299" s="68"/>
+      <c r="P299" s="69"/>
+      <c r="Q299" s="104"/>
+      <c r="R299" s="131" t="str">
+        <f>IF(AND(C299="pv",D299='UNC - PV'!$Q$2,LEFT(E299,1)="u",'UNC - PV'!$O$2="vnđ",TH!P299&lt;&gt;""),"p",IF(AND(C299="pv",D299='UNC - PV'!$Q$2,LEFT(E299,1)="u",'UNC - PV'!$O$2="usd",TH!O299&lt;&gt;""),"p1",IF(AND(C299="pv",D299='LC - PV'!$P$2,LEFT(E299,1)="l"),"p2",IF(AND(LEFT(C299,3)="EIB",D299='UNC - EIB'!$T$2,LEFT(E299,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P299&lt;&gt;""),"e",IF(AND(LEFT(C299,3)="EIB",D299='UNC - EIB'!$T$2,LEFT(E299,1)="U",'UNC - EIB'!$R$2="usd",TH!O299&lt;&gt;""),"e1",IF(AND(LEFT(C299,3)="EIB",D299='LC - EIB'!$S$2,LEFT(E299,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A300" s="55" t="str">
+        <f>IF(AND(C300="pv",E300='UNC - PV'!$S$2,D300='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C300,3)="eib",E300='UNC - EIB'!$V$2,D300='UNC - EIB'!$T$2),"x1",IF(AND(C300="pv",E300='LC - PV'!$R$2,D300='LC - PV'!$P$2),"x2",IF(AND(LEFT(C300,3)="eib",E300='LC - EIB'!$U$2,D300='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B300" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C300" s="62"/>
+      <c r="D300" s="67"/>
+      <c r="E300" s="65"/>
+      <c r="F300" s="64"/>
+      <c r="G300" s="64"/>
+      <c r="H300" s="64"/>
+      <c r="I300" s="65"/>
+      <c r="J300" s="66"/>
+      <c r="K300" s="67"/>
+      <c r="L300" s="65"/>
+      <c r="M300" s="65"/>
+      <c r="N300" s="64"/>
+      <c r="O300" s="68"/>
+      <c r="P300" s="69"/>
+      <c r="Q300" s="104"/>
+      <c r="R300" s="131" t="str">
+        <f>IF(AND(C300="pv",D300='UNC - PV'!$Q$2,LEFT(E300,1)="u",'UNC - PV'!$O$2="vnđ",TH!P300&lt;&gt;""),"p",IF(AND(C300="pv",D300='UNC - PV'!$Q$2,LEFT(E300,1)="u",'UNC - PV'!$O$2="usd",TH!O300&lt;&gt;""),"p1",IF(AND(C300="pv",D300='LC - PV'!$P$2,LEFT(E300,1)="l"),"p2",IF(AND(LEFT(C300,3)="EIB",D300='UNC - EIB'!$T$2,LEFT(E300,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P300&lt;&gt;""),"e",IF(AND(LEFT(C300,3)="EIB",D300='UNC - EIB'!$T$2,LEFT(E300,1)="U",'UNC - EIB'!$R$2="usd",TH!O300&lt;&gt;""),"e1",IF(AND(LEFT(C300,3)="EIB",D300='LC - EIB'!$S$2,LEFT(E300,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A301" s="55" t="str">
+        <f>IF(AND(C301="pv",E301='UNC - PV'!$S$2,D301='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C301,3)="eib",E301='UNC - EIB'!$V$2,D301='UNC - EIB'!$T$2),"x1",IF(AND(C301="pv",E301='LC - PV'!$R$2,D301='LC - PV'!$P$2),"x2",IF(AND(LEFT(C301,3)="eib",E301='LC - EIB'!$U$2,D301='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B301" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C301" s="62"/>
+      <c r="D301" s="67"/>
+      <c r="E301" s="65"/>
+      <c r="F301" s="64"/>
+      <c r="G301" s="64"/>
+      <c r="H301" s="64"/>
+      <c r="I301" s="65"/>
+      <c r="J301" s="66"/>
+      <c r="K301" s="67"/>
+      <c r="L301" s="65"/>
+      <c r="M301" s="65"/>
+      <c r="N301" s="64"/>
+      <c r="O301" s="68"/>
+      <c r="P301" s="69"/>
+      <c r="Q301" s="104"/>
+      <c r="R301" s="131" t="str">
+        <f>IF(AND(C301="pv",D301='UNC - PV'!$Q$2,LEFT(E301,1)="u",'UNC - PV'!$O$2="vnđ",TH!P301&lt;&gt;""),"p",IF(AND(C301="pv",D301='UNC - PV'!$Q$2,LEFT(E301,1)="u",'UNC - PV'!$O$2="usd",TH!O301&lt;&gt;""),"p1",IF(AND(C301="pv",D301='LC - PV'!$P$2,LEFT(E301,1)="l"),"p2",IF(AND(LEFT(C301,3)="EIB",D301='UNC - EIB'!$T$2,LEFT(E301,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P301&lt;&gt;""),"e",IF(AND(LEFT(C301,3)="EIB",D301='UNC - EIB'!$T$2,LEFT(E301,1)="U",'UNC - EIB'!$R$2="usd",TH!O301&lt;&gt;""),"e1",IF(AND(LEFT(C301,3)="EIB",D301='LC - EIB'!$S$2,LEFT(E301,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A302" s="55" t="str">
+        <f>IF(AND(C302="pv",E302='UNC - PV'!$S$2,D302='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C302,3)="eib",E302='UNC - EIB'!$V$2,D302='UNC - EIB'!$T$2),"x1",IF(AND(C302="pv",E302='LC - PV'!$R$2,D302='LC - PV'!$P$2),"x2",IF(AND(LEFT(C302,3)="eib",E302='LC - EIB'!$U$2,D302='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B302" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C302" s="62"/>
+      <c r="D302" s="67"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="64"/>
+      <c r="G302" s="64"/>
+      <c r="H302" s="64"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="66"/>
+      <c r="K302" s="67"/>
+      <c r="L302" s="65"/>
+      <c r="M302" s="65"/>
+      <c r="N302" s="64"/>
+      <c r="O302" s="68"/>
+      <c r="P302" s="69"/>
+      <c r="Q302" s="104"/>
+      <c r="R302" s="131" t="str">
+        <f>IF(AND(C302="pv",D302='UNC - PV'!$Q$2,LEFT(E302,1)="u",'UNC - PV'!$O$2="vnđ",TH!P302&lt;&gt;""),"p",IF(AND(C302="pv",D302='UNC - PV'!$Q$2,LEFT(E302,1)="u",'UNC - PV'!$O$2="usd",TH!O302&lt;&gt;""),"p1",IF(AND(C302="pv",D302='LC - PV'!$P$2,LEFT(E302,1)="l"),"p2",IF(AND(LEFT(C302,3)="EIB",D302='UNC - EIB'!$T$2,LEFT(E302,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P302&lt;&gt;""),"e",IF(AND(LEFT(C302,3)="EIB",D302='UNC - EIB'!$T$2,LEFT(E302,1)="U",'UNC - EIB'!$R$2="usd",TH!O302&lt;&gt;""),"e1",IF(AND(LEFT(C302,3)="EIB",D302='LC - EIB'!$S$2,LEFT(E302,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A303" s="55" t="str">
+        <f>IF(AND(C303="pv",E303='UNC - PV'!$S$2,D303='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C303,3)="eib",E303='UNC - EIB'!$V$2,D303='UNC - EIB'!$T$2),"x1",IF(AND(C303="pv",E303='LC - PV'!$R$2,D303='LC - PV'!$P$2),"x2",IF(AND(LEFT(C303,3)="eib",E303='LC - EIB'!$U$2,D303='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B303" s="62" t="str">
+        <f t="shared" ref="B303" si="24">IF(C303&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C303" s="62"/>
+      <c r="D303" s="67"/>
+      <c r="E303" s="65"/>
+      <c r="F303" s="64"/>
+      <c r="G303" s="64"/>
+      <c r="H303" s="64"/>
+      <c r="I303" s="65"/>
+      <c r="J303" s="66"/>
+      <c r="K303" s="67"/>
+      <c r="L303" s="65"/>
+      <c r="M303" s="65"/>
+      <c r="N303" s="64"/>
+      <c r="O303" s="68"/>
+      <c r="P303" s="69"/>
+      <c r="Q303" s="104"/>
+      <c r="R303" s="131" t="str">
+        <f>IF(AND(C303="pv",D303='UNC - PV'!$Q$2,LEFT(E303,1)="u",'UNC - PV'!$O$2="vnđ",TH!P303&lt;&gt;""),"p",IF(AND(C303="pv",D303='UNC - PV'!$Q$2,LEFT(E303,1)="u",'UNC - PV'!$O$2="usd",TH!O303&lt;&gt;""),"p1",IF(AND(C303="pv",D303='LC - PV'!$P$2,LEFT(E303,1)="l"),"p2",IF(AND(LEFT(C303,3)="EIB",D303='UNC - EIB'!$T$2,LEFT(E303,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P303&lt;&gt;""),"e",IF(AND(LEFT(C303,3)="EIB",D303='UNC - EIB'!$T$2,LEFT(E303,1)="U",'UNC - EIB'!$R$2="usd",TH!O303&lt;&gt;""),"e1",IF(AND(LEFT(C303,3)="EIB",D303='LC - EIB'!$S$2,LEFT(E303,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A304" s="55" t="str">
+        <f>IF(AND(C304="pv",E304='UNC - PV'!$S$2,D304='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C304,3)="eib",E304='UNC - EIB'!$V$2,D304='UNC - EIB'!$T$2),"x1",IF(AND(C304="pv",E304='LC - PV'!$R$2,D304='LC - PV'!$P$2),"x2",IF(AND(LEFT(C304,3)="eib",E304='LC - EIB'!$U$2,D304='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B304" s="62" t="str">
+        <f t="shared" ref="B304" si="25">IF(C304&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C304" s="62"/>
+      <c r="D304" s="67"/>
+      <c r="E304" s="65"/>
+      <c r="F304" s="64"/>
+      <c r="G304" s="64"/>
+      <c r="H304" s="64"/>
+      <c r="I304" s="65"/>
+      <c r="J304" s="66"/>
+      <c r="K304" s="67"/>
+      <c r="L304" s="65"/>
+      <c r="M304" s="65"/>
+      <c r="N304" s="64"/>
+      <c r="O304" s="68"/>
+      <c r="P304" s="69"/>
+      <c r="Q304" s="104"/>
+      <c r="R304" s="131" t="str">
+        <f>IF(AND(C304="pv",D304='UNC - PV'!$Q$2,LEFT(E304,1)="u",'UNC - PV'!$O$2="vnđ",TH!P304&lt;&gt;""),"p",IF(AND(C304="pv",D304='UNC - PV'!$Q$2,LEFT(E304,1)="u",'UNC - PV'!$O$2="usd",TH!O304&lt;&gt;""),"p1",IF(AND(C304="pv",D304='LC - PV'!$P$2,LEFT(E304,1)="l"),"p2",IF(AND(LEFT(C304,3)="EIB",D304='UNC - EIB'!$T$2,LEFT(E304,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P304&lt;&gt;""),"e",IF(AND(LEFT(C304,3)="EIB",D304='UNC - EIB'!$T$2,LEFT(E304,1)="U",'UNC - EIB'!$R$2="usd",TH!O304&lt;&gt;""),"e1",IF(AND(LEFT(C304,3)="EIB",D304='LC - EIB'!$S$2,LEFT(E304,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A305" s="55" t="str">
+        <f>IF(AND(C305="pv",E305='UNC - PV'!$S$2,D305='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C305,3)="eib",E305='UNC - EIB'!$V$2,D305='UNC - EIB'!$T$2),"x1",IF(AND(C305="pv",E305='LC - PV'!$R$2,D305='LC - PV'!$P$2),"x2",IF(AND(LEFT(C305,3)="eib",E305='LC - EIB'!$U$2,D305='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B305" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C305" s="62"/>
+      <c r="D305" s="67"/>
+      <c r="E305" s="65"/>
+      <c r="F305" s="64"/>
+      <c r="G305" s="64"/>
+      <c r="H305" s="64"/>
+      <c r="I305" s="65"/>
+      <c r="J305" s="66"/>
+      <c r="K305" s="67"/>
+      <c r="L305" s="65"/>
+      <c r="M305" s="65"/>
+      <c r="N305" s="64"/>
+      <c r="O305" s="68"/>
+      <c r="P305" s="69"/>
+      <c r="Q305" s="104"/>
+      <c r="R305" s="131" t="str">
+        <f>IF(AND(C305="pv",D305='UNC - PV'!$Q$2,LEFT(E305,1)="u",'UNC - PV'!$O$2="vnđ",TH!P305&lt;&gt;""),"p",IF(AND(C305="pv",D305='UNC - PV'!$Q$2,LEFT(E305,1)="u",'UNC - PV'!$O$2="usd",TH!O305&lt;&gt;""),"p1",IF(AND(C305="pv",D305='LC - PV'!$P$2,LEFT(E305,1)="l"),"p2",IF(AND(LEFT(C305,3)="EIB",D305='UNC - EIB'!$T$2,LEFT(E305,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P305&lt;&gt;""),"e",IF(AND(LEFT(C305,3)="EIB",D305='UNC - EIB'!$T$2,LEFT(E305,1)="U",'UNC - EIB'!$R$2="usd",TH!O305&lt;&gt;""),"e1",IF(AND(LEFT(C305,3)="EIB",D305='LC - EIB'!$S$2,LEFT(E305,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X288"/>
+  <autoFilter ref="B3:X306"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -17096,12 +17977,244 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C287">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C305">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" style="121" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="121" customWidth="1"/>
+    <col min="3" max="4" width="35.5703125" style="121" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="116"/>
+    </row>
+    <row r="2" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A2" s="118" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A3" s="119" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A4" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A5" s="116"/>
+      <c r="B5" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="116"/>
+    </row>
+    <row r="6" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A6" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A7" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A8" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A9" s="116"/>
+      <c r="B9" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="116" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="116"/>
+    </row>
+    <row r="10" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A10" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A11" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" s="119" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A12" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="120" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+    </row>
+    <row r="14" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A14" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A16" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.16" right="0.15" top="0.31" bottom="0.15" header="0.16" footer="0.15"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -17114,7 +18227,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17122,7 +18235,7 @@
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
@@ -17131,7 +18244,7 @@
     <col min="10" max="10" width="9.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" style="1" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
@@ -17153,7 +18266,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>43119</v>
+        <v>43140</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
@@ -17178,7 +18291,7 @@
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="F7" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>500000000</v>
+        <v>2534473000</v>
       </c>
       <c r="G7" s="180"/>
       <c r="K7" s="1" t="str">
@@ -17193,7 +18306,7 @@
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Năm trăm triệu đồng.</v>
+        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -17204,13 +18317,13 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
       <c r="F12" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -17222,13 +18335,13 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -17311,7 +18424,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>500000000</v>
+        <v>2534473000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -17326,7 +18439,7 @@
     <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Năm trăm triệu đồng.</v>
+        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
@@ -17337,13 +18450,13 @@
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
       <c r="F11" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -17355,13 +18468,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -17414,13 +18527,13 @@
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
+        <v>p1</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>29</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1"/>
@@ -17432,7 +18545,7 @@
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
+        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -17441,7 +18554,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>500000000</v>
+        <v>2534473000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -17456,7 +18569,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Năm trăm triệu đồng.</v>
+        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -17467,14 +18580,14 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -17487,13 +18600,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -17512,6 +18625,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="str">
+        <f>IF($O$2="vnđ","p","p1")</f>
+        <v>p</v>
+      </c>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
+      <c r="O2" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
+      <c r="E5" s="2" t="str">
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
+        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+      <c r="F6" s="180">
+        <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
+        <v>2534473000</v>
+      </c>
+      <c r="G6" s="180"/>
+      <c r="K6" s="1" t="str">
+        <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>IF(O2="usd","x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+      <c r="F7" s="1" t="str">
+        <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" customHeight="1">
+      <c r="L9" s="151" t="str">
+        <f>VLOOKUP("X",DS,14,0)</f>
+        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
+      </c>
+      <c r="M9" s="151"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
+      <c r="F10" s="14" t="str">
+        <f>VLOOKUP("X",DS,6,0)</f>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" customHeight="1"/>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1"/>
+    <row r="14" spans="1:15" ht="24" customHeight="1">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>VLOOKUP("X",DS,7,0)</f>
+        <v>1070 0026 8615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1">
+      <c r="E15" s="1" t="str">
+        <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"USD,VNĐ,TAMP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -17566,7 +18811,7 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="F8" s="180">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>500000000</v>
+        <v>2534473000</v>
       </c>
       <c r="G8" s="180"/>
       <c r="K8" s="7" t="str">
@@ -17581,7 +18826,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Năm trăm triệu đồng.</v>
+        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -17592,13 +18837,13 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="F13" s="133" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -17609,13 +18854,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -17633,7 +18878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -18085,7 +19330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -18222,7 +19467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -18710,236 +19955,4 @@
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="35.7109375" style="121" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" style="121" customWidth="1"/>
-    <col min="3" max="4" width="35.5703125" style="121" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="121"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="116" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="116" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="116"/>
-    </row>
-    <row r="2" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A2" s="118" t="s">
-        <v>238</v>
-      </c>
-      <c r="B2" s="118" t="s">
-        <v>239</v>
-      </c>
-      <c r="C2" s="118" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="120" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="120" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="120" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" s="116"/>
-    </row>
-    <row r="6" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A7" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="B7" s="119" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="119" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="119" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A8" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="120" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="116"/>
-    </row>
-    <row r="10" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A10" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" s="118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A11" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="119" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="119" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A12" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="B12" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="120" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" s="120" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-    </row>
-    <row r="14" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="B14" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="118" t="s">
-        <v>240</v>
-      </c>
-      <c r="D14" s="118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="119" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="117" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A16" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>248</v>
-      </c>
-      <c r="D16" s="120" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.16" right="0.15" top="0.31" bottom="0.15" header="0.16" footer="0.15"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1305" windowWidth="21840" windowHeight="8775" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="1365" windowWidth="13020" windowHeight="8715"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$306</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$329</definedName>
     <definedName name="dgd" hidden="1">#REF!</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$305</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39876))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$305</definedName>
+    <definedName name="DS">TH!$A$4:$Q$328</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39899))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$328</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'UNC - EIB'!$A$1:$P$32</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="493">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2004,7 +2004,40 @@
     <t>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
   <si>
+    <t>MKH: PB06030022841- Tiền điện tháng 02 năm 2018</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền nước, phí CSHT  T01 &amp; T02/2018 -Hải Sơn</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 43 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
     <t>TAMP</t>
+  </si>
+  <si>
+    <t>Thanh toán tiền đường bột ngọt - BTFood</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 44 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 45 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Thanh toan tiền gia công</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</t>
+  </si>
+  <si>
+    <t>0331000398768</t>
+  </si>
+  <si>
+    <t>VCB - CN SÀI GÒN</t>
+  </si>
+  <si>
+    <t>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</t>
   </si>
 </sst>
 </file>
@@ -3514,14 +3547,14 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R305"/>
+  <dimension ref="A1:R328"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I280" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="G245" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="P296" sqref="P296"/>
+      <selection pane="bottomRight" activeCell="F313" sqref="F313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3731,7 +3764,7 @@
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B305" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B328" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -11079,7 +11112,7 @@
         <v/>
       </c>
       <c r="B156" s="62">
-        <f t="shared" ref="B156:B301" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B156:B324" si="10">IF(C156&lt;&gt;"",ROW()-3,"")</f>
         <v>153</v>
       </c>
       <c r="C156" s="62" t="s">
@@ -16736,7 +16769,7 @@
         <v/>
       </c>
       <c r="B276" s="62">
-        <f t="shared" ref="B276:B299" si="21">IF(C276&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B276:B322" si="21">IF(C276&lt;&gt;"",ROW()-3,"")</f>
         <v>273</v>
       </c>
       <c r="C276" s="62" t="s">
@@ -17631,7 +17664,7 @@
     <row r="295" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A295" s="55" t="str">
         <f>IF(AND(C295="pv",E295='UNC - PV'!$S$2,D295='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C295,3)="eib",E295='UNC - EIB'!$V$2,D295='UNC - EIB'!$T$2),"x1",IF(AND(C295="pv",E295='LC - PV'!$R$2,D295='LC - PV'!$P$2),"x2",IF(AND(LEFT(C295,3)="eib",E295='LC - EIB'!$U$2,D295='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B295" s="62">
         <f t="shared" si="23"/>
@@ -17673,7 +17706,7 @@
       <c r="Q295" s="104"/>
       <c r="R295" s="131" t="str">
         <f>IF(AND(C295="pv",D295='UNC - PV'!$Q$2,LEFT(E295,1)="u",'UNC - PV'!$O$2="vnđ",TH!P295&lt;&gt;""),"p",IF(AND(C295="pv",D295='UNC - PV'!$Q$2,LEFT(E295,1)="u",'UNC - PV'!$O$2="usd",TH!O295&lt;&gt;""),"p1",IF(AND(C295="pv",D295='LC - PV'!$P$2,LEFT(E295,1)="l"),"p2",IF(AND(LEFT(C295,3)="EIB",D295='UNC - EIB'!$T$2,LEFT(E295,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P295&lt;&gt;""),"e",IF(AND(LEFT(C295,3)="EIB",D295='UNC - EIB'!$T$2,LEFT(E295,1)="U",'UNC - EIB'!$R$2="usd",TH!O295&lt;&gt;""),"e1",IF(AND(LEFT(C295,3)="EIB",D295='LC - EIB'!$S$2,LEFT(E295,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="296" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -17681,24 +17714,43 @@
         <f>IF(AND(C296="pv",E296='UNC - PV'!$S$2,D296='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C296,3)="eib",E296='UNC - EIB'!$V$2,D296='UNC - EIB'!$T$2),"x1",IF(AND(C296="pv",E296='LC - PV'!$R$2,D296='LC - PV'!$P$2),"x2",IF(AND(LEFT(C296,3)="eib",E296='LC - EIB'!$U$2,D296='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B296" s="62" t="str">
+      <c r="B296" s="62">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="C296" s="62"/>
-      <c r="D296" s="67"/>
-      <c r="E296" s="65"/>
-      <c r="F296" s="64"/>
-      <c r="G296" s="64"/>
-      <c r="H296" s="64"/>
-      <c r="I296" s="65"/>
+        <v>293</v>
+      </c>
+      <c r="C296" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D296" s="67">
+        <v>43159</v>
+      </c>
+      <c r="E296" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F296" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G296" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H296" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I296" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J296" s="66"/>
       <c r="K296" s="67"/>
       <c r="L296" s="65"/>
       <c r="M296" s="65"/>
-      <c r="N296" s="64"/>
+      <c r="N296" s="64" t="s">
+        <v>481</v>
+      </c>
       <c r="O296" s="68"/>
-      <c r="P296" s="69"/>
+      <c r="P296" s="69">
+        <f>30092370+21156630+13146870</f>
+        <v>64395870</v>
+      </c>
       <c r="Q296" s="104"/>
       <c r="R296" s="131" t="str">
         <f>IF(AND(C296="pv",D296='UNC - PV'!$Q$2,LEFT(E296,1)="u",'UNC - PV'!$O$2="vnđ",TH!P296&lt;&gt;""),"p",IF(AND(C296="pv",D296='UNC - PV'!$Q$2,LEFT(E296,1)="u",'UNC - PV'!$O$2="usd",TH!O296&lt;&gt;""),"p1",IF(AND(C296="pv",D296='LC - PV'!$P$2,LEFT(E296,1)="l"),"p2",IF(AND(LEFT(C296,3)="EIB",D296='UNC - EIB'!$T$2,LEFT(E296,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P296&lt;&gt;""),"e",IF(AND(LEFT(C296,3)="EIB",D296='UNC - EIB'!$T$2,LEFT(E296,1)="U",'UNC - EIB'!$R$2="usd",TH!O296&lt;&gt;""),"e1",IF(AND(LEFT(C296,3)="EIB",D296='LC - EIB'!$S$2,LEFT(E296,1)="l"),"e2",""))))))</f>
@@ -17710,24 +17762,42 @@
         <f>IF(AND(C297="pv",E297='UNC - PV'!$S$2,D297='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C297,3)="eib",E297='UNC - EIB'!$V$2,D297='UNC - EIB'!$T$2),"x1",IF(AND(C297="pv",E297='LC - PV'!$R$2,D297='LC - PV'!$P$2),"x2",IF(AND(LEFT(C297,3)="eib",E297='LC - EIB'!$U$2,D297='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B297" s="62" t="str">
+      <c r="B297" s="62">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="C297" s="62"/>
-      <c r="D297" s="67"/>
-      <c r="E297" s="65"/>
-      <c r="F297" s="64"/>
-      <c r="G297" s="64"/>
-      <c r="H297" s="64"/>
-      <c r="I297" s="65"/>
+        <v>294</v>
+      </c>
+      <c r="C297" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D297" s="67">
+        <v>43161</v>
+      </c>
+      <c r="E297" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F297" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G297" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="H297" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I297" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J297" s="66"/>
       <c r="K297" s="67"/>
       <c r="L297" s="65"/>
       <c r="M297" s="65"/>
-      <c r="N297" s="64"/>
+      <c r="N297" s="64" t="s">
+        <v>94</v>
+      </c>
       <c r="O297" s="68"/>
-      <c r="P297" s="69"/>
+      <c r="P297" s="69">
+        <v>56519422</v>
+      </c>
       <c r="Q297" s="104"/>
       <c r="R297" s="131" t="str">
         <f>IF(AND(C297="pv",D297='UNC - PV'!$Q$2,LEFT(E297,1)="u",'UNC - PV'!$O$2="vnđ",TH!P297&lt;&gt;""),"p",IF(AND(C297="pv",D297='UNC - PV'!$Q$2,LEFT(E297,1)="u",'UNC - PV'!$O$2="usd",TH!O297&lt;&gt;""),"p1",IF(AND(C297="pv",D297='LC - PV'!$P$2,LEFT(E297,1)="l"),"p2",IF(AND(LEFT(C297,3)="EIB",D297='UNC - EIB'!$T$2,LEFT(E297,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P297&lt;&gt;""),"e",IF(AND(LEFT(C297,3)="EIB",D297='UNC - EIB'!$T$2,LEFT(E297,1)="U",'UNC - EIB'!$R$2="usd",TH!O297&lt;&gt;""),"e1",IF(AND(LEFT(C297,3)="EIB",D297='LC - EIB'!$S$2,LEFT(E297,1)="l"),"e2",""))))))</f>
@@ -17739,24 +17809,42 @@
         <f>IF(AND(C298="pv",E298='UNC - PV'!$S$2,D298='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C298,3)="eib",E298='UNC - EIB'!$V$2,D298='UNC - EIB'!$T$2),"x1",IF(AND(C298="pv",E298='LC - PV'!$R$2,D298='LC - PV'!$P$2),"x2",IF(AND(LEFT(C298,3)="eib",E298='LC - EIB'!$U$2,D298='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B298" s="62" t="str">
+      <c r="B298" s="62">
         <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="C298" s="62"/>
-      <c r="D298" s="67"/>
-      <c r="E298" s="65"/>
-      <c r="F298" s="64"/>
-      <c r="G298" s="64"/>
-      <c r="H298" s="64"/>
-      <c r="I298" s="65"/>
+        <v>295</v>
+      </c>
+      <c r="C298" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D298" s="67">
+        <v>43164</v>
+      </c>
+      <c r="E298" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F298" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G298" s="71" t="s">
+        <v>433</v>
+      </c>
+      <c r="H298" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I298" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J298" s="66"/>
       <c r="K298" s="67"/>
       <c r="L298" s="65"/>
       <c r="M298" s="65"/>
-      <c r="N298" s="64"/>
+      <c r="N298" s="64" t="s">
+        <v>164</v>
+      </c>
       <c r="O298" s="68"/>
-      <c r="P298" s="69"/>
+      <c r="P298" s="69">
+        <v>60000000</v>
+      </c>
       <c r="Q298" s="104"/>
       <c r="R298" s="131" t="str">
         <f>IF(AND(C298="pv",D298='UNC - PV'!$Q$2,LEFT(E298,1)="u",'UNC - PV'!$O$2="vnđ",TH!P298&lt;&gt;""),"p",IF(AND(C298="pv",D298='UNC - PV'!$Q$2,LEFT(E298,1)="u",'UNC - PV'!$O$2="usd",TH!O298&lt;&gt;""),"p1",IF(AND(C298="pv",D298='LC - PV'!$P$2,LEFT(E298,1)="l"),"p2",IF(AND(LEFT(C298,3)="EIB",D298='UNC - EIB'!$T$2,LEFT(E298,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P298&lt;&gt;""),"e",IF(AND(LEFT(C298,3)="EIB",D298='UNC - EIB'!$T$2,LEFT(E298,1)="U",'UNC - EIB'!$R$2="usd",TH!O298&lt;&gt;""),"e1",IF(AND(LEFT(C298,3)="EIB",D298='LC - EIB'!$S$2,LEFT(E298,1)="l"),"e2",""))))))</f>
@@ -17768,24 +17856,42 @@
         <f>IF(AND(C299="pv",E299='UNC - PV'!$S$2,D299='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C299,3)="eib",E299='UNC - EIB'!$V$2,D299='UNC - EIB'!$T$2),"x1",IF(AND(C299="pv",E299='LC - PV'!$R$2,D299='LC - PV'!$P$2),"x2",IF(AND(LEFT(C299,3)="eib",E299='LC - EIB'!$U$2,D299='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B299" s="62" t="str">
+      <c r="B299" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C299" s="62"/>
-      <c r="D299" s="67"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="64"/>
-      <c r="G299" s="64"/>
-      <c r="H299" s="64"/>
-      <c r="I299" s="65"/>
+        <v>296</v>
+      </c>
+      <c r="C299" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D299" s="67">
+        <v>43164</v>
+      </c>
+      <c r="E299" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F299" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="G299" s="71" t="s">
+        <v>441</v>
+      </c>
+      <c r="H299" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="I299" s="65" t="s">
+        <v>333</v>
+      </c>
       <c r="J299" s="66"/>
       <c r="K299" s="67"/>
       <c r="L299" s="65"/>
       <c r="M299" s="65"/>
-      <c r="N299" s="64"/>
+      <c r="N299" s="64" t="s">
+        <v>334</v>
+      </c>
       <c r="O299" s="68"/>
-      <c r="P299" s="69"/>
+      <c r="P299" s="69">
+        <v>1305900000</v>
+      </c>
       <c r="Q299" s="104"/>
       <c r="R299" s="131" t="str">
         <f>IF(AND(C299="pv",D299='UNC - PV'!$Q$2,LEFT(E299,1)="u",'UNC - PV'!$O$2="vnđ",TH!P299&lt;&gt;""),"p",IF(AND(C299="pv",D299='UNC - PV'!$Q$2,LEFT(E299,1)="u",'UNC - PV'!$O$2="usd",TH!O299&lt;&gt;""),"p1",IF(AND(C299="pv",D299='LC - PV'!$P$2,LEFT(E299,1)="l"),"p2",IF(AND(LEFT(C299,3)="EIB",D299='UNC - EIB'!$T$2,LEFT(E299,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P299&lt;&gt;""),"e",IF(AND(LEFT(C299,3)="EIB",D299='UNC - EIB'!$T$2,LEFT(E299,1)="U",'UNC - EIB'!$R$2="usd",TH!O299&lt;&gt;""),"e1",IF(AND(LEFT(C299,3)="EIB",D299='LC - EIB'!$S$2,LEFT(E299,1)="l"),"e2",""))))))</f>
@@ -17797,24 +17903,43 @@
         <f>IF(AND(C300="pv",E300='UNC - PV'!$S$2,D300='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C300,3)="eib",E300='UNC - EIB'!$V$2,D300='UNC - EIB'!$T$2),"x1",IF(AND(C300="pv",E300='LC - PV'!$R$2,D300='LC - PV'!$P$2),"x2",IF(AND(LEFT(C300,3)="eib",E300='LC - EIB'!$U$2,D300='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B300" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C300" s="62"/>
-      <c r="D300" s="67"/>
-      <c r="E300" s="65"/>
-      <c r="F300" s="64"/>
-      <c r="G300" s="64"/>
-      <c r="H300" s="64"/>
-      <c r="I300" s="65"/>
-      <c r="J300" s="66"/>
+      <c r="B300" s="62">
+        <f t="shared" si="21"/>
+        <v>297</v>
+      </c>
+      <c r="C300" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D300" s="67">
+        <v>43167</v>
+      </c>
+      <c r="E300" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F300" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G300" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H300" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I300" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J300" s="56"/>
       <c r="K300" s="67"/>
       <c r="L300" s="65"/>
       <c r="M300" s="65"/>
-      <c r="N300" s="64"/>
+      <c r="N300" s="64" t="s">
+        <v>483</v>
+      </c>
       <c r="O300" s="68"/>
-      <c r="P300" s="69"/>
+      <c r="P300" s="69">
+        <f>22746*96000</f>
+        <v>2183616000</v>
+      </c>
       <c r="Q300" s="104"/>
       <c r="R300" s="131" t="str">
         <f>IF(AND(C300="pv",D300='UNC - PV'!$Q$2,LEFT(E300,1)="u",'UNC - PV'!$O$2="vnđ",TH!P300&lt;&gt;""),"p",IF(AND(C300="pv",D300='UNC - PV'!$Q$2,LEFT(E300,1)="u",'UNC - PV'!$O$2="usd",TH!O300&lt;&gt;""),"p1",IF(AND(C300="pv",D300='LC - PV'!$P$2,LEFT(E300,1)="l"),"p2",IF(AND(LEFT(C300,3)="EIB",D300='UNC - EIB'!$T$2,LEFT(E300,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P300&lt;&gt;""),"e",IF(AND(LEFT(C300,3)="EIB",D300='UNC - EIB'!$T$2,LEFT(E300,1)="U",'UNC - EIB'!$R$2="usd",TH!O300&lt;&gt;""),"e1",IF(AND(LEFT(C300,3)="EIB",D300='LC - EIB'!$S$2,LEFT(E300,1)="l"),"e2",""))))))</f>
@@ -17826,24 +17951,42 @@
         <f>IF(AND(C301="pv",E301='UNC - PV'!$S$2,D301='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C301,3)="eib",E301='UNC - EIB'!$V$2,D301='UNC - EIB'!$T$2),"x1",IF(AND(C301="pv",E301='LC - PV'!$R$2,D301='LC - PV'!$P$2),"x2",IF(AND(LEFT(C301,3)="eib",E301='LC - EIB'!$U$2,D301='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B301" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C301" s="62"/>
-      <c r="D301" s="67"/>
-      <c r="E301" s="65"/>
-      <c r="F301" s="64"/>
-      <c r="G301" s="64"/>
-      <c r="H301" s="64"/>
-      <c r="I301" s="65"/>
+      <c r="B301" s="62">
+        <f t="shared" si="21"/>
+        <v>298</v>
+      </c>
+      <c r="C301" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D301" s="67">
+        <v>43171</v>
+      </c>
+      <c r="E301" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F301" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="G301" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="H301" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="I301" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J301" s="66"/>
       <c r="K301" s="67"/>
       <c r="L301" s="65"/>
       <c r="M301" s="65"/>
-      <c r="N301" s="64"/>
+      <c r="N301" s="64" t="s">
+        <v>217</v>
+      </c>
       <c r="O301" s="68"/>
-      <c r="P301" s="69"/>
+      <c r="P301" s="69">
+        <v>9900000</v>
+      </c>
       <c r="Q301" s="104"/>
       <c r="R301" s="131" t="str">
         <f>IF(AND(C301="pv",D301='UNC - PV'!$Q$2,LEFT(E301,1)="u",'UNC - PV'!$O$2="vnđ",TH!P301&lt;&gt;""),"p",IF(AND(C301="pv",D301='UNC - PV'!$Q$2,LEFT(E301,1)="u",'UNC - PV'!$O$2="usd",TH!O301&lt;&gt;""),"p1",IF(AND(C301="pv",D301='LC - PV'!$P$2,LEFT(E301,1)="l"),"p2",IF(AND(LEFT(C301,3)="EIB",D301='UNC - EIB'!$T$2,LEFT(E301,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P301&lt;&gt;""),"e",IF(AND(LEFT(C301,3)="EIB",D301='UNC - EIB'!$T$2,LEFT(E301,1)="U",'UNC - EIB'!$R$2="usd",TH!O301&lt;&gt;""),"e1",IF(AND(LEFT(C301,3)="EIB",D301='LC - EIB'!$S$2,LEFT(E301,1)="l"),"e2",""))))))</f>
@@ -17855,24 +17998,42 @@
         <f>IF(AND(C302="pv",E302='UNC - PV'!$S$2,D302='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C302,3)="eib",E302='UNC - EIB'!$V$2,D302='UNC - EIB'!$T$2),"x1",IF(AND(C302="pv",E302='LC - PV'!$R$2,D302='LC - PV'!$P$2),"x2",IF(AND(LEFT(C302,3)="eib",E302='LC - EIB'!$U$2,D302='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B302" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C302" s="62"/>
-      <c r="D302" s="67"/>
-      <c r="E302" s="65"/>
-      <c r="F302" s="64"/>
-      <c r="G302" s="64"/>
-      <c r="H302" s="64"/>
-      <c r="I302" s="65"/>
+      <c r="B302" s="62">
+        <f t="shared" si="21"/>
+        <v>299</v>
+      </c>
+      <c r="C302" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D302" s="67">
+        <v>43171</v>
+      </c>
+      <c r="E302" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F302" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G302" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H302" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="I302" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J302" s="66"/>
       <c r="K302" s="67"/>
       <c r="L302" s="65"/>
       <c r="M302" s="65"/>
-      <c r="N302" s="64"/>
+      <c r="N302" s="70" t="s">
+        <v>482</v>
+      </c>
       <c r="O302" s="68"/>
-      <c r="P302" s="69"/>
+      <c r="P302" s="69">
+        <v>14824178</v>
+      </c>
       <c r="Q302" s="104"/>
       <c r="R302" s="131" t="str">
         <f>IF(AND(C302="pv",D302='UNC - PV'!$Q$2,LEFT(E302,1)="u",'UNC - PV'!$O$2="vnđ",TH!P302&lt;&gt;""),"p",IF(AND(C302="pv",D302='UNC - PV'!$Q$2,LEFT(E302,1)="u",'UNC - PV'!$O$2="usd",TH!O302&lt;&gt;""),"p1",IF(AND(C302="pv",D302='LC - PV'!$P$2,LEFT(E302,1)="l"),"p2",IF(AND(LEFT(C302,3)="EIB",D302='UNC - EIB'!$T$2,LEFT(E302,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P302&lt;&gt;""),"e",IF(AND(LEFT(C302,3)="EIB",D302='UNC - EIB'!$T$2,LEFT(E302,1)="U",'UNC - EIB'!$R$2="usd",TH!O302&lt;&gt;""),"e1",IF(AND(LEFT(C302,3)="EIB",D302='LC - EIB'!$S$2,LEFT(E302,1)="l"),"e2",""))))))</f>
@@ -17884,24 +18045,42 @@
         <f>IF(AND(C303="pv",E303='UNC - PV'!$S$2,D303='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C303,3)="eib",E303='UNC - EIB'!$V$2,D303='UNC - EIB'!$T$2),"x1",IF(AND(C303="pv",E303='LC - PV'!$R$2,D303='LC - PV'!$P$2),"x2",IF(AND(LEFT(C303,3)="eib",E303='LC - EIB'!$U$2,D303='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B303" s="62" t="str">
-        <f t="shared" ref="B303" si="24">IF(C303&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C303" s="62"/>
-      <c r="D303" s="67"/>
-      <c r="E303" s="65"/>
-      <c r="F303" s="64"/>
-      <c r="G303" s="64"/>
-      <c r="H303" s="64"/>
-      <c r="I303" s="65"/>
+      <c r="B303" s="62">
+        <f t="shared" ref="B303:B312" si="24">IF(C303&lt;&gt;"",ROW()-3,"")</f>
+        <v>300</v>
+      </c>
+      <c r="C303" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D303" s="67">
+        <v>43171</v>
+      </c>
+      <c r="E303" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F303" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G303" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="H303" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I303" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J303" s="66"/>
       <c r="K303" s="67"/>
       <c r="L303" s="65"/>
       <c r="M303" s="65"/>
-      <c r="N303" s="64"/>
+      <c r="N303" s="64" t="s">
+        <v>373</v>
+      </c>
       <c r="O303" s="68"/>
-      <c r="P303" s="69"/>
+      <c r="P303" s="69">
+        <v>150000000</v>
+      </c>
       <c r="Q303" s="104"/>
       <c r="R303" s="131" t="str">
         <f>IF(AND(C303="pv",D303='UNC - PV'!$Q$2,LEFT(E303,1)="u",'UNC - PV'!$O$2="vnđ",TH!P303&lt;&gt;""),"p",IF(AND(C303="pv",D303='UNC - PV'!$Q$2,LEFT(E303,1)="u",'UNC - PV'!$O$2="usd",TH!O303&lt;&gt;""),"p1",IF(AND(C303="pv",D303='LC - PV'!$P$2,LEFT(E303,1)="l"),"p2",IF(AND(LEFT(C303,3)="EIB",D303='UNC - EIB'!$T$2,LEFT(E303,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P303&lt;&gt;""),"e",IF(AND(LEFT(C303,3)="EIB",D303='UNC - EIB'!$T$2,LEFT(E303,1)="U",'UNC - EIB'!$R$2="usd",TH!O303&lt;&gt;""),"e1",IF(AND(LEFT(C303,3)="EIB",D303='LC - EIB'!$S$2,LEFT(E303,1)="l"),"e2",""))))))</f>
@@ -17913,24 +18092,42 @@
         <f>IF(AND(C304="pv",E304='UNC - PV'!$S$2,D304='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C304,3)="eib",E304='UNC - EIB'!$V$2,D304='UNC - EIB'!$T$2),"x1",IF(AND(C304="pv",E304='LC - PV'!$R$2,D304='LC - PV'!$P$2),"x2",IF(AND(LEFT(C304,3)="eib",E304='LC - EIB'!$U$2,D304='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B304" s="62" t="str">
-        <f t="shared" ref="B304" si="25">IF(C304&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C304" s="62"/>
-      <c r="D304" s="67"/>
-      <c r="E304" s="65"/>
-      <c r="F304" s="64"/>
-      <c r="G304" s="64"/>
-      <c r="H304" s="64"/>
-      <c r="I304" s="65"/>
+      <c r="B304" s="62">
+        <f t="shared" si="24"/>
+        <v>301</v>
+      </c>
+      <c r="C304" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D304" s="67">
+        <v>43171</v>
+      </c>
+      <c r="E304" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F304" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G304" s="71" t="s">
+        <v>385</v>
+      </c>
+      <c r="H304" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I304" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J304" s="66"/>
       <c r="K304" s="67"/>
       <c r="L304" s="65"/>
       <c r="M304" s="65"/>
-      <c r="N304" s="64"/>
+      <c r="N304" s="64" t="s">
+        <v>191</v>
+      </c>
       <c r="O304" s="68"/>
-      <c r="P304" s="69"/>
+      <c r="P304" s="69">
+        <v>23500000</v>
+      </c>
       <c r="Q304" s="104"/>
       <c r="R304" s="131" t="str">
         <f>IF(AND(C304="pv",D304='UNC - PV'!$Q$2,LEFT(E304,1)="u",'UNC - PV'!$O$2="vnđ",TH!P304&lt;&gt;""),"p",IF(AND(C304="pv",D304='UNC - PV'!$Q$2,LEFT(E304,1)="u",'UNC - PV'!$O$2="usd",TH!O304&lt;&gt;""),"p1",IF(AND(C304="pv",D304='LC - PV'!$P$2,LEFT(E304,1)="l"),"p2",IF(AND(LEFT(C304,3)="EIB",D304='UNC - EIB'!$T$2,LEFT(E304,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P304&lt;&gt;""),"e",IF(AND(LEFT(C304,3)="EIB",D304='UNC - EIB'!$T$2,LEFT(E304,1)="U",'UNC - EIB'!$R$2="usd",TH!O304&lt;&gt;""),"e1",IF(AND(LEFT(C304,3)="EIB",D304='LC - EIB'!$S$2,LEFT(E304,1)="l"),"e2",""))))))</f>
@@ -17942,32 +18139,827 @@
         <f>IF(AND(C305="pv",E305='UNC - PV'!$S$2,D305='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C305,3)="eib",E305='UNC - EIB'!$V$2,D305='UNC - EIB'!$T$2),"x1",IF(AND(C305="pv",E305='LC - PV'!$R$2,D305='LC - PV'!$P$2),"x2",IF(AND(LEFT(C305,3)="eib",E305='LC - EIB'!$U$2,D305='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B305" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C305" s="62"/>
-      <c r="D305" s="67"/>
-      <c r="E305" s="65"/>
-      <c r="F305" s="64"/>
-      <c r="G305" s="64"/>
-      <c r="H305" s="64"/>
-      <c r="I305" s="65"/>
+      <c r="B305" s="62">
+        <f t="shared" si="24"/>
+        <v>302</v>
+      </c>
+      <c r="C305" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D305" s="67">
+        <v>43171</v>
+      </c>
+      <c r="E305" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="F305" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="G305" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="H305" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="I305" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J305" s="66"/>
       <c r="K305" s="67"/>
       <c r="L305" s="65"/>
       <c r="M305" s="65"/>
-      <c r="N305" s="64"/>
+      <c r="N305" s="64" t="s">
+        <v>485</v>
+      </c>
       <c r="O305" s="68"/>
-      <c r="P305" s="69"/>
+      <c r="P305" s="69">
+        <v>89800000</v>
+      </c>
       <c r="Q305" s="104"/>
       <c r="R305" s="131" t="str">
         <f>IF(AND(C305="pv",D305='UNC - PV'!$Q$2,LEFT(E305,1)="u",'UNC - PV'!$O$2="vnđ",TH!P305&lt;&gt;""),"p",IF(AND(C305="pv",D305='UNC - PV'!$Q$2,LEFT(E305,1)="u",'UNC - PV'!$O$2="usd",TH!O305&lt;&gt;""),"p1",IF(AND(C305="pv",D305='LC - PV'!$P$2,LEFT(E305,1)="l"),"p2",IF(AND(LEFT(C305,3)="EIB",D305='UNC - EIB'!$T$2,LEFT(E305,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P305&lt;&gt;""),"e",IF(AND(LEFT(C305,3)="EIB",D305='UNC - EIB'!$T$2,LEFT(E305,1)="U",'UNC - EIB'!$R$2="usd",TH!O305&lt;&gt;""),"e1",IF(AND(LEFT(C305,3)="EIB",D305='LC - EIB'!$S$2,LEFT(E305,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
+    <row r="306" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A306" s="55" t="str">
+        <f>IF(AND(C306="pv",E306='UNC - PV'!$S$2,D306='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C306,3)="eib",E306='UNC - EIB'!$V$2,D306='UNC - EIB'!$T$2),"x1",IF(AND(C306="pv",E306='LC - PV'!$R$2,D306='LC - PV'!$P$2),"x2",IF(AND(LEFT(C306,3)="eib",E306='LC - EIB'!$U$2,D306='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B306" s="62">
+        <f t="shared" si="24"/>
+        <v>303</v>
+      </c>
+      <c r="C306" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D306" s="67">
+        <v>43171</v>
+      </c>
+      <c r="E306" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="F306" s="157" t="s">
+        <v>153</v>
+      </c>
+      <c r="G306" s="166" t="s">
+        <v>469</v>
+      </c>
+      <c r="H306" s="157" t="s">
+        <v>155</v>
+      </c>
+      <c r="I306" s="158" t="s">
+        <v>10</v>
+      </c>
+      <c r="J306" s="159"/>
+      <c r="K306" s="160"/>
+      <c r="L306" s="158"/>
+      <c r="M306" s="158"/>
+      <c r="N306" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="O306" s="68"/>
+      <c r="P306" s="69">
+        <v>109355400</v>
+      </c>
+      <c r="Q306" s="104"/>
+      <c r="R306" s="131" t="str">
+        <f>IF(AND(C306="pv",D306='UNC - PV'!$Q$2,LEFT(E306,1)="u",'UNC - PV'!$O$2="vnđ",TH!P306&lt;&gt;""),"p",IF(AND(C306="pv",D306='UNC - PV'!$Q$2,LEFT(E306,1)="u",'UNC - PV'!$O$2="usd",TH!O306&lt;&gt;""),"p1",IF(AND(C306="pv",D306='LC - PV'!$P$2,LEFT(E306,1)="l"),"p2",IF(AND(LEFT(C306,3)="EIB",D306='UNC - EIB'!$T$2,LEFT(E306,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P306&lt;&gt;""),"e",IF(AND(LEFT(C306,3)="EIB",D306='UNC - EIB'!$T$2,LEFT(E306,1)="U",'UNC - EIB'!$R$2="usd",TH!O306&lt;&gt;""),"e1",IF(AND(LEFT(C306,3)="EIB",D306='LC - EIB'!$S$2,LEFT(E306,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A307" s="55" t="str">
+        <f>IF(AND(C307="pv",E307='UNC - PV'!$S$2,D307='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C307,3)="eib",E307='UNC - EIB'!$V$2,D307='UNC - EIB'!$T$2),"x1",IF(AND(C307="pv",E307='LC - PV'!$R$2,D307='LC - PV'!$P$2),"x2",IF(AND(LEFT(C307,3)="eib",E307='LC - EIB'!$U$2,D307='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B307" s="62">
+        <f t="shared" si="24"/>
+        <v>304</v>
+      </c>
+      <c r="C307" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D307" s="67">
+        <v>43172</v>
+      </c>
+      <c r="E307" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F307" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G307" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="H307" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="I307" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J307" s="66"/>
+      <c r="K307" s="67"/>
+      <c r="L307" s="65"/>
+      <c r="M307" s="65"/>
+      <c r="N307" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="O307" s="68"/>
+      <c r="P307" s="69">
+        <v>37455001</v>
+      </c>
+      <c r="Q307" s="104"/>
+      <c r="R307" s="131" t="str">
+        <f>IF(AND(C307="pv",D307='UNC - PV'!$Q$2,LEFT(E307,1)="u",'UNC - PV'!$O$2="vnđ",TH!P307&lt;&gt;""),"p",IF(AND(C307="pv",D307='UNC - PV'!$Q$2,LEFT(E307,1)="u",'UNC - PV'!$O$2="usd",TH!O307&lt;&gt;""),"p1",IF(AND(C307="pv",D307='LC - PV'!$P$2,LEFT(E307,1)="l"),"p2",IF(AND(LEFT(C307,3)="EIB",D307='UNC - EIB'!$T$2,LEFT(E307,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P307&lt;&gt;""),"e",IF(AND(LEFT(C307,3)="EIB",D307='UNC - EIB'!$T$2,LEFT(E307,1)="U",'UNC - EIB'!$R$2="usd",TH!O307&lt;&gt;""),"e1",IF(AND(LEFT(C307,3)="EIB",D307='LC - EIB'!$S$2,LEFT(E307,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A308" s="55" t="str">
+        <f>IF(AND(C308="pv",E308='UNC - PV'!$S$2,D308='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C308,3)="eib",E308='UNC - EIB'!$V$2,D308='UNC - EIB'!$T$2),"x1",IF(AND(C308="pv",E308='LC - PV'!$R$2,D308='LC - PV'!$P$2),"x2",IF(AND(LEFT(C308,3)="eib",E308='LC - EIB'!$U$2,D308='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B308" s="62">
+        <f t="shared" si="24"/>
+        <v>305</v>
+      </c>
+      <c r="C308" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D308" s="67">
+        <v>43179</v>
+      </c>
+      <c r="E308" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F308" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G308" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H308" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I308" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J308" s="56"/>
+      <c r="K308" s="67"/>
+      <c r="L308" s="65"/>
+      <c r="M308" s="65"/>
+      <c r="N308" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="O308" s="68"/>
+      <c r="P308" s="69">
+        <f>22350*22760</f>
+        <v>508686000</v>
+      </c>
+      <c r="Q308" s="104"/>
+      <c r="R308" s="131" t="str">
+        <f>IF(AND(C308="pv",D308='UNC - PV'!$Q$2,LEFT(E308,1)="u",'UNC - PV'!$O$2="vnđ",TH!P308&lt;&gt;""),"p",IF(AND(C308="pv",D308='UNC - PV'!$Q$2,LEFT(E308,1)="u",'UNC - PV'!$O$2="usd",TH!O308&lt;&gt;""),"p1",IF(AND(C308="pv",D308='LC - PV'!$P$2,LEFT(E308,1)="l"),"p2",IF(AND(LEFT(C308,3)="EIB",D308='UNC - EIB'!$T$2,LEFT(E308,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P308&lt;&gt;""),"e",IF(AND(LEFT(C308,3)="EIB",D308='UNC - EIB'!$T$2,LEFT(E308,1)="U",'UNC - EIB'!$R$2="usd",TH!O308&lt;&gt;""),"e1",IF(AND(LEFT(C308,3)="EIB",D308='LC - EIB'!$S$2,LEFT(E308,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A309" s="55" t="str">
+        <f>IF(AND(C309="pv",E309='UNC - PV'!$S$2,D309='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C309,3)="eib",E309='UNC - EIB'!$V$2,D309='UNC - EIB'!$T$2),"x1",IF(AND(C309="pv",E309='LC - PV'!$R$2,D309='LC - PV'!$P$2),"x2",IF(AND(LEFT(C309,3)="eib",E309='LC - EIB'!$U$2,D309='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B309" s="62">
+        <f t="shared" si="24"/>
+        <v>306</v>
+      </c>
+      <c r="C309" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D309" s="67">
+        <v>43179</v>
+      </c>
+      <c r="E309" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F309" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G309" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H309" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I309" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J309" s="56"/>
+      <c r="K309" s="67"/>
+      <c r="L309" s="65"/>
+      <c r="M309" s="65"/>
+      <c r="N309" s="64" t="s">
+        <v>487</v>
+      </c>
+      <c r="O309" s="68"/>
+      <c r="P309" s="69">
+        <f>89000*22762</f>
+        <v>2025818000</v>
+      </c>
+      <c r="Q309" s="104"/>
+      <c r="R309" s="131" t="str">
+        <f>IF(AND(C309="pv",D309='UNC - PV'!$Q$2,LEFT(E309,1)="u",'UNC - PV'!$O$2="vnđ",TH!P309&lt;&gt;""),"p",IF(AND(C309="pv",D309='UNC - PV'!$Q$2,LEFT(E309,1)="u",'UNC - PV'!$O$2="usd",TH!O309&lt;&gt;""),"p1",IF(AND(C309="pv",D309='LC - PV'!$P$2,LEFT(E309,1)="l"),"p2",IF(AND(LEFT(C309,3)="EIB",D309='UNC - EIB'!$T$2,LEFT(E309,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P309&lt;&gt;""),"e",IF(AND(LEFT(C309,3)="EIB",D309='UNC - EIB'!$T$2,LEFT(E309,1)="U",'UNC - EIB'!$R$2="usd",TH!O309&lt;&gt;""),"e1",IF(AND(LEFT(C309,3)="EIB",D309='LC - EIB'!$S$2,LEFT(E309,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A310" s="55" t="str">
+        <f>IF(AND(C310="pv",E310='UNC - PV'!$S$2,D310='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C310,3)="eib",E310='UNC - EIB'!$V$2,D310='UNC - EIB'!$T$2),"x1",IF(AND(C310="pv",E310='LC - PV'!$R$2,D310='LC - PV'!$P$2),"x2",IF(AND(LEFT(C310,3)="eib",E310='LC - EIB'!$U$2,D310='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B310" s="62">
+        <f t="shared" si="24"/>
+        <v>307</v>
+      </c>
+      <c r="C310" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D310" s="67">
+        <v>43180</v>
+      </c>
+      <c r="E310" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F310" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G310" s="107" t="s">
+        <v>134</v>
+      </c>
+      <c r="H310" s="107" t="s">
+        <v>130</v>
+      </c>
+      <c r="I310" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J310" s="66"/>
+      <c r="K310" s="67"/>
+      <c r="L310" s="65"/>
+      <c r="M310" s="65"/>
+      <c r="N310" s="107" t="s">
+        <v>488</v>
+      </c>
+      <c r="O310" s="68"/>
+      <c r="P310" s="69">
+        <v>320000000</v>
+      </c>
+      <c r="Q310" s="104"/>
+      <c r="R310" s="131" t="str">
+        <f>IF(AND(C310="pv",D310='UNC - PV'!$Q$2,LEFT(E310,1)="u",'UNC - PV'!$O$2="vnđ",TH!P310&lt;&gt;""),"p",IF(AND(C310="pv",D310='UNC - PV'!$Q$2,LEFT(E310,1)="u",'UNC - PV'!$O$2="usd",TH!O310&lt;&gt;""),"p1",IF(AND(C310="pv",D310='LC - PV'!$P$2,LEFT(E310,1)="l"),"p2",IF(AND(LEFT(C310,3)="EIB",D310='UNC - EIB'!$T$2,LEFT(E310,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P310&lt;&gt;""),"e",IF(AND(LEFT(C310,3)="EIB",D310='UNC - EIB'!$T$2,LEFT(E310,1)="U",'UNC - EIB'!$R$2="usd",TH!O310&lt;&gt;""),"e1",IF(AND(LEFT(C310,3)="EIB",D310='LC - EIB'!$S$2,LEFT(E310,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A311" s="55" t="str">
+        <f>IF(AND(C311="pv",E311='UNC - PV'!$S$2,D311='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C311,3)="eib",E311='UNC - EIB'!$V$2,D311='UNC - EIB'!$T$2),"x1",IF(AND(C311="pv",E311='LC - PV'!$R$2,D311='LC - PV'!$P$2),"x2",IF(AND(LEFT(C311,3)="eib",E311='LC - EIB'!$U$2,D311='LC - EIB'!$S$2),"x3",""))))</f>
+        <v>x</v>
+      </c>
+      <c r="B311" s="62">
+        <f t="shared" si="24"/>
+        <v>308</v>
+      </c>
+      <c r="C311" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D311" s="67">
+        <v>43185</v>
+      </c>
+      <c r="E311" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F311" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="G311" s="71" t="s">
+        <v>490</v>
+      </c>
+      <c r="H311" s="64" t="s">
+        <v>491</v>
+      </c>
+      <c r="I311" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J311" s="66"/>
+      <c r="K311" s="67"/>
+      <c r="L311" s="65"/>
+      <c r="M311" s="65"/>
+      <c r="N311" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="O311" s="68"/>
+      <c r="P311" s="69">
+        <v>7000000</v>
+      </c>
+      <c r="Q311" s="104"/>
+      <c r="R311" s="131" t="str">
+        <f>IF(AND(C311="pv",D311='UNC - PV'!$Q$2,LEFT(E311,1)="u",'UNC - PV'!$O$2="vnđ",TH!P311&lt;&gt;""),"p",IF(AND(C311="pv",D311='UNC - PV'!$Q$2,LEFT(E311,1)="u",'UNC - PV'!$O$2="usd",TH!O311&lt;&gt;""),"p1",IF(AND(C311="pv",D311='LC - PV'!$P$2,LEFT(E311,1)="l"),"p2",IF(AND(LEFT(C311,3)="EIB",D311='UNC - EIB'!$T$2,LEFT(E311,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P311&lt;&gt;""),"e",IF(AND(LEFT(C311,3)="EIB",D311='UNC - EIB'!$T$2,LEFT(E311,1)="U",'UNC - EIB'!$R$2="usd",TH!O311&lt;&gt;""),"e1",IF(AND(LEFT(C311,3)="EIB",D311='LC - EIB'!$S$2,LEFT(E311,1)="l"),"e2",""))))))</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A312" s="55" t="str">
+        <f>IF(AND(C312="pv",E312='UNC - PV'!$S$2,D312='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C312,3)="eib",E312='UNC - EIB'!$V$2,D312='UNC - EIB'!$T$2),"x1",IF(AND(C312="pv",E312='LC - PV'!$R$2,D312='LC - PV'!$P$2),"x2",IF(AND(LEFT(C312,3)="eib",E312='LC - EIB'!$U$2,D312='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B312" s="62" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="C312" s="62"/>
+      <c r="D312" s="67"/>
+      <c r="E312" s="65"/>
+      <c r="F312" s="64"/>
+      <c r="G312" s="64"/>
+      <c r="H312" s="64"/>
+      <c r="I312" s="65"/>
+      <c r="J312" s="66"/>
+      <c r="K312" s="67"/>
+      <c r="L312" s="65"/>
+      <c r="M312" s="65"/>
+      <c r="N312" s="64"/>
+      <c r="O312" s="68"/>
+      <c r="P312" s="69"/>
+      <c r="Q312" s="104"/>
+      <c r="R312" s="131" t="str">
+        <f>IF(AND(C312="pv",D312='UNC - PV'!$Q$2,LEFT(E312,1)="u",'UNC - PV'!$O$2="vnđ",TH!P312&lt;&gt;""),"p",IF(AND(C312="pv",D312='UNC - PV'!$Q$2,LEFT(E312,1)="u",'UNC - PV'!$O$2="usd",TH!O312&lt;&gt;""),"p1",IF(AND(C312="pv",D312='LC - PV'!$P$2,LEFT(E312,1)="l"),"p2",IF(AND(LEFT(C312,3)="EIB",D312='UNC - EIB'!$T$2,LEFT(E312,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P312&lt;&gt;""),"e",IF(AND(LEFT(C312,3)="EIB",D312='UNC - EIB'!$T$2,LEFT(E312,1)="U",'UNC - EIB'!$R$2="usd",TH!O312&lt;&gt;""),"e1",IF(AND(LEFT(C312,3)="EIB",D312='LC - EIB'!$S$2,LEFT(E312,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A313" s="55" t="str">
+        <f>IF(AND(C313="pv",E313='UNC - PV'!$S$2,D313='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C313,3)="eib",E313='UNC - EIB'!$V$2,D313='UNC - EIB'!$T$2),"x1",IF(AND(C313="pv",E313='LC - PV'!$R$2,D313='LC - PV'!$P$2),"x2",IF(AND(LEFT(C313,3)="eib",E313='LC - EIB'!$U$2,D313='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B313" s="62" t="str">
+        <f t="shared" ref="B313:B317" si="25">IF(C313&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C313" s="62"/>
+      <c r="D313" s="67"/>
+      <c r="E313" s="65"/>
+      <c r="F313" s="64"/>
+      <c r="G313" s="64"/>
+      <c r="H313" s="64"/>
+      <c r="I313" s="65"/>
+      <c r="J313" s="66"/>
+      <c r="K313" s="67"/>
+      <c r="L313" s="65"/>
+      <c r="M313" s="65"/>
+      <c r="N313" s="64"/>
+      <c r="O313" s="68"/>
+      <c r="P313" s="69"/>
+      <c r="Q313" s="104"/>
+      <c r="R313" s="131" t="str">
+        <f>IF(AND(C313="pv",D313='UNC - PV'!$Q$2,LEFT(E313,1)="u",'UNC - PV'!$O$2="vnđ",TH!P313&lt;&gt;""),"p",IF(AND(C313="pv",D313='UNC - PV'!$Q$2,LEFT(E313,1)="u",'UNC - PV'!$O$2="usd",TH!O313&lt;&gt;""),"p1",IF(AND(C313="pv",D313='LC - PV'!$P$2,LEFT(E313,1)="l"),"p2",IF(AND(LEFT(C313,3)="EIB",D313='UNC - EIB'!$T$2,LEFT(E313,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P313&lt;&gt;""),"e",IF(AND(LEFT(C313,3)="EIB",D313='UNC - EIB'!$T$2,LEFT(E313,1)="U",'UNC - EIB'!$R$2="usd",TH!O313&lt;&gt;""),"e1",IF(AND(LEFT(C313,3)="EIB",D313='LC - EIB'!$S$2,LEFT(E313,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A314" s="55" t="str">
+        <f>IF(AND(C314="pv",E314='UNC - PV'!$S$2,D314='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C314,3)="eib",E314='UNC - EIB'!$V$2,D314='UNC - EIB'!$T$2),"x1",IF(AND(C314="pv",E314='LC - PV'!$R$2,D314='LC - PV'!$P$2),"x2",IF(AND(LEFT(C314,3)="eib",E314='LC - EIB'!$U$2,D314='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B314" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="C314" s="62"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="64"/>
+      <c r="G314" s="64"/>
+      <c r="H314" s="64"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="66"/>
+      <c r="K314" s="67"/>
+      <c r="L314" s="65"/>
+      <c r="M314" s="65"/>
+      <c r="N314" s="64"/>
+      <c r="O314" s="68"/>
+      <c r="P314" s="69"/>
+      <c r="Q314" s="104"/>
+      <c r="R314" s="131" t="str">
+        <f>IF(AND(C314="pv",D314='UNC - PV'!$Q$2,LEFT(E314,1)="u",'UNC - PV'!$O$2="vnđ",TH!P314&lt;&gt;""),"p",IF(AND(C314="pv",D314='UNC - PV'!$Q$2,LEFT(E314,1)="u",'UNC - PV'!$O$2="usd",TH!O314&lt;&gt;""),"p1",IF(AND(C314="pv",D314='LC - PV'!$P$2,LEFT(E314,1)="l"),"p2",IF(AND(LEFT(C314,3)="EIB",D314='UNC - EIB'!$T$2,LEFT(E314,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P314&lt;&gt;""),"e",IF(AND(LEFT(C314,3)="EIB",D314='UNC - EIB'!$T$2,LEFT(E314,1)="U",'UNC - EIB'!$R$2="usd",TH!O314&lt;&gt;""),"e1",IF(AND(LEFT(C314,3)="EIB",D314='LC - EIB'!$S$2,LEFT(E314,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A315" s="55" t="str">
+        <f>IF(AND(C315="pv",E315='UNC - PV'!$S$2,D315='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C315,3)="eib",E315='UNC - EIB'!$V$2,D315='UNC - EIB'!$T$2),"x1",IF(AND(C315="pv",E315='LC - PV'!$R$2,D315='LC - PV'!$P$2),"x2",IF(AND(LEFT(C315,3)="eib",E315='LC - EIB'!$U$2,D315='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B315" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="C315" s="62"/>
+      <c r="D315" s="67"/>
+      <c r="E315" s="65"/>
+      <c r="F315" s="64"/>
+      <c r="G315" s="64"/>
+      <c r="H315" s="64"/>
+      <c r="I315" s="65"/>
+      <c r="J315" s="66"/>
+      <c r="K315" s="67"/>
+      <c r="L315" s="65"/>
+      <c r="M315" s="65"/>
+      <c r="N315" s="64"/>
+      <c r="O315" s="68"/>
+      <c r="P315" s="69"/>
+      <c r="Q315" s="104"/>
+      <c r="R315" s="131" t="str">
+        <f>IF(AND(C315="pv",D315='UNC - PV'!$Q$2,LEFT(E315,1)="u",'UNC - PV'!$O$2="vnđ",TH!P315&lt;&gt;""),"p",IF(AND(C315="pv",D315='UNC - PV'!$Q$2,LEFT(E315,1)="u",'UNC - PV'!$O$2="usd",TH!O315&lt;&gt;""),"p1",IF(AND(C315="pv",D315='LC - PV'!$P$2,LEFT(E315,1)="l"),"p2",IF(AND(LEFT(C315,3)="EIB",D315='UNC - EIB'!$T$2,LEFT(E315,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P315&lt;&gt;""),"e",IF(AND(LEFT(C315,3)="EIB",D315='UNC - EIB'!$T$2,LEFT(E315,1)="U",'UNC - EIB'!$R$2="usd",TH!O315&lt;&gt;""),"e1",IF(AND(LEFT(C315,3)="EIB",D315='LC - EIB'!$S$2,LEFT(E315,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A316" s="55" t="str">
+        <f>IF(AND(C316="pv",E316='UNC - PV'!$S$2,D316='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C316,3)="eib",E316='UNC - EIB'!$V$2,D316='UNC - EIB'!$T$2),"x1",IF(AND(C316="pv",E316='LC - PV'!$R$2,D316='LC - PV'!$P$2),"x2",IF(AND(LEFT(C316,3)="eib",E316='LC - EIB'!$U$2,D316='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B316" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="C316" s="62"/>
+      <c r="D316" s="67"/>
+      <c r="E316" s="65"/>
+      <c r="F316" s="64"/>
+      <c r="G316" s="64"/>
+      <c r="H316" s="64"/>
+      <c r="I316" s="65"/>
+      <c r="J316" s="66"/>
+      <c r="K316" s="67"/>
+      <c r="L316" s="65"/>
+      <c r="M316" s="65"/>
+      <c r="N316" s="64"/>
+      <c r="O316" s="68"/>
+      <c r="P316" s="69"/>
+      <c r="Q316" s="104"/>
+      <c r="R316" s="131" t="str">
+        <f>IF(AND(C316="pv",D316='UNC - PV'!$Q$2,LEFT(E316,1)="u",'UNC - PV'!$O$2="vnđ",TH!P316&lt;&gt;""),"p",IF(AND(C316="pv",D316='UNC - PV'!$Q$2,LEFT(E316,1)="u",'UNC - PV'!$O$2="usd",TH!O316&lt;&gt;""),"p1",IF(AND(C316="pv",D316='LC - PV'!$P$2,LEFT(E316,1)="l"),"p2",IF(AND(LEFT(C316,3)="EIB",D316='UNC - EIB'!$T$2,LEFT(E316,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P316&lt;&gt;""),"e",IF(AND(LEFT(C316,3)="EIB",D316='UNC - EIB'!$T$2,LEFT(E316,1)="U",'UNC - EIB'!$R$2="usd",TH!O316&lt;&gt;""),"e1",IF(AND(LEFT(C316,3)="EIB",D316='LC - EIB'!$S$2,LEFT(E316,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A317" s="55" t="str">
+        <f>IF(AND(C317="pv",E317='UNC - PV'!$S$2,D317='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C317,3)="eib",E317='UNC - EIB'!$V$2,D317='UNC - EIB'!$T$2),"x1",IF(AND(C317="pv",E317='LC - PV'!$R$2,D317='LC - PV'!$P$2),"x2",IF(AND(LEFT(C317,3)="eib",E317='LC - EIB'!$U$2,D317='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B317" s="62" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="C317" s="62"/>
+      <c r="D317" s="67"/>
+      <c r="E317" s="65"/>
+      <c r="F317" s="64"/>
+      <c r="G317" s="64"/>
+      <c r="H317" s="64"/>
+      <c r="I317" s="65"/>
+      <c r="J317" s="66"/>
+      <c r="K317" s="67"/>
+      <c r="L317" s="65"/>
+      <c r="M317" s="65"/>
+      <c r="N317" s="64"/>
+      <c r="O317" s="68"/>
+      <c r="P317" s="69"/>
+      <c r="Q317" s="104"/>
+      <c r="R317" s="131" t="str">
+        <f>IF(AND(C317="pv",D317='UNC - PV'!$Q$2,LEFT(E317,1)="u",'UNC - PV'!$O$2="vnđ",TH!P317&lt;&gt;""),"p",IF(AND(C317="pv",D317='UNC - PV'!$Q$2,LEFT(E317,1)="u",'UNC - PV'!$O$2="usd",TH!O317&lt;&gt;""),"p1",IF(AND(C317="pv",D317='LC - PV'!$P$2,LEFT(E317,1)="l"),"p2",IF(AND(LEFT(C317,3)="EIB",D317='UNC - EIB'!$T$2,LEFT(E317,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P317&lt;&gt;""),"e",IF(AND(LEFT(C317,3)="EIB",D317='UNC - EIB'!$T$2,LEFT(E317,1)="U",'UNC - EIB'!$R$2="usd",TH!O317&lt;&gt;""),"e1",IF(AND(LEFT(C317,3)="EIB",D317='LC - EIB'!$S$2,LEFT(E317,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A318" s="55" t="str">
+        <f>IF(AND(C318="pv",E318='UNC - PV'!$S$2,D318='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C318,3)="eib",E318='UNC - EIB'!$V$2,D318='UNC - EIB'!$T$2),"x1",IF(AND(C318="pv",E318='LC - PV'!$R$2,D318='LC - PV'!$P$2),"x2",IF(AND(LEFT(C318,3)="eib",E318='LC - EIB'!$U$2,D318='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B318" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C318" s="62"/>
+      <c r="D318" s="67"/>
+      <c r="E318" s="65"/>
+      <c r="F318" s="64"/>
+      <c r="G318" s="64"/>
+      <c r="H318" s="64"/>
+      <c r="I318" s="65"/>
+      <c r="J318" s="66"/>
+      <c r="K318" s="67"/>
+      <c r="L318" s="65"/>
+      <c r="M318" s="65"/>
+      <c r="N318" s="64"/>
+      <c r="O318" s="68"/>
+      <c r="P318" s="69"/>
+      <c r="Q318" s="104"/>
+      <c r="R318" s="131" t="str">
+        <f>IF(AND(C318="pv",D318='UNC - PV'!$Q$2,LEFT(E318,1)="u",'UNC - PV'!$O$2="vnđ",TH!P318&lt;&gt;""),"p",IF(AND(C318="pv",D318='UNC - PV'!$Q$2,LEFT(E318,1)="u",'UNC - PV'!$O$2="usd",TH!O318&lt;&gt;""),"p1",IF(AND(C318="pv",D318='LC - PV'!$P$2,LEFT(E318,1)="l"),"p2",IF(AND(LEFT(C318,3)="EIB",D318='UNC - EIB'!$T$2,LEFT(E318,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P318&lt;&gt;""),"e",IF(AND(LEFT(C318,3)="EIB",D318='UNC - EIB'!$T$2,LEFT(E318,1)="U",'UNC - EIB'!$R$2="usd",TH!O318&lt;&gt;""),"e1",IF(AND(LEFT(C318,3)="EIB",D318='LC - EIB'!$S$2,LEFT(E318,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A319" s="55" t="str">
+        <f>IF(AND(C319="pv",E319='UNC - PV'!$S$2,D319='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C319,3)="eib",E319='UNC - EIB'!$V$2,D319='UNC - EIB'!$T$2),"x1",IF(AND(C319="pv",E319='LC - PV'!$R$2,D319='LC - PV'!$P$2),"x2",IF(AND(LEFT(C319,3)="eib",E319='LC - EIB'!$U$2,D319='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B319" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C319" s="62"/>
+      <c r="D319" s="67"/>
+      <c r="E319" s="65"/>
+      <c r="F319" s="64"/>
+      <c r="G319" s="64"/>
+      <c r="H319" s="64"/>
+      <c r="I319" s="65"/>
+      <c r="J319" s="66"/>
+      <c r="K319" s="67"/>
+      <c r="L319" s="65"/>
+      <c r="M319" s="65"/>
+      <c r="N319" s="64"/>
+      <c r="O319" s="68"/>
+      <c r="P319" s="69"/>
+      <c r="Q319" s="104"/>
+      <c r="R319" s="131" t="str">
+        <f>IF(AND(C319="pv",D319='UNC - PV'!$Q$2,LEFT(E319,1)="u",'UNC - PV'!$O$2="vnđ",TH!P319&lt;&gt;""),"p",IF(AND(C319="pv",D319='UNC - PV'!$Q$2,LEFT(E319,1)="u",'UNC - PV'!$O$2="usd",TH!O319&lt;&gt;""),"p1",IF(AND(C319="pv",D319='LC - PV'!$P$2,LEFT(E319,1)="l"),"p2",IF(AND(LEFT(C319,3)="EIB",D319='UNC - EIB'!$T$2,LEFT(E319,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P319&lt;&gt;""),"e",IF(AND(LEFT(C319,3)="EIB",D319='UNC - EIB'!$T$2,LEFT(E319,1)="U",'UNC - EIB'!$R$2="usd",TH!O319&lt;&gt;""),"e1",IF(AND(LEFT(C319,3)="EIB",D319='LC - EIB'!$S$2,LEFT(E319,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A320" s="55" t="str">
+        <f>IF(AND(C320="pv",E320='UNC - PV'!$S$2,D320='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C320,3)="eib",E320='UNC - EIB'!$V$2,D320='UNC - EIB'!$T$2),"x1",IF(AND(C320="pv",E320='LC - PV'!$R$2,D320='LC - PV'!$P$2),"x2",IF(AND(LEFT(C320,3)="eib",E320='LC - EIB'!$U$2,D320='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B320" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C320" s="62"/>
+      <c r="D320" s="67"/>
+      <c r="E320" s="65"/>
+      <c r="F320" s="64"/>
+      <c r="G320" s="64"/>
+      <c r="H320" s="64"/>
+      <c r="I320" s="65"/>
+      <c r="J320" s="66"/>
+      <c r="K320" s="67"/>
+      <c r="L320" s="65"/>
+      <c r="M320" s="65"/>
+      <c r="N320" s="64"/>
+      <c r="O320" s="68"/>
+      <c r="P320" s="69"/>
+      <c r="Q320" s="104"/>
+      <c r="R320" s="131" t="str">
+        <f>IF(AND(C320="pv",D320='UNC - PV'!$Q$2,LEFT(E320,1)="u",'UNC - PV'!$O$2="vnđ",TH!P320&lt;&gt;""),"p",IF(AND(C320="pv",D320='UNC - PV'!$Q$2,LEFT(E320,1)="u",'UNC - PV'!$O$2="usd",TH!O320&lt;&gt;""),"p1",IF(AND(C320="pv",D320='LC - PV'!$P$2,LEFT(E320,1)="l"),"p2",IF(AND(LEFT(C320,3)="EIB",D320='UNC - EIB'!$T$2,LEFT(E320,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P320&lt;&gt;""),"e",IF(AND(LEFT(C320,3)="EIB",D320='UNC - EIB'!$T$2,LEFT(E320,1)="U",'UNC - EIB'!$R$2="usd",TH!O320&lt;&gt;""),"e1",IF(AND(LEFT(C320,3)="EIB",D320='LC - EIB'!$S$2,LEFT(E320,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A321" s="55" t="str">
+        <f>IF(AND(C321="pv",E321='UNC - PV'!$S$2,D321='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C321,3)="eib",E321='UNC - EIB'!$V$2,D321='UNC - EIB'!$T$2),"x1",IF(AND(C321="pv",E321='LC - PV'!$R$2,D321='LC - PV'!$P$2),"x2",IF(AND(LEFT(C321,3)="eib",E321='LC - EIB'!$U$2,D321='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B321" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C321" s="62"/>
+      <c r="D321" s="67"/>
+      <c r="E321" s="65"/>
+      <c r="F321" s="64"/>
+      <c r="G321" s="64"/>
+      <c r="H321" s="64"/>
+      <c r="I321" s="65"/>
+      <c r="J321" s="66"/>
+      <c r="K321" s="67"/>
+      <c r="L321" s="65"/>
+      <c r="M321" s="65"/>
+      <c r="N321" s="64"/>
+      <c r="O321" s="68"/>
+      <c r="P321" s="69"/>
+      <c r="Q321" s="104"/>
+      <c r="R321" s="131" t="str">
+        <f>IF(AND(C321="pv",D321='UNC - PV'!$Q$2,LEFT(E321,1)="u",'UNC - PV'!$O$2="vnđ",TH!P321&lt;&gt;""),"p",IF(AND(C321="pv",D321='UNC - PV'!$Q$2,LEFT(E321,1)="u",'UNC - PV'!$O$2="usd",TH!O321&lt;&gt;""),"p1",IF(AND(C321="pv",D321='LC - PV'!$P$2,LEFT(E321,1)="l"),"p2",IF(AND(LEFT(C321,3)="EIB",D321='UNC - EIB'!$T$2,LEFT(E321,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P321&lt;&gt;""),"e",IF(AND(LEFT(C321,3)="EIB",D321='UNC - EIB'!$T$2,LEFT(E321,1)="U",'UNC - EIB'!$R$2="usd",TH!O321&lt;&gt;""),"e1",IF(AND(LEFT(C321,3)="EIB",D321='LC - EIB'!$S$2,LEFT(E321,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A322" s="55" t="str">
+        <f>IF(AND(C322="pv",E322='UNC - PV'!$S$2,D322='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C322,3)="eib",E322='UNC - EIB'!$V$2,D322='UNC - EIB'!$T$2),"x1",IF(AND(C322="pv",E322='LC - PV'!$R$2,D322='LC - PV'!$P$2),"x2",IF(AND(LEFT(C322,3)="eib",E322='LC - EIB'!$U$2,D322='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B322" s="62" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="C322" s="62"/>
+      <c r="D322" s="67"/>
+      <c r="E322" s="65"/>
+      <c r="F322" s="64"/>
+      <c r="G322" s="64"/>
+      <c r="H322" s="64"/>
+      <c r="I322" s="65"/>
+      <c r="J322" s="66"/>
+      <c r="K322" s="67"/>
+      <c r="L322" s="65"/>
+      <c r="M322" s="65"/>
+      <c r="N322" s="64"/>
+      <c r="O322" s="68"/>
+      <c r="P322" s="69"/>
+      <c r="Q322" s="104"/>
+      <c r="R322" s="131" t="str">
+        <f>IF(AND(C322="pv",D322='UNC - PV'!$Q$2,LEFT(E322,1)="u",'UNC - PV'!$O$2="vnđ",TH!P322&lt;&gt;""),"p",IF(AND(C322="pv",D322='UNC - PV'!$Q$2,LEFT(E322,1)="u",'UNC - PV'!$O$2="usd",TH!O322&lt;&gt;""),"p1",IF(AND(C322="pv",D322='LC - PV'!$P$2,LEFT(E322,1)="l"),"p2",IF(AND(LEFT(C322,3)="EIB",D322='UNC - EIB'!$T$2,LEFT(E322,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P322&lt;&gt;""),"e",IF(AND(LEFT(C322,3)="EIB",D322='UNC - EIB'!$T$2,LEFT(E322,1)="U",'UNC - EIB'!$R$2="usd",TH!O322&lt;&gt;""),"e1",IF(AND(LEFT(C322,3)="EIB",D322='LC - EIB'!$S$2,LEFT(E322,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A323" s="55" t="str">
+        <f>IF(AND(C323="pv",E323='UNC - PV'!$S$2,D323='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C323,3)="eib",E323='UNC - EIB'!$V$2,D323='UNC - EIB'!$T$2),"x1",IF(AND(C323="pv",E323='LC - PV'!$R$2,D323='LC - PV'!$P$2),"x2",IF(AND(LEFT(C323,3)="eib",E323='LC - EIB'!$U$2,D323='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B323" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C323" s="62"/>
+      <c r="D323" s="67"/>
+      <c r="E323" s="65"/>
+      <c r="F323" s="64"/>
+      <c r="G323" s="64"/>
+      <c r="H323" s="64"/>
+      <c r="I323" s="65"/>
+      <c r="J323" s="66"/>
+      <c r="K323" s="67"/>
+      <c r="L323" s="65"/>
+      <c r="M323" s="65"/>
+      <c r="N323" s="64"/>
+      <c r="O323" s="68"/>
+      <c r="P323" s="69"/>
+      <c r="Q323" s="104"/>
+      <c r="R323" s="131" t="str">
+        <f>IF(AND(C323="pv",D323='UNC - PV'!$Q$2,LEFT(E323,1)="u",'UNC - PV'!$O$2="vnđ",TH!P323&lt;&gt;""),"p",IF(AND(C323="pv",D323='UNC - PV'!$Q$2,LEFT(E323,1)="u",'UNC - PV'!$O$2="usd",TH!O323&lt;&gt;""),"p1",IF(AND(C323="pv",D323='LC - PV'!$P$2,LEFT(E323,1)="l"),"p2",IF(AND(LEFT(C323,3)="EIB",D323='UNC - EIB'!$T$2,LEFT(E323,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P323&lt;&gt;""),"e",IF(AND(LEFT(C323,3)="EIB",D323='UNC - EIB'!$T$2,LEFT(E323,1)="U",'UNC - EIB'!$R$2="usd",TH!O323&lt;&gt;""),"e1",IF(AND(LEFT(C323,3)="EIB",D323='LC - EIB'!$S$2,LEFT(E323,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A324" s="55" t="str">
+        <f>IF(AND(C324="pv",E324='UNC - PV'!$S$2,D324='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C324,3)="eib",E324='UNC - EIB'!$V$2,D324='UNC - EIB'!$T$2),"x1",IF(AND(C324="pv",E324='LC - PV'!$R$2,D324='LC - PV'!$P$2),"x2",IF(AND(LEFT(C324,3)="eib",E324='LC - EIB'!$U$2,D324='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B324" s="62" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="C324" s="62"/>
+      <c r="D324" s="67"/>
+      <c r="E324" s="65"/>
+      <c r="F324" s="64"/>
+      <c r="G324" s="64"/>
+      <c r="H324" s="64"/>
+      <c r="I324" s="65"/>
+      <c r="J324" s="66"/>
+      <c r="K324" s="67"/>
+      <c r="L324" s="65"/>
+      <c r="M324" s="65"/>
+      <c r="N324" s="64"/>
+      <c r="O324" s="68"/>
+      <c r="P324" s="69"/>
+      <c r="Q324" s="104"/>
+      <c r="R324" s="131" t="str">
+        <f>IF(AND(C324="pv",D324='UNC - PV'!$Q$2,LEFT(E324,1)="u",'UNC - PV'!$O$2="vnđ",TH!P324&lt;&gt;""),"p",IF(AND(C324="pv",D324='UNC - PV'!$Q$2,LEFT(E324,1)="u",'UNC - PV'!$O$2="usd",TH!O324&lt;&gt;""),"p1",IF(AND(C324="pv",D324='LC - PV'!$P$2,LEFT(E324,1)="l"),"p2",IF(AND(LEFT(C324,3)="EIB",D324='UNC - EIB'!$T$2,LEFT(E324,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P324&lt;&gt;""),"e",IF(AND(LEFT(C324,3)="EIB",D324='UNC - EIB'!$T$2,LEFT(E324,1)="U",'UNC - EIB'!$R$2="usd",TH!O324&lt;&gt;""),"e1",IF(AND(LEFT(C324,3)="EIB",D324='LC - EIB'!$S$2,LEFT(E324,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A325" s="55" t="str">
+        <f>IF(AND(C325="pv",E325='UNC - PV'!$S$2,D325='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C325,3)="eib",E325='UNC - EIB'!$V$2,D325='UNC - EIB'!$T$2),"x1",IF(AND(C325="pv",E325='LC - PV'!$R$2,D325='LC - PV'!$P$2),"x2",IF(AND(LEFT(C325,3)="eib",E325='LC - EIB'!$U$2,D325='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B325" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C325" s="62"/>
+      <c r="D325" s="67"/>
+      <c r="E325" s="65"/>
+      <c r="F325" s="64"/>
+      <c r="G325" s="64"/>
+      <c r="H325" s="64"/>
+      <c r="I325" s="65"/>
+      <c r="J325" s="66"/>
+      <c r="K325" s="67"/>
+      <c r="L325" s="65"/>
+      <c r="M325" s="65"/>
+      <c r="N325" s="64"/>
+      <c r="O325" s="68"/>
+      <c r="P325" s="69"/>
+      <c r="Q325" s="104"/>
+      <c r="R325" s="131" t="str">
+        <f>IF(AND(C325="pv",D325='UNC - PV'!$Q$2,LEFT(E325,1)="u",'UNC - PV'!$O$2="vnđ",TH!P325&lt;&gt;""),"p",IF(AND(C325="pv",D325='UNC - PV'!$Q$2,LEFT(E325,1)="u",'UNC - PV'!$O$2="usd",TH!O325&lt;&gt;""),"p1",IF(AND(C325="pv",D325='LC - PV'!$P$2,LEFT(E325,1)="l"),"p2",IF(AND(LEFT(C325,3)="EIB",D325='UNC - EIB'!$T$2,LEFT(E325,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P325&lt;&gt;""),"e",IF(AND(LEFT(C325,3)="EIB",D325='UNC - EIB'!$T$2,LEFT(E325,1)="U",'UNC - EIB'!$R$2="usd",TH!O325&lt;&gt;""),"e1",IF(AND(LEFT(C325,3)="EIB",D325='LC - EIB'!$S$2,LEFT(E325,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A326" s="55" t="str">
+        <f>IF(AND(C326="pv",E326='UNC - PV'!$S$2,D326='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C326,3)="eib",E326='UNC - EIB'!$V$2,D326='UNC - EIB'!$T$2),"x1",IF(AND(C326="pv",E326='LC - PV'!$R$2,D326='LC - PV'!$P$2),"x2",IF(AND(LEFT(C326,3)="eib",E326='LC - EIB'!$U$2,D326='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B326" s="62" t="str">
+        <f t="shared" ref="B326" si="26">IF(C326&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C326" s="62"/>
+      <c r="D326" s="67"/>
+      <c r="E326" s="65"/>
+      <c r="F326" s="64"/>
+      <c r="G326" s="64"/>
+      <c r="H326" s="64"/>
+      <c r="I326" s="65"/>
+      <c r="J326" s="66"/>
+      <c r="K326" s="67"/>
+      <c r="L326" s="65"/>
+      <c r="M326" s="65"/>
+      <c r="N326" s="64"/>
+      <c r="O326" s="68"/>
+      <c r="P326" s="69"/>
+      <c r="Q326" s="104"/>
+      <c r="R326" s="131" t="str">
+        <f>IF(AND(C326="pv",D326='UNC - PV'!$Q$2,LEFT(E326,1)="u",'UNC - PV'!$O$2="vnđ",TH!P326&lt;&gt;""),"p",IF(AND(C326="pv",D326='UNC - PV'!$Q$2,LEFT(E326,1)="u",'UNC - PV'!$O$2="usd",TH!O326&lt;&gt;""),"p1",IF(AND(C326="pv",D326='LC - PV'!$P$2,LEFT(E326,1)="l"),"p2",IF(AND(LEFT(C326,3)="EIB",D326='UNC - EIB'!$T$2,LEFT(E326,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P326&lt;&gt;""),"e",IF(AND(LEFT(C326,3)="EIB",D326='UNC - EIB'!$T$2,LEFT(E326,1)="U",'UNC - EIB'!$R$2="usd",TH!O326&lt;&gt;""),"e1",IF(AND(LEFT(C326,3)="EIB",D326='LC - EIB'!$S$2,LEFT(E326,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A327" s="55" t="str">
+        <f>IF(AND(C327="pv",E327='UNC - PV'!$S$2,D327='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C327,3)="eib",E327='UNC - EIB'!$V$2,D327='UNC - EIB'!$T$2),"x1",IF(AND(C327="pv",E327='LC - PV'!$R$2,D327='LC - PV'!$P$2),"x2",IF(AND(LEFT(C327,3)="eib",E327='LC - EIB'!$U$2,D327='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B327" s="62" t="str">
+        <f t="shared" ref="B327" si="27">IF(C327&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C327" s="62"/>
+      <c r="D327" s="67"/>
+      <c r="E327" s="65"/>
+      <c r="F327" s="64"/>
+      <c r="G327" s="64"/>
+      <c r="H327" s="64"/>
+      <c r="I327" s="65"/>
+      <c r="J327" s="66"/>
+      <c r="K327" s="67"/>
+      <c r="L327" s="65"/>
+      <c r="M327" s="65"/>
+      <c r="N327" s="64"/>
+      <c r="O327" s="68"/>
+      <c r="P327" s="69"/>
+      <c r="Q327" s="104"/>
+      <c r="R327" s="131" t="str">
+        <f>IF(AND(C327="pv",D327='UNC - PV'!$Q$2,LEFT(E327,1)="u",'UNC - PV'!$O$2="vnđ",TH!P327&lt;&gt;""),"p",IF(AND(C327="pv",D327='UNC - PV'!$Q$2,LEFT(E327,1)="u",'UNC - PV'!$O$2="usd",TH!O327&lt;&gt;""),"p1",IF(AND(C327="pv",D327='LC - PV'!$P$2,LEFT(E327,1)="l"),"p2",IF(AND(LEFT(C327,3)="EIB",D327='UNC - EIB'!$T$2,LEFT(E327,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P327&lt;&gt;""),"e",IF(AND(LEFT(C327,3)="EIB",D327='UNC - EIB'!$T$2,LEFT(E327,1)="U",'UNC - EIB'!$R$2="usd",TH!O327&lt;&gt;""),"e1",IF(AND(LEFT(C327,3)="EIB",D327='LC - EIB'!$S$2,LEFT(E327,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A328" s="55" t="str">
+        <f>IF(AND(C328="pv",E328='UNC - PV'!$S$2,D328='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C328,3)="eib",E328='UNC - EIB'!$V$2,D328='UNC - EIB'!$T$2),"x1",IF(AND(C328="pv",E328='LC - PV'!$R$2,D328='LC - PV'!$P$2),"x2",IF(AND(LEFT(C328,3)="eib",E328='LC - EIB'!$U$2,D328='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B328" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C328" s="62"/>
+      <c r="D328" s="67"/>
+      <c r="E328" s="65"/>
+      <c r="F328" s="64"/>
+      <c r="G328" s="64"/>
+      <c r="H328" s="64"/>
+      <c r="I328" s="65"/>
+      <c r="J328" s="66"/>
+      <c r="K328" s="67"/>
+      <c r="L328" s="65"/>
+      <c r="M328" s="65"/>
+      <c r="N328" s="64"/>
+      <c r="O328" s="68"/>
+      <c r="P328" s="69"/>
+      <c r="Q328" s="104"/>
+      <c r="R328" s="131" t="str">
+        <f>IF(AND(C328="pv",D328='UNC - PV'!$Q$2,LEFT(E328,1)="u",'UNC - PV'!$O$2="vnđ",TH!P328&lt;&gt;""),"p",IF(AND(C328="pv",D328='UNC - PV'!$Q$2,LEFT(E328,1)="u",'UNC - PV'!$O$2="usd",TH!O328&lt;&gt;""),"p1",IF(AND(C328="pv",D328='LC - PV'!$P$2,LEFT(E328,1)="l"),"p2",IF(AND(LEFT(C328,3)="EIB",D328='UNC - EIB'!$T$2,LEFT(E328,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P328&lt;&gt;""),"e",IF(AND(LEFT(C328,3)="EIB",D328='UNC - EIB'!$T$2,LEFT(E328,1)="U",'UNC - EIB'!$R$2="usd",TH!O328&lt;&gt;""),"e1",IF(AND(LEFT(C328,3)="EIB",D328='LC - EIB'!$S$2,LEFT(E328,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:X306"/>
+  <autoFilter ref="B3:X329"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -17977,7 +18969,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C305">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C328">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18227,7 +19219,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18266,7 +19258,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>43140</v>
+        <v>43185</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
@@ -18291,7 +19283,7 @@
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="F7" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2534473000</v>
+        <v>7000000</v>
       </c>
       <c r="G7" s="180"/>
       <c r="K7" s="1" t="str">
@@ -18306,7 +19298,7 @@
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
+        <v>Bảy triệu đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -18317,13 +19309,13 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
       <c r="F12" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -18335,13 +19327,13 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
+        <v>0331000398768</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
+        <v>VCB - CN SÀI GÒN, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -18371,13 +19363,13 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
@@ -18424,7 +19416,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2534473000</v>
+        <v>7000000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -18439,7 +19431,7 @@
     <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
+        <v>Bảy triệu đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
@@ -18450,13 +19442,13 @@
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
       <c r="F11" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -18468,13 +19460,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
+        <v>0331000398768</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
+        <v>VCB - CN SÀI GÒN, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -18499,7 +19491,139 @@
   </sheetPr>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="8" t="str">
+        <f>IF($O$2="vnđ","p","p1")</f>
+        <v>p1</v>
+      </c>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
+      <c r="O2" s="13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="23.25" customHeight="1"/>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1">
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1">
+      <c r="E5" s="2" t="str">
+        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
+        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="22.5" customHeight="1">
+      <c r="F6" s="180">
+        <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
+        <v>7000000</v>
+      </c>
+      <c r="G6" s="180"/>
+      <c r="K6" s="1" t="str">
+        <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
+        <v>x</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>IF(O2="usd","x","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+      <c r="F7" s="1" t="str">
+        <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
+        <v>Bảy triệu đồng.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+      <c r="G8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="17.25" customHeight="1">
+      <c r="L9" s="151" t="str">
+        <f>VLOOKUP("X",DS,14,0)</f>
+        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
+      </c>
+      <c r="M9" s="151"/>
+    </row>
+    <row r="10" spans="1:15" ht="18" customHeight="1">
+      <c r="F10" s="14" t="str">
+        <f>VLOOKUP("X",DS,6,0)</f>
+        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
+      </c>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" customHeight="1"/>
+    <row r="12" spans="1:15" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1"/>
+    <row r="14" spans="1:15" ht="24" customHeight="1">
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>VLOOKUP("X",DS,7,0)</f>
+        <v>0331000398768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1">
+      <c r="E15" s="1" t="str">
+        <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
+        <v>VCB - CN SÀI GÒN, TPHCM</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+      <formula1>"USD,VNĐ,TAMP"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
@@ -18527,16 +19651,16 @@
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p1</v>
+        <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="23.25" customHeight="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="4" spans="1:15" ht="18.75" customHeight="1">
       <c r="G4" s="1" t="s">
         <v>2</v>
@@ -18545,7 +19669,7 @@
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
       <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
+        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -18554,7 +19678,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2534473000</v>
+        <v>7000000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -18569,7 +19693,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
+        <v>Bảy triệu đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -18580,14 +19704,14 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
       </c>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -18600,145 +19724,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
+        <v>0331000398768</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <mergeCells count="1">
-    <mergeCell ref="F6:G6"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
-      <formula1>"USD,VNĐ,TAMP"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="98" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFC00000"/>
-  </sheetPr>
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="7.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="8" t="str">
-        <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
-      </c>
-      <c r="N1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
-      <c r="O2" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:15" ht="18.75" customHeight="1">
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="18.75" customHeight="1">
-      <c r="E5" s="2" t="str">
-        <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="22.5" customHeight="1">
-      <c r="F6" s="180">
-        <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2534473000</v>
-      </c>
-      <c r="G6" s="180"/>
-      <c r="K6" s="1" t="str">
-        <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
-        <v>x</v>
-      </c>
-      <c r="L6" s="1" t="str">
-        <f>IF(O2="usd","x","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1">
-      <c r="F7" s="1" t="str">
-        <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="17.25" customHeight="1">
-      <c r="L9" s="151" t="str">
-        <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
-      </c>
-      <c r="M9" s="151"/>
-    </row>
-    <row r="10" spans="1:15" ht="18" customHeight="1">
-      <c r="F10" s="14" t="str">
-        <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
-      </c>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:15" ht="17.25" customHeight="1"/>
-    <row r="12" spans="1:15" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1"/>
-    <row r="14" spans="1:15" ht="24" customHeight="1">
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1">
-      <c r="E15" s="1" t="str">
-        <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
+        <v>VCB - CN SÀI GÒN, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -18766,7 +19758,7 @@
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18811,7 +19803,7 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="F8" s="180">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>2534473000</v>
+        <v>7000000</v>
       </c>
       <c r="G8" s="180"/>
       <c r="K8" s="7" t="str">
@@ -18826,7 +19818,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Hai tỷ, năm trăm ba mươi bốn triệu, bốn trăm bảy mươi ba ngàn đồng.</v>
+        <v>Bảy triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -18837,13 +19829,13 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 42 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="F13" s="133" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CTY TNHH HẢI SẢN AN LẠC</v>
+        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -18854,13 +19846,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>1070 0026 8615</v>
+        <v>0331000398768</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>PVCombank - CN Gia Định, TPHCM</v>
+        <v>VCB - CN SÀI GÒN, TPHCM</v>
       </c>
     </row>
   </sheetData>

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1365" windowWidth="13020" windowHeight="8715"/>
+    <workbookView xWindow="480" yWindow="1365" windowWidth="13020" windowHeight="8715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2494" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="494">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2038,6 +2038,9 @@
   </si>
   <si>
     <t>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 46 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
 </sst>
 </file>
@@ -3549,12 +3552,12 @@
   </sheetPr>
   <dimension ref="A1:R328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G245" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="I293" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="F313" sqref="F313"/>
+      <selection pane="bottomRight" activeCell="N315" sqref="N315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -18421,7 +18424,7 @@
     <row r="311" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A311" s="55" t="str">
         <f>IF(AND(C311="pv",E311='UNC - PV'!$S$2,D311='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C311,3)="eib",E311='UNC - EIB'!$V$2,D311='UNC - EIB'!$T$2),"x1",IF(AND(C311="pv",E311='LC - PV'!$R$2,D311='LC - PV'!$P$2),"x2",IF(AND(LEFT(C311,3)="eib",E311='LC - EIB'!$U$2,D311='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B311" s="62">
         <f t="shared" si="24"/>
@@ -18462,7 +18465,7 @@
       <c r="Q311" s="104"/>
       <c r="R311" s="131" t="str">
         <f>IF(AND(C311="pv",D311='UNC - PV'!$Q$2,LEFT(E311,1)="u",'UNC - PV'!$O$2="vnđ",TH!P311&lt;&gt;""),"p",IF(AND(C311="pv",D311='UNC - PV'!$Q$2,LEFT(E311,1)="u",'UNC - PV'!$O$2="usd",TH!O311&lt;&gt;""),"p1",IF(AND(C311="pv",D311='LC - PV'!$P$2,LEFT(E311,1)="l"),"p2",IF(AND(LEFT(C311,3)="EIB",D311='UNC - EIB'!$T$2,LEFT(E311,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P311&lt;&gt;""),"e",IF(AND(LEFT(C311,3)="EIB",D311='UNC - EIB'!$T$2,LEFT(E311,1)="U",'UNC - EIB'!$R$2="usd",TH!O311&lt;&gt;""),"e1",IF(AND(LEFT(C311,3)="EIB",D311='LC - EIB'!$S$2,LEFT(E311,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="312" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -18470,24 +18473,43 @@
         <f>IF(AND(C312="pv",E312='UNC - PV'!$S$2,D312='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C312,3)="eib",E312='UNC - EIB'!$V$2,D312='UNC - EIB'!$T$2),"x1",IF(AND(C312="pv",E312='LC - PV'!$R$2,D312='LC - PV'!$P$2),"x2",IF(AND(LEFT(C312,3)="eib",E312='LC - EIB'!$U$2,D312='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B312" s="62" t="str">
+      <c r="B312" s="62">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="C312" s="62"/>
-      <c r="D312" s="67"/>
-      <c r="E312" s="65"/>
-      <c r="F312" s="64"/>
-      <c r="G312" s="64"/>
-      <c r="H312" s="64"/>
-      <c r="I312" s="65"/>
-      <c r="J312" s="66"/>
+        <v>309</v>
+      </c>
+      <c r="C312" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D312" s="67">
+        <v>43187</v>
+      </c>
+      <c r="E312" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F312" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G312" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H312" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I312" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J312" s="56"/>
       <c r="K312" s="67"/>
       <c r="L312" s="65"/>
       <c r="M312" s="65"/>
-      <c r="N312" s="64"/>
+      <c r="N312" s="64" t="s">
+        <v>493</v>
+      </c>
       <c r="O312" s="68"/>
-      <c r="P312" s="69"/>
+      <c r="P312" s="69">
+        <f>22810*41000</f>
+        <v>935210000</v>
+      </c>
       <c r="Q312" s="104"/>
       <c r="R312" s="131" t="str">
         <f>IF(AND(C312="pv",D312='UNC - PV'!$Q$2,LEFT(E312,1)="u",'UNC - PV'!$O$2="vnđ",TH!P312&lt;&gt;""),"p",IF(AND(C312="pv",D312='UNC - PV'!$Q$2,LEFT(E312,1)="u",'UNC - PV'!$O$2="usd",TH!O312&lt;&gt;""),"p1",IF(AND(C312="pv",D312='LC - PV'!$P$2,LEFT(E312,1)="l"),"p2",IF(AND(LEFT(C312,3)="EIB",D312='UNC - EIB'!$T$2,LEFT(E312,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P312&lt;&gt;""),"e",IF(AND(LEFT(C312,3)="EIB",D312='UNC - EIB'!$T$2,LEFT(E312,1)="U",'UNC - EIB'!$R$2="usd",TH!O312&lt;&gt;""),"e1",IF(AND(LEFT(C312,3)="EIB",D312='LC - EIB'!$S$2,LEFT(E312,1)="l"),"e2",""))))))</f>
@@ -18497,30 +18519,48 @@
     <row r="313" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A313" s="55" t="str">
         <f>IF(AND(C313="pv",E313='UNC - PV'!$S$2,D313='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C313,3)="eib",E313='UNC - EIB'!$V$2,D313='UNC - EIB'!$T$2),"x1",IF(AND(C313="pv",E313='LC - PV'!$R$2,D313='LC - PV'!$P$2),"x2",IF(AND(LEFT(C313,3)="eib",E313='LC - EIB'!$U$2,D313='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B313" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B313" s="62">
         <f t="shared" ref="B313:B317" si="25">IF(C313&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C313" s="62"/>
-      <c r="D313" s="67"/>
-      <c r="E313" s="65"/>
-      <c r="F313" s="64"/>
-      <c r="G313" s="64"/>
-      <c r="H313" s="64"/>
-      <c r="I313" s="65"/>
+        <v>310</v>
+      </c>
+      <c r="C313" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D313" s="67">
+        <v>43188</v>
+      </c>
+      <c r="E313" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F313" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="G313" s="71" t="s">
+        <v>407</v>
+      </c>
+      <c r="H313" s="64" t="s">
+        <v>372</v>
+      </c>
+      <c r="I313" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J313" s="66"/>
       <c r="K313" s="67"/>
       <c r="L313" s="65"/>
       <c r="M313" s="65"/>
-      <c r="N313" s="64"/>
+      <c r="N313" s="64" t="s">
+        <v>373</v>
+      </c>
       <c r="O313" s="68"/>
-      <c r="P313" s="69"/>
+      <c r="P313" s="69">
+        <v>300000000</v>
+      </c>
       <c r="Q313" s="104"/>
       <c r="R313" s="131" t="str">
         <f>IF(AND(C313="pv",D313='UNC - PV'!$Q$2,LEFT(E313,1)="u",'UNC - PV'!$O$2="vnđ",TH!P313&lt;&gt;""),"p",IF(AND(C313="pv",D313='UNC - PV'!$Q$2,LEFT(E313,1)="u",'UNC - PV'!$O$2="usd",TH!O313&lt;&gt;""),"p1",IF(AND(C313="pv",D313='LC - PV'!$P$2,LEFT(E313,1)="l"),"p2",IF(AND(LEFT(C313,3)="EIB",D313='UNC - EIB'!$T$2,LEFT(E313,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P313&lt;&gt;""),"e",IF(AND(LEFT(C313,3)="EIB",D313='UNC - EIB'!$T$2,LEFT(E313,1)="U",'UNC - EIB'!$R$2="usd",TH!O313&lt;&gt;""),"e1",IF(AND(LEFT(C313,3)="EIB",D313='LC - EIB'!$S$2,LEFT(E313,1)="l"),"e2",""))))))</f>
-        <v/>
+        <v>p</v>
       </c>
     </row>
     <row r="314" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -19258,7 +19298,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="10">
-        <v>43185</v>
+        <v>43188</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
@@ -19283,7 +19323,7 @@
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="F7" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="G7" s="180"/>
       <c r="K7" s="1" t="str">
@@ -19298,7 +19338,7 @@
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bảy triệu đồng.</v>
+        <v>Ba trăm triệu đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -19309,13 +19349,13 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
       <c r="F12" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -19327,13 +19367,13 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0331000398768</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VCB - CN SÀI GÒN, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19363,7 +19403,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19389,13 +19429,13 @@
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
+        <v>p1</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>29</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1"/>
@@ -19407,7 +19447,7 @@
     <row r="5" spans="1:15" ht="17.25" customHeight="1">
       <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
+        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
@@ -19416,7 +19456,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -19431,7 +19471,7 @@
     <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bảy triệu đồng.</v>
+        <v>Ba trăm triệu đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
@@ -19442,13 +19482,13 @@
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
       <c r="F11" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -19460,13 +19500,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0331000398768</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VCB - CN SÀI GÒN, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19546,7 +19586,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -19561,7 +19601,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bảy triệu đồng.</v>
+        <v>Ba trăm triệu đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -19572,14 +19612,14 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -19592,13 +19632,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0331000398768</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VCB - CN SÀI GÒN, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19678,7 +19718,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -19693,7 +19733,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bảy triệu đồng.</v>
+        <v>Ba trăm triệu đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -19704,14 +19744,14 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -19724,13 +19764,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0331000398768</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VCB - CN SÀI GÒN, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19755,7 +19795,7 @@
   </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
       <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
@@ -19803,7 +19843,7 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="F8" s="180">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>7000000</v>
+        <v>300000000</v>
       </c>
       <c r="G8" s="180"/>
       <c r="K8" s="7" t="str">
@@ -19818,7 +19858,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bảy triệu đồng.</v>
+        <v>Ba trăm triệu đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -19829,13 +19869,13 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</v>
+        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="F13" s="133" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</v>
+        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -19846,13 +19886,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0331000398768</v>
+        <v>0531002503669</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>VCB - CN SÀI GÒN, TPHCM</v>
+        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
       </c>
     </row>
   </sheetData>

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1365" windowWidth="13020" windowHeight="8715" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="1425" windowWidth="13020" windowHeight="8655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TH" sheetId="5" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" localSheetId="4" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$329</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TH!$B$3:$X$344</definedName>
     <definedName name="dgd" hidden="1">#REF!</definedName>
     <definedName name="Dong">IF(Loai="p1",ROW(Loai)-1,"")</definedName>
-    <definedName name="DS">TH!$A$4:$Q$328</definedName>
-    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39899))</definedName>
-    <definedName name="N_1">TH!$R$4:$R$328</definedName>
+    <definedName name="DS">TH!$A$4:$Q$343</definedName>
+    <definedName name="Loai">OFFSET(TH!$R$4,,,COUNTA(TH!$R$4:$R$39914))</definedName>
+    <definedName name="N_1">TH!$R$4:$R$343</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'LC - EIB'!$A$1:$Q$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'LC - PV'!$A$1:$N$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'UNC - EIB'!$A$1:$P$32</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="501">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2013,34 +2013,55 @@
     <t>Chuyển tiền theo KUNN số 43 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
   <si>
+    <t>Thanh toán tiền đường bột ngọt - BTFood</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 44 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 45 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Thanh toan tiền gia công</t>
+  </si>
+  <si>
+    <t>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</t>
+  </si>
+  <si>
+    <t>0331000398768</t>
+  </si>
+  <si>
+    <t>VCB - CN SÀI GÒN</t>
+  </si>
+  <si>
+    <t>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 46 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 1&amp;2/03 năm 2018</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 48 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 49 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
     <t>TAMP</t>
   </si>
   <si>
-    <t>Thanh toán tiền đường bột ngọt - BTFood</t>
-  </si>
-  <si>
-    <t>Chuyển tiền theo KUNN số 44 -10206/2017/KUNN/PVN-DN.GĐ</t>
-  </si>
-  <si>
-    <t>Chuyển tiền theo KUNN số 45 -10206/2017/KUNN/PVN-DN.GĐ</t>
-  </si>
-  <si>
-    <t>Thanh toan tiền gia công</t>
-  </si>
-  <si>
-    <t>CÔNG TY TNHH THẨM ĐỊNH GIÁ ĐẠI VIỆT</t>
-  </si>
-  <si>
-    <t>0331000398768</t>
-  </si>
-  <si>
-    <t>VCB - CN SÀI GÒN</t>
-  </si>
-  <si>
-    <t>THANH TOÁN 50% TIỀN THẨM ĐỊNH GIÁ</t>
-  </si>
-  <si>
-    <t>Chuyển tiền theo KUNN số 46 -10206/2017/KUNN/PVN-DN.GĐ</t>
+    <t>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 53 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 56 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>MKH: PB06030022841- Tiền điện kỳ 2&amp;3/04 năm 2018</t>
   </si>
 </sst>
 </file>
@@ -2684,7 +2705,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3166,6 +3187,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3547,17 +3571,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R328"/>
+  <dimension ref="A1:R344"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I312" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="N315" sqref="N315"/>
+      <selection pane="bottomRight" activeCell="N325" sqref="N325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3712,7 +3736,7 @@
       <c r="Q3" s="174"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3761,13 +3785,13 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
       <c r="B5" s="62">
-        <f t="shared" ref="B5:B328" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
+        <f t="shared" ref="B5:B343" si="0">IF(C5&lt;&gt;"",ROW()-3,"")</f>
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
@@ -3810,7 +3834,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3859,7 +3883,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3908,7 +3932,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3957,7 +3981,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4106,7 +4130,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A12" s="55" t="str">
         <f>IF(AND(C12="pv",E12='UNC - PV'!$S$2,D12='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C12,3)="eib",E12='UNC - EIB'!$V$2,D12='UNC - EIB'!$T$2),"x1",IF(AND(C12="pv",E12='LC - PV'!$R$2,D12='LC - PV'!$P$2),"x2",IF(AND(LEFT(C12,3)="eib",E12='LC - EIB'!$U$2,D12='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x3</v>
@@ -4157,7 +4181,7 @@
         <v>e2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4206,7 +4230,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4255,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="15" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A15" s="55" t="str">
         <f>IF(AND(C15="pv",E15='UNC - PV'!$S$2,D15='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C15,3)="eib",E15='UNC - EIB'!$V$2,D15='UNC - EIB'!$T$2),"x1",IF(AND(C15="pv",E15='LC - PV'!$R$2,D15='LC - PV'!$P$2),"x2",IF(AND(LEFT(C15,3)="eib",E15='LC - EIB'!$U$2,D15='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4304,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4353,7 +4377,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A17" s="55" t="str">
         <f>IF(AND(C17="pv",E17='UNC - PV'!$S$2,D17='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C17,3)="eib",E17='UNC - EIB'!$V$2,D17='UNC - EIB'!$T$2),"x1",IF(AND(C17="pv",E17='LC - PV'!$R$2,D17='LC - PV'!$P$2),"x2",IF(AND(LEFT(C17,3)="eib",E17='LC - EIB'!$U$2,D17='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4402,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4451,7 +4475,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4500,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="20" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A20" s="55" t="str">
         <f>IF(AND(C20="pv",E20='UNC - PV'!$S$2,D20='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C20,3)="eib",E20='UNC - EIB'!$V$2,D20='UNC - EIB'!$T$2),"x1",IF(AND(C20="pv",E20='LC - PV'!$R$2,D20='LC - PV'!$P$2),"x2",IF(AND(LEFT(C20,3)="eib",E20='LC - EIB'!$U$2,D20='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4549,7 +4573,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4598,7 +4622,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A22" s="55" t="str">
         <f>IF(AND(C22="pv",E22='UNC - PV'!$S$2,D22='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C22,3)="eib",E22='UNC - EIB'!$V$2,D22='UNC - EIB'!$T$2),"x1",IF(AND(C22="pv",E22='LC - PV'!$R$2,D22='LC - PV'!$P$2),"x2",IF(AND(LEFT(C22,3)="eib",E22='LC - EIB'!$U$2,D22='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4647,7 +4671,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4696,7 +4720,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4745,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="25" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A25" s="55" t="str">
         <f>IF(AND(C25="pv",E25='UNC - PV'!$S$2,D25='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C25,3)="eib",E25='UNC - EIB'!$V$2,D25='UNC - EIB'!$T$2),"x1",IF(AND(C25="pv",E25='LC - PV'!$R$2,D25='LC - PV'!$P$2),"x2",IF(AND(LEFT(C25,3)="eib",E25='LC - EIB'!$U$2,D25='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4795,7 +4819,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4844,7 +4868,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4893,7 +4917,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4942,7 +4966,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A29" s="55" t="str">
         <f>IF(AND(C29="pv",E29='UNC - PV'!$S$2,D29='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C29,3)="eib",E29='UNC - EIB'!$V$2,D29='UNC - EIB'!$T$2),"x1",IF(AND(C29="pv",E29='LC - PV'!$R$2,D29='LC - PV'!$P$2),"x2",IF(AND(LEFT(C29,3)="eib",E29='LC - EIB'!$U$2,D29='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4991,7 +5015,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A30" s="55" t="str">
         <f>IF(AND(C30="pv",E30='UNC - PV'!$S$2,D30='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C30,3)="eib",E30='UNC - EIB'!$V$2,D30='UNC - EIB'!$T$2),"x1",IF(AND(C30="pv",E30='LC - PV'!$R$2,D30='LC - PV'!$P$2),"x2",IF(AND(LEFT(C30,3)="eib",E30='LC - EIB'!$U$2,D30='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5040,7 +5064,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A31" s="55" t="str">
         <f>IF(AND(C31="pv",E31='UNC - PV'!$S$2,D31='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C31,3)="eib",E31='UNC - EIB'!$V$2,D31='UNC - EIB'!$T$2),"x1",IF(AND(C31="pv",E31='LC - PV'!$R$2,D31='LC - PV'!$P$2),"x2",IF(AND(LEFT(C31,3)="eib",E31='LC - EIB'!$U$2,D31='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5089,7 +5113,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="32" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A32" s="55" t="str">
         <f>IF(AND(C32="pv",E32='UNC - PV'!$S$2,D32='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C32,3)="eib",E32='UNC - EIB'!$V$2,D32='UNC - EIB'!$T$2),"x1",IF(AND(C32="pv",E32='LC - PV'!$R$2,D32='LC - PV'!$P$2),"x2",IF(AND(LEFT(C32,3)="eib",E32='LC - EIB'!$U$2,D32='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5138,7 +5162,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="33" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A33" s="55" t="str">
         <f>IF(AND(C33="pv",E33='UNC - PV'!$S$2,D33='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C33,3)="eib",E33='UNC - EIB'!$V$2,D33='UNC - EIB'!$T$2),"x1",IF(AND(C33="pv",E33='LC - PV'!$R$2,D33='LC - PV'!$P$2),"x2",IF(AND(LEFT(C33,3)="eib",E33='LC - EIB'!$U$2,D33='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5187,7 +5211,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="34" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A34" s="55" t="str">
         <f>IF(AND(C34="pv",E34='UNC - PV'!$S$2,D34='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C34,3)="eib",E34='UNC - EIB'!$V$2,D34='UNC - EIB'!$T$2),"x1",IF(AND(C34="pv",E34='LC - PV'!$R$2,D34='LC - PV'!$P$2),"x2",IF(AND(LEFT(C34,3)="eib",E34='LC - EIB'!$U$2,D34='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5236,7 +5260,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="35" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A35" s="55" t="str">
         <f>IF(AND(C35="pv",E35='UNC - PV'!$S$2,D35='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C35,3)="eib",E35='UNC - EIB'!$V$2,D35='UNC - EIB'!$T$2),"x1",IF(AND(C35="pv",E35='LC - PV'!$R$2,D35='LC - PV'!$P$2),"x2",IF(AND(LEFT(C35,3)="eib",E35='LC - EIB'!$U$2,D35='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5285,7 +5309,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="36" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A36" s="55" t="str">
         <f>IF(AND(C36="pv",E36='UNC - PV'!$S$2,D36='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C36,3)="eib",E36='UNC - EIB'!$V$2,D36='UNC - EIB'!$T$2),"x1",IF(AND(C36="pv",E36='LC - PV'!$R$2,D36='LC - PV'!$P$2),"x2",IF(AND(LEFT(C36,3)="eib",E36='LC - EIB'!$U$2,D36='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5334,7 +5358,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="37" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A37" s="55" t="str">
         <f>IF(AND(C37="pv",E37='UNC - PV'!$S$2,D37='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C37,3)="eib",E37='UNC - EIB'!$V$2,D37='UNC - EIB'!$T$2),"x1",IF(AND(C37="pv",E37='LC - PV'!$R$2,D37='LC - PV'!$P$2),"x2",IF(AND(LEFT(C37,3)="eib",E37='LC - EIB'!$U$2,D37='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5383,7 +5407,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5432,7 +5456,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="39" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A39" s="55" t="str">
         <f>IF(AND(C39="pv",E39='UNC - PV'!$S$2,D39='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C39,3)="eib",E39='UNC - EIB'!$V$2,D39='UNC - EIB'!$T$2),"x1",IF(AND(C39="pv",E39='LC - PV'!$R$2,D39='LC - PV'!$P$2),"x2",IF(AND(LEFT(C39,3)="eib",E39='LC - EIB'!$U$2,D39='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5481,7 +5505,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5628,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5677,7 +5701,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5726,7 +5750,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5775,7 +5799,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A46" s="55" t="str">
         <f>IF(AND(C46="pv",E46='UNC - PV'!$S$2,D46='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C46,3)="eib",E46='UNC - EIB'!$V$2,D46='UNC - EIB'!$T$2),"x1",IF(AND(C46="pv",E46='LC - PV'!$R$2,D46='LC - PV'!$P$2),"x2",IF(AND(LEFT(C46,3)="eib",E46='LC - EIB'!$U$2,D46='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5824,7 +5848,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A47" s="55" t="str">
         <f>IF(AND(C47="pv",E47='UNC - PV'!$S$2,D47='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C47,3)="eib",E47='UNC - EIB'!$V$2,D47='UNC - EIB'!$T$2),"x1",IF(AND(C47="pv",E47='LC - PV'!$R$2,D47='LC - PV'!$P$2),"x2",IF(AND(LEFT(C47,3)="eib",E47='LC - EIB'!$U$2,D47='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5873,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5922,7 +5946,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="49" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A49" s="55" t="str">
         <f>IF(AND(C49="pv",E49='UNC - PV'!$S$2,D49='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C49,3)="eib",E49='UNC - EIB'!$V$2,D49='UNC - EIB'!$T$2),"x1",IF(AND(C49="pv",E49='LC - PV'!$R$2,D49='LC - PV'!$P$2),"x2",IF(AND(LEFT(C49,3)="eib",E49='LC - EIB'!$U$2,D49='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5971,7 +5995,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="50" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A50" s="55" t="str">
         <f>IF(AND(C50="pv",E50='UNC - PV'!$S$2,D50='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C50,3)="eib",E50='UNC - EIB'!$V$2,D50='UNC - EIB'!$T$2),"x1",IF(AND(C50="pv",E50='LC - PV'!$R$2,D50='LC - PV'!$P$2),"x2",IF(AND(LEFT(C50,3)="eib",E50='LC - EIB'!$U$2,D50='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6020,7 +6044,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6069,7 +6093,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="52" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A52" s="55" t="str">
         <f>IF(AND(C52="pv",E52='UNC - PV'!$S$2,D52='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C52,3)="eib",E52='UNC - EIB'!$V$2,D52='UNC - EIB'!$T$2),"x1",IF(AND(C52="pv",E52='LC - PV'!$R$2,D52='LC - PV'!$P$2),"x2",IF(AND(LEFT(C52,3)="eib",E52='LC - EIB'!$U$2,D52='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6118,7 +6142,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6167,7 +6191,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6216,7 +6240,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6314,7 +6338,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6363,7 +6387,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6412,7 +6436,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="59" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A59" s="55" t="str">
         <f>IF(AND(C59="pv",E59='UNC - PV'!$S$2,D59='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C59,3)="eib",E59='UNC - EIB'!$V$2,D59='UNC - EIB'!$T$2),"x1",IF(AND(C59="pv",E59='LC - PV'!$R$2,D59='LC - PV'!$P$2),"x2",IF(AND(LEFT(C59,3)="eib",E59='LC - EIB'!$U$2,D59='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6510,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6559,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A62" s="55" t="str">
         <f>IF(AND(C62="pv",E62='UNC - PV'!$S$2,D62='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C62,3)="eib",E62='UNC - EIB'!$V$2,D62='UNC - EIB'!$T$2),"x1",IF(AND(C62="pv",E62='LC - PV'!$R$2,D62='LC - PV'!$P$2),"x2",IF(AND(LEFT(C62,3)="eib",E62='LC - EIB'!$U$2,D62='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6608,7 +6632,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6706,7 +6730,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="65" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A65" s="55" t="str">
         <f>IF(AND(C65="pv",E65='UNC - PV'!$S$2,D65='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C65,3)="eib",E65='UNC - EIB'!$V$2,D65='UNC - EIB'!$T$2),"x1",IF(AND(C65="pv",E65='LC - PV'!$R$2,D65='LC - PV'!$P$2),"x2",IF(AND(LEFT(C65,3)="eib",E65='LC - EIB'!$U$2,D65='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6756,7 +6780,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6805,7 +6829,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7199,7 +7223,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="75" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A75" s="55" t="str">
         <f>IF(AND(C75="pv",E75='UNC - PV'!$S$2,D75='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C75,3)="eib",E75='UNC - EIB'!$V$2,D75='UNC - EIB'!$T$2),"x1",IF(AND(C75="pv",E75='LC - PV'!$R$2,D75='LC - PV'!$P$2),"x2",IF(AND(LEFT(C75,3)="eib",E75='LC - EIB'!$U$2,D75='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7248,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="76" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A76" s="55" t="str">
         <f>IF(AND(C76="pv",E76='UNC - PV'!$S$2,D76='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C76,3)="eib",E76='UNC - EIB'!$V$2,D76='UNC - EIB'!$T$2),"x1",IF(AND(C76="pv",E76='LC - PV'!$R$2,D76='LC - PV'!$P$2),"x2",IF(AND(LEFT(C76,3)="eib",E76='LC - EIB'!$U$2,D76='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7297,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="77" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A77" s="55" t="str">
         <f>IF(AND(C77="pv",E77='UNC - PV'!$S$2,D77='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C77,3)="eib",E77='UNC - EIB'!$V$2,D77='UNC - EIB'!$T$2),"x1",IF(AND(C77="pv",E77='LC - PV'!$R$2,D77='LC - PV'!$P$2),"x2",IF(AND(LEFT(C77,3)="eib",E77='LC - EIB'!$U$2,D77='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7346,7 +7370,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="78" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A78" s="55" t="str">
         <f>IF(AND(C78="pv",E78='UNC - PV'!$S$2,D78='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C78,3)="eib",E78='UNC - EIB'!$V$2,D78='UNC - EIB'!$T$2),"x1",IF(AND(C78="pv",E78='LC - PV'!$R$2,D78='LC - PV'!$P$2),"x2",IF(AND(LEFT(C78,3)="eib",E78='LC - EIB'!$U$2,D78='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7395,7 +7419,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="79" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A79" s="55" t="str">
         <f>IF(AND(C79="pv",E79='UNC - PV'!$S$2,D79='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C79,3)="eib",E79='UNC - EIB'!$V$2,D79='UNC - EIB'!$T$2),"x1",IF(AND(C79="pv",E79='LC - PV'!$R$2,D79='LC - PV'!$P$2),"x2",IF(AND(LEFT(C79,3)="eib",E79='LC - EIB'!$U$2,D79='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7444,7 +7468,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="80" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A80" s="55" t="str">
         <f>IF(AND(C80="pv",E80='UNC - PV'!$S$2,D80='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C80,3)="eib",E80='UNC - EIB'!$V$2,D80='UNC - EIB'!$T$2),"x1",IF(AND(C80="pv",E80='LC - PV'!$R$2,D80='LC - PV'!$P$2),"x2",IF(AND(LEFT(C80,3)="eib",E80='LC - EIB'!$U$2,D80='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7493,7 +7517,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="81" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A81" s="55" t="str">
         <f>IF(AND(C81="pv",E81='UNC - PV'!$S$2,D81='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C81,3)="eib",E81='UNC - EIB'!$V$2,D81='UNC - EIB'!$T$2),"x1",IF(AND(C81="pv",E81='LC - PV'!$R$2,D81='LC - PV'!$P$2),"x2",IF(AND(LEFT(C81,3)="eib",E81='LC - EIB'!$U$2,D81='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7542,7 +7566,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7591,7 +7615,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="83" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A83" s="55" t="str">
         <f>IF(AND(C83="pv",E83='UNC - PV'!$S$2,D83='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C83,3)="eib",E83='UNC - EIB'!$V$2,D83='UNC - EIB'!$T$2),"x1",IF(AND(C83="pv",E83='LC - PV'!$R$2,D83='LC - PV'!$P$2),"x2",IF(AND(LEFT(C83,3)="eib",E83='LC - EIB'!$U$2,D83='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7885,7 +7909,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="89" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A89" s="55" t="str">
         <f>IF(AND(C89="pv",E89='UNC - PV'!$S$2,D89='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C89,3)="eib",E89='UNC - EIB'!$V$2,D89='UNC - EIB'!$T$2),"x1",IF(AND(C89="pv",E89='LC - PV'!$R$2,D89='LC - PV'!$P$2),"x2",IF(AND(LEFT(C89,3)="eib",E89='LC - EIB'!$U$2,D89='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7934,7 +7958,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7983,7 +8007,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8032,7 +8056,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A92" s="55" t="str">
         <f>IF(AND(C92="pv",E92='UNC - PV'!$S$2,D92='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C92,3)="eib",E92='UNC - EIB'!$V$2,D92='UNC - EIB'!$T$2),"x1",IF(AND(C92="pv",E92='LC - PV'!$R$2,D92='LC - PV'!$P$2),"x2",IF(AND(LEFT(C92,3)="eib",E92='LC - EIB'!$U$2,D92='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8081,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8130,7 +8154,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8179,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="95" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A95" s="55" t="str">
         <f>IF(AND(C95="pv",E95='UNC - PV'!$S$2,D95='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C95,3)="eib",E95='UNC - EIB'!$V$2,D95='UNC - EIB'!$T$2),"x1",IF(AND(C95="pv",E95='LC - PV'!$R$2,D95='LC - PV'!$P$2),"x2",IF(AND(LEFT(C95,3)="eib",E95='LC - EIB'!$U$2,D95='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8327,7 +8351,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A98" s="55" t="str">
         <f>IF(AND(C98="pv",E98='UNC - PV'!$S$2,D98='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C98,3)="eib",E98='UNC - EIB'!$V$2,D98='UNC - EIB'!$T$2),"x1",IF(AND(C98="pv",E98='LC - PV'!$R$2,D98='LC - PV'!$P$2),"x2",IF(AND(LEFT(C98,3)="eib",E98='LC - EIB'!$U$2,D98='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8376,7 +8400,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A99" s="55" t="str">
         <f>IF(AND(C99="pv",E99='UNC - PV'!$S$2,D99='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C99,3)="eib",E99='UNC - EIB'!$V$2,D99='UNC - EIB'!$T$2),"x1",IF(AND(C99="pv",E99='LC - PV'!$R$2,D99='LC - PV'!$P$2),"x2",IF(AND(LEFT(C99,3)="eib",E99='LC - EIB'!$U$2,D99='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8426,7 +8450,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8475,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="101" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A101" s="55" t="str">
         <f>IF(AND(C101="pv",E101='UNC - PV'!$S$2,D101='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C101,3)="eib",E101='UNC - EIB'!$V$2,D101='UNC - EIB'!$T$2),"x1",IF(AND(C101="pv",E101='LC - PV'!$R$2,D101='LC - PV'!$P$2),"x2",IF(AND(LEFT(C101,3)="eib",E101='LC - EIB'!$U$2,D101='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8524,7 +8548,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="102" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A102" s="55" t="str">
         <f>IF(AND(C102="pv",E102='UNC - PV'!$S$2,D102='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C102,3)="eib",E102='UNC - EIB'!$V$2,D102='UNC - EIB'!$T$2),"x1",IF(AND(C102="pv",E102='LC - PV'!$R$2,D102='LC - PV'!$P$2),"x2",IF(AND(LEFT(C102,3)="eib",E102='LC - EIB'!$U$2,D102='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8573,7 +8597,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8622,7 +8646,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" s="150" customFormat="1" ht="18.75" customHeight="1">
+    <row r="104" spans="1:18" s="150" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A104" s="137" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8671,7 +8695,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8720,7 +8744,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A106" s="55" t="str">
         <f>IF(AND(C106="pv",E106='UNC - PV'!$S$2,D106='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C106,3)="eib",E106='UNC - EIB'!$V$2,D106='UNC - EIB'!$T$2),"x1",IF(AND(C106="pv",E106='LC - PV'!$R$2,D106='LC - PV'!$P$2),"x2",IF(AND(LEFT(C106,3)="eib",E106='LC - EIB'!$U$2,D106='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8818,7 +8842,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8867,7 +8891,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="109" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A109" s="55" t="str">
         <f>IF(AND(C109="pv",E109='UNC - PV'!$S$2,D109='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C109,3)="eib",E109='UNC - EIB'!$V$2,D109='UNC - EIB'!$T$2),"x1",IF(AND(C109="pv",E109='LC - PV'!$R$2,D109='LC - PV'!$P$2),"x2",IF(AND(LEFT(C109,3)="eib",E109='LC - EIB'!$U$2,D109='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9063,7 +9087,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9112,7 +9136,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9161,7 +9185,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9210,7 +9234,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9602,7 +9626,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="124" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A124" s="55" t="str">
         <f>IF(AND(C124="pv",E124='UNC - PV'!$S$2,D124='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C124,3)="eib",E124='UNC - EIB'!$V$2,D124='UNC - EIB'!$T$2),"x1",IF(AND(C124="pv",E124='LC - PV'!$R$2,D124='LC - PV'!$P$2),"x2",IF(AND(LEFT(C124,3)="eib",E124='LC - EIB'!$U$2,D124='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9652,7 +9676,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9934,7 +9958,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="131" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9981,7 +10005,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="132" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10028,7 +10052,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10075,7 +10099,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10122,7 +10146,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10169,7 +10193,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A136" s="55" t="str">
         <f>IF(AND(C136="pv",E136='UNC - PV'!$S$2,D136='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C136,3)="eib",E136='UNC - EIB'!$V$2,D136='UNC - EIB'!$T$2),"x1",IF(AND(C136="pv",E136='LC - PV'!$R$2,D136='LC - PV'!$P$2),"x2",IF(AND(LEFT(C136,3)="eib",E136='LC - EIB'!$U$2,D136='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10216,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10263,7 +10287,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10310,7 +10334,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10357,7 +10381,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="140" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A140" s="55" t="str">
         <f>IF(AND(C140="pv",E140='UNC - PV'!$S$2,D140='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C140,3)="eib",E140='UNC - EIB'!$V$2,D140='UNC - EIB'!$T$2),"x1",IF(AND(C140="pv",E140='LC - PV'!$R$2,D140='LC - PV'!$P$2),"x2",IF(AND(LEFT(C140,3)="eib",E140='LC - EIB'!$U$2,D140='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10404,7 +10428,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13037,7 +13061,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13084,7 +13108,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14209,7 +14233,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14256,7 +14280,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14632,7 +14656,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A231" s="55" t="str">
         <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14679,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A232" s="55" t="str">
         <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15058,7 +15082,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A240" s="55" t="str">
         <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15105,7 +15129,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A241" s="55" t="str">
         <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16052,7 +16076,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="261" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A261" s="55" t="str">
         <f>IF(AND(C261="pv",E261='UNC - PV'!$S$2,D261='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C261,3)="eib",E261='UNC - EIB'!$V$2,D261='UNC - EIB'!$T$2),"x1",IF(AND(C261="pv",E261='LC - PV'!$R$2,D261='LC - PV'!$P$2),"x2",IF(AND(LEFT(C261,3)="eib",E261='LC - EIB'!$U$2,D261='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16242,7 +16266,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="265" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A265" s="55" t="str">
         <f>IF(AND(C265="pv",E265='UNC - PV'!$S$2,D265='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C265,3)="eib",E265='UNC - EIB'!$V$2,D265='UNC - EIB'!$T$2),"x1",IF(AND(C265="pv",E265='LC - PV'!$R$2,D265='LC - PV'!$P$2),"x2",IF(AND(LEFT(C265,3)="eib",E265='LC - EIB'!$U$2,D265='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16289,7 +16313,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="266" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A266" s="55" t="str">
         <f>IF(AND(C266="pv",E266='UNC - PV'!$S$2,D266='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C266,3)="eib",E266='UNC - EIB'!$V$2,D266='UNC - EIB'!$T$2),"x1",IF(AND(C266="pv",E266='LC - PV'!$R$2,D266='LC - PV'!$P$2),"x2",IF(AND(LEFT(C266,3)="eib",E266='LC - EIB'!$U$2,D266='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16527,7 +16551,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
+    <row r="271" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
       <c r="A271" s="55" t="str">
         <f>IF(AND(C271="pv",E271='UNC - PV'!$S$2,D271='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C271,3)="eib",E271='UNC - EIB'!$V$2,D271='UNC - EIB'!$T$2),"x1",IF(AND(C271="pv",E271='LC - PV'!$R$2,D271='LC - PV'!$P$2),"x2",IF(AND(LEFT(C271,3)="eib",E271='LC - EIB'!$U$2,D271='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x1</v>
@@ -18017,8 +18041,8 @@
       <c r="F302" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G302" s="70" t="s">
-        <v>5</v>
+      <c r="G302" s="134" t="s">
+        <v>446</v>
       </c>
       <c r="H302" s="70" t="s">
         <v>6</v>
@@ -18172,7 +18196,7 @@
       <c r="L305" s="65"/>
       <c r="M305" s="65"/>
       <c r="N305" s="64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O305" s="68"/>
       <c r="P305" s="69">
@@ -18313,7 +18337,7 @@
       <c r="L308" s="65"/>
       <c r="M308" s="65"/>
       <c r="N308" s="64" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="O308" s="68"/>
       <c r="P308" s="69">
@@ -18361,7 +18385,7 @@
       <c r="L309" s="65"/>
       <c r="M309" s="65"/>
       <c r="N309" s="64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O309" s="68"/>
       <c r="P309" s="69">
@@ -18409,7 +18433,7 @@
       <c r="L310" s="65"/>
       <c r="M310" s="65"/>
       <c r="N310" s="107" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O310" s="68"/>
       <c r="P310" s="69">
@@ -18440,13 +18464,13 @@
         <v>23</v>
       </c>
       <c r="F311" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G311" s="71" t="s">
         <v>489</v>
       </c>
-      <c r="G311" s="71" t="s">
+      <c r="H311" s="64" t="s">
         <v>490</v>
-      </c>
-      <c r="H311" s="64" t="s">
-        <v>491</v>
       </c>
       <c r="I311" s="105" t="s">
         <v>10</v>
@@ -18456,7 +18480,7 @@
       <c r="L311" s="65"/>
       <c r="M311" s="65"/>
       <c r="N311" s="64" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O311" s="68"/>
       <c r="P311" s="69">
@@ -18503,7 +18527,7 @@
       <c r="L312" s="65"/>
       <c r="M312" s="65"/>
       <c r="N312" s="64" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O312" s="68"/>
       <c r="P312" s="69">
@@ -18519,7 +18543,7 @@
     <row r="313" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A313" s="55" t="str">
         <f>IF(AND(C313="pv",E313='UNC - PV'!$S$2,D313='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C313,3)="eib",E313='UNC - EIB'!$V$2,D313='UNC - EIB'!$T$2),"x1",IF(AND(C313="pv",E313='LC - PV'!$R$2,D313='LC - PV'!$P$2),"x2",IF(AND(LEFT(C313,3)="eib",E313='LC - EIB'!$U$2,D313='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B313" s="62">
         <f t="shared" ref="B313:B317" si="25">IF(C313&lt;&gt;"",ROW()-3,"")</f>
@@ -18560,7 +18584,7 @@
       <c r="Q313" s="104"/>
       <c r="R313" s="131" t="str">
         <f>IF(AND(C313="pv",D313='UNC - PV'!$Q$2,LEFT(E313,1)="u",'UNC - PV'!$O$2="vnđ",TH!P313&lt;&gt;""),"p",IF(AND(C313="pv",D313='UNC - PV'!$Q$2,LEFT(E313,1)="u",'UNC - PV'!$O$2="usd",TH!O313&lt;&gt;""),"p1",IF(AND(C313="pv",D313='LC - PV'!$P$2,LEFT(E313,1)="l"),"p2",IF(AND(LEFT(C313,3)="EIB",D313='UNC - EIB'!$T$2,LEFT(E313,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P313&lt;&gt;""),"e",IF(AND(LEFT(C313,3)="EIB",D313='UNC - EIB'!$T$2,LEFT(E313,1)="U",'UNC - EIB'!$R$2="usd",TH!O313&lt;&gt;""),"e1",IF(AND(LEFT(C313,3)="EIB",D313='LC - EIB'!$S$2,LEFT(E313,1)="l"),"e2",""))))))</f>
-        <v>p</v>
+        <v/>
       </c>
     </row>
     <row r="314" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
@@ -18568,24 +18592,42 @@
         <f>IF(AND(C314="pv",E314='UNC - PV'!$S$2,D314='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C314,3)="eib",E314='UNC - EIB'!$V$2,D314='UNC - EIB'!$T$2),"x1",IF(AND(C314="pv",E314='LC - PV'!$R$2,D314='LC - PV'!$P$2),"x2",IF(AND(LEFT(C314,3)="eib",E314='LC - EIB'!$U$2,D314='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B314" s="62" t="str">
+      <c r="B314" s="62">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="C314" s="62"/>
-      <c r="D314" s="67"/>
-      <c r="E314" s="65"/>
-      <c r="F314" s="64"/>
-      <c r="G314" s="64"/>
-      <c r="H314" s="64"/>
-      <c r="I314" s="65"/>
+        <v>311</v>
+      </c>
+      <c r="C314" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D314" s="67">
+        <v>43194</v>
+      </c>
+      <c r="E314" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F314" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G314" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H314" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I314" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J314" s="66"/>
       <c r="K314" s="67"/>
       <c r="L314" s="65"/>
       <c r="M314" s="65"/>
-      <c r="N314" s="64"/>
+      <c r="N314" s="64" t="s">
+        <v>493</v>
+      </c>
       <c r="O314" s="68"/>
-      <c r="P314" s="69"/>
+      <c r="P314" s="69">
+        <v>52602660</v>
+      </c>
       <c r="Q314" s="104"/>
       <c r="R314" s="131" t="str">
         <f>IF(AND(C314="pv",D314='UNC - PV'!$Q$2,LEFT(E314,1)="u",'UNC - PV'!$O$2="vnđ",TH!P314&lt;&gt;""),"p",IF(AND(C314="pv",D314='UNC - PV'!$Q$2,LEFT(E314,1)="u",'UNC - PV'!$O$2="usd",TH!O314&lt;&gt;""),"p1",IF(AND(C314="pv",D314='LC - PV'!$P$2,LEFT(E314,1)="l"),"p2",IF(AND(LEFT(C314,3)="EIB",D314='UNC - EIB'!$T$2,LEFT(E314,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P314&lt;&gt;""),"e",IF(AND(LEFT(C314,3)="EIB",D314='UNC - EIB'!$T$2,LEFT(E314,1)="U",'UNC - EIB'!$R$2="usd",TH!O314&lt;&gt;""),"e1",IF(AND(LEFT(C314,3)="EIB",D314='LC - EIB'!$S$2,LEFT(E314,1)="l"),"e2",""))))))</f>
@@ -18597,24 +18639,43 @@
         <f>IF(AND(C315="pv",E315='UNC - PV'!$S$2,D315='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C315,3)="eib",E315='UNC - EIB'!$V$2,D315='UNC - EIB'!$T$2),"x1",IF(AND(C315="pv",E315='LC - PV'!$R$2,D315='LC - PV'!$P$2),"x2",IF(AND(LEFT(C315,3)="eib",E315='LC - EIB'!$U$2,D315='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B315" s="62" t="str">
+      <c r="B315" s="62">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="C315" s="62"/>
-      <c r="D315" s="67"/>
-      <c r="E315" s="65"/>
-      <c r="F315" s="64"/>
-      <c r="G315" s="64"/>
-      <c r="H315" s="64"/>
-      <c r="I315" s="65"/>
-      <c r="J315" s="66"/>
+        <v>312</v>
+      </c>
+      <c r="C315" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D315" s="67">
+        <v>43202</v>
+      </c>
+      <c r="E315" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F315" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G315" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H315" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I315" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J315" s="56"/>
       <c r="K315" s="67"/>
       <c r="L315" s="65"/>
       <c r="M315" s="65"/>
-      <c r="N315" s="64"/>
+      <c r="N315" s="64" t="s">
+        <v>494</v>
+      </c>
       <c r="O315" s="68"/>
-      <c r="P315" s="69"/>
+      <c r="P315" s="69">
+        <f>22775*60000</f>
+        <v>1366500000</v>
+      </c>
       <c r="Q315" s="104"/>
       <c r="R315" s="131" t="str">
         <f>IF(AND(C315="pv",D315='UNC - PV'!$Q$2,LEFT(E315,1)="u",'UNC - PV'!$O$2="vnđ",TH!P315&lt;&gt;""),"p",IF(AND(C315="pv",D315='UNC - PV'!$Q$2,LEFT(E315,1)="u",'UNC - PV'!$O$2="usd",TH!O315&lt;&gt;""),"p1",IF(AND(C315="pv",D315='LC - PV'!$P$2,LEFT(E315,1)="l"),"p2",IF(AND(LEFT(C315,3)="EIB",D315='UNC - EIB'!$T$2,LEFT(E315,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P315&lt;&gt;""),"e",IF(AND(LEFT(C315,3)="EIB",D315='UNC - EIB'!$T$2,LEFT(E315,1)="U",'UNC - EIB'!$R$2="usd",TH!O315&lt;&gt;""),"e1",IF(AND(LEFT(C315,3)="EIB",D315='LC - EIB'!$S$2,LEFT(E315,1)="l"),"e2",""))))))</f>
@@ -18626,23 +18687,41 @@
         <f>IF(AND(C316="pv",E316='UNC - PV'!$S$2,D316='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C316,3)="eib",E316='UNC - EIB'!$V$2,D316='UNC - EIB'!$T$2),"x1",IF(AND(C316="pv",E316='LC - PV'!$R$2,D316='LC - PV'!$P$2),"x2",IF(AND(LEFT(C316,3)="eib",E316='LC - EIB'!$U$2,D316='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B316" s="62" t="str">
+      <c r="B316" s="62">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="C316" s="62"/>
-      <c r="D316" s="67"/>
-      <c r="E316" s="65"/>
-      <c r="F316" s="64"/>
-      <c r="G316" s="64"/>
-      <c r="H316" s="64"/>
-      <c r="I316" s="65"/>
+        <v>313</v>
+      </c>
+      <c r="C316" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D316" s="67">
+        <v>43206</v>
+      </c>
+      <c r="E316" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F316" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G316" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H316" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I316" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J316" s="66"/>
       <c r="K316" s="67"/>
       <c r="L316" s="65"/>
       <c r="M316" s="65"/>
-      <c r="N316" s="64"/>
-      <c r="O316" s="68"/>
+      <c r="N316" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O316" s="68">
+        <v>4000</v>
+      </c>
       <c r="P316" s="69"/>
       <c r="Q316" s="104"/>
       <c r="R316" s="131" t="str">
@@ -18655,24 +18734,42 @@
         <f>IF(AND(C317="pv",E317='UNC - PV'!$S$2,D317='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C317,3)="eib",E317='UNC - EIB'!$V$2,D317='UNC - EIB'!$T$2),"x1",IF(AND(C317="pv",E317='LC - PV'!$R$2,D317='LC - PV'!$P$2),"x2",IF(AND(LEFT(C317,3)="eib",E317='LC - EIB'!$U$2,D317='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B317" s="62" t="str">
+      <c r="B317" s="62">
         <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="C317" s="62"/>
-      <c r="D317" s="67"/>
-      <c r="E317" s="65"/>
-      <c r="F317" s="64"/>
-      <c r="G317" s="64"/>
-      <c r="H317" s="64"/>
-      <c r="I317" s="65"/>
+        <v>314</v>
+      </c>
+      <c r="C317" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D317" s="67">
+        <v>43207</v>
+      </c>
+      <c r="E317" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F317" s="107" t="s">
+        <v>133</v>
+      </c>
+      <c r="G317" s="114" t="s">
+        <v>428</v>
+      </c>
+      <c r="H317" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="I317" s="105" t="s">
+        <v>160</v>
+      </c>
       <c r="J317" s="66"/>
       <c r="K317" s="67"/>
       <c r="L317" s="65"/>
       <c r="M317" s="65"/>
-      <c r="N317" s="64"/>
+      <c r="N317" s="107" t="s">
+        <v>487</v>
+      </c>
       <c r="O317" s="68"/>
-      <c r="P317" s="69"/>
+      <c r="P317" s="69">
+        <v>240000000</v>
+      </c>
       <c r="Q317" s="104"/>
       <c r="R317" s="131" t="str">
         <f>IF(AND(C317="pv",D317='UNC - PV'!$Q$2,LEFT(E317,1)="u",'UNC - PV'!$O$2="vnđ",TH!P317&lt;&gt;""),"p",IF(AND(C317="pv",D317='UNC - PV'!$Q$2,LEFT(E317,1)="u",'UNC - PV'!$O$2="usd",TH!O317&lt;&gt;""),"p1",IF(AND(C317="pv",D317='LC - PV'!$P$2,LEFT(E317,1)="l"),"p2",IF(AND(LEFT(C317,3)="EIB",D317='UNC - EIB'!$T$2,LEFT(E317,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P317&lt;&gt;""),"e",IF(AND(LEFT(C317,3)="EIB",D317='UNC - EIB'!$T$2,LEFT(E317,1)="U",'UNC - EIB'!$R$2="usd",TH!O317&lt;&gt;""),"e1",IF(AND(LEFT(C317,3)="EIB",D317='LC - EIB'!$S$2,LEFT(E317,1)="l"),"e2",""))))))</f>
@@ -18684,24 +18781,42 @@
         <f>IF(AND(C318="pv",E318='UNC - PV'!$S$2,D318='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C318,3)="eib",E318='UNC - EIB'!$V$2,D318='UNC - EIB'!$T$2),"x1",IF(AND(C318="pv",E318='LC - PV'!$R$2,D318='LC - PV'!$P$2),"x2",IF(AND(LEFT(C318,3)="eib",E318='LC - EIB'!$U$2,D318='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B318" s="62" t="str">
+      <c r="B318" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C318" s="62"/>
-      <c r="D318" s="67"/>
-      <c r="E318" s="65"/>
-      <c r="F318" s="64"/>
-      <c r="G318" s="64"/>
-      <c r="H318" s="64"/>
-      <c r="I318" s="65"/>
+        <v>315</v>
+      </c>
+      <c r="C318" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D318" s="67">
+        <v>43207</v>
+      </c>
+      <c r="E318" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F318" s="64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G318" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="H318" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="I318" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J318" s="66"/>
       <c r="K318" s="67"/>
       <c r="L318" s="65"/>
       <c r="M318" s="65"/>
-      <c r="N318" s="64"/>
+      <c r="N318" s="64" t="s">
+        <v>491</v>
+      </c>
       <c r="O318" s="68"/>
-      <c r="P318" s="69"/>
+      <c r="P318" s="69">
+        <v>6000000</v>
+      </c>
       <c r="Q318" s="104"/>
       <c r="R318" s="131" t="str">
         <f>IF(AND(C318="pv",D318='UNC - PV'!$Q$2,LEFT(E318,1)="u",'UNC - PV'!$O$2="vnđ",TH!P318&lt;&gt;""),"p",IF(AND(C318="pv",D318='UNC - PV'!$Q$2,LEFT(E318,1)="u",'UNC - PV'!$O$2="usd",TH!O318&lt;&gt;""),"p1",IF(AND(C318="pv",D318='LC - PV'!$P$2,LEFT(E318,1)="l"),"p2",IF(AND(LEFT(C318,3)="EIB",D318='UNC - EIB'!$T$2,LEFT(E318,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P318&lt;&gt;""),"e",IF(AND(LEFT(C318,3)="EIB",D318='UNC - EIB'!$T$2,LEFT(E318,1)="U",'UNC - EIB'!$R$2="usd",TH!O318&lt;&gt;""),"e1",IF(AND(LEFT(C318,3)="EIB",D318='LC - EIB'!$S$2,LEFT(E318,1)="l"),"e2",""))))))</f>
@@ -18713,24 +18828,42 @@
         <f>IF(AND(C319="pv",E319='UNC - PV'!$S$2,D319='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C319,3)="eib",E319='UNC - EIB'!$V$2,D319='UNC - EIB'!$T$2),"x1",IF(AND(C319="pv",E319='LC - PV'!$R$2,D319='LC - PV'!$P$2),"x2",IF(AND(LEFT(C319,3)="eib",E319='LC - EIB'!$U$2,D319='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B319" s="62" t="str">
+      <c r="B319" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C319" s="62"/>
-      <c r="D319" s="67"/>
-      <c r="E319" s="65"/>
-      <c r="F319" s="64"/>
-      <c r="G319" s="64"/>
-      <c r="H319" s="64"/>
-      <c r="I319" s="65"/>
+        <v>316</v>
+      </c>
+      <c r="C319" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D319" s="67">
+        <v>43207</v>
+      </c>
+      <c r="E319" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F319" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G319" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="H319" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="I319" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J319" s="66"/>
       <c r="K319" s="67"/>
       <c r="L319" s="65"/>
       <c r="M319" s="65"/>
-      <c r="N319" s="64"/>
+      <c r="N319" s="64" t="s">
+        <v>102</v>
+      </c>
       <c r="O319" s="68"/>
-      <c r="P319" s="69"/>
+      <c r="P319" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q319" s="104"/>
       <c r="R319" s="131" t="str">
         <f>IF(AND(C319="pv",D319='UNC - PV'!$Q$2,LEFT(E319,1)="u",'UNC - PV'!$O$2="vnđ",TH!P319&lt;&gt;""),"p",IF(AND(C319="pv",D319='UNC - PV'!$Q$2,LEFT(E319,1)="u",'UNC - PV'!$O$2="usd",TH!O319&lt;&gt;""),"p1",IF(AND(C319="pv",D319='LC - PV'!$P$2,LEFT(E319,1)="l"),"p2",IF(AND(LEFT(C319,3)="EIB",D319='UNC - EIB'!$T$2,LEFT(E319,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P319&lt;&gt;""),"e",IF(AND(LEFT(C319,3)="EIB",D319='UNC - EIB'!$T$2,LEFT(E319,1)="U",'UNC - EIB'!$R$2="usd",TH!O319&lt;&gt;""),"e1",IF(AND(LEFT(C319,3)="EIB",D319='LC - EIB'!$S$2,LEFT(E319,1)="l"),"e2",""))))))</f>
@@ -18742,23 +18875,41 @@
         <f>IF(AND(C320="pv",E320='UNC - PV'!$S$2,D320='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C320,3)="eib",E320='UNC - EIB'!$V$2,D320='UNC - EIB'!$T$2),"x1",IF(AND(C320="pv",E320='LC - PV'!$R$2,D320='LC - PV'!$P$2),"x2",IF(AND(LEFT(C320,3)="eib",E320='LC - EIB'!$U$2,D320='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B320" s="62" t="str">
+      <c r="B320" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C320" s="62"/>
-      <c r="D320" s="67"/>
-      <c r="E320" s="65"/>
-      <c r="F320" s="64"/>
-      <c r="G320" s="64"/>
-      <c r="H320" s="64"/>
-      <c r="I320" s="65"/>
+        <v>317</v>
+      </c>
+      <c r="C320" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D320" s="67">
+        <v>43213</v>
+      </c>
+      <c r="E320" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F320" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G320" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H320" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I320" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J320" s="66"/>
       <c r="K320" s="67"/>
       <c r="L320" s="65"/>
       <c r="M320" s="65"/>
-      <c r="N320" s="64"/>
-      <c r="O320" s="68"/>
+      <c r="N320" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O320" s="68">
+        <v>36900</v>
+      </c>
       <c r="P320" s="69"/>
       <c r="Q320" s="104"/>
       <c r="R320" s="131" t="str">
@@ -18771,24 +18922,43 @@
         <f>IF(AND(C321="pv",E321='UNC - PV'!$S$2,D321='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C321,3)="eib",E321='UNC - EIB'!$V$2,D321='UNC - EIB'!$T$2),"x1",IF(AND(C321="pv",E321='LC - PV'!$R$2,D321='LC - PV'!$P$2),"x2",IF(AND(LEFT(C321,3)="eib",E321='LC - EIB'!$U$2,D321='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B321" s="62" t="str">
+      <c r="B321" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C321" s="62"/>
-      <c r="D321" s="67"/>
-      <c r="E321" s="65"/>
-      <c r="F321" s="64"/>
-      <c r="G321" s="64"/>
-      <c r="H321" s="64"/>
-      <c r="I321" s="65"/>
-      <c r="J321" s="66"/>
+        <v>318</v>
+      </c>
+      <c r="C321" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D321" s="67">
+        <v>43213</v>
+      </c>
+      <c r="E321" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F321" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G321" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H321" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I321" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J321" s="56"/>
       <c r="K321" s="67"/>
       <c r="L321" s="65"/>
       <c r="M321" s="65"/>
-      <c r="N321" s="64"/>
+      <c r="N321" s="64" t="s">
+        <v>495</v>
+      </c>
       <c r="O321" s="68"/>
-      <c r="P321" s="69"/>
+      <c r="P321" s="69">
+        <f>121000*22760</f>
+        <v>2753960000</v>
+      </c>
       <c r="Q321" s="104"/>
       <c r="R321" s="131" t="str">
         <f>IF(AND(C321="pv",D321='UNC - PV'!$Q$2,LEFT(E321,1)="u",'UNC - PV'!$O$2="vnđ",TH!P321&lt;&gt;""),"p",IF(AND(C321="pv",D321='UNC - PV'!$Q$2,LEFT(E321,1)="u",'UNC - PV'!$O$2="usd",TH!O321&lt;&gt;""),"p1",IF(AND(C321="pv",D321='LC - PV'!$P$2,LEFT(E321,1)="l"),"p2",IF(AND(LEFT(C321,3)="EIB",D321='UNC - EIB'!$T$2,LEFT(E321,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P321&lt;&gt;""),"e",IF(AND(LEFT(C321,3)="EIB",D321='UNC - EIB'!$T$2,LEFT(E321,1)="U",'UNC - EIB'!$R$2="usd",TH!O321&lt;&gt;""),"e1",IF(AND(LEFT(C321,3)="EIB",D321='LC - EIB'!$S$2,LEFT(E321,1)="l"),"e2",""))))))</f>
@@ -18798,26 +18968,45 @@
     <row r="322" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A322" s="55" t="str">
         <f>IF(AND(C322="pv",E322='UNC - PV'!$S$2,D322='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C322,3)="eib",E322='UNC - EIB'!$V$2,D322='UNC - EIB'!$T$2),"x1",IF(AND(C322="pv",E322='LC - PV'!$R$2,D322='LC - PV'!$P$2),"x2",IF(AND(LEFT(C322,3)="eib",E322='LC - EIB'!$U$2,D322='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B322" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B322" s="62">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="C322" s="62"/>
-      <c r="D322" s="67"/>
-      <c r="E322" s="65"/>
-      <c r="F322" s="64"/>
-      <c r="G322" s="64"/>
-      <c r="H322" s="64"/>
-      <c r="I322" s="65"/>
-      <c r="J322" s="66"/>
+        <v>319</v>
+      </c>
+      <c r="C322" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D322" s="67">
+        <v>43213</v>
+      </c>
+      <c r="E322" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F322" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G322" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H322" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I322" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J322" s="56"/>
       <c r="K322" s="67"/>
       <c r="L322" s="65"/>
       <c r="M322" s="65"/>
-      <c r="N322" s="64"/>
+      <c r="N322" s="64" t="s">
+        <v>497</v>
+      </c>
       <c r="O322" s="68"/>
-      <c r="P322" s="69"/>
+      <c r="P322" s="69">
+        <f>189000*22755</f>
+        <v>4300695000</v>
+      </c>
       <c r="Q322" s="104"/>
       <c r="R322" s="131" t="str">
         <f>IF(AND(C322="pv",D322='UNC - PV'!$Q$2,LEFT(E322,1)="u",'UNC - PV'!$O$2="vnđ",TH!P322&lt;&gt;""),"p",IF(AND(C322="pv",D322='UNC - PV'!$Q$2,LEFT(E322,1)="u",'UNC - PV'!$O$2="usd",TH!O322&lt;&gt;""),"p1",IF(AND(C322="pv",D322='LC - PV'!$P$2,LEFT(E322,1)="l"),"p2",IF(AND(LEFT(C322,3)="EIB",D322='UNC - EIB'!$T$2,LEFT(E322,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P322&lt;&gt;""),"e",IF(AND(LEFT(C322,3)="EIB",D322='UNC - EIB'!$T$2,LEFT(E322,1)="U",'UNC - EIB'!$R$2="usd",TH!O322&lt;&gt;""),"e1",IF(AND(LEFT(C322,3)="EIB",D322='LC - EIB'!$S$2,LEFT(E322,1)="l"),"e2",""))))))</f>
@@ -18829,24 +19018,43 @@
         <f>IF(AND(C323="pv",E323='UNC - PV'!$S$2,D323='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C323,3)="eib",E323='UNC - EIB'!$V$2,D323='UNC - EIB'!$T$2),"x1",IF(AND(C323="pv",E323='LC - PV'!$R$2,D323='LC - PV'!$P$2),"x2",IF(AND(LEFT(C323,3)="eib",E323='LC - EIB'!$U$2,D323='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B323" s="62" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C323" s="62"/>
-      <c r="D323" s="67"/>
-      <c r="E323" s="65"/>
-      <c r="F323" s="64"/>
-      <c r="G323" s="64"/>
-      <c r="H323" s="64"/>
-      <c r="I323" s="65"/>
-      <c r="J323" s="66"/>
+      <c r="B323" s="62">
+        <f t="shared" ref="B323" si="26">IF(C323&lt;&gt;"",ROW()-3,"")</f>
+        <v>320</v>
+      </c>
+      <c r="C323" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D323" s="67">
+        <v>43229</v>
+      </c>
+      <c r="E323" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F323" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G323" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H323" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I323" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J323" s="56"/>
       <c r="K323" s="67"/>
       <c r="L323" s="65"/>
       <c r="M323" s="65"/>
-      <c r="N323" s="64"/>
+      <c r="N323" s="64" t="s">
+        <v>497</v>
+      </c>
       <c r="O323" s="68"/>
-      <c r="P323" s="69"/>
+      <c r="P323" s="69">
+        <f>78000*22760</f>
+        <v>1775280000</v>
+      </c>
       <c r="Q323" s="104"/>
       <c r="R323" s="131" t="str">
         <f>IF(AND(C323="pv",D323='UNC - PV'!$Q$2,LEFT(E323,1)="u",'UNC - PV'!$O$2="vnđ",TH!P323&lt;&gt;""),"p",IF(AND(C323="pv",D323='UNC - PV'!$Q$2,LEFT(E323,1)="u",'UNC - PV'!$O$2="usd",TH!O323&lt;&gt;""),"p1",IF(AND(C323="pv",D323='LC - PV'!$P$2,LEFT(E323,1)="l"),"p2",IF(AND(LEFT(C323,3)="EIB",D323='UNC - EIB'!$T$2,LEFT(E323,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P323&lt;&gt;""),"e",IF(AND(LEFT(C323,3)="EIB",D323='UNC - EIB'!$T$2,LEFT(E323,1)="U",'UNC - EIB'!$R$2="usd",TH!O323&lt;&gt;""),"e1",IF(AND(LEFT(C323,3)="EIB",D323='LC - EIB'!$S$2,LEFT(E323,1)="l"),"e2",""))))))</f>
@@ -18858,24 +19066,43 @@
         <f>IF(AND(C324="pv",E324='UNC - PV'!$S$2,D324='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C324,3)="eib",E324='UNC - EIB'!$V$2,D324='UNC - EIB'!$T$2),"x1",IF(AND(C324="pv",E324='LC - PV'!$R$2,D324='LC - PV'!$P$2),"x2",IF(AND(LEFT(C324,3)="eib",E324='LC - EIB'!$U$2,D324='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B324" s="62" t="str">
+      <c r="B324" s="62">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="C324" s="62"/>
-      <c r="D324" s="67"/>
-      <c r="E324" s="65"/>
-      <c r="F324" s="64"/>
-      <c r="G324" s="64"/>
-      <c r="H324" s="64"/>
-      <c r="I324" s="65"/>
-      <c r="J324" s="66"/>
+        <v>321</v>
+      </c>
+      <c r="C324" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D324" s="67">
+        <v>43231</v>
+      </c>
+      <c r="E324" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F324" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G324" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H324" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I324" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J324" s="56"/>
       <c r="K324" s="67"/>
       <c r="L324" s="65"/>
       <c r="M324" s="65"/>
-      <c r="N324" s="64"/>
+      <c r="N324" s="64" t="s">
+        <v>498</v>
+      </c>
       <c r="O324" s="68"/>
-      <c r="P324" s="69"/>
+      <c r="P324" s="69">
+        <f>89000*22759</f>
+        <v>2025551000</v>
+      </c>
       <c r="Q324" s="104"/>
       <c r="R324" s="131" t="str">
         <f>IF(AND(C324="pv",D324='UNC - PV'!$Q$2,LEFT(E324,1)="u",'UNC - PV'!$O$2="vnđ",TH!P324&lt;&gt;""),"p",IF(AND(C324="pv",D324='UNC - PV'!$Q$2,LEFT(E324,1)="u",'UNC - PV'!$O$2="usd",TH!O324&lt;&gt;""),"p1",IF(AND(C324="pv",D324='LC - PV'!$P$2,LEFT(E324,1)="l"),"p2",IF(AND(LEFT(C324,3)="EIB",D324='UNC - EIB'!$T$2,LEFT(E324,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P324&lt;&gt;""),"e",IF(AND(LEFT(C324,3)="EIB",D324='UNC - EIB'!$T$2,LEFT(E324,1)="U",'UNC - EIB'!$R$2="usd",TH!O324&lt;&gt;""),"e1",IF(AND(LEFT(C324,3)="EIB",D324='LC - EIB'!$S$2,LEFT(E324,1)="l"),"e2",""))))))</f>
@@ -18887,24 +19114,42 @@
         <f>IF(AND(C325="pv",E325='UNC - PV'!$S$2,D325='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C325,3)="eib",E325='UNC - EIB'!$V$2,D325='UNC - EIB'!$T$2),"x1",IF(AND(C325="pv",E325='LC - PV'!$R$2,D325='LC - PV'!$P$2),"x2",IF(AND(LEFT(C325,3)="eib",E325='LC - EIB'!$U$2,D325='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B325" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C325" s="62"/>
-      <c r="D325" s="67"/>
-      <c r="E325" s="65"/>
-      <c r="F325" s="64"/>
-      <c r="G325" s="64"/>
-      <c r="H325" s="64"/>
-      <c r="I325" s="65"/>
+      <c r="B325" s="62">
+        <f t="shared" ref="B325" si="27">IF(C325&lt;&gt;"",ROW()-3,"")</f>
+        <v>322</v>
+      </c>
+      <c r="C325" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D325" s="67">
+        <v>43231</v>
+      </c>
+      <c r="E325" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F325" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="G325" s="71" t="s">
+        <v>462</v>
+      </c>
+      <c r="H325" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="I325" s="62" t="s">
+        <v>10</v>
+      </c>
       <c r="J325" s="66"/>
       <c r="K325" s="67"/>
       <c r="L325" s="65"/>
       <c r="M325" s="65"/>
-      <c r="N325" s="64"/>
+      <c r="N325" s="64" t="s">
+        <v>478</v>
+      </c>
       <c r="O325" s="68"/>
-      <c r="P325" s="69"/>
+      <c r="P325" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q325" s="104"/>
       <c r="R325" s="131" t="str">
         <f>IF(AND(C325="pv",D325='UNC - PV'!$Q$2,LEFT(E325,1)="u",'UNC - PV'!$O$2="vnđ",TH!P325&lt;&gt;""),"p",IF(AND(C325="pv",D325='UNC - PV'!$Q$2,LEFT(E325,1)="u",'UNC - PV'!$O$2="usd",TH!O325&lt;&gt;""),"p1",IF(AND(C325="pv",D325='LC - PV'!$P$2,LEFT(E325,1)="l"),"p2",IF(AND(LEFT(C325,3)="EIB",D325='UNC - EIB'!$T$2,LEFT(E325,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P325&lt;&gt;""),"e",IF(AND(LEFT(C325,3)="EIB",D325='UNC - EIB'!$T$2,LEFT(E325,1)="U",'UNC - EIB'!$R$2="usd",TH!O325&lt;&gt;""),"e1",IF(AND(LEFT(C325,3)="EIB",D325='LC - EIB'!$S$2,LEFT(E325,1)="l"),"e2",""))))))</f>
@@ -18916,24 +19161,43 @@
         <f>IF(AND(C326="pv",E326='UNC - PV'!$S$2,D326='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C326,3)="eib",E326='UNC - EIB'!$V$2,D326='UNC - EIB'!$T$2),"x1",IF(AND(C326="pv",E326='LC - PV'!$R$2,D326='LC - PV'!$P$2),"x2",IF(AND(LEFT(C326,3)="eib",E326='LC - EIB'!$U$2,D326='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B326" s="62" t="str">
-        <f t="shared" ref="B326" si="26">IF(C326&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C326" s="62"/>
-      <c r="D326" s="67"/>
-      <c r="E326" s="65"/>
-      <c r="F326" s="64"/>
-      <c r="G326" s="64"/>
-      <c r="H326" s="64"/>
-      <c r="I326" s="65"/>
-      <c r="J326" s="66"/>
+      <c r="B326" s="62">
+        <f t="shared" ref="B326" si="28">IF(C326&lt;&gt;"",ROW()-3,"")</f>
+        <v>323</v>
+      </c>
+      <c r="C326" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D326" s="67">
+        <v>43234</v>
+      </c>
+      <c r="E326" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F326" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G326" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H326" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I326" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="J326" s="56"/>
       <c r="K326" s="67"/>
       <c r="L326" s="65"/>
       <c r="M326" s="65"/>
-      <c r="N326" s="64"/>
+      <c r="N326" s="64" t="s">
+        <v>499</v>
+      </c>
       <c r="O326" s="68"/>
-      <c r="P326" s="69"/>
+      <c r="P326" s="69">
+        <f>52000*22758</f>
+        <v>1183416000</v>
+      </c>
       <c r="Q326" s="104"/>
       <c r="R326" s="131" t="str">
         <f>IF(AND(C326="pv",D326='UNC - PV'!$Q$2,LEFT(E326,1)="u",'UNC - PV'!$O$2="vnđ",TH!P326&lt;&gt;""),"p",IF(AND(C326="pv",D326='UNC - PV'!$Q$2,LEFT(E326,1)="u",'UNC - PV'!$O$2="usd",TH!O326&lt;&gt;""),"p1",IF(AND(C326="pv",D326='LC - PV'!$P$2,LEFT(E326,1)="l"),"p2",IF(AND(LEFT(C326,3)="EIB",D326='UNC - EIB'!$T$2,LEFT(E326,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P326&lt;&gt;""),"e",IF(AND(LEFT(C326,3)="EIB",D326='UNC - EIB'!$T$2,LEFT(E326,1)="U",'UNC - EIB'!$R$2="usd",TH!O326&lt;&gt;""),"e1",IF(AND(LEFT(C326,3)="EIB",D326='LC - EIB'!$S$2,LEFT(E326,1)="l"),"e2",""))))))</f>
@@ -18945,24 +19209,43 @@
         <f>IF(AND(C327="pv",E327='UNC - PV'!$S$2,D327='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C327,3)="eib",E327='UNC - EIB'!$V$2,D327='UNC - EIB'!$T$2),"x1",IF(AND(C327="pv",E327='LC - PV'!$R$2,D327='LC - PV'!$P$2),"x2",IF(AND(LEFT(C327,3)="eib",E327='LC - EIB'!$U$2,D327='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B327" s="62" t="str">
-        <f t="shared" ref="B327" si="27">IF(C327&lt;&gt;"",ROW()-3,"")</f>
-        <v/>
-      </c>
-      <c r="C327" s="62"/>
-      <c r="D327" s="67"/>
-      <c r="E327" s="65"/>
-      <c r="F327" s="64"/>
-      <c r="G327" s="64"/>
-      <c r="H327" s="64"/>
-      <c r="I327" s="65"/>
+      <c r="B327" s="62">
+        <f t="shared" ref="B327:B342" si="29">IF(C327&lt;&gt;"",ROW()-3,"")</f>
+        <v>324</v>
+      </c>
+      <c r="C327" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D327" s="67">
+        <v>43235</v>
+      </c>
+      <c r="E327" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F327" s="64" t="s">
+        <v>366</v>
+      </c>
+      <c r="G327" s="71" t="s">
+        <v>408</v>
+      </c>
+      <c r="H327" s="64" t="s">
+        <v>368</v>
+      </c>
+      <c r="I327" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="J327" s="66"/>
       <c r="K327" s="67"/>
       <c r="L327" s="65"/>
       <c r="M327" s="65"/>
-      <c r="N327" s="64"/>
+      <c r="N327" s="64" t="s">
+        <v>500</v>
+      </c>
       <c r="O327" s="68"/>
-      <c r="P327" s="69"/>
+      <c r="P327" s="69">
+        <f>24771780+28057920</f>
+        <v>52829700</v>
+      </c>
       <c r="Q327" s="104"/>
       <c r="R327" s="131" t="str">
         <f>IF(AND(C327="pv",D327='UNC - PV'!$Q$2,LEFT(E327,1)="u",'UNC - PV'!$O$2="vnđ",TH!P327&lt;&gt;""),"p",IF(AND(C327="pv",D327='UNC - PV'!$Q$2,LEFT(E327,1)="u",'UNC - PV'!$O$2="usd",TH!O327&lt;&gt;""),"p1",IF(AND(C327="pv",D327='LC - PV'!$P$2,LEFT(E327,1)="l"),"p2",IF(AND(LEFT(C327,3)="EIB",D327='UNC - EIB'!$T$2,LEFT(E327,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P327&lt;&gt;""),"e",IF(AND(LEFT(C327,3)="EIB",D327='UNC - EIB'!$T$2,LEFT(E327,1)="U",'UNC - EIB'!$R$2="usd",TH!O327&lt;&gt;""),"e1",IF(AND(LEFT(C327,3)="EIB",D327='LC - EIB'!$S$2,LEFT(E327,1)="l"),"e2",""))))))</f>
@@ -18974,32 +19257,492 @@
         <f>IF(AND(C328="pv",E328='UNC - PV'!$S$2,D328='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C328,3)="eib",E328='UNC - EIB'!$V$2,D328='UNC - EIB'!$T$2),"x1",IF(AND(C328="pv",E328='LC - PV'!$R$2,D328='LC - PV'!$P$2),"x2",IF(AND(LEFT(C328,3)="eib",E328='LC - EIB'!$U$2,D328='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B328" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C328" s="62"/>
-      <c r="D328" s="67"/>
-      <c r="E328" s="65"/>
-      <c r="F328" s="64"/>
-      <c r="G328" s="64"/>
-      <c r="H328" s="64"/>
-      <c r="I328" s="65"/>
-      <c r="J328" s="66"/>
-      <c r="K328" s="67"/>
-      <c r="L328" s="65"/>
-      <c r="M328" s="65"/>
-      <c r="N328" s="64"/>
+      <c r="B328" s="62">
+        <f t="shared" si="29"/>
+        <v>325</v>
+      </c>
+      <c r="C328" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D328" s="67">
+        <v>43235</v>
+      </c>
+      <c r="E328" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F328" s="125" t="s">
+        <v>263</v>
+      </c>
+      <c r="G328" s="125" t="s">
+        <v>264</v>
+      </c>
+      <c r="H328" s="125" t="s">
+        <v>265</v>
+      </c>
+      <c r="I328" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="J328" s="126"/>
+      <c r="K328" s="123"/>
+      <c r="L328" s="124"/>
+      <c r="M328" s="124"/>
+      <c r="N328" s="125" t="s">
+        <v>266</v>
+      </c>
       <c r="O328" s="68"/>
-      <c r="P328" s="69"/>
+      <c r="P328" s="69">
+        <v>41977980</v>
+      </c>
       <c r="Q328" s="104"/>
       <c r="R328" s="131" t="str">
         <f>IF(AND(C328="pv",D328='UNC - PV'!$Q$2,LEFT(E328,1)="u",'UNC - PV'!$O$2="vnđ",TH!P328&lt;&gt;""),"p",IF(AND(C328="pv",D328='UNC - PV'!$Q$2,LEFT(E328,1)="u",'UNC - PV'!$O$2="usd",TH!O328&lt;&gt;""),"p1",IF(AND(C328="pv",D328='LC - PV'!$P$2,LEFT(E328,1)="l"),"p2",IF(AND(LEFT(C328,3)="EIB",D328='UNC - EIB'!$T$2,LEFT(E328,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P328&lt;&gt;""),"e",IF(AND(LEFT(C328,3)="EIB",D328='UNC - EIB'!$T$2,LEFT(E328,1)="U",'UNC - EIB'!$R$2="usd",TH!O328&lt;&gt;""),"e1",IF(AND(LEFT(C328,3)="EIB",D328='LC - EIB'!$S$2,LEFT(E328,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
+    <row r="329" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A329" s="55" t="str">
+        <f>IF(AND(C329="pv",E329='UNC - PV'!$S$2,D329='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C329,3)="eib",E329='UNC - EIB'!$V$2,D329='UNC - EIB'!$T$2),"x1",IF(AND(C329="pv",E329='LC - PV'!$R$2,D329='LC - PV'!$P$2),"x2",IF(AND(LEFT(C329,3)="eib",E329='LC - EIB'!$U$2,D329='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B329" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C329" s="62"/>
+      <c r="D329" s="67"/>
+      <c r="E329" s="65"/>
+      <c r="F329" s="64"/>
+      <c r="G329" s="64"/>
+      <c r="H329" s="64"/>
+      <c r="I329" s="65"/>
+      <c r="J329" s="66"/>
+      <c r="K329" s="67"/>
+      <c r="L329" s="65"/>
+      <c r="M329" s="65"/>
+      <c r="N329" s="64"/>
+      <c r="O329" s="68"/>
+      <c r="P329" s="69"/>
+      <c r="Q329" s="104"/>
+      <c r="R329" s="131" t="str">
+        <f>IF(AND(C329="pv",D329='UNC - PV'!$Q$2,LEFT(E329,1)="u",'UNC - PV'!$O$2="vnđ",TH!P329&lt;&gt;""),"p",IF(AND(C329="pv",D329='UNC - PV'!$Q$2,LEFT(E329,1)="u",'UNC - PV'!$O$2="usd",TH!O329&lt;&gt;""),"p1",IF(AND(C329="pv",D329='LC - PV'!$P$2,LEFT(E329,1)="l"),"p2",IF(AND(LEFT(C329,3)="EIB",D329='UNC - EIB'!$T$2,LEFT(E329,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P329&lt;&gt;""),"e",IF(AND(LEFT(C329,3)="EIB",D329='UNC - EIB'!$T$2,LEFT(E329,1)="U",'UNC - EIB'!$R$2="usd",TH!O329&lt;&gt;""),"e1",IF(AND(LEFT(C329,3)="EIB",D329='LC - EIB'!$S$2,LEFT(E329,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A330" s="55" t="str">
+        <f>IF(AND(C330="pv",E330='UNC - PV'!$S$2,D330='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C330,3)="eib",E330='UNC - EIB'!$V$2,D330='UNC - EIB'!$T$2),"x1",IF(AND(C330="pv",E330='LC - PV'!$R$2,D330='LC - PV'!$P$2),"x2",IF(AND(LEFT(C330,3)="eib",E330='LC - EIB'!$U$2,D330='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B330" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C330" s="62"/>
+      <c r="D330" s="67"/>
+      <c r="E330" s="65"/>
+      <c r="F330" s="64"/>
+      <c r="G330" s="64"/>
+      <c r="H330" s="64"/>
+      <c r="I330" s="65"/>
+      <c r="J330" s="66"/>
+      <c r="K330" s="67"/>
+      <c r="L330" s="65"/>
+      <c r="M330" s="65"/>
+      <c r="N330" s="64"/>
+      <c r="O330" s="68"/>
+      <c r="P330" s="69"/>
+      <c r="Q330" s="104"/>
+      <c r="R330" s="131" t="str">
+        <f>IF(AND(C330="pv",D330='UNC - PV'!$Q$2,LEFT(E330,1)="u",'UNC - PV'!$O$2="vnđ",TH!P330&lt;&gt;""),"p",IF(AND(C330="pv",D330='UNC - PV'!$Q$2,LEFT(E330,1)="u",'UNC - PV'!$O$2="usd",TH!O330&lt;&gt;""),"p1",IF(AND(C330="pv",D330='LC - PV'!$P$2,LEFT(E330,1)="l"),"p2",IF(AND(LEFT(C330,3)="EIB",D330='UNC - EIB'!$T$2,LEFT(E330,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P330&lt;&gt;""),"e",IF(AND(LEFT(C330,3)="EIB",D330='UNC - EIB'!$T$2,LEFT(E330,1)="U",'UNC - EIB'!$R$2="usd",TH!O330&lt;&gt;""),"e1",IF(AND(LEFT(C330,3)="EIB",D330='LC - EIB'!$S$2,LEFT(E330,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A331" s="55" t="str">
+        <f>IF(AND(C331="pv",E331='UNC - PV'!$S$2,D331='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C331,3)="eib",E331='UNC - EIB'!$V$2,D331='UNC - EIB'!$T$2),"x1",IF(AND(C331="pv",E331='LC - PV'!$R$2,D331='LC - PV'!$P$2),"x2",IF(AND(LEFT(C331,3)="eib",E331='LC - EIB'!$U$2,D331='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B331" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C331" s="62"/>
+      <c r="D331" s="67"/>
+      <c r="E331" s="65"/>
+      <c r="F331" s="64"/>
+      <c r="G331" s="64"/>
+      <c r="H331" s="64"/>
+      <c r="I331" s="65"/>
+      <c r="J331" s="66"/>
+      <c r="K331" s="67"/>
+      <c r="L331" s="65"/>
+      <c r="M331" s="65"/>
+      <c r="N331" s="64"/>
+      <c r="O331" s="68"/>
+      <c r="P331" s="69"/>
+      <c r="Q331" s="104"/>
+      <c r="R331" s="131" t="str">
+        <f>IF(AND(C331="pv",D331='UNC - PV'!$Q$2,LEFT(E331,1)="u",'UNC - PV'!$O$2="vnđ",TH!P331&lt;&gt;""),"p",IF(AND(C331="pv",D331='UNC - PV'!$Q$2,LEFT(E331,1)="u",'UNC - PV'!$O$2="usd",TH!O331&lt;&gt;""),"p1",IF(AND(C331="pv",D331='LC - PV'!$P$2,LEFT(E331,1)="l"),"p2",IF(AND(LEFT(C331,3)="EIB",D331='UNC - EIB'!$T$2,LEFT(E331,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P331&lt;&gt;""),"e",IF(AND(LEFT(C331,3)="EIB",D331='UNC - EIB'!$T$2,LEFT(E331,1)="U",'UNC - EIB'!$R$2="usd",TH!O331&lt;&gt;""),"e1",IF(AND(LEFT(C331,3)="EIB",D331='LC - EIB'!$S$2,LEFT(E331,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A332" s="55" t="str">
+        <f>IF(AND(C332="pv",E332='UNC - PV'!$S$2,D332='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C332,3)="eib",E332='UNC - EIB'!$V$2,D332='UNC - EIB'!$T$2),"x1",IF(AND(C332="pv",E332='LC - PV'!$R$2,D332='LC - PV'!$P$2),"x2",IF(AND(LEFT(C332,3)="eib",E332='LC - EIB'!$U$2,D332='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B332" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C332" s="62"/>
+      <c r="D332" s="67"/>
+      <c r="E332" s="65"/>
+      <c r="F332" s="64"/>
+      <c r="G332" s="64"/>
+      <c r="H332" s="64"/>
+      <c r="I332" s="65"/>
+      <c r="J332" s="66"/>
+      <c r="K332" s="67"/>
+      <c r="L332" s="65"/>
+      <c r="M332" s="65"/>
+      <c r="N332" s="64"/>
+      <c r="O332" s="68"/>
+      <c r="P332" s="69"/>
+      <c r="Q332" s="104"/>
+      <c r="R332" s="131" t="str">
+        <f>IF(AND(C332="pv",D332='UNC - PV'!$Q$2,LEFT(E332,1)="u",'UNC - PV'!$O$2="vnđ",TH!P332&lt;&gt;""),"p",IF(AND(C332="pv",D332='UNC - PV'!$Q$2,LEFT(E332,1)="u",'UNC - PV'!$O$2="usd",TH!O332&lt;&gt;""),"p1",IF(AND(C332="pv",D332='LC - PV'!$P$2,LEFT(E332,1)="l"),"p2",IF(AND(LEFT(C332,3)="EIB",D332='UNC - EIB'!$T$2,LEFT(E332,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P332&lt;&gt;""),"e",IF(AND(LEFT(C332,3)="EIB",D332='UNC - EIB'!$T$2,LEFT(E332,1)="U",'UNC - EIB'!$R$2="usd",TH!O332&lt;&gt;""),"e1",IF(AND(LEFT(C332,3)="EIB",D332='LC - EIB'!$S$2,LEFT(E332,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A333" s="55" t="str">
+        <f>IF(AND(C333="pv",E333='UNC - PV'!$S$2,D333='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C333,3)="eib",E333='UNC - EIB'!$V$2,D333='UNC - EIB'!$T$2),"x1",IF(AND(C333="pv",E333='LC - PV'!$R$2,D333='LC - PV'!$P$2),"x2",IF(AND(LEFT(C333,3)="eib",E333='LC - EIB'!$U$2,D333='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B333" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C333" s="62"/>
+      <c r="D333" s="67"/>
+      <c r="E333" s="65"/>
+      <c r="F333" s="64"/>
+      <c r="G333" s="64"/>
+      <c r="H333" s="64"/>
+      <c r="I333" s="65"/>
+      <c r="J333" s="66"/>
+      <c r="K333" s="67"/>
+      <c r="L333" s="65"/>
+      <c r="M333" s="65"/>
+      <c r="N333" s="64"/>
+      <c r="O333" s="68"/>
+      <c r="P333" s="69"/>
+      <c r="Q333" s="104"/>
+      <c r="R333" s="131" t="str">
+        <f>IF(AND(C333="pv",D333='UNC - PV'!$Q$2,LEFT(E333,1)="u",'UNC - PV'!$O$2="vnđ",TH!P333&lt;&gt;""),"p",IF(AND(C333="pv",D333='UNC - PV'!$Q$2,LEFT(E333,1)="u",'UNC - PV'!$O$2="usd",TH!O333&lt;&gt;""),"p1",IF(AND(C333="pv",D333='LC - PV'!$P$2,LEFT(E333,1)="l"),"p2",IF(AND(LEFT(C333,3)="EIB",D333='UNC - EIB'!$T$2,LEFT(E333,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P333&lt;&gt;""),"e",IF(AND(LEFT(C333,3)="EIB",D333='UNC - EIB'!$T$2,LEFT(E333,1)="U",'UNC - EIB'!$R$2="usd",TH!O333&lt;&gt;""),"e1",IF(AND(LEFT(C333,3)="EIB",D333='LC - EIB'!$S$2,LEFT(E333,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A334" s="55" t="str">
+        <f>IF(AND(C334="pv",E334='UNC - PV'!$S$2,D334='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C334,3)="eib",E334='UNC - EIB'!$V$2,D334='UNC - EIB'!$T$2),"x1",IF(AND(C334="pv",E334='LC - PV'!$R$2,D334='LC - PV'!$P$2),"x2",IF(AND(LEFT(C334,3)="eib",E334='LC - EIB'!$U$2,D334='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B334" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C334" s="62"/>
+      <c r="D334" s="67"/>
+      <c r="E334" s="65"/>
+      <c r="F334" s="64"/>
+      <c r="G334" s="64"/>
+      <c r="H334" s="64"/>
+      <c r="I334" s="65"/>
+      <c r="J334" s="66"/>
+      <c r="K334" s="67"/>
+      <c r="L334" s="65"/>
+      <c r="M334" s="65"/>
+      <c r="N334" s="64"/>
+      <c r="O334" s="68"/>
+      <c r="P334" s="69"/>
+      <c r="Q334" s="104"/>
+      <c r="R334" s="131" t="str">
+        <f>IF(AND(C334="pv",D334='UNC - PV'!$Q$2,LEFT(E334,1)="u",'UNC - PV'!$O$2="vnđ",TH!P334&lt;&gt;""),"p",IF(AND(C334="pv",D334='UNC - PV'!$Q$2,LEFT(E334,1)="u",'UNC - PV'!$O$2="usd",TH!O334&lt;&gt;""),"p1",IF(AND(C334="pv",D334='LC - PV'!$P$2,LEFT(E334,1)="l"),"p2",IF(AND(LEFT(C334,3)="EIB",D334='UNC - EIB'!$T$2,LEFT(E334,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P334&lt;&gt;""),"e",IF(AND(LEFT(C334,3)="EIB",D334='UNC - EIB'!$T$2,LEFT(E334,1)="U",'UNC - EIB'!$R$2="usd",TH!O334&lt;&gt;""),"e1",IF(AND(LEFT(C334,3)="EIB",D334='LC - EIB'!$S$2,LEFT(E334,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A335" s="55" t="str">
+        <f>IF(AND(C335="pv",E335='UNC - PV'!$S$2,D335='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C335,3)="eib",E335='UNC - EIB'!$V$2,D335='UNC - EIB'!$T$2),"x1",IF(AND(C335="pv",E335='LC - PV'!$R$2,D335='LC - PV'!$P$2),"x2",IF(AND(LEFT(C335,3)="eib",E335='LC - EIB'!$U$2,D335='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B335" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C335" s="62"/>
+      <c r="D335" s="67"/>
+      <c r="E335" s="65"/>
+      <c r="F335" s="64"/>
+      <c r="G335" s="64"/>
+      <c r="H335" s="64"/>
+      <c r="I335" s="65"/>
+      <c r="J335" s="66"/>
+      <c r="K335" s="67"/>
+      <c r="L335" s="65"/>
+      <c r="M335" s="65"/>
+      <c r="N335" s="64"/>
+      <c r="O335" s="68"/>
+      <c r="P335" s="69"/>
+      <c r="Q335" s="104"/>
+      <c r="R335" s="131" t="str">
+        <f>IF(AND(C335="pv",D335='UNC - PV'!$Q$2,LEFT(E335,1)="u",'UNC - PV'!$O$2="vnđ",TH!P335&lt;&gt;""),"p",IF(AND(C335="pv",D335='UNC - PV'!$Q$2,LEFT(E335,1)="u",'UNC - PV'!$O$2="usd",TH!O335&lt;&gt;""),"p1",IF(AND(C335="pv",D335='LC - PV'!$P$2,LEFT(E335,1)="l"),"p2",IF(AND(LEFT(C335,3)="EIB",D335='UNC - EIB'!$T$2,LEFT(E335,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P335&lt;&gt;""),"e",IF(AND(LEFT(C335,3)="EIB",D335='UNC - EIB'!$T$2,LEFT(E335,1)="U",'UNC - EIB'!$R$2="usd",TH!O335&lt;&gt;""),"e1",IF(AND(LEFT(C335,3)="EIB",D335='LC - EIB'!$S$2,LEFT(E335,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A336" s="55" t="str">
+        <f>IF(AND(C336="pv",E336='UNC - PV'!$S$2,D336='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C336,3)="eib",E336='UNC - EIB'!$V$2,D336='UNC - EIB'!$T$2),"x1",IF(AND(C336="pv",E336='LC - PV'!$R$2,D336='LC - PV'!$P$2),"x2",IF(AND(LEFT(C336,3)="eib",E336='LC - EIB'!$U$2,D336='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B336" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C336" s="62"/>
+      <c r="D336" s="67"/>
+      <c r="E336" s="65"/>
+      <c r="F336" s="64"/>
+      <c r="G336" s="64"/>
+      <c r="H336" s="64"/>
+      <c r="I336" s="65"/>
+      <c r="J336" s="66"/>
+      <c r="K336" s="67"/>
+      <c r="L336" s="65"/>
+      <c r="M336" s="65"/>
+      <c r="N336" s="64"/>
+      <c r="O336" s="68"/>
+      <c r="P336" s="69"/>
+      <c r="Q336" s="104"/>
+      <c r="R336" s="131" t="str">
+        <f>IF(AND(C336="pv",D336='UNC - PV'!$Q$2,LEFT(E336,1)="u",'UNC - PV'!$O$2="vnđ",TH!P336&lt;&gt;""),"p",IF(AND(C336="pv",D336='UNC - PV'!$Q$2,LEFT(E336,1)="u",'UNC - PV'!$O$2="usd",TH!O336&lt;&gt;""),"p1",IF(AND(C336="pv",D336='LC - PV'!$P$2,LEFT(E336,1)="l"),"p2",IF(AND(LEFT(C336,3)="EIB",D336='UNC - EIB'!$T$2,LEFT(E336,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P336&lt;&gt;""),"e",IF(AND(LEFT(C336,3)="EIB",D336='UNC - EIB'!$T$2,LEFT(E336,1)="U",'UNC - EIB'!$R$2="usd",TH!O336&lt;&gt;""),"e1",IF(AND(LEFT(C336,3)="EIB",D336='LC - EIB'!$S$2,LEFT(E336,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A337" s="55" t="str">
+        <f>IF(AND(C337="pv",E337='UNC - PV'!$S$2,D337='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C337,3)="eib",E337='UNC - EIB'!$V$2,D337='UNC - EIB'!$T$2),"x1",IF(AND(C337="pv",E337='LC - PV'!$R$2,D337='LC - PV'!$P$2),"x2",IF(AND(LEFT(C337,3)="eib",E337='LC - EIB'!$U$2,D337='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B337" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C337" s="62"/>
+      <c r="D337" s="67"/>
+      <c r="E337" s="65"/>
+      <c r="F337" s="64"/>
+      <c r="G337" s="64"/>
+      <c r="H337" s="64"/>
+      <c r="I337" s="65"/>
+      <c r="J337" s="66"/>
+      <c r="K337" s="67"/>
+      <c r="L337" s="65"/>
+      <c r="M337" s="65"/>
+      <c r="N337" s="64"/>
+      <c r="O337" s="68"/>
+      <c r="P337" s="69"/>
+      <c r="Q337" s="104"/>
+      <c r="R337" s="131" t="str">
+        <f>IF(AND(C337="pv",D337='UNC - PV'!$Q$2,LEFT(E337,1)="u",'UNC - PV'!$O$2="vnđ",TH!P337&lt;&gt;""),"p",IF(AND(C337="pv",D337='UNC - PV'!$Q$2,LEFT(E337,1)="u",'UNC - PV'!$O$2="usd",TH!O337&lt;&gt;""),"p1",IF(AND(C337="pv",D337='LC - PV'!$P$2,LEFT(E337,1)="l"),"p2",IF(AND(LEFT(C337,3)="EIB",D337='UNC - EIB'!$T$2,LEFT(E337,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P337&lt;&gt;""),"e",IF(AND(LEFT(C337,3)="EIB",D337='UNC - EIB'!$T$2,LEFT(E337,1)="U",'UNC - EIB'!$R$2="usd",TH!O337&lt;&gt;""),"e1",IF(AND(LEFT(C337,3)="EIB",D337='LC - EIB'!$S$2,LEFT(E337,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A338" s="55" t="str">
+        <f>IF(AND(C338="pv",E338='UNC - PV'!$S$2,D338='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C338,3)="eib",E338='UNC - EIB'!$V$2,D338='UNC - EIB'!$T$2),"x1",IF(AND(C338="pv",E338='LC - PV'!$R$2,D338='LC - PV'!$P$2),"x2",IF(AND(LEFT(C338,3)="eib",E338='LC - EIB'!$U$2,D338='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B338" s="62" t="str">
+        <f t="shared" ref="B338:B339" si="30">IF(C338&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C338" s="62"/>
+      <c r="D338" s="67"/>
+      <c r="E338" s="65"/>
+      <c r="F338" s="64"/>
+      <c r="G338" s="64"/>
+      <c r="H338" s="64"/>
+      <c r="I338" s="65"/>
+      <c r="J338" s="66"/>
+      <c r="K338" s="67"/>
+      <c r="L338" s="65"/>
+      <c r="M338" s="65"/>
+      <c r="N338" s="64"/>
+      <c r="O338" s="68"/>
+      <c r="P338" s="69"/>
+      <c r="Q338" s="104"/>
+      <c r="R338" s="131" t="str">
+        <f>IF(AND(C338="pv",D338='UNC - PV'!$Q$2,LEFT(E338,1)="u",'UNC - PV'!$O$2="vnđ",TH!P338&lt;&gt;""),"p",IF(AND(C338="pv",D338='UNC - PV'!$Q$2,LEFT(E338,1)="u",'UNC - PV'!$O$2="usd",TH!O338&lt;&gt;""),"p1",IF(AND(C338="pv",D338='LC - PV'!$P$2,LEFT(E338,1)="l"),"p2",IF(AND(LEFT(C338,3)="EIB",D338='UNC - EIB'!$T$2,LEFT(E338,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P338&lt;&gt;""),"e",IF(AND(LEFT(C338,3)="EIB",D338='UNC - EIB'!$T$2,LEFT(E338,1)="U",'UNC - EIB'!$R$2="usd",TH!O338&lt;&gt;""),"e1",IF(AND(LEFT(C338,3)="EIB",D338='LC - EIB'!$S$2,LEFT(E338,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A339" s="55" t="str">
+        <f>IF(AND(C339="pv",E339='UNC - PV'!$S$2,D339='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C339,3)="eib",E339='UNC - EIB'!$V$2,D339='UNC - EIB'!$T$2),"x1",IF(AND(C339="pv",E339='LC - PV'!$R$2,D339='LC - PV'!$P$2),"x2",IF(AND(LEFT(C339,3)="eib",E339='LC - EIB'!$U$2,D339='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B339" s="62" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="C339" s="62"/>
+      <c r="D339" s="67"/>
+      <c r="E339" s="65"/>
+      <c r="F339" s="64"/>
+      <c r="G339" s="64"/>
+      <c r="H339" s="64"/>
+      <c r="I339" s="65"/>
+      <c r="J339" s="66"/>
+      <c r="K339" s="67"/>
+      <c r="L339" s="65"/>
+      <c r="M339" s="65"/>
+      <c r="N339" s="64"/>
+      <c r="O339" s="68"/>
+      <c r="P339" s="69"/>
+      <c r="Q339" s="104"/>
+      <c r="R339" s="131" t="str">
+        <f>IF(AND(C339="pv",D339='UNC - PV'!$Q$2,LEFT(E339,1)="u",'UNC - PV'!$O$2="vnđ",TH!P339&lt;&gt;""),"p",IF(AND(C339="pv",D339='UNC - PV'!$Q$2,LEFT(E339,1)="u",'UNC - PV'!$O$2="usd",TH!O339&lt;&gt;""),"p1",IF(AND(C339="pv",D339='LC - PV'!$P$2,LEFT(E339,1)="l"),"p2",IF(AND(LEFT(C339,3)="EIB",D339='UNC - EIB'!$T$2,LEFT(E339,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P339&lt;&gt;""),"e",IF(AND(LEFT(C339,3)="EIB",D339='UNC - EIB'!$T$2,LEFT(E339,1)="U",'UNC - EIB'!$R$2="usd",TH!O339&lt;&gt;""),"e1",IF(AND(LEFT(C339,3)="EIB",D339='LC - EIB'!$S$2,LEFT(E339,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A340" s="55" t="str">
+        <f>IF(AND(C340="pv",E340='UNC - PV'!$S$2,D340='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C340,3)="eib",E340='UNC - EIB'!$V$2,D340='UNC - EIB'!$T$2),"x1",IF(AND(C340="pv",E340='LC - PV'!$R$2,D340='LC - PV'!$P$2),"x2",IF(AND(LEFT(C340,3)="eib",E340='LC - EIB'!$U$2,D340='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B340" s="62" t="str">
+        <f t="shared" ref="B340:B341" si="31">IF(C340&lt;&gt;"",ROW()-3,"")</f>
+        <v/>
+      </c>
+      <c r="C340" s="62"/>
+      <c r="D340" s="67"/>
+      <c r="E340" s="65"/>
+      <c r="F340" s="64"/>
+      <c r="G340" s="64"/>
+      <c r="H340" s="64"/>
+      <c r="I340" s="65"/>
+      <c r="J340" s="66"/>
+      <c r="K340" s="67"/>
+      <c r="L340" s="65"/>
+      <c r="M340" s="65"/>
+      <c r="N340" s="64"/>
+      <c r="O340" s="68"/>
+      <c r="P340" s="69"/>
+      <c r="Q340" s="104"/>
+      <c r="R340" s="131" t="str">
+        <f>IF(AND(C340="pv",D340='UNC - PV'!$Q$2,LEFT(E340,1)="u",'UNC - PV'!$O$2="vnđ",TH!P340&lt;&gt;""),"p",IF(AND(C340="pv",D340='UNC - PV'!$Q$2,LEFT(E340,1)="u",'UNC - PV'!$O$2="usd",TH!O340&lt;&gt;""),"p1",IF(AND(C340="pv",D340='LC - PV'!$P$2,LEFT(E340,1)="l"),"p2",IF(AND(LEFT(C340,3)="EIB",D340='UNC - EIB'!$T$2,LEFT(E340,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P340&lt;&gt;""),"e",IF(AND(LEFT(C340,3)="EIB",D340='UNC - EIB'!$T$2,LEFT(E340,1)="U",'UNC - EIB'!$R$2="usd",TH!O340&lt;&gt;""),"e1",IF(AND(LEFT(C340,3)="EIB",D340='LC - EIB'!$S$2,LEFT(E340,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A341" s="55" t="str">
+        <f>IF(AND(C341="pv",E341='UNC - PV'!$S$2,D341='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C341,3)="eib",E341='UNC - EIB'!$V$2,D341='UNC - EIB'!$T$2),"x1",IF(AND(C341="pv",E341='LC - PV'!$R$2,D341='LC - PV'!$P$2),"x2",IF(AND(LEFT(C341,3)="eib",E341='LC - EIB'!$U$2,D341='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B341" s="62" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="C341" s="62"/>
+      <c r="D341" s="67"/>
+      <c r="E341" s="65"/>
+      <c r="F341" s="64"/>
+      <c r="G341" s="64"/>
+      <c r="H341" s="64"/>
+      <c r="I341" s="65"/>
+      <c r="J341" s="66"/>
+      <c r="K341" s="67"/>
+      <c r="L341" s="65"/>
+      <c r="M341" s="65"/>
+      <c r="N341" s="64"/>
+      <c r="O341" s="68"/>
+      <c r="P341" s="69"/>
+      <c r="Q341" s="104"/>
+      <c r="R341" s="131" t="str">
+        <f>IF(AND(C341="pv",D341='UNC - PV'!$Q$2,LEFT(E341,1)="u",'UNC - PV'!$O$2="vnđ",TH!P341&lt;&gt;""),"p",IF(AND(C341="pv",D341='UNC - PV'!$Q$2,LEFT(E341,1)="u",'UNC - PV'!$O$2="usd",TH!O341&lt;&gt;""),"p1",IF(AND(C341="pv",D341='LC - PV'!$P$2,LEFT(E341,1)="l"),"p2",IF(AND(LEFT(C341,3)="EIB",D341='UNC - EIB'!$T$2,LEFT(E341,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P341&lt;&gt;""),"e",IF(AND(LEFT(C341,3)="EIB",D341='UNC - EIB'!$T$2,LEFT(E341,1)="U",'UNC - EIB'!$R$2="usd",TH!O341&lt;&gt;""),"e1",IF(AND(LEFT(C341,3)="EIB",D341='LC - EIB'!$S$2,LEFT(E341,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A342" s="55" t="str">
+        <f>IF(AND(C342="pv",E342='UNC - PV'!$S$2,D342='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C342,3)="eib",E342='UNC - EIB'!$V$2,D342='UNC - EIB'!$T$2),"x1",IF(AND(C342="pv",E342='LC - PV'!$R$2,D342='LC - PV'!$P$2),"x2",IF(AND(LEFT(C342,3)="eib",E342='LC - EIB'!$U$2,D342='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B342" s="62" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="C342" s="62"/>
+      <c r="D342" s="67"/>
+      <c r="E342" s="65"/>
+      <c r="F342" s="64"/>
+      <c r="G342" s="64"/>
+      <c r="H342" s="64"/>
+      <c r="I342" s="65"/>
+      <c r="J342" s="66"/>
+      <c r="K342" s="67"/>
+      <c r="L342" s="65"/>
+      <c r="M342" s="65"/>
+      <c r="N342" s="64"/>
+      <c r="O342" s="68"/>
+      <c r="P342" s="69"/>
+      <c r="Q342" s="104"/>
+      <c r="R342" s="131" t="str">
+        <f>IF(AND(C342="pv",D342='UNC - PV'!$Q$2,LEFT(E342,1)="u",'UNC - PV'!$O$2="vnđ",TH!P342&lt;&gt;""),"p",IF(AND(C342="pv",D342='UNC - PV'!$Q$2,LEFT(E342,1)="u",'UNC - PV'!$O$2="usd",TH!O342&lt;&gt;""),"p1",IF(AND(C342="pv",D342='LC - PV'!$P$2,LEFT(E342,1)="l"),"p2",IF(AND(LEFT(C342,3)="EIB",D342='UNC - EIB'!$T$2,LEFT(E342,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P342&lt;&gt;""),"e",IF(AND(LEFT(C342,3)="EIB",D342='UNC - EIB'!$T$2,LEFT(E342,1)="U",'UNC - EIB'!$R$2="usd",TH!O342&lt;&gt;""),"e1",IF(AND(LEFT(C342,3)="EIB",D342='LC - EIB'!$S$2,LEFT(E342,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+      <c r="A343" s="55" t="str">
+        <f>IF(AND(C343="pv",E343='UNC - PV'!$S$2,D343='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C343,3)="eib",E343='UNC - EIB'!$V$2,D343='UNC - EIB'!$T$2),"x1",IF(AND(C343="pv",E343='LC - PV'!$R$2,D343='LC - PV'!$P$2),"x2",IF(AND(LEFT(C343,3)="eib",E343='LC - EIB'!$U$2,D343='LC - EIB'!$S$2),"x3",""))))</f>
+        <v/>
+      </c>
+      <c r="B343" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C343" s="62"/>
+      <c r="D343" s="67"/>
+      <c r="E343" s="65"/>
+      <c r="F343" s="64"/>
+      <c r="G343" s="64"/>
+      <c r="H343" s="64"/>
+      <c r="I343" s="65"/>
+      <c r="J343" s="66"/>
+      <c r="K343" s="67"/>
+      <c r="L343" s="65"/>
+      <c r="M343" s="65"/>
+      <c r="N343" s="64"/>
+      <c r="O343" s="68"/>
+      <c r="P343" s="69"/>
+      <c r="Q343" s="104"/>
+      <c r="R343" s="131" t="str">
+        <f>IF(AND(C343="pv",D343='UNC - PV'!$Q$2,LEFT(E343,1)="u",'UNC - PV'!$O$2="vnđ",TH!P343&lt;&gt;""),"p",IF(AND(C343="pv",D343='UNC - PV'!$Q$2,LEFT(E343,1)="u",'UNC - PV'!$O$2="usd",TH!O343&lt;&gt;""),"p1",IF(AND(C343="pv",D343='LC - PV'!$P$2,LEFT(E343,1)="l"),"p2",IF(AND(LEFT(C343,3)="EIB",D343='UNC - EIB'!$T$2,LEFT(E343,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P343&lt;&gt;""),"e",IF(AND(LEFT(C343,3)="EIB",D343='UNC - EIB'!$T$2,LEFT(E343,1)="U",'UNC - EIB'!$R$2="usd",TH!O343&lt;&gt;""),"e1",IF(AND(LEFT(C343,3)="EIB",D343='LC - EIB'!$S$2,LEFT(E343,1)="l"),"e2",""))))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B3:X329"/>
+  <autoFilter ref="B3:X344">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PV"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -19009,7 +19752,7 @@
     <mergeCell ref="F2:M2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C328">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C343">
       <formula1>"PV,EIB-Q4,EIB-Q11,EIB-TV"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19259,7 +20002,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19289,20 +20032,20 @@
     <row r="1" spans="1:19" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p</v>
+        <v>p1</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>29</v>
+        <v>496</v>
       </c>
       <c r="Q2" s="10">
-        <v>43188</v>
+        <v>43213</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
@@ -19314,7 +20057,7 @@
     <row r="6" spans="1:19" ht="17.25" customHeight="1">
       <c r="E6" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
+        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>7</v>
@@ -19323,7 +20066,7 @@
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="F7" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>300000000</v>
+        <v>4300695000</v>
       </c>
       <c r="G7" s="180"/>
       <c r="K7" s="1" t="str">
@@ -19338,7 +20081,7 @@
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba trăm triệu đồng.</v>
+        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -19349,13 +20092,13 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
       <c r="F12" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G12" s="14"/>
     </row>
@@ -19367,13 +20110,13 @@
       </c>
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19403,7 +20146,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19435,7 +20178,7 @@
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1"/>
@@ -19454,11 +20197,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
-      <c r="F6" s="180">
+      <c r="F6" s="181">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>300000000</v>
-      </c>
-      <c r="G6" s="180"/>
+        <v>4300695000</v>
+      </c>
+      <c r="G6" s="181"/>
       <c r="K6" s="1" t="str">
         <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
         <v>x</v>
@@ -19471,7 +20214,7 @@
     <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba trăm triệu đồng.</v>
+        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
@@ -19482,13 +20225,13 @@
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
       <c r="F11" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G11" s="14"/>
     </row>
@@ -19500,13 +20243,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19532,8 +20275,8 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="16" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <pane ySplit="16" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19565,7 +20308,7 @@
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" customHeight="1"/>
@@ -19586,7 +20329,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>300000000</v>
+        <v>4300695000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -19601,7 +20344,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba trăm triệu đồng.</v>
+        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -19612,14 +20355,14 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -19632,13 +20375,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19718,7 +20461,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>300000000</v>
+        <v>4300695000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -19733,7 +20476,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba trăm triệu đồng.</v>
+        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -19744,14 +20487,14 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1">
       <c r="F10" s="14" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -19764,13 +20507,13 @@
       </c>
       <c r="E14" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="E15" s="1" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -19798,7 +20541,7 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19834,7 +20577,7 @@
     <row r="7" spans="1:12" ht="17.25" customHeight="1">
       <c r="E7" s="2" t="str">
         <f>IF('UNC - PV'!$O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF('UNC - PV'!$O$2="VNĐ"," 1    0    7    0    0    0   2    6    8    6    1    5"," 2    5    7    0    0    0   0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 1    0    7    0    0    0   2    6    8    6    1    5</v>
+        <v xml:space="preserve"> 2    5    7    0    0    0   0    4    8    0    1    5</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>7</v>
@@ -19843,7 +20586,7 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="F8" s="180">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>300000000</v>
+        <v>4300695000</v>
       </c>
       <c r="G8" s="180"/>
       <c r="K8" s="7" t="str">
@@ -19858,7 +20601,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Ba trăm triệu đồng.</v>
+        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -19869,13 +20612,13 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Thanh toán cước vận chuyển và phí liên quan – Ánh Dương</v>
+        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="F13" s="133" t="str">
         <f>VLOOKUP("X",DS,6,0)</f>
-        <v>CÔNG TY TNHH GIAO NHẬN VẬN CHUYỂN ÁNH DƯƠNG</v>
+        <v>CTY TNHH HẢI SẢN AN LẠC</v>
       </c>
       <c r="G13" s="14"/>
     </row>
@@ -19886,13 +20629,13 @@
       </c>
       <c r="E16" s="1" t="str">
         <f>VLOOKUP("X",DS,7,0)</f>
-        <v>0531002503669</v>
+        <v>1070 0026 8615</v>
       </c>
     </row>
     <row r="17" spans="5:5" ht="15" customHeight="1">
       <c r="E17" s="7" t="str">
         <f>VLOOKUP("X",DS,8,0)&amp;", "&amp;VLOOKUP("X",DS,9,0)</f>
-        <v>Vietcombank – CN Đông Sài Gòn, TPHCM</v>
+        <v>PVCombank - CN Gia Định, TPHCM</v>
       </c>
     </row>
   </sheetData>
@@ -20189,10 +20932,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="181" t="s">
+      <c r="N20" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="181"/>
+      <c r="O20" s="182"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -20206,10 +20949,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="182" t="s">
+      <c r="N21" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="182"/>
+      <c r="O21" s="183"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -20733,11 +21476,11 @@
         <v>115</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="186">
+      <c r="L17" s="187">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>41051</v>
       </c>
-      <c r="M17" s="186"/>
+      <c r="M17" s="187"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -20799,11 +21542,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="183" t="s">
+      <c r="N21" s="184" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="184"/>
-      <c r="P21" s="184"/>
+      <c r="O21" s="185"/>
+      <c r="P21" s="185"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -20818,11 +21561,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="185" t="s">
+      <c r="N22" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="182"/>
-      <c r="P22" s="182"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">

--- a/NH Q11 - Q4 - PV/NH.xlsx
+++ b/NH Q11 - Q4 - PV/NH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2613" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2634" uniqueCount="502">
   <si>
     <t>NỘI DUNG</t>
   </si>
@@ -2055,13 +2055,16 @@
     <t>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
   <si>
-    <t>Chuyển tiền theo KUNN số 53 -10206/2017/KUNN/PVN-DN.GĐ</t>
-  </si>
-  <si>
     <t>Chuyển tiền theo KUNN số 56 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
   <si>
     <t>MKH: PB06030022841- Tiền điện kỳ 2&amp;3/04 năm 2018</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 55 -10206/2017/KUNN/PVN-DN.GĐ</t>
+  </si>
+  <si>
+    <t>Chuyển tiền theo KUNN số 57 -10206/2017/KUNN/PVN-DN.GĐ</t>
   </si>
 </sst>
 </file>
@@ -2705,7 +2708,7 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3187,9 +3190,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3571,17 +3571,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:R344"/>
+  <dimension ref="A1:R343"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="I312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="I315" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="N325" sqref="N325"/>
+      <selection pane="bottomRight" activeCell="B331" sqref="A331:XFD331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1"/>
@@ -3736,7 +3736,7 @@
       <c r="Q3" s="174"/>
       <c r="R3" s="58"/>
     </row>
-    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="4" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="55" t="str">
         <f>IF(AND(C4="pv",E4='UNC - PV'!$S$2,D4='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C4,3)="eib",E4='UNC - EIB'!$V$2,D4='UNC - EIB'!$T$2),"x1",IF(AND(C4="pv",E4='LC - PV'!$R$2,D4='LC - PV'!$P$2),"x2",IF(AND(LEFT(C4,3)="eib",E4='LC - EIB'!$U$2,D4='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3785,7 +3785,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A5" s="55" t="str">
         <f>IF(AND(C5="pv",E5='UNC - PV'!$S$2,D5='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C5,3)="eib",E5='UNC - EIB'!$V$2,D5='UNC - EIB'!$T$2),"x1",IF(AND(C5="pv",E5='LC - PV'!$R$2,D5='LC - PV'!$P$2),"x2",IF(AND(LEFT(C5,3)="eib",E5='LC - EIB'!$U$2,D5='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3834,7 +3834,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="55" t="str">
         <f>IF(AND(C6="pv",E6='UNC - PV'!$S$2,D6='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C6,3)="eib",E6='UNC - EIB'!$V$2,D6='UNC - EIB'!$T$2),"x1",IF(AND(C6="pv",E6='LC - PV'!$R$2,D6='LC - PV'!$P$2),"x2",IF(AND(LEFT(C6,3)="eib",E6='LC - EIB'!$U$2,D6='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3883,7 +3883,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="55" t="str">
         <f>IF(AND(C7="pv",E7='UNC - PV'!$S$2,D7='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C7,3)="eib",E7='UNC - EIB'!$V$2,D7='UNC - EIB'!$T$2),"x1",IF(AND(C7="pv",E7='LC - PV'!$R$2,D7='LC - PV'!$P$2),"x2",IF(AND(LEFT(C7,3)="eib",E7='LC - EIB'!$U$2,D7='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3932,7 +3932,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A8" s="55" t="str">
         <f>IF(AND(C8="pv",E8='UNC - PV'!$S$2,D8='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C8,3)="eib",E8='UNC - EIB'!$V$2,D8='UNC - EIB'!$T$2),"x1",IF(AND(C8="pv",E8='LC - PV'!$R$2,D8='LC - PV'!$P$2),"x2",IF(AND(LEFT(C8,3)="eib",E8='LC - EIB'!$U$2,D8='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -3981,7 +3981,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="55" t="str">
         <f>IF(AND(C9="pv",E9='UNC - PV'!$S$2,D9='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C9,3)="eib",E9='UNC - EIB'!$V$2,D9='UNC - EIB'!$T$2),"x1",IF(AND(C9="pv",E9='LC - PV'!$R$2,D9='LC - PV'!$P$2),"x2",IF(AND(LEFT(C9,3)="eib",E9='LC - EIB'!$U$2,D9='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4130,7 +4130,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="12" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="55" t="str">
         <f>IF(AND(C12="pv",E12='UNC - PV'!$S$2,D12='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C12,3)="eib",E12='UNC - EIB'!$V$2,D12='UNC - EIB'!$T$2),"x1",IF(AND(C12="pv",E12='LC - PV'!$R$2,D12='LC - PV'!$P$2),"x2",IF(AND(LEFT(C12,3)="eib",E12='LC - EIB'!$U$2,D12='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x3</v>
@@ -4181,7 +4181,7 @@
         <v>e2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="13" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="55" t="str">
         <f>IF(AND(C13="pv",E13='UNC - PV'!$S$2,D13='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C13,3)="eib",E13='UNC - EIB'!$V$2,D13='UNC - EIB'!$T$2),"x1",IF(AND(C13="pv",E13='LC - PV'!$R$2,D13='LC - PV'!$P$2),"x2",IF(AND(LEFT(C13,3)="eib",E13='LC - EIB'!$U$2,D13='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4230,7 +4230,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="14" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A14" s="55" t="str">
         <f>IF(AND(C14="pv",E14='UNC - PV'!$S$2,D14='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C14,3)="eib",E14='UNC - EIB'!$V$2,D14='UNC - EIB'!$T$2),"x1",IF(AND(C14="pv",E14='LC - PV'!$R$2,D14='LC - PV'!$P$2),"x2",IF(AND(LEFT(C14,3)="eib",E14='LC - EIB'!$U$2,D14='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4279,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="15" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A15" s="55" t="str">
         <f>IF(AND(C15="pv",E15='UNC - PV'!$S$2,D15='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C15,3)="eib",E15='UNC - EIB'!$V$2,D15='UNC - EIB'!$T$2),"x1",IF(AND(C15="pv",E15='LC - PV'!$R$2,D15='LC - PV'!$P$2),"x2",IF(AND(LEFT(C15,3)="eib",E15='LC - EIB'!$U$2,D15='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4328,7 +4328,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="16" spans="1:18" s="97" customFormat="1" ht="18.75" customHeight="1">
       <c r="A16" s="55" t="str">
         <f>IF(AND(C16="pv",E16='UNC - PV'!$S$2,D16='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C16,3)="eib",E16='UNC - EIB'!$V$2,D16='UNC - EIB'!$T$2),"x1",IF(AND(C16="pv",E16='LC - PV'!$R$2,D16='LC - PV'!$P$2),"x2",IF(AND(LEFT(C16,3)="eib",E16='LC - EIB'!$U$2,D16='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4377,7 +4377,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="17" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A17" s="55" t="str">
         <f>IF(AND(C17="pv",E17='UNC - PV'!$S$2,D17='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C17,3)="eib",E17='UNC - EIB'!$V$2,D17='UNC - EIB'!$T$2),"x1",IF(AND(C17="pv",E17='LC - PV'!$R$2,D17='LC - PV'!$P$2),"x2",IF(AND(LEFT(C17,3)="eib",E17='LC - EIB'!$U$2,D17='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4426,7 +4426,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="18" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A18" s="55" t="str">
         <f>IF(AND(C18="pv",E18='UNC - PV'!$S$2,D18='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C18,3)="eib",E18='UNC - EIB'!$V$2,D18='UNC - EIB'!$T$2),"x1",IF(AND(C18="pv",E18='LC - PV'!$R$2,D18='LC - PV'!$P$2),"x2",IF(AND(LEFT(C18,3)="eib",E18='LC - EIB'!$U$2,D18='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4475,7 +4475,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="19" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A19" s="55" t="str">
         <f>IF(AND(C19="pv",E19='UNC - PV'!$S$2,D19='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C19,3)="eib",E19='UNC - EIB'!$V$2,D19='UNC - EIB'!$T$2),"x1",IF(AND(C19="pv",E19='LC - PV'!$R$2,D19='LC - PV'!$P$2),"x2",IF(AND(LEFT(C19,3)="eib",E19='LC - EIB'!$U$2,D19='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4524,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="20" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A20" s="55" t="str">
         <f>IF(AND(C20="pv",E20='UNC - PV'!$S$2,D20='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C20,3)="eib",E20='UNC - EIB'!$V$2,D20='UNC - EIB'!$T$2),"x1",IF(AND(C20="pv",E20='LC - PV'!$R$2,D20='LC - PV'!$P$2),"x2",IF(AND(LEFT(C20,3)="eib",E20='LC - EIB'!$U$2,D20='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4573,7 +4573,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="21" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="55" t="str">
         <f>IF(AND(C21="pv",E21='UNC - PV'!$S$2,D21='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C21,3)="eib",E21='UNC - EIB'!$V$2,D21='UNC - EIB'!$T$2),"x1",IF(AND(C21="pv",E21='LC - PV'!$R$2,D21='LC - PV'!$P$2),"x2",IF(AND(LEFT(C21,3)="eib",E21='LC - EIB'!$U$2,D21='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4622,7 +4622,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="22" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="55" t="str">
         <f>IF(AND(C22="pv",E22='UNC - PV'!$S$2,D22='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C22,3)="eib",E22='UNC - EIB'!$V$2,D22='UNC - EIB'!$T$2),"x1",IF(AND(C22="pv",E22='LC - PV'!$R$2,D22='LC - PV'!$P$2),"x2",IF(AND(LEFT(C22,3)="eib",E22='LC - EIB'!$U$2,D22='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4671,7 +4671,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="23" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A23" s="55" t="str">
         <f>IF(AND(C23="pv",E23='UNC - PV'!$S$2,D23='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C23,3)="eib",E23='UNC - EIB'!$V$2,D23='UNC - EIB'!$T$2),"x1",IF(AND(C23="pv",E23='LC - PV'!$R$2,D23='LC - PV'!$P$2),"x2",IF(AND(LEFT(C23,3)="eib",E23='LC - EIB'!$U$2,D23='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4720,7 +4720,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="24" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A24" s="55" t="str">
         <f>IF(AND(C24="pv",E24='UNC - PV'!$S$2,D24='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C24,3)="eib",E24='UNC - EIB'!$V$2,D24='UNC - EIB'!$T$2),"x1",IF(AND(C24="pv",E24='LC - PV'!$R$2,D24='LC - PV'!$P$2),"x2",IF(AND(LEFT(C24,3)="eib",E24='LC - EIB'!$U$2,D24='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4769,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="25" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A25" s="55" t="str">
         <f>IF(AND(C25="pv",E25='UNC - PV'!$S$2,D25='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C25,3)="eib",E25='UNC - EIB'!$V$2,D25='UNC - EIB'!$T$2),"x1",IF(AND(C25="pv",E25='LC - PV'!$R$2,D25='LC - PV'!$P$2),"x2",IF(AND(LEFT(C25,3)="eib",E25='LC - EIB'!$U$2,D25='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4819,7 +4819,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A26" s="55" t="str">
         <f>IF(AND(C26="pv",E26='UNC - PV'!$S$2,D26='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C26,3)="eib",E26='UNC - EIB'!$V$2,D26='UNC - EIB'!$T$2),"x1",IF(AND(C26="pv",E26='LC - PV'!$R$2,D26='LC - PV'!$P$2),"x2",IF(AND(LEFT(C26,3)="eib",E26='LC - EIB'!$U$2,D26='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4868,7 +4868,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="27" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A27" s="55" t="str">
         <f>IF(AND(C27="pv",E27='UNC - PV'!$S$2,D27='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C27,3)="eib",E27='UNC - EIB'!$V$2,D27='UNC - EIB'!$T$2),"x1",IF(AND(C27="pv",E27='LC - PV'!$R$2,D27='LC - PV'!$P$2),"x2",IF(AND(LEFT(C27,3)="eib",E27='LC - EIB'!$U$2,D27='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4917,7 +4917,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="28" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A28" s="55" t="str">
         <f>IF(AND(C28="pv",E28='UNC - PV'!$S$2,D28='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C28,3)="eib",E28='UNC - EIB'!$V$2,D28='UNC - EIB'!$T$2),"x1",IF(AND(C28="pv",E28='LC - PV'!$R$2,D28='LC - PV'!$P$2),"x2",IF(AND(LEFT(C28,3)="eib",E28='LC - EIB'!$U$2,D28='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -4966,7 +4966,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="29" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="55" t="str">
         <f>IF(AND(C29="pv",E29='UNC - PV'!$S$2,D29='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C29,3)="eib",E29='UNC - EIB'!$V$2,D29='UNC - EIB'!$T$2),"x1",IF(AND(C29="pv",E29='LC - PV'!$R$2,D29='LC - PV'!$P$2),"x2",IF(AND(LEFT(C29,3)="eib",E29='LC - EIB'!$U$2,D29='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5015,7 +5015,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="30" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A30" s="55" t="str">
         <f>IF(AND(C30="pv",E30='UNC - PV'!$S$2,D30='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C30,3)="eib",E30='UNC - EIB'!$V$2,D30='UNC - EIB'!$T$2),"x1",IF(AND(C30="pv",E30='LC - PV'!$R$2,D30='LC - PV'!$P$2),"x2",IF(AND(LEFT(C30,3)="eib",E30='LC - EIB'!$U$2,D30='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5064,7 +5064,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="31" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A31" s="55" t="str">
         <f>IF(AND(C31="pv",E31='UNC - PV'!$S$2,D31='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C31,3)="eib",E31='UNC - EIB'!$V$2,D31='UNC - EIB'!$T$2),"x1",IF(AND(C31="pv",E31='LC - PV'!$R$2,D31='LC - PV'!$P$2),"x2",IF(AND(LEFT(C31,3)="eib",E31='LC - EIB'!$U$2,D31='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5113,7 +5113,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="32" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A32" s="55" t="str">
         <f>IF(AND(C32="pv",E32='UNC - PV'!$S$2,D32='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C32,3)="eib",E32='UNC - EIB'!$V$2,D32='UNC - EIB'!$T$2),"x1",IF(AND(C32="pv",E32='LC - PV'!$R$2,D32='LC - PV'!$P$2),"x2",IF(AND(LEFT(C32,3)="eib",E32='LC - EIB'!$U$2,D32='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5162,7 +5162,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="33" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A33" s="55" t="str">
         <f>IF(AND(C33="pv",E33='UNC - PV'!$S$2,D33='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C33,3)="eib",E33='UNC - EIB'!$V$2,D33='UNC - EIB'!$T$2),"x1",IF(AND(C33="pv",E33='LC - PV'!$R$2,D33='LC - PV'!$P$2),"x2",IF(AND(LEFT(C33,3)="eib",E33='LC - EIB'!$U$2,D33='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5211,7 +5211,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="34" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A34" s="55" t="str">
         <f>IF(AND(C34="pv",E34='UNC - PV'!$S$2,D34='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C34,3)="eib",E34='UNC - EIB'!$V$2,D34='UNC - EIB'!$T$2),"x1",IF(AND(C34="pv",E34='LC - PV'!$R$2,D34='LC - PV'!$P$2),"x2",IF(AND(LEFT(C34,3)="eib",E34='LC - EIB'!$U$2,D34='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5260,7 +5260,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="35" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A35" s="55" t="str">
         <f>IF(AND(C35="pv",E35='UNC - PV'!$S$2,D35='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C35,3)="eib",E35='UNC - EIB'!$V$2,D35='UNC - EIB'!$T$2),"x1",IF(AND(C35="pv",E35='LC - PV'!$R$2,D35='LC - PV'!$P$2),"x2",IF(AND(LEFT(C35,3)="eib",E35='LC - EIB'!$U$2,D35='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5309,7 +5309,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="36" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A36" s="55" t="str">
         <f>IF(AND(C36="pv",E36='UNC - PV'!$S$2,D36='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C36,3)="eib",E36='UNC - EIB'!$V$2,D36='UNC - EIB'!$T$2),"x1",IF(AND(C36="pv",E36='LC - PV'!$R$2,D36='LC - PV'!$P$2),"x2",IF(AND(LEFT(C36,3)="eib",E36='LC - EIB'!$U$2,D36='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5358,7 +5358,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="37" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A37" s="55" t="str">
         <f>IF(AND(C37="pv",E37='UNC - PV'!$S$2,D37='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C37,3)="eib",E37='UNC - EIB'!$V$2,D37='UNC - EIB'!$T$2),"x1",IF(AND(C37="pv",E37='LC - PV'!$R$2,D37='LC - PV'!$P$2),"x2",IF(AND(LEFT(C37,3)="eib",E37='LC - EIB'!$U$2,D37='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5407,7 +5407,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="38" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A38" s="55" t="str">
         <f>IF(AND(C38="pv",E38='UNC - PV'!$S$2,D38='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C38,3)="eib",E38='UNC - EIB'!$V$2,D38='UNC - EIB'!$T$2),"x1",IF(AND(C38="pv",E38='LC - PV'!$R$2,D38='LC - PV'!$P$2),"x2",IF(AND(LEFT(C38,3)="eib",E38='LC - EIB'!$U$2,D38='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5456,7 +5456,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="39" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A39" s="55" t="str">
         <f>IF(AND(C39="pv",E39='UNC - PV'!$S$2,D39='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C39,3)="eib",E39='UNC - EIB'!$V$2,D39='UNC - EIB'!$T$2),"x1",IF(AND(C39="pv",E39='LC - PV'!$R$2,D39='LC - PV'!$P$2),"x2",IF(AND(LEFT(C39,3)="eib",E39='LC - EIB'!$U$2,D39='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5505,7 +5505,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="40" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A40" s="55" t="str">
         <f>IF(AND(C40="pv",E40='UNC - PV'!$S$2,D40='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C40,3)="eib",E40='UNC - EIB'!$V$2,D40='UNC - EIB'!$T$2),"x1",IF(AND(C40="pv",E40='LC - PV'!$R$2,D40='LC - PV'!$P$2),"x2",IF(AND(LEFT(C40,3)="eib",E40='LC - EIB'!$U$2,D40='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5652,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="43" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A43" s="55" t="str">
         <f>IF(AND(C43="pv",E43='UNC - PV'!$S$2,D43='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C43,3)="eib",E43='UNC - EIB'!$V$2,D43='UNC - EIB'!$T$2),"x1",IF(AND(C43="pv",E43='LC - PV'!$R$2,D43='LC - PV'!$P$2),"x2",IF(AND(LEFT(C43,3)="eib",E43='LC - EIB'!$U$2,D43='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5701,7 +5701,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="44" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A44" s="55" t="str">
         <f>IF(AND(C44="pv",E44='UNC - PV'!$S$2,D44='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C44,3)="eib",E44='UNC - EIB'!$V$2,D44='UNC - EIB'!$T$2),"x1",IF(AND(C44="pv",E44='LC - PV'!$R$2,D44='LC - PV'!$P$2),"x2",IF(AND(LEFT(C44,3)="eib",E44='LC - EIB'!$U$2,D44='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5750,7 +5750,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="45" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A45" s="55" t="str">
         <f>IF(AND(C45="pv",E45='UNC - PV'!$S$2,D45='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C45,3)="eib",E45='UNC - EIB'!$V$2,D45='UNC - EIB'!$T$2),"x1",IF(AND(C45="pv",E45='LC - PV'!$R$2,D45='LC - PV'!$P$2),"x2",IF(AND(LEFT(C45,3)="eib",E45='LC - EIB'!$U$2,D45='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5799,7 +5799,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="46" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A46" s="55" t="str">
         <f>IF(AND(C46="pv",E46='UNC - PV'!$S$2,D46='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C46,3)="eib",E46='UNC - EIB'!$V$2,D46='UNC - EIB'!$T$2),"x1",IF(AND(C46="pv",E46='LC - PV'!$R$2,D46='LC - PV'!$P$2),"x2",IF(AND(LEFT(C46,3)="eib",E46='LC - EIB'!$U$2,D46='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5848,7 +5848,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="47" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A47" s="55" t="str">
         <f>IF(AND(C47="pv",E47='UNC - PV'!$S$2,D47='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C47,3)="eib",E47='UNC - EIB'!$V$2,D47='UNC - EIB'!$T$2),"x1",IF(AND(C47="pv",E47='LC - PV'!$R$2,D47='LC - PV'!$P$2),"x2",IF(AND(LEFT(C47,3)="eib",E47='LC - EIB'!$U$2,D47='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5897,7 +5897,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="48" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A48" s="55" t="str">
         <f>IF(AND(C48="pv",E48='UNC - PV'!$S$2,D48='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C48,3)="eib",E48='UNC - EIB'!$V$2,D48='UNC - EIB'!$T$2),"x1",IF(AND(C48="pv",E48='LC - PV'!$R$2,D48='LC - PV'!$P$2),"x2",IF(AND(LEFT(C48,3)="eib",E48='LC - EIB'!$U$2,D48='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5946,7 +5946,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="49" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A49" s="55" t="str">
         <f>IF(AND(C49="pv",E49='UNC - PV'!$S$2,D49='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C49,3)="eib",E49='UNC - EIB'!$V$2,D49='UNC - EIB'!$T$2),"x1",IF(AND(C49="pv",E49='LC - PV'!$R$2,D49='LC - PV'!$P$2),"x2",IF(AND(LEFT(C49,3)="eib",E49='LC - EIB'!$U$2,D49='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -5995,7 +5995,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="50" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A50" s="55" t="str">
         <f>IF(AND(C50="pv",E50='UNC - PV'!$S$2,D50='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C50,3)="eib",E50='UNC - EIB'!$V$2,D50='UNC - EIB'!$T$2),"x1",IF(AND(C50="pv",E50='LC - PV'!$R$2,D50='LC - PV'!$P$2),"x2",IF(AND(LEFT(C50,3)="eib",E50='LC - EIB'!$U$2,D50='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6044,7 +6044,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="51" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A51" s="55" t="str">
         <f>IF(AND(C51="pv",E51='UNC - PV'!$S$2,D51='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C51,3)="eib",E51='UNC - EIB'!$V$2,D51='UNC - EIB'!$T$2),"x1",IF(AND(C51="pv",E51='LC - PV'!$R$2,D51='LC - PV'!$P$2),"x2",IF(AND(LEFT(C51,3)="eib",E51='LC - EIB'!$U$2,D51='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6093,7 +6093,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="52" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A52" s="55" t="str">
         <f>IF(AND(C52="pv",E52='UNC - PV'!$S$2,D52='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C52,3)="eib",E52='UNC - EIB'!$V$2,D52='UNC - EIB'!$T$2),"x1",IF(AND(C52="pv",E52='LC - PV'!$R$2,D52='LC - PV'!$P$2),"x2",IF(AND(LEFT(C52,3)="eib",E52='LC - EIB'!$U$2,D52='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6142,7 +6142,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="53" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A53" s="55" t="str">
         <f>IF(AND(C53="pv",E53='UNC - PV'!$S$2,D53='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C53,3)="eib",E53='UNC - EIB'!$V$2,D53='UNC - EIB'!$T$2),"x1",IF(AND(C53="pv",E53='LC - PV'!$R$2,D53='LC - PV'!$P$2),"x2",IF(AND(LEFT(C53,3)="eib",E53='LC - EIB'!$U$2,D53='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6191,7 +6191,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="54" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A54" s="55" t="str">
         <f>IF(AND(C54="pv",E54='UNC - PV'!$S$2,D54='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C54,3)="eib",E54='UNC - EIB'!$V$2,D54='UNC - EIB'!$T$2),"x1",IF(AND(C54="pv",E54='LC - PV'!$R$2,D54='LC - PV'!$P$2),"x2",IF(AND(LEFT(C54,3)="eib",E54='LC - EIB'!$U$2,D54='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6240,7 +6240,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="55" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A55" s="55" t="str">
         <f>IF(AND(C55="pv",E55='UNC - PV'!$S$2,D55='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C55,3)="eib",E55='UNC - EIB'!$V$2,D55='UNC - EIB'!$T$2),"x1",IF(AND(C55="pv",E55='LC - PV'!$R$2,D55='LC - PV'!$P$2),"x2",IF(AND(LEFT(C55,3)="eib",E55='LC - EIB'!$U$2,D55='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6338,7 +6338,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="57" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A57" s="55" t="str">
         <f>IF(AND(C57="pv",E57='UNC - PV'!$S$2,D57='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C57,3)="eib",E57='UNC - EIB'!$V$2,D57='UNC - EIB'!$T$2),"x1",IF(AND(C57="pv",E57='LC - PV'!$R$2,D57='LC - PV'!$P$2),"x2",IF(AND(LEFT(C57,3)="eib",E57='LC - EIB'!$U$2,D57='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6387,7 +6387,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="58" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A58" s="55" t="str">
         <f>IF(AND(C58="pv",E58='UNC - PV'!$S$2,D58='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C58,3)="eib",E58='UNC - EIB'!$V$2,D58='UNC - EIB'!$T$2),"x1",IF(AND(C58="pv",E58='LC - PV'!$R$2,D58='LC - PV'!$P$2),"x2",IF(AND(LEFT(C58,3)="eib",E58='LC - EIB'!$U$2,D58='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6436,7 +6436,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="59" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A59" s="55" t="str">
         <f>IF(AND(C59="pv",E59='UNC - PV'!$S$2,D59='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C59,3)="eib",E59='UNC - EIB'!$V$2,D59='UNC - EIB'!$T$2),"x1",IF(AND(C59="pv",E59='LC - PV'!$R$2,D59='LC - PV'!$P$2),"x2",IF(AND(LEFT(C59,3)="eib",E59='LC - EIB'!$U$2,D59='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6534,7 +6534,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="61" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A61" s="55" t="str">
         <f>IF(AND(C61="pv",E61='UNC - PV'!$S$2,D61='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C61,3)="eib",E61='UNC - EIB'!$V$2,D61='UNC - EIB'!$T$2),"x1",IF(AND(C61="pv",E61='LC - PV'!$R$2,D61='LC - PV'!$P$2),"x2",IF(AND(LEFT(C61,3)="eib",E61='LC - EIB'!$U$2,D61='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6583,7 +6583,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="62" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A62" s="55" t="str">
         <f>IF(AND(C62="pv",E62='UNC - PV'!$S$2,D62='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C62,3)="eib",E62='UNC - EIB'!$V$2,D62='UNC - EIB'!$T$2),"x1",IF(AND(C62="pv",E62='LC - PV'!$R$2,D62='LC - PV'!$P$2),"x2",IF(AND(LEFT(C62,3)="eib",E62='LC - EIB'!$U$2,D62='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6632,7 +6632,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="63" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A63" s="55" t="str">
         <f>IF(AND(C63="pv",E63='UNC - PV'!$S$2,D63='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C63,3)="eib",E63='UNC - EIB'!$V$2,D63='UNC - EIB'!$T$2),"x1",IF(AND(C63="pv",E63='LC - PV'!$R$2,D63='LC - PV'!$P$2),"x2",IF(AND(LEFT(C63,3)="eib",E63='LC - EIB'!$U$2,D63='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6730,7 +6730,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="65" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A65" s="55" t="str">
         <f>IF(AND(C65="pv",E65='UNC - PV'!$S$2,D65='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C65,3)="eib",E65='UNC - EIB'!$V$2,D65='UNC - EIB'!$T$2),"x1",IF(AND(C65="pv",E65='LC - PV'!$R$2,D65='LC - PV'!$P$2),"x2",IF(AND(LEFT(C65,3)="eib",E65='LC - EIB'!$U$2,D65='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6780,7 +6780,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="66" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A66" s="55" t="str">
         <f>IF(AND(C66="pv",E66='UNC - PV'!$S$2,D66='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C66,3)="eib",E66='UNC - EIB'!$V$2,D66='UNC - EIB'!$T$2),"x1",IF(AND(C66="pv",E66='LC - PV'!$R$2,D66='LC - PV'!$P$2),"x2",IF(AND(LEFT(C66,3)="eib",E66='LC - EIB'!$U$2,D66='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -6829,7 +6829,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="67" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A67" s="55" t="str">
         <f>IF(AND(C67="pv",E67='UNC - PV'!$S$2,D67='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C67,3)="eib",E67='UNC - EIB'!$V$2,D67='UNC - EIB'!$T$2),"x1",IF(AND(C67="pv",E67='LC - PV'!$R$2,D67='LC - PV'!$P$2),"x2",IF(AND(LEFT(C67,3)="eib",E67='LC - EIB'!$U$2,D67='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7223,7 +7223,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="75" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A75" s="55" t="str">
         <f>IF(AND(C75="pv",E75='UNC - PV'!$S$2,D75='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C75,3)="eib",E75='UNC - EIB'!$V$2,D75='UNC - EIB'!$T$2),"x1",IF(AND(C75="pv",E75='LC - PV'!$R$2,D75='LC - PV'!$P$2),"x2",IF(AND(LEFT(C75,3)="eib",E75='LC - EIB'!$U$2,D75='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7272,7 +7272,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="76" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A76" s="55" t="str">
         <f>IF(AND(C76="pv",E76='UNC - PV'!$S$2,D76='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C76,3)="eib",E76='UNC - EIB'!$V$2,D76='UNC - EIB'!$T$2),"x1",IF(AND(C76="pv",E76='LC - PV'!$R$2,D76='LC - PV'!$P$2),"x2",IF(AND(LEFT(C76,3)="eib",E76='LC - EIB'!$U$2,D76='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7321,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="77" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A77" s="55" t="str">
         <f>IF(AND(C77="pv",E77='UNC - PV'!$S$2,D77='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C77,3)="eib",E77='UNC - EIB'!$V$2,D77='UNC - EIB'!$T$2),"x1",IF(AND(C77="pv",E77='LC - PV'!$R$2,D77='LC - PV'!$P$2),"x2",IF(AND(LEFT(C77,3)="eib",E77='LC - EIB'!$U$2,D77='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7370,7 +7370,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="78" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A78" s="55" t="str">
         <f>IF(AND(C78="pv",E78='UNC - PV'!$S$2,D78='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C78,3)="eib",E78='UNC - EIB'!$V$2,D78='UNC - EIB'!$T$2),"x1",IF(AND(C78="pv",E78='LC - PV'!$R$2,D78='LC - PV'!$P$2),"x2",IF(AND(LEFT(C78,3)="eib",E78='LC - EIB'!$U$2,D78='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7419,7 +7419,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="79" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A79" s="55" t="str">
         <f>IF(AND(C79="pv",E79='UNC - PV'!$S$2,D79='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C79,3)="eib",E79='UNC - EIB'!$V$2,D79='UNC - EIB'!$T$2),"x1",IF(AND(C79="pv",E79='LC - PV'!$R$2,D79='LC - PV'!$P$2),"x2",IF(AND(LEFT(C79,3)="eib",E79='LC - EIB'!$U$2,D79='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7468,7 +7468,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="80" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A80" s="55" t="str">
         <f>IF(AND(C80="pv",E80='UNC - PV'!$S$2,D80='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C80,3)="eib",E80='UNC - EIB'!$V$2,D80='UNC - EIB'!$T$2),"x1",IF(AND(C80="pv",E80='LC - PV'!$R$2,D80='LC - PV'!$P$2),"x2",IF(AND(LEFT(C80,3)="eib",E80='LC - EIB'!$U$2,D80='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7517,7 +7517,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="81" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A81" s="55" t="str">
         <f>IF(AND(C81="pv",E81='UNC - PV'!$S$2,D81='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C81,3)="eib",E81='UNC - EIB'!$V$2,D81='UNC - EIB'!$T$2),"x1",IF(AND(C81="pv",E81='LC - PV'!$R$2,D81='LC - PV'!$P$2),"x2",IF(AND(LEFT(C81,3)="eib",E81='LC - EIB'!$U$2,D81='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7566,7 +7566,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="82" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A82" s="55" t="str">
         <f>IF(AND(C82="pv",E82='UNC - PV'!$S$2,D82='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C82,3)="eib",E82='UNC - EIB'!$V$2,D82='UNC - EIB'!$T$2),"x1",IF(AND(C82="pv",E82='LC - PV'!$R$2,D82='LC - PV'!$P$2),"x2",IF(AND(LEFT(C82,3)="eib",E82='LC - EIB'!$U$2,D82='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7615,7 +7615,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="83" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A83" s="55" t="str">
         <f>IF(AND(C83="pv",E83='UNC - PV'!$S$2,D83='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C83,3)="eib",E83='UNC - EIB'!$V$2,D83='UNC - EIB'!$T$2),"x1",IF(AND(C83="pv",E83='LC - PV'!$R$2,D83='LC - PV'!$P$2),"x2",IF(AND(LEFT(C83,3)="eib",E83='LC - EIB'!$U$2,D83='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7909,7 +7909,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="89" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A89" s="55" t="str">
         <f>IF(AND(C89="pv",E89='UNC - PV'!$S$2,D89='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C89,3)="eib",E89='UNC - EIB'!$V$2,D89='UNC - EIB'!$T$2),"x1",IF(AND(C89="pv",E89='LC - PV'!$R$2,D89='LC - PV'!$P$2),"x2",IF(AND(LEFT(C89,3)="eib",E89='LC - EIB'!$U$2,D89='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -7958,7 +7958,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="90" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A90" s="55" t="str">
         <f>IF(AND(C90="pv",E90='UNC - PV'!$S$2,D90='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C90,3)="eib",E90='UNC - EIB'!$V$2,D90='UNC - EIB'!$T$2),"x1",IF(AND(C90="pv",E90='LC - PV'!$R$2,D90='LC - PV'!$P$2),"x2",IF(AND(LEFT(C90,3)="eib",E90='LC - EIB'!$U$2,D90='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8007,7 +8007,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="91" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A91" s="55" t="str">
         <f>IF(AND(C91="pv",E91='UNC - PV'!$S$2,D91='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C91,3)="eib",E91='UNC - EIB'!$V$2,D91='UNC - EIB'!$T$2),"x1",IF(AND(C91="pv",E91='LC - PV'!$R$2,D91='LC - PV'!$P$2),"x2",IF(AND(LEFT(C91,3)="eib",E91='LC - EIB'!$U$2,D91='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8056,7 +8056,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="92" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A92" s="55" t="str">
         <f>IF(AND(C92="pv",E92='UNC - PV'!$S$2,D92='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C92,3)="eib",E92='UNC - EIB'!$V$2,D92='UNC - EIB'!$T$2),"x1",IF(AND(C92="pv",E92='LC - PV'!$R$2,D92='LC - PV'!$P$2),"x2",IF(AND(LEFT(C92,3)="eib",E92='LC - EIB'!$U$2,D92='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8105,7 +8105,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="93" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A93" s="55" t="str">
         <f>IF(AND(C93="pv",E93='UNC - PV'!$S$2,D93='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C93,3)="eib",E93='UNC - EIB'!$V$2,D93='UNC - EIB'!$T$2),"x1",IF(AND(C93="pv",E93='LC - PV'!$R$2,D93='LC - PV'!$P$2),"x2",IF(AND(LEFT(C93,3)="eib",E93='LC - EIB'!$U$2,D93='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8154,7 +8154,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="94" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A94" s="55" t="str">
         <f>IF(AND(C94="pv",E94='UNC - PV'!$S$2,D94='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C94,3)="eib",E94='UNC - EIB'!$V$2,D94='UNC - EIB'!$T$2),"x1",IF(AND(C94="pv",E94='LC - PV'!$R$2,D94='LC - PV'!$P$2),"x2",IF(AND(LEFT(C94,3)="eib",E94='LC - EIB'!$U$2,D94='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8203,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="95" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A95" s="55" t="str">
         <f>IF(AND(C95="pv",E95='UNC - PV'!$S$2,D95='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C95,3)="eib",E95='UNC - EIB'!$V$2,D95='UNC - EIB'!$T$2),"x1",IF(AND(C95="pv",E95='LC - PV'!$R$2,D95='LC - PV'!$P$2),"x2",IF(AND(LEFT(C95,3)="eib",E95='LC - EIB'!$U$2,D95='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8351,7 +8351,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="98" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A98" s="55" t="str">
         <f>IF(AND(C98="pv",E98='UNC - PV'!$S$2,D98='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C98,3)="eib",E98='UNC - EIB'!$V$2,D98='UNC - EIB'!$T$2),"x1",IF(AND(C98="pv",E98='LC - PV'!$R$2,D98='LC - PV'!$P$2),"x2",IF(AND(LEFT(C98,3)="eib",E98='LC - EIB'!$U$2,D98='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8400,7 +8400,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="99" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A99" s="55" t="str">
         <f>IF(AND(C99="pv",E99='UNC - PV'!$S$2,D99='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C99,3)="eib",E99='UNC - EIB'!$V$2,D99='UNC - EIB'!$T$2),"x1",IF(AND(C99="pv",E99='LC - PV'!$R$2,D99='LC - PV'!$P$2),"x2",IF(AND(LEFT(C99,3)="eib",E99='LC - EIB'!$U$2,D99='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8450,7 +8450,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="100" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A100" s="55" t="str">
         <f>IF(AND(C100="pv",E100='UNC - PV'!$S$2,D100='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C100,3)="eib",E100='UNC - EIB'!$V$2,D100='UNC - EIB'!$T$2),"x1",IF(AND(C100="pv",E100='LC - PV'!$R$2,D100='LC - PV'!$P$2),"x2",IF(AND(LEFT(C100,3)="eib",E100='LC - EIB'!$U$2,D100='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8499,7 +8499,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="101" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A101" s="55" t="str">
         <f>IF(AND(C101="pv",E101='UNC - PV'!$S$2,D101='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C101,3)="eib",E101='UNC - EIB'!$V$2,D101='UNC - EIB'!$T$2),"x1",IF(AND(C101="pv",E101='LC - PV'!$R$2,D101='LC - PV'!$P$2),"x2",IF(AND(LEFT(C101,3)="eib",E101='LC - EIB'!$U$2,D101='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8548,7 +8548,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="102" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A102" s="55" t="str">
         <f>IF(AND(C102="pv",E102='UNC - PV'!$S$2,D102='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C102,3)="eib",E102='UNC - EIB'!$V$2,D102='UNC - EIB'!$T$2),"x1",IF(AND(C102="pv",E102='LC - PV'!$R$2,D102='LC - PV'!$P$2),"x2",IF(AND(LEFT(C102,3)="eib",E102='LC - EIB'!$U$2,D102='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8597,7 +8597,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="103" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A103" s="55" t="str">
         <f>IF(AND(C103="pv",E103='UNC - PV'!$S$2,D103='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C103,3)="eib",E103='UNC - EIB'!$V$2,D103='UNC - EIB'!$T$2),"x1",IF(AND(C103="pv",E103='LC - PV'!$R$2,D103='LC - PV'!$P$2),"x2",IF(AND(LEFT(C103,3)="eib",E103='LC - EIB'!$U$2,D103='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8646,7 +8646,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:18" s="150" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="104" spans="1:18" s="150" customFormat="1" ht="18.75" customHeight="1">
       <c r="A104" s="137" t="str">
         <f>IF(AND(C104="pv",E104='UNC - PV'!$S$2,D104='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C104,3)="eib",E104='UNC - EIB'!$V$2,D104='UNC - EIB'!$T$2),"x1",IF(AND(C104="pv",E104='LC - PV'!$R$2,D104='LC - PV'!$P$2),"x2",IF(AND(LEFT(C104,3)="eib",E104='LC - EIB'!$U$2,D104='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8695,7 +8695,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="105" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A105" s="55" t="str">
         <f>IF(AND(C105="pv",E105='UNC - PV'!$S$2,D105='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C105,3)="eib",E105='UNC - EIB'!$V$2,D105='UNC - EIB'!$T$2),"x1",IF(AND(C105="pv",E105='LC - PV'!$R$2,D105='LC - PV'!$P$2),"x2",IF(AND(LEFT(C105,3)="eib",E105='LC - EIB'!$U$2,D105='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8744,7 +8744,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="106" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A106" s="55" t="str">
         <f>IF(AND(C106="pv",E106='UNC - PV'!$S$2,D106='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C106,3)="eib",E106='UNC - EIB'!$V$2,D106='UNC - EIB'!$T$2),"x1",IF(AND(C106="pv",E106='LC - PV'!$R$2,D106='LC - PV'!$P$2),"x2",IF(AND(LEFT(C106,3)="eib",E106='LC - EIB'!$U$2,D106='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8842,7 +8842,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="108" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A108" s="55" t="str">
         <f>IF(AND(C108="pv",E108='UNC - PV'!$S$2,D108='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C108,3)="eib",E108='UNC - EIB'!$V$2,D108='UNC - EIB'!$T$2),"x1",IF(AND(C108="pv",E108='LC - PV'!$R$2,D108='LC - PV'!$P$2),"x2",IF(AND(LEFT(C108,3)="eib",E108='LC - EIB'!$U$2,D108='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -8891,7 +8891,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="109" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A109" s="55" t="str">
         <f>IF(AND(C109="pv",E109='UNC - PV'!$S$2,D109='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C109,3)="eib",E109='UNC - EIB'!$V$2,D109='UNC - EIB'!$T$2),"x1",IF(AND(C109="pv",E109='LC - PV'!$R$2,D109='LC - PV'!$P$2),"x2",IF(AND(LEFT(C109,3)="eib",E109='LC - EIB'!$U$2,D109='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9087,7 +9087,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="113" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A113" s="55" t="str">
         <f>IF(AND(C113="pv",E113='UNC - PV'!$S$2,D113='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C113,3)="eib",E113='UNC - EIB'!$V$2,D113='UNC - EIB'!$T$2),"x1",IF(AND(C113="pv",E113='LC - PV'!$R$2,D113='LC - PV'!$P$2),"x2",IF(AND(LEFT(C113,3)="eib",E113='LC - EIB'!$U$2,D113='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9136,7 +9136,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="114" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A114" s="55" t="str">
         <f>IF(AND(C114="pv",E114='UNC - PV'!$S$2,D114='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C114,3)="eib",E114='UNC - EIB'!$V$2,D114='UNC - EIB'!$T$2),"x1",IF(AND(C114="pv",E114='LC - PV'!$R$2,D114='LC - PV'!$P$2),"x2",IF(AND(LEFT(C114,3)="eib",E114='LC - EIB'!$U$2,D114='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9185,7 +9185,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="115" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A115" s="55" t="str">
         <f>IF(AND(C115="pv",E115='UNC - PV'!$S$2,D115='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C115,3)="eib",E115='UNC - EIB'!$V$2,D115='UNC - EIB'!$T$2),"x1",IF(AND(C115="pv",E115='LC - PV'!$R$2,D115='LC - PV'!$P$2),"x2",IF(AND(LEFT(C115,3)="eib",E115='LC - EIB'!$U$2,D115='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9234,7 +9234,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="116" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A116" s="55" t="str">
         <f>IF(AND(C116="pv",E116='UNC - PV'!$S$2,D116='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C116,3)="eib",E116='UNC - EIB'!$V$2,D116='UNC - EIB'!$T$2),"x1",IF(AND(C116="pv",E116='LC - PV'!$R$2,D116='LC - PV'!$P$2),"x2",IF(AND(LEFT(C116,3)="eib",E116='LC - EIB'!$U$2,D116='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9626,7 +9626,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="124" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A124" s="55" t="str">
         <f>IF(AND(C124="pv",E124='UNC - PV'!$S$2,D124='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C124,3)="eib",E124='UNC - EIB'!$V$2,D124='UNC - EIB'!$T$2),"x1",IF(AND(C124="pv",E124='LC - PV'!$R$2,D124='LC - PV'!$P$2),"x2",IF(AND(LEFT(C124,3)="eib",E124='LC - EIB'!$U$2,D124='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9676,7 +9676,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="125" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A125" s="55" t="str">
         <f>IF(AND(C125="pv",E125='UNC - PV'!$S$2,D125='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C125,3)="eib",E125='UNC - EIB'!$V$2,D125='UNC - EIB'!$T$2),"x1",IF(AND(C125="pv",E125='LC - PV'!$R$2,D125='LC - PV'!$P$2),"x2",IF(AND(LEFT(C125,3)="eib",E125='LC - EIB'!$U$2,D125='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -9958,7 +9958,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="131" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A131" s="55" t="str">
         <f>IF(AND(C131="pv",E131='UNC - PV'!$S$2,D131='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C131,3)="eib",E131='UNC - EIB'!$V$2,D131='UNC - EIB'!$T$2),"x1",IF(AND(C131="pv",E131='LC - PV'!$R$2,D131='LC - PV'!$P$2),"x2",IF(AND(LEFT(C131,3)="eib",E131='LC - EIB'!$U$2,D131='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10005,7 +10005,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="132" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A132" s="55" t="str">
         <f>IF(AND(C132="pv",E132='UNC - PV'!$S$2,D132='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C132,3)="eib",E132='UNC - EIB'!$V$2,D132='UNC - EIB'!$T$2),"x1",IF(AND(C132="pv",E132='LC - PV'!$R$2,D132='LC - PV'!$P$2),"x2",IF(AND(LEFT(C132,3)="eib",E132='LC - EIB'!$U$2,D132='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10052,7 +10052,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="133" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A133" s="55" t="str">
         <f>IF(AND(C133="pv",E133='UNC - PV'!$S$2,D133='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C133,3)="eib",E133='UNC - EIB'!$V$2,D133='UNC - EIB'!$T$2),"x1",IF(AND(C133="pv",E133='LC - PV'!$R$2,D133='LC - PV'!$P$2),"x2",IF(AND(LEFT(C133,3)="eib",E133='LC - EIB'!$U$2,D133='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10099,7 +10099,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="134" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A134" s="55" t="str">
         <f>IF(AND(C134="pv",E134='UNC - PV'!$S$2,D134='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C134,3)="eib",E134='UNC - EIB'!$V$2,D134='UNC - EIB'!$T$2),"x1",IF(AND(C134="pv",E134='LC - PV'!$R$2,D134='LC - PV'!$P$2),"x2",IF(AND(LEFT(C134,3)="eib",E134='LC - EIB'!$U$2,D134='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10146,7 +10146,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="135" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A135" s="55" t="str">
         <f>IF(AND(C135="pv",E135='UNC - PV'!$S$2,D135='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C135,3)="eib",E135='UNC - EIB'!$V$2,D135='UNC - EIB'!$T$2),"x1",IF(AND(C135="pv",E135='LC - PV'!$R$2,D135='LC - PV'!$P$2),"x2",IF(AND(LEFT(C135,3)="eib",E135='LC - EIB'!$U$2,D135='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10193,7 +10193,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="136" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A136" s="55" t="str">
         <f>IF(AND(C136="pv",E136='UNC - PV'!$S$2,D136='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C136,3)="eib",E136='UNC - EIB'!$V$2,D136='UNC - EIB'!$T$2),"x1",IF(AND(C136="pv",E136='LC - PV'!$R$2,D136='LC - PV'!$P$2),"x2",IF(AND(LEFT(C136,3)="eib",E136='LC - EIB'!$U$2,D136='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10240,7 +10240,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="137" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A137" s="55" t="str">
         <f>IF(AND(C137="pv",E137='UNC - PV'!$S$2,D137='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C137,3)="eib",E137='UNC - EIB'!$V$2,D137='UNC - EIB'!$T$2),"x1",IF(AND(C137="pv",E137='LC - PV'!$R$2,D137='LC - PV'!$P$2),"x2",IF(AND(LEFT(C137,3)="eib",E137='LC - EIB'!$U$2,D137='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10287,7 +10287,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="138" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A138" s="55" t="str">
         <f>IF(AND(C138="pv",E138='UNC - PV'!$S$2,D138='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C138,3)="eib",E138='UNC - EIB'!$V$2,D138='UNC - EIB'!$T$2),"x1",IF(AND(C138="pv",E138='LC - PV'!$R$2,D138='LC - PV'!$P$2),"x2",IF(AND(LEFT(C138,3)="eib",E138='LC - EIB'!$U$2,D138='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10334,7 +10334,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="139" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A139" s="55" t="str">
         <f>IF(AND(C139="pv",E139='UNC - PV'!$S$2,D139='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C139,3)="eib",E139='UNC - EIB'!$V$2,D139='UNC - EIB'!$T$2),"x1",IF(AND(C139="pv",E139='LC - PV'!$R$2,D139='LC - PV'!$P$2),"x2",IF(AND(LEFT(C139,3)="eib",E139='LC - EIB'!$U$2,D139='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10381,7 +10381,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="140" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A140" s="55" t="str">
         <f>IF(AND(C140="pv",E140='UNC - PV'!$S$2,D140='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C140,3)="eib",E140='UNC - EIB'!$V$2,D140='UNC - EIB'!$T$2),"x1",IF(AND(C140="pv",E140='LC - PV'!$R$2,D140='LC - PV'!$P$2),"x2",IF(AND(LEFT(C140,3)="eib",E140='LC - EIB'!$U$2,D140='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -10428,7 +10428,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="141" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A141" s="55" t="str">
         <f>IF(AND(C141="pv",E141='UNC - PV'!$S$2,D141='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C141,3)="eib",E141='UNC - EIB'!$V$2,D141='UNC - EIB'!$T$2),"x1",IF(AND(C141="pv",E141='LC - PV'!$R$2,D141='LC - PV'!$P$2),"x2",IF(AND(LEFT(C141,3)="eib",E141='LC - EIB'!$U$2,D141='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13061,7 +13061,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="197" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A197" s="55" t="str">
         <f>IF(AND(C197="pv",E197='UNC - PV'!$S$2,D197='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C197,3)="eib",E197='UNC - EIB'!$V$2,D197='UNC - EIB'!$T$2),"x1",IF(AND(C197="pv",E197='LC - PV'!$R$2,D197='LC - PV'!$P$2),"x2",IF(AND(LEFT(C197,3)="eib",E197='LC - EIB'!$U$2,D197='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -13108,7 +13108,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="198" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A198" s="55" t="str">
         <f>IF(AND(C198="pv",E198='UNC - PV'!$S$2,D198='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C198,3)="eib",E198='UNC - EIB'!$V$2,D198='UNC - EIB'!$T$2),"x1",IF(AND(C198="pv",E198='LC - PV'!$R$2,D198='LC - PV'!$P$2),"x2",IF(AND(LEFT(C198,3)="eib",E198='LC - EIB'!$U$2,D198='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14233,7 +14233,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="222" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A222" s="55" t="str">
         <f>IF(AND(C222="pv",E222='UNC - PV'!$S$2,D222='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C222,3)="eib",E222='UNC - EIB'!$V$2,D222='UNC - EIB'!$T$2),"x1",IF(AND(C222="pv",E222='LC - PV'!$R$2,D222='LC - PV'!$P$2),"x2",IF(AND(LEFT(C222,3)="eib",E222='LC - EIB'!$U$2,D222='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14280,7 +14280,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="223" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A223" s="55" t="str">
         <f>IF(AND(C223="pv",E223='UNC - PV'!$S$2,D223='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C223,3)="eib",E223='UNC - EIB'!$V$2,D223='UNC - EIB'!$T$2),"x1",IF(AND(C223="pv",E223='LC - PV'!$R$2,D223='LC - PV'!$P$2),"x2",IF(AND(LEFT(C223,3)="eib",E223='LC - EIB'!$U$2,D223='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14656,7 +14656,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="231" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A231" s="55" t="str">
         <f>IF(AND(C231="pv",E231='UNC - PV'!$S$2,D231='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C231,3)="eib",E231='UNC - EIB'!$V$2,D231='UNC - EIB'!$T$2),"x1",IF(AND(C231="pv",E231='LC - PV'!$R$2,D231='LC - PV'!$P$2),"x2",IF(AND(LEFT(C231,3)="eib",E231='LC - EIB'!$U$2,D231='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -14703,7 +14703,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="232" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A232" s="55" t="str">
         <f>IF(AND(C232="pv",E232='UNC - PV'!$S$2,D232='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C232,3)="eib",E232='UNC - EIB'!$V$2,D232='UNC - EIB'!$T$2),"x1",IF(AND(C232="pv",E232='LC - PV'!$R$2,D232='LC - PV'!$P$2),"x2",IF(AND(LEFT(C232,3)="eib",E232='LC - EIB'!$U$2,D232='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15082,7 +15082,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="240" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A240" s="55" t="str">
         <f>IF(AND(C240="pv",E240='UNC - PV'!$S$2,D240='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C240,3)="eib",E240='UNC - EIB'!$V$2,D240='UNC - EIB'!$T$2),"x1",IF(AND(C240="pv",E240='LC - PV'!$R$2,D240='LC - PV'!$P$2),"x2",IF(AND(LEFT(C240,3)="eib",E240='LC - EIB'!$U$2,D240='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -15129,7 +15129,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="241" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A241" s="55" t="str">
         <f>IF(AND(C241="pv",E241='UNC - PV'!$S$2,D241='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C241,3)="eib",E241='UNC - EIB'!$V$2,D241='UNC - EIB'!$T$2),"x1",IF(AND(C241="pv",E241='LC - PV'!$R$2,D241='LC - PV'!$P$2),"x2",IF(AND(LEFT(C241,3)="eib",E241='LC - EIB'!$U$2,D241='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16076,7 +16076,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="261" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A261" s="55" t="str">
         <f>IF(AND(C261="pv",E261='UNC - PV'!$S$2,D261='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C261,3)="eib",E261='UNC - EIB'!$V$2,D261='UNC - EIB'!$T$2),"x1",IF(AND(C261="pv",E261='LC - PV'!$R$2,D261='LC - PV'!$P$2),"x2",IF(AND(LEFT(C261,3)="eib",E261='LC - EIB'!$U$2,D261='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16266,7 +16266,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="265" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A265" s="55" t="str">
         <f>IF(AND(C265="pv",E265='UNC - PV'!$S$2,D265='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C265,3)="eib",E265='UNC - EIB'!$V$2,D265='UNC - EIB'!$T$2),"x1",IF(AND(C265="pv",E265='LC - PV'!$R$2,D265='LC - PV'!$P$2),"x2",IF(AND(LEFT(C265,3)="eib",E265='LC - EIB'!$U$2,D265='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16313,7 +16313,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="266" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A266" s="55" t="str">
         <f>IF(AND(C266="pv",E266='UNC - PV'!$S$2,D266='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C266,3)="eib",E266='UNC - EIB'!$V$2,D266='UNC - EIB'!$T$2),"x1",IF(AND(C266="pv",E266='LC - PV'!$R$2,D266='LC - PV'!$P$2),"x2",IF(AND(LEFT(C266,3)="eib",E266='LC - EIB'!$U$2,D266='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -16551,7 +16551,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="271" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A271" s="55" t="str">
         <f>IF(AND(C271="pv",E271='UNC - PV'!$S$2,D271='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C271,3)="eib",E271='UNC - EIB'!$V$2,D271='UNC - EIB'!$T$2),"x1",IF(AND(C271="pv",E271='LC - PV'!$R$2,D271='LC - PV'!$P$2),"x2",IF(AND(LEFT(C271,3)="eib",E271='LC - EIB'!$U$2,D271='LC - EIB'!$S$2),"x3",""))))</f>
         <v>x1</v>
@@ -18968,7 +18968,7 @@
     <row r="322" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A322" s="55" t="str">
         <f>IF(AND(C322="pv",E322='UNC - PV'!$S$2,D322='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C322,3)="eib",E322='UNC - EIB'!$V$2,D322='UNC - EIB'!$T$2),"x1",IF(AND(C322="pv",E322='LC - PV'!$R$2,D322='LC - PV'!$P$2),"x2",IF(AND(LEFT(C322,3)="eib",E322='LC - EIB'!$U$2,D322='LC - EIB'!$S$2),"x3",""))))</f>
-        <v>x</v>
+        <v/>
       </c>
       <c r="B322" s="62">
         <f t="shared" si="21"/>
@@ -19096,7 +19096,7 @@
       <c r="L324" s="65"/>
       <c r="M324" s="65"/>
       <c r="N324" s="64" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O324" s="68"/>
       <c r="P324" s="69">
@@ -19191,7 +19191,7 @@
       <c r="L326" s="65"/>
       <c r="M326" s="65"/>
       <c r="N326" s="64" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="O326" s="68"/>
       <c r="P326" s="69">
@@ -19239,7 +19239,7 @@
       <c r="L327" s="65"/>
       <c r="M327" s="65"/>
       <c r="N327" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O327" s="68"/>
       <c r="P327" s="69">
@@ -19299,57 +19299,93 @@
         <v/>
       </c>
     </row>
-    <row r="329" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="329" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A329" s="55" t="str">
         <f>IF(AND(C329="pv",E329='UNC - PV'!$S$2,D329='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C329,3)="eib",E329='UNC - EIB'!$V$2,D329='UNC - EIB'!$T$2),"x1",IF(AND(C329="pv",E329='LC - PV'!$R$2,D329='LC - PV'!$P$2),"x2",IF(AND(LEFT(C329,3)="eib",E329='LC - EIB'!$U$2,D329='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B329" s="62" t="str">
+      <c r="B329" s="62">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="C329" s="62"/>
-      <c r="D329" s="67"/>
-      <c r="E329" s="65"/>
-      <c r="F329" s="64"/>
-      <c r="G329" s="64"/>
-      <c r="H329" s="64"/>
-      <c r="I329" s="65"/>
-      <c r="J329" s="66"/>
-      <c r="K329" s="67"/>
-      <c r="L329" s="65"/>
-      <c r="M329" s="65"/>
-      <c r="N329" s="64"/>
+        <v>326</v>
+      </c>
+      <c r="C329" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D329" s="67">
+        <v>43238</v>
+      </c>
+      <c r="E329" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F329" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="G329" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="H329" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="I329" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="J329" s="93"/>
+      <c r="K329" s="94"/>
+      <c r="L329" s="92"/>
+      <c r="M329" s="92"/>
+      <c r="N329" s="91" t="s">
+        <v>359</v>
+      </c>
       <c r="O329" s="68"/>
-      <c r="P329" s="69"/>
+      <c r="P329" s="69">
+        <v>100000000</v>
+      </c>
       <c r="Q329" s="104"/>
       <c r="R329" s="131" t="str">
         <f>IF(AND(C329="pv",D329='UNC - PV'!$Q$2,LEFT(E329,1)="u",'UNC - PV'!$O$2="vnđ",TH!P329&lt;&gt;""),"p",IF(AND(C329="pv",D329='UNC - PV'!$Q$2,LEFT(E329,1)="u",'UNC - PV'!$O$2="usd",TH!O329&lt;&gt;""),"p1",IF(AND(C329="pv",D329='LC - PV'!$P$2,LEFT(E329,1)="l"),"p2",IF(AND(LEFT(C329,3)="EIB",D329='UNC - EIB'!$T$2,LEFT(E329,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P329&lt;&gt;""),"e",IF(AND(LEFT(C329,3)="EIB",D329='UNC - EIB'!$T$2,LEFT(E329,1)="U",'UNC - EIB'!$R$2="usd",TH!O329&lt;&gt;""),"e1",IF(AND(LEFT(C329,3)="EIB",D329='LC - EIB'!$S$2,LEFT(E329,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="330" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="330" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A330" s="55" t="str">
         <f>IF(AND(C330="pv",E330='UNC - PV'!$S$2,D330='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C330,3)="eib",E330='UNC - EIB'!$V$2,D330='UNC - EIB'!$T$2),"x1",IF(AND(C330="pv",E330='LC - PV'!$R$2,D330='LC - PV'!$P$2),"x2",IF(AND(LEFT(C330,3)="eib",E330='LC - EIB'!$U$2,D330='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
       </c>
-      <c r="B330" s="62" t="str">
+      <c r="B330" s="62">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="C330" s="62"/>
-      <c r="D330" s="67"/>
-      <c r="E330" s="65"/>
-      <c r="F330" s="64"/>
-      <c r="G330" s="64"/>
-      <c r="H330" s="64"/>
-      <c r="I330" s="65"/>
+        <v>327</v>
+      </c>
+      <c r="C330" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D330" s="67">
+        <v>43244</v>
+      </c>
+      <c r="E330" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F330" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G330" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="H330" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="I330" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J330" s="66"/>
       <c r="K330" s="67"/>
       <c r="L330" s="65"/>
       <c r="M330" s="65"/>
-      <c r="N330" s="64"/>
-      <c r="O330" s="68"/>
+      <c r="N330" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="O330" s="68">
+        <v>22000</v>
+      </c>
       <c r="P330" s="69"/>
       <c r="Q330" s="104"/>
       <c r="R330" s="131" t="str">
@@ -19357,36 +19393,55 @@
         <v/>
       </c>
     </row>
-    <row r="331" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="331" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A331" s="55" t="str">
         <f>IF(AND(C331="pv",E331='UNC - PV'!$S$2,D331='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C331,3)="eib",E331='UNC - EIB'!$V$2,D331='UNC - EIB'!$T$2),"x1",IF(AND(C331="pv",E331='LC - PV'!$R$2,D331='LC - PV'!$P$2),"x2",IF(AND(LEFT(C331,3)="eib",E331='LC - EIB'!$U$2,D331='LC - EIB'!$S$2),"x3",""))))</f>
-        <v/>
-      </c>
-      <c r="B331" s="62" t="str">
+        <v>x</v>
+      </c>
+      <c r="B331" s="62">
         <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="C331" s="62"/>
-      <c r="D331" s="67"/>
-      <c r="E331" s="65"/>
-      <c r="F331" s="64"/>
-      <c r="G331" s="64"/>
-      <c r="H331" s="64"/>
-      <c r="I331" s="65"/>
+        <v>328</v>
+      </c>
+      <c r="C331" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D331" s="67">
+        <v>43245</v>
+      </c>
+      <c r="E331" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F331" s="107" t="s">
+        <v>132</v>
+      </c>
+      <c r="G331" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="H331" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="I331" s="105" t="s">
+        <v>10</v>
+      </c>
       <c r="J331" s="66"/>
       <c r="K331" s="67"/>
       <c r="L331" s="65"/>
       <c r="M331" s="65"/>
-      <c r="N331" s="64"/>
+      <c r="N331" s="64" t="s">
+        <v>501</v>
+      </c>
       <c r="O331" s="68"/>
-      <c r="P331" s="69"/>
+      <c r="P331" s="69">
+        <f>69000*22770</f>
+        <v>1571130000</v>
+      </c>
       <c r="Q331" s="104"/>
       <c r="R331" s="131" t="str">
         <f>IF(AND(C331="pv",D331='UNC - PV'!$Q$2,LEFT(E331,1)="u",'UNC - PV'!$O$2="vnđ",TH!P331&lt;&gt;""),"p",IF(AND(C331="pv",D331='UNC - PV'!$Q$2,LEFT(E331,1)="u",'UNC - PV'!$O$2="usd",TH!O331&lt;&gt;""),"p1",IF(AND(C331="pv",D331='LC - PV'!$P$2,LEFT(E331,1)="l"),"p2",IF(AND(LEFT(C331,3)="EIB",D331='UNC - EIB'!$T$2,LEFT(E331,1)="u",'UNC - EIB'!$R$2="vnđ",TH!P331&lt;&gt;""),"e",IF(AND(LEFT(C331,3)="EIB",D331='UNC - EIB'!$T$2,LEFT(E331,1)="U",'UNC - EIB'!$R$2="usd",TH!O331&lt;&gt;""),"e1",IF(AND(LEFT(C331,3)="EIB",D331='LC - EIB'!$S$2,LEFT(E331,1)="l"),"e2",""))))))</f>
         <v/>
       </c>
     </row>
-    <row r="332" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="332" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A332" s="55" t="str">
         <f>IF(AND(C332="pv",E332='UNC - PV'!$S$2,D332='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C332,3)="eib",E332='UNC - EIB'!$V$2,D332='UNC - EIB'!$T$2),"x1",IF(AND(C332="pv",E332='LC - PV'!$R$2,D332='LC - PV'!$P$2),"x2",IF(AND(LEFT(C332,3)="eib",E332='LC - EIB'!$U$2,D332='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19415,7 +19470,7 @@
         <v/>
       </c>
     </row>
-    <row r="333" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="333" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A333" s="55" t="str">
         <f>IF(AND(C333="pv",E333='UNC - PV'!$S$2,D333='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C333,3)="eib",E333='UNC - EIB'!$V$2,D333='UNC - EIB'!$T$2),"x1",IF(AND(C333="pv",E333='LC - PV'!$R$2,D333='LC - PV'!$P$2),"x2",IF(AND(LEFT(C333,3)="eib",E333='LC - EIB'!$U$2,D333='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19444,7 +19499,7 @@
         <v/>
       </c>
     </row>
-    <row r="334" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="334" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A334" s="55" t="str">
         <f>IF(AND(C334="pv",E334='UNC - PV'!$S$2,D334='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C334,3)="eib",E334='UNC - EIB'!$V$2,D334='UNC - EIB'!$T$2),"x1",IF(AND(C334="pv",E334='LC - PV'!$R$2,D334='LC - PV'!$P$2),"x2",IF(AND(LEFT(C334,3)="eib",E334='LC - EIB'!$U$2,D334='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19473,7 +19528,7 @@
         <v/>
       </c>
     </row>
-    <row r="335" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="335" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A335" s="55" t="str">
         <f>IF(AND(C335="pv",E335='UNC - PV'!$S$2,D335='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C335,3)="eib",E335='UNC - EIB'!$V$2,D335='UNC - EIB'!$T$2),"x1",IF(AND(C335="pv",E335='LC - PV'!$R$2,D335='LC - PV'!$P$2),"x2",IF(AND(LEFT(C335,3)="eib",E335='LC - EIB'!$U$2,D335='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19502,7 +19557,7 @@
         <v/>
       </c>
     </row>
-    <row r="336" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="336" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A336" s="55" t="str">
         <f>IF(AND(C336="pv",E336='UNC - PV'!$S$2,D336='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C336,3)="eib",E336='UNC - EIB'!$V$2,D336='UNC - EIB'!$T$2),"x1",IF(AND(C336="pv",E336='LC - PV'!$R$2,D336='LC - PV'!$P$2),"x2",IF(AND(LEFT(C336,3)="eib",E336='LC - EIB'!$U$2,D336='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19531,7 +19586,7 @@
         <v/>
       </c>
     </row>
-    <row r="337" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="337" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A337" s="55" t="str">
         <f>IF(AND(C337="pv",E337='UNC - PV'!$S$2,D337='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C337,3)="eib",E337='UNC - EIB'!$V$2,D337='UNC - EIB'!$T$2),"x1",IF(AND(C337="pv",E337='LC - PV'!$R$2,D337='LC - PV'!$P$2),"x2",IF(AND(LEFT(C337,3)="eib",E337='LC - EIB'!$U$2,D337='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19560,7 +19615,7 @@
         <v/>
       </c>
     </row>
-    <row r="338" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="338" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A338" s="55" t="str">
         <f>IF(AND(C338="pv",E338='UNC - PV'!$S$2,D338='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C338,3)="eib",E338='UNC - EIB'!$V$2,D338='UNC - EIB'!$T$2),"x1",IF(AND(C338="pv",E338='LC - PV'!$R$2,D338='LC - PV'!$P$2),"x2",IF(AND(LEFT(C338,3)="eib",E338='LC - EIB'!$U$2,D338='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19589,7 +19644,7 @@
         <v/>
       </c>
     </row>
-    <row r="339" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="339" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A339" s="55" t="str">
         <f>IF(AND(C339="pv",E339='UNC - PV'!$S$2,D339='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C339,3)="eib",E339='UNC - EIB'!$V$2,D339='UNC - EIB'!$T$2),"x1",IF(AND(C339="pv",E339='LC - PV'!$R$2,D339='LC - PV'!$P$2),"x2",IF(AND(LEFT(C339,3)="eib",E339='LC - EIB'!$U$2,D339='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19618,7 +19673,7 @@
         <v/>
       </c>
     </row>
-    <row r="340" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="340" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A340" s="55" t="str">
         <f>IF(AND(C340="pv",E340='UNC - PV'!$S$2,D340='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C340,3)="eib",E340='UNC - EIB'!$V$2,D340='UNC - EIB'!$T$2),"x1",IF(AND(C340="pv",E340='LC - PV'!$R$2,D340='LC - PV'!$P$2),"x2",IF(AND(LEFT(C340,3)="eib",E340='LC - EIB'!$U$2,D340='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19647,7 +19702,7 @@
         <v/>
       </c>
     </row>
-    <row r="341" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="341" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A341" s="55" t="str">
         <f>IF(AND(C341="pv",E341='UNC - PV'!$S$2,D341='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C341,3)="eib",E341='UNC - EIB'!$V$2,D341='UNC - EIB'!$T$2),"x1",IF(AND(C341="pv",E341='LC - PV'!$R$2,D341='LC - PV'!$P$2),"x2",IF(AND(LEFT(C341,3)="eib",E341='LC - EIB'!$U$2,D341='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19676,7 +19731,7 @@
         <v/>
       </c>
     </row>
-    <row r="342" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="342" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A342" s="55" t="str">
         <f>IF(AND(C342="pv",E342='UNC - PV'!$S$2,D342='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C342,3)="eib",E342='UNC - EIB'!$V$2,D342='UNC - EIB'!$T$2),"x1",IF(AND(C342="pv",E342='LC - PV'!$R$2,D342='LC - PV'!$P$2),"x2",IF(AND(LEFT(C342,3)="eib",E342='LC - EIB'!$U$2,D342='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19705,7 +19760,7 @@
         <v/>
       </c>
     </row>
-    <row r="343" spans="1:18" s="57" customFormat="1" ht="18.75" hidden="1" customHeight="1">
+    <row r="343" spans="1:18" s="57" customFormat="1" ht="18.75" customHeight="1">
       <c r="A343" s="55" t="str">
         <f>IF(AND(C343="pv",E343='UNC - PV'!$S$2,D343='UNC - PV'!$Q$2),"x",IF(AND(LEFT(C343,3)="eib",E343='UNC - EIB'!$V$2,D343='UNC - EIB'!$T$2),"x1",IF(AND(C343="pv",E343='LC - PV'!$R$2,D343='LC - PV'!$P$2),"x2",IF(AND(LEFT(C343,3)="eib",E343='LC - EIB'!$U$2,D343='LC - EIB'!$S$2),"x3",""))))</f>
         <v/>
@@ -19734,15 +19789,8 @@
         <v/>
       </c>
     </row>
-    <row r="344" spans="1:18" ht="18.75" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="B3:X344">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PV"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:X344"/>
   <mergeCells count="6">
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="Q2:Q3"/>
@@ -20002,7 +20050,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20041,11 +20089,11 @@
         <v>496</v>
       </c>
       <c r="Q2" s="10">
-        <v>43213</v>
+        <v>43245</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="10.5" customHeight="1"/>
@@ -20066,7 +20114,7 @@
     <row r="7" spans="1:19" ht="22.5" customHeight="1">
       <c r="F7" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4300695000</v>
+        <v>1571130000</v>
       </c>
       <c r="G7" s="180"/>
       <c r="K7" s="1" t="str">
@@ -20081,7 +20129,7 @@
     <row r="8" spans="1:19" ht="17.25" customHeight="1">
       <c r="F8" s="1" t="str">
         <f>[1]!VND(F7,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
+        <v>Một tỷ, năm trăm bảy mươi mốt triệu, một trăm ba mươi ngàn đồng.</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
@@ -20092,7 +20140,7 @@
     <row r="10" spans="1:19" ht="21" customHeight="1">
       <c r="F10" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 57 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="25.5" customHeight="1">
@@ -20172,13 +20220,13 @@
     <row r="1" spans="1:15" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="str">
         <f>IF($O$2="vnđ","p","p1")</f>
-        <v>p1</v>
+        <v>p</v>
       </c>
       <c r="N1" s="8"/>
     </row>
     <row r="2" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="O2" s="13" t="s">
-        <v>496</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="19.5" customHeight="1"/>
@@ -20190,18 +20238,18 @@
     <row r="5" spans="1:15" ht="17.25" customHeight="1">
       <c r="E5" s="2" t="str">
         <f>IF($O$2="USD"," 1    0    1    0    0   0    2    6    8    6    1    4",IF($O$2="VNĐ"," 1    0    7    0    0    0    2    6    8    6    1    5"," 2    5    7    0    0    0    0    4    8    0    1    5"))</f>
-        <v xml:space="preserve"> 2    5    7    0    0    0    0    4    8    0    1    5</v>
+        <v xml:space="preserve"> 1    0    7    0    0    0    2    6    8    6    1    5</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
-      <c r="F6" s="181">
+      <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4300695000</v>
-      </c>
-      <c r="G6" s="181"/>
+        <v>1571130000</v>
+      </c>
+      <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
         <f>IF(OR(O2="vnđ",O2="TAMP"),"x","")</f>
         <v>x</v>
@@ -20214,7 +20262,7 @@
     <row r="7" spans="1:15" ht="17.25" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
+        <v>Một tỷ, năm trăm bảy mươi mốt triệu, một trăm ba mươi ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1">
@@ -20225,7 +20273,7 @@
     <row r="9" spans="1:15" ht="21" customHeight="1">
       <c r="F9" s="1" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 57 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="25.5" customHeight="1">
@@ -20329,7 +20377,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4300695000</v>
+        <v>1571130000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -20344,7 +20392,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
+        <v>Một tỷ, năm trăm bảy mươi mốt triệu, một trăm ba mươi ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -20355,7 +20403,7 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 57 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
       <c r="M9" s="151"/>
     </row>
@@ -20461,7 +20509,7 @@
     <row r="6" spans="1:15" ht="22.5" customHeight="1">
       <c r="F6" s="180">
         <f>IF(OR($O$2="VNĐ",$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4300695000</v>
+        <v>1571130000</v>
       </c>
       <c r="G6" s="180"/>
       <c r="K6" s="1" t="str">
@@ -20476,7 +20524,7 @@
     <row r="7" spans="1:15" ht="16.5" customHeight="1">
       <c r="F7" s="1" t="str">
         <f>[1]!VND(F6,FALSE)&amp;IF($O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
+        <v>Một tỷ, năm trăm bảy mươi mốt triệu, một trăm ba mươi ngàn đồng.</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
@@ -20487,7 +20535,7 @@
     <row r="9" spans="1:15" ht="17.25" customHeight="1">
       <c r="L9" s="151" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 57 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
       <c r="M9" s="151"/>
     </row>
@@ -20541,7 +20589,7 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="T4" sqref="T4"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20586,7 +20634,7 @@
     <row r="8" spans="1:12" ht="20.25" customHeight="1">
       <c r="F8" s="180">
         <f>IF(OR('UNC - PV'!$O$2="VNĐ",'UNC - PV'!$O$2="TAMP"),VLOOKUP("X",DS,16,0),VLOOKUP("X",DS,15,0))</f>
-        <v>4300695000</v>
+        <v>1571130000</v>
       </c>
       <c r="G8" s="180"/>
       <c r="K8" s="7" t="str">
@@ -20601,7 +20649,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1">
       <c r="F9" s="7" t="str">
         <f>[1]!VND(F8,FALSE)&amp;IF('UNC - PV'!$O$2="USD"," đô la mỹ."," đồng.")</f>
-        <v>Bốn tỷ, ba trăm triệu, sáu trăm chín mươi lăm ngàn đồng.</v>
+        <v>Một tỷ, năm trăm bảy mươi mốt triệu, một trăm ba mươi ngàn đồng.</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1">
@@ -20612,7 +20660,7 @@
     <row r="11" spans="1:12" ht="17.25" customHeight="1">
       <c r="F11" s="7" t="str">
         <f>VLOOKUP("X",DS,14,0)</f>
-        <v>Chuyển tiền theo KUNN số 52 -10206/2017/KUNN/PVN-DN.GĐ</v>
+        <v>Chuyển tiền theo KUNN số 57 -10206/2017/KUNN/PVN-DN.GĐ</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
@@ -20932,10 +20980,10 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
       <c r="M20" s="36"/>
-      <c r="N20" s="182" t="s">
+      <c r="N20" s="181" t="s">
         <v>63</v>
       </c>
-      <c r="O20" s="182"/>
+      <c r="O20" s="181"/>
       <c r="P20" s="37"/>
     </row>
     <row r="21" spans="1:16" ht="9" customHeight="1">
@@ -20949,10 +20997,10 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="183" t="s">
+      <c r="N21" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="183"/>
+      <c r="O21" s="182"/>
       <c r="P21" s="32"/>
     </row>
     <row r="22" spans="1:16">
@@ -21476,11 +21524,11 @@
         <v>115</v>
       </c>
       <c r="K17" s="82"/>
-      <c r="L17" s="187">
+      <c r="L17" s="186">
         <f>VLOOKUP("X3",DS,11,0)</f>
         <v>41051</v>
       </c>
-      <c r="M17" s="187"/>
+      <c r="M17" s="186"/>
     </row>
     <row r="18" spans="1:17" ht="8.25" customHeight="1">
       <c r="A18" s="18" t="s">
@@ -21542,11 +21590,11 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="35"/>
-      <c r="N21" s="184" t="s">
+      <c r="N21" s="183" t="s">
         <v>63</v>
       </c>
-      <c r="O21" s="185"/>
-      <c r="P21" s="185"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
       <c r="Q21" s="37"/>
     </row>
     <row r="22" spans="1:17" ht="9" customHeight="1">
@@ -21561,11 +21609,11 @@
       <c r="E22" s="20"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
-      <c r="N22" s="186" t="s">
+      <c r="N22" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="O22" s="183"/>
-      <c r="P22" s="183"/>
+      <c r="O22" s="182"/>
+      <c r="P22" s="182"/>
       <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17">
